--- a/moduls/1С.xlsx
+++ b/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\кодинг\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32230DDB-214B-45DD-80BD-ECAF6FE363AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10EDE035-037B-423C-BBDA-E1E1533019AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$G$217</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$G$226</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="731">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="760">
   <si>
     <t>SU002447</t>
   </si>
@@ -2228,6 +2228,93 @@
   </si>
   <si>
     <t xml:space="preserve"> 330  Колбаса вареная Филейская ТМ Вязанка ТС Классическая ВЕС  ПОКОМ</t>
+  </si>
+  <si>
+    <t>059  Колбаса Докторская по-стародворски  0.5 кг, ПОКОМ.</t>
+  </si>
+  <si>
+    <t>222  Колбаса Докторская стародворская, ВЕС, ВсхЗв   ПОКОМ.</t>
+  </si>
+  <si>
+    <t>234  Колбаса Нежная, п/а, ВЕС, ТМ КОЛБАСНЫЙ СТАНДАРТ ВсхЗв ПОКОМ.</t>
+  </si>
+  <si>
+    <t>211  Колбаса Баварушка с душистым чесноком, ВЕС, фиброуз в/у, ТМ Стародворье ПОКОМ.</t>
+  </si>
+  <si>
+    <t>244  Колбаса Сервелат Кремлевский, ВЕС. ПОКОМ.</t>
+  </si>
+  <si>
+    <t>253  Сосиски Ганноверские   ПОКОМ.</t>
+  </si>
+  <si>
+    <t>Ветчина Вязанка с индейкой вес.</t>
+  </si>
+  <si>
+    <t>213  Колбаса в/к Сервелат Рижский, ВЕС.,ТМ КОЛБАСНЫЙ СТАНДАРТ ПОКОМ.</t>
+  </si>
+  <si>
+    <t>222  Колбаса Докторская стародворская, ВЕС, ВсхЗв   ПОКОМ</t>
+  </si>
+  <si>
+    <t>244  Колбаса Сервелат Кремлевский, ВЕС. ПОКОМ</t>
+  </si>
+  <si>
+    <t>213  Колбаса в/к Сервелат Рижский, ВЕС.,ТМ КОЛБАСНЫЙ СТАНДАРТ ПОКОМ</t>
+  </si>
+  <si>
+    <t>234  Колбаса Нежная, п/а, ВЕС, ТМ КОЛБАСНЫЙ СТАНДАРТ ВсхЗв ПОКОМ</t>
+  </si>
+  <si>
+    <t>211  Колбаса Баварушка с душистым чесноком, ВЕС, фиброуз в/у, ТМ Стародворье ПОКОМ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 059  Колбаса Докторская по-стародворски  0.5 кг, ПОКОМ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 060  Колбаса Докторская стародворская  0,5 кг,ПОКОМ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 079  Колбаса Сервелат Кремлевский,  0.35 кг, ПОКОМ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 102  Сосиски Ганноверские, амилюкс МГС, 0.6кг, ТМ Стародворье    ПОКОМ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 231  Колбаса Молочная по-стародворски, ВЕС   ПОКОМ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 246  Колбаса Стародворская,ТС Старый двор  ПОКОМ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 251  Сосиски Баварские, ВЕС.  ПОКОМ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 260  Сосиски Сливочные по-стародворски, ВЕС.  ПОКОМ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 264  Колбаса Молочная стародворская, амифлекс, ВЕС, ТМ Стародворье  ПОКОМ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 284  Сосиски Молокуши миникушай ТМ Вязанка, 0.45кг, ПОКОМ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 311 Ветчина Запекуша с сочным окороком Вязанка ВЕС  ПОКОМ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 316  Колбаса Нежная ТМ Зареченские ВЕС  ПОКОМ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 317 Колбаса Сервелат Рижский ТМ Зареченские, ВЕС  ПОКОМ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 321  Колбаса Сервелат Пражский ТМ Зареченские, ВЕС ПОКОМ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 331  Сосиски Сочинки по-баварски ВЕС ТМ Стародворье  Поком</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 333  Колбаса Балыковая, Вязанка фиброуз в/у, ВЕС ПОКОМ</t>
   </si>
 </sst>
 </file>
@@ -2649,15 +2736,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G217"/>
+  <dimension ref="A1:G226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.140625" style="12" customWidth="1"/>
+    <col min="1" max="1" width="63.42578125" style="12" customWidth="1"/>
     <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
@@ -2725,7 +2812,9 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
+      <c r="A4" s="11" t="s">
+        <v>689</v>
+      </c>
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
@@ -3323,7 +3412,9 @@
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="11"/>
+      <c r="A34" s="11" t="s">
+        <v>737</v>
+      </c>
       <c r="B34" s="3" t="s">
         <v>96</v>
       </c>
@@ -3342,7 +3433,9 @@
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="11"/>
+      <c r="A35" s="11" t="s">
+        <v>754</v>
+      </c>
       <c r="B35" s="3" t="s">
         <v>98</v>
       </c>
@@ -3437,7 +3530,9 @@
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="11"/>
+      <c r="A40" s="11" t="s">
+        <v>759</v>
+      </c>
       <c r="B40" s="3" t="s">
         <v>114</v>
       </c>
@@ -3692,7 +3787,9 @@
       <c r="G52" s="1"/>
     </row>
     <row r="53" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="11"/>
+      <c r="A53" s="11" t="s">
+        <v>753</v>
+      </c>
       <c r="B53" s="3" t="s">
         <v>149</v>
       </c>
@@ -3985,7 +4082,9 @@
       <c r="G67" s="1"/>
     </row>
     <row r="68" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="11"/>
+      <c r="A68" s="11" t="s">
+        <v>732</v>
+      </c>
       <c r="B68" s="3" t="s">
         <v>197</v>
       </c>
@@ -4004,15 +4103,17 @@
       <c r="G68" s="1"/>
     </row>
     <row r="69" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A69" s="11"/>
+      <c r="A69" s="11" t="s">
+        <v>739</v>
+      </c>
       <c r="B69" s="3" t="s">
         <v>197</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D69" s="4">
-        <v>4301011308</v>
+        <v>4301011362</v>
       </c>
       <c r="E69" s="3">
         <v>4607091386004</v>
@@ -4025,51 +4126,53 @@
     <row r="70" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
       <c r="B70" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D70" s="4">
-        <v>4301011347</v>
+        <v>4301011308</v>
       </c>
       <c r="E70" s="3">
-        <v>4607091386073</v>
+        <v>4607091386004</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G70" s="1"/>
     </row>
     <row r="71" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
       <c r="B71" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D71" s="4">
-        <v>4301010928</v>
+        <v>4301011347</v>
       </c>
       <c r="E71" s="3">
-        <v>4607091387322</v>
+        <v>4607091386073</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G71" s="1"/>
     </row>
     <row r="72" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A72" s="11"/>
+      <c r="A72" s="11" t="s">
+        <v>752</v>
+      </c>
       <c r="B72" s="3" t="s">
         <v>202</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D72" s="4">
-        <v>4301011395</v>
+        <v>4301010928</v>
       </c>
       <c r="E72" s="3">
         <v>4607091387322</v>
@@ -4082,2856 +4185,3075 @@
     <row r="73" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A73" s="11"/>
       <c r="B73" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D73" s="4">
-        <v>4301011311</v>
+        <v>4301011395</v>
       </c>
       <c r="E73" s="3">
-        <v>4607091387377</v>
+        <v>4607091387322</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G73" s="1"/>
     </row>
     <row r="74" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A74" s="11"/>
       <c r="B74" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D74" s="4">
+        <v>4301011311</v>
+      </c>
+      <c r="E74" s="3">
+        <v>4607091387377</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="G74" s="1"/>
+    </row>
+    <row r="75" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A75" s="11" t="s">
+        <v>749</v>
+      </c>
+      <c r="B75" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C75" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="D74" s="4">
+      <c r="D75" s="4">
         <v>4301010945</v>
       </c>
-      <c r="E74" s="3">
+      <c r="E75" s="3">
         <v>4607091387353</v>
       </c>
-      <c r="F74" s="5" t="s">
+      <c r="F75" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="G74" s="1"/>
-    </row>
-    <row r="75" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A75" s="11"/>
-      <c r="B75" s="3" t="s">
+      <c r="G75" s="1"/>
+    </row>
+    <row r="76" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A76" s="11" t="s">
+        <v>745</v>
+      </c>
+      <c r="B76" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C76" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="D75" s="4">
+      <c r="D76" s="4">
         <v>4301011328</v>
       </c>
-      <c r="E75" s="3">
+      <c r="E76" s="3">
         <v>4607091386011</v>
       </c>
-      <c r="F75" s="5" t="s">
+      <c r="F76" s="5" t="s">
         <v>227</v>
-      </c>
-      <c r="G75" s="1"/>
-    </row>
-    <row r="76" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A76" s="11"/>
-      <c r="B76" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="D76" s="4">
-        <v>4301011329</v>
-      </c>
-      <c r="E76" s="3">
-        <v>4607091387308</v>
-      </c>
-      <c r="F76" s="5" t="s">
-        <v>228</v>
       </c>
       <c r="G76" s="1"/>
     </row>
     <row r="77" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A77" s="11"/>
       <c r="B77" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D77" s="4">
-        <v>4301011049</v>
+        <v>4301011329</v>
       </c>
       <c r="E77" s="3">
-        <v>4607091387339</v>
+        <v>4607091387308</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G77" s="1"/>
     </row>
     <row r="78" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A78" s="11"/>
       <c r="B78" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D78" s="4">
+        <v>4301011049</v>
+      </c>
+      <c r="E78" s="3">
+        <v>4607091387339</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="G78" s="1"/>
+    </row>
+    <row r="79" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A79" s="11"/>
+      <c r="B79" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C79" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="D78" s="4">
+      <c r="D79" s="4">
         <v>4301011454</v>
       </c>
-      <c r="E78" s="3">
+      <c r="E79" s="3">
         <v>4680115881396</v>
       </c>
-      <c r="F78" s="5" t="s">
+      <c r="F79" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="G78" s="1"/>
-    </row>
-    <row r="79" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A79" s="11" t="s">
+      <c r="G79" s="1"/>
+    </row>
+    <row r="80" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A80" s="11" t="s">
         <v>705</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B80" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C80" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="D79" s="4">
+      <c r="D80" s="4">
         <v>4301010944</v>
       </c>
-      <c r="E79" s="3">
+      <c r="E80" s="3">
         <v>4607091387346</v>
       </c>
-      <c r="F79" s="5" t="s">
+      <c r="F80" s="5" t="s">
         <v>231</v>
-      </c>
-      <c r="G79" s="1"/>
-    </row>
-    <row r="80" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A80" s="11"/>
-      <c r="B80" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="D80" s="4">
-        <v>4301011353</v>
-      </c>
-      <c r="E80" s="3">
-        <v>4607091389807</v>
-      </c>
-      <c r="F80" s="5" t="s">
-        <v>232</v>
       </c>
       <c r="G80" s="1"/>
     </row>
     <row r="81" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A81" s="11"/>
       <c r="B81" s="3" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="D81" s="4">
-        <v>4301020220</v>
+        <v>4301011353</v>
       </c>
       <c r="E81" s="3">
-        <v>4680115880764</v>
+        <v>4607091389807</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G81" s="1"/>
     </row>
     <row r="82" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A82" s="11"/>
       <c r="B82" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D82" s="4">
-        <v>4301031224</v>
+        <v>4301020220</v>
       </c>
       <c r="E82" s="3">
-        <v>4680115882683</v>
+        <v>4680115880764</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="G82" s="1"/>
     </row>
     <row r="83" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A83" s="11"/>
       <c r="B83" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D83" s="4">
-        <v>4301031230</v>
+        <v>4301031224</v>
       </c>
       <c r="E83" s="3">
-        <v>4680115882690</v>
+        <v>4680115882683</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G83" s="1"/>
     </row>
     <row r="84" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A84" s="11"/>
       <c r="B84" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D84" s="4">
+        <v>4301031230</v>
+      </c>
+      <c r="E84" s="3">
+        <v>4680115882690</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="G84" s="1"/>
+    </row>
+    <row r="85" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A85" s="11" t="s">
+        <v>658</v>
+      </c>
+      <c r="B85" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C85" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="D84" s="4">
+      <c r="D85" s="4">
         <v>4301030878</v>
       </c>
-      <c r="E84" s="3">
+      <c r="E85" s="3">
         <v>4607091387193</v>
       </c>
-      <c r="F84" s="5" t="s">
+      <c r="F85" s="5" t="s">
         <v>266</v>
-      </c>
-      <c r="G84" s="1"/>
-    </row>
-    <row r="85" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A85" s="11"/>
-      <c r="B85" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="D85" s="4">
-        <v>4301031153</v>
-      </c>
-      <c r="E85" s="3">
-        <v>4607091387230</v>
-      </c>
-      <c r="F85" s="5" t="s">
-        <v>267</v>
       </c>
       <c r="G85" s="1"/>
     </row>
     <row r="86" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
+        <v>735</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D86" s="4">
+        <v>4301031153</v>
+      </c>
+      <c r="E86" s="3">
+        <v>4607091387230</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="G86" s="1"/>
+    </row>
+    <row r="87" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A87" s="11" t="s">
+        <v>740</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D87" s="4">
+        <v>4301031153</v>
+      </c>
+      <c r="E87" s="3">
+        <v>4607091387230</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="G87" s="1"/>
+    </row>
+    <row r="88" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A88" s="11" t="s">
         <v>675</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B88" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="C88" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="D86" s="4">
+      <c r="D88" s="4">
         <v>4301031191</v>
       </c>
-      <c r="E86" s="3">
+      <c r="E88" s="3">
         <v>4680115880993</v>
       </c>
-      <c r="F86" s="5" t="s">
+      <c r="F88" s="5" t="s">
         <v>268</v>
-      </c>
-      <c r="G86" s="1"/>
-    </row>
-    <row r="87" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A87" s="11"/>
-      <c r="B87" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="D87" s="4">
-        <v>4301031204</v>
-      </c>
-      <c r="E87" s="3">
-        <v>4680115881761</v>
-      </c>
-      <c r="F87" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="G87" s="1"/>
-    </row>
-    <row r="88" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A88" s="11"/>
-      <c r="B88" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="D88" s="4">
-        <v>4301031201</v>
-      </c>
-      <c r="E88" s="3">
-        <v>4680115881563</v>
-      </c>
-      <c r="F88" s="5" t="s">
-        <v>270</v>
       </c>
       <c r="G88" s="1"/>
     </row>
     <row r="89" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A89" s="11"/>
       <c r="B89" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="D89" s="4">
+        <v>4301031204</v>
+      </c>
+      <c r="E89" s="3">
+        <v>4680115881761</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="G89" s="1"/>
+    </row>
+    <row r="90" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A90" s="11"/>
+      <c r="B90" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D90" s="4">
+        <v>4301031201</v>
+      </c>
+      <c r="E90" s="3">
+        <v>4680115881563</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="G90" s="1"/>
+    </row>
+    <row r="91" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A91" s="11" t="s">
+        <v>746</v>
+      </c>
+      <c r="B91" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="C91" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="D89" s="4">
+      <c r="D91" s="4">
         <v>4301031152</v>
       </c>
-      <c r="E89" s="3">
+      <c r="E91" s="3">
         <v>4607091387285</v>
       </c>
-      <c r="F89" s="5" t="s">
+      <c r="F91" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="G89" s="1"/>
-    </row>
-    <row r="90" spans="1:7" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="11" t="s">
+      <c r="G91" s="1"/>
+    </row>
+    <row r="92" spans="1:7" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A92" s="11" t="s">
         <v>696</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B92" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="C92" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="D90" s="4">
+      <c r="D92" s="4">
         <v>4301031199</v>
       </c>
-      <c r="E90" s="3">
+      <c r="E92" s="3">
         <v>4680115880986</v>
       </c>
-      <c r="F90" s="5" t="s">
+      <c r="F92" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="G90" s="1"/>
-    </row>
-    <row r="91" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A91" s="11"/>
-      <c r="B91" s="3" t="s">
+      <c r="G92" s="1"/>
+    </row>
+    <row r="93" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A93" s="11"/>
+      <c r="B93" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="C93" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="D91" s="4">
+      <c r="D93" s="4">
         <v>4301031190</v>
       </c>
-      <c r="E91" s="3">
+      <c r="E93" s="3">
         <v>4680115880207</v>
       </c>
-      <c r="F91" s="5" t="s">
+      <c r="F93" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="G91" s="1"/>
-    </row>
-    <row r="92" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="11"/>
-      <c r="B92" s="3" t="s">
+      <c r="G93" s="1"/>
+    </row>
+    <row r="94" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A94" s="11"/>
+      <c r="B94" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="C94" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="D92" s="4">
+      <c r="D94" s="4">
         <v>4301031158</v>
       </c>
-      <c r="E92" s="3">
+      <c r="E94" s="3">
         <v>4680115880191</v>
       </c>
-      <c r="F92" s="5" t="s">
+      <c r="F94" s="5" t="s">
         <v>274</v>
-      </c>
-      <c r="G92" s="1"/>
-    </row>
-    <row r="93" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A93" s="11" t="s">
-        <v>719</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="D93" s="4">
-        <v>4301031151</v>
-      </c>
-      <c r="E93" s="3">
-        <v>4607091389845</v>
-      </c>
-      <c r="F93" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="G93" s="1"/>
-    </row>
-    <row r="94" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A94" s="11" t="s">
-        <v>721</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="D94" s="4">
-        <v>4301031205</v>
-      </c>
-      <c r="E94" s="3">
-        <v>4680115881785</v>
-      </c>
-      <c r="F94" s="5" t="s">
-        <v>276</v>
       </c>
       <c r="G94" s="1"/>
     </row>
     <row r="95" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A95" s="11" t="s">
+        <v>719</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D95" s="4">
+        <v>4301031151</v>
+      </c>
+      <c r="E95" s="3">
+        <v>4607091389845</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="G95" s="1"/>
+    </row>
+    <row r="96" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A96" s="11" t="s">
+        <v>721</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D96" s="4">
+        <v>4301031205</v>
+      </c>
+      <c r="E96" s="3">
+        <v>4680115881785</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="G96" s="1"/>
+    </row>
+    <row r="97" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A97" s="11" t="s">
         <v>722</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B97" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="C97" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="D95" s="4">
+      <c r="D97" s="4">
         <v>4301031202</v>
       </c>
-      <c r="E95" s="3">
+      <c r="E97" s="3">
         <v>4680115881679</v>
       </c>
-      <c r="F95" s="5" t="s">
+      <c r="F97" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="G95" s="1"/>
-    </row>
-    <row r="96" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A96" s="11"/>
-      <c r="B96" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="D96" s="4">
-        <v>4301051408</v>
-      </c>
-      <c r="E96" s="3">
-        <v>4680115881594</v>
-      </c>
-      <c r="F96" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="G96" s="6"/>
-    </row>
-    <row r="97" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A97" s="11"/>
-      <c r="B97" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="D97" s="4">
-        <v>4301051407</v>
-      </c>
-      <c r="E97" s="3">
-        <v>4680115882195</v>
-      </c>
-      <c r="F97" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="G97" s="6"/>
+      <c r="G97" s="1"/>
     </row>
     <row r="98" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A98" s="11"/>
       <c r="B98" s="3" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D98" s="4">
-        <v>4301051411</v>
+        <v>4301051408</v>
       </c>
       <c r="E98" s="3">
-        <v>4680115881617</v>
+        <v>4680115881594</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G98" s="6"/>
     </row>
     <row r="99" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A99" s="11"/>
       <c r="B99" s="3" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D99" s="4">
-        <v>4301051410</v>
+        <v>4301051407</v>
       </c>
       <c r="E99" s="3">
-        <v>4680115882164</v>
+        <v>4680115882195</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G99" s="6"/>
     </row>
     <row r="100" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A100" s="11"/>
       <c r="B100" s="3" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D100" s="4">
-        <v>4301051409</v>
+        <v>4301051411</v>
       </c>
       <c r="E100" s="3">
-        <v>4680115881556</v>
+        <v>4680115881617</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G100" s="6"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A101" s="11"/>
       <c r="B101" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="D101" s="4">
+        <v>4301051410</v>
+      </c>
+      <c r="E101" s="3">
+        <v>4680115882164</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="G101" s="6"/>
+    </row>
+    <row r="102" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A102" s="11" t="s">
+        <v>758</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D102" s="4">
+        <v>4301051409</v>
+      </c>
+      <c r="E102" s="3">
+        <v>4680115881556</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="G102" s="6"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="11" t="s">
+        <v>736</v>
+      </c>
+      <c r="B103" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="C101" s="3" t="s">
+      <c r="C103" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="D101" s="4">
+      <c r="D103" s="4">
         <v>4301051101</v>
       </c>
-      <c r="E101" s="3">
+      <c r="E103" s="3">
         <v>4607091387766</v>
       </c>
-      <c r="F101" s="5" t="s">
+      <c r="F103" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="G101" s="6"/>
-    </row>
-    <row r="102" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A102" s="11"/>
-      <c r="B102" s="3" t="s">
+      <c r="G103" s="6"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="11" t="s">
+        <v>663</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="D104" s="4">
+        <v>4301051101</v>
+      </c>
+      <c r="E104" s="3">
+        <v>4607091387766</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="G104" s="6"/>
+    </row>
+    <row r="105" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A105" s="11"/>
+      <c r="B105" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="C102" s="3" t="s">
+      <c r="C105" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="D102" s="4">
+      <c r="D105" s="4">
         <v>4301051116</v>
       </c>
-      <c r="E102" s="3">
+      <c r="E105" s="3">
         <v>4607091387957</v>
       </c>
-      <c r="F102" s="5" t="s">
+      <c r="F105" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="G102" s="6"/>
-    </row>
-    <row r="103" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A103" s="11"/>
-      <c r="B103" s="3" t="s">
+      <c r="G105" s="6"/>
+    </row>
+    <row r="106" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A106" s="11" t="s">
+        <v>751</v>
+      </c>
+      <c r="B106" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="C103" s="3" t="s">
+      <c r="C106" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="D103" s="4">
+      <c r="D106" s="4">
         <v>4301051115</v>
       </c>
-      <c r="E103" s="3">
+      <c r="E106" s="3">
         <v>4607091387964</v>
       </c>
-      <c r="F103" s="5" t="s">
+      <c r="F106" s="5" t="s">
         <v>330</v>
-      </c>
-      <c r="G103" s="6"/>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="11"/>
-      <c r="B104" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="D104" s="4">
-        <v>4301051470</v>
-      </c>
-      <c r="E104" s="3">
-        <v>4680115880573</v>
-      </c>
-      <c r="F104" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="G104" s="6" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="11" t="s">
-        <v>729</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="D105" s="4">
-        <v>4301051370</v>
-      </c>
-      <c r="E105" s="3">
-        <v>4680115880573</v>
-      </c>
-      <c r="F105" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="G105" s="6"/>
-    </row>
-    <row r="106" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A106" s="11"/>
-      <c r="B106" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="D106" s="4">
-        <v>4301051433</v>
-      </c>
-      <c r="E106" s="3">
-        <v>4680115881587</v>
-      </c>
-      <c r="F106" s="5" t="s">
-        <v>333</v>
       </c>
       <c r="G106" s="6"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="11"/>
       <c r="B107" s="3" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="D107" s="4">
-        <v>4301051380</v>
+        <v>4301051470</v>
       </c>
       <c r="E107" s="3">
-        <v>4680115880962</v>
+        <v>4680115880573</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="G107" s="6"/>
-    </row>
-    <row r="108" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+      <c r="G107" s="6" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="11" t="s">
-        <v>697</v>
+        <v>729</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="D108" s="4">
-        <v>4301051377</v>
+        <v>4301051370</v>
       </c>
       <c r="E108" s="3">
-        <v>4680115881228</v>
+        <v>4680115880573</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="G108" s="6"/>
     </row>
     <row r="109" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A109" s="11"/>
       <c r="B109" s="3" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="D109" s="4">
-        <v>4301051432</v>
+        <v>4301051433</v>
       </c>
       <c r="E109" s="3">
-        <v>4680115881037</v>
+        <v>4680115881587</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G109" s="6"/>
     </row>
-    <row r="110" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A110" s="11" t="s">
-        <v>698</v>
-      </c>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="11"/>
       <c r="B110" s="3" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="D110" s="4">
-        <v>4301051384</v>
+        <v>4301051380</v>
       </c>
       <c r="E110" s="3">
-        <v>4680115881211</v>
+        <v>4680115880962</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G110" s="6"/>
     </row>
     <row r="111" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A111" s="11"/>
+      <c r="A111" s="11" t="s">
+        <v>697</v>
+      </c>
       <c r="B111" s="3" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="D111" s="4">
-        <v>4301051378</v>
+        <v>4301051377</v>
       </c>
       <c r="E111" s="3">
-        <v>4680115881020</v>
+        <v>4680115881228</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G111" s="6"/>
     </row>
     <row r="112" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A112" s="11"/>
       <c r="B112" s="3" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="D112" s="4">
-        <v>4301051134</v>
+        <v>4301051432</v>
       </c>
       <c r="E112" s="3">
-        <v>4607091381672</v>
+        <v>4680115881037</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="G112" s="6"/>
     </row>
     <row r="113" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A113" s="11"/>
+      <c r="A113" s="11" t="s">
+        <v>698</v>
+      </c>
       <c r="B113" s="3" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="D113" s="4">
-        <v>4301051130</v>
+        <v>4301051384</v>
       </c>
       <c r="E113" s="3">
-        <v>4607091387537</v>
+        <v>4680115881211</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G113" s="6"/>
     </row>
     <row r="114" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A114" s="11"/>
       <c r="B114" s="3" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="D114" s="4">
-        <v>4301051132</v>
+        <v>4301051378</v>
       </c>
       <c r="E114" s="3">
-        <v>4607091387513</v>
+        <v>4680115881020</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="G114" s="6"/>
     </row>
     <row r="115" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A115" s="11" t="s">
-        <v>706</v>
+        <v>747</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="D115" s="4">
-        <v>4301051468</v>
+        <v>4301051134</v>
       </c>
       <c r="E115" s="3">
-        <v>4680115880092</v>
+        <v>4607091381672</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="G115" s="6" t="s">
-        <v>346</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="G115" s="6"/>
     </row>
     <row r="116" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A116" s="11" t="s">
-        <v>695</v>
-      </c>
+      <c r="A116" s="11"/>
       <c r="B116" s="3" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D116" s="4">
-        <v>4301051371</v>
+        <v>4301051130</v>
       </c>
       <c r="E116" s="3">
-        <v>4680115880092</v>
+        <v>4607091387537</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="G116" s="6"/>
     </row>
     <row r="117" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A117" s="11"/>
       <c r="B117" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D117" s="4">
+        <v>4301051132</v>
+      </c>
+      <c r="E117" s="3">
+        <v>4607091387513</v>
+      </c>
+      <c r="F117" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="G117" s="6"/>
+    </row>
+    <row r="118" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A118" s="11" t="s">
+        <v>706</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="D118" s="4">
+        <v>4301051468</v>
+      </c>
+      <c r="E118" s="3">
+        <v>4680115880092</v>
+      </c>
+      <c r="F118" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="G118" s="6" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A119" s="11" t="s">
+        <v>695</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="D119" s="4">
+        <v>4301051371</v>
+      </c>
+      <c r="E119" s="3">
+        <v>4680115880092</v>
+      </c>
+      <c r="F119" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="G119" s="6"/>
+    </row>
+    <row r="120" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A120" s="11"/>
+      <c r="B120" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="C117" s="3" t="s">
+      <c r="C120" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="D117" s="4">
+      <c r="D120" s="4">
         <v>4301051469</v>
       </c>
-      <c r="E117" s="3">
+      <c r="E120" s="3">
         <v>4680115880221</v>
       </c>
-      <c r="F117" s="5" t="s">
+      <c r="F120" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="G117" s="6" t="s">
+      <c r="G120" s="6" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A118" s="11"/>
-      <c r="B118" s="3" t="s">
+    <row r="121" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A121" s="11"/>
+      <c r="B121" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="C118" s="3" t="s">
+      <c r="C121" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="D118" s="4">
+      <c r="D121" s="4">
         <v>4301051372</v>
       </c>
-      <c r="E118" s="3">
+      <c r="E121" s="3">
         <v>4680115880221</v>
       </c>
-      <c r="F118" s="5" t="s">
+      <c r="F121" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="G118" s="6"/>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="11" t="s">
-        <v>723</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="D119" s="4">
-        <v>4301051326</v>
-      </c>
-      <c r="E119" s="3">
-        <v>4680115880504</v>
-      </c>
-      <c r="F119" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="G119" s="6"/>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="11" t="s">
-        <v>660</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="D120" s="4">
-        <v>4301060326</v>
-      </c>
-      <c r="E120" s="3">
-        <v>4607091380880</v>
-      </c>
-      <c r="F120" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="G120" s="1"/>
-    </row>
-    <row r="121" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A121" s="11" t="s">
-        <v>662</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="D121" s="4">
-        <v>4301060308</v>
-      </c>
-      <c r="E121" s="3">
-        <v>4607091384482</v>
-      </c>
-      <c r="F121" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="G121" s="1"/>
+      <c r="G121" s="6"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="11" t="s">
+        <v>723</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="D122" s="4">
+        <v>4301051326</v>
+      </c>
+      <c r="E122" s="3">
+        <v>4680115880504</v>
+      </c>
+      <c r="F122" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="G122" s="6"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="11" t="s">
+        <v>660</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="D123" s="4">
+        <v>4301060326</v>
+      </c>
+      <c r="E123" s="3">
+        <v>4607091380880</v>
+      </c>
+      <c r="F123" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="G123" s="1"/>
+    </row>
+    <row r="124" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A124" s="11" t="s">
+        <v>662</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="D124" s="4">
+        <v>4301060308</v>
+      </c>
+      <c r="E124" s="3">
+        <v>4607091384482</v>
+      </c>
+      <c r="F124" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="G124" s="1"/>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="11" t="s">
         <v>668</v>
       </c>
-      <c r="B122" s="3" t="s">
+      <c r="B125" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="C122" s="3" t="s">
+      <c r="C125" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="D122" s="4">
+      <c r="D125" s="4">
         <v>4301060325</v>
       </c>
-      <c r="E122" s="3">
+      <c r="E125" s="3">
         <v>4607091380897</v>
       </c>
-      <c r="F122" s="5" t="s">
+      <c r="F125" s="5" t="s">
         <v>361</v>
-      </c>
-      <c r="G122" s="1"/>
-    </row>
-    <row r="123" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A123" s="11"/>
-      <c r="B123" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="D123" s="4">
-        <v>4301060338</v>
-      </c>
-      <c r="E123" s="3">
-        <v>4680115880801</v>
-      </c>
-      <c r="F123" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="G123" s="1"/>
-    </row>
-    <row r="124" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A124" s="11"/>
-      <c r="B124" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="D124" s="4">
-        <v>4301060339</v>
-      </c>
-      <c r="E124" s="3">
-        <v>4680115880818</v>
-      </c>
-      <c r="F124" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="G124" s="1"/>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="11"/>
-      <c r="B125" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="D125" s="4">
-        <v>4301060337</v>
-      </c>
-      <c r="E125" s="3">
-        <v>4680115880368</v>
-      </c>
-      <c r="F125" s="5" t="s">
-        <v>364</v>
       </c>
       <c r="G125" s="1"/>
     </row>
     <row r="126" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A126" s="11"/>
       <c r="B126" s="3" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="D126" s="4">
-        <v>4301030232</v>
+        <v>4301060338</v>
       </c>
       <c r="E126" s="3">
-        <v>4607091388374</v>
+        <v>4680115880801</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="G126" s="1"/>
     </row>
     <row r="127" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A127" s="11"/>
       <c r="B127" s="3" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="D127" s="4">
-        <v>4301030235</v>
+        <v>4301060339</v>
       </c>
       <c r="E127" s="3">
-        <v>4607091388381</v>
+        <v>4680115880818</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="G127" s="1"/>
     </row>
-    <row r="128" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A128" s="11" t="s">
-        <v>686</v>
-      </c>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="11"/>
       <c r="B128" s="3" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="D128" s="4">
-        <v>4301030233</v>
+        <v>4301060337</v>
       </c>
       <c r="E128" s="3">
-        <v>4607091388404</v>
+        <v>4680115880368</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="G128" s="1"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A129" s="11"/>
       <c r="B129" s="3" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="D129" s="4">
-        <v>4301180002</v>
+        <v>4301030232</v>
       </c>
       <c r="E129" s="3">
-        <v>4680115880122</v>
+        <v>4607091388374</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="G129" s="1"/>
     </row>
     <row r="130" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A130" s="11"/>
       <c r="B130" s="3" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="D130" s="4">
-        <v>4301180007</v>
+        <v>4301030235</v>
       </c>
       <c r="E130" s="3">
-        <v>4680115881808</v>
+        <v>4607091388381</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="G130" s="1"/>
     </row>
     <row r="131" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A131" s="11"/>
+      <c r="A131" s="11" t="s">
+        <v>686</v>
+      </c>
       <c r="B131" s="3" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="D131" s="4">
-        <v>4301180006</v>
+        <v>4301030233</v>
       </c>
       <c r="E131" s="3">
-        <v>4680115881822</v>
+        <v>4607091388404</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="G131" s="1"/>
     </row>
-    <row r="132" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="11"/>
       <c r="B132" s="3" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="D132" s="4">
-        <v>4301180001</v>
+        <v>4301180002</v>
       </c>
       <c r="E132" s="3">
-        <v>4680115880016</v>
+        <v>4680115880122</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="G132" s="1"/>
     </row>
     <row r="133" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A133" s="11"/>
       <c r="B133" s="3" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="D133" s="4">
-        <v>4301011315</v>
+        <v>4301180007</v>
       </c>
       <c r="E133" s="3">
-        <v>4607091387421</v>
+        <v>4680115881808</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="G133" s="1"/>
     </row>
     <row r="134" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A134" s="11"/>
       <c r="B134" s="3" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="D134" s="4">
-        <v>4301011121</v>
+        <v>4301180006</v>
       </c>
       <c r="E134" s="3">
-        <v>4607091387421</v>
+        <v>4680115881822</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="G134" s="1"/>
     </row>
     <row r="135" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A135" s="11"/>
       <c r="B135" s="3" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="D135" s="4">
-        <v>4301011322</v>
+        <v>4301180001</v>
       </c>
       <c r="E135" s="3">
-        <v>4607091387452</v>
+        <v>4680115880016</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="G135" s="1"/>
     </row>
     <row r="136" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A136" s="11"/>
       <c r="B136" s="3" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="D136" s="4">
-        <v>4301011396</v>
+        <v>4301011315</v>
       </c>
       <c r="E136" s="3">
-        <v>4607091387452</v>
+        <v>4607091387421</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G136" s="1"/>
     </row>
     <row r="137" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A137" s="11"/>
       <c r="B137" s="3" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="D137" s="4">
-        <v>4301011313</v>
+        <v>4301011121</v>
       </c>
       <c r="E137" s="3">
-        <v>4607091385984</v>
+        <v>4607091387421</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G137" s="1"/>
     </row>
     <row r="138" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A138" s="11"/>
+      <c r="A138" s="11" t="s">
+        <v>748</v>
+      </c>
       <c r="B138" s="3" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="D138" s="4">
-        <v>4301011316</v>
+        <v>4301011322</v>
       </c>
       <c r="E138" s="3">
-        <v>4607091387438</v>
+        <v>4607091387452</v>
       </c>
       <c r="F138" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G138" s="1"/>
     </row>
     <row r="139" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A139" s="11"/>
       <c r="B139" s="3" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="D139" s="4">
-        <v>4301011318</v>
+        <v>4301011396</v>
       </c>
       <c r="E139" s="3">
-        <v>4607091387469</v>
+        <v>4607091387452</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G139" s="1"/>
     </row>
     <row r="140" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A140" s="11"/>
       <c r="B140" s="3" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="D140" s="4">
-        <v>4301031154</v>
+        <v>4301011313</v>
       </c>
       <c r="E140" s="3">
-        <v>4607091387292</v>
+        <v>4607091385984</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="G140" s="1"/>
     </row>
     <row r="141" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A141" s="11"/>
+      <c r="A141" s="11" t="s">
+        <v>731</v>
+      </c>
       <c r="B141" s="3" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="D141" s="4">
-        <v>4301031155</v>
+        <v>4301011316</v>
       </c>
       <c r="E141" s="3">
-        <v>4607091387315</v>
+        <v>4607091387438</v>
       </c>
       <c r="F141" s="5" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="G141" s="1"/>
     </row>
     <row r="142" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A142" s="11" t="s">
-        <v>715</v>
+        <v>744</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="D142" s="4">
-        <v>4301030368</v>
+        <v>4301011316</v>
       </c>
       <c r="E142" s="3">
-        <v>4607091383232</v>
+        <v>4607091387438</v>
       </c>
       <c r="F142" s="5" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="G142" s="1"/>
     </row>
     <row r="143" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A143" s="11" t="s">
-        <v>684</v>
-      </c>
+      <c r="A143" s="11"/>
       <c r="B143" s="3" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="D143" s="4">
-        <v>4301031066</v>
+        <v>4301011318</v>
       </c>
       <c r="E143" s="3">
-        <v>4607091383836</v>
+        <v>4607091387469</v>
       </c>
       <c r="F143" s="5" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="G143" s="1"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A144" s="11"/>
       <c r="B144" s="3" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="D144" s="4">
-        <v>4301051142</v>
+        <v>4301031154</v>
       </c>
       <c r="E144" s="3">
-        <v>4607091387919</v>
+        <v>4607091387292</v>
       </c>
       <c r="F144" s="5" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="G144" s="1"/>
     </row>
     <row r="145" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A145" s="11" t="s">
-        <v>688</v>
-      </c>
+      <c r="A145" s="11"/>
       <c r="B145" s="3" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="D145" s="4">
-        <v>4301051109</v>
+        <v>4301031155</v>
       </c>
       <c r="E145" s="3">
-        <v>4607091383942</v>
+        <v>4607091387315</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="G145" s="1"/>
     </row>
     <row r="146" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A146" s="11" t="s">
-        <v>687</v>
+        <v>715</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="D146" s="4">
-        <v>4301051300</v>
+        <v>4301030368</v>
       </c>
       <c r="E146" s="3">
-        <v>4607091383959</v>
+        <v>4607091383232</v>
       </c>
       <c r="F146" s="5" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="G146" s="1"/>
     </row>
     <row r="147" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A147" s="11" t="s">
-        <v>716</v>
+        <v>684</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="D147" s="4">
-        <v>4301060324</v>
+        <v>4301031066</v>
       </c>
       <c r="E147" s="3">
-        <v>4607091388831</v>
+        <v>4607091383836</v>
       </c>
       <c r="F147" s="5" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="G147" s="1"/>
     </row>
-    <row r="148" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A148" s="11"/>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" s="11" t="s">
+        <v>750</v>
+      </c>
       <c r="B148" s="3" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="D148" s="4">
-        <v>4301032015</v>
+        <v>4301051142</v>
       </c>
       <c r="E148" s="3">
-        <v>4607091383102</v>
+        <v>4607091387919</v>
       </c>
       <c r="F148" s="5" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="G148" s="1"/>
     </row>
     <row r="149" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A149" s="11"/>
+      <c r="A149" s="11" t="s">
+        <v>688</v>
+      </c>
       <c r="B149" s="3" t="s">
-        <v>430</v>
+        <v>417</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
       <c r="D149" s="4">
-        <v>4301032026</v>
+        <v>4301051109</v>
       </c>
       <c r="E149" s="3">
-        <v>4607091389142</v>
+        <v>4607091383942</v>
       </c>
       <c r="F149" s="5" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="G149" s="1"/>
     </row>
     <row r="150" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A150" s="11" t="s">
-        <v>649</v>
+        <v>687</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="D150" s="4">
-        <v>4301011339</v>
+        <v>4301051300</v>
       </c>
       <c r="E150" s="3">
-        <v>4607091383997</v>
+        <v>4607091383959</v>
       </c>
       <c r="F150" s="5" t="s">
-        <v>446</v>
+        <v>423</v>
       </c>
       <c r="G150" s="1"/>
     </row>
     <row r="151" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A151" s="11" t="s">
-        <v>702</v>
+        <v>716</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="D151" s="4">
-        <v>4301011239</v>
+        <v>4301060324</v>
       </c>
       <c r="E151" s="3">
-        <v>4607091383997</v>
+        <v>4607091388831</v>
       </c>
       <c r="F151" s="5" t="s">
-        <v>446</v>
+        <v>426</v>
       </c>
       <c r="G151" s="1"/>
     </row>
     <row r="152" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A152" s="11" t="s">
-        <v>652</v>
-      </c>
+      <c r="A152" s="11"/>
       <c r="B152" s="3" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="D152" s="4">
-        <v>4301011326</v>
+        <v>4301032015</v>
       </c>
       <c r="E152" s="3">
-        <v>4607091384130</v>
+        <v>4607091383102</v>
       </c>
       <c r="F152" s="5" t="s">
-        <v>447</v>
+        <v>429</v>
       </c>
       <c r="G152" s="1"/>
     </row>
     <row r="153" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A153" s="11" t="s">
-        <v>703</v>
-      </c>
+      <c r="A153" s="11"/>
       <c r="B153" s="3" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="D153" s="4">
-        <v>4301011240</v>
+        <v>4301032026</v>
       </c>
       <c r="E153" s="3">
-        <v>4607091384130</v>
+        <v>4607091389142</v>
       </c>
       <c r="F153" s="5" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
       <c r="G153" s="1"/>
     </row>
     <row r="154" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A154" s="11" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="D154" s="4">
-        <v>4301011330</v>
+        <v>4301011339</v>
       </c>
       <c r="E154" s="3">
-        <v>4607091384147</v>
+        <v>4607091383997</v>
       </c>
       <c r="F154" s="5" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G154" s="1"/>
     </row>
     <row r="155" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A155" s="11" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="D155" s="4">
-        <v>4301011238</v>
+        <v>4301011239</v>
       </c>
       <c r="E155" s="3">
-        <v>4607091384147</v>
+        <v>4607091383997</v>
       </c>
       <c r="F155" s="5" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G155" s="1"/>
     </row>
     <row r="156" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A156" s="11" t="s">
-        <v>683</v>
+        <v>652</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="D156" s="4">
-        <v>4301011327</v>
+        <v>4301011326</v>
       </c>
       <c r="E156" s="3">
-        <v>4607091384154</v>
+        <v>4607091384130</v>
       </c>
       <c r="F156" s="5" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G156" s="1"/>
     </row>
     <row r="157" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A157" s="11" t="s">
-        <v>685</v>
+        <v>703</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="D157" s="4">
-        <v>4301011332</v>
+        <v>4301011240</v>
       </c>
       <c r="E157" s="3">
-        <v>4607091384161</v>
+        <v>4607091384130</v>
       </c>
       <c r="F157" s="5" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="G157" s="1"/>
     </row>
     <row r="158" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A158" s="11" t="s">
-        <v>645</v>
+        <v>654</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="D158" s="4">
-        <v>4301020178</v>
+        <v>4301011330</v>
       </c>
       <c r="E158" s="3">
-        <v>4607091383980</v>
+        <v>4607091384147</v>
       </c>
       <c r="F158" s="5" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="G158" s="1"/>
     </row>
     <row r="159" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A159" s="11" t="s">
-        <v>682</v>
+        <v>704</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="D159" s="4">
-        <v>4301020179</v>
+        <v>4301011238</v>
       </c>
       <c r="E159" s="3">
-        <v>4607091384178</v>
+        <v>4607091384147</v>
       </c>
       <c r="F159" s="5" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="G159" s="1"/>
     </row>
     <row r="160" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A160" s="11"/>
+      <c r="A160" s="11" t="s">
+        <v>683</v>
+      </c>
       <c r="B160" s="3" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
       <c r="D160" s="4">
-        <v>4301031141</v>
+        <v>4301011327</v>
       </c>
       <c r="E160" s="3">
-        <v>4607091384833</v>
+        <v>4607091384154</v>
       </c>
       <c r="F160" s="5" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="G160" s="1"/>
     </row>
     <row r="161" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A161" s="11"/>
+      <c r="A161" s="11" t="s">
+        <v>685</v>
+      </c>
       <c r="B161" s="3" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
       <c r="D161" s="4">
-        <v>4301031137</v>
+        <v>4301011332</v>
       </c>
       <c r="E161" s="3">
-        <v>4607091384857</v>
+        <v>4607091384161</v>
       </c>
       <c r="F161" s="5" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="G161" s="1"/>
     </row>
     <row r="162" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A162" s="11" t="s">
-        <v>666</v>
+        <v>645</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="D162" s="4">
-        <v>4301051298</v>
+        <v>4301020178</v>
       </c>
       <c r="E162" s="3">
-        <v>4607091384260</v>
+        <v>4607091383980</v>
       </c>
       <c r="F162" s="5" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="G162" s="1"/>
     </row>
     <row r="163" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A163" s="11" t="s">
-        <v>661</v>
+        <v>682</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="D163" s="4">
-        <v>4301060314</v>
+        <v>4301020179</v>
       </c>
       <c r="E163" s="3">
-        <v>4607091384673</v>
+        <v>4607091384178</v>
       </c>
       <c r="F163" s="5" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="G163" s="1"/>
     </row>
     <row r="164" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A164" s="11"/>
       <c r="B164" s="3" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="D164" s="4">
-        <v>4301011483</v>
+        <v>4301031141</v>
       </c>
       <c r="E164" s="3">
-        <v>4680115881907</v>
+        <v>4607091384833</v>
       </c>
       <c r="F164" s="5" t="s">
-        <v>477</v>
-      </c>
-      <c r="G164" s="6" t="s">
-        <v>595</v>
-      </c>
+        <v>461</v>
+      </c>
+      <c r="G164" s="1"/>
     </row>
     <row r="165" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A165" s="11" t="s">
-        <v>717</v>
-      </c>
+      <c r="A165" s="11"/>
       <c r="B165" s="3" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="D165" s="4">
-        <v>4301011324</v>
+        <v>4301031137</v>
       </c>
       <c r="E165" s="3">
-        <v>4607091384185</v>
+        <v>4607091384857</v>
       </c>
       <c r="F165" s="5" t="s">
-        <v>478</v>
+        <v>462</v>
       </c>
       <c r="G165" s="1"/>
     </row>
     <row r="166" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A166" s="11"/>
+      <c r="A166" s="11" t="s">
+        <v>666</v>
+      </c>
       <c r="B166" s="3" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="D166" s="4">
-        <v>4301011312</v>
+        <v>4301051298</v>
       </c>
       <c r="E166" s="3">
-        <v>4607091384192</v>
+        <v>4607091384260</v>
       </c>
       <c r="F166" s="5" t="s">
-        <v>479</v>
+        <v>465</v>
       </c>
       <c r="G166" s="1"/>
     </row>
     <row r="167" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A167" s="11"/>
+      <c r="A167" s="11" t="s">
+        <v>661</v>
+      </c>
       <c r="B167" s="3" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="D167" s="4">
-        <v>4301011303</v>
+        <v>4301060314</v>
       </c>
       <c r="E167" s="3">
-        <v>4607091384680</v>
+        <v>4607091384673</v>
       </c>
       <c r="F167" s="5" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="G167" s="1"/>
     </row>
     <row r="168" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A168" s="11"/>
       <c r="B168" s="3" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="D168" s="4">
-        <v>4301031139</v>
+        <v>4301011483</v>
       </c>
       <c r="E168" s="3">
-        <v>4607091384802</v>
+        <v>4680115881907</v>
       </c>
       <c r="F168" s="5" t="s">
-        <v>485</v>
-      </c>
-      <c r="G168" s="1"/>
+        <v>477</v>
+      </c>
+      <c r="G168" s="6" t="s">
+        <v>595</v>
+      </c>
     </row>
     <row r="169" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A169" s="11"/>
+      <c r="A169" s="11" t="s">
+        <v>717</v>
+      </c>
       <c r="B169" s="3" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="D169" s="4">
-        <v>4301031140</v>
+        <v>4301011324</v>
       </c>
       <c r="E169" s="3">
-        <v>4607091384826</v>
+        <v>4607091384185</v>
       </c>
       <c r="F169" s="5" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="G169" s="1"/>
     </row>
     <row r="170" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A170" s="11" t="s">
-        <v>665</v>
-      </c>
+      <c r="A170" s="11"/>
       <c r="B170" s="3" t="s">
-        <v>487</v>
+        <v>473</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
       <c r="D170" s="4">
-        <v>4301051303</v>
+        <v>4301011312</v>
       </c>
       <c r="E170" s="3">
-        <v>4607091384246</v>
+        <v>4607091384192</v>
       </c>
       <c r="F170" s="5" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="G170" s="1"/>
     </row>
     <row r="171" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A171" s="11"/>
       <c r="B171" s="3" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>490</v>
+        <v>476</v>
       </c>
       <c r="D171" s="4">
-        <v>4301051297</v>
+        <v>4301011303</v>
       </c>
       <c r="E171" s="3">
-        <v>4607091384253</v>
+        <v>4607091384680</v>
       </c>
       <c r="F171" s="5" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="G171" s="1"/>
     </row>
     <row r="172" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A172" s="11"/>
       <c r="B172" s="3" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="D172" s="4">
-        <v>4301060323</v>
+        <v>4301031139</v>
       </c>
       <c r="E172" s="3">
-        <v>4607091389357</v>
+        <v>4607091384802</v>
       </c>
       <c r="F172" s="5" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="G172" s="1"/>
     </row>
     <row r="173" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A173" s="11"/>
       <c r="B173" s="3" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="D173" s="4">
-        <v>4301011428</v>
+        <v>4301031140</v>
       </c>
       <c r="E173" s="3">
-        <v>4607091389708</v>
+        <v>4607091384826</v>
       </c>
       <c r="F173" s="5" t="s">
-        <v>500</v>
+        <v>486</v>
       </c>
       <c r="G173" s="1"/>
     </row>
     <row r="174" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A174" s="11"/>
+      <c r="A174" s="11" t="s">
+        <v>665</v>
+      </c>
       <c r="B174" s="3" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="D174" s="4">
-        <v>4301011427</v>
+        <v>4301051303</v>
       </c>
       <c r="E174" s="3">
-        <v>4607091389692</v>
+        <v>4607091384246</v>
       </c>
       <c r="F174" s="5" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="G174" s="1"/>
     </row>
     <row r="175" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A175" s="11" t="s">
-        <v>671</v>
-      </c>
+      <c r="A175" s="11"/>
       <c r="B175" s="3" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
       <c r="D175" s="4">
-        <v>4301031177</v>
+        <v>4301051297</v>
       </c>
       <c r="E175" s="3">
-        <v>4607091389753</v>
+        <v>4607091384253</v>
       </c>
       <c r="F175" s="5" t="s">
-        <v>516</v>
+        <v>492</v>
       </c>
       <c r="G175" s="1"/>
     </row>
     <row r="176" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A176" s="11"/>
       <c r="B176" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="D176" s="4">
+        <v>4301060323</v>
+      </c>
+      <c r="E176" s="3">
+        <v>4607091389357</v>
+      </c>
+      <c r="F176" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="G176" s="1"/>
+    </row>
+    <row r="177" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A177" s="11"/>
+      <c r="B177" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="D177" s="4">
+        <v>4301011428</v>
+      </c>
+      <c r="E177" s="3">
+        <v>4607091389708</v>
+      </c>
+      <c r="F177" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="G177" s="1"/>
+    </row>
+    <row r="178" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A178" s="11"/>
+      <c r="B178" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="D178" s="4">
+        <v>4301011427</v>
+      </c>
+      <c r="E178" s="3">
+        <v>4607091389692</v>
+      </c>
+      <c r="F178" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="G178" s="1"/>
+    </row>
+    <row r="179" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A179" s="11" t="s">
+        <v>671</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="D179" s="4">
+        <v>4301031177</v>
+      </c>
+      <c r="E179" s="3">
+        <v>4607091389753</v>
+      </c>
+      <c r="F179" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="G179" s="1"/>
+    </row>
+    <row r="180" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A180" s="11" t="s">
+        <v>743</v>
+      </c>
+      <c r="B180" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="C176" s="3" t="s">
+      <c r="C180" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="D176" s="4">
+      <c r="D180" s="4">
         <v>4301031174</v>
       </c>
-      <c r="E176" s="3">
+      <c r="E180" s="3">
         <v>4607091389760</v>
       </c>
-      <c r="F176" s="5" t="s">
+      <c r="F180" s="5" t="s">
         <v>517</v>
       </c>
-      <c r="G176" s="1"/>
-    </row>
-    <row r="177" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A177" s="11" t="s">
+      <c r="G180" s="1"/>
+    </row>
+    <row r="181" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A181" s="11" t="s">
+        <v>734</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="D181" s="4">
+        <v>4301031174</v>
+      </c>
+      <c r="E181" s="3">
+        <v>4607091389760</v>
+      </c>
+      <c r="F181" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="G181" s="1"/>
+    </row>
+    <row r="182" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A182" s="11" t="s">
         <v>670</v>
       </c>
-      <c r="B177" s="3" t="s">
+      <c r="B182" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="C177" s="3" t="s">
+      <c r="C182" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="D177" s="4">
+      <c r="D182" s="4">
         <v>4301031175</v>
       </c>
-      <c r="E177" s="3">
+      <c r="E182" s="3">
         <v>4607091389746</v>
       </c>
-      <c r="F177" s="5" t="s">
+      <c r="F182" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="G177" s="1"/>
-    </row>
-    <row r="178" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A178" s="11" t="s">
+      <c r="G182" s="1"/>
+    </row>
+    <row r="183" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A183" s="11" t="s">
         <v>691</v>
       </c>
-      <c r="B178" s="3" t="s">
+      <c r="B183" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="C178" s="3" t="s">
+      <c r="C183" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="D178" s="4">
+      <c r="D183" s="4">
         <v>4301031178</v>
       </c>
-      <c r="E178" s="3">
+      <c r="E183" s="3">
         <v>4607091384338</v>
       </c>
-      <c r="F178" s="5" t="s">
+      <c r="F183" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="G178" s="1"/>
-    </row>
-    <row r="179" spans="1:7" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A179" s="11" t="s">
+      <c r="G183" s="1"/>
+    </row>
+    <row r="184" spans="1:7" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A184" s="11" t="s">
         <v>693</v>
       </c>
-      <c r="B179" s="3" t="s">
+      <c r="B184" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="C179" s="3" t="s">
+      <c r="C184" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="D179" s="4">
+      <c r="D184" s="4">
         <v>4301031171</v>
       </c>
-      <c r="E179" s="3">
+      <c r="E184" s="3">
         <v>4607091389524</v>
       </c>
-      <c r="F179" s="5" t="s">
+      <c r="F184" s="5" t="s">
         <v>520</v>
-      </c>
-      <c r="G179" s="1"/>
-    </row>
-    <row r="180" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A180" s="11"/>
-      <c r="B180" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="C180" s="3" t="s">
-        <v>513</v>
-      </c>
-      <c r="D180" s="4">
-        <v>4301031170</v>
-      </c>
-      <c r="E180" s="3">
-        <v>4607091384345</v>
-      </c>
-      <c r="F180" s="5" t="s">
-        <v>521</v>
-      </c>
-      <c r="G180" s="1"/>
-    </row>
-    <row r="181" spans="1:7" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A181" s="11" t="s">
-        <v>694</v>
-      </c>
-      <c r="B181" s="3" t="s">
-        <v>514</v>
-      </c>
-      <c r="C181" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="D181" s="4">
-        <v>4301031172</v>
-      </c>
-      <c r="E181" s="3">
-        <v>4607091389531</v>
-      </c>
-      <c r="F181" s="5" t="s">
-        <v>522</v>
-      </c>
-      <c r="G181" s="1"/>
-    </row>
-    <row r="182" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A182" s="11"/>
-      <c r="B182" s="3" t="s">
-        <v>523</v>
-      </c>
-      <c r="C182" s="3" t="s">
-        <v>524</v>
-      </c>
-      <c r="D182" s="4">
-        <v>4301051258</v>
-      </c>
-      <c r="E182" s="3">
-        <v>4607091389685</v>
-      </c>
-      <c r="F182" s="5" t="s">
-        <v>531</v>
-      </c>
-      <c r="G182" s="1"/>
-    </row>
-    <row r="183" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A183" s="11"/>
-      <c r="B183" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="C183" s="3" t="s">
-        <v>526</v>
-      </c>
-      <c r="D183" s="4">
-        <v>4301051431</v>
-      </c>
-      <c r="E183" s="3">
-        <v>4607091389654</v>
-      </c>
-      <c r="F183" s="5" t="s">
-        <v>532</v>
-      </c>
-      <c r="G183" s="1"/>
-    </row>
-    <row r="184" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A184" s="11"/>
-      <c r="B184" s="3" t="s">
-        <v>527</v>
-      </c>
-      <c r="C184" s="3" t="s">
-        <v>528</v>
-      </c>
-      <c r="D184" s="4">
-        <v>4301051284</v>
-      </c>
-      <c r="E184" s="3">
-        <v>4607091384352</v>
-      </c>
-      <c r="F184" s="5" t="s">
-        <v>533</v>
       </c>
       <c r="G184" s="1"/>
     </row>
     <row r="185" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A185" s="11"/>
       <c r="B185" s="3" t="s">
-        <v>529</v>
+        <v>512</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>530</v>
+        <v>513</v>
       </c>
       <c r="D185" s="4">
-        <v>4301051257</v>
+        <v>4301031170</v>
       </c>
       <c r="E185" s="3">
-        <v>4607091389661</v>
+        <v>4607091384345</v>
       </c>
       <c r="F185" s="5" t="s">
-        <v>534</v>
+        <v>521</v>
       </c>
       <c r="G185" s="1"/>
     </row>
-    <row r="186" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A186" s="11"/>
+    <row r="186" spans="1:7" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A186" s="11" t="s">
+        <v>694</v>
+      </c>
       <c r="B186" s="3" t="s">
-        <v>535</v>
+        <v>514</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>536</v>
+        <v>515</v>
       </c>
       <c r="D186" s="4">
-        <v>4301060352</v>
+        <v>4301031172</v>
       </c>
       <c r="E186" s="3">
-        <v>4680115881648</v>
+        <v>4607091389531</v>
       </c>
       <c r="F186" s="5" t="s">
-        <v>537</v>
+        <v>522</v>
       </c>
       <c r="G186" s="1"/>
     </row>
     <row r="187" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A187" s="11"/>
       <c r="B187" s="3" t="s">
-        <v>538</v>
+        <v>523</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>539</v>
+        <v>524</v>
       </c>
       <c r="D187" s="4">
-        <v>4301020196</v>
+        <v>4301051258</v>
       </c>
       <c r="E187" s="3">
-        <v>4607091389388</v>
+        <v>4607091389685</v>
       </c>
       <c r="F187" s="5" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="G187" s="1"/>
     </row>
     <row r="188" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A188" s="11"/>
       <c r="B188" s="3" t="s">
-        <v>540</v>
+        <v>525</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>541</v>
+        <v>526</v>
       </c>
       <c r="D188" s="4">
-        <v>4301020185</v>
+        <v>4301051431</v>
       </c>
       <c r="E188" s="3">
-        <v>4607091389364</v>
+        <v>4607091389654</v>
       </c>
       <c r="F188" s="5" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
       <c r="G188" s="1"/>
     </row>
     <row r="189" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A189" s="11" t="s">
-        <v>669</v>
-      </c>
+      <c r="A189" s="11"/>
       <c r="B189" s="3" t="s">
-        <v>544</v>
+        <v>527</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>545</v>
+        <v>528</v>
       </c>
       <c r="D189" s="4">
-        <v>4301031195</v>
+        <v>4301051284</v>
       </c>
       <c r="E189" s="3">
-        <v>4607091389739</v>
+        <v>4607091384352</v>
       </c>
       <c r="F189" s="5" t="s">
-        <v>554</v>
+        <v>533</v>
       </c>
       <c r="G189" s="1"/>
     </row>
     <row r="190" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A190" s="11"/>
       <c r="B190" s="3" t="s">
-        <v>546</v>
+        <v>529</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>547</v>
+        <v>530</v>
       </c>
       <c r="D190" s="4">
-        <v>4301031176</v>
+        <v>4301051257</v>
       </c>
       <c r="E190" s="3">
-        <v>4607091389425</v>
+        <v>4607091389661</v>
       </c>
       <c r="F190" s="5" t="s">
-        <v>555</v>
+        <v>534</v>
       </c>
       <c r="G190" s="1"/>
     </row>
     <row r="191" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A191" s="11"/>
       <c r="B191" s="3" t="s">
-        <v>548</v>
+        <v>535</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>549</v>
+        <v>536</v>
       </c>
       <c r="D191" s="4">
-        <v>4301031167</v>
+        <v>4301060352</v>
       </c>
       <c r="E191" s="3">
-        <v>4680115880771</v>
+        <v>4680115881648</v>
       </c>
       <c r="F191" s="5" t="s">
-        <v>556</v>
+        <v>537</v>
       </c>
       <c r="G191" s="1"/>
     </row>
     <row r="192" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A192" s="11" t="s">
-        <v>692</v>
-      </c>
+      <c r="A192" s="11"/>
       <c r="B192" s="3" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="D192" s="4">
-        <v>4301031173</v>
+        <v>4301020196</v>
       </c>
       <c r="E192" s="3">
-        <v>4607091389500</v>
+        <v>4607091389388</v>
       </c>
       <c r="F192" s="5" t="s">
-        <v>557</v>
+        <v>542</v>
       </c>
       <c r="G192" s="1"/>
     </row>
     <row r="193" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A193" s="11"/>
       <c r="B193" s="3" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="D193" s="4">
-        <v>4301031103</v>
+        <v>4301020185</v>
       </c>
       <c r="E193" s="3">
-        <v>4680115881983</v>
+        <v>4607091389364</v>
       </c>
       <c r="F193" s="5" t="s">
-        <v>558</v>
+        <v>543</v>
       </c>
       <c r="G193" s="1"/>
     </row>
     <row r="194" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A194" s="11"/>
+      <c r="A194" s="11" t="s">
+        <v>669</v>
+      </c>
       <c r="B194" s="3" t="s">
-        <v>559</v>
+        <v>544</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>560</v>
+        <v>545</v>
       </c>
       <c r="D194" s="4">
-        <v>4301011371</v>
+        <v>4301031195</v>
       </c>
       <c r="E194" s="3">
-        <v>4607091389067</v>
+        <v>4607091389739</v>
       </c>
       <c r="F194" s="5" t="s">
-        <v>571</v>
+        <v>554</v>
       </c>
       <c r="G194" s="1"/>
     </row>
     <row r="195" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A195" s="11" t="s">
-        <v>648</v>
-      </c>
+      <c r="A195" s="11"/>
       <c r="B195" s="3" t="s">
-        <v>561</v>
+        <v>546</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>562</v>
+        <v>547</v>
       </c>
       <c r="D195" s="4">
-        <v>4301011363</v>
+        <v>4301031176</v>
       </c>
       <c r="E195" s="3">
-        <v>4607091383522</v>
+        <v>4607091389425</v>
       </c>
       <c r="F195" s="5" t="s">
-        <v>572</v>
+        <v>555</v>
       </c>
       <c r="G195" s="1"/>
     </row>
     <row r="196" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A196" s="11"/>
       <c r="B196" s="3" t="s">
-        <v>563</v>
+        <v>548</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>564</v>
+        <v>549</v>
       </c>
       <c r="D196" s="4">
-        <v>4301011431</v>
+        <v>4301031167</v>
       </c>
       <c r="E196" s="3">
-        <v>4607091384437</v>
+        <v>4680115880771</v>
       </c>
       <c r="F196" s="5" t="s">
-        <v>573</v>
+        <v>556</v>
       </c>
       <c r="G196" s="1"/>
     </row>
     <row r="197" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A197" s="11" t="s">
-        <v>651</v>
+        <v>692</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>565</v>
+        <v>550</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>566</v>
+        <v>551</v>
       </c>
       <c r="D197" s="4">
-        <v>4301011365</v>
+        <v>4301031173</v>
       </c>
       <c r="E197" s="3">
-        <v>4607091389104</v>
+        <v>4607091389500</v>
       </c>
       <c r="F197" s="5" t="s">
-        <v>574</v>
+        <v>557</v>
       </c>
       <c r="G197" s="1"/>
     </row>
     <row r="198" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A198" s="11" t="s">
-        <v>713</v>
-      </c>
+      <c r="A198" s="11"/>
       <c r="B198" s="3" t="s">
-        <v>567</v>
+        <v>552</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>568</v>
+        <v>553</v>
       </c>
       <c r="D198" s="4">
-        <v>4301011142</v>
+        <v>4301031103</v>
       </c>
       <c r="E198" s="3">
-        <v>4607091389036</v>
+        <v>4680115881983</v>
       </c>
       <c r="F198" s="5" t="s">
-        <v>575</v>
+        <v>558</v>
       </c>
       <c r="G198" s="1"/>
     </row>
     <row r="199" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A199" s="11" t="s">
-        <v>714</v>
-      </c>
+      <c r="A199" s="11"/>
       <c r="B199" s="3" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="D199" s="4">
-        <v>4301011190</v>
+        <v>4301011371</v>
       </c>
       <c r="E199" s="3">
-        <v>4607091389098</v>
+        <v>4607091389067</v>
       </c>
       <c r="F199" s="5" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="G199" s="1"/>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A200" s="11" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>577</v>
+        <v>561</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>578</v>
+        <v>562</v>
       </c>
       <c r="D200" s="4">
-        <v>4301020222</v>
+        <v>4301011363</v>
       </c>
       <c r="E200" s="3">
-        <v>4607091388930</v>
+        <v>4607091383522</v>
       </c>
       <c r="F200" s="5" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="G200" s="1"/>
     </row>
     <row r="201" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A201" s="11"/>
       <c r="B201" s="3" t="s">
-        <v>580</v>
+        <v>563</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>581</v>
+        <v>564</v>
       </c>
       <c r="D201" s="4">
-        <v>4301031217</v>
+        <v>4301011431</v>
       </c>
       <c r="E201" s="3">
-        <v>4680115882102</v>
+        <v>4607091384437</v>
       </c>
       <c r="F201" s="5" t="s">
-        <v>590</v>
+        <v>573</v>
       </c>
       <c r="G201" s="1"/>
     </row>
     <row r="202" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A202" s="11"/>
+      <c r="A202" s="11" t="s">
+        <v>651</v>
+      </c>
       <c r="B202" s="3" t="s">
-        <v>582</v>
+        <v>565</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>583</v>
+        <v>566</v>
       </c>
       <c r="D202" s="4">
-        <v>4301031216</v>
+        <v>4301011365</v>
       </c>
       <c r="E202" s="3">
-        <v>4680115882096</v>
+        <v>4607091389104</v>
       </c>
       <c r="F202" s="5" t="s">
-        <v>591</v>
+        <v>574</v>
       </c>
       <c r="G202" s="1"/>
     </row>
     <row r="203" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A203" s="11" t="s">
-        <v>655</v>
+        <v>713</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>584</v>
+        <v>567</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>585</v>
+        <v>568</v>
       </c>
       <c r="D203" s="4">
-        <v>4301031198</v>
+        <v>4301011142</v>
       </c>
       <c r="E203" s="3">
-        <v>4607091383348</v>
+        <v>4607091389036</v>
       </c>
       <c r="F203" s="5" t="s">
-        <v>592</v>
+        <v>575</v>
       </c>
       <c r="G203" s="1"/>
     </row>
     <row r="204" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A204" s="11" t="s">
-        <v>656</v>
+        <v>714</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>586</v>
+        <v>569</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>587</v>
+        <v>570</v>
       </c>
       <c r="D204" s="4">
-        <v>4301031188</v>
+        <v>4301011190</v>
       </c>
       <c r="E204" s="3">
-        <v>4607091383386</v>
+        <v>4607091389098</v>
       </c>
       <c r="F204" s="5" t="s">
-        <v>593</v>
+        <v>576</v>
       </c>
       <c r="G204" s="1"/>
     </row>
-    <row r="205" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="11" t="s">
-        <v>657</v>
+        <v>644</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
       <c r="D205" s="4">
-        <v>4301031189</v>
+        <v>4301020222</v>
       </c>
       <c r="E205" s="3">
-        <v>4607091383355</v>
+        <v>4607091388930</v>
       </c>
       <c r="F205" s="5" t="s">
-        <v>594</v>
+        <v>579</v>
       </c>
       <c r="G205" s="1"/>
     </row>
     <row r="206" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A206" s="11"/>
       <c r="B206" s="3" t="s">
-        <v>596</v>
+        <v>580</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>597</v>
+        <v>581</v>
       </c>
       <c r="D206" s="4">
-        <v>4301051230</v>
+        <v>4301031217</v>
       </c>
       <c r="E206" s="3">
-        <v>4607091383409</v>
+        <v>4680115882102</v>
       </c>
       <c r="F206" s="5" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="G206" s="1"/>
     </row>
     <row r="207" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A207" s="11"/>
       <c r="B207" s="3" t="s">
-        <v>598</v>
+        <v>582</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>599</v>
+        <v>583</v>
       </c>
       <c r="D207" s="4">
-        <v>4301051231</v>
+        <v>4301031216</v>
       </c>
       <c r="E207" s="3">
-        <v>4607091383416</v>
+        <v>4680115882096</v>
       </c>
       <c r="F207" s="5" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="G207" s="1"/>
     </row>
     <row r="208" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A208" s="11"/>
+      <c r="A208" s="11" t="s">
+        <v>655</v>
+      </c>
       <c r="B208" s="3" t="s">
-        <v>602</v>
+        <v>584</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>603</v>
+        <v>585</v>
       </c>
       <c r="D208" s="4">
-        <v>4301011434</v>
+        <v>4301031198</v>
       </c>
       <c r="E208" s="3">
-        <v>4680115881099</v>
+        <v>4607091383348</v>
       </c>
       <c r="F208" s="5" t="s">
-        <v>606</v>
+        <v>592</v>
       </c>
       <c r="G208" s="1"/>
     </row>
     <row r="209" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A209" s="11"/>
+      <c r="A209" s="11" t="s">
+        <v>656</v>
+      </c>
       <c r="B209" s="3" t="s">
-        <v>604</v>
+        <v>586</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>605</v>
+        <v>587</v>
       </c>
       <c r="D209" s="4">
-        <v>4301011435</v>
+        <v>4301031188</v>
       </c>
       <c r="E209" s="3">
-        <v>4680115881150</v>
+        <v>4607091383386</v>
       </c>
       <c r="F209" s="5" t="s">
-        <v>607</v>
+        <v>593</v>
       </c>
       <c r="G209" s="1"/>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A210" s="11"/>
+    <row r="210" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A210" s="11" t="s">
+        <v>657</v>
+      </c>
       <c r="B210" s="3" t="s">
-        <v>608</v>
+        <v>588</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>609</v>
+        <v>589</v>
       </c>
       <c r="D210" s="4">
-        <v>4301020230</v>
+        <v>4301031189</v>
       </c>
       <c r="E210" s="3">
-        <v>4680115881112</v>
+        <v>4607091383355</v>
       </c>
       <c r="F210" s="5" t="s">
-        <v>612</v>
+        <v>594</v>
       </c>
       <c r="G210" s="1"/>
     </row>
     <row r="211" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A211" s="11"/>
       <c r="B211" s="3" t="s">
-        <v>610</v>
+        <v>596</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>611</v>
+        <v>597</v>
       </c>
       <c r="D211" s="4">
-        <v>4301020231</v>
+        <v>4301051230</v>
       </c>
       <c r="E211" s="3">
-        <v>4680115881129</v>
+        <v>4607091383409</v>
       </c>
       <c r="F211" s="5" t="s">
-        <v>613</v>
+        <v>600</v>
       </c>
       <c r="G211" s="1"/>
     </row>
     <row r="212" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A212" s="11"/>
       <c r="B212" s="3" t="s">
-        <v>614</v>
+        <v>598</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="D212" s="4">
-        <v>4301031192</v>
+        <v>4301051231</v>
       </c>
       <c r="E212" s="3">
-        <v>4680115881167</v>
+        <v>4607091383416</v>
       </c>
       <c r="F212" s="5" t="s">
-        <v>618</v>
+        <v>601</v>
       </c>
       <c r="G212" s="1"/>
     </row>
     <row r="213" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A213" s="11"/>
       <c r="B213" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="C213" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D213" s="4">
+        <v>4301011434</v>
+      </c>
+      <c r="E213" s="3">
+        <v>4680115881099</v>
+      </c>
+      <c r="F213" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="G213" s="1"/>
+    </row>
+    <row r="214" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A214" s="11" t="s">
+        <v>742</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="C214" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="D214" s="4">
+        <v>4301011435</v>
+      </c>
+      <c r="E214" s="3">
+        <v>4680115881150</v>
+      </c>
+      <c r="F214" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="G214" s="1"/>
+    </row>
+    <row r="215" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A215" s="11" t="s">
+        <v>733</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="C215" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="D215" s="4">
+        <v>4301011435</v>
+      </c>
+      <c r="E215" s="3">
+        <v>4680115881150</v>
+      </c>
+      <c r="F215" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="G215" s="1"/>
+    </row>
+    <row r="216" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A216" s="11" t="s">
+        <v>755</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="C216" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="D216" s="4">
+        <v>4301011435</v>
+      </c>
+      <c r="E216" s="3">
+        <v>4680115881150</v>
+      </c>
+      <c r="F216" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="G216" s="1"/>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A217" s="11"/>
+      <c r="B217" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="C217" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="D217" s="4">
+        <v>4301020230</v>
+      </c>
+      <c r="E217" s="3">
+        <v>4680115881112</v>
+      </c>
+      <c r="F217" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="G217" s="1"/>
+    </row>
+    <row r="218" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A218" s="11"/>
+      <c r="B218" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="C218" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="D218" s="4">
+        <v>4301020231</v>
+      </c>
+      <c r="E218" s="3">
+        <v>4680115881129</v>
+      </c>
+      <c r="F218" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="G218" s="1"/>
+    </row>
+    <row r="219" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A219" s="11" t="s">
+        <v>757</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="C219" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="D219" s="4">
+        <v>4301031192</v>
+      </c>
+      <c r="E219" s="3">
+        <v>4680115881167</v>
+      </c>
+      <c r="F219" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="G219" s="1"/>
+    </row>
+    <row r="220" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A220" s="11" t="s">
+        <v>738</v>
+      </c>
+      <c r="B220" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="C213" s="3" t="s">
+      <c r="C220" s="3" t="s">
         <v>617</v>
       </c>
-      <c r="D213" s="4">
+      <c r="D220" s="4">
         <v>4301031193</v>
       </c>
-      <c r="E213" s="3">
+      <c r="E220" s="3">
         <v>4680115881136</v>
       </c>
-      <c r="F213" s="5" t="s">
+      <c r="F220" s="5" t="s">
         <v>619</v>
       </c>
-      <c r="G213" s="1"/>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A214" s="11" t="s">
+      <c r="G220" s="1"/>
+    </row>
+    <row r="221" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A221" s="11" t="s">
+        <v>741</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="C221" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="D221" s="4">
+        <v>4301031193</v>
+      </c>
+      <c r="E221" s="3">
+        <v>4680115881136</v>
+      </c>
+      <c r="F221" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="G221" s="1"/>
+    </row>
+    <row r="222" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A222" s="11" t="s">
+        <v>756</v>
+      </c>
+      <c r="B222" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="C222" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="D222" s="4">
+        <v>4301031193</v>
+      </c>
+      <c r="E222" s="3">
+        <v>4680115881136</v>
+      </c>
+      <c r="F222" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="G222" s="1"/>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A223" s="11" t="s">
         <v>726</v>
       </c>
-      <c r="B214" s="3" t="s">
+      <c r="B223" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="C214" s="3" t="s">
+      <c r="C223" s="3" t="s">
         <v>621</v>
       </c>
-      <c r="D214" s="4">
+      <c r="D223" s="4">
         <v>4301051383</v>
       </c>
-      <c r="E214" s="3">
+      <c r="E223" s="3">
         <v>4680115881143</v>
       </c>
-      <c r="F214" s="5" t="s">
+      <c r="F223" s="5" t="s">
         <v>626</v>
       </c>
-      <c r="G214" s="1"/>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A215" s="11"/>
-      <c r="B215" s="3" t="s">
+      <c r="G223" s="1"/>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A224" s="11"/>
+      <c r="B224" s="3" t="s">
         <v>622</v>
       </c>
-      <c r="C215" s="3" t="s">
+      <c r="C224" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="D215" s="4">
+      <c r="D224" s="4">
         <v>4301051381</v>
       </c>
-      <c r="E215" s="3">
+      <c r="E224" s="3">
         <v>4680115881068</v>
       </c>
-      <c r="F215" s="5" t="s">
+      <c r="F224" s="5" t="s">
         <v>627</v>
       </c>
-      <c r="G215" s="1"/>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A216" s="11"/>
-      <c r="B216" s="3" t="s">
+      <c r="G224" s="1"/>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A225" s="11"/>
+      <c r="B225" s="3" t="s">
         <v>624</v>
       </c>
-      <c r="C216" s="3" t="s">
+      <c r="C225" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="D216" s="4">
+      <c r="D225" s="4">
         <v>4301051382</v>
       </c>
-      <c r="E216" s="3">
+      <c r="E225" s="3">
         <v>4680115881075</v>
       </c>
-      <c r="F216" s="5" t="s">
+      <c r="F225" s="5" t="s">
         <v>628</v>
       </c>
-      <c r="G216" s="1"/>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A217" s="12" t="s">
+      <c r="G225" s="1"/>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A226" s="12" t="s">
         <v>718</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G217" xr:uid="{30EFF9DF-2E20-401A-8B86-D82B0C81655F}"/>
+  <autoFilter ref="A1:G226" xr:uid="{30EFF9DF-2E20-401A-8B86-D82B0C81655F}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/moduls/1С.xlsx
+++ b/moduls/1С.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\кодинг\moduls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\перенос данных\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10EDE035-037B-423C-BBDA-E1E1533019AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0BE2554-F5A9-4669-ADEA-CC8ACE3A4DB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$G$226</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$G$273</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="760">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="821">
   <si>
     <t>SU002447</t>
   </si>
@@ -631,9 +631,6 @@
     <t>SU001777</t>
   </si>
   <si>
-    <t>P002226</t>
-  </si>
-  <si>
     <t>P001777</t>
   </si>
   <si>
@@ -2191,9 +2188,6 @@
     <t xml:space="preserve"> 218  Колбаса Докторская оригинальная ТМ Особый рецепт БОЛЬШОЙ БАТОН, п/а ВЕС, ТМ Стародворье ПОКОМ</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 272  Колбаса Сервелат Филедворский, фиброуз, в/у 0,35 кг срез,  ПОКОМ</t>
   </si>
   <si>
@@ -2315,6 +2309,195 @@
   </si>
   <si>
     <t xml:space="preserve"> 333  Колбаса Балыковая, Вязанка фиброуз в/у, ВЕС ПОКОМ</t>
+  </si>
+  <si>
+    <t>Сосиски Ганноверские   ПОКОМ, кг</t>
+  </si>
+  <si>
+    <t>Сосиски Вязанка Сливочные, Вязанка амицел ВЕС.ПОКОМ, кг</t>
+  </si>
+  <si>
+    <t>Колбаса Докторская ГОСТ, Вязанка вектор,ВЕС. ПОКОМ, кг</t>
+  </si>
+  <si>
+    <t>Вареные колбасы Докторская стародворская Бордо Фикс.вес 0,5 Стародворье</t>
+  </si>
+  <si>
+    <t>Колбаса Молочная стародворская ТМ Стародворье в оболочке амифлекс (бордо)</t>
+  </si>
+  <si>
+    <t>Колбаса Докторская по-стародворски, фирменная амифлекс, ВЕС,   ПОКОМ</t>
+  </si>
+  <si>
+    <t>Колбаса Сервелат Зернистый, ВЕС.  ПОКОМ, кг</t>
+  </si>
+  <si>
+    <t>Колбаса варено-копченая Сервелат Кремлевский ТМ Стародворье фиброуз в/у вес СК2</t>
+  </si>
+  <si>
+    <t>Ветчина Филейская ВЕС ТМ  Вязанка ТС Столичная  ПОКОМ</t>
+  </si>
+  <si>
+    <t>Сосиски Баварские Бавария Весовые п/а  Стародворье</t>
+  </si>
+  <si>
+    <t>Колбаса Докторская Дугушка, ВЕС, НЕ ГОСТ, ТМ Стародворье ПОКОМ</t>
+  </si>
+  <si>
+    <t>Ветчина Дугушка ТМ Стародворье, вектор в/у    ПОКОМ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Колбаса вареная Докторская стародворская ТМ Стародворье амифлекс вес </t>
+  </si>
+  <si>
+    <t>Колбаса вареная Филейская ТМ Вязанка ТС Классическая ВЕС  ПОКОМ</t>
+  </si>
+  <si>
+    <t>Колбаса Докторская Особая ТМ Особый рецепт, ВЕС  ПОКОМ, кг</t>
+  </si>
+  <si>
+    <t>Колбаса вареная Филейская ТМ Вязанка ТС Классическая, 0,45 кг. ПОКОМ</t>
+  </si>
+  <si>
+    <t>Колбаса вареная Молокуша 0,45кг ТМ Вязанка  ПОКОМ</t>
+  </si>
+  <si>
+    <t>Колбаса Особая ТМ Особый рецепт, ВЕС, ТМ Стародворье ПОКОМ, кг</t>
+  </si>
+  <si>
+    <t>Ветчина Нежная ТМ Особый рецепт, (2,5кг), ПОКОМ, кг</t>
+  </si>
+  <si>
+    <t>Колбаса Сервелат Рижский ТМ Зареченские, ВЕС  ПОКОМ</t>
+  </si>
+  <si>
+    <t>Колбаса Сервелат Столичный, Вязанка фиброуз в/у, ПОКОМ</t>
+  </si>
+  <si>
+    <t>Сардельки стародворские с говядиной в обол. NDX, ВЕС. ПОКОМ</t>
+  </si>
+  <si>
+    <t>Сосиски Рубленые, Вязанка вискофан  ВЕС.ПОКОМ</t>
+  </si>
+  <si>
+    <t>Колбаса Классическая, Вязанка вектор, ВЕС.ПОКОМ, кг</t>
+  </si>
+  <si>
+    <t>Колбаса Русская стародворская, ВЕС.  ПОКОМ, кг</t>
+  </si>
+  <si>
+    <t>Колбаса Молочная по-стародворски, ВЕС   ПОКОМ, кг</t>
+  </si>
+  <si>
+    <t>Вареные колбасы Молочная Бордо Весовые П/а Стародворье</t>
+  </si>
+  <si>
+    <t>Ветчина Столичная Вязанка, вектор 0.5кг, ПОКОМ, шт</t>
+  </si>
+  <si>
+    <t>Колбаса вареная Докторская по-стародворски ТМ Стародворье ТС Фирменная амифлекс вес</t>
+  </si>
+  <si>
+    <t>Колбаса Филейбургская с сочным окороком, ВЕС, ТМ Баварушка  ПОКОМ, кг</t>
+  </si>
+  <si>
+    <t>Колбаса варено-копченая Салями Филейбургская зернистая ТМ Баварушка фиброуз в/у вес СК</t>
+  </si>
+  <si>
+    <t>Ветчина Столичная Вязанка ТМ Стародворские колбасы ТС Вязанка вектор вес УВС</t>
+  </si>
+  <si>
+    <t>Колбаса Классическая, Вязанка вектор 0,5кг, ПОКОМ, шт</t>
+  </si>
+  <si>
+    <t>Вареные колбасы «Филейская» Фикс.вес 0,45 Вектор ТМ «Вязанка» !!! (0,5 кг НЕТ) !!!</t>
+  </si>
+  <si>
+    <t>Ветчина Нежная Особая Личн истор. 1,8 кг</t>
+  </si>
+  <si>
+    <t>Колбаса Балыковая, Вязанка фиброуз в/у, ВЕС, ТМ Стародворские колбасы</t>
+  </si>
+  <si>
+    <t>Колбаса Докторская ГОСТ Дугушка, ВЕС, ТМ Стародворье ПОКОМ</t>
+  </si>
+  <si>
+    <t>Колбаса Молочная Дугушка, в/у, ВЕС, ТМ Стародворье   ПОКОМ</t>
+  </si>
+  <si>
+    <t>Колбаса Молочная по-стародворски, 0,5кг,ПОКОМ</t>
+  </si>
+  <si>
+    <t>Колбаса Русская по-стародворски, 0,5 кг.  ПОКОМ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">НЕТ </t>
+  </si>
+  <si>
+    <t>Колбаса Русская по-стародворски, ВЕС.  ПОКОМ</t>
+  </si>
+  <si>
+    <t>Колбаса Русская стародворская, амифлекс 0,5 кг, ТМ Стародворье</t>
+  </si>
+  <si>
+    <t>Колбаса Филейбургская с душистым чесноком, ВЕС, ТМ Баварушка  ПОКОМ</t>
+  </si>
+  <si>
+    <t>Сосиски Венские, Вязанка ВЕС. ПОКОМ</t>
+  </si>
+  <si>
+    <t>Сосиски Молочные для завтрака ТМ Особый рецепт, п/а МГС, ВЕС, ТМ Стародворье</t>
+  </si>
+  <si>
+    <t>СТ Докторская особая Славница</t>
+  </si>
+  <si>
+    <t>СТ Особая Зареченские Славница</t>
+  </si>
+  <si>
+    <t>СТ Молочная Особая Славница</t>
+  </si>
+  <si>
+    <t>СТ Ветчина Особая Славница большой батон</t>
+  </si>
+  <si>
+    <t>СТ Сосиски ганноверские амилюкс вес</t>
+  </si>
+  <si>
+    <t>108  Сосиски С сыром,  0.42кг,ядрена копоть ПОКОМ</t>
+  </si>
+  <si>
+    <t>225  Колбаса Дугушка со шпиком, ВЕС, ТМ Стародворье   ПОКОМ</t>
+  </si>
+  <si>
+    <t>278  Сосиски Сочинки с сочным окороком, МГС 0.4кг,   ПОКОМ</t>
+  </si>
+  <si>
+    <t>282  Колбаса Балыкбургская рубленая, в/у 0,35 кг срез, БАВАРУШКА ПОКОМ</t>
+  </si>
+  <si>
+    <t>Колбаса Сервелат Мясорубский с мелкорубл.окороком в/у 0,35 кг срез    ПОКОМ_ДУБЛЯЖ</t>
+  </si>
+  <si>
+    <t>254  Сосиски Датские, ВЕС, ТМ КОЛБАСНЫЙ СТАНДАРТ ПОКОМ</t>
+  </si>
+  <si>
+    <t>271  Колбаса Сервелат Левантский ТМ Особый Рецепт, ВЕС. ПОКОМ</t>
+  </si>
+  <si>
+    <t>СОСИСКИ ФИЛЕЙБУРГСКИЕ С СОЧНЫМ ОКОРОКОМ</t>
+  </si>
+  <si>
+    <t>215  Колбаса Докторская ГОСТ Дугушка, ВЕС, ТМ Стародворье ПОКОМ</t>
+  </si>
+  <si>
+    <t>240  Колбаса Салями охотничья, ВЕС. ПОКОМ</t>
+  </si>
+  <si>
+    <t>312  Ветчина Филейская ТМ Вязанка ТС Столичная ВЕС  ПОКОМ</t>
+  </si>
+  <si>
+    <t>313 Колбаса вареная Молокуша ТМ Вязанка в оболочке полиамид. ВЕС  ПОКОМ</t>
   </si>
 </sst>
 </file>
@@ -2380,7 +2563,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -2418,12 +2601,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF651C32"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF651C32"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF651C32"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF651C32"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF651C32"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF651C32"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF651C32"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF651C32"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF651C32"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF651C32"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2455,6 +2679,18 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2736,15 +2972,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G226"/>
+  <dimension ref="A1:G273"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="63.42578125" style="12" customWidth="1"/>
+    <col min="1" max="1" width="88" style="12" customWidth="1"/>
     <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
@@ -2754,7 +2990,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B1" s="1">
         <v>1</v>
@@ -2813,7 +3049,7 @@
     </row>
     <row r="4" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>6</v>
@@ -2890,7 +3126,9 @@
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
+      <c r="A8" s="11" t="s">
+        <v>809</v>
+      </c>
       <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
@@ -2986,7 +3224,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>724</v>
+        <v>766</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>33</v>
@@ -3007,4253 +3245,5284 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>728</v>
+        <v>789</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="4">
+        <v>4301020234</v>
+      </c>
+      <c r="E14" s="3">
+        <v>4680115881440</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>819</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="4">
+        <v>4301020234</v>
+      </c>
+      <c r="E15" s="3">
+        <v>4680115881440</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>722</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="4">
+        <v>4301020234</v>
+      </c>
+      <c r="E16" s="3">
+        <v>4680115881440</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>726</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D17" s="4">
         <v>4301020232</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E17" s="3">
         <v>4680115881433</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F17" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>730</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="4">
-        <v>4301011452</v>
-      </c>
-      <c r="E15" s="3">
-        <v>4680115881426</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>643</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="4">
-        <v>4301011437</v>
-      </c>
-      <c r="E16" s="3">
-        <v>4680115881419</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
-        <v>638</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="4">
-        <v>4301011458</v>
-      </c>
-      <c r="E17" s="3">
-        <v>4680115881525</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>47</v>
       </c>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>707</v>
+        <v>771</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D18" s="4">
-        <v>4301011191</v>
+        <v>4301011452</v>
       </c>
       <c r="E18" s="3">
-        <v>4607091382945</v>
+        <v>4680115881426</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>708</v>
+        <v>781</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="D19" s="4">
-        <v>4301011380</v>
+        <v>4301011452</v>
       </c>
       <c r="E19" s="3">
-        <v>4607091385670</v>
+        <v>4680115881426</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D20" s="4">
-        <v>4301011468</v>
+        <v>4301011452</v>
       </c>
       <c r="E20" s="3">
-        <v>4680115881327</v>
+        <v>4680115881426</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>630</v>
+        <v>773</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="D21" s="4">
-        <v>4301011348</v>
+        <v>4301011437</v>
       </c>
       <c r="E21" s="3">
-        <v>4607091388312</v>
+        <v>4680115881419</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
+    <row r="22" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>790</v>
+      </c>
       <c r="B22" s="3" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="D22" s="4">
-        <v>4301011514</v>
+        <v>4301011437</v>
       </c>
       <c r="E22" s="3">
-        <v>4680115882133</v>
+        <v>4680115881419</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>84</v>
+        <v>791</v>
       </c>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>710</v>
+        <v>642</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="D23" s="4">
-        <v>4301011192</v>
+        <v>4301011437</v>
       </c>
       <c r="E23" s="3">
-        <v>4607091382952</v>
+        <v>4680115881419</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>711</v>
+        <v>637</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="D24" s="4">
-        <v>4301011382</v>
+        <v>4301011458</v>
       </c>
       <c r="E24" s="3">
-        <v>4607091385687</v>
+        <v>4680115881525</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
+      <c r="A25" s="11" t="s">
+        <v>706</v>
+      </c>
       <c r="B25" s="3" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="D25" s="4">
-        <v>4301011344</v>
+        <v>4301011191</v>
       </c>
       <c r="E25" s="3">
-        <v>4607091384604</v>
+        <v>4607091382945</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
+      <c r="A26" s="11" t="s">
+        <v>760</v>
+      </c>
       <c r="B26" s="3" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="D26" s="4">
-        <v>4301011386</v>
+        <v>4301011380</v>
       </c>
       <c r="E26" s="3">
-        <v>4680115880283</v>
+        <v>4607091385670</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
+      <c r="A27" s="11" t="s">
+        <v>707</v>
+      </c>
       <c r="B27" s="3" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="D27" s="4">
-        <v>4301011476</v>
+        <v>4301011380</v>
       </c>
       <c r="E27" s="3">
-        <v>4680115881518</v>
+        <v>4607091385670</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>727</v>
+        <v>820</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="D28" s="4">
-        <v>4301011443</v>
+        <v>4301011468</v>
       </c>
       <c r="E28" s="3">
-        <v>4680115881303</v>
+        <v>4680115881327</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
+        <v>723</v>
+      </c>
       <c r="B29" s="3" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="D29" s="4">
-        <v>4301011414</v>
+        <v>4301011468</v>
       </c>
       <c r="E29" s="3">
-        <v>4607091381986</v>
+        <v>4680115881327</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>709</v>
+        <v>629</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="D30" s="4">
-        <v>4301011352</v>
+        <v>4301011348</v>
       </c>
       <c r="E30" s="3">
-        <v>4607091388466</v>
+        <v>4607091388312</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="3" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="D31" s="4">
-        <v>4301011417</v>
+        <v>4301011514</v>
       </c>
       <c r="E31" s="3">
-        <v>4680115880269</v>
+        <v>4680115882133</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>720</v>
+        <v>709</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="D32" s="4">
-        <v>4301011415</v>
+        <v>4301011192</v>
       </c>
       <c r="E32" s="3">
-        <v>4680115880429</v>
+        <v>4607091382952</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="11"/>
+      <c r="A33" s="11" t="s">
+        <v>710</v>
+      </c>
       <c r="B33" s="3" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="D33" s="4">
-        <v>4301011462</v>
+        <v>4301011382</v>
       </c>
       <c r="E33" s="3">
-        <v>4680115881457</v>
+        <v>4607091385687</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
-        <v>737</v>
-      </c>
+      <c r="A34" s="11"/>
       <c r="B34" s="3" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="D34" s="4">
-        <v>4301020204</v>
+        <v>4301011344</v>
       </c>
       <c r="E34" s="3">
-        <v>4607091388442</v>
+        <v>4607091384604</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="11" t="s">
-        <v>754</v>
-      </c>
+      <c r="A35" s="11"/>
       <c r="B35" s="3" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="D35" s="4">
-        <v>4301020189</v>
+        <v>4301011386</v>
       </c>
       <c r="E35" s="3">
-        <v>4607091384789</v>
+        <v>4680115880283</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
       <c r="B36" s="3" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="D36" s="4">
-        <v>4301020235</v>
+        <v>4301011476</v>
       </c>
       <c r="E36" s="3">
-        <v>4680115881488</v>
+        <v>4680115881518</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="11"/>
+      <c r="A37" s="11" t="s">
+        <v>774</v>
+      </c>
       <c r="B37" s="3" t="s">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="D37" s="4">
-        <v>4301020183</v>
+        <v>4301011443</v>
       </c>
       <c r="E37" s="3">
-        <v>4607091384765</v>
+        <v>4680115881303</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="11"/>
+      <c r="A38" s="11" t="s">
+        <v>725</v>
+      </c>
       <c r="B38" s="3" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="D38" s="4">
-        <v>4301020217</v>
+        <v>4301011443</v>
       </c>
       <c r="E38" s="3">
-        <v>4680115880658</v>
+        <v>4680115881303</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
       <c r="B39" s="3" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="D39" s="4">
-        <v>4301020223</v>
+        <v>4301011414</v>
       </c>
       <c r="E39" s="3">
-        <v>4607091381962</v>
+        <v>4607091381986</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>759</v>
+        <v>708</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="D40" s="4">
-        <v>4301030895</v>
+        <v>4301011352</v>
       </c>
       <c r="E40" s="3">
-        <v>4607091387667</v>
+        <v>4607091388466</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>132</v>
+        <v>92</v>
       </c>
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
       <c r="B41" s="3" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="D41" s="4">
-        <v>4301030961</v>
+        <v>4301011417</v>
       </c>
       <c r="E41" s="3">
-        <v>4607091387636</v>
+        <v>4680115880269</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="11"/>
+      <c r="A42" s="11" t="s">
+        <v>718</v>
+      </c>
       <c r="B42" s="3" t="s">
-        <v>118</v>
+        <v>76</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="D42" s="4">
-        <v>4301031078</v>
+        <v>4301011415</v>
       </c>
       <c r="E42" s="3">
-        <v>4607091384727</v>
+        <v>4680115880429</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="G42" s="1"/>
     </row>
     <row r="43" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
       <c r="B43" s="3" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>121</v>
+        <v>79</v>
       </c>
       <c r="D43" s="4">
-        <v>4301031080</v>
+        <v>4301011462</v>
       </c>
       <c r="E43" s="3">
-        <v>4607091386745</v>
+        <v>4680115881457</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="G43" s="1"/>
     </row>
     <row r="44" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="11"/>
+      <c r="A44" s="11" t="s">
+        <v>735</v>
+      </c>
       <c r="B44" s="3" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="D44" s="4">
-        <v>4301030963</v>
+        <v>4301020204</v>
       </c>
       <c r="E44" s="3">
-        <v>4607091382426</v>
+        <v>4607091388442</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="11"/>
+      <c r="A45" s="11" t="s">
+        <v>752</v>
+      </c>
       <c r="B45" s="3" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="D45" s="4">
-        <v>4301030962</v>
+        <v>4301020189</v>
       </c>
       <c r="E45" s="3">
-        <v>4607091386547</v>
+        <v>4607091384789</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
       <c r="B46" s="3" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="D46" s="4">
-        <v>4301031077</v>
+        <v>4301020235</v>
       </c>
       <c r="E46" s="3">
-        <v>4607091384703</v>
+        <v>4680115881488</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="G46" s="1"/>
     </row>
     <row r="47" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
       <c r="B47" s="3" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="D47" s="4">
-        <v>4301031079</v>
+        <v>4301020183</v>
       </c>
       <c r="E47" s="3">
-        <v>4607091384734</v>
+        <v>4607091384765</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="G47" s="1"/>
     </row>
     <row r="48" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
       <c r="B48" s="3" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="D48" s="4">
-        <v>4301030964</v>
+        <v>4301020217</v>
       </c>
       <c r="E48" s="3">
-        <v>4607091382464</v>
+        <v>4680115880658</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
-        <v>633</v>
+        <v>785</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>141</v>
+        <v>106</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>142</v>
+        <v>107</v>
       </c>
       <c r="D49" s="4">
-        <v>4301051437</v>
+        <v>4301020223</v>
       </c>
       <c r="E49" s="3">
-        <v>4607091386967</v>
+        <v>4607091381962</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>155</v>
+        <v>113</v>
       </c>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
-        <v>635</v>
+        <v>793</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="D50" s="4">
-        <v>4301051311</v>
+        <v>4301030895</v>
       </c>
       <c r="E50" s="3">
-        <v>4607091385304</v>
+        <v>4607091387667</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
-        <v>640</v>
+        <v>757</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="D51" s="4">
-        <v>4301051306</v>
+        <v>4301030895</v>
       </c>
       <c r="E51" s="3">
-        <v>4607091386264</v>
+        <v>4607091387667</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="11" t="s">
-        <v>641</v>
-      </c>
+      <c r="A52" s="11"/>
       <c r="B52" s="3" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="D52" s="4">
-        <v>4301051436</v>
+        <v>4301030961</v>
       </c>
       <c r="E52" s="3">
-        <v>4607091385731</v>
+        <v>4607091387636</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="G52" s="1"/>
     </row>
     <row r="53" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="11" t="s">
-        <v>753</v>
-      </c>
+      <c r="A53" s="11"/>
       <c r="B53" s="3" t="s">
-        <v>149</v>
+        <v>118</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>150</v>
+        <v>119</v>
       </c>
       <c r="D53" s="4">
-        <v>4301051439</v>
+        <v>4301031078</v>
       </c>
       <c r="E53" s="3">
-        <v>4680115880214</v>
+        <v>4607091384727</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
       <c r="B54" s="3" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="D54" s="4">
-        <v>4301051438</v>
+        <v>4301031080</v>
       </c>
       <c r="E54" s="3">
-        <v>4680115880894</v>
+        <v>4607091386745</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="G54" s="1"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
-        <v>712</v>
+        <v>778</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>154</v>
+        <v>123</v>
       </c>
       <c r="D55" s="4">
-        <v>4301051313</v>
+        <v>4301030963</v>
       </c>
       <c r="E55" s="3">
-        <v>4607091385427</v>
+        <v>4607091382426</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="G55" s="1"/>
     </row>
     <row r="56" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A56" s="11"/>
       <c r="B56" s="3" t="s">
-        <v>162</v>
+        <v>124</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>163</v>
+        <v>125</v>
       </c>
       <c r="D56" s="4">
-        <v>4301060296</v>
+        <v>4301030962</v>
       </c>
       <c r="E56" s="3">
-        <v>4607091383065</v>
+        <v>4607091386547</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="11" t="s">
-        <v>632</v>
-      </c>
+      <c r="A57" s="11"/>
       <c r="B57" s="3" t="s">
-        <v>164</v>
+        <v>126</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>165</v>
+        <v>127</v>
       </c>
       <c r="D57" s="4">
-        <v>4301060282</v>
+        <v>4301031077</v>
       </c>
       <c r="E57" s="3">
-        <v>4607091380699</v>
+        <v>4607091384703</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>171</v>
+        <v>138</v>
       </c>
       <c r="G57" s="1"/>
     </row>
     <row r="58" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A58" s="11"/>
       <c r="B58" s="3" t="s">
-        <v>166</v>
+        <v>128</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>167</v>
+        <v>129</v>
       </c>
       <c r="D58" s="4">
-        <v>4301060309</v>
+        <v>4301031079</v>
       </c>
       <c r="E58" s="3">
-        <v>4680115880238</v>
+        <v>4607091384734</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>172</v>
+        <v>139</v>
       </c>
       <c r="G58" s="1"/>
     </row>
     <row r="59" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A59" s="11"/>
       <c r="B59" s="3" t="s">
-        <v>168</v>
+        <v>130</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>169</v>
+        <v>131</v>
       </c>
       <c r="D59" s="4">
-        <v>4301060304</v>
+        <v>4301030964</v>
       </c>
       <c r="E59" s="3">
-        <v>4607091385922</v>
+        <v>4607091382464</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>173</v>
+        <v>140</v>
       </c>
       <c r="G59" s="1"/>
     </row>
     <row r="60" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
+        <v>632</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D60" s="4">
+        <v>4301051437</v>
+      </c>
+      <c r="E60" s="3">
+        <v>4607091386967</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G60" s="1"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="11" t="s">
+        <v>780</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D61" s="4">
+        <v>4301051311</v>
+      </c>
+      <c r="E61" s="3">
+        <v>4607091385304</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G61" s="1"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="11" t="s">
         <v>634</v>
       </c>
-      <c r="B60" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D60" s="4">
-        <v>4301051360</v>
-      </c>
-      <c r="E60" s="3">
-        <v>4607091385168</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="G60" s="1"/>
-    </row>
-    <row r="61" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A61" s="11"/>
-      <c r="B61" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D61" s="4">
-        <v>4301051362</v>
-      </c>
-      <c r="E61" s="3">
-        <v>4607091383256</v>
-      </c>
-      <c r="F61" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="G61" s="1"/>
-    </row>
-    <row r="62" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A62" s="11" t="s">
-        <v>642</v>
-      </c>
       <c r="B62" s="3" t="s">
-        <v>178</v>
+        <v>143</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>179</v>
+        <v>144</v>
       </c>
       <c r="D62" s="4">
-        <v>4301051358</v>
+        <v>4301051311</v>
       </c>
       <c r="E62" s="3">
-        <v>4607091385748</v>
+        <v>4607091385304</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>184</v>
+        <v>156</v>
       </c>
       <c r="G62" s="1"/>
     </row>
-    <row r="63" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A63" s="11"/>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="11" t="s">
+        <v>639</v>
+      </c>
       <c r="B63" s="3" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>181</v>
+        <v>146</v>
       </c>
       <c r="D63" s="4">
-        <v>4301051364</v>
+        <v>4301051306</v>
       </c>
       <c r="E63" s="3">
-        <v>4607091384581</v>
+        <v>4607091386264</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>185</v>
+        <v>157</v>
       </c>
       <c r="G63" s="1"/>
     </row>
     <row r="64" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A64" s="11"/>
+      <c r="A64" s="11" t="s">
+        <v>640</v>
+      </c>
       <c r="B64" s="3" t="s">
-        <v>186</v>
+        <v>147</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>187</v>
+        <v>148</v>
       </c>
       <c r="D64" s="4">
-        <v>4301011223</v>
+        <v>4301051436</v>
       </c>
       <c r="E64" s="3">
-        <v>4607091383423</v>
+        <v>4607091385731</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>192</v>
+        <v>158</v>
       </c>
       <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="11"/>
+      <c r="A65" s="11" t="s">
+        <v>751</v>
+      </c>
       <c r="B65" s="3" t="s">
-        <v>188</v>
+        <v>149</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>189</v>
+        <v>150</v>
       </c>
       <c r="D65" s="4">
-        <v>4301011338</v>
+        <v>4301051439</v>
       </c>
       <c r="E65" s="3">
-        <v>4607091381405</v>
+        <v>4680115880214</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>193</v>
+        <v>159</v>
       </c>
       <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A66" s="11"/>
       <c r="B66" s="3" t="s">
-        <v>190</v>
+        <v>151</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>191</v>
+        <v>152</v>
       </c>
       <c r="D66" s="4">
-        <v>4301011333</v>
+        <v>4301051438</v>
       </c>
       <c r="E66" s="3">
-        <v>4607091386516</v>
+        <v>4680115880894</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>194</v>
+        <v>160</v>
       </c>
       <c r="G66" s="1"/>
     </row>
-    <row r="67" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="11"/>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="11" t="s">
+        <v>711</v>
+      </c>
       <c r="B67" s="3" t="s">
-        <v>195</v>
+        <v>153</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>196</v>
+        <v>154</v>
       </c>
       <c r="D67" s="4">
-        <v>4301011346</v>
+        <v>4301051313</v>
       </c>
       <c r="E67" s="3">
-        <v>4607091387445</v>
+        <v>4607091385427</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>221</v>
+        <v>161</v>
       </c>
       <c r="G67" s="1"/>
     </row>
     <row r="68" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="11" t="s">
-        <v>732</v>
-      </c>
+      <c r="A68" s="11"/>
       <c r="B68" s="3" t="s">
-        <v>197</v>
+        <v>162</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="D68" s="4">
-        <v>4301011362</v>
+        <v>4301060296</v>
       </c>
       <c r="E68" s="3">
-        <v>4607091386004</v>
+        <v>4607091383065</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>222</v>
+        <v>170</v>
       </c>
       <c r="G68" s="1"/>
     </row>
     <row r="69" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
-        <v>739</v>
+        <v>631</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>197</v>
+        <v>164</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>198</v>
+        <v>165</v>
       </c>
       <c r="D69" s="4">
-        <v>4301011362</v>
+        <v>4301060282</v>
       </c>
       <c r="E69" s="3">
-        <v>4607091386004</v>
+        <v>4607091380699</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>222</v>
+        <v>171</v>
       </c>
       <c r="G69" s="1"/>
     </row>
     <row r="70" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
       <c r="B70" s="3" t="s">
-        <v>197</v>
+        <v>166</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>199</v>
+        <v>167</v>
       </c>
       <c r="D70" s="4">
-        <v>4301011308</v>
+        <v>4301060309</v>
       </c>
       <c r="E70" s="3">
-        <v>4607091386004</v>
+        <v>4680115880238</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>222</v>
+        <v>172</v>
       </c>
       <c r="G70" s="1"/>
     </row>
     <row r="71" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
       <c r="B71" s="3" t="s">
-        <v>200</v>
+        <v>168</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>201</v>
+        <v>169</v>
       </c>
       <c r="D71" s="4">
-        <v>4301011347</v>
+        <v>4301060304</v>
       </c>
       <c r="E71" s="3">
-        <v>4607091386073</v>
+        <v>4607091385922</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>223</v>
+        <v>173</v>
       </c>
       <c r="G71" s="1"/>
     </row>
     <row r="72" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>202</v>
+        <v>174</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>203</v>
+        <v>175</v>
       </c>
       <c r="D72" s="4">
-        <v>4301010928</v>
+        <v>4301051360</v>
       </c>
       <c r="E72" s="3">
-        <v>4607091387322</v>
+        <v>4607091385168</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>224</v>
+        <v>182</v>
       </c>
       <c r="G72" s="1"/>
     </row>
     <row r="73" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A73" s="11"/>
+      <c r="A73" s="11" t="s">
+        <v>633</v>
+      </c>
       <c r="B73" s="3" t="s">
-        <v>202</v>
+        <v>174</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>204</v>
+        <v>175</v>
       </c>
       <c r="D73" s="4">
-        <v>4301011395</v>
+        <v>4301051360</v>
       </c>
       <c r="E73" s="3">
-        <v>4607091387322</v>
+        <v>4607091385168</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>224</v>
+        <v>182</v>
       </c>
       <c r="G73" s="1"/>
     </row>
     <row r="74" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A74" s="11"/>
       <c r="B74" s="3" t="s">
-        <v>205</v>
+        <v>176</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>206</v>
+        <v>177</v>
       </c>
       <c r="D74" s="4">
-        <v>4301011311</v>
+        <v>4301051362</v>
       </c>
       <c r="E74" s="3">
-        <v>4607091387377</v>
+        <v>4607091383256</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>225</v>
+        <v>183</v>
       </c>
       <c r="G74" s="1"/>
     </row>
     <row r="75" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
-        <v>749</v>
+        <v>641</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>207</v>
+        <v>178</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>208</v>
+        <v>179</v>
       </c>
       <c r="D75" s="4">
-        <v>4301010945</v>
+        <v>4301051358</v>
       </c>
       <c r="E75" s="3">
-        <v>4607091387353</v>
+        <v>4607091385748</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>226</v>
+        <v>184</v>
       </c>
       <c r="G75" s="1"/>
     </row>
     <row r="76" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A76" s="11" t="s">
-        <v>745</v>
-      </c>
+      <c r="A76" s="11"/>
       <c r="B76" s="3" t="s">
-        <v>209</v>
+        <v>180</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>210</v>
+        <v>181</v>
       </c>
       <c r="D76" s="4">
-        <v>4301011328</v>
+        <v>4301051364</v>
       </c>
       <c r="E76" s="3">
-        <v>4607091386011</v>
+        <v>4607091384581</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>227</v>
+        <v>185</v>
       </c>
       <c r="G76" s="1"/>
     </row>
     <row r="77" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A77" s="11"/>
       <c r="B77" s="3" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="D77" s="4">
-        <v>4301011329</v>
+        <v>4301011223</v>
       </c>
       <c r="E77" s="3">
-        <v>4607091387308</v>
+        <v>4607091383423</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>228</v>
+        <v>192</v>
       </c>
       <c r="G77" s="1"/>
     </row>
     <row r="78" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A78" s="11"/>
       <c r="B78" s="3" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="D78" s="4">
-        <v>4301011049</v>
+        <v>4301011338</v>
       </c>
       <c r="E78" s="3">
-        <v>4607091387339</v>
+        <v>4607091381405</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
       <c r="G78" s="1"/>
     </row>
     <row r="79" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A79" s="11"/>
       <c r="B79" s="3" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>216</v>
+        <v>191</v>
       </c>
       <c r="D79" s="4">
-        <v>4301011454</v>
+        <v>4301011333</v>
       </c>
       <c r="E79" s="3">
-        <v>4680115881396</v>
+        <v>4607091386516</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>230</v>
+        <v>194</v>
       </c>
       <c r="G79" s="1"/>
     </row>
     <row r="80" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A80" s="11" t="s">
-        <v>705</v>
-      </c>
+      <c r="A80" s="11"/>
       <c r="B80" s="3" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="D80" s="4">
-        <v>4301010944</v>
+        <v>4301011346</v>
       </c>
       <c r="E80" s="3">
-        <v>4607091387346</v>
+        <v>4607091387445</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="G80" s="1"/>
     </row>
     <row r="81" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A81" s="11"/>
+      <c r="A81" s="11" t="s">
+        <v>730</v>
+      </c>
       <c r="B81" s="3" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="D81" s="4">
-        <v>4301011353</v>
+        <v>4301011308</v>
       </c>
       <c r="E81" s="3">
-        <v>4607091389807</v>
+        <v>4607091386004</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="G81" s="1"/>
     </row>
     <row r="82" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A82" s="11"/>
+      <c r="A82" s="11" t="s">
+        <v>770</v>
+      </c>
       <c r="B82" s="3" t="s">
-        <v>233</v>
+        <v>197</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>234</v>
+        <v>198</v>
       </c>
       <c r="D82" s="4">
-        <v>4301020220</v>
+        <v>4301011308</v>
       </c>
       <c r="E82" s="3">
-        <v>4680115880764</v>
+        <v>4607091386004</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="G82" s="1"/>
     </row>
     <row r="83" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="11"/>
+      <c r="A83" s="11" t="s">
+        <v>737</v>
+      </c>
       <c r="B83" s="3" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>237</v>
+        <v>198</v>
       </c>
       <c r="D83" s="4">
-        <v>4301031224</v>
+        <v>4301011308</v>
       </c>
       <c r="E83" s="3">
-        <v>4680115882683</v>
+        <v>4607091386004</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>264</v>
+        <v>221</v>
       </c>
       <c r="G83" s="1"/>
     </row>
     <row r="84" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A84" s="11"/>
+      <c r="A84" s="11" t="s">
+        <v>770</v>
+      </c>
       <c r="B84" s="3" t="s">
-        <v>238</v>
+        <v>197</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>239</v>
+        <v>198</v>
       </c>
       <c r="D84" s="4">
-        <v>4301031230</v>
+        <v>4301011308</v>
       </c>
       <c r="E84" s="3">
-        <v>4680115882690</v>
+        <v>4607091386004</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>265</v>
+        <v>221</v>
       </c>
       <c r="G84" s="1"/>
     </row>
     <row r="85" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A85" s="11" t="s">
-        <v>658</v>
-      </c>
+      <c r="A85" s="11"/>
       <c r="B85" s="3" t="s">
-        <v>240</v>
+        <v>199</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>241</v>
+        <v>200</v>
       </c>
       <c r="D85" s="4">
-        <v>4301030878</v>
+        <v>4301011347</v>
       </c>
       <c r="E85" s="3">
-        <v>4607091387193</v>
+        <v>4607091386073</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>266</v>
+        <v>222</v>
       </c>
       <c r="G85" s="1"/>
     </row>
     <row r="86" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
-        <v>735</v>
+        <v>762</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>242</v>
+        <v>201</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>243</v>
+        <v>202</v>
       </c>
       <c r="D86" s="4">
-        <v>4301031153</v>
+        <v>4301010928</v>
       </c>
       <c r="E86" s="3">
-        <v>4607091387230</v>
+        <v>4607091387322</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>267</v>
+        <v>223</v>
       </c>
       <c r="G86" s="1"/>
     </row>
     <row r="87" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
-        <v>740</v>
+        <v>750</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>242</v>
+        <v>201</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>243</v>
+        <v>202</v>
       </c>
       <c r="D87" s="4">
-        <v>4301031153</v>
+        <v>4301010928</v>
       </c>
       <c r="E87" s="3">
-        <v>4607091387230</v>
+        <v>4607091387322</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>267</v>
+        <v>223</v>
       </c>
       <c r="G87" s="1"/>
     </row>
     <row r="88" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
-        <v>675</v>
+        <v>784</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>244</v>
+        <v>201</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>245</v>
+        <v>202</v>
       </c>
       <c r="D88" s="4">
-        <v>4301031191</v>
+        <v>4301010928</v>
       </c>
       <c r="E88" s="3">
-        <v>4680115880993</v>
+        <v>4607091387322</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>268</v>
+        <v>223</v>
       </c>
       <c r="G88" s="1"/>
     </row>
     <row r="89" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A89" s="11"/>
       <c r="B89" s="3" t="s">
-        <v>246</v>
+        <v>201</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>247</v>
+        <v>203</v>
       </c>
       <c r="D89" s="4">
-        <v>4301031204</v>
+        <v>4301011395</v>
       </c>
       <c r="E89" s="3">
-        <v>4680115881761</v>
+        <v>4607091387322</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>269</v>
+        <v>223</v>
       </c>
       <c r="G89" s="1"/>
     </row>
     <row r="90" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A90" s="11"/>
+      <c r="A90" s="11" t="s">
+        <v>782</v>
+      </c>
       <c r="B90" s="3" t="s">
-        <v>248</v>
+        <v>204</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>249</v>
+        <v>205</v>
       </c>
       <c r="D90" s="4">
-        <v>4301031201</v>
+        <v>4301011311</v>
       </c>
       <c r="E90" s="3">
-        <v>4680115881563</v>
+        <v>4607091387377</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>270</v>
+        <v>224</v>
       </c>
       <c r="G90" s="1"/>
     </row>
     <row r="91" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>250</v>
+        <v>206</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>251</v>
+        <v>207</v>
       </c>
       <c r="D91" s="4">
-        <v>4301031152</v>
+        <v>4301010945</v>
       </c>
       <c r="E91" s="3">
-        <v>4607091387285</v>
+        <v>4607091387353</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>271</v>
+        <v>225</v>
       </c>
       <c r="G91" s="1"/>
     </row>
-    <row r="92" spans="1:7" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A92" s="11" t="s">
-        <v>696</v>
+        <v>761</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>252</v>
+        <v>208</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>253</v>
+        <v>209</v>
       </c>
       <c r="D92" s="4">
-        <v>4301031199</v>
+        <v>4301011328</v>
       </c>
       <c r="E92" s="3">
-        <v>4680115880986</v>
+        <v>4607091386011</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>272</v>
+        <v>226</v>
       </c>
       <c r="G92" s="1"/>
     </row>
     <row r="93" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A93" s="11"/>
+      <c r="A93" s="11" t="s">
+        <v>743</v>
+      </c>
       <c r="B93" s="3" t="s">
-        <v>254</v>
+        <v>208</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>255</v>
+        <v>209</v>
       </c>
       <c r="D93" s="4">
-        <v>4301031190</v>
+        <v>4301011328</v>
       </c>
       <c r="E93" s="3">
-        <v>4680115880207</v>
+        <v>4607091386011</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>273</v>
+        <v>226</v>
       </c>
       <c r="G93" s="1"/>
     </row>
     <row r="94" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A94" s="11"/>
       <c r="B94" s="3" t="s">
-        <v>256</v>
+        <v>210</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>257</v>
+        <v>211</v>
       </c>
       <c r="D94" s="4">
-        <v>4301031158</v>
+        <v>4301011329</v>
       </c>
       <c r="E94" s="3">
-        <v>4680115880191</v>
+        <v>4607091387308</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>274</v>
+        <v>227</v>
       </c>
       <c r="G94" s="1"/>
     </row>
     <row r="95" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A95" s="11" t="s">
-        <v>719</v>
-      </c>
+      <c r="A95" s="11"/>
       <c r="B95" s="3" t="s">
-        <v>258</v>
+        <v>212</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>259</v>
+        <v>213</v>
       </c>
       <c r="D95" s="4">
-        <v>4301031151</v>
+        <v>4301011049</v>
       </c>
       <c r="E95" s="3">
-        <v>4607091389845</v>
+        <v>4607091387339</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>275</v>
+        <v>228</v>
       </c>
       <c r="G95" s="1"/>
     </row>
     <row r="96" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A96" s="11" t="s">
-        <v>721</v>
-      </c>
+      <c r="A96" s="11"/>
       <c r="B96" s="3" t="s">
-        <v>260</v>
+        <v>214</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>261</v>
+        <v>215</v>
       </c>
       <c r="D96" s="4">
-        <v>4301031205</v>
+        <v>4301011454</v>
       </c>
       <c r="E96" s="3">
-        <v>4680115881785</v>
+        <v>4680115881396</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>276</v>
+        <v>229</v>
       </c>
       <c r="G96" s="1"/>
     </row>
     <row r="97" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
-        <v>722</v>
+        <v>704</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>262</v>
+        <v>216</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>263</v>
+        <v>217</v>
       </c>
       <c r="D97" s="4">
-        <v>4301031202</v>
+        <v>4301010944</v>
       </c>
       <c r="E97" s="3">
-        <v>4680115881679</v>
+        <v>4607091387346</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>277</v>
+        <v>230</v>
       </c>
       <c r="G97" s="1"/>
     </row>
     <row r="98" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A98" s="11"/>
       <c r="B98" s="3" t="s">
-        <v>278</v>
+        <v>218</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>279</v>
+        <v>219</v>
       </c>
       <c r="D98" s="4">
-        <v>4301051408</v>
+        <v>4301011353</v>
       </c>
       <c r="E98" s="3">
-        <v>4680115881594</v>
+        <v>4607091389807</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="G98" s="6"/>
+        <v>231</v>
+      </c>
+      <c r="G98" s="1"/>
     </row>
     <row r="99" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A99" s="11"/>
       <c r="B99" s="3" t="s">
-        <v>280</v>
+        <v>232</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>281</v>
+        <v>233</v>
       </c>
       <c r="D99" s="4">
-        <v>4301051407</v>
+        <v>4301020220</v>
       </c>
       <c r="E99" s="3">
-        <v>4680115882195</v>
+        <v>4680115880764</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="G99" s="6"/>
+        <v>234</v>
+      </c>
+      <c r="G99" s="1"/>
     </row>
     <row r="100" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A100" s="11"/>
       <c r="B100" s="3" t="s">
-        <v>282</v>
+        <v>235</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>283</v>
+        <v>236</v>
       </c>
       <c r="D100" s="4">
-        <v>4301051411</v>
+        <v>4301031224</v>
       </c>
       <c r="E100" s="3">
-        <v>4680115881617</v>
+        <v>4680115882683</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="G100" s="6"/>
+        <v>263</v>
+      </c>
+      <c r="G100" s="1"/>
     </row>
     <row r="101" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A101" s="11"/>
       <c r="B101" s="3" t="s">
-        <v>284</v>
+        <v>237</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>285</v>
+        <v>238</v>
       </c>
       <c r="D101" s="4">
-        <v>4301051410</v>
+        <v>4301031230</v>
       </c>
       <c r="E101" s="3">
-        <v>4680115882164</v>
+        <v>4680115882690</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="G101" s="6"/>
+        <v>264</v>
+      </c>
+      <c r="G101" s="1"/>
     </row>
     <row r="102" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A102" s="11" t="s">
-        <v>758</v>
+        <v>764</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>286</v>
+        <v>239</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>287</v>
+        <v>240</v>
       </c>
       <c r="D102" s="4">
-        <v>4301051409</v>
+        <v>4301030878</v>
       </c>
       <c r="E102" s="3">
-        <v>4680115881556</v>
+        <v>4607091387193</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="G102" s="6"/>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+      <c r="G102" s="1"/>
+    </row>
+    <row r="103" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A103" s="11" t="s">
-        <v>736</v>
+        <v>657</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>288</v>
+        <v>239</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>289</v>
+        <v>240</v>
       </c>
       <c r="D103" s="4">
-        <v>4301051101</v>
+        <v>4301030878</v>
       </c>
       <c r="E103" s="3">
-        <v>4607091387766</v>
+        <v>4607091387193</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="G103" s="6"/>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+      <c r="G103" s="1"/>
+    </row>
+    <row r="104" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A104" s="11" t="s">
-        <v>663</v>
+        <v>765</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>288</v>
+        <v>241</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>289</v>
+        <v>242</v>
       </c>
       <c r="D104" s="4">
-        <v>4301051101</v>
+        <v>4301031153</v>
       </c>
       <c r="E104" s="3">
-        <v>4607091387766</v>
+        <v>4607091387230</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="G104" s="6"/>
+        <v>266</v>
+      </c>
+      <c r="G104" s="1"/>
     </row>
     <row r="105" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A105" s="11"/>
+      <c r="A105" s="11" t="s">
+        <v>733</v>
+      </c>
       <c r="B105" s="3" t="s">
-        <v>290</v>
+        <v>241</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>291</v>
+        <v>242</v>
       </c>
       <c r="D105" s="4">
-        <v>4301051116</v>
+        <v>4301031153</v>
       </c>
       <c r="E105" s="3">
-        <v>4607091387957</v>
+        <v>4607091387230</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="G105" s="6"/>
+        <v>266</v>
+      </c>
+      <c r="G105" s="1"/>
     </row>
     <row r="106" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A106" s="11" t="s">
-        <v>751</v>
+        <v>738</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>292</v>
+        <v>241</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>293</v>
+        <v>242</v>
       </c>
       <c r="D106" s="4">
-        <v>4301051115</v>
+        <v>4301031153</v>
       </c>
       <c r="E106" s="3">
-        <v>4607091387964</v>
+        <v>4607091387230</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="G106" s="6"/>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="11"/>
+        <v>266</v>
+      </c>
+      <c r="G106" s="1"/>
+    </row>
+    <row r="107" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A107" s="11" t="s">
+        <v>674</v>
+      </c>
       <c r="B107" s="3" t="s">
-        <v>294</v>
+        <v>243</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>295</v>
+        <v>244</v>
       </c>
       <c r="D107" s="4">
-        <v>4301051470</v>
+        <v>4301031191</v>
       </c>
       <c r="E107" s="3">
-        <v>4680115880573</v>
+        <v>4680115880993</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="G107" s="6" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="11" t="s">
-        <v>729</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="G107" s="1"/>
+    </row>
+    <row r="108" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A108" s="11"/>
       <c r="B108" s="3" t="s">
-        <v>294</v>
+        <v>245</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>296</v>
+        <v>246</v>
       </c>
       <c r="D108" s="4">
-        <v>4301051370</v>
+        <v>4301031204</v>
       </c>
       <c r="E108" s="3">
-        <v>4680115880573</v>
+        <v>4680115881761</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="G108" s="6"/>
+        <v>268</v>
+      </c>
+      <c r="G108" s="1"/>
     </row>
     <row r="109" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A109" s="11"/>
       <c r="B109" s="3" t="s">
-        <v>297</v>
+        <v>247</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>298</v>
+        <v>248</v>
       </c>
       <c r="D109" s="4">
-        <v>4301051433</v>
+        <v>4301031201</v>
       </c>
       <c r="E109" s="3">
-        <v>4680115881587</v>
+        <v>4680115881563</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="G109" s="6"/>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="11"/>
+        <v>269</v>
+      </c>
+      <c r="G109" s="1"/>
+    </row>
+    <row r="110" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A110" s="11" t="s">
+        <v>744</v>
+      </c>
       <c r="B110" s="3" t="s">
-        <v>299</v>
+        <v>249</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="D110" s="4">
-        <v>4301051380</v>
+        <v>4301031152</v>
       </c>
       <c r="E110" s="3">
-        <v>4680115880962</v>
+        <v>4607091387285</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="G110" s="6"/>
-    </row>
-    <row r="111" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+      <c r="G110" s="1"/>
+    </row>
+    <row r="111" spans="1:7" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A111" s="11" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>302</v>
+        <v>252</v>
       </c>
       <c r="D111" s="4">
-        <v>4301051377</v>
+        <v>4301031199</v>
       </c>
       <c r="E111" s="3">
-        <v>4680115881228</v>
+        <v>4680115880986</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="G111" s="6"/>
+        <v>271</v>
+      </c>
+      <c r="G111" s="1"/>
     </row>
     <row r="112" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A112" s="11"/>
       <c r="B112" s="3" t="s">
-        <v>303</v>
+        <v>253</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>304</v>
+        <v>254</v>
       </c>
       <c r="D112" s="4">
-        <v>4301051432</v>
+        <v>4301031190</v>
       </c>
       <c r="E112" s="3">
-        <v>4680115881037</v>
+        <v>4680115880207</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="G112" s="6"/>
+        <v>272</v>
+      </c>
+      <c r="G112" s="1"/>
     </row>
     <row r="113" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A113" s="11" t="s">
-        <v>698</v>
-      </c>
+      <c r="A113" s="11"/>
       <c r="B113" s="3" t="s">
-        <v>305</v>
+        <v>255</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>306</v>
+        <v>256</v>
       </c>
       <c r="D113" s="4">
-        <v>4301051384</v>
+        <v>4301031158</v>
       </c>
       <c r="E113" s="3">
-        <v>4680115881211</v>
+        <v>4680115880191</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="G113" s="6"/>
+        <v>273</v>
+      </c>
+      <c r="G113" s="1"/>
     </row>
     <row r="114" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A114" s="11"/>
+      <c r="A114" s="11" t="s">
+        <v>717</v>
+      </c>
       <c r="B114" s="3" t="s">
-        <v>307</v>
+        <v>257</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>308</v>
+        <v>258</v>
       </c>
       <c r="D114" s="4">
-        <v>4301051378</v>
+        <v>4301031151</v>
       </c>
       <c r="E114" s="3">
-        <v>4680115881020</v>
+        <v>4607091389845</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="G114" s="6"/>
+        <v>274</v>
+      </c>
+      <c r="G114" s="1"/>
     </row>
     <row r="115" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A115" s="11" t="s">
-        <v>747</v>
+        <v>719</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>309</v>
+        <v>259</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>310</v>
+        <v>260</v>
       </c>
       <c r="D115" s="4">
-        <v>4301051134</v>
+        <v>4301031205</v>
       </c>
       <c r="E115" s="3">
-        <v>4607091381672</v>
+        <v>4680115881785</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="G115" s="6"/>
+        <v>275</v>
+      </c>
+      <c r="G115" s="1"/>
     </row>
     <row r="116" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A116" s="11"/>
+      <c r="A116" s="11" t="s">
+        <v>813</v>
+      </c>
       <c r="B116" s="3" t="s">
-        <v>311</v>
+        <v>261</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>312</v>
+        <v>262</v>
       </c>
       <c r="D116" s="4">
-        <v>4301051130</v>
+        <v>4301031202</v>
       </c>
       <c r="E116" s="3">
-        <v>4607091387537</v>
+        <v>4680115881679</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="G116" s="6"/>
+        <v>276</v>
+      </c>
+      <c r="G116" s="1"/>
     </row>
     <row r="117" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A117" s="11"/>
+      <c r="A117" s="11" t="s">
+        <v>720</v>
+      </c>
       <c r="B117" s="3" t="s">
-        <v>313</v>
+        <v>261</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>314</v>
+        <v>262</v>
       </c>
       <c r="D117" s="4">
-        <v>4301051132</v>
+        <v>4301031202</v>
       </c>
       <c r="E117" s="3">
-        <v>4607091387513</v>
+        <v>4680115881679</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="G117" s="6"/>
+        <v>276</v>
+      </c>
+      <c r="G117" s="1"/>
     </row>
     <row r="118" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A118" s="11" t="s">
-        <v>706</v>
-      </c>
+      <c r="A118" s="11"/>
       <c r="B118" s="3" t="s">
-        <v>315</v>
+        <v>277</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>316</v>
+        <v>278</v>
       </c>
       <c r="D118" s="4">
-        <v>4301051468</v>
+        <v>4301051408</v>
       </c>
       <c r="E118" s="3">
-        <v>4680115880092</v>
+        <v>4680115881594</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="G118" s="6" t="s">
-        <v>346</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="G118" s="6"/>
     </row>
     <row r="119" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A119" s="11" t="s">
-        <v>695</v>
-      </c>
+      <c r="A119" s="11"/>
       <c r="B119" s="3" t="s">
-        <v>315</v>
+        <v>279</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="D119" s="4">
-        <v>4301051371</v>
+        <v>4301051407</v>
       </c>
       <c r="E119" s="3">
-        <v>4680115880092</v>
+        <v>4680115882195</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>343</v>
+        <v>323</v>
       </c>
       <c r="G119" s="6"/>
     </row>
     <row r="120" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A120" s="11"/>
       <c r="B120" s="3" t="s">
-        <v>318</v>
+        <v>281</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>319</v>
+        <v>282</v>
       </c>
       <c r="D120" s="4">
-        <v>4301051469</v>
+        <v>4301051411</v>
       </c>
       <c r="E120" s="3">
-        <v>4680115880221</v>
+        <v>4680115881617</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="G120" s="6" t="s">
-        <v>346</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="G120" s="6"/>
     </row>
     <row r="121" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A121" s="11"/>
       <c r="B121" s="3" t="s">
-        <v>318</v>
+        <v>283</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>320</v>
+        <v>284</v>
       </c>
       <c r="D121" s="4">
-        <v>4301051372</v>
+        <v>4301051410</v>
       </c>
       <c r="E121" s="3">
-        <v>4680115880221</v>
+        <v>4680115882164</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="G121" s="6"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A122" s="11" t="s">
-        <v>723</v>
+        <v>756</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>321</v>
+        <v>285</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>322</v>
+        <v>286</v>
       </c>
       <c r="D122" s="4">
-        <v>4301051326</v>
+        <v>4301051409</v>
       </c>
       <c r="E122" s="3">
-        <v>4680115880504</v>
+        <v>4680115881556</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
       <c r="G122" s="6"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="11" t="s">
-        <v>660</v>
+        <v>734</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>347</v>
+        <v>287</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>348</v>
+        <v>288</v>
       </c>
       <c r="D123" s="4">
-        <v>4301060326</v>
+        <v>4301051101</v>
       </c>
       <c r="E123" s="3">
-        <v>4607091380880</v>
+        <v>4607091387766</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="G123" s="1"/>
-    </row>
-    <row r="124" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+      <c r="G123" s="6"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="11" t="s">
-        <v>662</v>
+        <v>758</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>349</v>
+        <v>287</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>350</v>
+        <v>288</v>
       </c>
       <c r="D124" s="4">
-        <v>4301060308</v>
+        <v>4301051101</v>
       </c>
       <c r="E124" s="3">
-        <v>4607091384482</v>
+        <v>4607091387766</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="G124" s="1"/>
+        <v>327</v>
+      </c>
+      <c r="G124" s="6"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="11" t="s">
-        <v>668</v>
+        <v>808</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>351</v>
+        <v>287</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>352</v>
+        <v>288</v>
       </c>
       <c r="D125" s="4">
-        <v>4301060325</v>
+        <v>4301051101</v>
       </c>
       <c r="E125" s="3">
-        <v>4607091380897</v>
+        <v>4607091387766</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="G125" s="1"/>
-    </row>
-    <row r="126" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A126" s="11"/>
+        <v>327</v>
+      </c>
+      <c r="G125" s="6"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="11" t="s">
+        <v>662</v>
+      </c>
       <c r="B126" s="3" t="s">
-        <v>353</v>
+        <v>287</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>354</v>
+        <v>288</v>
       </c>
       <c r="D126" s="4">
-        <v>4301060338</v>
+        <v>4301051101</v>
       </c>
       <c r="E126" s="3">
-        <v>4680115880801</v>
+        <v>4607091387766</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="G126" s="1"/>
+        <v>327</v>
+      </c>
+      <c r="G126" s="6"/>
     </row>
     <row r="127" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A127" s="11"/>
       <c r="B127" s="3" t="s">
-        <v>355</v>
+        <v>289</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>356</v>
+        <v>290</v>
       </c>
       <c r="D127" s="4">
-        <v>4301060339</v>
+        <v>4301051116</v>
       </c>
       <c r="E127" s="3">
-        <v>4680115880818</v>
+        <v>4607091387957</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="G127" s="1"/>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="11"/>
+        <v>328</v>
+      </c>
+      <c r="G127" s="6"/>
+    </row>
+    <row r="128" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A128" s="11" t="s">
+        <v>749</v>
+      </c>
       <c r="B128" s="3" t="s">
-        <v>357</v>
+        <v>291</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>358</v>
+        <v>292</v>
       </c>
       <c r="D128" s="4">
-        <v>4301060337</v>
+        <v>4301051115</v>
       </c>
       <c r="E128" s="3">
-        <v>4680115880368</v>
+        <v>4607091387964</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="G128" s="1"/>
-    </row>
-    <row r="129" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+      <c r="G128" s="6"/>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="11"/>
       <c r="B129" s="3" t="s">
-        <v>365</v>
+        <v>293</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>366</v>
+        <v>294</v>
       </c>
       <c r="D129" s="4">
-        <v>4301030232</v>
+        <v>4301051470</v>
       </c>
       <c r="E129" s="3">
-        <v>4607091388374</v>
+        <v>4680115880573</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="G129" s="1"/>
-    </row>
-    <row r="130" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A130" s="11"/>
+        <v>330</v>
+      </c>
+      <c r="G129" s="6" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" s="11" t="s">
+        <v>727</v>
+      </c>
       <c r="B130" s="3" t="s">
-        <v>367</v>
+        <v>293</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>368</v>
+        <v>295</v>
       </c>
       <c r="D130" s="4">
-        <v>4301030235</v>
+        <v>4301051370</v>
       </c>
       <c r="E130" s="3">
-        <v>4607091388381</v>
+        <v>4680115880573</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="G130" s="1"/>
+        <v>331</v>
+      </c>
+      <c r="G130" s="6"/>
     </row>
     <row r="131" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A131" s="11" t="s">
-        <v>686</v>
-      </c>
+      <c r="A131" s="11"/>
       <c r="B131" s="3" t="s">
-        <v>369</v>
+        <v>296</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>370</v>
+        <v>297</v>
       </c>
       <c r="D131" s="4">
-        <v>4301030233</v>
+        <v>4301051433</v>
       </c>
       <c r="E131" s="3">
-        <v>4607091388404</v>
+        <v>4680115881587</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="G131" s="1"/>
+        <v>332</v>
+      </c>
+      <c r="G131" s="6"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="11"/>
       <c r="B132" s="3" t="s">
-        <v>374</v>
+        <v>298</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>375</v>
+        <v>299</v>
       </c>
       <c r="D132" s="4">
-        <v>4301180002</v>
+        <v>4301051380</v>
       </c>
       <c r="E132" s="3">
-        <v>4680115880122</v>
+        <v>4680115880962</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="G132" s="1"/>
+        <v>333</v>
+      </c>
+      <c r="G132" s="6"/>
     </row>
     <row r="133" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A133" s="11"/>
+      <c r="A133" s="11" t="s">
+        <v>696</v>
+      </c>
       <c r="B133" s="3" t="s">
-        <v>376</v>
+        <v>300</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>377</v>
+        <v>301</v>
       </c>
       <c r="D133" s="4">
-        <v>4301180007</v>
+        <v>4301051377</v>
       </c>
       <c r="E133" s="3">
-        <v>4680115881808</v>
+        <v>4680115881228</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="G133" s="1"/>
+        <v>334</v>
+      </c>
+      <c r="G133" s="6"/>
     </row>
     <row r="134" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A134" s="11"/>
       <c r="B134" s="3" t="s">
-        <v>378</v>
+        <v>302</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>379</v>
+        <v>303</v>
       </c>
       <c r="D134" s="4">
-        <v>4301180006</v>
+        <v>4301051432</v>
       </c>
       <c r="E134" s="3">
-        <v>4680115881822</v>
+        <v>4680115881037</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="G134" s="1"/>
+        <v>335</v>
+      </c>
+      <c r="G134" s="6"/>
     </row>
     <row r="135" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A135" s="11"/>
+      <c r="A135" s="11" t="s">
+        <v>697</v>
+      </c>
       <c r="B135" s="3" t="s">
-        <v>380</v>
+        <v>304</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>381</v>
+        <v>305</v>
       </c>
       <c r="D135" s="4">
-        <v>4301180001</v>
+        <v>4301051384</v>
       </c>
       <c r="E135" s="3">
-        <v>4680115880016</v>
+        <v>4680115881211</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>385</v>
-      </c>
-      <c r="G135" s="1"/>
+        <v>336</v>
+      </c>
+      <c r="G135" s="6"/>
     </row>
     <row r="136" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A136" s="11"/>
       <c r="B136" s="3" t="s">
-        <v>386</v>
+        <v>306</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>387</v>
+        <v>307</v>
       </c>
       <c r="D136" s="4">
-        <v>4301011315</v>
+        <v>4301051378</v>
       </c>
       <c r="E136" s="3">
-        <v>4607091387421</v>
+        <v>4680115881020</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>398</v>
-      </c>
-      <c r="G136" s="1"/>
+        <v>337</v>
+      </c>
+      <c r="G136" s="6"/>
     </row>
     <row r="137" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A137" s="11"/>
+      <c r="A137" s="11" t="s">
+        <v>745</v>
+      </c>
       <c r="B137" s="3" t="s">
-        <v>386</v>
+        <v>308</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>388</v>
+        <v>309</v>
       </c>
       <c r="D137" s="4">
-        <v>4301011121</v>
+        <v>4301051134</v>
       </c>
       <c r="E137" s="3">
-        <v>4607091387421</v>
+        <v>4607091381672</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>398</v>
-      </c>
-      <c r="G137" s="1"/>
+        <v>338</v>
+      </c>
+      <c r="G137" s="6"/>
     </row>
     <row r="138" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A138" s="11" t="s">
-        <v>748</v>
-      </c>
+      <c r="A138" s="11"/>
       <c r="B138" s="3" t="s">
-        <v>389</v>
+        <v>310</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>390</v>
+        <v>311</v>
       </c>
       <c r="D138" s="4">
-        <v>4301011322</v>
+        <v>4301051130</v>
       </c>
       <c r="E138" s="3">
-        <v>4607091387452</v>
+        <v>4607091387537</v>
       </c>
       <c r="F138" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="G138" s="1"/>
+        <v>339</v>
+      </c>
+      <c r="G138" s="6"/>
     </row>
     <row r="139" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A139" s="11"/>
       <c r="B139" s="3" t="s">
-        <v>389</v>
+        <v>312</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>391</v>
+        <v>313</v>
       </c>
       <c r="D139" s="4">
-        <v>4301011396</v>
+        <v>4301051132</v>
       </c>
       <c r="E139" s="3">
-        <v>4607091387452</v>
+        <v>4607091387513</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="G139" s="1"/>
+        <v>340</v>
+      </c>
+      <c r="G139" s="6"/>
     </row>
     <row r="140" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A140" s="11"/>
+      <c r="A140" s="11" t="s">
+        <v>705</v>
+      </c>
       <c r="B140" s="3" t="s">
-        <v>392</v>
+        <v>314</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>393</v>
+        <v>315</v>
       </c>
       <c r="D140" s="4">
-        <v>4301011313</v>
+        <v>4301051468</v>
       </c>
       <c r="E140" s="3">
-        <v>4607091385984</v>
+        <v>4680115880092</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="G140" s="1"/>
+        <v>341</v>
+      </c>
+      <c r="G140" s="6" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="141" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A141" s="11" t="s">
-        <v>731</v>
+        <v>694</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>394</v>
+        <v>314</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>395</v>
+        <v>316</v>
       </c>
       <c r="D141" s="4">
-        <v>4301011316</v>
+        <v>4301051371</v>
       </c>
       <c r="E141" s="3">
-        <v>4607091387438</v>
+        <v>4680115880092</v>
       </c>
       <c r="F141" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="G141" s="1"/>
+        <v>342</v>
+      </c>
+      <c r="G141" s="6"/>
     </row>
     <row r="142" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A142" s="11" t="s">
-        <v>744</v>
+        <v>811</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>394</v>
+        <v>317</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>395</v>
+        <v>318</v>
       </c>
       <c r="D142" s="4">
-        <v>4301011316</v>
+        <v>4301051469</v>
       </c>
       <c r="E142" s="3">
-        <v>4607091387438</v>
+        <v>4680115880221</v>
       </c>
       <c r="F142" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="G142" s="1"/>
+        <v>343</v>
+      </c>
+      <c r="G142" s="6"/>
     </row>
     <row r="143" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A143" s="11"/>
       <c r="B143" s="3" t="s">
-        <v>396</v>
+        <v>317</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>397</v>
+        <v>319</v>
       </c>
       <c r="D143" s="4">
-        <v>4301011318</v>
+        <v>4301051372</v>
       </c>
       <c r="E143" s="3">
-        <v>4607091387469</v>
+        <v>4680115880221</v>
       </c>
       <c r="F143" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="G143" s="1"/>
-    </row>
-    <row r="144" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A144" s="11"/>
+        <v>343</v>
+      </c>
+      <c r="G143" s="6"/>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" s="11" t="s">
+        <v>721</v>
+      </c>
       <c r="B144" s="3" t="s">
-        <v>403</v>
+        <v>320</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>404</v>
+        <v>321</v>
       </c>
       <c r="D144" s="4">
-        <v>4301031154</v>
+        <v>4301051326</v>
       </c>
       <c r="E144" s="3">
-        <v>4607091387292</v>
+        <v>4680115880504</v>
       </c>
       <c r="F144" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="G144" s="1"/>
-    </row>
-    <row r="145" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A145" s="11"/>
+        <v>344</v>
+      </c>
+      <c r="G144" s="6"/>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" s="11" t="s">
+        <v>659</v>
+      </c>
       <c r="B145" s="3" t="s">
-        <v>405</v>
+        <v>346</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>406</v>
+        <v>347</v>
       </c>
       <c r="D145" s="4">
-        <v>4301031155</v>
+        <v>4301060326</v>
       </c>
       <c r="E145" s="3">
-        <v>4607091387315</v>
+        <v>4607091380880</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>408</v>
+        <v>358</v>
       </c>
       <c r="G145" s="1"/>
     </row>
     <row r="146" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A146" s="11" t="s">
-        <v>715</v>
+        <v>779</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>409</v>
+        <v>348</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>410</v>
+        <v>349</v>
       </c>
       <c r="D146" s="4">
-        <v>4301030368</v>
+        <v>4301060308</v>
       </c>
       <c r="E146" s="3">
-        <v>4607091383232</v>
+        <v>4607091384482</v>
       </c>
       <c r="F146" s="5" t="s">
-        <v>413</v>
+        <v>359</v>
       </c>
       <c r="G146" s="1"/>
     </row>
     <row r="147" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A147" s="11" t="s">
-        <v>684</v>
+        <v>661</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>411</v>
+        <v>348</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>412</v>
+        <v>349</v>
       </c>
       <c r="D147" s="4">
-        <v>4301031066</v>
+        <v>4301060308</v>
       </c>
       <c r="E147" s="3">
-        <v>4607091383836</v>
+        <v>4607091384482</v>
       </c>
       <c r="F147" s="5" t="s">
-        <v>414</v>
+        <v>359</v>
       </c>
       <c r="G147" s="1"/>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="11" t="s">
-        <v>750</v>
+        <v>667</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>415</v>
+        <v>350</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>416</v>
+        <v>351</v>
       </c>
       <c r="D148" s="4">
-        <v>4301051142</v>
+        <v>4301060325</v>
       </c>
       <c r="E148" s="3">
-        <v>4607091387919</v>
+        <v>4607091380897</v>
       </c>
       <c r="F148" s="5" t="s">
-        <v>421</v>
+        <v>360</v>
       </c>
       <c r="G148" s="1"/>
     </row>
     <row r="149" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A149" s="11" t="s">
-        <v>688</v>
-      </c>
+      <c r="A149" s="11"/>
       <c r="B149" s="3" t="s">
-        <v>417</v>
+        <v>352</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>418</v>
+        <v>353</v>
       </c>
       <c r="D149" s="4">
-        <v>4301051109</v>
+        <v>4301060338</v>
       </c>
       <c r="E149" s="3">
-        <v>4607091383942</v>
+        <v>4680115880801</v>
       </c>
       <c r="F149" s="5" t="s">
-        <v>422</v>
+        <v>361</v>
       </c>
       <c r="G149" s="1"/>
     </row>
     <row r="150" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A150" s="11" t="s">
-        <v>687</v>
-      </c>
+      <c r="A150" s="11"/>
       <c r="B150" s="3" t="s">
-        <v>419</v>
+        <v>354</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>420</v>
+        <v>355</v>
       </c>
       <c r="D150" s="4">
-        <v>4301051300</v>
+        <v>4301060339</v>
       </c>
       <c r="E150" s="3">
-        <v>4607091383959</v>
+        <v>4680115880818</v>
       </c>
       <c r="F150" s="5" t="s">
-        <v>423</v>
+        <v>362</v>
       </c>
       <c r="G150" s="1"/>
     </row>
-    <row r="151" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A151" s="11" t="s">
-        <v>716</v>
-      </c>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" s="11"/>
       <c r="B151" s="3" t="s">
-        <v>424</v>
+        <v>356</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>425</v>
+        <v>357</v>
       </c>
       <c r="D151" s="4">
-        <v>4301060324</v>
+        <v>4301060337</v>
       </c>
       <c r="E151" s="3">
-        <v>4607091388831</v>
+        <v>4680115880368</v>
       </c>
       <c r="F151" s="5" t="s">
-        <v>426</v>
+        <v>363</v>
       </c>
       <c r="G151" s="1"/>
     </row>
     <row r="152" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A152" s="11"/>
       <c r="B152" s="3" t="s">
-        <v>427</v>
+        <v>364</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>428</v>
+        <v>365</v>
       </c>
       <c r="D152" s="4">
-        <v>4301032015</v>
+        <v>4301030232</v>
       </c>
       <c r="E152" s="3">
-        <v>4607091383102</v>
+        <v>4607091388374</v>
       </c>
       <c r="F152" s="5" t="s">
-        <v>429</v>
+        <v>370</v>
       </c>
       <c r="G152" s="1"/>
     </row>
     <row r="153" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A153" s="11"/>
+      <c r="A153" s="11" t="s">
+        <v>818</v>
+      </c>
       <c r="B153" s="3" t="s">
-        <v>430</v>
+        <v>366</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>431</v>
+        <v>367</v>
       </c>
       <c r="D153" s="4">
-        <v>4301032026</v>
+        <v>4301030235</v>
       </c>
       <c r="E153" s="3">
-        <v>4607091389142</v>
+        <v>4607091388381</v>
       </c>
       <c r="F153" s="5" t="s">
-        <v>432</v>
+        <v>371</v>
       </c>
       <c r="G153" s="1"/>
     </row>
     <row r="154" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A154" s="11" t="s">
-        <v>649</v>
+        <v>685</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>433</v>
+        <v>368</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>434</v>
+        <v>369</v>
       </c>
       <c r="D154" s="4">
-        <v>4301011339</v>
+        <v>4301030233</v>
       </c>
       <c r="E154" s="3">
-        <v>4607091383997</v>
+        <v>4607091388404</v>
       </c>
       <c r="F154" s="5" t="s">
-        <v>446</v>
+        <v>372</v>
       </c>
       <c r="G154" s="1"/>
     </row>
-    <row r="155" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A155" s="11" t="s">
-        <v>702</v>
-      </c>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" s="11"/>
       <c r="B155" s="3" t="s">
-        <v>433</v>
+        <v>373</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>435</v>
+        <v>374</v>
       </c>
       <c r="D155" s="4">
-        <v>4301011239</v>
+        <v>4301180002</v>
       </c>
       <c r="E155" s="3">
-        <v>4607091383997</v>
+        <v>4680115880122</v>
       </c>
       <c r="F155" s="5" t="s">
-        <v>446</v>
+        <v>381</v>
       </c>
       <c r="G155" s="1"/>
     </row>
     <row r="156" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A156" s="11" t="s">
-        <v>652</v>
-      </c>
+      <c r="A156" s="11"/>
       <c r="B156" s="3" t="s">
-        <v>436</v>
+        <v>375</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>437</v>
+        <v>376</v>
       </c>
       <c r="D156" s="4">
-        <v>4301011326</v>
+        <v>4301180007</v>
       </c>
       <c r="E156" s="3">
-        <v>4607091384130</v>
+        <v>4680115881808</v>
       </c>
       <c r="F156" s="5" t="s">
-        <v>447</v>
+        <v>382</v>
       </c>
       <c r="G156" s="1"/>
     </row>
     <row r="157" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A157" s="11" t="s">
-        <v>703</v>
-      </c>
+      <c r="A157" s="11"/>
       <c r="B157" s="3" t="s">
-        <v>436</v>
+        <v>377</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>438</v>
+        <v>378</v>
       </c>
       <c r="D157" s="4">
-        <v>4301011240</v>
+        <v>4301180006</v>
       </c>
       <c r="E157" s="3">
-        <v>4607091384130</v>
+        <v>4680115881822</v>
       </c>
       <c r="F157" s="5" t="s">
-        <v>447</v>
+        <v>383</v>
       </c>
       <c r="G157" s="1"/>
     </row>
     <row r="158" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A158" s="11" t="s">
-        <v>654</v>
-      </c>
+      <c r="A158" s="11"/>
       <c r="B158" s="3" t="s">
-        <v>439</v>
+        <v>379</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>440</v>
+        <v>380</v>
       </c>
       <c r="D158" s="4">
-        <v>4301011330</v>
+        <v>4301180001</v>
       </c>
       <c r="E158" s="3">
-        <v>4607091384147</v>
+        <v>4680115880016</v>
       </c>
       <c r="F158" s="5" t="s">
-        <v>448</v>
+        <v>384</v>
       </c>
       <c r="G158" s="1"/>
     </row>
     <row r="159" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A159" s="11" t="s">
-        <v>704</v>
+        <v>763</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>439</v>
+        <v>385</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>441</v>
+        <v>386</v>
       </c>
       <c r="D159" s="4">
-        <v>4301011238</v>
+        <v>4301011315</v>
       </c>
       <c r="E159" s="3">
-        <v>4607091384147</v>
+        <v>4607091387421</v>
       </c>
       <c r="F159" s="5" t="s">
-        <v>448</v>
+        <v>397</v>
       </c>
       <c r="G159" s="1"/>
     </row>
     <row r="160" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A160" s="11" t="s">
-        <v>683</v>
+        <v>786</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>442</v>
+        <v>385</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>443</v>
+        <v>386</v>
       </c>
       <c r="D160" s="4">
-        <v>4301011327</v>
+        <v>4301011315</v>
       </c>
       <c r="E160" s="3">
-        <v>4607091384154</v>
+        <v>4607091387421</v>
       </c>
       <c r="F160" s="5" t="s">
-        <v>449</v>
+        <v>397</v>
       </c>
       <c r="G160" s="1"/>
     </row>
     <row r="161" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A161" s="11" t="s">
-        <v>685</v>
-      </c>
+      <c r="A161" s="11"/>
       <c r="B161" s="3" t="s">
-        <v>444</v>
+        <v>385</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>445</v>
+        <v>387</v>
       </c>
       <c r="D161" s="4">
-        <v>4301011332</v>
+        <v>4301011121</v>
       </c>
       <c r="E161" s="3">
-        <v>4607091384161</v>
+        <v>4607091387421</v>
       </c>
       <c r="F161" s="5" t="s">
-        <v>450</v>
+        <v>397</v>
       </c>
       <c r="G161" s="1"/>
     </row>
     <row r="162" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A162" s="11" t="s">
-        <v>645</v>
+        <v>746</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>451</v>
+        <v>388</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>452</v>
+        <v>389</v>
       </c>
       <c r="D162" s="4">
-        <v>4301020178</v>
+        <v>4301011322</v>
       </c>
       <c r="E162" s="3">
-        <v>4607091383980</v>
+        <v>4607091387452</v>
       </c>
       <c r="F162" s="5" t="s">
-        <v>455</v>
+        <v>398</v>
       </c>
       <c r="G162" s="1"/>
     </row>
     <row r="163" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A163" s="11" t="s">
-        <v>682</v>
+        <v>783</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>453</v>
+        <v>388</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>454</v>
+        <v>389</v>
       </c>
       <c r="D163" s="4">
-        <v>4301020179</v>
+        <v>4301011322</v>
       </c>
       <c r="E163" s="3">
-        <v>4607091384178</v>
+        <v>4607091387452</v>
       </c>
       <c r="F163" s="5" t="s">
-        <v>456</v>
+        <v>398</v>
       </c>
       <c r="G163" s="1"/>
     </row>
     <row r="164" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A164" s="11"/>
       <c r="B164" s="3" t="s">
-        <v>457</v>
+        <v>388</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>458</v>
+        <v>390</v>
       </c>
       <c r="D164" s="4">
-        <v>4301031141</v>
+        <v>4301011396</v>
       </c>
       <c r="E164" s="3">
-        <v>4607091384833</v>
+        <v>4607091387452</v>
       </c>
       <c r="F164" s="5" t="s">
-        <v>461</v>
+        <v>398</v>
       </c>
       <c r="G164" s="1"/>
     </row>
     <row r="165" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A165" s="11"/>
+      <c r="A165" s="11" t="s">
+        <v>799</v>
+      </c>
       <c r="B165" s="3" t="s">
-        <v>459</v>
+        <v>391</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>460</v>
+        <v>392</v>
       </c>
       <c r="D165" s="4">
-        <v>4301031137</v>
+        <v>4301011313</v>
       </c>
       <c r="E165" s="3">
-        <v>4607091384857</v>
+        <v>4607091385984</v>
       </c>
       <c r="F165" s="5" t="s">
-        <v>462</v>
+        <v>399</v>
       </c>
       <c r="G165" s="1"/>
     </row>
     <row r="166" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A166" s="11" t="s">
-        <v>666</v>
+        <v>729</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>463</v>
+        <v>393</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>464</v>
+        <v>394</v>
       </c>
       <c r="D166" s="4">
-        <v>4301051298</v>
+        <v>4301011316</v>
       </c>
       <c r="E166" s="3">
-        <v>4607091384260</v>
+        <v>4607091387438</v>
       </c>
       <c r="F166" s="5" t="s">
-        <v>465</v>
+        <v>400</v>
       </c>
       <c r="G166" s="1"/>
     </row>
     <row r="167" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A167" s="11" t="s">
-        <v>661</v>
+        <v>742</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>466</v>
+        <v>393</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>467</v>
+        <v>394</v>
       </c>
       <c r="D167" s="4">
-        <v>4301060314</v>
+        <v>4301011316</v>
       </c>
       <c r="E167" s="3">
-        <v>4607091384673</v>
+        <v>4607091387438</v>
       </c>
       <c r="F167" s="5" t="s">
-        <v>468</v>
+        <v>400</v>
       </c>
       <c r="G167" s="1"/>
     </row>
     <row r="168" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A168" s="11"/>
+      <c r="A168" s="11" t="s">
+        <v>796</v>
+      </c>
       <c r="B168" s="3" t="s">
-        <v>469</v>
+        <v>395</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>470</v>
+        <v>396</v>
       </c>
       <c r="D168" s="4">
-        <v>4301011483</v>
+        <v>4301011318</v>
       </c>
       <c r="E168" s="3">
-        <v>4680115881907</v>
+        <v>4607091387469</v>
       </c>
       <c r="F168" s="5" t="s">
-        <v>477</v>
-      </c>
-      <c r="G168" s="6" t="s">
-        <v>595</v>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="G168" s="1"/>
     </row>
     <row r="169" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A169" s="11" t="s">
-        <v>717</v>
-      </c>
+      <c r="A169" s="11"/>
       <c r="B169" s="3" t="s">
-        <v>471</v>
+        <v>402</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>472</v>
+        <v>403</v>
       </c>
       <c r="D169" s="4">
-        <v>4301011324</v>
+        <v>4301031154</v>
       </c>
       <c r="E169" s="3">
-        <v>4607091384185</v>
+        <v>4607091387292</v>
       </c>
       <c r="F169" s="5" t="s">
-        <v>478</v>
+        <v>406</v>
       </c>
       <c r="G169" s="1"/>
     </row>
     <row r="170" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A170" s="11"/>
       <c r="B170" s="3" t="s">
-        <v>473</v>
+        <v>404</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>474</v>
+        <v>405</v>
       </c>
       <c r="D170" s="4">
-        <v>4301011312</v>
+        <v>4301031155</v>
       </c>
       <c r="E170" s="3">
-        <v>4607091384192</v>
+        <v>4607091387315</v>
       </c>
       <c r="F170" s="5" t="s">
-        <v>479</v>
+        <v>407</v>
       </c>
       <c r="G170" s="1"/>
     </row>
     <row r="171" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A171" s="11"/>
+      <c r="A171" s="11" t="s">
+        <v>714</v>
+      </c>
       <c r="B171" s="3" t="s">
-        <v>475</v>
+        <v>408</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>476</v>
+        <v>409</v>
       </c>
       <c r="D171" s="4">
-        <v>4301011303</v>
+        <v>4301030368</v>
       </c>
       <c r="E171" s="3">
-        <v>4607091384680</v>
+        <v>4607091383232</v>
       </c>
       <c r="F171" s="5" t="s">
-        <v>480</v>
+        <v>412</v>
       </c>
       <c r="G171" s="1"/>
     </row>
     <row r="172" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A172" s="11"/>
+      <c r="A172" s="11" t="s">
+        <v>683</v>
+      </c>
       <c r="B172" s="3" t="s">
-        <v>481</v>
+        <v>410</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>482</v>
+        <v>411</v>
       </c>
       <c r="D172" s="4">
-        <v>4301031139</v>
+        <v>4301031066</v>
       </c>
       <c r="E172" s="3">
-        <v>4607091384802</v>
+        <v>4607091383836</v>
       </c>
       <c r="F172" s="5" t="s">
-        <v>485</v>
+        <v>413</v>
       </c>
       <c r="G172" s="1"/>
     </row>
-    <row r="173" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A173" s="11"/>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" s="11" t="s">
+        <v>767</v>
+      </c>
       <c r="B173" s="3" t="s">
-        <v>483</v>
+        <v>414</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>484</v>
+        <v>415</v>
       </c>
       <c r="D173" s="4">
-        <v>4301031140</v>
+        <v>4301051142</v>
       </c>
       <c r="E173" s="3">
-        <v>4607091384826</v>
+        <v>4607091387919</v>
       </c>
       <c r="F173" s="5" t="s">
-        <v>486</v>
+        <v>420</v>
       </c>
       <c r="G173" s="1"/>
     </row>
-    <row r="174" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="11" t="s">
-        <v>665</v>
+        <v>748</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>487</v>
+        <v>414</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>488</v>
+        <v>415</v>
       </c>
       <c r="D174" s="4">
-        <v>4301051303</v>
+        <v>4301051142</v>
       </c>
       <c r="E174" s="3">
-        <v>4607091384246</v>
+        <v>4607091387919</v>
       </c>
       <c r="F174" s="5" t="s">
-        <v>491</v>
+        <v>420</v>
       </c>
       <c r="G174" s="1"/>
     </row>
     <row r="175" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A175" s="11"/>
+      <c r="A175" s="11" t="s">
+        <v>687</v>
+      </c>
       <c r="B175" s="3" t="s">
-        <v>489</v>
+        <v>416</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>490</v>
+        <v>417</v>
       </c>
       <c r="D175" s="4">
-        <v>4301051297</v>
+        <v>4301051109</v>
       </c>
       <c r="E175" s="3">
-        <v>4607091384253</v>
+        <v>4607091383942</v>
       </c>
       <c r="F175" s="5" t="s">
-        <v>492</v>
+        <v>421</v>
       </c>
       <c r="G175" s="1"/>
     </row>
     <row r="176" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A176" s="11"/>
+      <c r="A176" s="11" t="s">
+        <v>686</v>
+      </c>
       <c r="B176" s="3" t="s">
-        <v>493</v>
+        <v>418</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>494</v>
+        <v>419</v>
       </c>
       <c r="D176" s="4">
-        <v>4301060323</v>
+        <v>4301051300</v>
       </c>
       <c r="E176" s="3">
-        <v>4607091389357</v>
+        <v>4607091383959</v>
       </c>
       <c r="F176" s="5" t="s">
-        <v>495</v>
+        <v>422</v>
       </c>
       <c r="G176" s="1"/>
     </row>
     <row r="177" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A177" s="11"/>
+      <c r="A177" s="11" t="s">
+        <v>715</v>
+      </c>
       <c r="B177" s="3" t="s">
-        <v>496</v>
+        <v>423</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>497</v>
+        <v>424</v>
       </c>
       <c r="D177" s="4">
-        <v>4301011428</v>
+        <v>4301060324</v>
       </c>
       <c r="E177" s="3">
-        <v>4607091389708</v>
+        <v>4607091388831</v>
       </c>
       <c r="F177" s="5" t="s">
-        <v>500</v>
+        <v>425</v>
       </c>
       <c r="G177" s="1"/>
     </row>
     <row r="178" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A178" s="11"/>
       <c r="B178" s="3" t="s">
-        <v>498</v>
+        <v>426</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>499</v>
+        <v>427</v>
       </c>
       <c r="D178" s="4">
-        <v>4301011427</v>
+        <v>4301032015</v>
       </c>
       <c r="E178" s="3">
-        <v>4607091389692</v>
+        <v>4607091383102</v>
       </c>
       <c r="F178" s="5" t="s">
-        <v>501</v>
+        <v>428</v>
       </c>
       <c r="G178" s="1"/>
     </row>
     <row r="179" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A179" s="11" t="s">
-        <v>671</v>
-      </c>
+      <c r="A179" s="11"/>
       <c r="B179" s="3" t="s">
-        <v>502</v>
+        <v>429</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>503</v>
+        <v>430</v>
       </c>
       <c r="D179" s="4">
-        <v>4301031177</v>
+        <v>4301032026</v>
       </c>
       <c r="E179" s="3">
-        <v>4607091389753</v>
+        <v>4607091389142</v>
       </c>
       <c r="F179" s="5" t="s">
-        <v>516</v>
+        <v>431</v>
       </c>
       <c r="G179" s="1"/>
     </row>
     <row r="180" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A180" s="11" t="s">
-        <v>743</v>
+        <v>648</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>504</v>
+        <v>432</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>505</v>
+        <v>433</v>
       </c>
       <c r="D180" s="4">
-        <v>4301031174</v>
+        <v>4301011339</v>
       </c>
       <c r="E180" s="3">
-        <v>4607091389760</v>
+        <v>4607091383997</v>
       </c>
       <c r="F180" s="5" t="s">
-        <v>517</v>
+        <v>445</v>
       </c>
       <c r="G180" s="1"/>
     </row>
     <row r="181" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A181" s="11" t="s">
-        <v>734</v>
+        <v>772</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>504</v>
+        <v>432</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>505</v>
+        <v>433</v>
       </c>
       <c r="D181" s="4">
-        <v>4301031174</v>
+        <v>4301011339</v>
       </c>
       <c r="E181" s="3">
-        <v>4607091389760</v>
+        <v>4607091383997</v>
       </c>
       <c r="F181" s="5" t="s">
-        <v>517</v>
+        <v>445</v>
       </c>
       <c r="G181" s="1"/>
     </row>
     <row r="182" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A182" s="11" t="s">
-        <v>670</v>
+        <v>804</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>506</v>
+        <v>432</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>507</v>
+        <v>433</v>
       </c>
       <c r="D182" s="4">
-        <v>4301031175</v>
+        <v>4301011339</v>
       </c>
       <c r="E182" s="3">
-        <v>4607091389746</v>
+        <v>4607091383997</v>
       </c>
       <c r="F182" s="5" t="s">
-        <v>518</v>
+        <v>445</v>
       </c>
       <c r="G182" s="1"/>
     </row>
     <row r="183" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A183" s="11" t="s">
-        <v>691</v>
+        <v>701</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>508</v>
+        <v>432</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>509</v>
+        <v>434</v>
       </c>
       <c r="D183" s="4">
-        <v>4301031178</v>
+        <v>4301011239</v>
       </c>
       <c r="E183" s="3">
-        <v>4607091384338</v>
+        <v>4607091383997</v>
       </c>
       <c r="F183" s="5" t="s">
-        <v>519</v>
+        <v>445</v>
       </c>
       <c r="G183" s="1"/>
     </row>
-    <row r="184" spans="1:7" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A184" s="11" t="s">
-        <v>693</v>
+        <v>651</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>510</v>
+        <v>435</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>511</v>
+        <v>436</v>
       </c>
       <c r="D184" s="4">
-        <v>4301031171</v>
+        <v>4301011326</v>
       </c>
       <c r="E184" s="3">
-        <v>4607091389524</v>
+        <v>4607091384130</v>
       </c>
       <c r="F184" s="5" t="s">
-        <v>520</v>
+        <v>446</v>
       </c>
       <c r="G184" s="1"/>
     </row>
     <row r="185" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A185" s="11"/>
-      <c r="B185" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="C185" s="3" t="s">
-        <v>513</v>
-      </c>
-      <c r="D185" s="4">
-        <v>4301031170</v>
-      </c>
-      <c r="E185" s="3">
-        <v>4607091384345</v>
-      </c>
-      <c r="F185" s="5" t="s">
-        <v>521</v>
+      <c r="A185" s="11" t="s">
+        <v>806</v>
+      </c>
+      <c r="B185" s="13" t="s">
+        <v>435</v>
+      </c>
+      <c r="C185" s="13" t="s">
+        <v>437</v>
+      </c>
+      <c r="D185" s="14">
+        <v>4301011240</v>
+      </c>
+      <c r="E185" s="15">
+        <v>4607091384130</v>
+      </c>
+      <c r="F185" s="16" t="s">
+        <v>446</v>
       </c>
       <c r="G185" s="1"/>
     </row>
-    <row r="186" spans="1:7" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A186" s="11" t="s">
-        <v>694</v>
+        <v>702</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>514</v>
+        <v>435</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>515</v>
+        <v>437</v>
       </c>
       <c r="D186" s="4">
-        <v>4301031172</v>
+        <v>4301011240</v>
       </c>
       <c r="E186" s="3">
-        <v>4607091389531</v>
+        <v>4607091384130</v>
       </c>
       <c r="F186" s="5" t="s">
-        <v>522</v>
+        <v>446</v>
       </c>
       <c r="G186" s="1"/>
     </row>
     <row r="187" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A187" s="11"/>
+      <c r="A187" s="11" t="s">
+        <v>653</v>
+      </c>
       <c r="B187" s="3" t="s">
-        <v>523</v>
+        <v>438</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>524</v>
+        <v>439</v>
       </c>
       <c r="D187" s="4">
-        <v>4301051258</v>
+        <v>4301011330</v>
       </c>
       <c r="E187" s="3">
-        <v>4607091389685</v>
+        <v>4607091384147</v>
       </c>
       <c r="F187" s="5" t="s">
-        <v>531</v>
+        <v>447</v>
       </c>
       <c r="G187" s="1"/>
     </row>
     <row r="188" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A188" s="11"/>
+      <c r="A188" s="11" t="s">
+        <v>775</v>
+      </c>
       <c r="B188" s="3" t="s">
-        <v>525</v>
+        <v>438</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>526</v>
+        <v>439</v>
       </c>
       <c r="D188" s="4">
-        <v>4301051431</v>
+        <v>4301011330</v>
       </c>
       <c r="E188" s="3">
-        <v>4607091389654</v>
+        <v>4607091384147</v>
       </c>
       <c r="F188" s="5" t="s">
-        <v>532</v>
+        <v>447</v>
       </c>
       <c r="G188" s="1"/>
     </row>
     <row r="189" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A189" s="11"/>
+      <c r="A189" s="11" t="s">
+        <v>805</v>
+      </c>
       <c r="B189" s="3" t="s">
-        <v>527</v>
+        <v>438</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>528</v>
+        <v>439</v>
       </c>
       <c r="D189" s="4">
-        <v>4301051284</v>
+        <v>4301011330</v>
       </c>
       <c r="E189" s="3">
-        <v>4607091384352</v>
+        <v>4607091384147</v>
       </c>
       <c r="F189" s="5" t="s">
-        <v>533</v>
+        <v>447</v>
       </c>
       <c r="G189" s="1"/>
     </row>
     <row r="190" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A190" s="11"/>
+      <c r="A190" s="11" t="s">
+        <v>703</v>
+      </c>
       <c r="B190" s="3" t="s">
-        <v>529</v>
+        <v>438</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>530</v>
+        <v>440</v>
       </c>
       <c r="D190" s="4">
-        <v>4301051257</v>
+        <v>4301011238</v>
       </c>
       <c r="E190" s="3">
-        <v>4607091389661</v>
+        <v>4607091384147</v>
       </c>
       <c r="F190" s="5" t="s">
-        <v>534</v>
+        <v>447</v>
       </c>
       <c r="G190" s="1"/>
     </row>
     <row r="191" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A191" s="11"/>
+      <c r="A191" s="11" t="s">
+        <v>682</v>
+      </c>
       <c r="B191" s="3" t="s">
-        <v>535</v>
+        <v>441</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>536</v>
+        <v>442</v>
       </c>
       <c r="D191" s="4">
-        <v>4301060352</v>
+        <v>4301011327</v>
       </c>
       <c r="E191" s="3">
-        <v>4680115881648</v>
+        <v>4607091384154</v>
       </c>
       <c r="F191" s="5" t="s">
-        <v>537</v>
+        <v>448</v>
       </c>
       <c r="G191" s="1"/>
     </row>
     <row r="192" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A192" s="11"/>
+      <c r="A192" s="11" t="s">
+        <v>684</v>
+      </c>
       <c r="B192" s="3" t="s">
-        <v>538</v>
+        <v>443</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>539</v>
+        <v>444</v>
       </c>
       <c r="D192" s="4">
-        <v>4301020196</v>
+        <v>4301011332</v>
       </c>
       <c r="E192" s="3">
-        <v>4607091389388</v>
+        <v>4607091384161</v>
       </c>
       <c r="F192" s="5" t="s">
-        <v>542</v>
+        <v>449</v>
       </c>
       <c r="G192" s="1"/>
     </row>
     <row r="193" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A193" s="11"/>
+      <c r="A193" s="11" t="s">
+        <v>776</v>
+      </c>
       <c r="B193" s="3" t="s">
-        <v>540</v>
+        <v>450</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>541</v>
+        <v>451</v>
       </c>
       <c r="D193" s="4">
-        <v>4301020185</v>
+        <v>4301020178</v>
       </c>
       <c r="E193" s="3">
-        <v>4607091389364</v>
+        <v>4607091383980</v>
       </c>
       <c r="F193" s="5" t="s">
-        <v>543</v>
+        <v>454</v>
       </c>
       <c r="G193" s="1"/>
     </row>
     <row r="194" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A194" s="11" t="s">
-        <v>669</v>
-      </c>
-      <c r="B194" s="3" t="s">
-        <v>544</v>
-      </c>
-      <c r="C194" s="3" t="s">
-        <v>545</v>
-      </c>
-      <c r="D194" s="4">
-        <v>4301031195</v>
-      </c>
-      <c r="E194" s="3">
-        <v>4607091389739</v>
-      </c>
-      <c r="F194" s="5" t="s">
-        <v>554</v>
+        <v>807</v>
+      </c>
+      <c r="B194" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="C194" s="13" t="s">
+        <v>451</v>
+      </c>
+      <c r="D194" s="14">
+        <v>4301020178</v>
+      </c>
+      <c r="E194" s="15">
+        <v>4607091383980</v>
+      </c>
+      <c r="F194" s="16" t="s">
+        <v>454</v>
       </c>
       <c r="G194" s="1"/>
     </row>
     <row r="195" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A195" s="11"/>
+      <c r="A195" s="11" t="s">
+        <v>644</v>
+      </c>
       <c r="B195" s="3" t="s">
-        <v>546</v>
+        <v>450</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>547</v>
+        <v>451</v>
       </c>
       <c r="D195" s="4">
-        <v>4301031176</v>
+        <v>4301020178</v>
       </c>
       <c r="E195" s="3">
-        <v>4607091389425</v>
+        <v>4607091383980</v>
       </c>
       <c r="F195" s="5" t="s">
-        <v>555</v>
+        <v>454</v>
       </c>
       <c r="G195" s="1"/>
     </row>
     <row r="196" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A196" s="11"/>
+      <c r="A196" s="11" t="s">
+        <v>681</v>
+      </c>
       <c r="B196" s="3" t="s">
-        <v>548</v>
+        <v>452</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>549</v>
+        <v>453</v>
       </c>
       <c r="D196" s="4">
-        <v>4301031167</v>
+        <v>4301020179</v>
       </c>
       <c r="E196" s="3">
-        <v>4680115880771</v>
+        <v>4607091384178</v>
       </c>
       <c r="F196" s="5" t="s">
-        <v>556</v>
+        <v>455</v>
       </c>
       <c r="G196" s="1"/>
     </row>
     <row r="197" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A197" s="11" t="s">
-        <v>692</v>
-      </c>
+      <c r="A197" s="11"/>
       <c r="B197" s="3" t="s">
-        <v>550</v>
+        <v>456</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>551</v>
+        <v>457</v>
       </c>
       <c r="D197" s="4">
-        <v>4301031173</v>
+        <v>4301031141</v>
       </c>
       <c r="E197" s="3">
-        <v>4607091389500</v>
+        <v>4607091384833</v>
       </c>
       <c r="F197" s="5" t="s">
-        <v>557</v>
+        <v>460</v>
       </c>
       <c r="G197" s="1"/>
     </row>
     <row r="198" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A198" s="11"/>
       <c r="B198" s="3" t="s">
-        <v>552</v>
+        <v>458</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>553</v>
+        <v>459</v>
       </c>
       <c r="D198" s="4">
-        <v>4301031103</v>
+        <v>4301031137</v>
       </c>
       <c r="E198" s="3">
-        <v>4680115881983</v>
+        <v>4607091384857</v>
       </c>
       <c r="F198" s="5" t="s">
-        <v>558</v>
+        <v>461</v>
       </c>
       <c r="G198" s="1"/>
     </row>
     <row r="199" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A199" s="11"/>
+      <c r="A199" s="11" t="s">
+        <v>665</v>
+      </c>
       <c r="B199" s="3" t="s">
-        <v>559</v>
+        <v>462</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>560</v>
+        <v>463</v>
       </c>
       <c r="D199" s="4">
-        <v>4301011371</v>
+        <v>4301051298</v>
       </c>
       <c r="E199" s="3">
-        <v>4607091389067</v>
+        <v>4607091384260</v>
       </c>
       <c r="F199" s="5" t="s">
-        <v>571</v>
+        <v>464</v>
       </c>
       <c r="G199" s="1"/>
     </row>
     <row r="200" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A200" s="11" t="s">
-        <v>648</v>
+        <v>660</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>561</v>
+        <v>465</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>562</v>
+        <v>466</v>
       </c>
       <c r="D200" s="4">
-        <v>4301011363</v>
+        <v>4301060314</v>
       </c>
       <c r="E200" s="3">
-        <v>4607091383522</v>
+        <v>4607091384673</v>
       </c>
       <c r="F200" s="5" t="s">
-        <v>572</v>
+        <v>467</v>
       </c>
       <c r="G200" s="1"/>
     </row>
     <row r="201" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A201" s="11"/>
       <c r="B201" s="3" t="s">
-        <v>563</v>
+        <v>468</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>564</v>
+        <v>469</v>
       </c>
       <c r="D201" s="4">
-        <v>4301011431</v>
+        <v>4301011483</v>
       </c>
       <c r="E201" s="3">
-        <v>4607091384437</v>
+        <v>4680115881907</v>
       </c>
       <c r="F201" s="5" t="s">
-        <v>573</v>
-      </c>
-      <c r="G201" s="1"/>
+        <v>476</v>
+      </c>
+      <c r="G201" s="6" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="202" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A202" s="11" t="s">
-        <v>651</v>
+        <v>716</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>565</v>
+        <v>470</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>566</v>
+        <v>471</v>
       </c>
       <c r="D202" s="4">
-        <v>4301011365</v>
+        <v>4301011324</v>
       </c>
       <c r="E202" s="3">
-        <v>4607091389104</v>
+        <v>4607091384185</v>
       </c>
       <c r="F202" s="5" t="s">
-        <v>574</v>
+        <v>477</v>
       </c>
       <c r="G202" s="1"/>
     </row>
     <row r="203" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A203" s="11" t="s">
-        <v>713</v>
-      </c>
+      <c r="A203" s="11"/>
       <c r="B203" s="3" t="s">
-        <v>567</v>
+        <v>472</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>568</v>
+        <v>473</v>
       </c>
       <c r="D203" s="4">
-        <v>4301011142</v>
+        <v>4301011312</v>
       </c>
       <c r="E203" s="3">
-        <v>4607091389036</v>
+        <v>4607091384192</v>
       </c>
       <c r="F203" s="5" t="s">
-        <v>575</v>
+        <v>478</v>
       </c>
       <c r="G203" s="1"/>
     </row>
     <row r="204" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A204" s="11" t="s">
-        <v>714</v>
-      </c>
+      <c r="A204" s="11"/>
       <c r="B204" s="3" t="s">
-        <v>569</v>
+        <v>474</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>570</v>
+        <v>475</v>
       </c>
       <c r="D204" s="4">
-        <v>4301011190</v>
+        <v>4301011303</v>
       </c>
       <c r="E204" s="3">
-        <v>4607091389098</v>
+        <v>4607091384680</v>
       </c>
       <c r="F204" s="5" t="s">
-        <v>576</v>
+        <v>479</v>
       </c>
       <c r="G204" s="1"/>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A205" s="11" t="s">
-        <v>644</v>
+        <v>815</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>577</v>
+        <v>480</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>578</v>
+        <v>481</v>
       </c>
       <c r="D205" s="4">
-        <v>4301020222</v>
+        <v>4301031139</v>
       </c>
       <c r="E205" s="3">
-        <v>4607091388930</v>
+        <v>4607091384802</v>
       </c>
       <c r="F205" s="5" t="s">
-        <v>579</v>
+        <v>484</v>
       </c>
       <c r="G205" s="1"/>
     </row>
     <row r="206" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A206" s="11"/>
       <c r="B206" s="3" t="s">
-        <v>580</v>
+        <v>482</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>581</v>
+        <v>483</v>
       </c>
       <c r="D206" s="4">
-        <v>4301031217</v>
+        <v>4301031140</v>
       </c>
       <c r="E206" s="3">
-        <v>4680115882102</v>
+        <v>4607091384826</v>
       </c>
       <c r="F206" s="5" t="s">
-        <v>590</v>
+        <v>485</v>
       </c>
       <c r="G206" s="1"/>
     </row>
     <row r="207" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A207" s="11"/>
+      <c r="A207" s="11" t="s">
+        <v>803</v>
+      </c>
       <c r="B207" s="3" t="s">
-        <v>582</v>
+        <v>486</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>583</v>
+        <v>487</v>
       </c>
       <c r="D207" s="4">
-        <v>4301031216</v>
+        <v>4301051303</v>
       </c>
       <c r="E207" s="3">
-        <v>4680115882096</v>
+        <v>4607091384246</v>
       </c>
       <c r="F207" s="5" t="s">
-        <v>591</v>
+        <v>490</v>
       </c>
       <c r="G207" s="1"/>
     </row>
     <row r="208" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A208" s="11" t="s">
-        <v>655</v>
+        <v>664</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>584</v>
+        <v>486</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>585</v>
+        <v>487</v>
       </c>
       <c r="D208" s="4">
-        <v>4301031198</v>
+        <v>4301051303</v>
       </c>
       <c r="E208" s="3">
-        <v>4607091383348</v>
+        <v>4607091384246</v>
       </c>
       <c r="F208" s="5" t="s">
-        <v>592</v>
+        <v>490</v>
       </c>
       <c r="G208" s="1"/>
     </row>
     <row r="209" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A209" s="11" t="s">
-        <v>656</v>
-      </c>
+      <c r="A209" s="11"/>
       <c r="B209" s="3" t="s">
-        <v>586</v>
+        <v>488</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>587</v>
+        <v>489</v>
       </c>
       <c r="D209" s="4">
-        <v>4301031188</v>
+        <v>4301051297</v>
       </c>
       <c r="E209" s="3">
-        <v>4607091383386</v>
+        <v>4607091384253</v>
       </c>
       <c r="F209" s="5" t="s">
-        <v>593</v>
+        <v>491</v>
       </c>
       <c r="G209" s="1"/>
     </row>
     <row r="210" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A210" s="11" t="s">
-        <v>657</v>
-      </c>
+      <c r="A210" s="11"/>
       <c r="B210" s="3" t="s">
-        <v>588</v>
+        <v>492</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>589</v>
+        <v>493</v>
       </c>
       <c r="D210" s="4">
-        <v>4301031189</v>
+        <v>4301060323</v>
       </c>
       <c r="E210" s="3">
-        <v>4607091383355</v>
+        <v>4607091389357</v>
       </c>
       <c r="F210" s="5" t="s">
-        <v>594</v>
+        <v>494</v>
       </c>
       <c r="G210" s="1"/>
     </row>
     <row r="211" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A211" s="11"/>
       <c r="B211" s="3" t="s">
-        <v>596</v>
+        <v>495</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>597</v>
+        <v>496</v>
       </c>
       <c r="D211" s="4">
-        <v>4301051230</v>
+        <v>4301011428</v>
       </c>
       <c r="E211" s="3">
-        <v>4607091383409</v>
+        <v>4607091389708</v>
       </c>
       <c r="F211" s="5" t="s">
-        <v>600</v>
+        <v>499</v>
       </c>
       <c r="G211" s="1"/>
     </row>
     <row r="212" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A212" s="11"/>
       <c r="B212" s="3" t="s">
-        <v>598</v>
+        <v>497</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>599</v>
+        <v>498</v>
       </c>
       <c r="D212" s="4">
-        <v>4301051231</v>
+        <v>4301011427</v>
       </c>
       <c r="E212" s="3">
-        <v>4607091383416</v>
+        <v>4607091389692</v>
       </c>
       <c r="F212" s="5" t="s">
-        <v>601</v>
+        <v>500</v>
       </c>
       <c r="G212" s="1"/>
     </row>
     <row r="213" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A213" s="11"/>
+      <c r="A213" s="11" t="s">
+        <v>788</v>
+      </c>
       <c r="B213" s="3" t="s">
-        <v>602</v>
+        <v>501</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>603</v>
+        <v>502</v>
       </c>
       <c r="D213" s="4">
-        <v>4301011434</v>
+        <v>4301031177</v>
       </c>
       <c r="E213" s="3">
-        <v>4680115881099</v>
+        <v>4607091389753</v>
       </c>
       <c r="F213" s="5" t="s">
-        <v>606</v>
+        <v>515</v>
       </c>
       <c r="G213" s="1"/>
     </row>
     <row r="214" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A214" s="11" t="s">
-        <v>742</v>
+        <v>670</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>604</v>
+        <v>501</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>605</v>
+        <v>502</v>
       </c>
       <c r="D214" s="4">
-        <v>4301011435</v>
+        <v>4301031177</v>
       </c>
       <c r="E214" s="3">
-        <v>4680115881150</v>
+        <v>4607091389753</v>
       </c>
       <c r="F214" s="5" t="s">
-        <v>607</v>
+        <v>515</v>
       </c>
       <c r="G214" s="1"/>
     </row>
     <row r="215" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A215" s="11" t="s">
-        <v>733</v>
+        <v>741</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>604</v>
+        <v>503</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>605</v>
+        <v>504</v>
       </c>
       <c r="D215" s="4">
-        <v>4301011435</v>
+        <v>4301031174</v>
       </c>
       <c r="E215" s="3">
-        <v>4680115881150</v>
+        <v>4607091389760</v>
       </c>
       <c r="F215" s="5" t="s">
-        <v>607</v>
+        <v>516</v>
       </c>
       <c r="G215" s="1"/>
     </row>
     <row r="216" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A216" s="11" t="s">
-        <v>755</v>
+        <v>801</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>604</v>
+        <v>503</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>605</v>
+        <v>504</v>
       </c>
       <c r="D216" s="4">
-        <v>4301011435</v>
+        <v>4301031174</v>
       </c>
       <c r="E216" s="3">
-        <v>4680115881150</v>
+        <v>4607091389760</v>
       </c>
       <c r="F216" s="5" t="s">
-        <v>607</v>
+        <v>516</v>
       </c>
       <c r="G216" s="1"/>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A217" s="11"/>
+    <row r="217" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A217" s="11" t="s">
+        <v>732</v>
+      </c>
       <c r="B217" s="3" t="s">
-        <v>608</v>
+        <v>503</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>609</v>
+        <v>504</v>
       </c>
       <c r="D217" s="4">
-        <v>4301020230</v>
+        <v>4301031174</v>
       </c>
       <c r="E217" s="3">
-        <v>4680115881112</v>
+        <v>4607091389760</v>
       </c>
       <c r="F217" s="5" t="s">
-        <v>612</v>
+        <v>516</v>
       </c>
       <c r="G217" s="1"/>
     </row>
     <row r="218" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A218" s="11"/>
+      <c r="A218" s="11" t="s">
+        <v>787</v>
+      </c>
       <c r="B218" s="3" t="s">
-        <v>610</v>
+        <v>505</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>611</v>
+        <v>506</v>
       </c>
       <c r="D218" s="4">
-        <v>4301020231</v>
+        <v>4301031175</v>
       </c>
       <c r="E218" s="3">
-        <v>4680115881129</v>
+        <v>4607091389746</v>
       </c>
       <c r="F218" s="5" t="s">
-        <v>613</v>
+        <v>517</v>
       </c>
       <c r="G218" s="1"/>
     </row>
     <row r="219" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A219" s="11" t="s">
-        <v>757</v>
+        <v>669</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>614</v>
+        <v>505</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>615</v>
+        <v>506</v>
       </c>
       <c r="D219" s="4">
-        <v>4301031192</v>
+        <v>4301031175</v>
       </c>
       <c r="E219" s="3">
-        <v>4680115881167</v>
+        <v>4607091389746</v>
       </c>
       <c r="F219" s="5" t="s">
-        <v>618</v>
+        <v>517</v>
       </c>
       <c r="G219" s="1"/>
     </row>
     <row r="220" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A220" s="11" t="s">
-        <v>738</v>
+        <v>690</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>616</v>
+        <v>507</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>617</v>
+        <v>508</v>
       </c>
       <c r="D220" s="4">
-        <v>4301031193</v>
+        <v>4301031178</v>
       </c>
       <c r="E220" s="3">
-        <v>4680115881136</v>
+        <v>4607091384338</v>
       </c>
       <c r="F220" s="5" t="s">
-        <v>619</v>
+        <v>518</v>
       </c>
       <c r="G220" s="1"/>
     </row>
-    <row r="221" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A221" s="11" t="s">
-        <v>741</v>
+        <v>692</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>616</v>
+        <v>509</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>617</v>
+        <v>510</v>
       </c>
       <c r="D221" s="4">
-        <v>4301031193</v>
+        <v>4301031171</v>
       </c>
       <c r="E221" s="3">
-        <v>4680115881136</v>
+        <v>4607091389524</v>
       </c>
       <c r="F221" s="5" t="s">
-        <v>619</v>
+        <v>519</v>
       </c>
       <c r="G221" s="1"/>
     </row>
     <row r="222" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A222" s="11" t="s">
-        <v>756</v>
-      </c>
+      <c r="A222" s="11"/>
       <c r="B222" s="3" t="s">
-        <v>616</v>
+        <v>511</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>617</v>
+        <v>512</v>
       </c>
       <c r="D222" s="4">
-        <v>4301031193</v>
+        <v>4301031170</v>
       </c>
       <c r="E222" s="3">
-        <v>4680115881136</v>
+        <v>4607091384345</v>
       </c>
       <c r="F222" s="5" t="s">
-        <v>619</v>
+        <v>520</v>
       </c>
       <c r="G222" s="1"/>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A223" s="11" t="s">
-        <v>726</v>
+        <v>693</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>620</v>
+        <v>513</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>621</v>
+        <v>514</v>
       </c>
       <c r="D223" s="4">
-        <v>4301051383</v>
+        <v>4301031172</v>
       </c>
       <c r="E223" s="3">
-        <v>4680115881143</v>
+        <v>4607091389531</v>
       </c>
       <c r="F223" s="5" t="s">
-        <v>626</v>
+        <v>521</v>
       </c>
       <c r="G223" s="1"/>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A224" s="11"/>
+    <row r="224" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A224" s="11" t="s">
+        <v>816</v>
+      </c>
       <c r="B224" s="3" t="s">
-        <v>622</v>
+        <v>522</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>623</v>
+        <v>523</v>
       </c>
       <c r="D224" s="4">
-        <v>4301051381</v>
+        <v>4301051258</v>
       </c>
       <c r="E224" s="3">
-        <v>4680115881068</v>
+        <v>4607091389685</v>
       </c>
       <c r="F224" s="5" t="s">
-        <v>627</v>
+        <v>530</v>
       </c>
       <c r="G224" s="1"/>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A225" s="11"/>
       <c r="B225" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="C225" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="D225" s="4">
+        <v>4301051431</v>
+      </c>
+      <c r="E225" s="3">
+        <v>4607091389654</v>
+      </c>
+      <c r="F225" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="G225" s="1"/>
+    </row>
+    <row r="226" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A226" s="11"/>
+      <c r="B226" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="C226" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="D226" s="4">
+        <v>4301051284</v>
+      </c>
+      <c r="E226" s="3">
+        <v>4607091384352</v>
+      </c>
+      <c r="F226" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="G226" s="1"/>
+    </row>
+    <row r="227" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A227" s="11"/>
+      <c r="B227" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="C227" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="D227" s="4">
+        <v>4301051257</v>
+      </c>
+      <c r="E227" s="3">
+        <v>4607091389661</v>
+      </c>
+      <c r="F227" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="G227" s="1"/>
+    </row>
+    <row r="228" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A228" s="11"/>
+      <c r="B228" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="C228" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="D228" s="4">
+        <v>4301060352</v>
+      </c>
+      <c r="E228" s="3">
+        <v>4680115881648</v>
+      </c>
+      <c r="F228" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="G228" s="1"/>
+    </row>
+    <row r="229" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A229" s="11"/>
+      <c r="B229" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="C229" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="D229" s="4">
+        <v>4301020196</v>
+      </c>
+      <c r="E229" s="3">
+        <v>4607091389388</v>
+      </c>
+      <c r="F229" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="G229" s="1"/>
+    </row>
+    <row r="230" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A230" s="11"/>
+      <c r="B230" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="C230" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="D230" s="4">
+        <v>4301020185</v>
+      </c>
+      <c r="E230" s="3">
+        <v>4607091389364</v>
+      </c>
+      <c r="F230" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="G230" s="1"/>
+    </row>
+    <row r="231" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A231" s="11" t="s">
+        <v>668</v>
+      </c>
+      <c r="B231" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="C231" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="D231" s="4">
+        <v>4301031195</v>
+      </c>
+      <c r="E231" s="3">
+        <v>4607091389739</v>
+      </c>
+      <c r="F231" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="G231" s="1"/>
+    </row>
+    <row r="232" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A232" s="11" t="s">
+        <v>812</v>
+      </c>
+      <c r="B232" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="C232" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="D232" s="4">
+        <v>4301031176</v>
+      </c>
+      <c r="E232" s="3">
+        <v>4607091389425</v>
+      </c>
+      <c r="F232" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="G232" s="1"/>
+    </row>
+    <row r="233" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A233" s="11"/>
+      <c r="B233" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="C233" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="D233" s="4">
+        <v>4301031167</v>
+      </c>
+      <c r="E233" s="3">
+        <v>4680115880771</v>
+      </c>
+      <c r="F233" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="G233" s="1"/>
+    </row>
+    <row r="234" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A234" s="11" t="s">
+        <v>691</v>
+      </c>
+      <c r="B234" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="C234" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="D234" s="4">
+        <v>4301031173</v>
+      </c>
+      <c r="E234" s="3">
+        <v>4607091389500</v>
+      </c>
+      <c r="F234" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="G234" s="1"/>
+    </row>
+    <row r="235" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A235" s="11"/>
+      <c r="B235" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="C235" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="D235" s="4">
+        <v>4301031103</v>
+      </c>
+      <c r="E235" s="3">
+        <v>4680115881983</v>
+      </c>
+      <c r="F235" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="G235" s="1"/>
+    </row>
+    <row r="236" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A236" s="11" t="s">
+        <v>817</v>
+      </c>
+      <c r="B236" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="C236" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="D236" s="4">
+        <v>4301011371</v>
+      </c>
+      <c r="E236" s="3">
+        <v>4607091389067</v>
+      </c>
+      <c r="F236" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="G236" s="1"/>
+    </row>
+    <row r="237" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A237" s="11" t="s">
+        <v>794</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="C237" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="D237" s="4">
+        <v>4301011371</v>
+      </c>
+      <c r="E237" s="3">
+        <v>4607091389067</v>
+      </c>
+      <c r="F237" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="G237" s="1"/>
+    </row>
+    <row r="238" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A238" s="11" t="s">
+        <v>768</v>
+      </c>
+      <c r="B238" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="C238" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="D238" s="4">
+        <v>4301011363</v>
+      </c>
+      <c r="E238" s="3">
+        <v>4607091383522</v>
+      </c>
+      <c r="F238" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="G238" s="1"/>
+    </row>
+    <row r="239" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A239" s="11" t="s">
+        <v>647</v>
+      </c>
+      <c r="B239" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="C239" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="D239" s="4">
+        <v>4301011363</v>
+      </c>
+      <c r="E239" s="3">
+        <v>4607091383522</v>
+      </c>
+      <c r="F239" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="G239" s="1"/>
+    </row>
+    <row r="240" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A240" s="11" t="s">
+        <v>810</v>
+      </c>
+      <c r="B240" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="C240" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="D240" s="4">
+        <v>4301011431</v>
+      </c>
+      <c r="E240" s="3">
+        <v>4607091384437</v>
+      </c>
+      <c r="F240" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="G240" s="1"/>
+    </row>
+    <row r="241" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A241" s="11" t="s">
+        <v>795</v>
+      </c>
+      <c r="B241" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="C241" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="D241" s="4">
+        <v>4301011365</v>
+      </c>
+      <c r="E241" s="3">
+        <v>4607091389104</v>
+      </c>
+      <c r="F241" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="G241" s="1"/>
+    </row>
+    <row r="242" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A242" s="11" t="s">
+        <v>650</v>
+      </c>
+      <c r="B242" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="C242" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="D242" s="4">
+        <v>4301011365</v>
+      </c>
+      <c r="E242" s="3">
+        <v>4607091389104</v>
+      </c>
+      <c r="F242" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="G242" s="1"/>
+    </row>
+    <row r="243" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A243" s="11" t="s">
+        <v>712</v>
+      </c>
+      <c r="B243" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="C243" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="D243" s="4">
+        <v>4301011142</v>
+      </c>
+      <c r="E243" s="3">
+        <v>4607091389036</v>
+      </c>
+      <c r="F243" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="G243" s="1"/>
+    </row>
+    <row r="244" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A244" s="11" t="s">
+        <v>713</v>
+      </c>
+      <c r="B244" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="C244" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="D244" s="4">
+        <v>4301011190</v>
+      </c>
+      <c r="E244" s="3">
+        <v>4607091389098</v>
+      </c>
+      <c r="F244" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="G244" s="1"/>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A245" s="11" t="s">
+        <v>769</v>
+      </c>
+      <c r="B245" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="C245" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="D245" s="4">
+        <v>4301020222</v>
+      </c>
+      <c r="E245" s="3">
+        <v>4607091388930</v>
+      </c>
+      <c r="F245" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="G245" s="1"/>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A246" s="11" t="s">
+        <v>643</v>
+      </c>
+      <c r="B246" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="C246" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="D246" s="4">
+        <v>4301020222</v>
+      </c>
+      <c r="E246" s="3">
+        <v>4607091388930</v>
+      </c>
+      <c r="F246" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="G246" s="1"/>
+    </row>
+    <row r="247" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A247" s="11"/>
+      <c r="B247" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="C247" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="D247" s="4">
+        <v>4301031217</v>
+      </c>
+      <c r="E247" s="3">
+        <v>4680115882102</v>
+      </c>
+      <c r="F247" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="G247" s="1"/>
+    </row>
+    <row r="248" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A248" s="11"/>
+      <c r="B248" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="C248" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="D248" s="4">
+        <v>4301031216</v>
+      </c>
+      <c r="E248" s="3">
+        <v>4680115882096</v>
+      </c>
+      <c r="F248" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="G248" s="1"/>
+    </row>
+    <row r="249" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A249" s="11" t="s">
+        <v>654</v>
+      </c>
+      <c r="B249" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="C249" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="D249" s="4">
+        <v>4301031198</v>
+      </c>
+      <c r="E249" s="3">
+        <v>4607091383348</v>
+      </c>
+      <c r="F249" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="G249" s="1"/>
+    </row>
+    <row r="250" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A250" s="11" t="s">
+        <v>655</v>
+      </c>
+      <c r="B250" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="C250" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="D250" s="4">
+        <v>4301031188</v>
+      </c>
+      <c r="E250" s="3">
+        <v>4607091383386</v>
+      </c>
+      <c r="F250" s="5" t="s">
+        <v>592</v>
+      </c>
+      <c r="G250" s="1"/>
+    </row>
+    <row r="251" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A251" s="11" t="s">
+        <v>656</v>
+      </c>
+      <c r="B251" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="C251" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="D251" s="4">
+        <v>4301031189</v>
+      </c>
+      <c r="E251" s="3">
+        <v>4607091383355</v>
+      </c>
+      <c r="F251" s="5" t="s">
+        <v>593</v>
+      </c>
+      <c r="G251" s="1"/>
+    </row>
+    <row r="252" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A252" s="11"/>
+      <c r="B252" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="C252" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="D252" s="4">
+        <v>4301051230</v>
+      </c>
+      <c r="E252" s="3">
+        <v>4607091383409</v>
+      </c>
+      <c r="F252" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="G252" s="1"/>
+    </row>
+    <row r="253" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A253" s="11"/>
+      <c r="B253" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="C253" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="D253" s="4">
+        <v>4301051231</v>
+      </c>
+      <c r="E253" s="3">
+        <v>4607091383416</v>
+      </c>
+      <c r="F253" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="G253" s="1"/>
+    </row>
+    <row r="254" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A254" s="11"/>
+      <c r="B254" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="C254" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="D254" s="4">
+        <v>4301011434</v>
+      </c>
+      <c r="E254" s="3">
+        <v>4680115881099</v>
+      </c>
+      <c r="F254" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="G254" s="1"/>
+    </row>
+    <row r="255" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A255" s="11" t="s">
+        <v>740</v>
+      </c>
+      <c r="B255" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="C255" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="D255" s="4">
+        <v>4301011435</v>
+      </c>
+      <c r="E255" s="3">
+        <v>4680115881150</v>
+      </c>
+      <c r="F255" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="G255" s="1"/>
+    </row>
+    <row r="256" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A256" s="11" t="s">
+        <v>731</v>
+      </c>
+      <c r="B256" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="C256" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="D256" s="4">
+        <v>4301011435</v>
+      </c>
+      <c r="E256" s="3">
+        <v>4680115881150</v>
+      </c>
+      <c r="F256" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="G256" s="1"/>
+    </row>
+    <row r="257" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A257" s="11" t="s">
+        <v>675</v>
+      </c>
+      <c r="B257" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="C257" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="D257" s="4">
+        <v>4301011435</v>
+      </c>
+      <c r="E257" s="3">
+        <v>4680115881150</v>
+      </c>
+      <c r="F257" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="G257" s="1"/>
+    </row>
+    <row r="258" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A258" s="11" t="s">
+        <v>753</v>
+      </c>
+      <c r="B258" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="C258" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="D258" s="4">
+        <v>4301011435</v>
+      </c>
+      <c r="E258" s="3">
+        <v>4680115881150</v>
+      </c>
+      <c r="F258" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="G258" s="1"/>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A259" s="11"/>
+      <c r="B259" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="C259" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="D259" s="4">
+        <v>4301020230</v>
+      </c>
+      <c r="E259" s="3">
+        <v>4680115881112</v>
+      </c>
+      <c r="F259" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="G259" s="1"/>
+    </row>
+    <row r="260" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A260" s="11" t="s">
+        <v>792</v>
+      </c>
+      <c r="B260" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="C260" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="D260" s="4">
+        <v>4301020231</v>
+      </c>
+      <c r="E260" s="3">
+        <v>4680115881129</v>
+      </c>
+      <c r="F260" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="G260" s="1"/>
+    </row>
+    <row r="261" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A261" s="11" t="s">
+        <v>755</v>
+      </c>
+      <c r="B261" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="C261" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="D261" s="4">
+        <v>4301031192</v>
+      </c>
+      <c r="E261" s="3">
+        <v>4680115881167</v>
+      </c>
+      <c r="F261" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="G261" s="1"/>
+    </row>
+    <row r="262" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A262" s="11" t="s">
+        <v>736</v>
+      </c>
+      <c r="B262" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="C262" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="D262" s="4">
+        <v>4301031193</v>
+      </c>
+      <c r="E262" s="3">
+        <v>4680115881136</v>
+      </c>
+      <c r="F262" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="G262" s="1"/>
+    </row>
+    <row r="263" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A263" s="11" t="s">
+        <v>739</v>
+      </c>
+      <c r="B263" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="C263" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="D263" s="4">
+        <v>4301031193</v>
+      </c>
+      <c r="E263" s="3">
+        <v>4680115881136</v>
+      </c>
+      <c r="F263" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="G263" s="1"/>
+    </row>
+    <row r="264" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A264" s="11" t="s">
+        <v>777</v>
+      </c>
+      <c r="B264" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="C264" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="D264" s="4">
+        <v>4301031193</v>
+      </c>
+      <c r="E264" s="3">
+        <v>4680115881136</v>
+      </c>
+      <c r="F264" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="G264" s="1"/>
+    </row>
+    <row r="265" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A265" s="11" t="s">
+        <v>754</v>
+      </c>
+      <c r="B265" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="C265" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="D265" s="4">
+        <v>4301031193</v>
+      </c>
+      <c r="E265" s="3">
+        <v>4680115881136</v>
+      </c>
+      <c r="F265" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="G265" s="1"/>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A266" s="11" t="s">
+        <v>814</v>
+      </c>
+      <c r="B266" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="C266" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="D266" s="4">
+        <v>4301051383</v>
+      </c>
+      <c r="E266" s="3">
+        <v>4680115881143</v>
+      </c>
+      <c r="F266" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="G266" s="1"/>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A267" s="11" t="s">
+        <v>678</v>
+      </c>
+      <c r="B267" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="C267" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="D267" s="4">
+        <v>4301051383</v>
+      </c>
+      <c r="E267" s="3">
+        <v>4680115881143</v>
+      </c>
+      <c r="F267" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="G267" s="1"/>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A268" s="11" t="s">
+        <v>724</v>
+      </c>
+      <c r="B268" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="C268" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="D268" s="4">
+        <v>4301051383</v>
+      </c>
+      <c r="E268" s="3">
+        <v>4680115881143</v>
+      </c>
+      <c r="F268" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="G268" s="1"/>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A269" s="11"/>
+      <c r="B269" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="C269" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="D269" s="4">
+        <v>4301051381</v>
+      </c>
+      <c r="E269" s="3">
+        <v>4680115881068</v>
+      </c>
+      <c r="F269" s="5" t="s">
+        <v>626</v>
+      </c>
+      <c r="G269" s="1"/>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A270" s="11"/>
+      <c r="B270" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="C270" s="3" t="s">
         <v>624</v>
       </c>
-      <c r="C225" s="3" t="s">
-        <v>625</v>
-      </c>
-      <c r="D225" s="4">
+      <c r="D270" s="4">
         <v>4301051382</v>
       </c>
-      <c r="E225" s="3">
+      <c r="E270" s="3">
         <v>4680115881075</v>
       </c>
-      <c r="F225" s="5" t="s">
-        <v>628</v>
-      </c>
-      <c r="G225" s="1"/>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A226" s="12" t="s">
-        <v>718</v>
-      </c>
+      <c r="F270" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="G270" s="1"/>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A271" s="11" t="s">
+        <v>797</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="D271" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="E271" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="F271" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="G271" s="1"/>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A272" s="11" t="s">
+        <v>800</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="D272" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="E272" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="F272" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="G272" s="1"/>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A273" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="D273" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="E273" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="F273" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="G273" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G226" xr:uid="{30EFF9DF-2E20-401A-8B86-D82B0C81655F}"/>
+  <autoFilter ref="A1:G273" xr:uid="{30EFF9DF-2E20-401A-8B86-D82B0C81655F}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -7274,362 +8543,362 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
   </sheetData>

--- a/moduls/1С.xlsx
+++ b/moduls/1С.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\data_transfer\Останкино КИ\moduls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\Останкино КИ\ostankino_ki\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4363F660-EAFD-48B5-8354-DCF66CA87028}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{696BDA3B-BC57-4C08-91A8-B5D89E669B23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="275">
   <si>
     <t>1С</t>
   </si>
@@ -854,6 +854,12 @@
   </si>
   <si>
     <t>6041 МОЛОЧНЫЕ К ЗАВТРАКУ сос п/о мгс 1*3  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6227 МОЛОЧНЫЕ ТРАДИЦ. сос п/о мгс 0.6кг LTF  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>МОЛОЧНЫЕ ТРАДИЦ. сос п/о мгс 0.6кг LTF</t>
   </si>
 </sst>
 </file>
@@ -1242,11 +1248,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C102"/>
+  <dimension ref="A1:C103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A103" sqref="A103"/>
+      <selection pane="bottomLeft" activeCell="G99" sqref="G99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2377,6 +2383,17 @@
       </c>
       <c r="C102" t="s">
         <v>271</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="B103" s="7">
+        <v>6227</v>
+      </c>
+      <c r="C103" t="s">
+        <v>274</v>
       </c>
     </row>
   </sheetData>

--- a/moduls/1С.xlsx
+++ b/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\Останкино КИ\ostankino_ki\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{696BDA3B-BC57-4C08-91A8-B5D89E669B23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EAB6010-B062-44B8-8D89-046425982D92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="277">
   <si>
     <t>1С</t>
   </si>
@@ -860,6 +860,12 @@
   </si>
   <si>
     <t>МОЛОЧНЫЕ ТРАДИЦ. сос п/о мгс 0.6кг LTF</t>
+  </si>
+  <si>
+    <t>ШПИКАЧКИ ДОМАШНИЕ СН п/о мгс 0.4кг 8шт.</t>
+  </si>
+  <si>
+    <t>6217 ШПИКАЧКИ ДОМАШНИЕ СН п/о мгс 0.4кг 8шт.  ОСТАНКИНО</t>
   </si>
 </sst>
 </file>
@@ -1248,11 +1254,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C103"/>
+  <dimension ref="A1:C104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G99" sqref="G99"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2394,6 +2400,17 @@
       </c>
       <c r="C103" t="s">
         <v>274</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="B104" s="7">
+        <v>6217</v>
+      </c>
+      <c r="C104" t="s">
+        <v>275</v>
       </c>
     </row>
   </sheetData>

--- a/moduls/1С.xlsx
+++ b/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\Останкино КИ\ostankino_ki\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EAB6010-B062-44B8-8D89-046425982D92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BCE5915-1221-4E7F-9505-D20D7FBAE4E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$109</definedName>
   </definedNames>
   <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="283">
   <si>
     <t>1С</t>
   </si>
@@ -866,6 +866,24 @@
   </si>
   <si>
     <t>6217 ШПИКАЧКИ ДОМАШНИЕ СН п/о мгс 0.4кг 8шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6661 СОЧНЫЙ ГРИЛЬ ПМ сос п/о мгс 1.5*4_Маяк  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>3812 СОЧНЫЕ сос п/о мгс 2*2  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6113 СОЧНЫЕ сос п/о мгс 1*6_Ашан  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6303 МЯСНЫЕ Папа может сос п/о мгс 1.5*3  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6241 ХОТ-ДОГ Папа может сос п/о мгс 0.38кг  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>СОЧНЫЙ ГРИЛЬ ПМ сос п/о мгс 1.5*4_Маяк</t>
   </si>
 </sst>
 </file>
@@ -1254,11 +1272,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:C109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K8" sqref="K8"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2413,8 +2431,63 @@
         <v>275</v>
       </c>
     </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="B105" s="7">
+        <v>6661</v>
+      </c>
+      <c r="C105" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="B106" s="7">
+        <v>1001022373678</v>
+      </c>
+      <c r="C106" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="B107" s="7">
+        <v>1001022373717</v>
+      </c>
+      <c r="C107" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="B108" s="7">
+        <v>1001022725818</v>
+      </c>
+      <c r="C108" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="B109" s="7">
+        <v>1001025166439</v>
+      </c>
+      <c r="C109" t="s">
+        <v>178</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C101" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
+  <autoFilter ref="A1:C109" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/moduls/1С.xlsx
+++ b/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\Останкино КИ\ostankino_ki\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BCE5915-1221-4E7F-9505-D20D7FBAE4E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B807409-5186-4F16-B8D3-6C352AFD3D53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$109</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$108</definedName>
   </definedNames>
   <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="281">
   <si>
     <t>1С</t>
   </si>
@@ -568,12 +568,6 @@
     <t>БОГАТЫРСКИЕ Папа Может сос п/о в/у 0.3кг</t>
   </si>
   <si>
-    <t>6439 ХОТ-ДОГ Папа может сос п/о мгс 0.38кг  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>ХОТ-ДОГ Папа может сос п/о мгс 0,38кг</t>
-  </si>
-  <si>
     <t>6448 СВИНИНА МАДЕРА с/к с/н в/у 1/100 10шт.   ОСТАНКИНО</t>
   </si>
   <si>
@@ -634,15 +628,9 @@
     <t>ШПИКАЧКИ СОЧНЫЕ ПМ САР Б/О МГС 1*3 45с</t>
   </si>
   <si>
-    <t>6534 СЕРВЕЛАТ ФИНСКИЙ СН в/к п/о 0.35кг 8шт  ОСТАНКИНО</t>
-  </si>
-  <si>
     <t>СЕРВЕЛАТ ФИНСКИЙ СН в/к п/о 0.35кг 8шт</t>
   </si>
   <si>
-    <t>6535 СЕРВЕЛАТ ОРЕХОВЫЙ СН в/к п/о 0,35кг 8шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
     <t>СЕРВЕЛАТ ОРЕХОВЫЙ СН в/к п/о 0,35кг 8шт</t>
   </si>
   <si>
@@ -880,10 +868,16 @@
     <t>6303 МЯСНЫЕ Папа может сос п/о мгс 1.5*3  ОСТАНКИНО</t>
   </si>
   <si>
-    <t>6241 ХОТ-ДОГ Папа может сос п/о мгс 0.38кг  ОСТАНКИНО</t>
-  </si>
-  <si>
     <t>СОЧНЫЙ ГРИЛЬ ПМ сос п/о мгс 1.5*4_Маяк</t>
+  </si>
+  <si>
+    <t>6241 ХОТ-ДОГ Папа может сос п/о мгс 0.38кг  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6213 СЕРВЕЛАТ ФИНСКИЙ СН в/к в/у 0.35кг 8шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6215 СЕРВЕЛАТ ОРЕХОВЫЙ СН в/к в/у 0.35кг 8шт  ОСТАНКИНО</t>
   </si>
 </sst>
 </file>
@@ -1272,11 +1266,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C109"/>
+  <dimension ref="A1:C108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1795,7 +1789,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B47" s="7">
         <v>1001304506684</v>
@@ -1806,7 +1800,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B48" s="7">
         <v>1001303056692</v>
@@ -1872,425 +1866,422 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
-        <v>177</v>
+        <v>278</v>
       </c>
       <c r="B54" s="7">
         <v>1001025166439</v>
       </c>
-      <c r="C54" t="s">
-        <v>178</v>
-      </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B55" s="7">
         <v>1001234146448</v>
       </c>
       <c r="C55" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B56" s="7">
         <v>1001233296450</v>
       </c>
       <c r="C56" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B57" s="7">
         <v>1001202506453</v>
       </c>
       <c r="C57" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B58" s="7">
         <v>1001201976454</v>
       </c>
       <c r="C58" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B59" s="7">
         <v>1001022246461</v>
       </c>
       <c r="C59" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B60" s="7">
         <v>1001025176475</v>
       </c>
       <c r="C60" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B61" s="7">
         <v>1001225156500</v>
       </c>
       <c r="C61" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B62" s="7">
         <v>1001301876697</v>
       </c>
       <c r="C62" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B63" s="7">
         <v>1001024636517</v>
       </c>
       <c r="C63" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B64" s="7">
         <v>1001031076527</v>
       </c>
       <c r="C64" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
-        <v>199</v>
+        <v>279</v>
       </c>
       <c r="B65" s="7">
         <v>1001301876534</v>
       </c>
       <c r="C65" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
-        <v>201</v>
+        <v>280</v>
       </c>
       <c r="B66" s="7">
         <v>1001305196535</v>
       </c>
       <c r="C66" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B67" s="7">
         <v>1001304506562</v>
       </c>
       <c r="C67" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B68" s="7">
         <v>1001020846563</v>
       </c>
       <c r="C68" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B69" s="7">
         <v>1001305196564</v>
       </c>
       <c r="C69" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B70" s="7">
         <v>1001020836588</v>
       </c>
       <c r="C70" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B71" s="7">
         <v>1001020836589</v>
       </c>
       <c r="C71" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B72" s="7">
         <v>1001020846590</v>
       </c>
       <c r="C72" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B73" s="7">
         <v>1001010016592</v>
       </c>
       <c r="C73" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B74" s="7">
         <v>1001010026594</v>
       </c>
       <c r="C74" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B75" s="7">
         <v>6596</v>
       </c>
       <c r="C75" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B76" s="7">
         <v>1001022296601</v>
       </c>
       <c r="C76" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B77" s="7">
         <v>1001034066606</v>
       </c>
       <c r="C77" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B78" s="7">
         <v>1001303636636</v>
       </c>
       <c r="C78" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B79" s="7">
         <v>1001031896648</v>
       </c>
       <c r="C79" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B80" s="7">
         <v>1001035266650</v>
       </c>
       <c r="C80" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B81" s="7">
         <v>1001035276652</v>
       </c>
       <c r="C81" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B82" s="7">
         <v>6655</v>
       </c>
       <c r="C82" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B83" s="7">
         <v>1001305256658</v>
       </c>
       <c r="C83" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B84" s="7">
         <v>1001010016593</v>
       </c>
       <c r="C84" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B85" s="7">
         <v>1001010026595</v>
       </c>
       <c r="C85" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B86" s="7">
         <v>1001010036597</v>
       </c>
       <c r="C86" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B87" s="7">
         <v>1001022466641</v>
       </c>
       <c r="C87" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B88" s="7">
         <v>1001022246642</v>
       </c>
       <c r="C88" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B89" s="7">
         <v>1001020886646</v>
       </c>
       <c r="C89" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B90" s="7">
         <v>1001305306566</v>
       </c>
       <c r="C90" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B91" s="7">
         <v>1001300386683</v>
       </c>
       <c r="C91" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B92" s="7">
         <v>1001303986689</v>
@@ -2301,7 +2292,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B93" s="7">
         <v>1001300516669</v>
@@ -2312,18 +2303,18 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B94" s="7">
         <v>1001022376644</v>
       </c>
       <c r="C94" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B95" s="7">
         <v>1001012566392</v>
@@ -2334,18 +2325,18 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B96" s="7">
         <v>1001020836643</v>
       </c>
       <c r="C96" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B97" s="7">
         <v>1001302276666</v>
@@ -2356,95 +2347,95 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B98" s="7">
         <v>1001012426268</v>
       </c>
       <c r="C98" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B99" s="7">
         <v>5981</v>
       </c>
       <c r="C99" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B100" s="7">
         <v>6247</v>
       </c>
       <c r="C100" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B101" s="7">
         <v>6565</v>
       </c>
       <c r="C101" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B102" s="7">
         <v>6041</v>
       </c>
       <c r="C102" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B103" s="7">
         <v>6227</v>
       </c>
       <c r="C103" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B104" s="7">
         <v>6217</v>
       </c>
       <c r="C104" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B105" s="7">
         <v>6661</v>
       </c>
       <c r="C105" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B106" s="7">
         <v>1001022373678</v>
@@ -2455,7 +2446,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B107" s="7">
         <v>1001022373717</v>
@@ -2466,7 +2457,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B108" s="7">
         <v>1001022725818</v>
@@ -2475,19 +2466,8 @@
         <v>128</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="B109" s="7">
-        <v>1001025166439</v>
-      </c>
-      <c r="C109" t="s">
-        <v>178</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:C109" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
+  <autoFilter ref="A1:C108" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/moduls/1С.xlsx
+++ b/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\Останкино КИ\ostankino_ki\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B807409-5186-4F16-B8D3-6C352AFD3D53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D02EC31-5872-4DC4-BE58-105FC27271E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$108</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$90</definedName>
   </definedNames>
   <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="250">
   <si>
     <t>1С</t>
   </si>
@@ -262,21 +262,9 @@
     <t>ВЕТЧ.МЯСНАЯ Папа может п/о 0.4кг 8шт.</t>
   </si>
   <si>
-    <t>3248 ДОКТОРСКАЯ ТРАДИЦ. вар п/о ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>ДОКТОРСКАЯ ТРАДИЦ. вар п/о</t>
-  </si>
-  <si>
-    <t>3678 СОЧНЫЕ сос п/о мгс 2*2     ОСТАНКИНО</t>
-  </si>
-  <si>
     <t>СОЧНЫЕ сос п/о мгс 2*2</t>
   </si>
   <si>
-    <t>3717 СОЧНЫЕ сос п/о мгс 1*6 ОСТАНКИНО</t>
-  </si>
-  <si>
     <t>СОЧНЫЕ сос п/о мгс 1*6</t>
   </si>
   <si>
@@ -328,18 +316,6 @@
     <t>САЛЯМИ ИТАЛЬЯНСКАЯ с/к в/у 1/250*8_120c</t>
   </si>
   <si>
-    <t>5160 Мясной пашт п/о 0,150 ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>МЯСНОЙ пашт п/о 1/150 16шт.</t>
-  </si>
-  <si>
-    <t>5161 Печеночный пашт 0,150 ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>ПЕЧЕНОЧНЫЙ пашт п/о 1/150 16шт.</t>
-  </si>
-  <si>
     <t>5246 ДОКТОРСКАЯ ПРЕМИУМ вар б/о мгс_30с ОСТАНКИНО</t>
   </si>
   <si>
@@ -376,18 +352,6 @@
     <t>ЭКСТРА Папа может с/к в/у 1/250 8шт.</t>
   </si>
   <si>
-    <t>5489 СЕРВЕЛАТ ЗЕРНИСТЫЙ Папа может в/к в/у  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>СЕРВЕЛАТ ЗЕРНИСТЫЙ Папа может в/к в/у</t>
-  </si>
-  <si>
-    <t>5532 СОЧНЫЕ сос п/о мгс 0.45кг 10шт_45с   ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>СОЧНЫЕ сос п/о мгс 0.45кг 10шт_45с</t>
-  </si>
-  <si>
     <t>5544 Сервелат Финский в/к в/у_45с НОВАЯ ОСТАНКИНО</t>
   </si>
   <si>
@@ -412,36 +376,12 @@
     <t>ПОСОЛЬСКАЯ Папа может с/к в/у</t>
   </si>
   <si>
-    <t>5813 ГОВЯЖЬИ сос п/о мгс 2*2_45с   ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>ГОВЯЖЬИ сос п/о мгс 2*2_45с</t>
-  </si>
-  <si>
-    <t>5818 МЯСНЫЕ Папа может сос п/о мгс 1*3_45с   ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>МЯСНЫЕ Папа может сос п/о мгс 1*3_45с</t>
-  </si>
-  <si>
-    <t>5819 МЯСНЫЕ Папа может сос п/о в/у 0,4кг_45с  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>МЯСНЫЕ Папа может сос п/о в/у 0.4кг_45с</t>
-  </si>
-  <si>
     <t>5820 СЛИВОЧНЫЕ Папа может сос п/о мгс 2*2_45с   ОСТАНКИНО</t>
   </si>
   <si>
     <t>СЛИВОЧНЫЕ Папа может сос п/о мгс 2*2_45с</t>
   </si>
   <si>
-    <t>5821 СЛИВОЧНЫЕ ПМ сос п/о мгс 0.450кг_45с   ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>СЛИВОЧНЫЕ ПМ сос п/о мгс 0.450кг_45с</t>
-  </si>
-  <si>
     <t>5851 ЭКСТРА Папа может вар п/о   ОСТАНКИНО</t>
   </si>
   <si>
@@ -454,12 +394,6 @@
     <t xml:space="preserve"> ОХОТНИЧЬЯ Папа может с/к в/у 1/220 8шт.</t>
   </si>
   <si>
-    <t>5992 ВРЕМЯ ОКРОШКИ Папа может вар п/о 0.4кг   ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>ВРЕМЯ ОКРОШКИ Папа может вар п/о 0,4кг</t>
-  </si>
-  <si>
     <t>5997 ОСОБАЯ Коровино вар п/о  ОСТАНКИНО</t>
   </si>
   <si>
@@ -472,12 +406,6 @@
     <t>МОЛОЧНЫЕ К ЗАВТРАКУ сос п/о в/у 0.4кг</t>
   </si>
   <si>
-    <t>6062 МОЛОЧНЫЕ К ЗАВТРАКУ сос п/о мгс 2*2   ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>МОЛОЧНЫЕ К ЗАВТРАКУ сос п/о мгс 2*2</t>
-  </si>
-  <si>
     <t>6123 МОЛОЧНЫЕ КЛАССИЧЕСКИЕ ПМ сос п/о мгс 2*4   ОСТАНКИНО</t>
   </si>
   <si>
@@ -514,9 +442,6 @@
     <t>МЯСНАЯ Папа может вар п/о 0.4кг 8шт.</t>
   </si>
   <si>
-    <t>6348 ФИЛЕЙНАЯ Папа может вар п/о 0,4кг 8шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
     <t>ФИЛЕЙНАЯ Папа может вар п/о 0.4кг 8шт.</t>
   </si>
   <si>
@@ -535,9 +460,6 @@
     <t>СЕРВЕЛАТ ПРИМА в/к в/у 0.28кг 8шт.</t>
   </si>
   <si>
-    <t>6397 БОЯNСКАЯ Папа может п/к в/у 0.28кг 8шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
     <t>БОЯNСКАЯ Папа может п/к в/у 0.28кг 8шт.</t>
   </si>
   <si>
@@ -556,12 +478,6 @@
     <t>КЛАССИЧЕСКАЯ ПМ вар п/о 0.35кг 8шт.</t>
   </si>
   <si>
-    <t>6428 СОЧНЫЙ ГРИЛЬ ПМ сос п/о мгс 0.45кг 8шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>СОЧНЫЙ ГРИЛЬ ПМ сос п/о мгс 0,45кг 8шт</t>
-  </si>
-  <si>
     <t>6438 БОГАТЫРСКИЕ Папа Может сос п/о в/у 0,3кг  ОСТАНКИНО</t>
   </si>
   <si>
@@ -592,24 +508,12 @@
     <t>АРОМАТНАЯ с/к с/н в/у 1/100*8_60с</t>
   </si>
   <si>
-    <t>6461 СОЧНЫЙ ГРИЛЬ ПМ сос п/о мгс 1*6  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>СОЧНЫЙ ГРИЛЬ ПМ сос п/о мгс 1*6</t>
-  </si>
-  <si>
     <t>6475 С СЫРОМ Папа может сос ц/о мгс 0.4кг6шт  ОСТАНКИНО</t>
   </si>
   <si>
     <t>С СЫРОМ Папа может сос ц/о мгс 0.4кг 6шт</t>
   </si>
   <si>
-    <t>6500 КАРБОНАД к/в с/н в/у 1/150 8шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>КАРБОНАД к/в с/н в/у 1/150 8шт.</t>
-  </si>
-  <si>
     <t>СЕРВЕЛАТ ФИНСКИЙ в/к в/у срез 0.35кг_45c</t>
   </si>
   <si>
@@ -646,18 +550,6 @@
     <t>СЛИВОЧНЫЕ СН сос п/о мгс 1*6</t>
   </si>
   <si>
-    <t>6564 СЕРВЕЛАТ ОРЕХОВЫЙ ПМ в/к в/у 0.31кг 8шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>СЕРВЕЛАТ ОРЕХОВЫЙ ПМ в/к в/у 0.31кг</t>
-  </si>
-  <si>
-    <t>6588 МОЛОЧНЫЕ ГОСТ СН сос п/о мгс 1*6  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>МОЛОЧНЫЕ ГОСТ СН сос п/о мгс 1*6</t>
-  </si>
-  <si>
     <t>6589 МОЛОЧНЫЕ ГОСТ СН сос п/о мгс 0.41кг 10шт  ОСТАНКИНО</t>
   </si>
   <si>
@@ -682,202 +574,217 @@
     <t>МОЛОЧНАЯ СН вар п/о</t>
   </si>
   <si>
-    <t>6596 РУССКАЯ СН вар п/о  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> РУССКАЯ СН вар п/о</t>
-  </si>
-  <si>
     <t>6601 ГОВЯЖЬИ СН сос п/о мгс 1*6  ОСТАНКИНО</t>
   </si>
   <si>
     <t>ГОВЯЖЬИ СН сос п/о мгс 1*6</t>
   </si>
   <si>
+    <t>6636 БАЛЫКОВАЯ СН в/к п/о 0,35кг 8шт  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>БАЛЫКОВАЯ СН в/к п/о 0.35кг 8шт</t>
+  </si>
+  <si>
+    <t>6648 СОЧНЫЕ Папа может сар п/о мгс 1*3  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>СОЧНЫЕ Папа может сар п/о мгс 1*3</t>
+  </si>
+  <si>
+    <t>6650 СОЧНЫЕ С СЫРОМ ПМ сар п/о мгс 1*3  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>СОЧНЫЕ С СЫРОМ ПМ сар п/о мгс 1*3</t>
+  </si>
+  <si>
+    <t>6658 АРОМАТНАЯ С ЧЕСНОЧКОМ СН в/к мтс 0.330кг  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> АРОМАТНАЯ С ЧЕСНОЧКОМ СН в/к мтс 0.330кг</t>
+  </si>
+  <si>
+    <t>6593 ДОКТОРСКАЯ СН вар п/о 0.45кг 8шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>ДОКТОРСКАЯ СН вар п/о 0.45кг 8шт</t>
+  </si>
+  <si>
+    <t>6595 МОЛОЧНАЯ СН вар п/о 0.45кг 8шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>МОЛОЧНАЯ СН вар п/о 0.45кг 8шт.</t>
+  </si>
+  <si>
+    <t>6597 РУССКАЯ СН вар п/о 0.45кг 8шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>РУССКАЯ СН вар п/о 0.45кг 8шт.</t>
+  </si>
+  <si>
+    <t>6641 СЛИВОЧНЫЕ ПМ сос п/о мгс 0,41кг 10шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>СЛИВОЧНЫЕ ПМ сос п/о мгс 0,41кг 10шт.</t>
+  </si>
+  <si>
+    <t>СОЧНЫЙ ГРИЛЬ ПМ сос п/о мгс 0,41кг 8шт.</t>
+  </si>
+  <si>
+    <t>СОСИСКА.РУ сос ц/о в/у 1/300 8шт.</t>
+  </si>
+  <si>
+    <t>6646 СОСИСКА.РУ сос ц/о в/у 1/300 8шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6566 СЕРВЕЛАТ С БЕЛ.ГРИБАМИ в/к в/у 0,31кг  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ С БЕЛ.ГРИБАМИ в/к в/у 0.31кг</t>
+  </si>
+  <si>
+    <t>6684 СЕРВЕЛАТ КАРЕЛЬСКИЙ ПМ в/к в/у 0.28кг  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6692 СЕРВЕЛАТ ПРИМА в/к в/у 0.28кг 8шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6669 ВЕНСКАЯ САЛЯМИ п/к в/у 0.28кг 8шт  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6683 СЕРВЕЛАТ ЗЕРНИСТЫЙ ПМ в/к в/у 0,35кг  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6689 СЕРВЕЛАТ ОХОТНИЧИЙ ПМ в/к в/у 0,35кг 8шт  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6697 СЕРВЕЛАТ ФИНСКИЙ ПМ в/к в/у 0,35кг 8шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>СОЧНЫЕ ПМ сос п/о мгс 0,41кг 10шт</t>
+  </si>
+  <si>
+    <t>6392 ФИЛЕЙНАЯ Папа может вар п/о 0.4кг. ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6644 СОЧНЫЕ ПМ сос п/о мгс 0,41кг 10шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6666 БОЯНСКАЯ Папа может п/к в/у 0,28кг 8 шт. ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>ГОВЯЖЬЯ Папа может вар п/о 0.4кг 8шт</t>
+  </si>
+  <si>
+    <t>6268 ГОВЯЖЬЯ Папа может вар п/о 0,4кг 8 шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>5981 МОЛОЧНЫЕ ТРАДИЦ. сос п/о мгс 1*6_45с   ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>МОЛОЧНЫЕ ТРАДИЦ. сос п/о мгс 1*6_45с</t>
+  </si>
+  <si>
+    <t>6247 ДОМАШНЯЯ Папа может вар п/о 0,4кг 8шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>ДОМАШНЯЯ Папа может вар п/о 0,4кг 8шт.</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ С АРОМ.ТРАВАМИ в/к в/у 0,31к</t>
+  </si>
+  <si>
+    <t>МОЛОЧНЫЕ К ЗАВТРАКУ сос п/о мгс 1*3</t>
+  </si>
+  <si>
+    <t>6041 МОЛОЧНЫЕ К ЗАВТРАКУ сос п/о мгс 1*3  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6227 МОЛОЧНЫЕ ТРАДИЦ. сос п/о мгс 0.6кг LTF  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>МОЛОЧНЫЕ ТРАДИЦ. сос п/о мгс 0.6кг LTF</t>
+  </si>
+  <si>
+    <t>ШПИКАЧКИ ДОМАШНИЕ СН п/о мгс 0.4кг 8шт.</t>
+  </si>
+  <si>
+    <t>6217 ШПИКАЧКИ ДОМАШНИЕ СН п/о мгс 0.4кг 8шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6661 СОЧНЫЙ ГРИЛЬ ПМ сос п/о мгс 1.5*4_Маяк  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>3812 СОЧНЫЕ сос п/о мгс 2*2  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6113 СОЧНЫЕ сос п/о мгс 1*6_Ашан  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>СОЧНЫЙ ГРИЛЬ ПМ сос п/о мгс 1.5*4_Маяк</t>
+  </si>
+  <si>
+    <t>6241 ХОТ-ДОГ Папа может сос п/о мгс 0.38кг  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6213 СЕРВЕЛАТ ФИНСКИЙ СН в/к в/у 0.35кг 8шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6215 СЕРВЕЛАТ ОРЕХОВЫЙ СН в/к в/у 0.35кг 8шт  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6713 СОЧНЫЙ ГРИЛЬ ПМ сос п/о мгс 0.41кг 8шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>ХОТ-ДОГ Папа может сос п/о мгс 0,38кг</t>
+  </si>
+  <si>
+    <t>ВРЕМЯ ОЛИВЬЕ Папа может вар п/о 0.4кг</t>
+  </si>
+  <si>
+    <t>К ЧАЮ Советское наследие вар н/о мгс</t>
+  </si>
+  <si>
+    <t>ОСОБАЯ Коровино (в сетке) 0.5кг 8шт.</t>
+  </si>
+  <si>
+    <t>МОЛОЧНЫЕ ТРАДИЦ. сос п/о в/у 1/360 (1+1)</t>
+  </si>
+  <si>
+    <t>БАЛЫКОВАЯ СН в/к в/у</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ ФИНСКИЙ СН в/к в/у</t>
+  </si>
+  <si>
+    <t>6144 МОЛОЧНЫЕ ТРАДИЦ сос п/о в/у 1/360 (1+1) ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6158 ВРЕМЯ ОЛИВЬЕ Папа может вар п/о 0.4кг   ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6212 СЕРВЕЛАТ ФИНСКИЙ СН в/к в/у  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6259 К ЧАЮ Советское наследие вар н/о мгс  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6301 БАЛЫКОВАЯ СН в/к в/у  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6716 ОСОБАЯ Коровино (в сетке) 0.5кг 8шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6303 МЯСНЫЕ Папа может сос п/о мгс 1.5*3  ОСТАНКИНО</t>
+  </si>
+  <si>
     <t>6606 СЫТНЫЕ Папа может сар б/о мгс 1*3 45с  ОСТАНКИНО</t>
   </si>
   <si>
-    <t>СЫТНЫЕ Папа может сар б/о мгс 1*3</t>
-  </si>
-  <si>
-    <t>6636 БАЛЫКОВАЯ СН в/к п/о 0,35кг 8шт  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>БАЛЫКОВАЯ СН в/к п/о 0.35кг 8шт</t>
-  </si>
-  <si>
-    <t>6648 СОЧНЫЕ Папа может сар п/о мгс 1*3  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>СОЧНЫЕ Папа может сар п/о мгс 1*3</t>
-  </si>
-  <si>
-    <t>6650 СОЧНЫЕ С СЫРОМ ПМ сар п/о мгс 1*3  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>СОЧНЫЕ С СЫРОМ ПМ сар п/о мгс 1*3</t>
-  </si>
-  <si>
-    <t>6652 ШПИКАЧКИ СОЧНЫЕ С БЕКОНОМ п/о мгс 1*3  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>ШПИКАЧКИ СОЧНЫЕ С БЕКОНОМ п/о мгс 1*3</t>
-  </si>
-  <si>
-    <t>6655 ГРУДИНКА КЛАССИЧЕСКАЯ к/в с/в в/у 1/100  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>ГРУДИНКА КЛАССИЧЕСКАЯ к/в с/в в/у 1/100</t>
-  </si>
-  <si>
-    <t>6658 АРОМАТНАЯ С ЧЕСНОЧКОМ СН в/к мтс 0.330кг  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> АРОМАТНАЯ С ЧЕСНОЧКОМ СН в/к мтс 0.330кг</t>
-  </si>
-  <si>
-    <t>6593 ДОКТОРСКАЯ СН вар п/о 0.45кг 8шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>ДОКТОРСКАЯ СН вар п/о 0.45кг 8шт</t>
-  </si>
-  <si>
-    <t>6595 МОЛОЧНАЯ СН вар п/о 0.45кг 8шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>МОЛОЧНАЯ СН вар п/о 0.45кг 8шт.</t>
-  </si>
-  <si>
-    <t>6597 РУССКАЯ СН вар п/о 0.45кг 8шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>РУССКАЯ СН вар п/о 0.45кг 8шт.</t>
-  </si>
-  <si>
-    <t>6641 СЛИВОЧНЫЕ ПМ сос п/о мгс 0,41кг 10шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>СЛИВОЧНЫЕ ПМ сос п/о мгс 0,41кг 10шт.</t>
-  </si>
-  <si>
-    <t>6642 СОЧНЫЙ ГРИЛЬ ПМ сос п/о мгс 0,41кг 8шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>СОЧНЫЙ ГРИЛЬ ПМ сос п/о мгс 0,41кг 8шт.</t>
-  </si>
-  <si>
-    <t>СОСИСКА.РУ сос ц/о в/у 1/300 8шт.</t>
-  </si>
-  <si>
-    <t>6646 СОСИСКА.РУ сос ц/о в/у 1/300 8шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6566 СЕРВЕЛАТ С БЕЛ.ГРИБАМИ в/к в/у 0,31кг  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>СЕРВЕЛАТ С БЕЛ.ГРИБАМИ в/к в/у 0.31кг</t>
-  </si>
-  <si>
-    <t>6684 СЕРВЕЛАТ КАРЕЛЬСКИЙ ПМ в/к в/у 0.28кг  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6692 СЕРВЕЛАТ ПРИМА в/к в/у 0.28кг 8шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6669 ВЕНСКАЯ САЛЯМИ п/к в/у 0.28кг 8шт  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6683 СЕРВЕЛАТ ЗЕРНИСТЫЙ ПМ в/к в/у 0,35кг  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6689 СЕРВЕЛАТ ОХОТНИЧИЙ ПМ в/к в/у 0,35кг 8шт  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6697 СЕРВЕЛАТ ФИНСКИЙ ПМ в/к в/у 0,35кг 8шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>СОЧНЫЕ ПМ сос п/о мгс 0,41кг 10шт</t>
-  </si>
-  <si>
-    <t>6392 ФИЛЕЙНАЯ Папа может вар п/о 0.4кг. ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6644 СОЧНЫЕ ПМ сос п/о мгс 0,41кг 10шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6643 МОЛОЧНЫЕ ПМ сос п/о мгс 0.41кг 10шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6666 БОЯНСКАЯ Папа может п/к в/у 0,28кг 8 шт. ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>МОЛОЧНЫЕ ПМ сос п/о мгс 0.41кг 10шт</t>
-  </si>
-  <si>
-    <t>ГОВЯЖЬЯ Папа может вар п/о 0.4кг 8шт</t>
-  </si>
-  <si>
-    <t>6268 ГОВЯЖЬЯ Папа может вар п/о 0,4кг 8 шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>5981 МОЛОЧНЫЕ ТРАДИЦ. сос п/о мгс 1*6_45с   ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>МОЛОЧНЫЕ ТРАДИЦ. сос п/о мгс 1*6_45с</t>
-  </si>
-  <si>
-    <t>6247 ДОМАШНЯЯ Папа может вар п/о 0,4кг 8шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>ДОМАШНЯЯ Папа может вар п/о 0,4кг 8шт.</t>
-  </si>
-  <si>
-    <t>6565 СЕРВЕЛАТ С АРОМ.ТРАВАМИ в/к в/у 0,31кг  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>СЕРВЕЛАТ С АРОМ.ТРАВАМИ в/к в/у 0,31к</t>
-  </si>
-  <si>
-    <t>МОЛОЧНЫЕ К ЗАВТРАКУ сос п/о мгс 1*3</t>
-  </si>
-  <si>
-    <t>6041 МОЛОЧНЫЕ К ЗАВТРАКУ сос п/о мгс 1*3  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6227 МОЛОЧНЫЕ ТРАДИЦ. сос п/о мгс 0.6кг LTF  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>МОЛОЧНЫЕ ТРАДИЦ. сос п/о мгс 0.6кг LTF</t>
-  </si>
-  <si>
-    <t>ШПИКАЧКИ ДОМАШНИЕ СН п/о мгс 0.4кг 8шт.</t>
-  </si>
-  <si>
-    <t>6217 ШПИКАЧКИ ДОМАШНИЕ СН п/о мгс 0.4кг 8шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6661 СОЧНЫЙ ГРИЛЬ ПМ сос п/о мгс 1.5*4_Маяк  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>3812 СОЧНЫЕ сос п/о мгс 2*2  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6113 СОЧНЫЕ сос п/о мгс 1*6_Ашан  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6303 МЯСНЫЕ Папа может сос п/о мгс 1.5*3  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>СОЧНЫЙ ГРИЛЬ ПМ сос п/о мгс 1.5*4_Маяк</t>
-  </si>
-  <si>
-    <t>6241 ХОТ-ДОГ Папа может сос п/о мгс 0.38кг  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6213 СЕРВЕЛАТ ФИНСКИЙ СН в/к в/у 0.35кг 8шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6215 СЕРВЕЛАТ ОРЕХОВЫЙ СН в/к в/у 0.35кг 8шт  ОСТАНКИНО</t>
+    <t>МЯСНЫЕ Папа может сос п/о мгс 1.5*3</t>
+  </si>
+  <si>
+    <t>СЫТНЫЕ Папа может сар б/о мгс 1*3 45с</t>
   </si>
 </sst>
 </file>
@@ -1266,11 +1173,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C108"/>
+  <dimension ref="A1:C90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1278,7 +1185,6 @@
     <col min="1" max="1" width="61.7109375" style="6" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" style="7" customWidth="1"/>
     <col min="3" max="3" width="44.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1305,846 +1211,849 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B3" s="7">
-        <v>1001010113248</v>
+        <v>1001012484063</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B4" s="7">
-        <v>1001022373678</v>
+        <v>1001062504117</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B5" s="7">
-        <v>1001022373717</v>
+        <v>1001043094342</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B6" s="7">
-        <v>1001012484063</v>
+        <v>1001012634574</v>
       </c>
       <c r="C6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B7" s="7">
-        <v>1001062504117</v>
+        <v>1001092444611</v>
       </c>
       <c r="C7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B8" s="7">
-        <v>1001043094342</v>
+        <v>1001092444614</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B9" s="7">
-        <v>1001012634574</v>
+        <v>1001012564813</v>
       </c>
       <c r="C9" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B10" s="7">
-        <v>1001092444611</v>
+        <v>1001060764993</v>
       </c>
       <c r="C10" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B11" s="7">
-        <v>1001092444614</v>
+        <v>1001010105246</v>
       </c>
       <c r="C11" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B12" s="7">
-        <v>1001012564813</v>
+        <v>1001010855247</v>
       </c>
       <c r="C12" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B13" s="7">
-        <v>1001060764993</v>
+        <v>1001012815336</v>
       </c>
       <c r="C13" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B14" s="7">
-        <v>1001100615160</v>
+        <v>1001012825337</v>
       </c>
       <c r="C14" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B15" s="7">
-        <v>1001100625161</v>
+        <v>1001053985341</v>
       </c>
       <c r="C15" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B16" s="7">
-        <v>1001010105246</v>
+        <v>1001062505483</v>
       </c>
       <c r="C16" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B17" s="7">
-        <v>1001010855247</v>
+        <v>1001051875544</v>
       </c>
       <c r="C17" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B18" s="7">
-        <v>1001012815336</v>
+        <v>1001193115682</v>
       </c>
       <c r="C18" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B19" s="7">
-        <v>1001012825337</v>
+        <v>1001061975706</v>
       </c>
       <c r="C19" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B20" s="7">
-        <v>1001053985341</v>
+        <v>1001063145708</v>
       </c>
       <c r="C20" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B21" s="7">
-        <v>1001062505483</v>
+        <v>1001022465820</v>
       </c>
       <c r="C21" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B22" s="7">
-        <v>1001050385489</v>
+        <v>1001012505851</v>
       </c>
       <c r="C22" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B23" s="7">
-        <v>1001022375532</v>
+        <v>1001060755931</v>
       </c>
       <c r="C23" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B24" s="7">
-        <v>1001051875544</v>
+        <v>1001012815997</v>
       </c>
       <c r="C24" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B25" s="7">
-        <v>1001193115682</v>
+        <v>1001024906042</v>
       </c>
       <c r="C25" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B26" s="7">
-        <v>1001061975706</v>
+        <v>1001024976123</v>
       </c>
       <c r="C26" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B27" s="7">
-        <v>1001063145708</v>
+        <v>1001220286279</v>
       </c>
       <c r="C27" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B28" s="7">
-        <v>1001022295813</v>
+        <v>1001082576281</v>
       </c>
       <c r="C28" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B29" s="7">
-        <v>1001022725818</v>
+        <v>1001022556297</v>
       </c>
       <c r="C29" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B30" s="7">
-        <v>1001022725819</v>
+        <v>1001010106325</v>
       </c>
       <c r="C30" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B31" s="7">
-        <v>1001022465820</v>
+        <v>1001012486333</v>
       </c>
       <c r="C31" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B32" s="7">
-        <v>1001022465821</v>
+        <v>1001012506353</v>
       </c>
       <c r="C32" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>135</v>
+        <v>202</v>
       </c>
       <c r="B33" s="7">
-        <v>1001012505851</v>
+        <v>1001304506684</v>
       </c>
       <c r="C33" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>137</v>
+        <v>203</v>
       </c>
       <c r="B34" s="7">
-        <v>1001060755931</v>
+        <v>1001303056692</v>
       </c>
       <c r="C34" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B35" s="7">
-        <v>1001014765992</v>
+        <v>1001303636415</v>
       </c>
       <c r="C35" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B36" s="7">
-        <v>1001012815997</v>
+        <v>1001013956427</v>
       </c>
       <c r="C36" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B37" s="7">
-        <v>1001024906042</v>
+        <v>1001024636438</v>
       </c>
       <c r="C37" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B38" s="7">
-        <v>1001024906062</v>
+        <v>1001234146448</v>
       </c>
       <c r="C38" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B39" s="7">
-        <v>1001024976123</v>
+        <v>1001233296450</v>
       </c>
       <c r="C39" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B40" s="7">
-        <v>1001220286279</v>
+        <v>1001202506453</v>
       </c>
       <c r="C40" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B41" s="7">
-        <v>1001082576281</v>
+        <v>1001201976454</v>
       </c>
       <c r="C41" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B42" s="7">
-        <v>1001022556297</v>
+        <v>1001025176475</v>
       </c>
       <c r="C42" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>155</v>
+        <v>207</v>
       </c>
       <c r="B43" s="7">
-        <v>1001010106325</v>
+        <v>1001301876697</v>
       </c>
       <c r="C43" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B44" s="7">
-        <v>1001012486333</v>
+        <v>1001024636517</v>
       </c>
       <c r="C44" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B45" s="7">
-        <v>1001012566348</v>
+        <v>1001031076527</v>
       </c>
       <c r="C45" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B46" s="7">
-        <v>1001012506353</v>
+        <v>1001304506562</v>
       </c>
       <c r="C46" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>247</v>
+        <v>169</v>
       </c>
       <c r="B47" s="7">
-        <v>1001304506684</v>
+        <v>1001020846563</v>
       </c>
       <c r="C47" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>248</v>
+        <v>171</v>
       </c>
       <c r="B48" s="7">
-        <v>1001303056692</v>
+        <v>1001020836589</v>
       </c>
       <c r="C48" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="B49" s="7">
-        <v>1001302276397</v>
+        <v>1001020846590</v>
       </c>
       <c r="C49" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="B50" s="7">
-        <v>1001303636415</v>
+        <v>1001010016592</v>
       </c>
       <c r="C50" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="B51" s="7">
-        <v>1001013956427</v>
+        <v>1001010026594</v>
       </c>
       <c r="C51" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="B52" s="7">
-        <v>1001022246428</v>
+        <v>1001022296601</v>
       </c>
       <c r="C52" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="B53" s="7">
-        <v>1001024636438</v>
+        <v>1001031896648</v>
       </c>
       <c r="C53" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
-        <v>278</v>
+        <v>185</v>
       </c>
       <c r="B54" s="7">
-        <v>1001025166439</v>
+        <v>1001035266650</v>
+      </c>
+      <c r="C54" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="B55" s="7">
-        <v>1001234146448</v>
+        <v>1001305256658</v>
       </c>
       <c r="C55" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="B56" s="7">
-        <v>1001233296450</v>
+        <v>1001010016593</v>
       </c>
       <c r="C56" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="B57" s="7">
-        <v>1001202506453</v>
+        <v>1001010026595</v>
       </c>
       <c r="C57" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="B58" s="7">
-        <v>1001201976454</v>
+        <v>1001010036597</v>
       </c>
       <c r="C58" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="6" t="s">
-        <v>185</v>
+      <c r="A59" s="8" t="s">
+        <v>199</v>
       </c>
       <c r="B59" s="7">
-        <v>1001022246461</v>
+        <v>1001020886646</v>
       </c>
       <c r="C59" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="B60" s="7">
-        <v>1001025176475</v>
+        <v>1001305306566</v>
       </c>
       <c r="C60" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="B61" s="7">
-        <v>1001225156500</v>
+        <v>1001300386683</v>
       </c>
       <c r="C61" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
-        <v>252</v>
+        <v>206</v>
       </c>
       <c r="B62" s="7">
-        <v>1001301876697</v>
+        <v>1001303986689</v>
       </c>
       <c r="C62" t="s">
-        <v>191</v>
+        <v>139</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="B63" s="7">
-        <v>1001024636517</v>
+        <v>1001300516669</v>
       </c>
       <c r="C63" t="s">
-        <v>194</v>
+        <v>142</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="B64" s="7">
-        <v>1001031076527</v>
+        <v>1001012566392</v>
       </c>
       <c r="C64" t="s">
-        <v>196</v>
+        <v>135</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
-        <v>279</v>
+        <v>211</v>
       </c>
       <c r="B65" s="7">
-        <v>1001301876534</v>
+        <v>1001302276666</v>
       </c>
       <c r="C65" t="s">
-        <v>197</v>
+        <v>141</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
-        <v>280</v>
+        <v>213</v>
       </c>
       <c r="B66" s="7">
-        <v>1001305196535</v>
+        <v>1001012426268</v>
       </c>
       <c r="C66" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="B67" s="7">
-        <v>1001304506562</v>
+        <v>6041</v>
       </c>
       <c r="C67" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="B68" s="7">
-        <v>1001020846563</v>
+        <v>1001011086247</v>
       </c>
       <c r="C68" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
-        <v>203</v>
+        <v>241</v>
       </c>
       <c r="B69" s="7">
-        <v>1001305196564</v>
+        <v>1001014486158</v>
       </c>
       <c r="C69" t="s">
-        <v>204</v>
+        <v>234</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
-        <v>205</v>
+        <v>243</v>
       </c>
       <c r="B70" s="7">
-        <v>1001020836588</v>
+        <v>1001015356259</v>
       </c>
       <c r="C70" t="s">
-        <v>206</v>
+        <v>235</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
-        <v>207</v>
+        <v>245</v>
       </c>
       <c r="B71" s="7">
-        <v>1001020836589</v>
+        <v>1001012816716</v>
       </c>
       <c r="C71" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="B72" s="7">
-        <v>1001020846590</v>
+        <v>1001020966227</v>
       </c>
       <c r="C72" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B73" s="7">
-        <v>1001010016592</v>
+        <v>1001020965981</v>
       </c>
       <c r="C73" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
-        <v>213</v>
+        <v>246</v>
       </c>
       <c r="B74" s="7">
-        <v>1001010026594</v>
+        <v>1001022726303</v>
       </c>
       <c r="C74" t="s">
-        <v>214</v>
+        <v>248</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="B75" s="7">
-        <v>6596</v>
+        <v>1001022466726</v>
       </c>
       <c r="C75" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
-        <v>217</v>
+        <v>240</v>
       </c>
       <c r="B76" s="7">
-        <v>1001022296601</v>
+        <v>1001020966144</v>
       </c>
       <c r="C76" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="B77" s="7">
-        <v>1001034066606</v>
+        <v>1001022376722</v>
       </c>
       <c r="C77" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="B78" s="7">
-        <v>1001303636636</v>
+        <v>1001022373812</v>
       </c>
       <c r="C78" t="s">
-        <v>222</v>
+        <v>75</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B79" s="7">
-        <v>1001031896648</v>
+        <v>1001022376113</v>
       </c>
       <c r="C79" t="s">
-        <v>224</v>
+        <v>76</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -2152,21 +2061,21 @@
         <v>225</v>
       </c>
       <c r="B80" s="7">
-        <v>1001035266650</v>
+        <v>1001022246661</v>
       </c>
       <c r="C80" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="B81" s="7">
-        <v>1001035276652</v>
+        <v>1001022246713</v>
       </c>
       <c r="C81" t="s">
-        <v>228</v>
+        <v>197</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -2174,300 +2083,99 @@
         <v>229</v>
       </c>
       <c r="B82" s="7">
-        <v>6655</v>
+        <v>1001025166241</v>
       </c>
       <c r="C82" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="B83" s="7">
-        <v>1001305256658</v>
+        <v>6606</v>
       </c>
       <c r="C83" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="B84" s="7">
-        <v>1001010016593</v>
+        <v>1001035326217</v>
       </c>
       <c r="C84" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="B85" s="7">
-        <v>1001010026595</v>
+        <v>1001303636301</v>
       </c>
       <c r="C85" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
-        <v>237</v>
+        <v>181</v>
       </c>
       <c r="B86" s="7">
-        <v>1001010036597</v>
+        <v>1001303636302</v>
       </c>
       <c r="C86" t="s">
-        <v>238</v>
+        <v>182</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B87" s="7">
-        <v>1001022466641</v>
+        <v>1001305196215</v>
       </c>
       <c r="C87" t="s">
-        <v>240</v>
+        <v>166</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B88" s="7">
-        <v>1001022246642</v>
+        <v>1001301876212</v>
       </c>
       <c r="C88" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="8" t="s">
-        <v>244</v>
-      </c>
       <c r="B89" s="7">
-        <v>1001020886646</v>
+        <v>1001305316565</v>
       </c>
       <c r="C89" t="s">
-        <v>243</v>
+        <v>218</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="B90" s="7">
-        <v>1001305306566</v>
+        <v>1001301876213</v>
       </c>
       <c r="C90" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="B91" s="7">
-        <v>1001300386683</v>
-      </c>
-      <c r="C91" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="B92" s="7">
-        <v>1001303986689</v>
-      </c>
-      <c r="C92" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="B93" s="7">
-        <v>1001300516669</v>
-      </c>
-      <c r="C93" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="B94" s="7">
-        <v>1001022376644</v>
-      </c>
-      <c r="C94" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="B95" s="7">
-        <v>1001012566392</v>
-      </c>
-      <c r="C95" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="B96" s="7">
-        <v>1001020836643</v>
-      </c>
-      <c r="C96" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="B97" s="7">
-        <v>1001302276666</v>
-      </c>
-      <c r="C97" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="B98" s="7">
-        <v>1001012426268</v>
-      </c>
-      <c r="C98" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="B99" s="7">
-        <v>5981</v>
-      </c>
-      <c r="C99" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="B100" s="7">
-        <v>6247</v>
-      </c>
-      <c r="C100" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="B101" s="7">
-        <v>6565</v>
-      </c>
-      <c r="C101" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="B102" s="7">
-        <v>6041</v>
-      </c>
-      <c r="C102" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="B103" s="7">
-        <v>6227</v>
-      </c>
-      <c r="C103" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="B104" s="7">
-        <v>6217</v>
-      </c>
-      <c r="C104" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="B105" s="7">
-        <v>6661</v>
-      </c>
-      <c r="C105" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="B106" s="7">
-        <v>1001022373678</v>
-      </c>
-      <c r="C106" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="B107" s="7">
-        <v>1001022373717</v>
-      </c>
-      <c r="C107" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="B108" s="7">
-        <v>1001022725818</v>
-      </c>
-      <c r="C108" t="s">
-        <v>128</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C108" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
+  <autoFilter ref="A1:C90" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/moduls/1С.xlsx
+++ b/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\Останкино КИ\ostankino_ki\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D02EC31-5872-4DC4-BE58-105FC27271E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85DE9A4B-4B04-48F3-824F-2DA61A9D1EE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="250">
   <si>
     <t>1С</t>
   </si>
@@ -691,9 +691,6 @@
     <t>ДОМАШНЯЯ Папа может вар п/о 0,4кг 8шт.</t>
   </si>
   <si>
-    <t>СЕРВЕЛАТ С АРОМ.ТРАВАМИ в/к в/у 0,31к</t>
-  </si>
-  <si>
     <t>МОЛОЧНЫЕ К ЗАВТРАКУ сос п/о мгс 1*3</t>
   </si>
   <si>
@@ -785,6 +782,9 @@
   </si>
   <si>
     <t>СЫТНЫЕ Папа может сар б/о мгс 1*3 45с</t>
+  </si>
+  <si>
+    <t>6302 БАЛЫКОВАЯ СН в/к в/у 0.35кг 8шт.  ОСТАНКИНО</t>
   </si>
 </sst>
 </file>
@@ -1176,8 +1176,8 @@
   <dimension ref="A1:C90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G64" sqref="G64"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I74" sqref="I74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1915,13 +1915,13 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B67" s="7">
         <v>6041</v>
       </c>
       <c r="C67" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -1937,46 +1937,46 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B69" s="7">
         <v>1001014486158</v>
       </c>
       <c r="C69" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B70" s="7">
         <v>1001015356259</v>
       </c>
       <c r="C70" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B71" s="7">
         <v>1001012816716</v>
       </c>
       <c r="C71" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B72" s="7">
         <v>1001020966227</v>
       </c>
       <c r="C72" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -1992,13 +1992,13 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B74" s="7">
         <v>1001022726303</v>
       </c>
       <c r="C74" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -2014,13 +2014,13 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B76" s="7">
         <v>1001020966144</v>
       </c>
       <c r="C76" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -2036,7 +2036,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B78" s="7">
         <v>1001022373812</v>
@@ -2047,7 +2047,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B79" s="7">
         <v>1001022376113</v>
@@ -2058,18 +2058,18 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B80" s="7">
         <v>1001022246661</v>
       </c>
       <c r="C80" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B81" s="7">
         <v>1001022246713</v>
@@ -2080,46 +2080,46 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B82" s="7">
         <v>1001025166241</v>
       </c>
       <c r="C82" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B83" s="7">
         <v>6606</v>
       </c>
       <c r="C83" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B84" s="7">
         <v>1001035326217</v>
       </c>
       <c r="C84" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B85" s="7">
         <v>1001303636301</v>
       </c>
       <c r="C85" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -2135,7 +2135,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B87" s="7">
         <v>1001305196215</v>
@@ -2146,32 +2146,35 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B88" s="7">
         <v>1001301876212</v>
       </c>
       <c r="C88" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="6" t="s">
+        <v>229</v>
+      </c>
       <c r="B89" s="7">
-        <v>1001305316565</v>
+        <v>1001301876213</v>
       </c>
       <c r="C89" t="s">
-        <v>218</v>
+        <v>165</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="B90" s="7">
-        <v>1001301876213</v>
+        <v>1001303636302</v>
       </c>
       <c r="C90" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/moduls/1С.xlsx
+++ b/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\Останкино КИ\ostankino_ki\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85DE9A4B-4B04-48F3-824F-2DA61A9D1EE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{535828D5-6672-4DEF-BE74-A691D3298ACA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="256">
   <si>
     <t>1С</t>
   </si>
@@ -785,6 +785,24 @@
   </si>
   <si>
     <t>6302 БАЛЫКОВАЯ СН в/к в/у 0.35кг 8шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>ВЕТЧ.КЛАССИЧЕСКАЯ СН п/о 0.8кг 4шт.</t>
+  </si>
+  <si>
+    <t>6645 ВЕТЧ.КЛАССИЧЕСКАЯ СН п/о 0.8кг 4шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>ИМПЕРСКАЯ И БАЛЫКОВАЯ в/к с/н мгс 1/90</t>
+  </si>
+  <si>
+    <t>6225 ИМПЕРСКАЯ И БАЛЫКОВАЯ в/к с/н мгс 1/90  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>МЯСНОЕ АССОРТИ к/з с/н мгс 1/90 10шт.</t>
+  </si>
+  <si>
+    <t>6228 МЯСНОЕ АССОРТИ к/з с/н мгс 1/90 10шт.  ОСТАНКИНО</t>
   </si>
 </sst>
 </file>
@@ -1173,11 +1191,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C90"/>
+  <dimension ref="A1:C93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I74" sqref="I74"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2175,6 +2193,39 @@
       </c>
       <c r="C90" t="s">
         <v>182</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="B91" s="7">
+        <v>6645</v>
+      </c>
+      <c r="C91" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="B92" s="7">
+        <v>6225</v>
+      </c>
+      <c r="C92" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="B93" s="7">
+        <v>6228</v>
+      </c>
+      <c r="C93" t="s">
+        <v>254</v>
       </c>
     </row>
   </sheetData>

--- a/moduls/1С.xlsx
+++ b/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\Останкино КИ\ostankino_ki\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{535828D5-6672-4DEF-BE74-A691D3298ACA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E44F5254-16DA-4B56-A6E3-B79011E7122F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="257">
   <si>
     <t>1С</t>
   </si>
@@ -803,6 +803,9 @@
   </si>
   <si>
     <t>6228 МЯСНОЕ АССОРТИ к/з с/н мгс 1/90 10шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6225 ИМПЕРСКАЯ И БАЛЫКОВАЯ в/к с/н мгс 1/90  ОСТАНКИНО</t>
   </si>
 </sst>
 </file>
@@ -1191,11 +1194,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C93"/>
+  <dimension ref="A1:C94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N11" sqref="N11"/>
+      <selection pane="bottomLeft" activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2226,6 +2229,17 @@
       </c>
       <c r="C93" t="s">
         <v>254</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="B94" s="7">
+        <v>6225</v>
+      </c>
+      <c r="C94" t="s">
+        <v>252</v>
       </c>
     </row>
   </sheetData>

--- a/moduls/1С.xlsx
+++ b/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\Останкино КИ\ostankino_ki\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F6B0D6-B96B-45B0-A167-F6536FDB8EA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F7AE3C-4B8F-4944-AA68-B89D93598FF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -960,7 +960,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
+      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1503,7 +1503,7 @@
         <v>101</v>
       </c>
       <c r="B49" s="3">
-        <v>1001020846590</v>
+        <v>6751</v>
       </c>
       <c r="C49" t="s">
         <v>102</v>

--- a/moduls/1С.xlsx
+++ b/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\Останкино КИ\ostankino_ki\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F7AE3C-4B8F-4944-AA68-B89D93598FF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFAA2948-3FA4-4F81-850E-BD353FEBC935}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$101</definedName>
   </definedNames>
   <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="195">
   <si>
     <t>1С</t>
   </si>
@@ -613,6 +613,12 @@
   </si>
   <si>
     <t xml:space="preserve">БАВАРСКИЕ ПМ сос ц/о мгс 0,35кг 8шт.  </t>
+  </si>
+  <si>
+    <t>БУЖЕНИНА ЗАПЕЧЕННАЯ с/н в/у 1/100 10шт.</t>
+  </si>
+  <si>
+    <t>6233 БУЖЕНИНА ЗАПЕЧЕННАЯ с/н в/у 1/100 10шт.  ОСТАНКИНО</t>
   </si>
 </sst>
 </file>
@@ -956,11 +962,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C100"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2070,8 +2076,19 @@
         <v>192</v>
       </c>
     </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B101" s="3">
+        <v>6233</v>
+      </c>
+      <c r="C101" t="s">
+        <v>193</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C100" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
+  <autoFilter ref="A1:C101" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/moduls/1С.xlsx
+++ b/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\Останкино КИ\ostankino_ki\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFAA2948-3FA4-4F81-850E-BD353FEBC935}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5314D95-2318-4A66-9B7F-E5FE2D5303F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="199">
   <si>
     <t>1С</t>
   </si>
@@ -619,6 +619,18 @@
   </si>
   <si>
     <t>6233 БУЖЕНИНА ЗАПЕЧЕННАЯ с/н в/у 1/100 10шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6734 ОСОБАЯ СО ШПИКОМ Коровино (в сетке) 0,5кг ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>ОСОБАЯ СО ШПИКОМ Коровино (в сетке) 0,5кг</t>
+  </si>
+  <si>
+    <t>6750 МОЛОЧНЫЕ ГОСТ СН сос п/о мгс 0,41 кг 10шт ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6751 СЛИВОЧНЫЕ СН сос п/о мгс 0,41кг 10шт.  ОСТАНКИНО</t>
   </si>
 </sst>
 </file>
@@ -962,11 +974,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:C104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1058,7 +1070,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="3">
-        <v>1001092444614</v>
+        <v>6756</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
@@ -2085,6 +2097,39 @@
       </c>
       <c r="C101" t="s">
         <v>193</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B102" s="3">
+        <v>6734</v>
+      </c>
+      <c r="C102" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B103" s="3">
+        <v>6750</v>
+      </c>
+      <c r="C103" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B104" s="3">
+        <v>6751</v>
+      </c>
+      <c r="C104" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/moduls/1С.xlsx
+++ b/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\Останкино КИ\ostankino_ki\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5314D95-2318-4A66-9B7F-E5FE2D5303F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8CE02DD-7AB8-4EAE-8A60-B562E082DAE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$105</definedName>
   </definedNames>
   <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="201">
   <si>
     <t>1С</t>
   </si>
@@ -631,6 +631,12 @@
   </si>
   <si>
     <t>6751 СЛИВОЧНЫЕ СН сос п/о мгс 0,41кг 10шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>5982 МОЛОЧНЫЕ ТРАДИЦ. сос п/о мгс 0,6кг_СНГ  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>МОЛОЧНЫЕ ТРАДИЦ. сос п/о мгс 0,6кг_СНГ</t>
   </si>
 </sst>
 </file>
@@ -974,11 +980,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:C105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1411,7 +1417,7 @@
         <v>79</v>
       </c>
       <c r="B39" s="3">
-        <v>1001233296450</v>
+        <v>6450</v>
       </c>
       <c r="C39" t="s">
         <v>80</v>
@@ -2132,8 +2138,19 @@
         <v>102</v>
       </c>
     </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B105" s="3">
+        <v>5982</v>
+      </c>
+      <c r="C105" t="s">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C101" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
+  <autoFilter ref="A1:C105" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/moduls/1С.xlsx
+++ b/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\Останкино КИ\ostankino_ki\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8CE02DD-7AB8-4EAE-8A60-B562E082DAE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3BDB67A-C74F-446C-A082-A6A5FAC665CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$105</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$106</definedName>
   </definedNames>
   <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="202">
   <si>
     <t>1С</t>
   </si>
@@ -637,6 +637,9 @@
   </si>
   <si>
     <t>МОЛОЧНЫЕ ТРАДИЦ. сос п/о мгс 0,6кг_СНГ</t>
+  </si>
+  <si>
+    <t>5982 МОЛОЧНЫЕ ТРАДИЦ. сос п/о мгс 0,6кг_СНГ  ОСТАНКИНО</t>
   </si>
 </sst>
 </file>
@@ -980,11 +983,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C105"/>
+  <dimension ref="A1:C106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2149,8 +2152,19 @@
         <v>200</v>
       </c>
     </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B106" s="3">
+        <v>5982</v>
+      </c>
+      <c r="C106" t="s">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C105" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
+  <autoFilter ref="A1:C106" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/moduls/1С.xlsx
+++ b/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\Останкино КИ\ostankino_ki\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3BDB67A-C74F-446C-A082-A6A5FAC665CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61EF0C76-2BB9-4678-B0DD-E77C20FE0798}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$106</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$110</definedName>
   </definedNames>
   <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="209">
   <si>
     <t>1С</t>
   </si>
@@ -640,6 +640,27 @@
   </si>
   <si>
     <t>5982 МОЛОЧНЫЕ ТРАДИЦ. сос п/о мгс 0,6кг_СНГ  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6025 ВЕТЧ.ФИРМЕННАЯ С ИНДЕЙКОЙ п/о   ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>ВЕТЧ.ФИРМЕННАЯ С ИНДЕЙКОЙ п/о</t>
+  </si>
+  <si>
+    <t>6756 ВЕТЧ.ЛЮБИТЕЛЬСКАЯ п/о  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>НЕАПОЛИТАНСКИЙ ДУЭТ с/к с/н мгс 1/90</t>
+  </si>
+  <si>
+    <t>6221 НЕАПОЛИТАНСКИЙ ДУЭТ с/к с/н мгс 1/90  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6025 ВЕТЧ.ФИРМЕННАЯ С ИНДЕЙКОЙ п/о   ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6221 НЕАПОЛИТАНСКИЙ ДУЭТ с/к с/н мгс 1/90  ОСТАНКИНО</t>
   </si>
 </sst>
 </file>
@@ -983,11 +1004,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C106"/>
+  <dimension ref="A1:C111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D116" sqref="D116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1087,964 +1108,964 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>204</v>
       </c>
       <c r="B9" s="3">
-        <v>1001012564813</v>
+        <v>6756</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B10" s="3">
-        <v>1001060764993</v>
+        <v>1001012564813</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B11" s="3">
-        <v>1001010105246</v>
+        <v>1001060764993</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B12" s="3">
-        <v>1001010855247</v>
+        <v>1001010105246</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B13" s="3">
-        <v>1001012815336</v>
+        <v>1001010855247</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B14" s="3">
-        <v>1001012825337</v>
+        <v>1001012815336</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B15" s="3">
-        <v>1001053985341</v>
+        <v>1001012825337</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B16" s="3">
-        <v>1001062505483</v>
+        <v>1001053985341</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B17" s="3">
-        <v>1001051875544</v>
+        <v>1001062505483</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B18" s="3">
-        <v>1001193115682</v>
+        <v>1001051875544</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B19" s="3">
-        <v>1001061975706</v>
+        <v>1001193115682</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B20" s="3">
-        <v>1001063145708</v>
+        <v>1001061975706</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B21" s="3">
-        <v>1001022465820</v>
+        <v>1001063145708</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B22" s="3">
-        <v>1001012505851</v>
+        <v>1001022465820</v>
       </c>
       <c r="C22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B23" s="3">
-        <v>1001060755931</v>
+        <v>1001012505851</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B24" s="3">
-        <v>1001012815997</v>
+        <v>1001060755931</v>
       </c>
       <c r="C24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B25" s="3">
-        <v>1001024906042</v>
+        <v>1001012815997</v>
       </c>
       <c r="C25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B26" s="3">
-        <v>1001024976123</v>
+        <v>1001024906042</v>
       </c>
       <c r="C26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B27" s="3">
-        <v>1001220286279</v>
+        <v>1001024976123</v>
       </c>
       <c r="C27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B28" s="3">
-        <v>1001082576281</v>
+        <v>1001220286279</v>
       </c>
       <c r="C28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B29" s="3">
-        <v>1001022556297</v>
+        <v>1001082576281</v>
       </c>
       <c r="C29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B30" s="3">
-        <v>1001010106325</v>
+        <v>1001022556297</v>
       </c>
       <c r="C30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B31" s="3">
-        <v>1001012486333</v>
+        <v>1001010106325</v>
       </c>
       <c r="C31" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B32" s="3">
-        <v>1001012506353</v>
+        <v>1001012486333</v>
       </c>
       <c r="C32" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>130</v>
+        <v>64</v>
       </c>
       <c r="B33" s="3">
-        <v>1001304506684</v>
+        <v>1001012506353</v>
       </c>
       <c r="C33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B34" s="3">
-        <v>1001303056692</v>
+        <v>1001304506684</v>
       </c>
       <c r="C34" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>71</v>
+        <v>131</v>
       </c>
       <c r="B35" s="3">
-        <v>1001303636415</v>
+        <v>1001303056692</v>
       </c>
       <c r="C35" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B36" s="3">
-        <v>1001013956427</v>
+        <v>1001303636415</v>
       </c>
       <c r="C36" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B37" s="3">
-        <v>1001024636438</v>
+        <v>1001013956427</v>
       </c>
       <c r="C37" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B38" s="3">
-        <v>1001234146448</v>
+        <v>1001024636438</v>
       </c>
       <c r="C38" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B39" s="3">
-        <v>6450</v>
+        <v>1001234146448</v>
       </c>
       <c r="C39" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B40" s="3">
-        <v>1001202506453</v>
+        <v>6450</v>
       </c>
       <c r="C40" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B41" s="3">
-        <v>1001201976454</v>
+        <v>1001202506453</v>
       </c>
       <c r="C41" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B42" s="3">
-        <v>1001025176475</v>
+        <v>1001201976454</v>
       </c>
       <c r="C42" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>135</v>
+        <v>85</v>
       </c>
       <c r="B43" s="3">
-        <v>1001301876697</v>
+        <v>1001025176475</v>
       </c>
       <c r="C43" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>89</v>
+        <v>135</v>
       </c>
       <c r="B44" s="3">
-        <v>1001024636517</v>
+        <v>1001301876697</v>
       </c>
       <c r="C44" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B45" s="3">
-        <v>1001031076527</v>
+        <v>1001024636517</v>
       </c>
       <c r="C45" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B46" s="3">
-        <v>1001304506562</v>
+        <v>1001031076527</v>
       </c>
       <c r="C46" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B47" s="3">
-        <v>1001020846563</v>
+        <v>1001304506562</v>
       </c>
       <c r="C47" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B48" s="3">
-        <v>1001020836589</v>
+        <v>1001020846563</v>
       </c>
       <c r="C48" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B49" s="3">
-        <v>6751</v>
+        <v>1001020836589</v>
       </c>
       <c r="C49" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B50" s="3">
-        <v>1001010016592</v>
+        <v>6751</v>
       </c>
       <c r="C50" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B51" s="3">
-        <v>1001010026594</v>
+        <v>1001010016592</v>
       </c>
       <c r="C51" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B52" s="3">
-        <v>1001022296601</v>
+        <v>1001010026594</v>
       </c>
       <c r="C52" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B53" s="3">
-        <v>1001031896648</v>
+        <v>1001022296601</v>
       </c>
       <c r="C53" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B54" s="3">
-        <v>1001035266650</v>
+        <v>1001031896648</v>
       </c>
       <c r="C54" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B55" s="3">
-        <v>1001305256658</v>
+        <v>1001035266650</v>
       </c>
       <c r="C55" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B56" s="3">
-        <v>1001010016593</v>
+        <v>1001305256658</v>
       </c>
       <c r="C56" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B57" s="3">
-        <v>1001010026595</v>
+        <v>1001010016593</v>
       </c>
       <c r="C57" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B58" s="3">
+        <v>1001010026595</v>
+      </c>
+      <c r="C58" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B58" s="3">
+      <c r="B59" s="3">
         <v>1001010036597</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C59" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="s">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B59" s="3">
+      <c r="B60" s="3">
         <v>1001020886646</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C60" t="s">
         <v>126</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B60" s="3">
-        <v>1001305306566</v>
-      </c>
-      <c r="C60" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B61" s="3">
-        <v>1001300386683</v>
+        <v>1001305306566</v>
       </c>
       <c r="C61" t="s">
-        <v>88</v>
+        <v>129</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B62" s="3">
-        <v>1001303986689</v>
+        <v>1001300386683</v>
       </c>
       <c r="C62" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B63" s="3">
-        <v>1001300516669</v>
+        <v>1001303986689</v>
       </c>
       <c r="C63" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B64" s="3">
-        <v>1001012566392</v>
+        <v>1001300516669</v>
       </c>
       <c r="C64" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B65" s="3">
-        <v>1001302276666</v>
+        <v>1001012566392</v>
       </c>
       <c r="C65" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B66" s="3">
-        <v>1001012426268</v>
+        <v>1001302276666</v>
       </c>
       <c r="C66" t="s">
-        <v>140</v>
+        <v>69</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B67" s="3">
-        <v>6041</v>
+        <v>1001012426268</v>
       </c>
       <c r="C67" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B68" s="3">
-        <v>1001011086247</v>
+        <v>6041</v>
       </c>
       <c r="C68" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="B69" s="3">
-        <v>1001014486158</v>
+        <v>1001011086247</v>
       </c>
       <c r="C69" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B70" s="3">
-        <v>1001015356259</v>
+        <v>1001014486158</v>
       </c>
       <c r="C70" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B71" s="3">
-        <v>1001012816716</v>
+        <v>1001015356259</v>
       </c>
       <c r="C71" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="B72" s="3">
-        <v>1001020966227</v>
+        <v>1001012816716</v>
       </c>
       <c r="C72" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="B73" s="3">
-        <v>1001020965981</v>
+        <v>1001020966227</v>
       </c>
       <c r="C73" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>173</v>
+        <v>142</v>
       </c>
       <c r="B74" s="3">
-        <v>1001022726303</v>
+        <v>1001020965981</v>
       </c>
       <c r="C74" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>123</v>
+        <v>173</v>
       </c>
       <c r="B75" s="3">
-        <v>1001022466726</v>
+        <v>1001022726303</v>
       </c>
       <c r="C75" t="s">
-        <v>124</v>
+        <v>175</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>167</v>
+        <v>123</v>
       </c>
       <c r="B76" s="3">
-        <v>1001020966144</v>
+        <v>1001022466726</v>
       </c>
       <c r="C76" t="s">
-        <v>164</v>
+        <v>124</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>138</v>
+        <v>167</v>
       </c>
       <c r="B77" s="3">
-        <v>1001022376722</v>
+        <v>1001020966144</v>
       </c>
       <c r="C77" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="B78" s="3">
-        <v>1001022373812</v>
+        <v>1001022376722</v>
       </c>
       <c r="C78" t="s">
-        <v>3</v>
+        <v>136</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B79" s="3">
-        <v>1001022376113</v>
+        <v>1001022373812</v>
       </c>
       <c r="C79" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B80" s="3">
-        <v>1001022246661</v>
+        <v>1001022376113</v>
       </c>
       <c r="C80" t="s">
-        <v>155</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B81" s="3">
-        <v>1001022246713</v>
+        <v>1001022246661</v>
       </c>
       <c r="C81" t="s">
-        <v>125</v>
+        <v>155</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B82" s="3">
-        <v>1001025166241</v>
+        <v>1001022246713</v>
       </c>
       <c r="C82" t="s">
-        <v>160</v>
+        <v>125</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="B83" s="3">
-        <v>6606</v>
+        <v>1001025166241</v>
       </c>
       <c r="C83" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c r="B84" s="3">
-        <v>1001035326217</v>
+        <v>6606</v>
       </c>
       <c r="C84" t="s">
-        <v>150</v>
+        <v>176</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="B85" s="3">
-        <v>1001303636301</v>
+        <v>1001035326217</v>
       </c>
       <c r="C85" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>109</v>
+        <v>171</v>
       </c>
       <c r="B86" s="3">
-        <v>1001303636302</v>
+        <v>1001303636301</v>
       </c>
       <c r="C86" t="s">
-        <v>110</v>
+        <v>165</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>158</v>
+        <v>109</v>
       </c>
       <c r="B87" s="3">
-        <v>1001305196215</v>
+        <v>1001303636302</v>
       </c>
       <c r="C87" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="B88" s="3">
-        <v>1001301876212</v>
+        <v>1001305196215</v>
       </c>
       <c r="C88" t="s">
-        <v>166</v>
+        <v>94</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="B89" s="3">
-        <v>1001301876213</v>
+        <v>1001301876212</v>
       </c>
       <c r="C89" t="s">
-        <v>93</v>
+        <v>166</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="B90" s="3">
-        <v>1001303636302</v>
+        <v>1001301876213</v>
       </c>
       <c r="C90" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B91" s="3">
-        <v>6645</v>
+        <v>1001303636302</v>
       </c>
       <c r="C91" t="s">
-        <v>178</v>
+        <v>110</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B92" s="3">
-        <v>6225</v>
+        <v>6645</v>
       </c>
       <c r="C92" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B93" s="3">
-        <v>6228</v>
+        <v>6225</v>
       </c>
       <c r="C93" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B94" s="3">
-        <v>6225</v>
+        <v>6228</v>
       </c>
       <c r="C94" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B95" s="3">
-        <v>1001022376722</v>
+        <v>6225</v>
       </c>
       <c r="C95" t="s">
-        <v>136</v>
+        <v>180</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B96" s="3">
         <v>1001022376722</v>
@@ -2055,18 +2076,18 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B97" s="3">
-        <v>3297</v>
+        <v>1001022376722</v>
       </c>
       <c r="C97" t="s">
-        <v>187</v>
+        <v>136</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B98" s="3">
         <v>3297</v>
@@ -2077,84 +2098,84 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B99" s="3">
-        <v>1001022466726</v>
+        <v>3297</v>
       </c>
       <c r="C99" t="s">
-        <v>124</v>
+        <v>187</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B100" s="3">
-        <v>6602</v>
+        <v>1001022466726</v>
       </c>
       <c r="C100" t="s">
-        <v>192</v>
+        <v>124</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B101" s="3">
-        <v>6233</v>
+        <v>6602</v>
       </c>
       <c r="C101" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B102" s="3">
-        <v>6734</v>
+        <v>6233</v>
       </c>
       <c r="C102" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B103" s="3">
-        <v>6750</v>
+        <v>6734</v>
       </c>
       <c r="C103" t="s">
-        <v>100</v>
+        <v>196</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B104" s="3">
-        <v>6751</v>
+        <v>6750</v>
       </c>
       <c r="C104" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B105" s="3">
-        <v>5982</v>
+        <v>6751</v>
       </c>
       <c r="C105" t="s">
-        <v>200</v>
+        <v>102</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B106" s="3">
         <v>5982</v>
@@ -2163,8 +2184,63 @@
         <v>200</v>
       </c>
     </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B107" s="3">
+        <v>5982</v>
+      </c>
+      <c r="C107" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B108" s="3">
+        <v>6025</v>
+      </c>
+      <c r="C108" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B109" s="3">
+        <v>6025</v>
+      </c>
+      <c r="C109" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B110" s="3">
+        <v>6221</v>
+      </c>
+      <c r="C110" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B111" s="3">
+        <v>6221</v>
+      </c>
+      <c r="C111" t="s">
+        <v>205</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C106" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
+  <autoFilter ref="A1:C110" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/moduls/1С.xlsx
+++ b/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\Останкино КИ\ostankino_ki\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61EF0C76-2BB9-4678-B0DD-E77C20FE0798}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A75751-DCC7-4B1D-9F24-CDD0366D3095}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$110</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$169</definedName>
   </definedNames>
   <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="299">
   <si>
     <t>1С</t>
   </si>
@@ -192,475 +192,745 @@
     <t>6123 МОЛОЧНЫЕ КЛАССИЧЕСКИЕ ПМ сос п/о мгс 2*4   ОСТАНКИНО</t>
   </si>
   <si>
+    <t>6279 КОРЕЙКА ПО-ОСТ.к/в в/с с/н в/у 1/150_45с  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>КОРЕЙКА ПО-ОСТ.к/в в/с с/н в/у 1/150_45с</t>
+  </si>
+  <si>
+    <t>6281 СВИНИНА ДЕЛИКАТ. к/в мл/к в/у 0.3кг 45с  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>СВИНИНА ДЕЛИКАТЕСНАЯ к/в мл/к в/у 0.3кг</t>
+  </si>
+  <si>
+    <t>6297 ФИЛЕЙНЫЕ сос ц/о в/у 1/270 12шт_45с  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>ФИЛЕЙНЫЕ сос ц/о в/у 1/270 12шт_45с</t>
+  </si>
+  <si>
+    <t>6325 ДОКТОРСКАЯ ПРЕМИУМ вар п/о 0.4кг 8шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>ДОКТОРСКАЯ ПРЕМИУМ вар п/о 0.4кг 8шт.</t>
+  </si>
+  <si>
+    <t>6333 МЯСНАЯ Папа может вар п/о 0.4кг 8шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>МЯСНАЯ Папа может вар п/о 0.4кг 8шт.</t>
+  </si>
+  <si>
+    <t>ФИЛЕЙНАЯ Папа может вар п/о 0.4кг 8шт.</t>
+  </si>
+  <si>
+    <t>6353 ЭКСТРА Папа может вар п/о 0.4кг 8шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>ЭКСТРА Папа может вар п/о 0.4кг 8шт.</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ КАРЕЛЬСКИЙ ПМ в/к в/у 0.28кг</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ ОХОТНИЧИЙ в/к в/у срез 0.35кг</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ ПРИМА в/к в/у 0.28кг 8шт.</t>
+  </si>
+  <si>
+    <t>БОЯNСКАЯ Папа может п/к в/у 0.28кг 8шт.</t>
+  </si>
+  <si>
+    <t>ВЕНСКАЯ САЛЯМИ п/к в/у 0.28кг 8шт.</t>
+  </si>
+  <si>
+    <t>6415 БАЛЫКОВАЯ Коровино п/к в/у 0.84кг 6шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>БАЛЫКОВАЯ Коровино п/к в/у 0.84кг 6шт.</t>
+  </si>
+  <si>
+    <t>6427 КЛАССИЧЕСКАЯ ПМ вар п/о 0.35кг 8шт. ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>КЛАССИЧЕСКАЯ ПМ вар п/о 0.35кг 8шт.</t>
+  </si>
+  <si>
+    <t>6438 БОГАТЫРСКИЕ Папа Может сос п/о в/у 0,3кг  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>БОГАТЫРСКИЕ Папа Может сос п/о в/у 0.3кг</t>
+  </si>
+  <si>
+    <t>6448 СВИНИНА МАДЕРА с/к с/н в/у 1/100 10шт.   ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>СВИНИНА МАДЕРА с/к с/н в/у 1/100</t>
+  </si>
+  <si>
+    <t>6450 БЕКОН с/к с/н в/у 1/100 10шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>БЕКОН с/к с/н в/у 1/100 10шт.</t>
+  </si>
+  <si>
+    <t>6453 ЭКСТРА Папа может с/к с/н в/у 1/100 14шт.   ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>ЭКСТРА Папа может с/к с/н в/у 1/100_60с</t>
+  </si>
+  <si>
+    <t>6454 АРОМАТНАЯ с/к с/н в/у 1/100 14шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>АРОМАТНАЯ с/к с/н в/у 1/100*8_60с</t>
+  </si>
+  <si>
+    <t>6475 С СЫРОМ Папа может сос ц/о мгс 0.4кг6шт  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>С СЫРОМ Папа может сос ц/о мгс 0.4кг 6шт</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ ФИНСКИЙ в/к в/у срез 0.35кг_45c</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ ЗЕРНИСТЫЙ ПМ в/к в/у срез 1/350</t>
+  </si>
+  <si>
+    <t>6517 БОГАТЫРСКИЕ Папа Может сос п/о 1*6  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>БОГАТЫРСКИЕ Папа Может сос п/о 1*6</t>
+  </si>
+  <si>
+    <t>6527 ШПИКАЧКИ СОЧНЫЕ ПМ сар б/о мгс 1*3 45с ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>ШПИКАЧКИ СОЧНЫЕ ПМ САР Б/О МГС 1*3 45с</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ ФИНСКИЙ СН в/к п/о 0.35кг 8шт</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ ОРЕХОВЫЙ СН в/к п/о 0,35кг 8шт</t>
+  </si>
+  <si>
+    <t>6562 СЕРВЕЛАТ КАРЕЛЬСКИЙ СН в/к в/у 0,28кг  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ КАРЕЛЬСКИЙ СН в/к в/у 0.28к</t>
+  </si>
+  <si>
+    <t>6563 СЛИВОЧНЫЕ СН сос п/о мгс 1*6  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>СЛИВОЧНЫЕ СН сос п/о мгс 1*6</t>
+  </si>
+  <si>
+    <t>6589 МОЛОЧНЫЕ ГОСТ СН сос п/о мгс 0.41кг 10шт  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>МОЛОЧНЫЕ ГОСТ СН сос п/о мгс 0.41кг 10шт</t>
+  </si>
+  <si>
+    <t>6590 СЛИВОЧНЫЕ СН сос п/о мгс 0.41кг 10шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>СЛИВОЧНЫЕ СН сос п/о мгс 0.41кг 10шт.</t>
+  </si>
+  <si>
+    <t>6592 ДОКТОРСКАЯ СН вар п/о  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>ДОКТОРСКАЯ СН вар п/о</t>
+  </si>
+  <si>
+    <t>6594 МОЛОЧНАЯ СН вар п/о  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>МОЛОЧНАЯ СН вар п/о</t>
+  </si>
+  <si>
+    <t>6601 ГОВЯЖЬИ СН сос п/о мгс 1*6  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>ГОВЯЖЬИ СН сос п/о мгс 1*6</t>
+  </si>
+  <si>
+    <t>6636 БАЛЫКОВАЯ СН в/к п/о 0,35кг 8шт  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>БАЛЫКОВАЯ СН в/к п/о 0.35кг 8шт</t>
+  </si>
+  <si>
+    <t>6648 СОЧНЫЕ Папа может сар п/о мгс 1*3  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>СОЧНЫЕ Папа может сар п/о мгс 1*3</t>
+  </si>
+  <si>
+    <t>6650 СОЧНЫЕ С СЫРОМ ПМ сар п/о мгс 1*3  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>СОЧНЫЕ С СЫРОМ ПМ сар п/о мгс 1*3</t>
+  </si>
+  <si>
+    <t>6658 АРОМАТНАЯ С ЧЕСНОЧКОМ СН в/к мтс 0.330кг  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> АРОМАТНАЯ С ЧЕСНОЧКОМ СН в/к мтс 0.330кг</t>
+  </si>
+  <si>
+    <t>6593 ДОКТОРСКАЯ СН вар п/о 0.45кг 8шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>ДОКТОРСКАЯ СН вар п/о 0.45кг 8шт</t>
+  </si>
+  <si>
+    <t>6595 МОЛОЧНАЯ СН вар п/о 0.45кг 8шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>МОЛОЧНАЯ СН вар п/о 0.45кг 8шт.</t>
+  </si>
+  <si>
+    <t>6597 РУССКАЯ СН вар п/о 0.45кг 8шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>РУССКАЯ СН вар п/о 0.45кг 8шт.</t>
+  </si>
+  <si>
+    <t>6641 СЛИВОЧНЫЕ ПМ сос п/о мгс 0,41кг 10шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>СЛИВОЧНЫЕ ПМ сос п/о мгс 0,41кг 10шт.</t>
+  </si>
+  <si>
+    <t>СОЧНЫЙ ГРИЛЬ ПМ сос п/о мгс 0,41кг 8шт.</t>
+  </si>
+  <si>
+    <t>СОСИСКА.РУ сос ц/о в/у 1/300 8шт.</t>
+  </si>
+  <si>
+    <t>6646 СОСИСКА.РУ сос ц/о в/у 1/300 8шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6566 СЕРВЕЛАТ С БЕЛ.ГРИБАМИ в/к в/у 0,31кг  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ С БЕЛ.ГРИБАМИ в/к в/у 0.31кг</t>
+  </si>
+  <si>
+    <t>6684 СЕРВЕЛАТ КАРЕЛЬСКИЙ ПМ в/к в/у 0.28кг  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6692 СЕРВЕЛАТ ПРИМА в/к в/у 0.28кг 8шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6669 ВЕНСКАЯ САЛЯМИ п/к в/у 0.28кг 8шт  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6683 СЕРВЕЛАТ ЗЕРНИСТЫЙ ПМ в/к в/у 0,35кг  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6689 СЕРВЕЛАТ ОХОТНИЧИЙ ПМ в/к в/у 0,35кг 8шт  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6697 СЕРВЕЛАТ ФИНСКИЙ ПМ в/к в/у 0,35кг 8шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>СОЧНЫЕ ПМ сос п/о мгс 0,41кг 10шт</t>
+  </si>
+  <si>
+    <t>6392 ФИЛЕЙНАЯ Папа может вар п/о 0.4кг. ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6644 СОЧНЫЕ ПМ сос п/о мгс 0,41кг 10шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6666 БОЯНСКАЯ Папа может п/к в/у 0,28кг 8 шт. ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>ГОВЯЖЬЯ Папа может вар п/о 0.4кг 8шт</t>
+  </si>
+  <si>
+    <t>6268 ГОВЯЖЬЯ Папа может вар п/о 0,4кг 8 шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>5981 МОЛОЧНЫЕ ТРАДИЦ. сос п/о мгс 1*6_45с   ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>МОЛОЧНЫЕ ТРАДИЦ. сос п/о мгс 1*6_45с</t>
+  </si>
+  <si>
+    <t>6247 ДОМАШНЯЯ Папа может вар п/о 0,4кг 8шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>ДОМАШНЯЯ Папа может вар п/о 0,4кг 8шт.</t>
+  </si>
+  <si>
+    <t>МОЛОЧНЫЕ К ЗАВТРАКУ сос п/о мгс 1*3</t>
+  </si>
+  <si>
+    <t>6041 МОЛОЧНЫЕ К ЗАВТРАКУ сос п/о мгс 1*3  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6227 МОЛОЧНЫЕ ТРАДИЦ. сос п/о мгс 0.6кг LTF  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>МОЛОЧНЫЕ ТРАДИЦ. сос п/о мгс 0.6кг LTF</t>
+  </si>
+  <si>
+    <t>ШПИКАЧКИ ДОМАШНИЕ СН п/о мгс 0.4кг 8шт.</t>
+  </si>
+  <si>
+    <t>6217 ШПИКАЧКИ ДОМАШНИЕ СН п/о мгс 0.4кг 8шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6661 СОЧНЫЙ ГРИЛЬ ПМ сос п/о мгс 1.5*4_Маяк  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>3812 СОЧНЫЕ сос п/о мгс 2*2  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6113 СОЧНЫЕ сос п/о мгс 1*6_Ашан  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>СОЧНЫЙ ГРИЛЬ ПМ сос п/о мгс 1.5*4_Маяк</t>
+  </si>
+  <si>
+    <t>6241 ХОТ-ДОГ Папа может сос п/о мгс 0.38кг  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6213 СЕРВЕЛАТ ФИНСКИЙ СН в/к в/у 0.35кг 8шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6215 СЕРВЕЛАТ ОРЕХОВЫЙ СН в/к в/у 0.35кг 8шт  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6713 СОЧНЫЙ ГРИЛЬ ПМ сос п/о мгс 0.41кг 8шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>ХОТ-ДОГ Папа может сос п/о мгс 0,38кг</t>
+  </si>
+  <si>
+    <t>ВРЕМЯ ОЛИВЬЕ Папа может вар п/о 0.4кг</t>
+  </si>
+  <si>
+    <t>К ЧАЮ Советское наследие вар н/о мгс</t>
+  </si>
+  <si>
+    <t>ОСОБАЯ Коровино (в сетке) 0.5кг 8шт.</t>
+  </si>
+  <si>
+    <t>МОЛОЧНЫЕ ТРАДИЦ. сос п/о в/у 1/360 (1+1)</t>
+  </si>
+  <si>
+    <t>БАЛЫКОВАЯ СН в/к в/у</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ ФИНСКИЙ СН в/к в/у</t>
+  </si>
+  <si>
+    <t>6144 МОЛОЧНЫЕ ТРАДИЦ сос п/о в/у 1/360 (1+1) ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6158 ВРЕМЯ ОЛИВЬЕ Папа может вар п/о 0.4кг   ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6212 СЕРВЕЛАТ ФИНСКИЙ СН в/к в/у  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6259 К ЧАЮ Советское наследие вар н/о мгс  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6301 БАЛЫКОВАЯ СН в/к в/у  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6716 ОСОБАЯ Коровино (в сетке) 0.5кг 8шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6303 МЯСНЫЕ Папа может сос п/о мгс 1.5*3  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6606 СЫТНЫЕ Папа может сар б/о мгс 1*3 45с  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>МЯСНЫЕ Папа может сос п/о мгс 1.5*3</t>
+  </si>
+  <si>
+    <t>СЫТНЫЕ Папа может сар б/о мгс 1*3 45с</t>
+  </si>
+  <si>
+    <t>6302 БАЛЫКОВАЯ СН в/к в/у 0.35кг 8шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>ВЕТЧ.КЛАССИЧЕСКАЯ СН п/о 0.8кг 4шт.</t>
+  </si>
+  <si>
+    <t>6645 ВЕТЧ.КЛАССИЧЕСКАЯ СН п/о 0.8кг 4шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>ИМПЕРСКАЯ И БАЛЫКОВАЯ в/к с/н мгс 1/90</t>
+  </si>
+  <si>
+    <t>6225 ИМПЕРСКАЯ И БАЛЫКОВАЯ в/к с/н мгс 1/90  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>МЯСНОЕ АССОРТИ к/з с/н мгс 1/90 10шт.</t>
+  </si>
+  <si>
+    <t>6228 МЯСНОЕ АССОРТИ к/з с/н мгс 1/90 10шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6225 ИМПЕРСКАЯ И БАЛЫКОВАЯ в/к с/н мгс 1/90  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6722 СОЧНЫЕ ПМ сос п/о мгс 0,41кг 10шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>3297 СЫТНЫЕ Папа может сар б/о мгс 1*3 СНГ  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>СЫТНЫЕ Папа может сар б/о мгс 1*3 СНГ</t>
+  </si>
+  <si>
+    <t>3297 СЫТНЫЕ Папа может сар б/о мгс 1*3 СНГ  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6722 СОЧНЫЕ ПМ сос п/о мгс 0,41кг 10шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6726 СЛИВОЧНЫЕ ПМ сос п/о мгс 0.41кг 10шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6602 БАВАРСКИЕ ПМ сос ц/о мгс 0,35кг 8шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БАВАРСКИЕ ПМ сос ц/о мгс 0,35кг 8шт.  </t>
+  </si>
+  <si>
+    <t>БУЖЕНИНА ЗАПЕЧЕННАЯ с/н в/у 1/100 10шт.</t>
+  </si>
+  <si>
+    <t>6233 БУЖЕНИНА ЗАПЕЧЕННАЯ с/н в/у 1/100 10шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6734 ОСОБАЯ СО ШПИКОМ Коровино (в сетке) 0,5кг ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>ОСОБАЯ СО ШПИКОМ Коровино (в сетке) 0,5кг</t>
+  </si>
+  <si>
+    <t>6750 МОЛОЧНЫЕ ГОСТ СН сос п/о мгс 0,41 кг 10шт ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6751 СЛИВОЧНЫЕ СН сос п/о мгс 0,41кг 10шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>5982 МОЛОЧНЫЕ ТРАДИЦ. сос п/о мгс 0,6кг_СНГ  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>МОЛОЧНЫЕ ТРАДИЦ. сос п/о мгс 0,6кг_СНГ</t>
+  </si>
+  <si>
+    <t>5982 МОЛОЧНЫЕ ТРАДИЦ. сос п/о мгс 0,6кг_СНГ  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6025 ВЕТЧ.ФИРМЕННАЯ С ИНДЕЙКОЙ п/о   ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>ВЕТЧ.ФИРМЕННАЯ С ИНДЕЙКОЙ п/о</t>
+  </si>
+  <si>
+    <t>6756 ВЕТЧ.ЛЮБИТЕЛЬСКАЯ п/о  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>НЕАПОЛИТАНСКИЙ ДУЭТ с/к с/н мгс 1/90</t>
+  </si>
+  <si>
+    <t>6221 НЕАПОЛИТАНСКИЙ ДУЭТ с/к с/н мгс 1/90  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6025 ВЕТЧ.ФИРМЕННАЯ С ИНДЕЙКОЙ п/о   ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6221 НЕАПОЛИТАНСКИЙ ДУЭТ с/к с/н мгс 1/90  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>3297 СЫТНЫЕ Папа может сар б/о мгс 1*3_СНГ  Останкино</t>
+  </si>
+  <si>
+    <t>СЫТНЫЕ Папа может сар б/о мгс 1*3</t>
+  </si>
+  <si>
+    <t>3812 СОЧНЫЕ сос п/о мгс 2*2  Останкино</t>
+  </si>
+  <si>
+    <t>5159 Нежный пашт п/о 1/150 16шт.   ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>НЕЖНЫЙ пашт п/о 1/150 16шт.</t>
+  </si>
+  <si>
+    <t>5160 Мясной пашт п/о 0,150 ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>МЯСНОЙ пашт п/о 1/150 16шт.</t>
+  </si>
+  <si>
+    <t>5161 Печеночный пашт 0,150 ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>ПЕЧЕНОЧНЫЙ пашт п/о 1/150 16шт.</t>
+  </si>
+  <si>
+    <t>5965 С ИНДЕЙКОЙ Папа может сар б/о мгс 1*3  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>С ИНДЕЙКОЙ Папа может сар б/о мгс 1*3</t>
+  </si>
+  <si>
+    <t>6159 ВРЕМЯ ОЛИВЬЕ Папа может вар п/о  Останкино</t>
+  </si>
+  <si>
+    <t>ВРЕМЯ ОЛИВЬЕ Папа может п/о</t>
+  </si>
+  <si>
+    <t>6217 ШПИКАЧКИ ДОМАШНИЕ СН п/о мгс 0,4кг 8 шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6217 Шпикачки домашние СН п/о 0,4</t>
+  </si>
+  <si>
+    <t>6220 ГОВЯЖЬЯ папа может вар п/о  Останкино</t>
+  </si>
+  <si>
+    <t>ГОВЯЖЬЯ Папа может вар п/о</t>
+  </si>
+  <si>
+    <t>6236 СЛИВОЧНЫЕ ПМ сос п/о мгс 0,45кг 10шт  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>СЛИВОЧНЫЕ ПМ сос п/о мгс 0.450кг_45с</t>
+  </si>
+  <si>
+    <t>6602 БАВАРСКИЕ ПМ сос ц/о мгс 0,35кг 8шт  Останкино</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> БАВАРСКИЕ ПМ сос ц/о мгс 0.35кг 8шт.</t>
+  </si>
+  <si>
+    <t>6656 ГОВЯЖЬИ СН сос п/о мгс 2*2  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>ГОВЯЖЬИ СН сос п/о мгс 2*2</t>
+  </si>
+  <si>
+    <t>6684 СЕРВЕЛАТ КАРЕЛЬСКИЙ ПМ в/к в/у 0,28кг  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6697 СЕРВЕЛАТ ФИНСКИЙ ПМ в/к в/у 0,35кг 8шт  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ ФИНСКИЙ ПМ в/к в/у 0.35кг 8шт.</t>
+  </si>
+  <si>
+    <t>6713 СОЧНЫЙ ГРИЛЬ ПМ сос п/о мгс 0,41кг 8 шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>СОЧНЫЙ ГРИЛЬ ПМ сос п/о мгс 0.41кг 8шт.</t>
+  </si>
+  <si>
+    <t>6716 ОСОБАЯ Коровино ( в сетке) 0,5кг 8шт  Останкино</t>
+  </si>
+  <si>
+    <t>6722 СОЧНЫЕ ПМ сос п/о мгс 0,41кг 10шт  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>СОЧНЫЕ ПМ сос п/о мгс 0.41кг 10шт.</t>
+  </si>
+  <si>
+    <t>6751 СЛИВОЧНЫЕ СН сос п/о мгс 0,41 кг 10шт.  Останкино</t>
+  </si>
+  <si>
+    <t>5819 МЯСНЫЕ Папа может сос п/о в/у 0.4кг_45с</t>
+  </si>
+  <si>
+    <t>МЯСНЫЕ Папа может сос п/о в/у 0.4кг_45с</t>
+  </si>
+  <si>
+    <t>5337 ОСОБАЯ СО ШПИКОМ вар п/о</t>
+  </si>
+  <si>
+    <t>5336 ОСОБАЯ вар п/о</t>
+  </si>
+  <si>
+    <t>5811 СВИНИНА МАДЕРА с/к с/н в/у 1/100 8шт.   ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>5819 Сосиски Папа может 400г Мясные  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6027 ВЕТЧ.ИЗ ЛОПАТКИ Папа может п/о 400*6  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>ВЕТЧ.ИЗ ЛОПАТКИ Папа может п/о 400*6</t>
+  </si>
+  <si>
+    <t>6213 СЕРВЕЛАТ ФИНСКИЙ СН в/к в/у 0,35кг 8шт  Останкино</t>
+  </si>
+  <si>
+    <t>6303 Мясные Папа может сос п/о мгс 1,5*3  Останкино</t>
+  </si>
+  <si>
+    <t>МЯСНЫЕ Папа может сос п/о мгс 1*3_45с</t>
+  </si>
+  <si>
+    <t>6308 С ИНДЕЙКОЙ ПМ сар б/о мгс 1*3_СНГ  Останкино</t>
+  </si>
+  <si>
+    <t>6392 ФИЛЕЙНАЯ Папа может вар п/о 0,4кг  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6448 Свинина Останкино 100г Мадера с/к в/у нарезка  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6450 БЕКОН с/к с/н в/у 1/100 10шт.</t>
+  </si>
+  <si>
+    <t>6454 АРОМАТНАЯ с/к с/н в/у 1/100 10шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6475 Сосиски Папа может 400г С сыром  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6498 МОЛОЧНАЯ Папа может вар п/о  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>МОЛОЧНАЯ Папа может вар п/о</t>
+  </si>
+  <si>
+    <t>6596 РУССКАЯ СН вар п/о  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> РУССКАЯ СН вар п/о</t>
+  </si>
+  <si>
+    <t>6607 С ГОВЯДИНОЙ ПМ сар б/о мгс 1*3_45с</t>
+  </si>
+  <si>
+    <t>С ГОВЯДИНОЙ ПМ сар б/о мгс 1*3_45с</t>
+  </si>
+  <si>
+    <t>6609 С ГОВЯДИНОЙ ПМ сар б/о мгс 0,4 кг_45с</t>
+  </si>
+  <si>
+    <t>С ГОВЯДИНОЙ ПМ сар б/о мгс 0.4кг_45с</t>
+  </si>
+  <si>
+    <t>6666 БОЯNСКАЯ Папа может п/к в/у 0,28кг 8шт  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6669 ВЕНСКАЯ САЛЯМИ п/к в/у 0,28кг 8шт  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6755 ВЕТЧ.ЛЮБИТЕЛЬСКАЯ п/о 0,4кг 10шт.  Останкино</t>
+  </si>
+  <si>
+    <t>6756 ВЕТЧ.ЛЮБИТЕЛЬСКАЯ п/о  Останкино</t>
+  </si>
+  <si>
+    <t>6550 МЯСНЫЕ Папа может сар б/о мгс  1*3_О_45с</t>
+  </si>
+  <si>
+    <t>МЯСНЫЕ Папа может сар б/о мгс  1*3_О_45с</t>
+  </si>
+  <si>
+    <t>6365 СЕРВЕЛАТ КАРЕЛЬСКИЙ ПМ в/к в/у 0.28кг  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>3248 ДОКТОРСКАЯ ТРАДИЦ. вар п/о ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>ДОКТОРСКАЯ ТРАДИЦ. вар п/о</t>
+  </si>
+  <si>
+    <t>5206 Ладожская с/к в/у ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>ЛАДОЖСКАЯ с/к в/у</t>
+  </si>
+  <si>
+    <t>6586 Мрамарная и Балыковая в/к с/н мгс 1/90  Останкино</t>
+  </si>
+  <si>
+    <t>Мрамарная и Балыковая в/к с/н мгс 1/90</t>
+  </si>
+  <si>
+    <t>6467 БАЛЫКОВАЯ Коровино п/к в/у  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>БАЛЫКОВАЯ Коровино п/к в/у</t>
+  </si>
+  <si>
+    <t>6661 СОЧНЫЙ ГРИЛЬ ПМ сос п/о мгс 1,5*4_Маяк Останкино</t>
+  </si>
+  <si>
+    <t>СОЧНЫЙ ГРИЛЬ ПМ сос п/о мгс 1,5*4_Маяк</t>
+  </si>
+  <si>
+    <t>6701 СЕРВЕЛАТ ШВАРЦЕР ПМ в/к в/у 0.28кг 8шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ ШВАРЦЕР ПМ в/к в/у 0.28кг 8шт.</t>
+  </si>
+  <si>
+    <t>6144МОЛОЧНЫЕ ТРАДИЦ. сос п/о в/у 1/360 (1+1)</t>
+  </si>
+  <si>
+    <t>6144 МОЛОЧНЫЕ ТРАДИЦ. сос п/ов/у 1/360 (1+1)</t>
+  </si>
+  <si>
+    <t>5819МЯСНЫЕ Папа может сос п/о в/у 0.4кг_45с</t>
+  </si>
+  <si>
+    <t>6303 МЯСНЫЕ Папа может сос п/о мгс  1.5*3</t>
+  </si>
+  <si>
+    <t>МЯСНЫЕ Папа может сос п/о мгс  1.5*3</t>
+  </si>
+  <si>
+    <t>3678 СОЧНЫЕ сос п/о мгс 2*2     ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6062 МОЛОЧНЫЕ К ЗАВТРАКУ сос п/о мгс 2*2   ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>МОЛОЧНЫЕ К ЗАВТРАКУ сос п/о мгс 2*2</t>
+  </si>
+  <si>
+    <t>6364 СЕРВЕЛАТ ЗЕРНИСТЫЙ ПМ в/к в/у 0.35кг  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ ЗЕРНИСТЫЙ ПМ в/к в/у 0.35кг</t>
+  </si>
+  <si>
+    <t>6372 СЕРВЕЛАТ ОХОТНИЧИЙ ПМ в/к в/у 0.35кг 8шт  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6375 СЕРВЕЛАТ ПРИМА в/к в/у 0.28кг 8шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6509 СЕРВЕЛАТ ФИНСКИЙ ПМ в/к в/у 0.35кг 8шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6397 БОЯNСКАЯ Папа может п/к в/у 0.28кг 8шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
     <t>МОЛОЧНЫЕ КЛАССИЧЕСКИЕ ПМ сос п/о мгс 2*4</t>
-  </si>
-  <si>
-    <t>6279 КОРЕЙКА ПО-ОСТ.к/в в/с с/н в/у 1/150_45с  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>КОРЕЙКА ПО-ОСТ.к/в в/с с/н в/у 1/150_45с</t>
-  </si>
-  <si>
-    <t>6281 СВИНИНА ДЕЛИКАТ. к/в мл/к в/у 0.3кг 45с  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>СВИНИНА ДЕЛИКАТЕСНАЯ к/в мл/к в/у 0.3кг</t>
-  </si>
-  <si>
-    <t>6297 ФИЛЕЙНЫЕ сос ц/о в/у 1/270 12шт_45с  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>ФИЛЕЙНЫЕ сос ц/о в/у 1/270 12шт_45с</t>
-  </si>
-  <si>
-    <t>6325 ДОКТОРСКАЯ ПРЕМИУМ вар п/о 0.4кг 8шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>ДОКТОРСКАЯ ПРЕМИУМ вар п/о 0.4кг 8шт.</t>
-  </si>
-  <si>
-    <t>6333 МЯСНАЯ Папа может вар п/о 0.4кг 8шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>МЯСНАЯ Папа может вар п/о 0.4кг 8шт.</t>
-  </si>
-  <si>
-    <t>ФИЛЕЙНАЯ Папа может вар п/о 0.4кг 8шт.</t>
-  </si>
-  <si>
-    <t>6353 ЭКСТРА Папа может вар п/о 0.4кг 8шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>ЭКСТРА Папа может вар п/о 0.4кг 8шт.</t>
-  </si>
-  <si>
-    <t>СЕРВЕЛАТ КАРЕЛЬСКИЙ ПМ в/к в/у 0.28кг</t>
-  </si>
-  <si>
-    <t>СЕРВЕЛАТ ОХОТНИЧИЙ в/к в/у срез 0.35кг</t>
-  </si>
-  <si>
-    <t>СЕРВЕЛАТ ПРИМА в/к в/у 0.28кг 8шт.</t>
-  </si>
-  <si>
-    <t>БОЯNСКАЯ Папа может п/к в/у 0.28кг 8шт.</t>
-  </si>
-  <si>
-    <t>ВЕНСКАЯ САЛЯМИ п/к в/у 0.28кг 8шт.</t>
-  </si>
-  <si>
-    <t>6415 БАЛЫКОВАЯ Коровино п/к в/у 0.84кг 6шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>БАЛЫКОВАЯ Коровино п/к в/у 0.84кг 6шт.</t>
-  </si>
-  <si>
-    <t>6427 КЛАССИЧЕСКАЯ ПМ вар п/о 0.35кг 8шт. ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>КЛАССИЧЕСКАЯ ПМ вар п/о 0.35кг 8шт.</t>
-  </si>
-  <si>
-    <t>6438 БОГАТЫРСКИЕ Папа Может сос п/о в/у 0,3кг  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>БОГАТЫРСКИЕ Папа Может сос п/о в/у 0.3кг</t>
-  </si>
-  <si>
-    <t>6448 СВИНИНА МАДЕРА с/к с/н в/у 1/100 10шт.   ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>СВИНИНА МАДЕРА с/к с/н в/у 1/100</t>
-  </si>
-  <si>
-    <t>6450 БЕКОН с/к с/н в/у 1/100 10шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>БЕКОН с/к с/н в/у 1/100 10шт.</t>
-  </si>
-  <si>
-    <t>6453 ЭКСТРА Папа может с/к с/н в/у 1/100 14шт.   ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>ЭКСТРА Папа может с/к с/н в/у 1/100_60с</t>
-  </si>
-  <si>
-    <t>6454 АРОМАТНАЯ с/к с/н в/у 1/100 14шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>АРОМАТНАЯ с/к с/н в/у 1/100*8_60с</t>
-  </si>
-  <si>
-    <t>6475 С СЫРОМ Папа может сос ц/о мгс 0.4кг6шт  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>С СЫРОМ Папа может сос ц/о мгс 0.4кг 6шт</t>
-  </si>
-  <si>
-    <t>СЕРВЕЛАТ ФИНСКИЙ в/к в/у срез 0.35кг_45c</t>
-  </si>
-  <si>
-    <t>СЕРВЕЛАТ ЗЕРНИСТЫЙ ПМ в/к в/у срез 1/350</t>
-  </si>
-  <si>
-    <t>6517 БОГАТЫРСКИЕ Папа Может сос п/о 1*6  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>БОГАТЫРСКИЕ Папа Может сос п/о 1*6</t>
-  </si>
-  <si>
-    <t>6527 ШПИКАЧКИ СОЧНЫЕ ПМ сар б/о мгс 1*3 45с ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>ШПИКАЧКИ СОЧНЫЕ ПМ САР Б/О МГС 1*3 45с</t>
-  </si>
-  <si>
-    <t>СЕРВЕЛАТ ФИНСКИЙ СН в/к п/о 0.35кг 8шт</t>
-  </si>
-  <si>
-    <t>СЕРВЕЛАТ ОРЕХОВЫЙ СН в/к п/о 0,35кг 8шт</t>
-  </si>
-  <si>
-    <t>6562 СЕРВЕЛАТ КАРЕЛЬСКИЙ СН в/к в/у 0,28кг  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>СЕРВЕЛАТ КАРЕЛЬСКИЙ СН в/к в/у 0.28к</t>
-  </si>
-  <si>
-    <t>6563 СЛИВОЧНЫЕ СН сос п/о мгс 1*6  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>СЛИВОЧНЫЕ СН сос п/о мгс 1*6</t>
-  </si>
-  <si>
-    <t>6589 МОЛОЧНЫЕ ГОСТ СН сос п/о мгс 0.41кг 10шт  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>МОЛОЧНЫЕ ГОСТ СН сос п/о мгс 0.41кг 10шт</t>
-  </si>
-  <si>
-    <t>6590 СЛИВОЧНЫЕ СН сос п/о мгс 0.41кг 10шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>СЛИВОЧНЫЕ СН сос п/о мгс 0.41кг 10шт.</t>
-  </si>
-  <si>
-    <t>6592 ДОКТОРСКАЯ СН вар п/о  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>ДОКТОРСКАЯ СН вар п/о</t>
-  </si>
-  <si>
-    <t>6594 МОЛОЧНАЯ СН вар п/о  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>МОЛОЧНАЯ СН вар п/о</t>
-  </si>
-  <si>
-    <t>6601 ГОВЯЖЬИ СН сос п/о мгс 1*6  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>ГОВЯЖЬИ СН сос п/о мгс 1*6</t>
-  </si>
-  <si>
-    <t>6636 БАЛЫКОВАЯ СН в/к п/о 0,35кг 8шт  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>БАЛЫКОВАЯ СН в/к п/о 0.35кг 8шт</t>
-  </si>
-  <si>
-    <t>6648 СОЧНЫЕ Папа может сар п/о мгс 1*3  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>СОЧНЫЕ Папа может сар п/о мгс 1*3</t>
-  </si>
-  <si>
-    <t>6650 СОЧНЫЕ С СЫРОМ ПМ сар п/о мгс 1*3  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>СОЧНЫЕ С СЫРОМ ПМ сар п/о мгс 1*3</t>
-  </si>
-  <si>
-    <t>6658 АРОМАТНАЯ С ЧЕСНОЧКОМ СН в/к мтс 0.330кг  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> АРОМАТНАЯ С ЧЕСНОЧКОМ СН в/к мтс 0.330кг</t>
-  </si>
-  <si>
-    <t>6593 ДОКТОРСКАЯ СН вар п/о 0.45кг 8шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>ДОКТОРСКАЯ СН вар п/о 0.45кг 8шт</t>
-  </si>
-  <si>
-    <t>6595 МОЛОЧНАЯ СН вар п/о 0.45кг 8шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>МОЛОЧНАЯ СН вар п/о 0.45кг 8шт.</t>
-  </si>
-  <si>
-    <t>6597 РУССКАЯ СН вар п/о 0.45кг 8шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>РУССКАЯ СН вар п/о 0.45кг 8шт.</t>
-  </si>
-  <si>
-    <t>6641 СЛИВОЧНЫЕ ПМ сос п/о мгс 0,41кг 10шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>СЛИВОЧНЫЕ ПМ сос п/о мгс 0,41кг 10шт.</t>
-  </si>
-  <si>
-    <t>СОЧНЫЙ ГРИЛЬ ПМ сос п/о мгс 0,41кг 8шт.</t>
-  </si>
-  <si>
-    <t>СОСИСКА.РУ сос ц/о в/у 1/300 8шт.</t>
-  </si>
-  <si>
-    <t>6646 СОСИСКА.РУ сос ц/о в/у 1/300 8шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6566 СЕРВЕЛАТ С БЕЛ.ГРИБАМИ в/к в/у 0,31кг  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>СЕРВЕЛАТ С БЕЛ.ГРИБАМИ в/к в/у 0.31кг</t>
-  </si>
-  <si>
-    <t>6684 СЕРВЕЛАТ КАРЕЛЬСКИЙ ПМ в/к в/у 0.28кг  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6692 СЕРВЕЛАТ ПРИМА в/к в/у 0.28кг 8шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6669 ВЕНСКАЯ САЛЯМИ п/к в/у 0.28кг 8шт  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6683 СЕРВЕЛАТ ЗЕРНИСТЫЙ ПМ в/к в/у 0,35кг  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6689 СЕРВЕЛАТ ОХОТНИЧИЙ ПМ в/к в/у 0,35кг 8шт  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6697 СЕРВЕЛАТ ФИНСКИЙ ПМ в/к в/у 0,35кг 8шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>СОЧНЫЕ ПМ сос п/о мгс 0,41кг 10шт</t>
-  </si>
-  <si>
-    <t>6392 ФИЛЕЙНАЯ Папа может вар п/о 0.4кг. ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6644 СОЧНЫЕ ПМ сос п/о мгс 0,41кг 10шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6666 БОЯНСКАЯ Папа может п/к в/у 0,28кг 8 шт. ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>ГОВЯЖЬЯ Папа может вар п/о 0.4кг 8шт</t>
-  </si>
-  <si>
-    <t>6268 ГОВЯЖЬЯ Папа может вар п/о 0,4кг 8 шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>5981 МОЛОЧНЫЕ ТРАДИЦ. сос п/о мгс 1*6_45с   ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>МОЛОЧНЫЕ ТРАДИЦ. сос п/о мгс 1*6_45с</t>
-  </si>
-  <si>
-    <t>6247 ДОМАШНЯЯ Папа может вар п/о 0,4кг 8шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>ДОМАШНЯЯ Папа может вар п/о 0,4кг 8шт.</t>
-  </si>
-  <si>
-    <t>МОЛОЧНЫЕ К ЗАВТРАКУ сос п/о мгс 1*3</t>
-  </si>
-  <si>
-    <t>6041 МОЛОЧНЫЕ К ЗАВТРАКУ сос п/о мгс 1*3  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6227 МОЛОЧНЫЕ ТРАДИЦ. сос п/о мгс 0.6кг LTF  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>МОЛОЧНЫЕ ТРАДИЦ. сос п/о мгс 0.6кг LTF</t>
-  </si>
-  <si>
-    <t>ШПИКАЧКИ ДОМАШНИЕ СН п/о мгс 0.4кг 8шт.</t>
-  </si>
-  <si>
-    <t>6217 ШПИКАЧКИ ДОМАШНИЕ СН п/о мгс 0.4кг 8шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6661 СОЧНЫЙ ГРИЛЬ ПМ сос п/о мгс 1.5*4_Маяк  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>3812 СОЧНЫЕ сос п/о мгс 2*2  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6113 СОЧНЫЕ сос п/о мгс 1*6_Ашан  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>СОЧНЫЙ ГРИЛЬ ПМ сос п/о мгс 1.5*4_Маяк</t>
-  </si>
-  <si>
-    <t>6241 ХОТ-ДОГ Папа может сос п/о мгс 0.38кг  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6213 СЕРВЕЛАТ ФИНСКИЙ СН в/к в/у 0.35кг 8шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6215 СЕРВЕЛАТ ОРЕХОВЫЙ СН в/к в/у 0.35кг 8шт  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6713 СОЧНЫЙ ГРИЛЬ ПМ сос п/о мгс 0.41кг 8шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>ХОТ-ДОГ Папа может сос п/о мгс 0,38кг</t>
-  </si>
-  <si>
-    <t>ВРЕМЯ ОЛИВЬЕ Папа может вар п/о 0.4кг</t>
-  </si>
-  <si>
-    <t>К ЧАЮ Советское наследие вар н/о мгс</t>
-  </si>
-  <si>
-    <t>ОСОБАЯ Коровино (в сетке) 0.5кг 8шт.</t>
-  </si>
-  <si>
-    <t>МОЛОЧНЫЕ ТРАДИЦ. сос п/о в/у 1/360 (1+1)</t>
-  </si>
-  <si>
-    <t>БАЛЫКОВАЯ СН в/к в/у</t>
-  </si>
-  <si>
-    <t>СЕРВЕЛАТ ФИНСКИЙ СН в/к в/у</t>
-  </si>
-  <si>
-    <t>6144 МОЛОЧНЫЕ ТРАДИЦ сос п/о в/у 1/360 (1+1) ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6158 ВРЕМЯ ОЛИВЬЕ Папа может вар п/о 0.4кг   ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6212 СЕРВЕЛАТ ФИНСКИЙ СН в/к в/у  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6259 К ЧАЮ Советское наследие вар н/о мгс  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6301 БАЛЫКОВАЯ СН в/к в/у  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6716 ОСОБАЯ Коровино (в сетке) 0.5кг 8шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6303 МЯСНЫЕ Папа может сос п/о мгс 1.5*3  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6606 СЫТНЫЕ Папа может сар б/о мгс 1*3 45с  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>МЯСНЫЕ Папа может сос п/о мгс 1.5*3</t>
-  </si>
-  <si>
-    <t>СЫТНЫЕ Папа может сар б/о мгс 1*3 45с</t>
-  </si>
-  <si>
-    <t>6302 БАЛЫКОВАЯ СН в/к в/у 0.35кг 8шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>ВЕТЧ.КЛАССИЧЕСКАЯ СН п/о 0.8кг 4шт.</t>
-  </si>
-  <si>
-    <t>6645 ВЕТЧ.КЛАССИЧЕСКАЯ СН п/о 0.8кг 4шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>ИМПЕРСКАЯ И БАЛЫКОВАЯ в/к с/н мгс 1/90</t>
-  </si>
-  <si>
-    <t>6225 ИМПЕРСКАЯ И БАЛЫКОВАЯ в/к с/н мгс 1/90  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>МЯСНОЕ АССОРТИ к/з с/н мгс 1/90 10шт.</t>
-  </si>
-  <si>
-    <t>6228 МЯСНОЕ АССОРТИ к/з с/н мгс 1/90 10шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6225 ИМПЕРСКАЯ И БАЛЫКОВАЯ в/к с/н мгс 1/90  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6722 СОЧНЫЕ ПМ сос п/о мгс 0,41кг 10шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>3297 СЫТНЫЕ Папа может сар б/о мгс 1*3 СНГ  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>СЫТНЫЕ Папа может сар б/о мгс 1*3 СНГ</t>
-  </si>
-  <si>
-    <t>3297 СЫТНЫЕ Папа может сар б/о мгс 1*3 СНГ  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6722 СОЧНЫЕ ПМ сос п/о мгс 0,41кг 10шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6726 СЛИВОЧНЫЕ ПМ сос п/о мгс 0.41кг 10шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6602 БАВАРСКИЕ ПМ сос ц/о мгс 0,35кг 8шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БАВАРСКИЕ ПМ сос ц/о мгс 0,35кг 8шт.  </t>
-  </si>
-  <si>
-    <t>БУЖЕНИНА ЗАПЕЧЕННАЯ с/н в/у 1/100 10шт.</t>
-  </si>
-  <si>
-    <t>6233 БУЖЕНИНА ЗАПЕЧЕННАЯ с/н в/у 1/100 10шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6734 ОСОБАЯ СО ШПИКОМ Коровино (в сетке) 0,5кг ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>ОСОБАЯ СО ШПИКОМ Коровино (в сетке) 0,5кг</t>
-  </si>
-  <si>
-    <t>6750 МОЛОЧНЫЕ ГОСТ СН сос п/о мгс 0,41 кг 10шт ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6751 СЛИВОЧНЫЕ СН сос п/о мгс 0,41кг 10шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>5982 МОЛОЧНЫЕ ТРАДИЦ. сос п/о мгс 0,6кг_СНГ  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>МОЛОЧНЫЕ ТРАДИЦ. сос п/о мгс 0,6кг_СНГ</t>
-  </si>
-  <si>
-    <t>5982 МОЛОЧНЫЕ ТРАДИЦ. сос п/о мгс 0,6кг_СНГ  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6025 ВЕТЧ.ФИРМЕННАЯ С ИНДЕЙКОЙ п/о   ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>ВЕТЧ.ФИРМЕННАЯ С ИНДЕЙКОЙ п/о</t>
-  </si>
-  <si>
-    <t>6756 ВЕТЧ.ЛЮБИТЕЛЬСКАЯ п/о  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>НЕАПОЛИТАНСКИЙ ДУЭТ с/к с/н мгс 1/90</t>
-  </si>
-  <si>
-    <t>6221 НЕАПОЛИТАНСКИЙ ДУЭТ с/к с/н мгс 1/90  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6025 ВЕТЧ.ФИРМЕННАЯ С ИНДЕЙКОЙ п/о   ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6221 НЕАПОЛИТАНСКИЙ ДУЭТ с/к с/н мгс 1/90  ОСТАНКИНО</t>
   </si>
 </sst>
 </file>
@@ -1004,11 +1274,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C111"/>
+  <dimension ref="A1:C169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D116" sqref="D116"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1108,7 +1378,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B9" s="3">
         <v>6756</v>
@@ -1312,573 +1582,573 @@
         <v>1001024976123</v>
       </c>
       <c r="C27" t="s">
-        <v>52</v>
+        <v>298</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B28" s="3">
         <v>1001220286279</v>
       </c>
       <c r="C28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B29" s="3">
         <v>1001082576281</v>
       </c>
       <c r="C29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30" s="3">
         <v>1001022556297</v>
       </c>
       <c r="C30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B31" s="3">
         <v>1001010106325</v>
       </c>
       <c r="C31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B32" s="3">
         <v>1001012486333</v>
       </c>
       <c r="C32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B33" s="3">
         <v>1001012506353</v>
       </c>
       <c r="C33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B34" s="3">
         <v>1001304506684</v>
       </c>
       <c r="C34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B35" s="3">
         <v>1001303056692</v>
       </c>
       <c r="C35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B36" s="3">
         <v>1001303636415</v>
       </c>
       <c r="C36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B37" s="3">
         <v>1001013956427</v>
       </c>
       <c r="C37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B38" s="3">
         <v>1001024636438</v>
       </c>
       <c r="C38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B39" s="3">
         <v>1001234146448</v>
       </c>
       <c r="C39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B40" s="3">
         <v>6450</v>
       </c>
       <c r="C40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B41" s="3">
         <v>1001202506453</v>
       </c>
       <c r="C41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B42" s="3">
         <v>1001201976454</v>
       </c>
       <c r="C42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B43" s="3">
         <v>1001025176475</v>
       </c>
       <c r="C43" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B44" s="3">
         <v>1001301876697</v>
       </c>
       <c r="C44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B45" s="3">
         <v>1001024636517</v>
       </c>
       <c r="C45" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B46" s="3">
         <v>1001031076527</v>
       </c>
       <c r="C46" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B47" s="3">
         <v>1001304506562</v>
       </c>
       <c r="C47" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B48" s="3">
         <v>1001020846563</v>
       </c>
       <c r="C48" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B49" s="3">
         <v>1001020836589</v>
       </c>
       <c r="C49" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B50" s="3">
         <v>6751</v>
       </c>
       <c r="C50" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B51" s="3">
         <v>1001010016592</v>
       </c>
       <c r="C51" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B52" s="3">
         <v>1001010026594</v>
       </c>
       <c r="C52" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B53" s="3">
         <v>1001022296601</v>
       </c>
       <c r="C53" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B54" s="3">
         <v>1001031896648</v>
       </c>
       <c r="C54" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B55" s="3">
         <v>1001035266650</v>
       </c>
       <c r="C55" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B56" s="3">
         <v>1001305256658</v>
       </c>
       <c r="C56" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B57" s="3">
         <v>1001010016593</v>
       </c>
       <c r="C57" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B58" s="3">
         <v>1001010026595</v>
       </c>
       <c r="C58" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B59" s="3">
         <v>1001010036597</v>
       </c>
       <c r="C59" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B60" s="3">
         <v>1001020886646</v>
       </c>
       <c r="C60" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B61" s="3">
         <v>1001305306566</v>
       </c>
       <c r="C61" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B62" s="3">
         <v>1001300386683</v>
       </c>
       <c r="C62" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B63" s="3">
         <v>1001303986689</v>
       </c>
       <c r="C63" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B64" s="3">
         <v>1001300516669</v>
       </c>
       <c r="C64" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B65" s="3">
         <v>1001012566392</v>
       </c>
       <c r="C65" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B66" s="3">
         <v>1001302276666</v>
       </c>
       <c r="C66" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B67" s="3">
         <v>1001012426268</v>
       </c>
       <c r="C67" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B68" s="3">
         <v>6041</v>
       </c>
       <c r="C68" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B69" s="3">
         <v>1001011086247</v>
       </c>
       <c r="C69" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B70" s="3">
         <v>1001014486158</v>
       </c>
       <c r="C70" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B71" s="3">
         <v>1001015356259</v>
       </c>
       <c r="C71" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B72" s="3">
         <v>1001012816716</v>
       </c>
       <c r="C72" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B73" s="3">
         <v>1001020966227</v>
       </c>
       <c r="C73" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B74" s="3">
         <v>1001020965981</v>
       </c>
       <c r="C74" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B75" s="3">
         <v>1001022726303</v>
       </c>
       <c r="C75" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B76" s="3">
         <v>1001022466726</v>
       </c>
       <c r="C76" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B77" s="3">
         <v>1001020966144</v>
       </c>
       <c r="C77" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B78" s="3">
         <v>1001022376722</v>
       </c>
       <c r="C78" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B79" s="3">
         <v>1001022373812</v>
@@ -1889,7 +2159,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B80" s="3">
         <v>1001022376113</v>
@@ -1900,347 +2170,985 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B81" s="3">
         <v>1001022246661</v>
       </c>
       <c r="C81" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B82" s="3">
         <v>1001022246713</v>
       </c>
       <c r="C82" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B83" s="3">
         <v>1001025166241</v>
       </c>
       <c r="C83" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B84" s="3">
         <v>6606</v>
       </c>
       <c r="C84" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B85" s="3">
         <v>1001035326217</v>
       </c>
       <c r="C85" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B86" s="3">
         <v>1001303636301</v>
       </c>
       <c r="C86" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B87" s="3">
         <v>1001303636302</v>
       </c>
       <c r="C87" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B88" s="3">
         <v>1001305196215</v>
       </c>
       <c r="C88" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B89" s="3">
         <v>1001301876212</v>
       </c>
       <c r="C89" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B90" s="3">
         <v>1001301876213</v>
       </c>
       <c r="C90" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B91" s="3">
         <v>1001303636302</v>
       </c>
       <c r="C91" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B92" s="3">
         <v>6645</v>
       </c>
       <c r="C92" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B93" s="3">
         <v>6225</v>
       </c>
       <c r="C93" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B94" s="3">
         <v>6228</v>
       </c>
       <c r="C94" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B95" s="3">
         <v>6225</v>
       </c>
       <c r="C95" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B96" s="3">
         <v>1001022376722</v>
       </c>
       <c r="C96" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B97" s="3">
         <v>1001022376722</v>
       </c>
       <c r="C97" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B98" s="3">
         <v>3297</v>
       </c>
       <c r="C98" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B99" s="3">
         <v>3297</v>
       </c>
       <c r="C99" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B100" s="3">
         <v>1001022466726</v>
       </c>
       <c r="C100" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B101" s="3">
         <v>6602</v>
       </c>
       <c r="C101" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B102" s="3">
         <v>6233</v>
       </c>
       <c r="C102" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B103" s="3">
         <v>6734</v>
       </c>
       <c r="C103" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B104" s="3">
         <v>6750</v>
       </c>
       <c r="C104" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B105" s="3">
         <v>6751</v>
       </c>
       <c r="C105" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B106" s="3">
         <v>5982</v>
       </c>
       <c r="C106" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B107" s="3">
         <v>5982</v>
       </c>
       <c r="C107" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B108" s="3">
         <v>6025</v>
       </c>
       <c r="C108" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B109" s="3">
         <v>6025</v>
       </c>
       <c r="C109" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B110" s="3">
         <v>6221</v>
       </c>
       <c r="C110" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B111" s="3">
         <v>6221</v>
       </c>
       <c r="C111" t="s">
-        <v>205</v>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B112" s="3">
+        <v>1001034063297</v>
+      </c>
+      <c r="C112" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B113" s="3">
+        <v>3812</v>
+      </c>
+      <c r="C113" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B114" s="3">
+        <v>1001100605159</v>
+      </c>
+      <c r="C114" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B115" s="3">
+        <v>1001100615160</v>
+      </c>
+      <c r="C115" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B116" s="3">
+        <v>1001100625161</v>
+      </c>
+      <c r="C116" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B117" s="3">
+        <v>1001035026308</v>
+      </c>
+      <c r="C117" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B118" s="3">
+        <v>6159</v>
+      </c>
+      <c r="C118" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B119" s="3">
+        <v>6217</v>
+      </c>
+      <c r="C119" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B120" s="3">
+        <v>6220</v>
+      </c>
+      <c r="C120" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B121" s="3">
+        <v>1001022466236</v>
+      </c>
+      <c r="C121" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B122" s="3">
+        <v>6602</v>
+      </c>
+      <c r="C122" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B123" s="3">
+        <v>1001022296656</v>
+      </c>
+      <c r="C123" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B124" s="3">
+        <v>1001304506684</v>
+      </c>
+      <c r="C124" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B125" s="3">
+        <v>1001301876697</v>
+      </c>
+      <c r="C125" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B126" s="3">
+        <v>1001022246713</v>
+      </c>
+      <c r="C126" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B127" s="3">
+        <v>6716</v>
+      </c>
+      <c r="C127" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B128" s="3">
+        <v>1001022376722</v>
+      </c>
+      <c r="C128" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B129" s="3">
+        <v>6751</v>
+      </c>
+      <c r="C129" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B130" s="3">
+        <v>1001022725819</v>
+      </c>
+      <c r="C130" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B131" s="3">
+        <v>1001012825337</v>
+      </c>
+      <c r="C131" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B132" s="3">
+        <v>1001012815336</v>
+      </c>
+      <c r="C132" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B133" s="3">
+        <v>1001234146448</v>
+      </c>
+      <c r="C133" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B134" s="3">
+        <v>1001022725819</v>
+      </c>
+      <c r="C134" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B135" s="3">
+        <v>1001092676027</v>
+      </c>
+      <c r="C135" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B136" s="3">
+        <v>1001301876213</v>
+      </c>
+      <c r="C136" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B137" s="3">
+        <v>1001022726303</v>
+      </c>
+      <c r="C137" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B138" s="3">
+        <v>1001035026308</v>
+      </c>
+      <c r="C138" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B139" s="3">
+        <v>1001012566392</v>
+      </c>
+      <c r="C139" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B140" s="3">
+        <v>1001234146448</v>
+      </c>
+      <c r="C140" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B141" s="3">
+        <v>1001233296450</v>
+      </c>
+      <c r="C141" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B142" s="3">
+        <v>1001201976454</v>
+      </c>
+      <c r="C142" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B143" s="3">
+        <v>1001025176475</v>
+      </c>
+      <c r="C143" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B144" s="3">
+        <v>1001012456498</v>
+      </c>
+      <c r="C144" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B145" s="3">
+        <v>1001010036596</v>
+      </c>
+      <c r="C145" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B146" s="3">
+        <v>1001033856607</v>
+      </c>
+      <c r="C146" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B147" s="3">
+        <v>1001033856609</v>
+      </c>
+      <c r="C147" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B148" s="3">
+        <v>1001302276666</v>
+      </c>
+      <c r="C148" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B149" s="3">
+        <v>1001300516669</v>
+      </c>
+      <c r="C149" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B150" s="3">
+        <v>1001092444611</v>
+      </c>
+      <c r="C150" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B151" s="3">
+        <v>1001092444614</v>
+      </c>
+      <c r="C151" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B152" s="3">
+        <v>6550</v>
+      </c>
+      <c r="C152" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B153" s="3">
+        <v>1001304506684</v>
+      </c>
+      <c r="C153" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B154" s="3">
+        <v>1001010113248</v>
+      </c>
+      <c r="C154" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B155" s="3">
+        <v>1001063925206</v>
+      </c>
+      <c r="C155" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B156" s="3">
+        <v>6586</v>
+      </c>
+      <c r="C156" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B157" s="3">
+        <v>1001303636467</v>
+      </c>
+      <c r="C157" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B158" s="3">
+        <v>1001022246661</v>
+      </c>
+      <c r="C158" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B159" s="3">
+        <v>1001304496701</v>
+      </c>
+      <c r="C159" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B160" s="3">
+        <v>6144</v>
+      </c>
+      <c r="C160" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B161" s="3">
+        <v>1001022725819</v>
+      </c>
+      <c r="C161" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B162" s="3">
+        <v>1001022726303</v>
+      </c>
+      <c r="C162" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B163" s="3">
+        <v>3812</v>
+      </c>
+      <c r="C163" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B164" s="3">
+        <v>1001024906062</v>
+      </c>
+      <c r="C164" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B165" s="3">
+        <v>1001300386683</v>
+      </c>
+      <c r="C165" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B166" s="3">
+        <v>1001303986689</v>
+      </c>
+      <c r="C166" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B167" s="3">
+        <v>1001303056692</v>
+      </c>
+      <c r="C167" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B168" s="3">
+        <v>1001301876697</v>
+      </c>
+      <c r="C168" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B169" s="3">
+        <v>1001302276666</v>
+      </c>
+      <c r="C169" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C110" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
+  <autoFilter ref="A1:C169" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/moduls/1С.xlsx
+++ b/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\Останкино КИ\ostankino_ki\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A75751-DCC7-4B1D-9F24-CDD0366D3095}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{111F03FC-E578-4C66-B118-2CEE886E1D8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$169</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$176</definedName>
   </definedNames>
   <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="307">
   <si>
     <t>1С</t>
   </si>
@@ -573,364 +573,388 @@
     <t>6645 ВЕТЧ.КЛАССИЧЕСКАЯ СН п/о 0.8кг 4шт.  ОСТАНКИНО</t>
   </si>
   <si>
+    <t>МЯСНОЕ АССОРТИ к/з с/н мгс 1/90 10шт.</t>
+  </si>
+  <si>
+    <t>6228 МЯСНОЕ АССОРТИ к/з с/н мгс 1/90 10шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6225 ИМПЕРСКАЯ И БАЛЫКОВАЯ в/к с/н мгс 1/90  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6722 СОЧНЫЕ ПМ сос п/о мгс 0,41кг 10шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>3297 СЫТНЫЕ Папа может сар б/о мгс 1*3 СНГ  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>СЫТНЫЕ Папа может сар б/о мгс 1*3 СНГ</t>
+  </si>
+  <si>
+    <t>3297 СЫТНЫЕ Папа может сар б/о мгс 1*3 СНГ  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6722 СОЧНЫЕ ПМ сос п/о мгс 0,41кг 10шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6726 СЛИВОЧНЫЕ ПМ сос п/о мгс 0.41кг 10шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6602 БАВАРСКИЕ ПМ сос ц/о мгс 0,35кг 8шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БАВАРСКИЕ ПМ сос ц/о мгс 0,35кг 8шт.  </t>
+  </si>
+  <si>
+    <t>БУЖЕНИНА ЗАПЕЧЕННАЯ с/н в/у 1/100 10шт.</t>
+  </si>
+  <si>
+    <t>6233 БУЖЕНИНА ЗАПЕЧЕННАЯ с/н в/у 1/100 10шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6734 ОСОБАЯ СО ШПИКОМ Коровино (в сетке) 0,5кг ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>ОСОБАЯ СО ШПИКОМ Коровино (в сетке) 0,5кг</t>
+  </si>
+  <si>
+    <t>6750 МОЛОЧНЫЕ ГОСТ СН сос п/о мгс 0,41 кг 10шт ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6751 СЛИВОЧНЫЕ СН сос п/о мгс 0,41кг 10шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>5982 МОЛОЧНЫЕ ТРАДИЦ. сос п/о мгс 0,6кг_СНГ  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>МОЛОЧНЫЕ ТРАДИЦ. сос п/о мгс 0,6кг_СНГ</t>
+  </si>
+  <si>
+    <t>5982 МОЛОЧНЫЕ ТРАДИЦ. сос п/о мгс 0,6кг_СНГ  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6025 ВЕТЧ.ФИРМЕННАЯ С ИНДЕЙКОЙ п/о   ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>ВЕТЧ.ФИРМЕННАЯ С ИНДЕЙКОЙ п/о</t>
+  </si>
+  <si>
+    <t>6756 ВЕТЧ.ЛЮБИТЕЛЬСКАЯ п/о  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>НЕАПОЛИТАНСКИЙ ДУЭТ с/к с/н мгс 1/90</t>
+  </si>
+  <si>
+    <t>6221 НЕАПОЛИТАНСКИЙ ДУЭТ с/к с/н мгс 1/90  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6025 ВЕТЧ.ФИРМЕННАЯ С ИНДЕЙКОЙ п/о   ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6221 НЕАПОЛИТАНСКИЙ ДУЭТ с/к с/н мгс 1/90  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>3297 СЫТНЫЕ Папа может сар б/о мгс 1*3_СНГ  Останкино</t>
+  </si>
+  <si>
+    <t>СЫТНЫЕ Папа может сар б/о мгс 1*3</t>
+  </si>
+  <si>
+    <t>3812 СОЧНЫЕ сос п/о мгс 2*2  Останкино</t>
+  </si>
+  <si>
+    <t>5159 Нежный пашт п/о 1/150 16шт.   ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>НЕЖНЫЙ пашт п/о 1/150 16шт.</t>
+  </si>
+  <si>
+    <t>5160 Мясной пашт п/о 0,150 ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>МЯСНОЙ пашт п/о 1/150 16шт.</t>
+  </si>
+  <si>
+    <t>5161 Печеночный пашт 0,150 ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>ПЕЧЕНОЧНЫЙ пашт п/о 1/150 16шт.</t>
+  </si>
+  <si>
+    <t>5965 С ИНДЕЙКОЙ Папа может сар б/о мгс 1*3  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>С ИНДЕЙКОЙ Папа может сар б/о мгс 1*3</t>
+  </si>
+  <si>
+    <t>6159 ВРЕМЯ ОЛИВЬЕ Папа может вар п/о  Останкино</t>
+  </si>
+  <si>
+    <t>ВРЕМЯ ОЛИВЬЕ Папа может п/о</t>
+  </si>
+  <si>
+    <t>6217 ШПИКАЧКИ ДОМАШНИЕ СН п/о мгс 0,4кг 8 шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6217 Шпикачки домашние СН п/о 0,4</t>
+  </si>
+  <si>
+    <t>6220 ГОВЯЖЬЯ папа может вар п/о  Останкино</t>
+  </si>
+  <si>
+    <t>ГОВЯЖЬЯ Папа может вар п/о</t>
+  </si>
+  <si>
+    <t>6236 СЛИВОЧНЫЕ ПМ сос п/о мгс 0,45кг 10шт  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>СЛИВОЧНЫЕ ПМ сос п/о мгс 0.450кг_45с</t>
+  </si>
+  <si>
+    <t>6602 БАВАРСКИЕ ПМ сос ц/о мгс 0,35кг 8шт  Останкино</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> БАВАРСКИЕ ПМ сос ц/о мгс 0.35кг 8шт.</t>
+  </si>
+  <si>
+    <t>6656 ГОВЯЖЬИ СН сос п/о мгс 2*2  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>ГОВЯЖЬИ СН сос п/о мгс 2*2</t>
+  </si>
+  <si>
+    <t>6684 СЕРВЕЛАТ КАРЕЛЬСКИЙ ПМ в/к в/у 0,28кг  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6697 СЕРВЕЛАТ ФИНСКИЙ ПМ в/к в/у 0,35кг 8шт  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ ФИНСКИЙ ПМ в/к в/у 0.35кг 8шт.</t>
+  </si>
+  <si>
+    <t>6713 СОЧНЫЙ ГРИЛЬ ПМ сос п/о мгс 0,41кг 8 шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>СОЧНЫЙ ГРИЛЬ ПМ сос п/о мгс 0.41кг 8шт.</t>
+  </si>
+  <si>
+    <t>6716 ОСОБАЯ Коровино ( в сетке) 0,5кг 8шт  Останкино</t>
+  </si>
+  <si>
+    <t>6722 СОЧНЫЕ ПМ сос п/о мгс 0,41кг 10шт  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>СОЧНЫЕ ПМ сос п/о мгс 0.41кг 10шт.</t>
+  </si>
+  <si>
+    <t>6751 СЛИВОЧНЫЕ СН сос п/о мгс 0,41 кг 10шт.  Останкино</t>
+  </si>
+  <si>
+    <t>5819 МЯСНЫЕ Папа может сос п/о в/у 0.4кг_45с</t>
+  </si>
+  <si>
+    <t>МЯСНЫЕ Папа может сос п/о в/у 0.4кг_45с</t>
+  </si>
+  <si>
+    <t>5337 ОСОБАЯ СО ШПИКОМ вар п/о</t>
+  </si>
+  <si>
+    <t>5336 ОСОБАЯ вар п/о</t>
+  </si>
+  <si>
+    <t>5811 СВИНИНА МАДЕРА с/к с/н в/у 1/100 8шт.   ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>5819 Сосиски Папа может 400г Мясные  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6027 ВЕТЧ.ИЗ ЛОПАТКИ Папа может п/о 400*6  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>ВЕТЧ.ИЗ ЛОПАТКИ Папа может п/о 400*6</t>
+  </si>
+  <si>
+    <t>6213 СЕРВЕЛАТ ФИНСКИЙ СН в/к в/у 0,35кг 8шт  Останкино</t>
+  </si>
+  <si>
+    <t>6303 Мясные Папа может сос п/о мгс 1,5*3  Останкино</t>
+  </si>
+  <si>
+    <t>6308 С ИНДЕЙКОЙ ПМ сар б/о мгс 1*3_СНГ  Останкино</t>
+  </si>
+  <si>
+    <t>6392 ФИЛЕЙНАЯ Папа может вар п/о 0,4кг  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6448 Свинина Останкино 100г Мадера с/к в/у нарезка  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6450 БЕКОН с/к с/н в/у 1/100 10шт.</t>
+  </si>
+  <si>
+    <t>6454 АРОМАТНАЯ с/к с/н в/у 1/100 10шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6475 Сосиски Папа может 400г С сыром  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6498 МОЛОЧНАЯ Папа может вар п/о  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>МОЛОЧНАЯ Папа может вар п/о</t>
+  </si>
+  <si>
+    <t>6596 РУССКАЯ СН вар п/о  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> РУССКАЯ СН вар п/о</t>
+  </si>
+  <si>
+    <t>6607 С ГОВЯДИНОЙ ПМ сар б/о мгс 1*3_45с</t>
+  </si>
+  <si>
+    <t>С ГОВЯДИНОЙ ПМ сар б/о мгс 1*3_45с</t>
+  </si>
+  <si>
+    <t>6609 С ГОВЯДИНОЙ ПМ сар б/о мгс 0,4 кг_45с</t>
+  </si>
+  <si>
+    <t>С ГОВЯДИНОЙ ПМ сар б/о мгс 0.4кг_45с</t>
+  </si>
+  <si>
+    <t>6666 БОЯNСКАЯ Папа может п/к в/у 0,28кг 8шт  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6669 ВЕНСКАЯ САЛЯМИ п/к в/у 0,28кг 8шт  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6755 ВЕТЧ.ЛЮБИТЕЛЬСКАЯ п/о 0,4кг 10шт.  Останкино</t>
+  </si>
+  <si>
+    <t>6756 ВЕТЧ.ЛЮБИТЕЛЬСКАЯ п/о  Останкино</t>
+  </si>
+  <si>
+    <t>6550 МЯСНЫЕ Папа может сар б/о мгс  1*3_О_45с</t>
+  </si>
+  <si>
+    <t>МЯСНЫЕ Папа может сар б/о мгс  1*3_О_45с</t>
+  </si>
+  <si>
+    <t>6365 СЕРВЕЛАТ КАРЕЛЬСКИЙ ПМ в/к в/у 0.28кг  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>3248 ДОКТОРСКАЯ ТРАДИЦ. вар п/о ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>ДОКТОРСКАЯ ТРАДИЦ. вар п/о</t>
+  </si>
+  <si>
+    <t>5206 Ладожская с/к в/у ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>ЛАДОЖСКАЯ с/к в/у</t>
+  </si>
+  <si>
+    <t>6586 Мрамарная и Балыковая в/к с/н мгс 1/90  Останкино</t>
+  </si>
+  <si>
+    <t>Мрамарная и Балыковая в/к с/н мгс 1/90</t>
+  </si>
+  <si>
+    <t>6467 БАЛЫКОВАЯ Коровино п/к в/у  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>БАЛЫКОВАЯ Коровино п/к в/у</t>
+  </si>
+  <si>
+    <t>6661 СОЧНЫЙ ГРИЛЬ ПМ сос п/о мгс 1,5*4_Маяк Останкино</t>
+  </si>
+  <si>
+    <t>СОЧНЫЙ ГРИЛЬ ПМ сос п/о мгс 1,5*4_Маяк</t>
+  </si>
+  <si>
+    <t>6701 СЕРВЕЛАТ ШВАРЦЕР ПМ в/к в/у 0.28кг 8шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ ШВАРЦЕР ПМ в/к в/у 0.28кг 8шт.</t>
+  </si>
+  <si>
+    <t>6144МОЛОЧНЫЕ ТРАДИЦ. сос п/о в/у 1/360 (1+1)</t>
+  </si>
+  <si>
+    <t>6144 МОЛОЧНЫЕ ТРАДИЦ. сос п/ов/у 1/360 (1+1)</t>
+  </si>
+  <si>
+    <t>5819МЯСНЫЕ Папа может сос п/о в/у 0.4кг_45с</t>
+  </si>
+  <si>
+    <t>6303 МЯСНЫЕ Папа может сос п/о мгс  1.5*3</t>
+  </si>
+  <si>
+    <t>МЯСНЫЕ Папа может сос п/о мгс  1.5*3</t>
+  </si>
+  <si>
+    <t>3678 СОЧНЫЕ сос п/о мгс 2*2     ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6062 МОЛОЧНЫЕ К ЗАВТРАКУ сос п/о мгс 2*2   ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>МОЛОЧНЫЕ К ЗАВТРАКУ сос п/о мгс 2*2</t>
+  </si>
+  <si>
+    <t>6364 СЕРВЕЛАТ ЗЕРНИСТЫЙ ПМ в/к в/у 0.35кг  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6372 СЕРВЕЛАТ ОХОТНИЧИЙ ПМ в/к в/у 0.35кг 8шт  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6375 СЕРВЕЛАТ ПРИМА в/к в/у 0.28кг 8шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6509 СЕРВЕЛАТ ФИНСКИЙ ПМ в/к в/у 0.35кг 8шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6397 БОЯNСКАЯ Папа может п/к в/у 0.28кг 8шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>МОЛОЧНЫЕ КЛАССИЧЕСКИЕ ПМ сос п/о мгс 2*4</t>
+  </si>
+  <si>
+    <t>4574 Колбаса вар Мясная со шпиком 1кг Папа может п/о (код покуп. 24784) Останкино</t>
+  </si>
+  <si>
+    <t>6734 ОСОБАЯ СО ШПИКОМ Коровино(в сетке) 0,5кг  Останкино</t>
+  </si>
+  <si>
+    <t>5452 ВЕТЧ.МЯСНАЯ Папа может п/о    ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>ВЕТЧ.МЯСНАЯ Папа может п/о</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ОСОБАЯ СО ШПИКОМ Коровино(в сетке) 0.5кг</t>
+  </si>
+  <si>
+    <t>6144 МОЛОЧНЫЕ ТРАДИЦ. сос п/о в/у 1/360 (1+1)  Останкино</t>
+  </si>
+  <si>
+    <t>6225 ИМПЕРСКАЯ И БАЛЫКОВАЯ в/к с/н мгс 1/90  Останкино</t>
+  </si>
+  <si>
+    <t>6400 ВЕНСКАЯ САЛЯМИ п/к в/у 0.28кг 8шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6384 СЕРВЕЛАТ ШВАРЦЕР ПМ в/к в/у 0.28кг 8шт.  ОСТАНКИНО, шт</t>
+  </si>
+  <si>
+    <t>5015 БУРГУНДИЯ с/к в/у 1/250 ОСТАНКИНО, шт</t>
+  </si>
+  <si>
+    <t>БУРГУНДИЯ с/к в/у 1/250 8шт.</t>
+  </si>
+  <si>
     <t>ИМПЕРСКАЯ И БАЛЫКОВАЯ в/к с/н мгс 1/90</t>
-  </si>
-  <si>
-    <t>6225 ИМПЕРСКАЯ И БАЛЫКОВАЯ в/к с/н мгс 1/90  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>МЯСНОЕ АССОРТИ к/з с/н мгс 1/90 10шт.</t>
-  </si>
-  <si>
-    <t>6228 МЯСНОЕ АССОРТИ к/з с/н мгс 1/90 10шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6225 ИМПЕРСКАЯ И БАЛЫКОВАЯ в/к с/н мгс 1/90  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6722 СОЧНЫЕ ПМ сос п/о мгс 0,41кг 10шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>3297 СЫТНЫЕ Папа может сар б/о мгс 1*3 СНГ  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>СЫТНЫЕ Папа может сар б/о мгс 1*3 СНГ</t>
-  </si>
-  <si>
-    <t>3297 СЫТНЫЕ Папа может сар б/о мгс 1*3 СНГ  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6722 СОЧНЫЕ ПМ сос п/о мгс 0,41кг 10шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6726 СЛИВОЧНЫЕ ПМ сос п/о мгс 0.41кг 10шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6602 БАВАРСКИЕ ПМ сос ц/о мгс 0,35кг 8шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БАВАРСКИЕ ПМ сос ц/о мгс 0,35кг 8шт.  </t>
-  </si>
-  <si>
-    <t>БУЖЕНИНА ЗАПЕЧЕННАЯ с/н в/у 1/100 10шт.</t>
-  </si>
-  <si>
-    <t>6233 БУЖЕНИНА ЗАПЕЧЕННАЯ с/н в/у 1/100 10шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6734 ОСОБАЯ СО ШПИКОМ Коровино (в сетке) 0,5кг ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>ОСОБАЯ СО ШПИКОМ Коровино (в сетке) 0,5кг</t>
-  </si>
-  <si>
-    <t>6750 МОЛОЧНЫЕ ГОСТ СН сос п/о мгс 0,41 кг 10шт ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6751 СЛИВОЧНЫЕ СН сос п/о мгс 0,41кг 10шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>5982 МОЛОЧНЫЕ ТРАДИЦ. сос п/о мгс 0,6кг_СНГ  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>МОЛОЧНЫЕ ТРАДИЦ. сос п/о мгс 0,6кг_СНГ</t>
-  </si>
-  <si>
-    <t>5982 МОЛОЧНЫЕ ТРАДИЦ. сос п/о мгс 0,6кг_СНГ  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6025 ВЕТЧ.ФИРМЕННАЯ С ИНДЕЙКОЙ п/о   ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>ВЕТЧ.ФИРМЕННАЯ С ИНДЕЙКОЙ п/о</t>
-  </si>
-  <si>
-    <t>6756 ВЕТЧ.ЛЮБИТЕЛЬСКАЯ п/о  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>НЕАПОЛИТАНСКИЙ ДУЭТ с/к с/н мгс 1/90</t>
-  </si>
-  <si>
-    <t>6221 НЕАПОЛИТАНСКИЙ ДУЭТ с/к с/н мгс 1/90  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6025 ВЕТЧ.ФИРМЕННАЯ С ИНДЕЙКОЙ п/о   ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6221 НЕАПОЛИТАНСКИЙ ДУЭТ с/к с/н мгс 1/90  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>3297 СЫТНЫЕ Папа может сар б/о мгс 1*3_СНГ  Останкино</t>
-  </si>
-  <si>
-    <t>СЫТНЫЕ Папа может сар б/о мгс 1*3</t>
-  </si>
-  <si>
-    <t>3812 СОЧНЫЕ сос п/о мгс 2*2  Останкино</t>
-  </si>
-  <si>
-    <t>5159 Нежный пашт п/о 1/150 16шт.   ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>НЕЖНЫЙ пашт п/о 1/150 16шт.</t>
-  </si>
-  <si>
-    <t>5160 Мясной пашт п/о 0,150 ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>МЯСНОЙ пашт п/о 1/150 16шт.</t>
-  </si>
-  <si>
-    <t>5161 Печеночный пашт 0,150 ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>ПЕЧЕНОЧНЫЙ пашт п/о 1/150 16шт.</t>
-  </si>
-  <si>
-    <t>5965 С ИНДЕЙКОЙ Папа может сар б/о мгс 1*3  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>С ИНДЕЙКОЙ Папа может сар б/о мгс 1*3</t>
-  </si>
-  <si>
-    <t>6159 ВРЕМЯ ОЛИВЬЕ Папа может вар п/о  Останкино</t>
-  </si>
-  <si>
-    <t>ВРЕМЯ ОЛИВЬЕ Папа может п/о</t>
-  </si>
-  <si>
-    <t>6217 ШПИКАЧКИ ДОМАШНИЕ СН п/о мгс 0,4кг 8 шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6217 Шпикачки домашние СН п/о 0,4</t>
-  </si>
-  <si>
-    <t>6220 ГОВЯЖЬЯ папа может вар п/о  Останкино</t>
-  </si>
-  <si>
-    <t>ГОВЯЖЬЯ Папа может вар п/о</t>
-  </si>
-  <si>
-    <t>6236 СЛИВОЧНЫЕ ПМ сос п/о мгс 0,45кг 10шт  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>СЛИВОЧНЫЕ ПМ сос п/о мгс 0.450кг_45с</t>
-  </si>
-  <si>
-    <t>6602 БАВАРСКИЕ ПМ сос ц/о мгс 0,35кг 8шт  Останкино</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> БАВАРСКИЕ ПМ сос ц/о мгс 0.35кг 8шт.</t>
-  </si>
-  <si>
-    <t>6656 ГОВЯЖЬИ СН сос п/о мгс 2*2  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>ГОВЯЖЬИ СН сос п/о мгс 2*2</t>
-  </si>
-  <si>
-    <t>6684 СЕРВЕЛАТ КАРЕЛЬСКИЙ ПМ в/к в/у 0,28кг  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6697 СЕРВЕЛАТ ФИНСКИЙ ПМ в/к в/у 0,35кг 8шт  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>СЕРВЕЛАТ ФИНСКИЙ ПМ в/к в/у 0.35кг 8шт.</t>
-  </si>
-  <si>
-    <t>6713 СОЧНЫЙ ГРИЛЬ ПМ сос п/о мгс 0,41кг 8 шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>СОЧНЫЙ ГРИЛЬ ПМ сос п/о мгс 0.41кг 8шт.</t>
-  </si>
-  <si>
-    <t>6716 ОСОБАЯ Коровино ( в сетке) 0,5кг 8шт  Останкино</t>
-  </si>
-  <si>
-    <t>6722 СОЧНЫЕ ПМ сос п/о мгс 0,41кг 10шт  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>СОЧНЫЕ ПМ сос п/о мгс 0.41кг 10шт.</t>
-  </si>
-  <si>
-    <t>6751 СЛИВОЧНЫЕ СН сос п/о мгс 0,41 кг 10шт.  Останкино</t>
-  </si>
-  <si>
-    <t>5819 МЯСНЫЕ Папа может сос п/о в/у 0.4кг_45с</t>
-  </si>
-  <si>
-    <t>МЯСНЫЕ Папа может сос п/о в/у 0.4кг_45с</t>
-  </si>
-  <si>
-    <t>5337 ОСОБАЯ СО ШПИКОМ вар п/о</t>
-  </si>
-  <si>
-    <t>5336 ОСОБАЯ вар п/о</t>
-  </si>
-  <si>
-    <t>5811 СВИНИНА МАДЕРА с/к с/н в/у 1/100 8шт.   ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>5819 Сосиски Папа может 400г Мясные  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6027 ВЕТЧ.ИЗ ЛОПАТКИ Папа может п/о 400*6  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>ВЕТЧ.ИЗ ЛОПАТКИ Папа может п/о 400*6</t>
-  </si>
-  <si>
-    <t>6213 СЕРВЕЛАТ ФИНСКИЙ СН в/к в/у 0,35кг 8шт  Останкино</t>
-  </si>
-  <si>
-    <t>6303 Мясные Папа может сос п/о мгс 1,5*3  Останкино</t>
-  </si>
-  <si>
-    <t>МЯСНЫЕ Папа может сос п/о мгс 1*3_45с</t>
-  </si>
-  <si>
-    <t>6308 С ИНДЕЙКОЙ ПМ сар б/о мгс 1*3_СНГ  Останкино</t>
-  </si>
-  <si>
-    <t>6392 ФИЛЕЙНАЯ Папа может вар п/о 0,4кг  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6448 Свинина Останкино 100г Мадера с/к в/у нарезка  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6450 БЕКОН с/к с/н в/у 1/100 10шт.</t>
-  </si>
-  <si>
-    <t>6454 АРОМАТНАЯ с/к с/н в/у 1/100 10шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6475 Сосиски Папа может 400г С сыром  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6498 МОЛОЧНАЯ Папа может вар п/о  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>МОЛОЧНАЯ Папа может вар п/о</t>
-  </si>
-  <si>
-    <t>6596 РУССКАЯ СН вар п/о  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> РУССКАЯ СН вар п/о</t>
-  </si>
-  <si>
-    <t>6607 С ГОВЯДИНОЙ ПМ сар б/о мгс 1*3_45с</t>
-  </si>
-  <si>
-    <t>С ГОВЯДИНОЙ ПМ сар б/о мгс 1*3_45с</t>
-  </si>
-  <si>
-    <t>6609 С ГОВЯДИНОЙ ПМ сар б/о мгс 0,4 кг_45с</t>
-  </si>
-  <si>
-    <t>С ГОВЯДИНОЙ ПМ сар б/о мгс 0.4кг_45с</t>
-  </si>
-  <si>
-    <t>6666 БОЯNСКАЯ Папа может п/к в/у 0,28кг 8шт  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6669 ВЕНСКАЯ САЛЯМИ п/к в/у 0,28кг 8шт  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6755 ВЕТЧ.ЛЮБИТЕЛЬСКАЯ п/о 0,4кг 10шт.  Останкино</t>
-  </si>
-  <si>
-    <t>6756 ВЕТЧ.ЛЮБИТЕЛЬСКАЯ п/о  Останкино</t>
-  </si>
-  <si>
-    <t>6550 МЯСНЫЕ Папа может сар б/о мгс  1*3_О_45с</t>
-  </si>
-  <si>
-    <t>МЯСНЫЕ Папа может сар б/о мгс  1*3_О_45с</t>
-  </si>
-  <si>
-    <t>6365 СЕРВЕЛАТ КАРЕЛЬСКИЙ ПМ в/к в/у 0.28кг  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>3248 ДОКТОРСКАЯ ТРАДИЦ. вар п/о ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>ДОКТОРСКАЯ ТРАДИЦ. вар п/о</t>
-  </si>
-  <si>
-    <t>5206 Ладожская с/к в/у ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>ЛАДОЖСКАЯ с/к в/у</t>
-  </si>
-  <si>
-    <t>6586 Мрамарная и Балыковая в/к с/н мгс 1/90  Останкино</t>
-  </si>
-  <si>
-    <t>Мрамарная и Балыковая в/к с/н мгс 1/90</t>
-  </si>
-  <si>
-    <t>6467 БАЛЫКОВАЯ Коровино п/к в/у  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>БАЛЫКОВАЯ Коровино п/к в/у</t>
-  </si>
-  <si>
-    <t>6661 СОЧНЫЙ ГРИЛЬ ПМ сос п/о мгс 1,5*4_Маяк Останкино</t>
-  </si>
-  <si>
-    <t>СОЧНЫЙ ГРИЛЬ ПМ сос п/о мгс 1,5*4_Маяк</t>
-  </si>
-  <si>
-    <t>6701 СЕРВЕЛАТ ШВАРЦЕР ПМ в/к в/у 0.28кг 8шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>СЕРВЕЛАТ ШВАРЦЕР ПМ в/к в/у 0.28кг 8шт.</t>
-  </si>
-  <si>
-    <t>6144МОЛОЧНЫЕ ТРАДИЦ. сос п/о в/у 1/360 (1+1)</t>
-  </si>
-  <si>
-    <t>6144 МОЛОЧНЫЕ ТРАДИЦ. сос п/ов/у 1/360 (1+1)</t>
-  </si>
-  <si>
-    <t>5819МЯСНЫЕ Папа может сос п/о в/у 0.4кг_45с</t>
-  </si>
-  <si>
-    <t>6303 МЯСНЫЕ Папа может сос п/о мгс  1.5*3</t>
-  </si>
-  <si>
-    <t>МЯСНЫЕ Папа может сос п/о мгс  1.5*3</t>
-  </si>
-  <si>
-    <t>3678 СОЧНЫЕ сос п/о мгс 2*2     ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6062 МОЛОЧНЫЕ К ЗАВТРАКУ сос п/о мгс 2*2   ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>МОЛОЧНЫЕ К ЗАВТРАКУ сос п/о мгс 2*2</t>
-  </si>
-  <si>
-    <t>6364 СЕРВЕЛАТ ЗЕРНИСТЫЙ ПМ в/к в/у 0.35кг  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>СЕРВЕЛАТ ЗЕРНИСТЫЙ ПМ в/к в/у 0.35кг</t>
-  </si>
-  <si>
-    <t>6372 СЕРВЕЛАТ ОХОТНИЧИЙ ПМ в/к в/у 0.35кг 8шт  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6375 СЕРВЕЛАТ ПРИМА в/к в/у 0.28кг 8шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6509 СЕРВЕЛАТ ФИНСКИЙ ПМ в/к в/у 0.35кг 8шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6397 БОЯNСКАЯ Папа может п/к в/у 0.28кг 8шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>МОЛОЧНЫЕ КЛАССИЧЕСКИЕ ПМ сос п/о мгс 2*4</t>
   </si>
 </sst>
 </file>
@@ -1274,11 +1298,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C169"/>
+  <dimension ref="A1:C176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1378,7 +1402,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B9" s="3">
         <v>6756</v>
@@ -1582,7 +1606,7 @@
         <v>1001024976123</v>
       </c>
       <c r="C27" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -2305,7 +2329,7 @@
         <v>180</v>
       </c>
       <c r="B93" s="3">
-        <v>6225</v>
+        <v>6228</v>
       </c>
       <c r="C93" t="s">
         <v>179</v>
@@ -2313,29 +2337,29 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B94" s="3">
-        <v>6228</v>
+        <v>6225</v>
       </c>
       <c r="C94" t="s">
-        <v>181</v>
+        <v>306</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B95" s="3">
-        <v>6225</v>
+        <v>1001022376722</v>
       </c>
       <c r="C95" t="s">
-        <v>179</v>
+        <v>135</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B96" s="3">
         <v>1001022376722</v>
@@ -2346,13 +2370,13 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B97" s="3">
-        <v>1001022376722</v>
+        <v>3297</v>
       </c>
       <c r="C97" t="s">
-        <v>135</v>
+        <v>184</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -2363,7 +2387,7 @@
         <v>3297</v>
       </c>
       <c r="C98" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -2371,59 +2395,59 @@
         <v>187</v>
       </c>
       <c r="B99" s="3">
-        <v>3297</v>
+        <v>1001022466726</v>
       </c>
       <c r="C99" t="s">
-        <v>186</v>
+        <v>123</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B100" s="3">
+        <v>6602</v>
+      </c>
+      <c r="C100" t="s">
         <v>189</v>
-      </c>
-      <c r="B100" s="3">
-        <v>1001022466726</v>
-      </c>
-      <c r="C100" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B101" s="3">
+        <v>6233</v>
+      </c>
+      <c r="C101" t="s">
         <v>190</v>
-      </c>
-      <c r="B101" s="3">
-        <v>6602</v>
-      </c>
-      <c r="C101" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>193</v>
+        <v>296</v>
       </c>
       <c r="B102" s="3">
-        <v>6233</v>
+        <v>6734</v>
       </c>
       <c r="C102" t="s">
-        <v>192</v>
+        <v>299</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B103" s="3">
         <v>6734</v>
       </c>
       <c r="C103" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B104" s="3">
         <v>6750</v>
@@ -2434,7 +2458,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B105" s="3">
         <v>6751</v>
@@ -2445,84 +2469,84 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B106" s="3">
         <v>5982</v>
       </c>
       <c r="C106" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B107" s="3">
         <v>5982</v>
       </c>
       <c r="C107" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B108" s="3">
         <v>6025</v>
       </c>
       <c r="C108" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B109" s="3">
         <v>6025</v>
       </c>
       <c r="C109" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B110" s="3">
         <v>6221</v>
       </c>
       <c r="C110" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B111" s="3">
         <v>6221</v>
       </c>
       <c r="C111" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B112" s="3">
         <v>1001034063297</v>
       </c>
       <c r="C112" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B113" s="3">
         <v>3812</v>
@@ -2533,117 +2557,117 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B114" s="3">
         <v>1001100605159</v>
       </c>
       <c r="C114" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B115" s="3">
         <v>1001100615160</v>
       </c>
       <c r="C115" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B116" s="3">
         <v>1001100625161</v>
       </c>
       <c r="C116" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B117" s="3">
         <v>1001035026308</v>
       </c>
       <c r="C117" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B118" s="3">
         <v>6159</v>
       </c>
       <c r="C118" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B119" s="3">
         <v>6217</v>
       </c>
       <c r="C119" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B120" s="3">
         <v>6220</v>
       </c>
       <c r="C120" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B121" s="3">
         <v>1001022466236</v>
       </c>
       <c r="C121" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B122" s="3">
         <v>6602</v>
       </c>
       <c r="C122" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B123" s="3">
         <v>1001022296656</v>
       </c>
       <c r="C123" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B124" s="3">
         <v>1001304506684</v>
@@ -2654,29 +2678,29 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B125" s="3">
         <v>1001301876697</v>
       </c>
       <c r="C125" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B126" s="3">
         <v>1001022246713</v>
       </c>
       <c r="C126" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B127" s="3">
         <v>6716</v>
@@ -2687,18 +2711,18 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B128" s="3">
         <v>1001022376722</v>
       </c>
       <c r="C128" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B129" s="3">
         <v>6751</v>
@@ -2709,18 +2733,18 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B130" s="3">
         <v>1001022725819</v>
       </c>
       <c r="C130" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B131" s="3">
         <v>1001012825337</v>
@@ -2731,7 +2755,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B132" s="3">
         <v>1001012815336</v>
@@ -2742,7 +2766,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B133" s="3">
         <v>1001234146448</v>
@@ -2753,29 +2777,29 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B134" s="3">
         <v>1001022725819</v>
       </c>
       <c r="C134" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B135" s="3">
         <v>1001092676027</v>
       </c>
       <c r="C135" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B136" s="3">
         <v>1001301876213</v>
@@ -2786,29 +2810,29 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B137" s="3">
         <v>1001022726303</v>
       </c>
       <c r="C137" t="s">
-        <v>250</v>
+        <v>285</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B138" s="3">
         <v>1001035026308</v>
       </c>
       <c r="C138" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B139" s="3">
         <v>1001012566392</v>
@@ -2819,7 +2843,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B140" s="3">
         <v>1001234146448</v>
@@ -2830,7 +2854,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B141" s="3">
         <v>1001233296450</v>
@@ -2841,7 +2865,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B142" s="3">
         <v>1001201976454</v>
@@ -2852,7 +2876,7 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B143" s="3">
         <v>1001025176475</v>
@@ -2863,51 +2887,51 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B144" s="3">
         <v>1001012456498</v>
       </c>
       <c r="C144" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B145" s="3">
         <v>1001010036596</v>
       </c>
       <c r="C145" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B146" s="3">
         <v>1001033856607</v>
       </c>
       <c r="C146" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B147" s="3">
         <v>1001033856609</v>
       </c>
       <c r="C147" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B148" s="3">
         <v>1001302276666</v>
@@ -2918,7 +2942,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B149" s="3">
         <v>1001300516669</v>
@@ -2929,7 +2953,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B150" s="3">
         <v>1001092444611</v>
@@ -2940,7 +2964,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B151" s="3">
         <v>1001092444614</v>
@@ -2951,18 +2975,18 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B152" s="3">
         <v>6550</v>
       </c>
       <c r="C152" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B153" s="3">
         <v>1001304506684</v>
@@ -2973,106 +2997,106 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B154" s="3">
         <v>1001010113248</v>
       </c>
       <c r="C154" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B155" s="3">
         <v>1001063925206</v>
       </c>
       <c r="C155" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B156" s="3">
         <v>6586</v>
       </c>
       <c r="C156" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B157" s="3">
         <v>1001303636467</v>
       </c>
       <c r="C157" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B158" s="3">
         <v>1001022246661</v>
       </c>
       <c r="C158" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B159" s="3">
         <v>1001304496701</v>
       </c>
       <c r="C159" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B160" s="3">
         <v>6144</v>
       </c>
       <c r="C160" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B161" s="3">
         <v>1001022725819</v>
       </c>
       <c r="C161" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B162" s="3">
         <v>1001022726303</v>
       </c>
       <c r="C162" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B163" s="3">
         <v>3812</v>
@@ -3083,29 +3107,29 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B164" s="3">
         <v>1001024906062</v>
       </c>
       <c r="C164" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B165" s="3">
         <v>1001300386683</v>
       </c>
       <c r="C165" t="s">
-        <v>293</v>
+        <v>87</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B166" s="3">
         <v>1001303986689</v>
@@ -3116,7 +3140,7 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B167" s="3">
         <v>1001303056692</v>
@@ -3127,18 +3151,18 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B168" s="3">
         <v>1001301876697</v>
       </c>
       <c r="C168" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B169" s="3">
         <v>1001302276666</v>
@@ -3147,8 +3171,85 @@
         <v>68</v>
       </c>
     </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B170" s="3">
+        <v>1001012634574</v>
+      </c>
+      <c r="C170" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B171" s="3">
+        <v>1001092485452</v>
+      </c>
+      <c r="C171" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B172" s="3">
+        <v>6144</v>
+      </c>
+      <c r="C172" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B173" s="3">
+        <v>6586</v>
+      </c>
+      <c r="C173" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B174" s="3">
+        <v>1001300516669</v>
+      </c>
+      <c r="C174" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B175" s="3">
+        <v>1001304496701</v>
+      </c>
+      <c r="C175" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B176" s="3">
+        <v>1001063655015</v>
+      </c>
+      <c r="C176" t="s">
+        <v>305</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C169" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
+  <autoFilter ref="A1:C176" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/moduls/1С.xlsx
+++ b/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\Останкино КИ\ostankino_ki\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{111F03FC-E578-4C66-B118-2CEE886E1D8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF758F78-1164-41F1-BAB5-CDDAA19910F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="311">
   <si>
     <t>1С</t>
   </si>
@@ -955,6 +955,18 @@
   </si>
   <si>
     <t>ИМПЕРСКАЯ И БАЛЫКОВАЯ в/к с/н мгс 1/90</t>
+  </si>
+  <si>
+    <t>3287 САЛЯМИ ИТАЛЬЯНСКАЯ с/к в/у ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>САЛЯМИ ИТАЛЬЯНСКАЯ с/к в/у</t>
+  </si>
+  <si>
+    <t>6228 МЯСНОЕ АССОРТИ к/з с/н мгс 1/90 10шт  Останкино</t>
+  </si>
+  <si>
+    <t>6550 МЯСНЫЕ Папа может сар б/о мгс 1*3 О 45с  Останкино</t>
   </si>
 </sst>
 </file>
@@ -1298,11 +1310,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C176"/>
+  <dimension ref="A1:C179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A182" sqref="A182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3248,6 +3260,39 @@
         <v>305</v>
       </c>
     </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B177" s="3">
+        <v>1001060763287</v>
+      </c>
+      <c r="C177" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B178" s="3">
+        <v>6228</v>
+      </c>
+      <c r="C178" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B179" s="3">
+        <v>6550</v>
+      </c>
+      <c r="C179" t="s">
+        <v>267</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C176" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/moduls/1С.xlsx
+++ b/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\Останкино КИ\ostankino_ki\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF758F78-1164-41F1-BAB5-CDDAA19910F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BDEA0A9-D360-4258-8C49-9F72F1986C7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="317">
   <si>
     <t>1С</t>
   </si>
@@ -967,6 +967,24 @@
   </si>
   <si>
     <t>6550 МЯСНЫЕ Папа может сар б/о мгс 1*3 О 45с  Останкино</t>
+  </si>
+  <si>
+    <t>6758 СЕРВЕЛАТ КОПЧЕНЫЙ п/к в/у 0,31кг 8шт  Останкино</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ КОПЧЕНЫЙ п/к в/у 0,31кг 8шт</t>
+  </si>
+  <si>
+    <t>5976 МОЛОЧНЫЕ ТРАДИЦ. сос п/о в/у 1/350_45с  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>МОЛОЧНЫЕ ТРАДИЦ. сос п/о в/у 1/350_45с</t>
+  </si>
+  <si>
+    <t>6586 МРАМОРНАЯ И БАЛЫКОВАЯ в/к с/н мгс 1/90 ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>МРАМОРНАЯ И БАЛЫКОВАЯ в/к с/н мгс 1/90</t>
   </si>
 </sst>
 </file>
@@ -1310,11 +1328,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C179"/>
+  <dimension ref="A1:C182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A182" sqref="A182"/>
+      <selection pane="bottomLeft" activeCell="B185" sqref="B185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3293,6 +3311,39 @@
         <v>267</v>
       </c>
     </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B180" s="3">
+        <v>6758</v>
+      </c>
+      <c r="C180" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B181" s="3">
+        <v>5976</v>
+      </c>
+      <c r="C181" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B182" s="3">
+        <v>6586</v>
+      </c>
+      <c r="C182" t="s">
+        <v>316</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C176" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/moduls/1С.xlsx
+++ b/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\Останкино КИ\ostankino_ki\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BDEA0A9-D360-4258-8C49-9F72F1986C7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95B4005B-90E6-41CA-9235-3EA557DAAC8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$176</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$184</definedName>
   </definedNames>
   <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="322">
   <si>
     <t>1С</t>
   </si>
@@ -603,388 +603,403 @@
     <t>6602 БАВАРСКИЕ ПМ сос ц/о мгс 0,35кг 8шт.  ОСТАНКИНО</t>
   </si>
   <si>
+    <t>БУЖЕНИНА ЗАПЕЧЕННАЯ с/н в/у 1/100 10шт.</t>
+  </si>
+  <si>
+    <t>6233 БУЖЕНИНА ЗАПЕЧЕННАЯ с/н в/у 1/100 10шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6734 ОСОБАЯ СО ШПИКОМ Коровино (в сетке) 0,5кг ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>ОСОБАЯ СО ШПИКОМ Коровино (в сетке) 0,5кг</t>
+  </si>
+  <si>
+    <t>6750 МОЛОЧНЫЕ ГОСТ СН сос п/о мгс 0,41 кг 10шт ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6751 СЛИВОЧНЫЕ СН сос п/о мгс 0,41кг 10шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>5982 МОЛОЧНЫЕ ТРАДИЦ. сос п/о мгс 0,6кг_СНГ  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>МОЛОЧНЫЕ ТРАДИЦ. сос п/о мгс 0,6кг_СНГ</t>
+  </si>
+  <si>
+    <t>5982 МОЛОЧНЫЕ ТРАДИЦ. сос п/о мгс 0,6кг_СНГ  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6025 ВЕТЧ.ФИРМЕННАЯ С ИНДЕЙКОЙ п/о   ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>ВЕТЧ.ФИРМЕННАЯ С ИНДЕЙКОЙ п/о</t>
+  </si>
+  <si>
+    <t>6756 ВЕТЧ.ЛЮБИТЕЛЬСКАЯ п/о  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>НЕАПОЛИТАНСКИЙ ДУЭТ с/к с/н мгс 1/90</t>
+  </si>
+  <si>
+    <t>6221 НЕАПОЛИТАНСКИЙ ДУЭТ с/к с/н мгс 1/90  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6025 ВЕТЧ.ФИРМЕННАЯ С ИНДЕЙКОЙ п/о   ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6221 НЕАПОЛИТАНСКИЙ ДУЭТ с/к с/н мгс 1/90  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>3297 СЫТНЫЕ Папа может сар б/о мгс 1*3_СНГ  Останкино</t>
+  </si>
+  <si>
+    <t>СЫТНЫЕ Папа может сар б/о мгс 1*3</t>
+  </si>
+  <si>
+    <t>3812 СОЧНЫЕ сос п/о мгс 2*2  Останкино</t>
+  </si>
+  <si>
+    <t>5159 Нежный пашт п/о 1/150 16шт.   ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>НЕЖНЫЙ пашт п/о 1/150 16шт.</t>
+  </si>
+  <si>
+    <t>5160 Мясной пашт п/о 0,150 ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>МЯСНОЙ пашт п/о 1/150 16шт.</t>
+  </si>
+  <si>
+    <t>5161 Печеночный пашт 0,150 ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>ПЕЧЕНОЧНЫЙ пашт п/о 1/150 16шт.</t>
+  </si>
+  <si>
+    <t>5965 С ИНДЕЙКОЙ Папа может сар б/о мгс 1*3  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>С ИНДЕЙКОЙ Папа может сар б/о мгс 1*3</t>
+  </si>
+  <si>
+    <t>6159 ВРЕМЯ ОЛИВЬЕ Папа может вар п/о  Останкино</t>
+  </si>
+  <si>
+    <t>ВРЕМЯ ОЛИВЬЕ Папа может п/о</t>
+  </si>
+  <si>
+    <t>6217 ШПИКАЧКИ ДОМАШНИЕ СН п/о мгс 0,4кг 8 шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6217 Шпикачки домашние СН п/о 0,4</t>
+  </si>
+  <si>
+    <t>6220 ГОВЯЖЬЯ папа может вар п/о  Останкино</t>
+  </si>
+  <si>
+    <t>ГОВЯЖЬЯ Папа может вар п/о</t>
+  </si>
+  <si>
+    <t>6236 СЛИВОЧНЫЕ ПМ сос п/о мгс 0,45кг 10шт  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>СЛИВОЧНЫЕ ПМ сос п/о мгс 0.450кг_45с</t>
+  </si>
+  <si>
+    <t>6602 БАВАРСКИЕ ПМ сос ц/о мгс 0,35кг 8шт  Останкино</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> БАВАРСКИЕ ПМ сос ц/о мгс 0.35кг 8шт.</t>
+  </si>
+  <si>
+    <t>6656 ГОВЯЖЬИ СН сос п/о мгс 2*2  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>ГОВЯЖЬИ СН сос п/о мгс 2*2</t>
+  </si>
+  <si>
+    <t>6684 СЕРВЕЛАТ КАРЕЛЬСКИЙ ПМ в/к в/у 0,28кг  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6697 СЕРВЕЛАТ ФИНСКИЙ ПМ в/к в/у 0,35кг 8шт  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ ФИНСКИЙ ПМ в/к в/у 0.35кг 8шт.</t>
+  </si>
+  <si>
+    <t>6713 СОЧНЫЙ ГРИЛЬ ПМ сос п/о мгс 0,41кг 8 шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>СОЧНЫЙ ГРИЛЬ ПМ сос п/о мгс 0.41кг 8шт.</t>
+  </si>
+  <si>
+    <t>6716 ОСОБАЯ Коровино ( в сетке) 0,5кг 8шт  Останкино</t>
+  </si>
+  <si>
+    <t>6722 СОЧНЫЕ ПМ сос п/о мгс 0,41кг 10шт  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>СОЧНЫЕ ПМ сос п/о мгс 0.41кг 10шт.</t>
+  </si>
+  <si>
+    <t>6751 СЛИВОЧНЫЕ СН сос п/о мгс 0,41 кг 10шт.  Останкино</t>
+  </si>
+  <si>
+    <t>5819 МЯСНЫЕ Папа может сос п/о в/у 0.4кг_45с</t>
+  </si>
+  <si>
+    <t>МЯСНЫЕ Папа может сос п/о в/у 0.4кг_45с</t>
+  </si>
+  <si>
+    <t>5337 ОСОБАЯ СО ШПИКОМ вар п/о</t>
+  </si>
+  <si>
+    <t>5336 ОСОБАЯ вар п/о</t>
+  </si>
+  <si>
+    <t>5811 СВИНИНА МАДЕРА с/к с/н в/у 1/100 8шт.   ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>5819 Сосиски Папа может 400г Мясные  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6027 ВЕТЧ.ИЗ ЛОПАТКИ Папа может п/о 400*6  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>ВЕТЧ.ИЗ ЛОПАТКИ Папа может п/о 400*6</t>
+  </si>
+  <si>
+    <t>6213 СЕРВЕЛАТ ФИНСКИЙ СН в/к в/у 0,35кг 8шт  Останкино</t>
+  </si>
+  <si>
+    <t>6303 Мясные Папа может сос п/о мгс 1,5*3  Останкино</t>
+  </si>
+  <si>
+    <t>6308 С ИНДЕЙКОЙ ПМ сар б/о мгс 1*3_СНГ  Останкино</t>
+  </si>
+  <si>
+    <t>6392 ФИЛЕЙНАЯ Папа может вар п/о 0,4кг  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6448 Свинина Останкино 100г Мадера с/к в/у нарезка  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6450 БЕКОН с/к с/н в/у 1/100 10шт.</t>
+  </si>
+  <si>
+    <t>6454 АРОМАТНАЯ с/к с/н в/у 1/100 10шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6475 Сосиски Папа может 400г С сыром  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6498 МОЛОЧНАЯ Папа может вар п/о  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>МОЛОЧНАЯ Папа может вар п/о</t>
+  </si>
+  <si>
+    <t>6596 РУССКАЯ СН вар п/о  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> РУССКАЯ СН вар п/о</t>
+  </si>
+  <si>
+    <t>6607 С ГОВЯДИНОЙ ПМ сар б/о мгс 1*3_45с</t>
+  </si>
+  <si>
+    <t>С ГОВЯДИНОЙ ПМ сар б/о мгс 1*3_45с</t>
+  </si>
+  <si>
+    <t>6609 С ГОВЯДИНОЙ ПМ сар б/о мгс 0,4 кг_45с</t>
+  </si>
+  <si>
+    <t>С ГОВЯДИНОЙ ПМ сар б/о мгс 0.4кг_45с</t>
+  </si>
+  <si>
+    <t>6666 БОЯNСКАЯ Папа может п/к в/у 0,28кг 8шт  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6669 ВЕНСКАЯ САЛЯМИ п/к в/у 0,28кг 8шт  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6755 ВЕТЧ.ЛЮБИТЕЛЬСКАЯ п/о 0,4кг 10шт.  Останкино</t>
+  </si>
+  <si>
+    <t>6756 ВЕТЧ.ЛЮБИТЕЛЬСКАЯ п/о  Останкино</t>
+  </si>
+  <si>
+    <t>6550 МЯСНЫЕ Папа может сар б/о мгс  1*3_О_45с</t>
+  </si>
+  <si>
+    <t>МЯСНЫЕ Папа может сар б/о мгс  1*3_О_45с</t>
+  </si>
+  <si>
+    <t>6365 СЕРВЕЛАТ КАРЕЛЬСКИЙ ПМ в/к в/у 0.28кг  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>3248 ДОКТОРСКАЯ ТРАДИЦ. вар п/о ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>ДОКТОРСКАЯ ТРАДИЦ. вар п/о</t>
+  </si>
+  <si>
+    <t>5206 Ладожская с/к в/у ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>ЛАДОЖСКАЯ с/к в/у</t>
+  </si>
+  <si>
+    <t>6586 Мрамарная и Балыковая в/к с/н мгс 1/90  Останкино</t>
+  </si>
+  <si>
+    <t>Мрамарная и Балыковая в/к с/н мгс 1/90</t>
+  </si>
+  <si>
+    <t>6467 БАЛЫКОВАЯ Коровино п/к в/у  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>БАЛЫКОВАЯ Коровино п/к в/у</t>
+  </si>
+  <si>
+    <t>6661 СОЧНЫЙ ГРИЛЬ ПМ сос п/о мгс 1,5*4_Маяк Останкино</t>
+  </si>
+  <si>
+    <t>СОЧНЫЙ ГРИЛЬ ПМ сос п/о мгс 1,5*4_Маяк</t>
+  </si>
+  <si>
+    <t>6701 СЕРВЕЛАТ ШВАРЦЕР ПМ в/к в/у 0.28кг 8шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ ШВАРЦЕР ПМ в/к в/у 0.28кг 8шт.</t>
+  </si>
+  <si>
+    <t>6144МОЛОЧНЫЕ ТРАДИЦ. сос п/о в/у 1/360 (1+1)</t>
+  </si>
+  <si>
+    <t>6144 МОЛОЧНЫЕ ТРАДИЦ. сос п/ов/у 1/360 (1+1)</t>
+  </si>
+  <si>
+    <t>5819МЯСНЫЕ Папа может сос п/о в/у 0.4кг_45с</t>
+  </si>
+  <si>
+    <t>6303 МЯСНЫЕ Папа может сос п/о мгс  1.5*3</t>
+  </si>
+  <si>
+    <t>МЯСНЫЕ Папа может сос п/о мгс  1.5*3</t>
+  </si>
+  <si>
+    <t>3678 СОЧНЫЕ сос п/о мгс 2*2     ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6062 МОЛОЧНЫЕ К ЗАВТРАКУ сос п/о мгс 2*2   ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>МОЛОЧНЫЕ К ЗАВТРАКУ сос п/о мгс 2*2</t>
+  </si>
+  <si>
+    <t>6364 СЕРВЕЛАТ ЗЕРНИСТЫЙ ПМ в/к в/у 0.35кг  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6372 СЕРВЕЛАТ ОХОТНИЧИЙ ПМ в/к в/у 0.35кг 8шт  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6375 СЕРВЕЛАТ ПРИМА в/к в/у 0.28кг 8шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6509 СЕРВЕЛАТ ФИНСКИЙ ПМ в/к в/у 0.35кг 8шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6397 БОЯNСКАЯ Папа может п/к в/у 0.28кг 8шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>МОЛОЧНЫЕ КЛАССИЧЕСКИЕ ПМ сос п/о мгс 2*4</t>
+  </si>
+  <si>
+    <t>4574 Колбаса вар Мясная со шпиком 1кг Папа может п/о (код покуп. 24784) Останкино</t>
+  </si>
+  <si>
+    <t>6734 ОСОБАЯ СО ШПИКОМ Коровино(в сетке) 0,5кг  Останкино</t>
+  </si>
+  <si>
+    <t>5452 ВЕТЧ.МЯСНАЯ Папа может п/о    ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>ВЕТЧ.МЯСНАЯ Папа может п/о</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ОСОБАЯ СО ШПИКОМ Коровино(в сетке) 0.5кг</t>
+  </si>
+  <si>
+    <t>6144 МОЛОЧНЫЕ ТРАДИЦ. сос п/о в/у 1/360 (1+1)  Останкино</t>
+  </si>
+  <si>
+    <t>6225 ИМПЕРСКАЯ И БАЛЫКОВАЯ в/к с/н мгс 1/90  Останкино</t>
+  </si>
+  <si>
+    <t>6400 ВЕНСКАЯ САЛЯМИ п/к в/у 0.28кг 8шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6384 СЕРВЕЛАТ ШВАРЦЕР ПМ в/к в/у 0.28кг 8шт.  ОСТАНКИНО, шт</t>
+  </si>
+  <si>
+    <t>5015 БУРГУНДИЯ с/к в/у 1/250 ОСТАНКИНО, шт</t>
+  </si>
+  <si>
+    <t>БУРГУНДИЯ с/к в/у 1/250 8шт.</t>
+  </si>
+  <si>
+    <t>ИМПЕРСКАЯ И БАЛЫКОВАЯ в/к с/н мгс 1/90</t>
+  </si>
+  <si>
+    <t>3287 САЛЯМИ ИТАЛЬЯНСКАЯ с/к в/у ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>САЛЯМИ ИТАЛЬЯНСКАЯ с/к в/у</t>
+  </si>
+  <si>
+    <t>6228 МЯСНОЕ АССОРТИ к/з с/н мгс 1/90 10шт  Останкино</t>
+  </si>
+  <si>
+    <t>6550 МЯСНЫЕ Папа может сар б/о мгс 1*3 О 45с  Останкино</t>
+  </si>
+  <si>
+    <t>6758 СЕРВЕЛАТ КОПЧЕНЫЙ п/к в/у 0,31кг 8шт  Останкино</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ КОПЧЕНЫЙ п/к в/у 0,31кг 8шт</t>
+  </si>
+  <si>
+    <t>5976 МОЛОЧНЫЕ ТРАДИЦ. сос п/о в/у 1/350_45с  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>МОЛОЧНЫЕ ТРАДИЦ. сос п/о в/у 1/350_45с</t>
+  </si>
+  <si>
+    <t>6586 МРАМОРНАЯ И БАЛЫКОВАЯ в/к с/н мгс 1/90 ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>МРАМОРНАЯ И БАЛЫКОВАЯ в/к с/н мгс 1/90</t>
+  </si>
+  <si>
     <t xml:space="preserve">БАВАРСКИЕ ПМ сос ц/о мгс 0,35кг 8шт.  </t>
   </si>
   <si>
-    <t>БУЖЕНИНА ЗАПЕЧЕННАЯ с/н в/у 1/100 10шт.</t>
-  </si>
-  <si>
-    <t>6233 БУЖЕНИНА ЗАПЕЧЕННАЯ с/н в/у 1/100 10шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6734 ОСОБАЯ СО ШПИКОМ Коровино (в сетке) 0,5кг ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>ОСОБАЯ СО ШПИКОМ Коровино (в сетке) 0,5кг</t>
-  </si>
-  <si>
-    <t>6750 МОЛОЧНЫЕ ГОСТ СН сос п/о мгс 0,41 кг 10шт ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6751 СЛИВОЧНЫЕ СН сос п/о мгс 0,41кг 10шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>5982 МОЛОЧНЫЕ ТРАДИЦ. сос п/о мгс 0,6кг_СНГ  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>МОЛОЧНЫЕ ТРАДИЦ. сос п/о мгс 0,6кг_СНГ</t>
-  </si>
-  <si>
-    <t>5982 МОЛОЧНЫЕ ТРАДИЦ. сос п/о мгс 0,6кг_СНГ  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6025 ВЕТЧ.ФИРМЕННАЯ С ИНДЕЙКОЙ п/о   ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>ВЕТЧ.ФИРМЕННАЯ С ИНДЕЙКОЙ п/о</t>
-  </si>
-  <si>
-    <t>6756 ВЕТЧ.ЛЮБИТЕЛЬСКАЯ п/о  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>НЕАПОЛИТАНСКИЙ ДУЭТ с/к с/н мгс 1/90</t>
-  </si>
-  <si>
-    <t>6221 НЕАПОЛИТАНСКИЙ ДУЭТ с/к с/н мгс 1/90  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6025 ВЕТЧ.ФИРМЕННАЯ С ИНДЕЙКОЙ п/о   ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6221 НЕАПОЛИТАНСКИЙ ДУЭТ с/к с/н мгс 1/90  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>3297 СЫТНЫЕ Папа может сар б/о мгс 1*3_СНГ  Останкино</t>
-  </si>
-  <si>
-    <t>СЫТНЫЕ Папа может сар б/о мгс 1*3</t>
-  </si>
-  <si>
-    <t>3812 СОЧНЫЕ сос п/о мгс 2*2  Останкино</t>
-  </si>
-  <si>
-    <t>5159 Нежный пашт п/о 1/150 16шт.   ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>НЕЖНЫЙ пашт п/о 1/150 16шт.</t>
-  </si>
-  <si>
-    <t>5160 Мясной пашт п/о 0,150 ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>МЯСНОЙ пашт п/о 1/150 16шт.</t>
-  </si>
-  <si>
-    <t>5161 Печеночный пашт 0,150 ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>ПЕЧЕНОЧНЫЙ пашт п/о 1/150 16шт.</t>
-  </si>
-  <si>
-    <t>5965 С ИНДЕЙКОЙ Папа может сар б/о мгс 1*3  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>С ИНДЕЙКОЙ Папа может сар б/о мгс 1*3</t>
-  </si>
-  <si>
-    <t>6159 ВРЕМЯ ОЛИВЬЕ Папа может вар п/о  Останкино</t>
-  </si>
-  <si>
-    <t>ВРЕМЯ ОЛИВЬЕ Папа может п/о</t>
-  </si>
-  <si>
-    <t>6217 ШПИКАЧКИ ДОМАШНИЕ СН п/о мгс 0,4кг 8 шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6217 Шпикачки домашние СН п/о 0,4</t>
-  </si>
-  <si>
-    <t>6220 ГОВЯЖЬЯ папа может вар п/о  Останкино</t>
-  </si>
-  <si>
-    <t>ГОВЯЖЬЯ Папа может вар п/о</t>
-  </si>
-  <si>
-    <t>6236 СЛИВОЧНЫЕ ПМ сос п/о мгс 0,45кг 10шт  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>СЛИВОЧНЫЕ ПМ сос п/о мгс 0.450кг_45с</t>
-  </si>
-  <si>
-    <t>6602 БАВАРСКИЕ ПМ сос ц/о мгс 0,35кг 8шт  Останкино</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> БАВАРСКИЕ ПМ сос ц/о мгс 0.35кг 8шт.</t>
-  </si>
-  <si>
-    <t>6656 ГОВЯЖЬИ СН сос п/о мгс 2*2  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>ГОВЯЖЬИ СН сос п/о мгс 2*2</t>
-  </si>
-  <si>
-    <t>6684 СЕРВЕЛАТ КАРЕЛЬСКИЙ ПМ в/к в/у 0,28кг  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6697 СЕРВЕЛАТ ФИНСКИЙ ПМ в/к в/у 0,35кг 8шт  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>СЕРВЕЛАТ ФИНСКИЙ ПМ в/к в/у 0.35кг 8шт.</t>
-  </si>
-  <si>
-    <t>6713 СОЧНЫЙ ГРИЛЬ ПМ сос п/о мгс 0,41кг 8 шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>СОЧНЫЙ ГРИЛЬ ПМ сос п/о мгс 0.41кг 8шт.</t>
-  </si>
-  <si>
-    <t>6716 ОСОБАЯ Коровино ( в сетке) 0,5кг 8шт  Останкино</t>
-  </si>
-  <si>
-    <t>6722 СОЧНЫЕ ПМ сос п/о мгс 0,41кг 10шт  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>СОЧНЫЕ ПМ сос п/о мгс 0.41кг 10шт.</t>
-  </si>
-  <si>
-    <t>6751 СЛИВОЧНЫЕ СН сос п/о мгс 0,41 кг 10шт.  Останкино</t>
-  </si>
-  <si>
-    <t>5819 МЯСНЫЕ Папа может сос п/о в/у 0.4кг_45с</t>
-  </si>
-  <si>
-    <t>МЯСНЫЕ Папа может сос п/о в/у 0.4кг_45с</t>
-  </si>
-  <si>
-    <t>5337 ОСОБАЯ СО ШПИКОМ вар п/о</t>
-  </si>
-  <si>
-    <t>5336 ОСОБАЯ вар п/о</t>
-  </si>
-  <si>
-    <t>5811 СВИНИНА МАДЕРА с/к с/н в/у 1/100 8шт.   ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>5819 Сосиски Папа может 400г Мясные  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6027 ВЕТЧ.ИЗ ЛОПАТКИ Папа может п/о 400*6  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>ВЕТЧ.ИЗ ЛОПАТКИ Папа может п/о 400*6</t>
-  </si>
-  <si>
-    <t>6213 СЕРВЕЛАТ ФИНСКИЙ СН в/к в/у 0,35кг 8шт  Останкино</t>
-  </si>
-  <si>
-    <t>6303 Мясные Папа может сос п/о мгс 1,5*3  Останкино</t>
-  </si>
-  <si>
-    <t>6308 С ИНДЕЙКОЙ ПМ сар б/о мгс 1*3_СНГ  Останкино</t>
-  </si>
-  <si>
-    <t>6392 ФИЛЕЙНАЯ Папа может вар п/о 0,4кг  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6448 Свинина Останкино 100г Мадера с/к в/у нарезка  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6450 БЕКОН с/к с/н в/у 1/100 10шт.</t>
-  </si>
-  <si>
-    <t>6454 АРОМАТНАЯ с/к с/н в/у 1/100 10шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6475 Сосиски Папа может 400г С сыром  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6498 МОЛОЧНАЯ Папа может вар п/о  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>МОЛОЧНАЯ Папа может вар п/о</t>
-  </si>
-  <si>
-    <t>6596 РУССКАЯ СН вар п/о  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> РУССКАЯ СН вар п/о</t>
-  </si>
-  <si>
-    <t>6607 С ГОВЯДИНОЙ ПМ сар б/о мгс 1*3_45с</t>
-  </si>
-  <si>
-    <t>С ГОВЯДИНОЙ ПМ сар б/о мгс 1*3_45с</t>
-  </si>
-  <si>
-    <t>6609 С ГОВЯДИНОЙ ПМ сар б/о мгс 0,4 кг_45с</t>
-  </si>
-  <si>
-    <t>С ГОВЯДИНОЙ ПМ сар б/о мгс 0.4кг_45с</t>
-  </si>
-  <si>
-    <t>6666 БОЯNСКАЯ Папа может п/к в/у 0,28кг 8шт  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6669 ВЕНСКАЯ САЛЯМИ п/к в/у 0,28кг 8шт  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6755 ВЕТЧ.ЛЮБИТЕЛЬСКАЯ п/о 0,4кг 10шт.  Останкино</t>
-  </si>
-  <si>
-    <t>6756 ВЕТЧ.ЛЮБИТЕЛЬСКАЯ п/о  Останкино</t>
-  </si>
-  <si>
-    <t>6550 МЯСНЫЕ Папа может сар б/о мгс  1*3_О_45с</t>
-  </si>
-  <si>
-    <t>МЯСНЫЕ Папа может сар б/о мгс  1*3_О_45с</t>
-  </si>
-  <si>
-    <t>6365 СЕРВЕЛАТ КАРЕЛЬСКИЙ ПМ в/к в/у 0.28кг  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>3248 ДОКТОРСКАЯ ТРАДИЦ. вар п/о ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>ДОКТОРСКАЯ ТРАДИЦ. вар п/о</t>
-  </si>
-  <si>
-    <t>5206 Ладожская с/к в/у ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>ЛАДОЖСКАЯ с/к в/у</t>
-  </si>
-  <si>
-    <t>6586 Мрамарная и Балыковая в/к с/н мгс 1/90  Останкино</t>
-  </si>
-  <si>
-    <t>Мрамарная и Балыковая в/к с/н мгс 1/90</t>
-  </si>
-  <si>
-    <t>6467 БАЛЫКОВАЯ Коровино п/к в/у  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>БАЛЫКОВАЯ Коровино п/к в/у</t>
-  </si>
-  <si>
-    <t>6661 СОЧНЫЙ ГРИЛЬ ПМ сос п/о мгс 1,5*4_Маяк Останкино</t>
-  </si>
-  <si>
-    <t>СОЧНЫЙ ГРИЛЬ ПМ сос п/о мгс 1,5*4_Маяк</t>
-  </si>
-  <si>
-    <t>6701 СЕРВЕЛАТ ШВАРЦЕР ПМ в/к в/у 0.28кг 8шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>СЕРВЕЛАТ ШВАРЦЕР ПМ в/к в/у 0.28кг 8шт.</t>
-  </si>
-  <si>
-    <t>6144МОЛОЧНЫЕ ТРАДИЦ. сос п/о в/у 1/360 (1+1)</t>
-  </si>
-  <si>
-    <t>6144 МОЛОЧНЫЕ ТРАДИЦ. сос п/ов/у 1/360 (1+1)</t>
-  </si>
-  <si>
-    <t>5819МЯСНЫЕ Папа может сос п/о в/у 0.4кг_45с</t>
-  </si>
-  <si>
-    <t>6303 МЯСНЫЕ Папа может сос п/о мгс  1.5*3</t>
-  </si>
-  <si>
-    <t>МЯСНЫЕ Папа может сос п/о мгс  1.5*3</t>
-  </si>
-  <si>
-    <t>3678 СОЧНЫЕ сос п/о мгс 2*2     ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6062 МОЛОЧНЫЕ К ЗАВТРАКУ сос п/о мгс 2*2   ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>МОЛОЧНЫЕ К ЗАВТРАКУ сос п/о мгс 2*2</t>
-  </si>
-  <si>
-    <t>6364 СЕРВЕЛАТ ЗЕРНИСТЫЙ ПМ в/к в/у 0.35кг  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6372 СЕРВЕЛАТ ОХОТНИЧИЙ ПМ в/к в/у 0.35кг 8шт  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6375 СЕРВЕЛАТ ПРИМА в/к в/у 0.28кг 8шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6509 СЕРВЕЛАТ ФИНСКИЙ ПМ в/к в/у 0.35кг 8шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6397 БОЯNСКАЯ Папа может п/к в/у 0.28кг 8шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>МОЛОЧНЫЕ КЛАССИЧЕСКИЕ ПМ сос п/о мгс 2*4</t>
-  </si>
-  <si>
-    <t>4574 Колбаса вар Мясная со шпиком 1кг Папа может п/о (код покуп. 24784) Останкино</t>
-  </si>
-  <si>
-    <t>6734 ОСОБАЯ СО ШПИКОМ Коровино(в сетке) 0,5кг  Останкино</t>
-  </si>
-  <si>
-    <t>5452 ВЕТЧ.МЯСНАЯ Папа может п/о    ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>ВЕТЧ.МЯСНАЯ Папа может п/о</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ОСОБАЯ СО ШПИКОМ Коровино(в сетке) 0.5кг</t>
-  </si>
-  <si>
-    <t>6144 МОЛОЧНЫЕ ТРАДИЦ. сос п/о в/у 1/360 (1+1)  Останкино</t>
-  </si>
-  <si>
-    <t>6225 ИМПЕРСКАЯ И БАЛЫКОВАЯ в/к с/н мгс 1/90  Останкино</t>
-  </si>
-  <si>
-    <t>6400 ВЕНСКАЯ САЛЯМИ п/к в/у 0.28кг 8шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6384 СЕРВЕЛАТ ШВАРЦЕР ПМ в/к в/у 0.28кг 8шт.  ОСТАНКИНО, шт</t>
-  </si>
-  <si>
-    <t>5015 БУРГУНДИЯ с/к в/у 1/250 ОСТАНКИНО, шт</t>
-  </si>
-  <si>
-    <t>БУРГУНДИЯ с/к в/у 1/250 8шт.</t>
-  </si>
-  <si>
-    <t>ИМПЕРСКАЯ И БАЛЫКОВАЯ в/к с/н мгс 1/90</t>
-  </si>
-  <si>
-    <t>3287 САЛЯМИ ИТАЛЬЯНСКАЯ с/к в/у ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>САЛЯМИ ИТАЛЬЯНСКАЯ с/к в/у</t>
-  </si>
-  <si>
-    <t>6228 МЯСНОЕ АССОРТИ к/з с/н мгс 1/90 10шт  Останкино</t>
-  </si>
-  <si>
-    <t>6550 МЯСНЫЕ Папа может сар б/о мгс 1*3 О 45с  Останкино</t>
-  </si>
-  <si>
-    <t>6758 СЕРВЕЛАТ КОПЧЕНЫЙ п/к в/у 0,31кг 8шт  Останкино</t>
-  </si>
-  <si>
-    <t>СЕРВЕЛАТ КОПЧЕНЫЙ п/к в/у 0,31кг 8шт</t>
-  </si>
-  <si>
-    <t>5976 МОЛОЧНЫЕ ТРАДИЦ. сос п/о в/у 1/350_45с  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>МОЛОЧНЫЕ ТРАДИЦ. сос п/о в/у 1/350_45с</t>
-  </si>
-  <si>
-    <t>6586 МРАМОРНАЯ И БАЛЫКОВАЯ в/к с/н мгс 1/90 ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>МРАМОРНАЯ И БАЛЫКОВАЯ в/к с/н мгс 1/90</t>
+    <t xml:space="preserve">1001225416228  </t>
+  </si>
+  <si>
+    <t>ВЕТЧ.ЛЮБИТЕЛЬСКАЯ п/о 0.4кг 10шт.</t>
+  </si>
+  <si>
+    <t>6026 ВЕТЧ.ОСОБАЯ Коровино п/о   ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>ВЕТЧ.ОСОБАЯ Коровино вар п/о</t>
+  </si>
+  <si>
+    <t>6586 МРАМОРНАЯ И БАЛЫКОВАЯ в/к с/н мгс 1/90  Останкино</t>
   </si>
 </sst>
 </file>
@@ -1328,11 +1343,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C182"/>
+  <dimension ref="A1:C184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B185" sqref="B185"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1424,7 +1439,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="3">
-        <v>6756</v>
+        <v>1001092446756</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
@@ -1432,10 +1447,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B9" s="3">
-        <v>6756</v>
+        <v>1001092446756</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1636,7 +1651,7 @@
         <v>1001024976123</v>
       </c>
       <c r="C27" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -1776,7 +1791,7 @@
         <v>78</v>
       </c>
       <c r="B40" s="3">
-        <v>6450</v>
+        <v>1001233296450</v>
       </c>
       <c r="C40" t="s">
         <v>79</v>
@@ -2084,7 +2099,7 @@
         <v>146</v>
       </c>
       <c r="B68" s="3">
-        <v>6041</v>
+        <v>1001024906041</v>
       </c>
       <c r="C68" t="s">
         <v>145</v>
@@ -2359,7 +2374,7 @@
         <v>180</v>
       </c>
       <c r="B93" s="3">
-        <v>6228</v>
+        <v>1001225416228</v>
       </c>
       <c r="C93" t="s">
         <v>179</v>
@@ -2373,7 +2388,7 @@
         <v>6225</v>
       </c>
       <c r="C94" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -2414,7 +2429,7 @@
         <v>185</v>
       </c>
       <c r="B98" s="3">
-        <v>3297</v>
+        <v>1001034063297</v>
       </c>
       <c r="C98" t="s">
         <v>184</v>
@@ -2436,48 +2451,48 @@
         <v>188</v>
       </c>
       <c r="B100" s="3">
-        <v>6602</v>
+        <v>1001021966602</v>
       </c>
       <c r="C100" t="s">
-        <v>189</v>
+        <v>316</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B101" s="3">
         <v>6233</v>
       </c>
       <c r="C101" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B102" s="3">
-        <v>6734</v>
+        <v>1001012826734</v>
       </c>
       <c r="C102" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B103" s="3">
+        <v>1001012826734</v>
+      </c>
+      <c r="C103" t="s">
         <v>192</v>
-      </c>
-      <c r="B103" s="3">
-        <v>6734</v>
-      </c>
-      <c r="C103" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B104" s="3">
         <v>6750</v>
@@ -2488,7 +2503,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B105" s="3">
         <v>6751</v>
@@ -2499,87 +2514,87 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B106" s="3">
         <v>5982</v>
       </c>
       <c r="C106" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B107" s="3">
-        <v>5982</v>
+        <v>1001020965982</v>
       </c>
       <c r="C107" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B108" s="3">
         <v>6025</v>
       </c>
       <c r="C108" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B109" s="3">
         <v>6025</v>
       </c>
       <c r="C109" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B110" s="3">
         <v>6221</v>
       </c>
       <c r="C110" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B111" s="3">
-        <v>6221</v>
+        <v>1001205376221</v>
       </c>
       <c r="C111" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B112" s="3">
         <v>1001034063297</v>
       </c>
       <c r="C112" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B113" s="3">
-        <v>3812</v>
+        <v>1001022373812</v>
       </c>
       <c r="C113" t="s">
         <v>3</v>
@@ -2587,117 +2602,117 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B114" s="3">
         <v>1001100605159</v>
       </c>
       <c r="C114" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B115" s="3">
         <v>1001100615160</v>
       </c>
       <c r="C115" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B116" s="3">
         <v>1001100625161</v>
       </c>
       <c r="C116" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B117" s="3">
         <v>1001035026308</v>
       </c>
       <c r="C117" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B118" s="3">
+        <v>1001014486159</v>
+      </c>
+      <c r="C118" t="s">
         <v>217</v>
-      </c>
-      <c r="B118" s="3">
-        <v>6159</v>
-      </c>
-      <c r="C118" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B119" s="3">
         <v>6217</v>
       </c>
       <c r="C119" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B120" s="3">
+        <v>1001012426220</v>
+      </c>
+      <c r="C120" t="s">
         <v>221</v>
-      </c>
-      <c r="B120" s="3">
-        <v>6220</v>
-      </c>
-      <c r="C120" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B121" s="3">
         <v>1001022466236</v>
       </c>
       <c r="C121" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B122" s="3">
+        <v>1001021966602</v>
+      </c>
+      <c r="C122" t="s">
         <v>225</v>
-      </c>
-      <c r="B122" s="3">
-        <v>6602</v>
-      </c>
-      <c r="C122" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B123" s="3">
         <v>1001022296656</v>
       </c>
       <c r="C123" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B124" s="3">
         <v>1001304506684</v>
@@ -2708,32 +2723,32 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B125" s="3">
         <v>1001301876697</v>
       </c>
       <c r="C125" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B126" s="3">
         <v>1001022246713</v>
       </c>
       <c r="C126" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B127" s="3">
-        <v>6716</v>
+        <v>1001012816716</v>
       </c>
       <c r="C127" t="s">
         <v>162</v>
@@ -2741,21 +2756,21 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B128" s="3">
         <v>1001022376722</v>
       </c>
       <c r="C128" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B129" s="3">
-        <v>6751</v>
+        <v>1001020846751</v>
       </c>
       <c r="C129" t="s">
         <v>101</v>
@@ -2763,18 +2778,18 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B130" s="3">
         <v>1001022725819</v>
       </c>
       <c r="C130" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B131" s="3">
         <v>1001012825337</v>
@@ -2785,7 +2800,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B132" s="3">
         <v>1001012815336</v>
@@ -2796,7 +2811,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B133" s="3">
         <v>1001234146448</v>
@@ -2807,29 +2822,29 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B134" s="3">
         <v>1001022725819</v>
       </c>
       <c r="C134" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B135" s="3">
         <v>1001092676027</v>
       </c>
       <c r="C135" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B136" s="3">
         <v>1001301876213</v>
@@ -2840,29 +2855,29 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B137" s="3">
         <v>1001022726303</v>
       </c>
       <c r="C137" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B138" s="3">
         <v>1001035026308</v>
       </c>
       <c r="C138" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B139" s="3">
         <v>1001012566392</v>
@@ -2873,7 +2888,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B140" s="3">
         <v>1001234146448</v>
@@ -2884,7 +2899,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B141" s="3">
         <v>1001233296450</v>
@@ -2895,7 +2910,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B142" s="3">
         <v>1001201976454</v>
@@ -2906,7 +2921,7 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B143" s="3">
         <v>1001025176475</v>
@@ -2917,51 +2932,51 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B144" s="3">
         <v>1001012456498</v>
       </c>
       <c r="C144" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B145" s="3">
         <v>1001010036596</v>
       </c>
       <c r="C145" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B146" s="3">
         <v>1001033856607</v>
       </c>
       <c r="C146" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B147" s="3">
         <v>1001033856609</v>
       </c>
       <c r="C147" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B148" s="3">
         <v>1001302276666</v>
@@ -2972,7 +2987,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B149" s="3">
         <v>1001300516669</v>
@@ -2983,21 +2998,21 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B150" s="3">
-        <v>1001092444611</v>
+        <v>1001092446755</v>
       </c>
       <c r="C150" t="s">
-        <v>14</v>
+        <v>318</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B151" s="3">
-        <v>1001092444614</v>
+        <v>1001092446756</v>
       </c>
       <c r="C151" t="s">
         <v>16</v>
@@ -3005,18 +3020,18 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B152" s="3">
         <v>6550</v>
       </c>
       <c r="C152" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B153" s="3">
         <v>1001304506684</v>
@@ -3027,109 +3042,109 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B154" s="3">
         <v>1001010113248</v>
       </c>
       <c r="C154" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B155" s="3">
         <v>1001063925206</v>
       </c>
       <c r="C155" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B156" s="3">
         <v>6586</v>
       </c>
       <c r="C156" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B157" s="3">
         <v>1001303636467</v>
       </c>
       <c r="C157" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B158" s="3">
         <v>1001022246661</v>
       </c>
       <c r="C158" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B159" s="3">
         <v>1001304496701</v>
       </c>
       <c r="C159" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B160" s="3">
         <v>6144</v>
       </c>
       <c r="C160" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B161" s="3">
         <v>1001022725819</v>
       </c>
       <c r="C161" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B162" s="3">
         <v>1001022726303</v>
       </c>
       <c r="C162" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B163" s="3">
-        <v>3812</v>
+        <v>1001022373812</v>
       </c>
       <c r="C163" t="s">
         <v>3</v>
@@ -3137,18 +3152,18 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B164" s="3">
         <v>1001024906062</v>
       </c>
       <c r="C164" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B165" s="3">
         <v>1001300386683</v>
@@ -3159,7 +3174,7 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B166" s="3">
         <v>1001303986689</v>
@@ -3170,7 +3185,7 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B167" s="3">
         <v>1001303056692</v>
@@ -3181,18 +3196,18 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B168" s="3">
         <v>1001301876697</v>
       </c>
       <c r="C168" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B169" s="3">
         <v>1001302276666</v>
@@ -3203,7 +3218,7 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B170" s="3">
         <v>1001012634574</v>
@@ -3214,40 +3229,40 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B171" s="3">
         <v>1001092485452</v>
       </c>
       <c r="C171" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B172" s="3">
-        <v>6144</v>
+        <v>1001020966144</v>
       </c>
       <c r="C172" t="s">
-        <v>282</v>
+        <v>163</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B173" s="3">
         <v>6586</v>
       </c>
       <c r="C173" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B174" s="3">
         <v>1001300516669</v>
@@ -3258,43 +3273,43 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B175" s="3">
         <v>1001304496701</v>
       </c>
       <c r="C175" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B176" s="3">
         <v>1001063655015</v>
       </c>
       <c r="C176" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B177" s="3">
         <v>1001060763287</v>
       </c>
       <c r="C177" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="B178" s="3">
-        <v>6228</v>
+        <v>308</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>317</v>
       </c>
       <c r="C178" t="s">
         <v>179</v>
@@ -3302,50 +3317,72 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B179" s="3">
-        <v>6550</v>
+        <v>1001032736550</v>
       </c>
       <c r="C179" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B180" s="3">
         <v>6758</v>
       </c>
       <c r="C180" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B181" s="3">
+        <v>1001020965976</v>
+      </c>
+      <c r="C181" t="s">
         <v>313</v>
-      </c>
-      <c r="B181" s="3">
-        <v>5976</v>
-      </c>
-      <c r="C181" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B182" s="3">
+        <v>1001215576586</v>
+      </c>
+      <c r="C182" t="s">
         <v>315</v>
       </c>
-      <c r="B182" s="3">
-        <v>6586</v>
-      </c>
-      <c r="C182" t="s">
-        <v>316</v>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B183" s="3">
+        <v>1001094896026</v>
+      </c>
+      <c r="C183" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B184" s="3">
+        <v>1001215576586</v>
+      </c>
+      <c r="C184" t="s">
+        <v>315</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C176" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
+  <autoFilter ref="A1:C184" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/moduls/1С.xlsx
+++ b/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\Останкино КИ\ostankino_ki\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5562C52F-8370-441E-9979-6A0DE242A6FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB2C429-B9F4-4E1C-A2AB-051F20C9570D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -696,9 +696,6 @@
     <t>6217 ШПИКАЧКИ ДОМАШНИЕ СН п/о мгс 0,4кг 8 шт.  ОСТАНКИНО</t>
   </si>
   <si>
-    <t>6217 Шпикачки домашние СН п/о 0,4</t>
-  </si>
-  <si>
     <t>6220 ГОВЯЖЬЯ папа может вар п/о  Останкино</t>
   </si>
   <si>
@@ -1003,6 +1000,9 @@
   </si>
   <si>
     <t>6586 МРАМОРНАЯ И БАЛЫКОВАЯ в/к с/н мгс 1/90  Останкино</t>
+  </si>
+  <si>
+    <t>ШПИКАЧКИ ДОМАШНИЕ СН п/о мгс 0.4кг 7шт.</t>
   </si>
 </sst>
 </file>
@@ -9811,7 +9811,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10215,7 +10215,7 @@
         <v>1001024976123</v>
       </c>
       <c r="C27" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D27">
         <f>VLOOKUP(B27,[1]Бланк!$D:$J,6,0)</f>
@@ -11220,7 +11220,7 @@
         <v>6225</v>
       </c>
       <c r="C94" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D94" t="e">
         <f>VLOOKUP(B94,[1]Бланк!$D:$J,6,0)</f>
@@ -11310,7 +11310,7 @@
         <v>1001021966602</v>
       </c>
       <c r="C100" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D100">
         <f>VLOOKUP(B100,[1]Бланк!$D:$J,6,0)</f>
@@ -11334,13 +11334,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B102" s="3">
         <v>1001012826734</v>
       </c>
       <c r="C102" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D102">
         <f>VLOOKUP(B102,[1]Бланк!$D:$J,6,0)</f>
@@ -11592,25 +11592,25 @@
         <v>218</v>
       </c>
       <c r="B119" s="3">
-        <v>6217</v>
+        <v>1001035326217</v>
       </c>
       <c r="C119" t="s">
-        <v>219</v>
-      </c>
-      <c r="D119" t="e">
+        <v>321</v>
+      </c>
+      <c r="D119">
         <f>VLOOKUP(B119,[1]Бланк!$D:$J,6,0)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B120" s="3">
         <v>1001012426220</v>
       </c>
       <c r="C120" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D120">
         <f>VLOOKUP(B120,[1]Бланк!$D:$J,6,0)</f>
@@ -11619,13 +11619,13 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B121" s="3">
         <v>1001022466236</v>
       </c>
       <c r="C121" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D121">
         <f>VLOOKUP(B121,[1]Бланк!$D:$J,6,0)</f>
@@ -11634,13 +11634,13 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B122" s="3">
         <v>1001021966602</v>
       </c>
       <c r="C122" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D122">
         <f>VLOOKUP(B122,[1]Бланк!$D:$J,6,0)</f>
@@ -11649,13 +11649,13 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B123" s="3">
         <v>1001022296656</v>
       </c>
       <c r="C123" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D123">
         <f>VLOOKUP(B123,[1]Бланк!$D:$J,6,0)</f>
@@ -11664,7 +11664,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B124" s="3">
         <v>1001304506684</v>
@@ -11679,13 +11679,13 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B125" s="3">
         <v>1001301876697</v>
       </c>
       <c r="C125" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D125">
         <f>VLOOKUP(B125,[1]Бланк!$D:$J,6,0)</f>
@@ -11694,13 +11694,13 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B126" s="3">
         <v>1001022246713</v>
       </c>
       <c r="C126" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D126">
         <f>VLOOKUP(B126,[1]Бланк!$D:$J,6,0)</f>
@@ -11709,7 +11709,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B127" s="3">
         <v>1001012816716</v>
@@ -11724,13 +11724,13 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B128" s="3">
         <v>1001022376722</v>
       </c>
       <c r="C128" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D128">
         <f>VLOOKUP(B128,[1]Бланк!$D:$J,6,0)</f>
@@ -11739,7 +11739,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B129" s="3">
         <v>1001020846751</v>
@@ -11754,13 +11754,13 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B130" s="3">
         <v>1001022725819</v>
       </c>
       <c r="C130" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D130">
         <f>VLOOKUP(B130,[1]Бланк!$D:$J,6,0)</f>
@@ -11769,7 +11769,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B131" s="3">
         <v>1001012825337</v>
@@ -11784,7 +11784,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B132" s="3">
         <v>1001012815336</v>
@@ -11799,7 +11799,7 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B133" s="3">
         <v>1001234146448</v>
@@ -11814,13 +11814,13 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B134" s="3">
         <v>1001022725819</v>
       </c>
       <c r="C134" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D134">
         <f>VLOOKUP(B134,[1]Бланк!$D:$J,6,0)</f>
@@ -11829,13 +11829,13 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B135" s="3">
         <v>1001092676027</v>
       </c>
       <c r="C135" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D135">
         <f>VLOOKUP(B135,[1]Бланк!$D:$J,6,0)</f>
@@ -11844,7 +11844,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B136" s="3">
         <v>1001301876213</v>
@@ -11859,13 +11859,13 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B137" s="3">
         <v>1001022726303</v>
       </c>
       <c r="C137" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D137">
         <f>VLOOKUP(B137,[1]Бланк!$D:$J,6,0)</f>
@@ -11874,7 +11874,7 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B138" s="3">
         <v>1001035026308</v>
@@ -11889,7 +11889,7 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B139" s="3">
         <v>1001012566392</v>
@@ -11904,7 +11904,7 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B140" s="3">
         <v>1001234146448</v>
@@ -11919,7 +11919,7 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B141" s="3">
         <v>1001233296450</v>
@@ -11934,7 +11934,7 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B142" s="3">
         <v>1001201976454</v>
@@ -11949,7 +11949,7 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B143" s="3">
         <v>1001025176475</v>
@@ -11964,13 +11964,13 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B144" s="3">
         <v>1001012456498</v>
       </c>
       <c r="C144" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D144">
         <f>VLOOKUP(B144,[1]Бланк!$D:$J,6,0)</f>
@@ -11979,13 +11979,13 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B145" s="3">
         <v>1001010036596</v>
       </c>
       <c r="C145" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D145">
         <f>VLOOKUP(B145,[1]Бланк!$D:$J,6,0)</f>
@@ -11994,13 +11994,13 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B146" s="3">
         <v>1001033856607</v>
       </c>
       <c r="C146" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D146">
         <f>VLOOKUP(B146,[1]Бланк!$D:$J,6,0)</f>
@@ -12009,13 +12009,13 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B147" s="3">
         <v>1001033856609</v>
       </c>
       <c r="C147" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D147">
         <f>VLOOKUP(B147,[1]Бланк!$D:$J,6,0)</f>
@@ -12024,7 +12024,7 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B148" s="3">
         <v>1001302276666</v>
@@ -12039,7 +12039,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B149" s="3">
         <v>1001300516669</v>
@@ -12054,13 +12054,13 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B150" s="3">
         <v>1001092446755</v>
       </c>
       <c r="C150" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D150">
         <f>VLOOKUP(B150,[1]Бланк!$D:$J,6,0)</f>
@@ -12069,7 +12069,7 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B151" s="3">
         <v>1001092446756</v>
@@ -12084,13 +12084,13 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B152" s="3">
         <v>6550</v>
       </c>
       <c r="C152" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D152" t="e">
         <f>VLOOKUP(B152,[1]Бланк!$D:$J,6,0)</f>
@@ -12099,7 +12099,7 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B153" s="3">
         <v>1001304506684</v>
@@ -12114,13 +12114,13 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B154" s="3">
         <v>1001010113248</v>
       </c>
       <c r="C154" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D154">
         <f>VLOOKUP(B154,[1]Бланк!$D:$J,6,0)</f>
@@ -12129,13 +12129,13 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B155" s="3">
         <v>1001063925206</v>
       </c>
       <c r="C155" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D155">
         <f>VLOOKUP(B155,[1]Бланк!$D:$J,6,0)</f>
@@ -12144,13 +12144,13 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B156" s="3">
         <v>6586</v>
       </c>
       <c r="C156" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D156" t="e">
         <f>VLOOKUP(B156,[1]Бланк!$D:$J,6,0)</f>
@@ -12159,13 +12159,13 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B157" s="3">
         <v>1001303636467</v>
       </c>
       <c r="C157" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D157">
         <f>VLOOKUP(B157,[1]Бланк!$D:$J,6,0)</f>
@@ -12174,13 +12174,13 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B158" s="3">
         <v>1001022246661</v>
       </c>
       <c r="C158" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D158">
         <f>VLOOKUP(B158,[1]Бланк!$D:$J,6,0)</f>
@@ -12189,13 +12189,13 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B159" s="3">
         <v>1001304496701</v>
       </c>
       <c r="C159" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D159">
         <f>VLOOKUP(B159,[1]Бланк!$D:$J,6,0)</f>
@@ -12204,13 +12204,13 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B160" s="3">
         <v>6144</v>
       </c>
       <c r="C160" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D160" t="e">
         <f>VLOOKUP(B160,[1]Бланк!$D:$J,6,0)</f>
@@ -12219,13 +12219,13 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B161" s="3">
         <v>1001022725819</v>
       </c>
       <c r="C161" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D161">
         <f>VLOOKUP(B161,[1]Бланк!$D:$J,6,0)</f>
@@ -12234,13 +12234,13 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B162" s="3">
         <v>1001022726303</v>
       </c>
       <c r="C162" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D162">
         <f>VLOOKUP(B162,[1]Бланк!$D:$J,6,0)</f>
@@ -12249,7 +12249,7 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B163" s="3">
         <v>1001022373812</v>
@@ -12264,13 +12264,13 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B164" s="3">
         <v>1001024906062</v>
       </c>
       <c r="C164" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D164">
         <f>VLOOKUP(B164,[1]Бланк!$D:$J,6,0)</f>
@@ -12279,7 +12279,7 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B165" s="3">
         <v>1001300386683</v>
@@ -12294,7 +12294,7 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B166" s="3">
         <v>1001303986689</v>
@@ -12309,7 +12309,7 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B167" s="3">
         <v>1001303056692</v>
@@ -12324,13 +12324,13 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B168" s="3">
         <v>1001301876697</v>
       </c>
       <c r="C168" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D168">
         <f>VLOOKUP(B168,[1]Бланк!$D:$J,6,0)</f>
@@ -12339,7 +12339,7 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B169" s="3">
         <v>1001302276666</v>
@@ -12354,7 +12354,7 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B170" s="3">
         <v>1001012634574</v>
@@ -12369,13 +12369,13 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B171" s="3">
         <v>1001092485452</v>
       </c>
       <c r="C171" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D171">
         <f>VLOOKUP(B171,[1]Бланк!$D:$J,6,0)</f>
@@ -12384,7 +12384,7 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B172" s="3">
         <v>1001020966144</v>
@@ -12399,13 +12399,13 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B173" s="3">
         <v>6586</v>
       </c>
       <c r="C173" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D173" t="e">
         <f>VLOOKUP(B173,[1]Бланк!$D:$J,6,0)</f>
@@ -12414,7 +12414,7 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B174" s="3">
         <v>1001300516669</v>
@@ -12429,13 +12429,13 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B175" s="3">
         <v>1001304496701</v>
       </c>
       <c r="C175" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D175">
         <f>VLOOKUP(B175,[1]Бланк!$D:$J,6,0)</f>
@@ -12444,13 +12444,13 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B176" s="3">
         <v>1001063655015</v>
       </c>
       <c r="C176" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D176">
         <f>VLOOKUP(B176,[1]Бланк!$D:$J,6,0)</f>
@@ -12459,13 +12459,13 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B177" s="3">
         <v>1001060763287</v>
       </c>
       <c r="C177" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D177">
         <f>VLOOKUP(B177,[1]Бланк!$D:$J,6,0)</f>
@@ -12474,10 +12474,10 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C178" t="s">
         <v>179</v>
@@ -12489,13 +12489,13 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B179" s="3">
         <v>1001032736550</v>
       </c>
       <c r="C179" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D179">
         <f>VLOOKUP(B179,[1]Бланк!$D:$J,6,0)</f>
@@ -12504,13 +12504,13 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B180" s="3">
         <v>6758</v>
       </c>
       <c r="C180" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D180" t="e">
         <f>VLOOKUP(B180,[1]Бланк!$D:$J,6,0)</f>
@@ -12519,13 +12519,13 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B181" s="3">
         <v>1001020965976</v>
       </c>
       <c r="C181" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D181">
         <f>VLOOKUP(B181,[1]Бланк!$D:$J,6,0)</f>
@@ -12534,13 +12534,13 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B182" s="3">
         <v>1001215576586</v>
       </c>
       <c r="C182" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D182">
         <f>VLOOKUP(B182,[1]Бланк!$D:$J,6,0)</f>
@@ -12549,13 +12549,13 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B183" s="3">
         <v>1001094896026</v>
       </c>
       <c r="C183" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D183">
         <f>VLOOKUP(B183,[1]Бланк!$D:$J,6,0)</f>
@@ -12564,13 +12564,13 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B184" s="3">
         <v>1001215576586</v>
       </c>
       <c r="C184" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D184">
         <f>VLOOKUP(B184,[1]Бланк!$D:$J,6,0)</f>

--- a/moduls/1С.xlsx
+++ b/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\Останкино КИ\ostankino_ki\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB2C429-B9F4-4E1C-A2AB-051F20C9570D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B47D0F6-9D4E-42CD-8D20-1657C4EA7690}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,9 +19,9 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$184</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$191</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="340">
   <si>
     <t>1С</t>
   </si>
@@ -1003,6 +1003,60 @@
   </si>
   <si>
     <t>ШПИКАЧКИ ДОМАШНИЕ СН п/о мгс 0.4кг 7шт.</t>
+  </si>
+  <si>
+    <t>6470 ВЕТЧ.МРАМОРНАЯ в/у_45с  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВЕТЧ.МРАМОРНАЯ в/у_45с </t>
+  </si>
+  <si>
+    <t>СЛИВОЧНЫЕ ПМ сос п/о мгс 0.41кг 10шт.</t>
+  </si>
+  <si>
+    <t>6726 СЛИВОЧНЫЕ ПМ сос п/о мгс 0.41кг 10шт.</t>
+  </si>
+  <si>
+    <t>ОХОТНИЧЬЯ Папа может с/к в/у 1/220 8шт. (5931)</t>
+  </si>
+  <si>
+    <t>ЭКСТРА Папа может с/к с/н в/у 1/100 14шт (6453)</t>
+  </si>
+  <si>
+    <t>ПОСОЛЬСКАЯ с/к с/н в/у 1/100 10шт.</t>
+  </si>
+  <si>
+    <t>ПОСОЛЬСКАЯ с/к с/н в/у 1/100 10шт. (6555)</t>
+  </si>
+  <si>
+    <t>ВРЕМЯ ОКРОШКИ Папа может вар п/о 0,4кг</t>
+  </si>
+  <si>
+    <t>5992ВРЕМЯ ОКРОШКИ Папа может вар п/о 0.4кг</t>
+  </si>
+  <si>
+    <t>ВРЕМЯ ОКРОШКИ Папа может вар п/о</t>
+  </si>
+  <si>
+    <t>5993 ВРЕМЯ ОКРОШКИ Папа может вар п/о</t>
+  </si>
+  <si>
+    <t>6776 ХОТ-ДОГ Папа может сос п/о мгс 0.35кг  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>ХОТ-ДОГ Папа может сос п/о мгс 0.35кг</t>
+  </si>
+  <si>
+    <t>6777 МЯСНЫЕ С ГОВЯДИНОЙ ПМ сос п/о мгс 0.4кг  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>МЯСНЫЕ С ГОВЯДИНОЙ ПМ сос п/о мгс 0.4кг</t>
+  </si>
+  <si>
+    <t>6822 ИЗ ОТБОРНОГО МЯСА ПМ сос п/о мгс 0,36кг  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>ИЗ ОТБОРНОГО МЯСА ПМ сос п/о мгс 0,36кг</t>
   </si>
 </sst>
 </file>
@@ -9807,11 +9861,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D184"/>
+  <dimension ref="A1:D194"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10164,7 +10218,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>45</v>
+        <v>326</v>
       </c>
       <c r="B24" s="3">
         <v>1001060755931</v>
@@ -10173,49 +10227,48 @@
         <v>46</v>
       </c>
       <c r="D24">
-        <f>VLOOKUP(B24,[1]Бланк!$D:$J,6,0)</f>
         <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B25" s="3">
-        <v>1001012815997</v>
+        <v>1001060755931</v>
       </c>
       <c r="C25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D25">
         <f>VLOOKUP(B25,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B26" s="3">
-        <v>1001024906042</v>
+        <v>1001012815997</v>
       </c>
       <c r="C26" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D26">
         <f>VLOOKUP(B26,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B27" s="3">
-        <v>1001024976123</v>
+        <v>1001024906042</v>
       </c>
       <c r="C27" t="s">
-        <v>292</v>
+        <v>50</v>
       </c>
       <c r="D27">
         <f>VLOOKUP(B27,[1]Бланк!$D:$J,6,0)</f>
@@ -10224,13 +10277,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B28" s="3">
-        <v>1001220286279</v>
+        <v>1001024976123</v>
       </c>
       <c r="C28" t="s">
-        <v>53</v>
+        <v>292</v>
       </c>
       <c r="D28">
         <f>VLOOKUP(B28,[1]Бланк!$D:$J,6,0)</f>
@@ -10239,13 +10292,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B29" s="3">
-        <v>1001082576281</v>
+        <v>1001220286279</v>
       </c>
       <c r="C29" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D29">
         <f>VLOOKUP(B29,[1]Бланк!$D:$J,6,0)</f>
@@ -10254,13 +10307,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B30" s="3">
-        <v>1001022556297</v>
+        <v>1001082576281</v>
       </c>
       <c r="C30" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D30">
         <f>VLOOKUP(B30,[1]Бланк!$D:$J,6,0)</f>
@@ -10269,28 +10322,28 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B31" s="3">
-        <v>1001010106325</v>
+        <v>1001022556297</v>
       </c>
       <c r="C31" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D31">
         <f>VLOOKUP(B31,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B32" s="3">
-        <v>1001012486333</v>
+        <v>1001010106325</v>
       </c>
       <c r="C32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D32">
         <f>VLOOKUP(B32,[1]Бланк!$D:$J,6,0)</f>
@@ -10299,13 +10352,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B33" s="3">
-        <v>1001012506353</v>
+        <v>1001012486333</v>
       </c>
       <c r="C33" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D33">
         <f>VLOOKUP(B33,[1]Бланк!$D:$J,6,0)</f>
@@ -10314,28 +10367,28 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>129</v>
+        <v>63</v>
       </c>
       <c r="B34" s="3">
-        <v>1001304506684</v>
+        <v>1001012506353</v>
       </c>
       <c r="C34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D34">
         <f>VLOOKUP(B34,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B35" s="3">
-        <v>1001303056692</v>
+        <v>1001304506684</v>
       </c>
       <c r="C35" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D35">
         <f>VLOOKUP(B35,[1]Бланк!$D:$J,6,0)</f>
@@ -10344,13 +10397,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="B36" s="3">
-        <v>1001303636415</v>
+        <v>1001303056692</v>
       </c>
       <c r="C36" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D36">
         <f>VLOOKUP(B36,[1]Бланк!$D:$J,6,0)</f>
@@ -10359,43 +10412,43 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B37" s="3">
-        <v>1001013956427</v>
+        <v>1001303636415</v>
       </c>
       <c r="C37" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D37">
         <f>VLOOKUP(B37,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B38" s="3">
-        <v>1001024636438</v>
+        <v>1001013956427</v>
       </c>
       <c r="C38" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D38">
         <f>VLOOKUP(B38,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B39" s="3">
-        <v>1001234146448</v>
+        <v>1001024636438</v>
       </c>
       <c r="C39" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D39">
         <f>VLOOKUP(B39,[1]Бланк!$D:$J,6,0)</f>
@@ -10404,13 +10457,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B40" s="3">
-        <v>1001233296450</v>
+        <v>1001234146448</v>
       </c>
       <c r="C40" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D40">
         <f>VLOOKUP(B40,[1]Бланк!$D:$J,6,0)</f>
@@ -10419,88 +10472,87 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B41" s="3">
-        <v>1001202506453</v>
+        <v>1001233296450</v>
       </c>
       <c r="C41" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D41">
         <f>VLOOKUP(B41,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>82</v>
+        <v>327</v>
       </c>
       <c r="B42" s="3">
-        <v>1001201976454</v>
+        <v>1001202506453</v>
       </c>
       <c r="C42" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D42">
-        <f>VLOOKUP(B42,[1]Бланк!$D:$J,6,0)</f>
         <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B43" s="3">
-        <v>1001025176475</v>
+        <v>1001202506453</v>
       </c>
       <c r="C43" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D43">
         <f>VLOOKUP(B43,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>134</v>
+        <v>82</v>
       </c>
       <c r="B44" s="3">
-        <v>1001301876697</v>
+        <v>1001201976454</v>
       </c>
       <c r="C44" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D44">
         <f>VLOOKUP(B44,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B45" s="3">
-        <v>1001024636517</v>
+        <v>1001025176475</v>
       </c>
       <c r="C45" t="s">
-        <v>89</v>
-      </c>
-      <c r="D45" t="e">
+        <v>85</v>
+      </c>
+      <c r="D45">
         <f>VLOOKUP(B45,[1]Бланк!$D:$J,6,0)</f>
-        <v>#N/A</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>90</v>
+        <v>134</v>
       </c>
       <c r="B46" s="3">
-        <v>1001031076527</v>
+        <v>1001301876697</v>
       </c>
       <c r="C46" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D46">
         <f>VLOOKUP(B46,[1]Бланк!$D:$J,6,0)</f>
@@ -10509,28 +10561,28 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B47" s="3">
-        <v>1001304506562</v>
+        <v>1001024636517</v>
       </c>
       <c r="C47" t="s">
-        <v>95</v>
-      </c>
-      <c r="D47">
+        <v>89</v>
+      </c>
+      <c r="D47" t="e">
         <f>VLOOKUP(B47,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B48" s="3">
-        <v>1001020846563</v>
+        <v>1001031076527</v>
       </c>
       <c r="C48" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D48">
         <f>VLOOKUP(B48,[1]Бланк!$D:$J,6,0)</f>
@@ -10539,103 +10591,103 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B49" s="3">
-        <v>1001020836589</v>
+        <v>1001304506562</v>
       </c>
       <c r="C49" t="s">
-        <v>99</v>
-      </c>
-      <c r="D49" t="e">
+        <v>95</v>
+      </c>
+      <c r="D49">
         <f>VLOOKUP(B49,[1]Бланк!$D:$J,6,0)</f>
-        <v>#N/A</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B50" s="3">
-        <v>6751</v>
+        <v>1001020846563</v>
       </c>
       <c r="C50" t="s">
-        <v>101</v>
-      </c>
-      <c r="D50" t="e">
+        <v>97</v>
+      </c>
+      <c r="D50">
         <f>VLOOKUP(B50,[1]Бланк!$D:$J,6,0)</f>
-        <v>#N/A</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B51" s="3">
-        <v>1001010016592</v>
+        <v>1001020836589</v>
       </c>
       <c r="C51" t="s">
-        <v>103</v>
-      </c>
-      <c r="D51">
+        <v>99</v>
+      </c>
+      <c r="D51" t="e">
         <f>VLOOKUP(B51,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B52" s="3">
-        <v>1001010026594</v>
+        <v>6751</v>
       </c>
       <c r="C52" t="s">
-        <v>105</v>
-      </c>
-      <c r="D52">
+        <v>101</v>
+      </c>
+      <c r="D52" t="e">
         <f>VLOOKUP(B52,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B53" s="3">
-        <v>1001022296601</v>
+        <v>1001010016592</v>
       </c>
       <c r="C53" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D53">
         <f>VLOOKUP(B53,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B54" s="3">
-        <v>1001031896648</v>
+        <v>1001010026594</v>
       </c>
       <c r="C54" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D54">
         <f>VLOOKUP(B54,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B55" s="3">
-        <v>1001035266650</v>
+        <v>1001022296601</v>
       </c>
       <c r="C55" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D55">
         <f>VLOOKUP(B55,[1]Бланк!$D:$J,6,0)</f>
@@ -10644,13 +10696,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B56" s="3">
-        <v>1001305256658</v>
+        <v>1001031896648</v>
       </c>
       <c r="C56" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D56">
         <f>VLOOKUP(B56,[1]Бланк!$D:$J,6,0)</f>
@@ -10659,43 +10711,43 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B57" s="3">
-        <v>1001010016593</v>
+        <v>1001035266650</v>
       </c>
       <c r="C57" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D57">
         <f>VLOOKUP(B57,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B58" s="3">
-        <v>1001010026595</v>
+        <v>1001305256658</v>
       </c>
       <c r="C58" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D58">
         <f>VLOOKUP(B58,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B59" s="3">
-        <v>1001010036597</v>
+        <v>1001010016593</v>
       </c>
       <c r="C59" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D59">
         <f>VLOOKUP(B59,[1]Бланк!$D:$J,6,0)</f>
@@ -10703,59 +10755,59 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="s">
-        <v>126</v>
+      <c r="A60" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="B60" s="3">
-        <v>1001020886646</v>
+        <v>1001010026595</v>
       </c>
       <c r="C60" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D60">
         <f>VLOOKUP(B60,[1]Бланк!$D:$J,6,0)</f>
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B61" s="3">
-        <v>1001305306566</v>
+        <v>1001010036597</v>
       </c>
       <c r="C61" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D61">
         <f>VLOOKUP(B61,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
-        <v>132</v>
+      <c r="A62" s="4" t="s">
+        <v>126</v>
       </c>
       <c r="B62" s="3">
-        <v>1001300386683</v>
+        <v>1001020886646</v>
       </c>
       <c r="C62" t="s">
-        <v>87</v>
+        <v>125</v>
       </c>
       <c r="D62">
         <f>VLOOKUP(B62,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B63" s="3">
-        <v>1001303986689</v>
+        <v>1001305306566</v>
       </c>
       <c r="C63" t="s">
-        <v>66</v>
+        <v>128</v>
       </c>
       <c r="D63">
         <f>VLOOKUP(B63,[1]Бланк!$D:$J,6,0)</f>
@@ -10764,13 +10816,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B64" s="3">
-        <v>1001300516669</v>
+        <v>1001300386683</v>
       </c>
       <c r="C64" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="D64">
         <f>VLOOKUP(B64,[1]Бланк!$D:$J,6,0)</f>
@@ -10779,28 +10831,28 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B65" s="3">
-        <v>1001012566392</v>
+        <v>1001303986689</v>
       </c>
       <c r="C65" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D65">
         <f>VLOOKUP(B65,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B66" s="3">
-        <v>1001302276666</v>
+        <v>1001300516669</v>
       </c>
       <c r="C66" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D66">
         <f>VLOOKUP(B66,[1]Бланк!$D:$J,6,0)</f>
@@ -10809,28 +10861,28 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B67" s="3">
-        <v>1001012426268</v>
+        <v>1001012566392</v>
       </c>
       <c r="C67" t="s">
-        <v>139</v>
-      </c>
-      <c r="D67" t="e">
+        <v>62</v>
+      </c>
+      <c r="D67">
         <f>VLOOKUP(B67,[1]Бланк!$D:$J,6,0)</f>
-        <v>#N/A</v>
+        <v>60</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B68" s="3">
-        <v>1001024906041</v>
+        <v>1001302276666</v>
       </c>
       <c r="C68" t="s">
-        <v>145</v>
+        <v>68</v>
       </c>
       <c r="D68">
         <f>VLOOKUP(B68,[1]Бланк!$D:$J,6,0)</f>
@@ -10839,13 +10891,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B69" s="3">
-        <v>1001011086247</v>
+        <v>1001012426268</v>
       </c>
       <c r="C69" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D69" t="e">
         <f>VLOOKUP(B69,[1]Бланк!$D:$J,6,0)</f>
@@ -10854,28 +10906,28 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="B70" s="3">
-        <v>1001014486158</v>
+        <v>1001024906041</v>
       </c>
       <c r="C70" t="s">
-        <v>160</v>
-      </c>
-      <c r="D70" t="e">
+        <v>145</v>
+      </c>
+      <c r="D70">
         <f>VLOOKUP(B70,[1]Бланк!$D:$J,6,0)</f>
-        <v>#N/A</v>
+        <v>45</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
       <c r="B71" s="3">
-        <v>1001015356259</v>
+        <v>1001011086247</v>
       </c>
       <c r="C71" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="D71" t="e">
         <f>VLOOKUP(B71,[1]Бланк!$D:$J,6,0)</f>
@@ -10884,58 +10936,58 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B72" s="3">
-        <v>1001012816716</v>
+        <v>1001014486158</v>
       </c>
       <c r="C72" t="s">
-        <v>162</v>
-      </c>
-      <c r="D72">
+        <v>160</v>
+      </c>
+      <c r="D72" t="e">
         <f>VLOOKUP(B72,[1]Бланк!$D:$J,6,0)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="B73" s="3">
-        <v>1001020966227</v>
+        <v>1001015356259</v>
       </c>
       <c r="C73" t="s">
-        <v>148</v>
-      </c>
-      <c r="D73">
+        <v>161</v>
+      </c>
+      <c r="D73" t="e">
         <f>VLOOKUP(B73,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="B74" s="3">
-        <v>1001020965981</v>
+        <v>1001012816716</v>
       </c>
       <c r="C74" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="D74">
         <f>VLOOKUP(B74,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="B75" s="3">
-        <v>1001022726303</v>
+        <v>1001020966227</v>
       </c>
       <c r="C75" t="s">
-        <v>174</v>
+        <v>148</v>
       </c>
       <c r="D75">
         <f>VLOOKUP(B75,[1]Бланк!$D:$J,6,0)</f>
@@ -10944,13 +10996,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="B76" s="3">
-        <v>1001022466726</v>
+        <v>1001020965981</v>
       </c>
       <c r="C76" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="D76">
         <f>VLOOKUP(B76,[1]Бланк!$D:$J,6,0)</f>
@@ -10959,13 +11011,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B77" s="3">
-        <v>1001020966144</v>
+        <v>1001022726303</v>
       </c>
       <c r="C77" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="D77">
         <f>VLOOKUP(B77,[1]Бланк!$D:$J,6,0)</f>
@@ -10974,13 +11026,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="B78" s="3">
-        <v>1001022376722</v>
+        <v>1001022466726</v>
       </c>
       <c r="C78" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="D78">
         <f>VLOOKUP(B78,[1]Бланк!$D:$J,6,0)</f>
@@ -10989,13 +11041,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="B79" s="3">
-        <v>1001022373812</v>
+        <v>1001020966144</v>
       </c>
       <c r="C79" t="s">
-        <v>3</v>
+        <v>163</v>
       </c>
       <c r="D79">
         <f>VLOOKUP(B79,[1]Бланк!$D:$J,6,0)</f>
@@ -11004,13 +11056,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="B80" s="3">
-        <v>1001022376113</v>
+        <v>1001022376722</v>
       </c>
       <c r="C80" t="s">
-        <v>4</v>
+        <v>135</v>
       </c>
       <c r="D80">
         <f>VLOOKUP(B80,[1]Бланк!$D:$J,6,0)</f>
@@ -11019,13 +11071,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B81" s="3">
-        <v>1001022246661</v>
+        <v>1001022373812</v>
       </c>
       <c r="C81" t="s">
-        <v>154</v>
+        <v>3</v>
       </c>
       <c r="D81">
         <f>VLOOKUP(B81,[1]Бланк!$D:$J,6,0)</f>
@@ -11034,13 +11086,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B82" s="3">
-        <v>1001022246713</v>
+        <v>1001022376113</v>
       </c>
       <c r="C82" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="D82">
         <f>VLOOKUP(B82,[1]Бланк!$D:$J,6,0)</f>
@@ -11049,13 +11101,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B83" s="3">
-        <v>1001025166241</v>
+        <v>1001022246661</v>
       </c>
       <c r="C83" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D83">
         <f>VLOOKUP(B83,[1]Бланк!$D:$J,6,0)</f>
@@ -11064,43 +11116,43 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="B84" s="3">
-        <v>6606</v>
+        <v>1001022246713</v>
       </c>
       <c r="C84" t="s">
-        <v>175</v>
-      </c>
-      <c r="D84" t="e">
+        <v>124</v>
+      </c>
+      <c r="D84">
         <f>VLOOKUP(B84,[1]Бланк!$D:$J,6,0)</f>
-        <v>#N/A</v>
+        <v>45</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B85" s="3">
-        <v>1001035326217</v>
+        <v>1001025166241</v>
       </c>
       <c r="C85" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="D85">
         <f>VLOOKUP(B85,[1]Бланк!$D:$J,6,0)</f>
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B86" s="3">
-        <v>1001303636301</v>
+        <v>6606</v>
       </c>
       <c r="C86" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="D86" t="e">
         <f>VLOOKUP(B86,[1]Бланк!$D:$J,6,0)</f>
@@ -11109,43 +11161,43 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>108</v>
+        <v>150</v>
       </c>
       <c r="B87" s="3">
-        <v>1001303636302</v>
+        <v>1001035326217</v>
       </c>
       <c r="C87" t="s">
-        <v>109</v>
+        <v>149</v>
       </c>
       <c r="D87">
         <f>VLOOKUP(B87,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="B88" s="3">
-        <v>1001305196215</v>
+        <v>1001303636301</v>
       </c>
       <c r="C88" t="s">
-        <v>93</v>
-      </c>
-      <c r="D88">
+        <v>164</v>
+      </c>
+      <c r="D88" t="e">
         <f>VLOOKUP(B88,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>168</v>
+        <v>108</v>
       </c>
       <c r="B89" s="3">
-        <v>1001301876212</v>
+        <v>1001303636302</v>
       </c>
       <c r="C89" t="s">
-        <v>165</v>
+        <v>109</v>
       </c>
       <c r="D89">
         <f>VLOOKUP(B89,[1]Бланк!$D:$J,6,0)</f>
@@ -11154,13 +11206,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B90" s="3">
-        <v>1001301876213</v>
+        <v>1001305196215</v>
       </c>
       <c r="C90" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D90">
         <f>VLOOKUP(B90,[1]Бланк!$D:$J,6,0)</f>
@@ -11169,13 +11221,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="B91" s="3">
-        <v>1001303636302</v>
+        <v>1001301876212</v>
       </c>
       <c r="C91" t="s">
-        <v>109</v>
+        <v>165</v>
       </c>
       <c r="D91">
         <f>VLOOKUP(B91,[1]Бланк!$D:$J,6,0)</f>
@@ -11184,43 +11236,43 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="B92" s="3">
-        <v>6645</v>
+        <v>1001301876213</v>
       </c>
       <c r="C92" t="s">
-        <v>177</v>
-      </c>
-      <c r="D92" t="e">
+        <v>92</v>
+      </c>
+      <c r="D92">
         <f>VLOOKUP(B92,[1]Бланк!$D:$J,6,0)</f>
-        <v>#N/A</v>
+        <v>60</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B93" s="3">
-        <v>1001225416228</v>
+        <v>1001303636302</v>
       </c>
       <c r="C93" t="s">
-        <v>179</v>
-      </c>
-      <c r="D93" t="e">
+        <v>109</v>
+      </c>
+      <c r="D93">
         <f>VLOOKUP(B93,[1]Бланк!$D:$J,6,0)</f>
-        <v>#N/A</v>
+        <v>60</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B94" s="3">
-        <v>6225</v>
+        <v>6645</v>
       </c>
       <c r="C94" t="s">
-        <v>304</v>
+        <v>177</v>
       </c>
       <c r="D94" t="e">
         <f>VLOOKUP(B94,[1]Бланк!$D:$J,6,0)</f>
@@ -11229,58 +11281,58 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B95" s="3">
-        <v>1001022376722</v>
+        <v>1001225416228</v>
       </c>
       <c r="C95" t="s">
-        <v>135</v>
-      </c>
-      <c r="D95">
+        <v>179</v>
+      </c>
+      <c r="D95" t="e">
         <f>VLOOKUP(B95,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B96" s="3">
-        <v>1001022376722</v>
+        <v>6225</v>
       </c>
       <c r="C96" t="s">
-        <v>135</v>
-      </c>
-      <c r="D96">
+        <v>304</v>
+      </c>
+      <c r="D96" t="e">
         <f>VLOOKUP(B96,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B97" s="3">
-        <v>3297</v>
+        <v>1001022376722</v>
       </c>
       <c r="C97" t="s">
-        <v>184</v>
-      </c>
-      <c r="D97" t="e">
+        <v>135</v>
+      </c>
+      <c r="D97">
         <f>VLOOKUP(B97,[1]Бланк!$D:$J,6,0)</f>
-        <v>#N/A</v>
+        <v>45</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B98" s="3">
-        <v>1001034063297</v>
+        <v>1001022376722</v>
       </c>
       <c r="C98" t="s">
-        <v>184</v>
+        <v>135</v>
       </c>
       <c r="D98">
         <f>VLOOKUP(B98,[1]Бланк!$D:$J,6,0)</f>
@@ -11289,73 +11341,69 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B99" s="3">
-        <v>1001022466726</v>
+        <v>3297</v>
       </c>
       <c r="C99" t="s">
-        <v>123</v>
-      </c>
-      <c r="D99">
+        <v>184</v>
+      </c>
+      <c r="D99" t="e">
         <f>VLOOKUP(B99,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B100" s="3">
-        <v>1001021966602</v>
+        <v>1001034063297</v>
       </c>
       <c r="C100" t="s">
-        <v>315</v>
+        <v>184</v>
       </c>
       <c r="D100">
         <f>VLOOKUP(B100,[1]Бланк!$D:$J,6,0)</f>
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>190</v>
+        <v>325</v>
       </c>
       <c r="B101" s="3">
-        <v>6233</v>
+        <v>1001022466726</v>
       </c>
       <c r="C101" t="s">
-        <v>189</v>
-      </c>
-      <c r="D101" t="e">
-        <f>VLOOKUP(B101,[1]Бланк!$D:$J,6,0)</f>
-        <v>#N/A</v>
+        <v>324</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>294</v>
+        <v>187</v>
       </c>
       <c r="B102" s="3">
-        <v>1001012826734</v>
+        <v>1001022466726</v>
       </c>
       <c r="C102" t="s">
-        <v>297</v>
+        <v>123</v>
       </c>
       <c r="D102">
         <f>VLOOKUP(B102,[1]Бланк!$D:$J,6,0)</f>
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B103" s="3">
-        <v>1001012826734</v>
+        <v>1001021966602</v>
       </c>
       <c r="C103" t="s">
-        <v>192</v>
+        <v>315</v>
       </c>
       <c r="D103">
         <f>VLOOKUP(B103,[1]Бланк!$D:$J,6,0)</f>
@@ -11364,13 +11412,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B104" s="3">
-        <v>6750</v>
+        <v>6233</v>
       </c>
       <c r="C104" t="s">
-        <v>99</v>
+        <v>189</v>
       </c>
       <c r="D104" t="e">
         <f>VLOOKUP(B104,[1]Бланк!$D:$J,6,0)</f>
@@ -11379,43 +11427,43 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>194</v>
+        <v>294</v>
       </c>
       <c r="B105" s="3">
-        <v>6751</v>
+        <v>1001012826734</v>
       </c>
       <c r="C105" t="s">
-        <v>101</v>
-      </c>
-      <c r="D105" t="e">
+        <v>297</v>
+      </c>
+      <c r="D105">
         <f>VLOOKUP(B105,[1]Бланк!$D:$J,6,0)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B106" s="3">
-        <v>5982</v>
+        <v>1001012826734</v>
       </c>
       <c r="C106" t="s">
-        <v>196</v>
-      </c>
-      <c r="D106" t="e">
+        <v>192</v>
+      </c>
+      <c r="D106">
         <f>VLOOKUP(B106,[1]Бланк!$D:$J,6,0)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B107" s="3">
-        <v>1001020965982</v>
+        <v>6750</v>
       </c>
       <c r="C107" t="s">
-        <v>196</v>
+        <v>99</v>
       </c>
       <c r="D107" t="e">
         <f>VLOOKUP(B107,[1]Бланк!$D:$J,6,0)</f>
@@ -11424,28 +11472,28 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="B108" s="3">
-        <v>1001094966025</v>
+        <v>6751</v>
       </c>
       <c r="C108" t="s">
-        <v>199</v>
-      </c>
-      <c r="D108">
+        <v>101</v>
+      </c>
+      <c r="D108" t="e">
         <f>VLOOKUP(B108,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B109" s="3">
-        <v>6025</v>
+        <v>5982</v>
       </c>
       <c r="C109" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D109" t="e">
         <f>VLOOKUP(B109,[1]Бланк!$D:$J,6,0)</f>
@@ -11454,13 +11502,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B110" s="3">
-        <v>6221</v>
+        <v>1001020965982</v>
       </c>
       <c r="C110" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D110" t="e">
         <f>VLOOKUP(B110,[1]Бланк!$D:$J,6,0)</f>
@@ -11469,178 +11517,178 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B111" s="3">
-        <v>1001205376221</v>
+        <v>1001094966025</v>
       </c>
       <c r="C111" t="s">
-        <v>201</v>
-      </c>
-      <c r="D111" t="e">
+        <v>199</v>
+      </c>
+      <c r="D111">
         <f>VLOOKUP(B111,[1]Бланк!$D:$J,6,0)</f>
-        <v>#N/A</v>
+        <v>60</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B112" s="3">
-        <v>1001034063297</v>
+        <v>6025</v>
       </c>
       <c r="C112" t="s">
-        <v>206</v>
-      </c>
-      <c r="D112">
+        <v>199</v>
+      </c>
+      <c r="D112" t="e">
         <f>VLOOKUP(B112,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B113" s="3">
-        <v>1001022373812</v>
+        <v>6221</v>
       </c>
       <c r="C113" t="s">
-        <v>3</v>
-      </c>
-      <c r="D113">
+        <v>201</v>
+      </c>
+      <c r="D113" t="e">
         <f>VLOOKUP(B113,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B114" s="3">
-        <v>1001100605159</v>
+        <v>1001205376221</v>
       </c>
       <c r="C114" t="s">
-        <v>209</v>
-      </c>
-      <c r="D114">
+        <v>201</v>
+      </c>
+      <c r="D114" t="e">
         <f>VLOOKUP(B114,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B115" s="3">
-        <v>1001100615160</v>
+        <v>1001034063297</v>
       </c>
       <c r="C115" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D115">
         <f>VLOOKUP(B115,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B116" s="3">
-        <v>1001100625161</v>
+        <v>1001022373812</v>
       </c>
       <c r="C116" t="s">
-        <v>213</v>
+        <v>3</v>
       </c>
       <c r="D116">
         <f>VLOOKUP(B116,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B117" s="3">
-        <v>1001035026308</v>
+        <v>1001100605159</v>
       </c>
       <c r="C117" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D117">
         <f>VLOOKUP(B117,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B118" s="3">
-        <v>1001014486159</v>
+        <v>1001100615160</v>
       </c>
       <c r="C118" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D118">
         <f>VLOOKUP(B118,[1]Бланк!$D:$J,6,0)</f>
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B119" s="3">
-        <v>1001035326217</v>
+        <v>1001100625161</v>
       </c>
       <c r="C119" t="s">
-        <v>321</v>
+        <v>213</v>
       </c>
       <c r="D119">
         <f>VLOOKUP(B119,[1]Бланк!$D:$J,6,0)</f>
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B120" s="3">
-        <v>1001012426220</v>
+        <v>1001035026308</v>
       </c>
       <c r="C120" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D120">
         <f>VLOOKUP(B120,[1]Бланк!$D:$J,6,0)</f>
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B121" s="3">
-        <v>1001022466236</v>
+        <v>1001014486159</v>
       </c>
       <c r="C121" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D121">
         <f>VLOOKUP(B121,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B122" s="3">
-        <v>1001021966602</v>
+        <v>1001035326217</v>
       </c>
       <c r="C122" t="s">
-        <v>224</v>
+        <v>321</v>
       </c>
       <c r="D122">
         <f>VLOOKUP(B122,[1]Бланк!$D:$J,6,0)</f>
@@ -11649,28 +11697,28 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B123" s="3">
-        <v>1001022296656</v>
+        <v>1001012426220</v>
       </c>
       <c r="C123" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D123">
         <f>VLOOKUP(B123,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B124" s="3">
-        <v>1001304506684</v>
+        <v>1001022466236</v>
       </c>
       <c r="C124" t="s">
-        <v>65</v>
+        <v>222</v>
       </c>
       <c r="D124">
         <f>VLOOKUP(B124,[1]Бланк!$D:$J,6,0)</f>
@@ -11679,28 +11727,28 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B125" s="3">
-        <v>1001301876697</v>
+        <v>1001021966602</v>
       </c>
       <c r="C125" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D125">
         <f>VLOOKUP(B125,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B126" s="3">
-        <v>1001022246713</v>
+        <v>1001022296656</v>
       </c>
       <c r="C126" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D126">
         <f>VLOOKUP(B126,[1]Бланк!$D:$J,6,0)</f>
@@ -11709,28 +11757,28 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B127" s="3">
-        <v>1001012816716</v>
+        <v>1001304506684</v>
       </c>
       <c r="C127" t="s">
-        <v>162</v>
+        <v>65</v>
       </c>
       <c r="D127">
         <f>VLOOKUP(B127,[1]Бланк!$D:$J,6,0)</f>
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B128" s="3">
-        <v>1001022376722</v>
+        <v>1001301876697</v>
       </c>
       <c r="C128" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D128">
         <f>VLOOKUP(B128,[1]Бланк!$D:$J,6,0)</f>
@@ -11739,13 +11787,13 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B129" s="3">
-        <v>1001020846751</v>
+        <v>1001022246713</v>
       </c>
       <c r="C129" t="s">
-        <v>101</v>
+        <v>231</v>
       </c>
       <c r="D129">
         <f>VLOOKUP(B129,[1]Бланк!$D:$J,6,0)</f>
@@ -11754,58 +11802,58 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B130" s="3">
-        <v>1001022725819</v>
+        <v>1001012816716</v>
       </c>
       <c r="C130" t="s">
-        <v>237</v>
+        <v>162</v>
       </c>
       <c r="D130">
         <f>VLOOKUP(B130,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B131" s="3">
-        <v>1001012825337</v>
+        <v>1001022376722</v>
       </c>
       <c r="C131" t="s">
-        <v>28</v>
+        <v>234</v>
       </c>
       <c r="D131">
         <f>VLOOKUP(B131,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B132" s="3">
-        <v>1001012815336</v>
+        <v>1001020846751</v>
       </c>
       <c r="C132" t="s">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="D132">
         <f>VLOOKUP(B132,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B133" s="3">
-        <v>1001234146448</v>
+        <v>1001022725819</v>
       </c>
       <c r="C133" t="s">
-        <v>77</v>
+        <v>237</v>
       </c>
       <c r="D133">
         <f>VLOOKUP(B133,[1]Бланк!$D:$J,6,0)</f>
@@ -11814,28 +11862,28 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B134" s="3">
-        <v>1001022725819</v>
+        <v>1001012825337</v>
       </c>
       <c r="C134" t="s">
-        <v>237</v>
+        <v>28</v>
       </c>
       <c r="D134">
         <f>VLOOKUP(B134,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B135" s="3">
-        <v>1001092676027</v>
+        <v>1001012815336</v>
       </c>
       <c r="C135" t="s">
-        <v>243</v>
+        <v>26</v>
       </c>
       <c r="D135">
         <f>VLOOKUP(B135,[1]Бланк!$D:$J,6,0)</f>
@@ -11844,28 +11892,28 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B136" s="3">
-        <v>1001301876213</v>
+        <v>1001234146448</v>
       </c>
       <c r="C136" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="D136">
         <f>VLOOKUP(B136,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B137" s="3">
-        <v>1001022726303</v>
+        <v>1001022725819</v>
       </c>
       <c r="C137" t="s">
-        <v>283</v>
+        <v>237</v>
       </c>
       <c r="D137">
         <f>VLOOKUP(B137,[1]Бланк!$D:$J,6,0)</f>
@@ -11874,28 +11922,28 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B138" s="3">
-        <v>1001035026308</v>
+        <v>1001092676027</v>
       </c>
       <c r="C138" t="s">
-        <v>215</v>
+        <v>243</v>
       </c>
       <c r="D138">
         <f>VLOOKUP(B138,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B139" s="3">
-        <v>1001012566392</v>
+        <v>1001301876213</v>
       </c>
       <c r="C139" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="D139">
         <f>VLOOKUP(B139,[1]Бланк!$D:$J,6,0)</f>
@@ -11904,13 +11952,13 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B140" s="3">
-        <v>1001234146448</v>
+        <v>1001022726303</v>
       </c>
       <c r="C140" t="s">
-        <v>77</v>
+        <v>283</v>
       </c>
       <c r="D140">
         <f>VLOOKUP(B140,[1]Бланк!$D:$J,6,0)</f>
@@ -11919,13 +11967,13 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B141" s="3">
-        <v>1001233296450</v>
+        <v>1001035026308</v>
       </c>
       <c r="C141" t="s">
-        <v>79</v>
+        <v>215</v>
       </c>
       <c r="D141">
         <f>VLOOKUP(B141,[1]Бланк!$D:$J,6,0)</f>
@@ -11934,13 +11982,13 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B142" s="3">
-        <v>1001201976454</v>
+        <v>1001012566392</v>
       </c>
       <c r="C142" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="D142">
         <f>VLOOKUP(B142,[1]Бланк!$D:$J,6,0)</f>
@@ -11949,13 +11997,13 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B143" s="3">
-        <v>1001025176475</v>
+        <v>1001234146448</v>
       </c>
       <c r="C143" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D143">
         <f>VLOOKUP(B143,[1]Бланк!$D:$J,6,0)</f>
@@ -11964,28 +12012,28 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B144" s="3">
-        <v>1001012456498</v>
+        <v>1001233296450</v>
       </c>
       <c r="C144" t="s">
-        <v>253</v>
+        <v>79</v>
       </c>
       <c r="D144">
         <f>VLOOKUP(B144,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B145" s="3">
-        <v>1001010036596</v>
+        <v>1001201976454</v>
       </c>
       <c r="C145" t="s">
-        <v>255</v>
+        <v>83</v>
       </c>
       <c r="D145">
         <f>VLOOKUP(B145,[1]Бланк!$D:$J,6,0)</f>
@@ -11994,13 +12042,13 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B146" s="3">
-        <v>1001033856607</v>
+        <v>1001025176475</v>
       </c>
       <c r="C146" t="s">
-        <v>257</v>
+        <v>85</v>
       </c>
       <c r="D146">
         <f>VLOOKUP(B146,[1]Бланк!$D:$J,6,0)</f>
@@ -12009,43 +12057,43 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B147" s="3">
-        <v>1001033856609</v>
+        <v>1001012456498</v>
       </c>
       <c r="C147" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="D147">
         <f>VLOOKUP(B147,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B148" s="3">
-        <v>1001302276666</v>
+        <v>1001010036596</v>
       </c>
       <c r="C148" t="s">
-        <v>68</v>
+        <v>255</v>
       </c>
       <c r="D148">
         <f>VLOOKUP(B148,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B149" s="3">
-        <v>1001300516669</v>
+        <v>1001033856607</v>
       </c>
       <c r="C149" t="s">
-        <v>69</v>
+        <v>257</v>
       </c>
       <c r="D149">
         <f>VLOOKUP(B149,[1]Бланк!$D:$J,6,0)</f>
@@ -12054,73 +12102,73 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B150" s="3">
-        <v>1001092446755</v>
+        <v>1001033856609</v>
       </c>
       <c r="C150" t="s">
-        <v>317</v>
+        <v>259</v>
       </c>
       <c r="D150">
         <f>VLOOKUP(B150,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B151" s="3">
-        <v>1001092446756</v>
+        <v>1001302276666</v>
       </c>
       <c r="C151" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="D151">
         <f>VLOOKUP(B151,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B152" s="3">
-        <v>6550</v>
+        <v>1001300516669</v>
       </c>
       <c r="C152" t="s">
-        <v>265</v>
-      </c>
-      <c r="D152" t="e">
+        <v>69</v>
+      </c>
+      <c r="D152">
         <f>VLOOKUP(B152,[1]Бланк!$D:$J,6,0)</f>
-        <v>#N/A</v>
+        <v>45</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B153" s="3">
-        <v>1001304506684</v>
+        <v>1001092446755</v>
       </c>
       <c r="C153" t="s">
-        <v>65</v>
+        <v>317</v>
       </c>
       <c r="D153">
         <f>VLOOKUP(B153,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B154" s="3">
-        <v>1001010113248</v>
+        <v>1001092446756</v>
       </c>
       <c r="C154" t="s">
-        <v>268</v>
+        <v>16</v>
       </c>
       <c r="D154">
         <f>VLOOKUP(B154,[1]Бланк!$D:$J,6,0)</f>
@@ -12129,103 +12177,103 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B155" s="3">
-        <v>1001063925206</v>
+        <v>6550</v>
       </c>
       <c r="C155" t="s">
-        <v>270</v>
-      </c>
-      <c r="D155">
+        <v>265</v>
+      </c>
+      <c r="D155" t="e">
         <f>VLOOKUP(B155,[1]Бланк!$D:$J,6,0)</f>
-        <v>120</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B156" s="3">
-        <v>6586</v>
+        <v>1001304506684</v>
       </c>
       <c r="C156" t="s">
-        <v>272</v>
-      </c>
-      <c r="D156" t="e">
+        <v>65</v>
+      </c>
+      <c r="D156">
         <f>VLOOKUP(B156,[1]Бланк!$D:$J,6,0)</f>
-        <v>#N/A</v>
+        <v>45</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B157" s="3">
-        <v>1001303636467</v>
+        <v>1001010113248</v>
       </c>
       <c r="C157" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="D157">
         <f>VLOOKUP(B157,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B158" s="3">
-        <v>1001022246661</v>
+        <v>1001063925206</v>
       </c>
       <c r="C158" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D158">
         <f>VLOOKUP(B158,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>120</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B159" s="3">
-        <v>1001304496701</v>
+        <v>6586</v>
       </c>
       <c r="C159" t="s">
-        <v>278</v>
-      </c>
-      <c r="D159">
+        <v>272</v>
+      </c>
+      <c r="D159" t="e">
         <f>VLOOKUP(B159,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B160" s="3">
-        <v>6144</v>
+        <v>1001303636467</v>
       </c>
       <c r="C160" t="s">
-        <v>280</v>
-      </c>
-      <c r="D160" t="e">
+        <v>274</v>
+      </c>
+      <c r="D160">
         <f>VLOOKUP(B160,[1]Бланк!$D:$J,6,0)</f>
-        <v>#N/A</v>
+        <v>45</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B161" s="3">
-        <v>1001022725819</v>
+        <v>1001022246661</v>
       </c>
       <c r="C161" t="s">
-        <v>237</v>
+        <v>276</v>
       </c>
       <c r="D161">
         <f>VLOOKUP(B161,[1]Бланк!$D:$J,6,0)</f>
@@ -12234,13 +12282,13 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B162" s="3">
-        <v>1001022726303</v>
+        <v>1001304496701</v>
       </c>
       <c r="C162" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D162">
         <f>VLOOKUP(B162,[1]Бланк!$D:$J,6,0)</f>
@@ -12249,28 +12297,28 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B163" s="3">
-        <v>1001022373812</v>
+        <v>6144</v>
       </c>
       <c r="C163" t="s">
-        <v>3</v>
-      </c>
-      <c r="D163">
+        <v>280</v>
+      </c>
+      <c r="D163" t="e">
         <f>VLOOKUP(B163,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B164" s="3">
-        <v>1001024906062</v>
+        <v>1001022725819</v>
       </c>
       <c r="C164" t="s">
-        <v>286</v>
+        <v>237</v>
       </c>
       <c r="D164">
         <f>VLOOKUP(B164,[1]Бланк!$D:$J,6,0)</f>
@@ -12279,13 +12327,13 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B165" s="3">
-        <v>1001300386683</v>
+        <v>1001022726303</v>
       </c>
       <c r="C165" t="s">
-        <v>87</v>
+        <v>283</v>
       </c>
       <c r="D165">
         <f>VLOOKUP(B165,[1]Бланк!$D:$J,6,0)</f>
@@ -12294,13 +12342,13 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B166" s="3">
-        <v>1001303986689</v>
+        <v>1001022373812</v>
       </c>
       <c r="C166" t="s">
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="D166">
         <f>VLOOKUP(B166,[1]Бланк!$D:$J,6,0)</f>
@@ -12309,13 +12357,13 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B167" s="3">
-        <v>1001303056692</v>
+        <v>1001024906062</v>
       </c>
       <c r="C167" t="s">
-        <v>67</v>
+        <v>286</v>
       </c>
       <c r="D167">
         <f>VLOOKUP(B167,[1]Бланк!$D:$J,6,0)</f>
@@ -12324,13 +12372,13 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B168" s="3">
-        <v>1001301876697</v>
+        <v>1001300386683</v>
       </c>
       <c r="C168" t="s">
-        <v>229</v>
+        <v>87</v>
       </c>
       <c r="D168">
         <f>VLOOKUP(B168,[1]Бланк!$D:$J,6,0)</f>
@@ -12339,13 +12387,13 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B169" s="3">
-        <v>1001302276666</v>
+        <v>1001303986689</v>
       </c>
       <c r="C169" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D169">
         <f>VLOOKUP(B169,[1]Бланк!$D:$J,6,0)</f>
@@ -12354,43 +12402,43 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B170" s="3">
-        <v>1001012634574</v>
+        <v>1001303056692</v>
       </c>
       <c r="C170" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="D170">
         <f>VLOOKUP(B170,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="B171" s="3">
-        <v>1001092485452</v>
+        <v>1001301876697</v>
       </c>
       <c r="C171" t="s">
-        <v>296</v>
+        <v>229</v>
       </c>
       <c r="D171">
         <f>VLOOKUP(B171,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="B172" s="3">
-        <v>1001020966144</v>
+        <v>1001302276666</v>
       </c>
       <c r="C172" t="s">
-        <v>163</v>
+        <v>68</v>
       </c>
       <c r="D172">
         <f>VLOOKUP(B172,[1]Бланк!$D:$J,6,0)</f>
@@ -12399,43 +12447,43 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B173" s="3">
-        <v>6586</v>
+        <v>1001012634574</v>
       </c>
       <c r="C173" t="s">
-        <v>272</v>
-      </c>
-      <c r="D173" t="e">
+        <v>12</v>
+      </c>
+      <c r="D173">
         <f>VLOOKUP(B173,[1]Бланк!$D:$J,6,0)</f>
-        <v>#N/A</v>
+        <v>60</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B174" s="3">
-        <v>1001300516669</v>
+        <v>1001092485452</v>
       </c>
       <c r="C174" t="s">
-        <v>69</v>
+        <v>296</v>
       </c>
       <c r="D174">
         <f>VLOOKUP(B174,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B175" s="3">
-        <v>1001304496701</v>
+        <v>1001020966144</v>
       </c>
       <c r="C175" t="s">
-        <v>278</v>
+        <v>163</v>
       </c>
       <c r="D175">
         <f>VLOOKUP(B175,[1]Бланк!$D:$J,6,0)</f>
@@ -12444,103 +12492,103 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B176" s="3">
-        <v>1001063655015</v>
+        <v>6586</v>
       </c>
       <c r="C176" t="s">
-        <v>303</v>
-      </c>
-      <c r="D176">
+        <v>272</v>
+      </c>
+      <c r="D176" t="e">
         <f>VLOOKUP(B176,[1]Бланк!$D:$J,6,0)</f>
-        <v>120</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="B177" s="3">
-        <v>1001060763287</v>
+        <v>1001300516669</v>
       </c>
       <c r="C177" t="s">
-        <v>306</v>
+        <v>69</v>
       </c>
       <c r="D177">
         <f>VLOOKUP(B177,[1]Бланк!$D:$J,6,0)</f>
-        <v>120</v>
+        <v>45</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="B178" s="3" t="s">
-        <v>316</v>
+        <v>301</v>
+      </c>
+      <c r="B178" s="3">
+        <v>1001304496701</v>
       </c>
       <c r="C178" t="s">
-        <v>179</v>
+        <v>278</v>
       </c>
       <c r="D178">
         <f>VLOOKUP(B178,[1]Бланк!$D:$J,6,0)</f>
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B179" s="3">
-        <v>1001032736550</v>
+        <v>1001063655015</v>
       </c>
       <c r="C179" t="s">
-        <v>265</v>
+        <v>303</v>
       </c>
       <c r="D179">
         <f>VLOOKUP(B179,[1]Бланк!$D:$J,6,0)</f>
-        <v>0</v>
+        <v>120</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B180" s="3">
-        <v>6758</v>
+        <v>1001060763287</v>
       </c>
       <c r="C180" t="s">
-        <v>310</v>
-      </c>
-      <c r="D180" t="e">
+        <v>306</v>
+      </c>
+      <c r="D180">
         <f>VLOOKUP(B180,[1]Бланк!$D:$J,6,0)</f>
-        <v>#N/A</v>
+        <v>120</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="B181" s="3">
-        <v>1001020965976</v>
+        <v>307</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>316</v>
       </c>
       <c r="C181" t="s">
-        <v>312</v>
+        <v>179</v>
       </c>
       <c r="D181">
         <f>VLOOKUP(B181,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="B182" s="3">
-        <v>1001215576586</v>
+        <v>1001032736550</v>
       </c>
       <c r="C182" t="s">
-        <v>314</v>
+        <v>265</v>
       </c>
       <c r="D182">
         <f>VLOOKUP(B182,[1]Бланк!$D:$J,6,0)</f>
@@ -12549,36 +12597,158 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="B183" s="3">
-        <v>1001094896026</v>
+        <v>6758</v>
       </c>
       <c r="C183" t="s">
-        <v>319</v>
-      </c>
-      <c r="D183">
+        <v>310</v>
+      </c>
+      <c r="D183" t="e">
         <f>VLOOKUP(B183,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="B184" s="3">
-        <v>1001215576586</v>
+        <v>1001020965976</v>
       </c>
       <c r="C184" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D184">
         <f>VLOOKUP(B184,[1]Бланк!$D:$J,6,0)</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B185" s="3">
+        <v>1001215576586</v>
+      </c>
+      <c r="C185" t="s">
+        <v>314</v>
+      </c>
+      <c r="D185">
+        <f>VLOOKUP(B185,[1]Бланк!$D:$J,6,0)</f>
         <v>0</v>
       </c>
     </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B186" s="3">
+        <v>1001094896026</v>
+      </c>
+      <c r="C186" t="s">
+        <v>319</v>
+      </c>
+      <c r="D186">
+        <f>VLOOKUP(B186,[1]Бланк!$D:$J,6,0)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B187" s="3">
+        <v>1001215576586</v>
+      </c>
+      <c r="C187" t="s">
+        <v>314</v>
+      </c>
+      <c r="D187">
+        <f>VLOOKUP(B187,[1]Бланк!$D:$J,6,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B188" s="3">
+        <v>1001092436470</v>
+      </c>
+      <c r="C188" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B189" s="3">
+        <v>1001203146555</v>
+      </c>
+      <c r="C189" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B190" s="3">
+        <v>1001014765992</v>
+      </c>
+      <c r="C190" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B191" s="3">
+        <v>1001014765993</v>
+      </c>
+      <c r="C191" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B192" s="3">
+        <v>1001025166776</v>
+      </c>
+      <c r="C192" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B193" s="3">
+        <v>1001025506777</v>
+      </c>
+      <c r="C193" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B194" s="3">
+        <v>1001025546822</v>
+      </c>
+      <c r="C194" t="s">
+        <v>339</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C184" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
+  <autoFilter ref="A1:C191" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/moduls/1С.xlsx
+++ b/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\Останкино КИ\ostankino_ki\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B47D0F6-9D4E-42CD-8D20-1657C4EA7690}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F2AA75-415E-41AD-AEA6-C5C305DE3B07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,9 +19,9 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$191</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$210</definedName>
   </definedNames>
-  <calcPr calcId="181029" refMode="R1C1"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="363">
   <si>
     <t>1С</t>
   </si>
@@ -1057,6 +1057,75 @@
   </si>
   <si>
     <t>ИЗ ОТБОРНОГО МЯСА ПМ сос п/о мгс 0,36кг</t>
+  </si>
+  <si>
+    <t>ВРЕМЯ ОКРОШКИ Папа может вар п/о 0.4кг</t>
+  </si>
+  <si>
+    <t>5992 ВРЕМЯ ОКРОШКИ Папа может вар п/о 0.4кг   ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>МОЛОЧНЫЕ КЛАССИЧЕСКИЕ сос п/о в/у 0.3кг</t>
+  </si>
+  <si>
+    <t>6616 МОЛОЧНЫЕ КЛАССИЧЕСКИЕ сос п/о в/у 0.3кг  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>РУССКАЯ ПРЕМИУМ ПМ вар ф/о в/у</t>
+  </si>
+  <si>
+    <t>6747 РУССКАЯ ПРЕМИУМ ПМ вар ф/о в/у  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6445 БЕКОН с/к с/н в/у 1/180 10шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БЕКОН с/к с/н в/у 1/180 10шт. </t>
+  </si>
+  <si>
+    <t>6555 ПОСОЛЬСКАЯ с/к с/н в/у 1/100 10шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>5993 ВРЕМЯ ОКРОШКИ Папа может вар п/о   ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6726 СЛИВОЧНЫЕ ПМ сос п/о мгс 0,41кг 10шт  Останкино</t>
+  </si>
+  <si>
+    <t>6776 ХОТ-ДОГ Папа может сос п/о мгс 0,35кг  Останкино</t>
+  </si>
+  <si>
+    <t>6777 МЯСНЫЕ С ГОВЯДИНОЙ ПМ сос п/о мгс 0,4кг  Останкино</t>
+  </si>
+  <si>
+    <t>6778 МЯСНИКС Папа Может сос б/о мгс 1/160  Останкино</t>
+  </si>
+  <si>
+    <t>МЯСНИКС Папа Может сос б/о мгс 1/160</t>
+  </si>
+  <si>
+    <t>Сервелат с белыми грибами в/к в/у 1/310 6шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Сосиски Сочные ГРИЛЬ   сос п/о мгс 1*6  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>Сервелат копченый на буке Папа может в/к в/у 1/350 6шт.   ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ КОПЧЕНЫЙ НА БУКЕ в/к в/у 0.35кг</t>
+  </si>
+  <si>
+    <t>МОЛОЧНЫЕ ТРАДИЦ. сос п/о мгс 0.6кг_45с</t>
+  </si>
+  <si>
+    <t>6042 МОЛОЧНЫЕ ТРАДИЦ.  сос п/о мгс.  0.6кг _LTF</t>
+  </si>
+  <si>
+    <t>6822ИЗ ОТБОРНОГО МЯСА ПМ сосп/о мгс 0.36кг</t>
+  </si>
+  <si>
+    <t>6822ИЗ ОТБОРНОГО МЯСА ПМ сос п/о мгс 0.36кг</t>
   </si>
 </sst>
 </file>
@@ -1144,7 +1213,7 @@
       <sheetName val="Бланк"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
+      <sheetData sheetId="0" refreshError="1">
         <row r="1">
           <cell r="D1">
             <v>130434666</v>
@@ -9861,11 +9930,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D194"/>
+  <dimension ref="A1:D210"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
+      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9873,6 +9942,7 @@
     <col min="1" max="1" width="61.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" style="3" customWidth="1"/>
     <col min="3" max="3" width="44.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -10800,8 +10870,8 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
-        <v>127</v>
+      <c r="A63" s="4" t="s">
+        <v>355</v>
       </c>
       <c r="B63" s="3">
         <v>1001305306566</v>
@@ -10809,20 +10879,16 @@
       <c r="C63" t="s">
         <v>128</v>
       </c>
-      <c r="D63">
-        <f>VLOOKUP(B63,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
-      </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B64" s="3">
-        <v>1001300386683</v>
+        <v>1001305306566</v>
       </c>
       <c r="C64" t="s">
-        <v>87</v>
+        <v>128</v>
       </c>
       <c r="D64">
         <f>VLOOKUP(B64,[1]Бланк!$D:$J,6,0)</f>
@@ -10831,13 +10897,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B65" s="3">
-        <v>1001303986689</v>
+        <v>1001300386683</v>
       </c>
       <c r="C65" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="D65">
         <f>VLOOKUP(B65,[1]Бланк!$D:$J,6,0)</f>
@@ -10846,13 +10912,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B66" s="3">
-        <v>1001300516669</v>
+        <v>1001303986689</v>
       </c>
       <c r="C66" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D66">
         <f>VLOOKUP(B66,[1]Бланк!$D:$J,6,0)</f>
@@ -10861,88 +10927,88 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B67" s="3">
-        <v>1001012566392</v>
+        <v>1001300516669</v>
       </c>
       <c r="C67" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D67">
         <f>VLOOKUP(B67,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B68" s="3">
-        <v>1001302276666</v>
+        <v>1001012566392</v>
       </c>
       <c r="C68" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D68">
         <f>VLOOKUP(B68,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B69" s="3">
-        <v>1001012426268</v>
+        <v>1001302276666</v>
       </c>
       <c r="C69" t="s">
-        <v>139</v>
-      </c>
-      <c r="D69" t="e">
+        <v>68</v>
+      </c>
+      <c r="D69">
         <f>VLOOKUP(B69,[1]Бланк!$D:$J,6,0)</f>
-        <v>#N/A</v>
+        <v>45</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B70" s="3">
-        <v>1001024906041</v>
+        <v>1001012426268</v>
       </c>
       <c r="C70" t="s">
-        <v>145</v>
-      </c>
-      <c r="D70">
+        <v>139</v>
+      </c>
+      <c r="D70" t="e">
         <f>VLOOKUP(B70,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B71" s="3">
-        <v>1001011086247</v>
+        <v>1001024906041</v>
       </c>
       <c r="C71" t="s">
-        <v>144</v>
-      </c>
-      <c r="D71" t="e">
+        <v>145</v>
+      </c>
+      <c r="D71">
         <f>VLOOKUP(B71,[1]Бланк!$D:$J,6,0)</f>
-        <v>#N/A</v>
+        <v>45</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="B72" s="3">
-        <v>1001014486158</v>
+        <v>1001011086247</v>
       </c>
       <c r="C72" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="D72" t="e">
         <f>VLOOKUP(B72,[1]Бланк!$D:$J,6,0)</f>
@@ -10951,13 +11017,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B73" s="3">
-        <v>1001015356259</v>
+        <v>1001014486158</v>
       </c>
       <c r="C73" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D73" t="e">
         <f>VLOOKUP(B73,[1]Бланк!$D:$J,6,0)</f>
@@ -10966,58 +11032,57 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B74" s="3">
-        <v>1001012816716</v>
+        <v>1001015356259</v>
       </c>
       <c r="C74" t="s">
-        <v>162</v>
-      </c>
-      <c r="D74">
+        <v>161</v>
+      </c>
+      <c r="D74" t="e">
         <f>VLOOKUP(B74,[1]Бланк!$D:$J,6,0)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="B75" s="3">
-        <v>1001020966227</v>
+        <v>1001012816716</v>
       </c>
       <c r="C75" t="s">
-        <v>148</v>
-      </c>
-      <c r="D75">
+        <v>162</v>
+      </c>
+      <c r="D75" t="e">
         <f>VLOOKUP(B75,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>141</v>
+        <v>360</v>
       </c>
       <c r="B76" s="3">
-        <v>1001020965981</v>
+        <v>1001020966227</v>
       </c>
       <c r="C76" t="s">
-        <v>142</v>
+        <v>359</v>
       </c>
       <c r="D76">
-        <f>VLOOKUP(B76,[1]Бланк!$D:$J,6,0)</f>
         <v>45</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="B77" s="3">
-        <v>1001022726303</v>
+        <v>1001020966227</v>
       </c>
       <c r="C77" t="s">
-        <v>174</v>
+        <v>148</v>
       </c>
       <c r="D77">
         <f>VLOOKUP(B77,[1]Бланк!$D:$J,6,0)</f>
@@ -11026,13 +11091,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="B78" s="3">
-        <v>1001022466726</v>
+        <v>1001020965981</v>
       </c>
       <c r="C78" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="D78">
         <f>VLOOKUP(B78,[1]Бланк!$D:$J,6,0)</f>
@@ -11041,13 +11106,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B79" s="3">
-        <v>1001020966144</v>
+        <v>1001022726303</v>
       </c>
       <c r="C79" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="D79">
         <f>VLOOKUP(B79,[1]Бланк!$D:$J,6,0)</f>
@@ -11056,13 +11121,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="B80" s="3">
-        <v>1001022376722</v>
+        <v>1001022466726</v>
       </c>
       <c r="C80" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="D80">
         <f>VLOOKUP(B80,[1]Бланк!$D:$J,6,0)</f>
@@ -11071,13 +11136,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="B81" s="3">
-        <v>1001022373812</v>
+        <v>1001020966144</v>
       </c>
       <c r="C81" t="s">
-        <v>3</v>
+        <v>163</v>
       </c>
       <c r="D81">
         <f>VLOOKUP(B81,[1]Бланк!$D:$J,6,0)</f>
@@ -11086,13 +11151,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="B82" s="3">
-        <v>1001022376113</v>
+        <v>1001022376722</v>
       </c>
       <c r="C82" t="s">
-        <v>4</v>
+        <v>135</v>
       </c>
       <c r="D82">
         <f>VLOOKUP(B82,[1]Бланк!$D:$J,6,0)</f>
@@ -11101,13 +11166,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B83" s="3">
-        <v>1001022246661</v>
+        <v>1001022373812</v>
       </c>
       <c r="C83" t="s">
-        <v>154</v>
+        <v>3</v>
       </c>
       <c r="D83">
         <f>VLOOKUP(B83,[1]Бланк!$D:$J,6,0)</f>
@@ -11116,13 +11181,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B84" s="3">
-        <v>1001022246713</v>
+        <v>1001022376113</v>
       </c>
       <c r="C84" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="D84">
         <f>VLOOKUP(B84,[1]Бланк!$D:$J,6,0)</f>
@@ -11131,13 +11196,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>155</v>
+        <v>275</v>
       </c>
       <c r="B85" s="3">
-        <v>1001025166241</v>
+        <v>1001022246661</v>
       </c>
       <c r="C85" t="s">
-        <v>159</v>
+        <v>276</v>
       </c>
       <c r="D85">
         <f>VLOOKUP(B85,[1]Бланк!$D:$J,6,0)</f>
@@ -11146,112 +11211,112 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>173</v>
+        <v>356</v>
       </c>
       <c r="B86" s="3">
-        <v>6606</v>
+        <v>1001022246661</v>
       </c>
       <c r="C86" t="s">
-        <v>175</v>
-      </c>
-      <c r="D86" t="e">
+        <v>276</v>
+      </c>
+      <c r="D86">
         <f>VLOOKUP(B86,[1]Бланк!$D:$J,6,0)</f>
-        <v>#N/A</v>
+        <v>45</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B87" s="3">
-        <v>1001035326217</v>
+        <v>1001022246661</v>
       </c>
       <c r="C87" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="D87">
         <f>VLOOKUP(B87,[1]Бланк!$D:$J,6,0)</f>
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="B88" s="3">
-        <v>1001303636301</v>
+        <v>1001022246713</v>
       </c>
       <c r="C88" t="s">
-        <v>164</v>
-      </c>
-      <c r="D88" t="e">
+        <v>124</v>
+      </c>
+      <c r="D88">
         <f>VLOOKUP(B88,[1]Бланк!$D:$J,6,0)</f>
-        <v>#N/A</v>
+        <v>45</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>108</v>
+        <v>155</v>
       </c>
       <c r="B89" s="3">
-        <v>1001303636302</v>
+        <v>1001025166241</v>
       </c>
       <c r="C89" t="s">
-        <v>109</v>
+        <v>159</v>
       </c>
       <c r="D89">
         <f>VLOOKUP(B89,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="B90" s="3">
-        <v>1001305196215</v>
+        <v>6606</v>
       </c>
       <c r="C90" t="s">
-        <v>93</v>
-      </c>
-      <c r="D90">
+        <v>175</v>
+      </c>
+      <c r="D90" t="e">
         <f>VLOOKUP(B90,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="B91" s="3">
-        <v>1001301876212</v>
+        <v>1001035326217</v>
       </c>
       <c r="C91" t="s">
-        <v>165</v>
-      </c>
-      <c r="D91">
+        <v>149</v>
+      </c>
+      <c r="D91" t="e">
         <f>VLOOKUP(B91,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="B92" s="3">
-        <v>1001301876213</v>
+        <v>1001303636301</v>
       </c>
       <c r="C92" t="s">
-        <v>92</v>
-      </c>
-      <c r="D92">
+        <v>164</v>
+      </c>
+      <c r="D92" t="e">
         <f>VLOOKUP(B92,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>176</v>
+        <v>108</v>
       </c>
       <c r="B93" s="3">
         <v>1001303636302</v>
@@ -11266,88 +11331,88 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="B94" s="3">
-        <v>6645</v>
+        <v>1001305196215</v>
       </c>
       <c r="C94" t="s">
-        <v>177</v>
-      </c>
-      <c r="D94" t="e">
+        <v>93</v>
+      </c>
+      <c r="D94">
         <f>VLOOKUP(B94,[1]Бланк!$D:$J,6,0)</f>
-        <v>#N/A</v>
+        <v>60</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="B95" s="3">
-        <v>1001225416228</v>
+        <v>1001301876212</v>
       </c>
       <c r="C95" t="s">
-        <v>179</v>
-      </c>
-      <c r="D95" t="e">
+        <v>165</v>
+      </c>
+      <c r="D95">
         <f>VLOOKUP(B95,[1]Бланк!$D:$J,6,0)</f>
-        <v>#N/A</v>
+        <v>60</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="B96" s="3">
-        <v>6225</v>
+        <v>1001301876213</v>
       </c>
       <c r="C96" t="s">
-        <v>304</v>
-      </c>
-      <c r="D96" t="e">
+        <v>92</v>
+      </c>
+      <c r="D96">
         <f>VLOOKUP(B96,[1]Бланк!$D:$J,6,0)</f>
-        <v>#N/A</v>
+        <v>60</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B97" s="3">
-        <v>1001022376722</v>
+        <v>1001303636302</v>
       </c>
       <c r="C97" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="D97">
         <f>VLOOKUP(B97,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="B98" s="3">
-        <v>1001022376722</v>
+        <v>6645</v>
       </c>
       <c r="C98" t="s">
-        <v>135</v>
-      </c>
-      <c r="D98">
+        <v>177</v>
+      </c>
+      <c r="D98" t="e">
         <f>VLOOKUP(B98,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B99" s="3">
-        <v>3297</v>
+        <v>1001225416228</v>
       </c>
       <c r="C99" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D99" t="e">
         <f>VLOOKUP(B99,[1]Бланк!$D:$J,6,0)</f>
@@ -11356,39 +11421,43 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B100" s="3">
-        <v>1001034063297</v>
+        <v>6225</v>
       </c>
       <c r="C100" t="s">
-        <v>184</v>
-      </c>
-      <c r="D100">
+        <v>304</v>
+      </c>
+      <c r="D100" t="e">
         <f>VLOOKUP(B100,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>325</v>
+        <v>182</v>
       </c>
       <c r="B101" s="3">
-        <v>1001022466726</v>
+        <v>1001022376722</v>
       </c>
       <c r="C101" t="s">
-        <v>324</v>
+        <v>135</v>
+      </c>
+      <c r="D101">
+        <f>VLOOKUP(B101,[1]Бланк!$D:$J,6,0)</f>
+        <v>45</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B102" s="3">
-        <v>1001022466726</v>
+        <v>1001022376722</v>
       </c>
       <c r="C102" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="D102">
         <f>VLOOKUP(B102,[1]Бланк!$D:$J,6,0)</f>
@@ -11397,103 +11466,95 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B103" s="3">
-        <v>1001021966602</v>
+        <v>3297</v>
       </c>
       <c r="C103" t="s">
-        <v>315</v>
-      </c>
-      <c r="D103">
+        <v>184</v>
+      </c>
+      <c r="D103" t="e">
         <f>VLOOKUP(B103,[1]Бланк!$D:$J,6,0)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B104" s="3">
-        <v>6233</v>
+        <v>1001034063297</v>
       </c>
       <c r="C104" t="s">
-        <v>189</v>
-      </c>
-      <c r="D104" t="e">
+        <v>184</v>
+      </c>
+      <c r="D104">
         <f>VLOOKUP(B104,[1]Бланк!$D:$J,6,0)</f>
-        <v>#N/A</v>
+        <v>45</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>294</v>
+        <v>350</v>
       </c>
       <c r="B105" s="3">
-        <v>1001012826734</v>
+        <v>1001022466726</v>
       </c>
       <c r="C105" t="s">
-        <v>297</v>
-      </c>
-      <c r="D105">
-        <f>VLOOKUP(B105,[1]Бланк!$D:$J,6,0)</f>
-        <v>0</v>
+        <v>324</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>191</v>
+        <v>325</v>
       </c>
       <c r="B106" s="3">
-        <v>1001012826734</v>
+        <v>1001022466726</v>
       </c>
       <c r="C106" t="s">
-        <v>192</v>
-      </c>
-      <c r="D106">
-        <f>VLOOKUP(B106,[1]Бланк!$D:$J,6,0)</f>
-        <v>0</v>
+        <v>324</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B107" s="3">
-        <v>6750</v>
+        <v>1001022466726</v>
       </c>
       <c r="C107" t="s">
-        <v>99</v>
-      </c>
-      <c r="D107" t="e">
+        <v>123</v>
+      </c>
+      <c r="D107">
         <f>VLOOKUP(B107,[1]Бланк!$D:$J,6,0)</f>
-        <v>#N/A</v>
+        <v>45</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B108" s="3">
-        <v>6751</v>
+        <v>1001021966602</v>
       </c>
       <c r="C108" t="s">
-        <v>101</v>
+        <v>315</v>
       </c>
       <c r="D108" t="e">
         <f>VLOOKUP(B108,[1]Бланк!$D:$J,6,0)</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B109" s="3">
-        <v>5982</v>
+        <v>6233</v>
       </c>
       <c r="C109" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D109" t="e">
         <f>VLOOKUP(B109,[1]Бланк!$D:$J,6,0)</f>
@@ -11502,43 +11563,43 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>197</v>
+        <v>294</v>
       </c>
       <c r="B110" s="3">
-        <v>1001020965982</v>
+        <v>1001012826734</v>
       </c>
       <c r="C110" t="s">
-        <v>196</v>
+        <v>297</v>
       </c>
       <c r="D110" t="e">
         <f>VLOOKUP(B110,[1]Бланк!$D:$J,6,0)</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="B111" s="3">
-        <v>1001094966025</v>
+        <v>1001012826734</v>
       </c>
       <c r="C111" t="s">
-        <v>199</v>
-      </c>
-      <c r="D111">
+        <v>192</v>
+      </c>
+      <c r="D111" t="e">
         <f>VLOOKUP(B111,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B112" s="3">
-        <v>6025</v>
+        <v>6750</v>
       </c>
       <c r="C112" t="s">
-        <v>199</v>
+        <v>99</v>
       </c>
       <c r="D112" t="e">
         <f>VLOOKUP(B112,[1]Бланк!$D:$J,6,0)</f>
@@ -11547,13 +11608,13 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="B113" s="3">
-        <v>6221</v>
+        <v>6751</v>
       </c>
       <c r="C113" t="s">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="D113" t="e">
         <f>VLOOKUP(B113,[1]Бланк!$D:$J,6,0)</f>
@@ -11562,13 +11623,13 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="B114" s="3">
-        <v>1001205376221</v>
+        <v>5982</v>
       </c>
       <c r="C114" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D114" t="e">
         <f>VLOOKUP(B114,[1]Бланк!$D:$J,6,0)</f>
@@ -11577,88 +11638,88 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="B115" s="3">
-        <v>1001034063297</v>
+        <v>1001020965982</v>
       </c>
       <c r="C115" t="s">
-        <v>206</v>
-      </c>
-      <c r="D115">
+        <v>196</v>
+      </c>
+      <c r="D115" t="e">
         <f>VLOOKUP(B115,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B116" s="3">
-        <v>1001022373812</v>
+        <v>1001094966025</v>
       </c>
       <c r="C116" t="s">
-        <v>3</v>
+        <v>199</v>
       </c>
       <c r="D116">
         <f>VLOOKUP(B116,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="B117" s="3">
-        <v>1001100605159</v>
+        <v>6025</v>
       </c>
       <c r="C117" t="s">
-        <v>209</v>
-      </c>
-      <c r="D117">
+        <v>199</v>
+      </c>
+      <c r="D117" t="e">
         <f>VLOOKUP(B117,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="B118" s="3">
-        <v>1001100615160</v>
+        <v>6221</v>
       </c>
       <c r="C118" t="s">
-        <v>211</v>
-      </c>
-      <c r="D118">
+        <v>201</v>
+      </c>
+      <c r="D118" t="e">
         <f>VLOOKUP(B118,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="B119" s="3">
-        <v>1001100625161</v>
+        <v>1001205376221</v>
       </c>
       <c r="C119" t="s">
-        <v>213</v>
-      </c>
-      <c r="D119">
+        <v>201</v>
+      </c>
+      <c r="D119" t="e">
         <f>VLOOKUP(B119,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="B120" s="3">
-        <v>1001035026308</v>
+        <v>1001034063297</v>
       </c>
       <c r="C120" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="D120">
         <f>VLOOKUP(B120,[1]Бланк!$D:$J,6,0)</f>
@@ -11667,133 +11728,133 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="B121" s="3">
-        <v>1001014486159</v>
+        <v>1001022373812</v>
       </c>
       <c r="C121" t="s">
-        <v>217</v>
+        <v>3</v>
       </c>
       <c r="D121">
         <f>VLOOKUP(B121,[1]Бланк!$D:$J,6,0)</f>
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="B122" s="3">
-        <v>1001035326217</v>
+        <v>1001100605159</v>
       </c>
       <c r="C122" t="s">
-        <v>321</v>
+        <v>209</v>
       </c>
       <c r="D122">
         <f>VLOOKUP(B122,[1]Бланк!$D:$J,6,0)</f>
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="B123" s="3">
-        <v>1001012426220</v>
+        <v>1001100615160</v>
       </c>
       <c r="C123" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="D123">
         <f>VLOOKUP(B123,[1]Бланк!$D:$J,6,0)</f>
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="B124" s="3">
-        <v>1001022466236</v>
+        <v>1001100625161</v>
       </c>
       <c r="C124" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="D124">
         <f>VLOOKUP(B124,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="B125" s="3">
-        <v>1001021966602</v>
+        <v>1001035026308</v>
       </c>
       <c r="C125" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="D125">
         <f>VLOOKUP(B125,[1]Бланк!$D:$J,6,0)</f>
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="B126" s="3">
-        <v>1001022296656</v>
+        <v>1001014486159</v>
       </c>
       <c r="C126" t="s">
-        <v>226</v>
-      </c>
-      <c r="D126">
+        <v>217</v>
+      </c>
+      <c r="D126" t="e">
         <f>VLOOKUP(B126,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="B127" s="3">
-        <v>1001304506684</v>
+        <v>1001035326217</v>
       </c>
       <c r="C127" t="s">
-        <v>65</v>
-      </c>
-      <c r="D127">
+        <v>321</v>
+      </c>
+      <c r="D127" t="e">
         <f>VLOOKUP(B127,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="B128" s="3">
-        <v>1001301876697</v>
+        <v>1001012426220</v>
       </c>
       <c r="C128" t="s">
-        <v>229</v>
-      </c>
-      <c r="D128">
+        <v>220</v>
+      </c>
+      <c r="D128" t="e">
         <f>VLOOKUP(B128,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="B129" s="3">
-        <v>1001022246713</v>
+        <v>1001022466236</v>
       </c>
       <c r="C129" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="D129">
         <f>VLOOKUP(B129,[1]Бланк!$D:$J,6,0)</f>
@@ -11802,28 +11863,28 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="B130" s="3">
-        <v>1001012816716</v>
+        <v>1001021966602</v>
       </c>
       <c r="C130" t="s">
-        <v>162</v>
-      </c>
-      <c r="D130">
+        <v>224</v>
+      </c>
+      <c r="D130" t="e">
         <f>VLOOKUP(B130,[1]Бланк!$D:$J,6,0)</f>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="B131" s="3">
-        <v>1001022376722</v>
+        <v>1001022296656</v>
       </c>
       <c r="C131" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="D131">
         <f>VLOOKUP(B131,[1]Бланк!$D:$J,6,0)</f>
@@ -11832,13 +11893,13 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="B132" s="3">
-        <v>1001020846751</v>
+        <v>1001304506684</v>
       </c>
       <c r="C132" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="D132">
         <f>VLOOKUP(B132,[1]Бланк!$D:$J,6,0)</f>
@@ -11847,13 +11908,13 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="B133" s="3">
-        <v>1001022725819</v>
+        <v>1001301876697</v>
       </c>
       <c r="C133" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="D133">
         <f>VLOOKUP(B133,[1]Бланк!$D:$J,6,0)</f>
@@ -11862,43 +11923,43 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B134" s="3">
-        <v>1001012825337</v>
+        <v>1001022246713</v>
       </c>
       <c r="C134" t="s">
-        <v>28</v>
+        <v>231</v>
       </c>
       <c r="D134">
         <f>VLOOKUP(B134,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B135" s="3">
-        <v>1001012815336</v>
+        <v>1001012816716</v>
       </c>
       <c r="C135" t="s">
-        <v>26</v>
-      </c>
-      <c r="D135">
+        <v>162</v>
+      </c>
+      <c r="D135" t="e">
         <f>VLOOKUP(B135,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="B136" s="3">
-        <v>1001234146448</v>
+        <v>1001022376722</v>
       </c>
       <c r="C136" t="s">
-        <v>77</v>
+        <v>234</v>
       </c>
       <c r="D136">
         <f>VLOOKUP(B136,[1]Бланк!$D:$J,6,0)</f>
@@ -11907,13 +11968,13 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B137" s="3">
-        <v>1001022725819</v>
+        <v>1001020846751</v>
       </c>
       <c r="C137" t="s">
-        <v>237</v>
+        <v>101</v>
       </c>
       <c r="D137">
         <f>VLOOKUP(B137,[1]Бланк!$D:$J,6,0)</f>
@@ -11922,28 +11983,28 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B138" s="3">
-        <v>1001092676027</v>
+        <v>1001022725819</v>
       </c>
       <c r="C138" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D138">
         <f>VLOOKUP(B138,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B139" s="3">
-        <v>1001301876213</v>
+        <v>1001012825337</v>
       </c>
       <c r="C139" t="s">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="D139">
         <f>VLOOKUP(B139,[1]Бланк!$D:$J,6,0)</f>
@@ -11952,28 +12013,28 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B140" s="3">
-        <v>1001022726303</v>
+        <v>1001012815336</v>
       </c>
       <c r="C140" t="s">
-        <v>283</v>
+        <v>26</v>
       </c>
       <c r="D140">
         <f>VLOOKUP(B140,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B141" s="3">
-        <v>1001035026308</v>
+        <v>1001234146448</v>
       </c>
       <c r="C141" t="s">
-        <v>215</v>
+        <v>77</v>
       </c>
       <c r="D141">
         <f>VLOOKUP(B141,[1]Бланк!$D:$J,6,0)</f>
@@ -11982,73 +12043,73 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B142" s="3">
-        <v>1001012566392</v>
+        <v>1001022725819</v>
       </c>
       <c r="C142" t="s">
-        <v>62</v>
+        <v>237</v>
       </c>
       <c r="D142">
         <f>VLOOKUP(B142,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B143" s="3">
-        <v>1001234146448</v>
+        <v>1001092676027</v>
       </c>
       <c r="C143" t="s">
-        <v>77</v>
+        <v>243</v>
       </c>
       <c r="D143">
         <f>VLOOKUP(B143,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B144" s="3">
-        <v>1001233296450</v>
+        <v>1001301876213</v>
       </c>
       <c r="C144" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="D144">
         <f>VLOOKUP(B144,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B145" s="3">
-        <v>1001201976454</v>
+        <v>1001022726303</v>
       </c>
       <c r="C145" t="s">
-        <v>83</v>
+        <v>283</v>
       </c>
       <c r="D145">
         <f>VLOOKUP(B145,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B146" s="3">
-        <v>1001025176475</v>
+        <v>1001035026308</v>
       </c>
       <c r="C146" t="s">
-        <v>85</v>
+        <v>215</v>
       </c>
       <c r="D146">
         <f>VLOOKUP(B146,[1]Бланк!$D:$J,6,0)</f>
@@ -12057,13 +12118,13 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B147" s="3">
-        <v>1001012456498</v>
+        <v>1001012566392</v>
       </c>
       <c r="C147" t="s">
-        <v>253</v>
+        <v>62</v>
       </c>
       <c r="D147">
         <f>VLOOKUP(B147,[1]Бланк!$D:$J,6,0)</f>
@@ -12072,28 +12133,28 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B148" s="3">
-        <v>1001010036596</v>
+        <v>1001234146448</v>
       </c>
       <c r="C148" t="s">
-        <v>255</v>
+        <v>77</v>
       </c>
       <c r="D148">
         <f>VLOOKUP(B148,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="B149" s="3">
-        <v>1001033856607</v>
+        <v>1001233296450</v>
       </c>
       <c r="C149" t="s">
-        <v>257</v>
+        <v>79</v>
       </c>
       <c r="D149">
         <f>VLOOKUP(B149,[1]Бланк!$D:$J,6,0)</f>
@@ -12102,28 +12163,28 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="B150" s="3">
-        <v>1001033856609</v>
+        <v>1001201976454</v>
       </c>
       <c r="C150" t="s">
-        <v>259</v>
+        <v>83</v>
       </c>
       <c r="D150">
         <f>VLOOKUP(B150,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="B151" s="3">
-        <v>1001302276666</v>
+        <v>1001025176475</v>
       </c>
       <c r="C151" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="D151">
         <f>VLOOKUP(B151,[1]Бланк!$D:$J,6,0)</f>
@@ -12132,28 +12193,28 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="B152" s="3">
-        <v>1001300516669</v>
+        <v>1001012456498</v>
       </c>
       <c r="C152" t="s">
-        <v>69</v>
+        <v>253</v>
       </c>
       <c r="D152">
         <f>VLOOKUP(B152,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="B153" s="3">
-        <v>1001092446755</v>
+        <v>1001010036596</v>
       </c>
       <c r="C153" t="s">
-        <v>317</v>
+        <v>255</v>
       </c>
       <c r="D153">
         <f>VLOOKUP(B153,[1]Бланк!$D:$J,6,0)</f>
@@ -12162,43 +12223,43 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B154" s="3">
-        <v>1001092446756</v>
+        <v>1001033856607</v>
       </c>
       <c r="C154" t="s">
-        <v>16</v>
+        <v>257</v>
       </c>
       <c r="D154">
         <f>VLOOKUP(B154,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B155" s="3">
-        <v>6550</v>
+        <v>1001033856609</v>
       </c>
       <c r="C155" t="s">
-        <v>265</v>
-      </c>
-      <c r="D155" t="e">
+        <v>259</v>
+      </c>
+      <c r="D155">
         <f>VLOOKUP(B155,[1]Бланк!$D:$J,6,0)</f>
-        <v>#N/A</v>
+        <v>45</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B156" s="3">
-        <v>1001304506684</v>
+        <v>1001302276666</v>
       </c>
       <c r="C156" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D156">
         <f>VLOOKUP(B156,[1]Бланк!$D:$J,6,0)</f>
@@ -12207,73 +12268,73 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B157" s="3">
-        <v>1001010113248</v>
+        <v>1001300516669</v>
       </c>
       <c r="C157" t="s">
-        <v>268</v>
+        <v>69</v>
       </c>
       <c r="D157">
         <f>VLOOKUP(B157,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B158" s="3">
-        <v>1001063925206</v>
+        <v>1001092446755</v>
       </c>
       <c r="C158" t="s">
-        <v>270</v>
+        <v>317</v>
       </c>
       <c r="D158">
         <f>VLOOKUP(B158,[1]Бланк!$D:$J,6,0)</f>
-        <v>120</v>
+        <v>60</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="B159" s="3">
-        <v>6586</v>
+        <v>1001092446756</v>
       </c>
       <c r="C159" t="s">
-        <v>272</v>
-      </c>
-      <c r="D159" t="e">
+        <v>16</v>
+      </c>
+      <c r="D159">
         <f>VLOOKUP(B159,[1]Бланк!$D:$J,6,0)</f>
-        <v>#N/A</v>
+        <v>60</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="B160" s="3">
-        <v>1001303636467</v>
+        <v>6550</v>
       </c>
       <c r="C160" t="s">
-        <v>274</v>
-      </c>
-      <c r="D160">
+        <v>265</v>
+      </c>
+      <c r="D160" t="e">
         <f>VLOOKUP(B160,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="B161" s="3">
-        <v>1001022246661</v>
+        <v>1001304506684</v>
       </c>
       <c r="C161" t="s">
-        <v>276</v>
+        <v>65</v>
       </c>
       <c r="D161">
         <f>VLOOKUP(B161,[1]Бланк!$D:$J,6,0)</f>
@@ -12282,58 +12343,58 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="B162" s="3">
-        <v>1001304496701</v>
+        <v>1001010113248</v>
       </c>
       <c r="C162" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="D162">
         <f>VLOOKUP(B162,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="B163" s="3">
-        <v>6144</v>
+        <v>1001063925206</v>
       </c>
       <c r="C163" t="s">
-        <v>280</v>
-      </c>
-      <c r="D163" t="e">
+        <v>270</v>
+      </c>
+      <c r="D163">
         <f>VLOOKUP(B163,[1]Бланк!$D:$J,6,0)</f>
-        <v>#N/A</v>
+        <v>120</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="B164" s="3">
-        <v>1001022725819</v>
+        <v>6586</v>
       </c>
       <c r="C164" t="s">
-        <v>237</v>
-      </c>
-      <c r="D164">
+        <v>272</v>
+      </c>
+      <c r="D164" t="e">
         <f>VLOOKUP(B164,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="B165" s="3">
-        <v>1001022726303</v>
+        <v>1001303636467</v>
       </c>
       <c r="C165" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="D165">
         <f>VLOOKUP(B165,[1]Бланк!$D:$J,6,0)</f>
@@ -12342,13 +12403,13 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="B166" s="3">
-        <v>1001022373812</v>
+        <v>1001304496701</v>
       </c>
       <c r="C166" t="s">
-        <v>3</v>
+        <v>278</v>
       </c>
       <c r="D166">
         <f>VLOOKUP(B166,[1]Бланк!$D:$J,6,0)</f>
@@ -12357,28 +12418,28 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="B167" s="3">
-        <v>1001024906062</v>
+        <v>6144</v>
       </c>
       <c r="C167" t="s">
-        <v>286</v>
-      </c>
-      <c r="D167">
+        <v>280</v>
+      </c>
+      <c r="D167" t="e">
         <f>VLOOKUP(B167,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="B168" s="3">
-        <v>1001300386683</v>
+        <v>1001022725819</v>
       </c>
       <c r="C168" t="s">
-        <v>87</v>
+        <v>237</v>
       </c>
       <c r="D168">
         <f>VLOOKUP(B168,[1]Бланк!$D:$J,6,0)</f>
@@ -12387,13 +12448,13 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B169" s="3">
-        <v>1001303986689</v>
+        <v>1001022726303</v>
       </c>
       <c r="C169" t="s">
-        <v>66</v>
+        <v>283</v>
       </c>
       <c r="D169">
         <f>VLOOKUP(B169,[1]Бланк!$D:$J,6,0)</f>
@@ -12402,13 +12463,13 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B170" s="3">
-        <v>1001303056692</v>
+        <v>1001022373812</v>
       </c>
       <c r="C170" t="s">
-        <v>67</v>
+        <v>3</v>
       </c>
       <c r="D170">
         <f>VLOOKUP(B170,[1]Бланк!$D:$J,6,0)</f>
@@ -12417,13 +12478,13 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B171" s="3">
-        <v>1001301876697</v>
+        <v>1001024906062</v>
       </c>
       <c r="C171" t="s">
-        <v>229</v>
+        <v>286</v>
       </c>
       <c r="D171">
         <f>VLOOKUP(B171,[1]Бланк!$D:$J,6,0)</f>
@@ -12432,13 +12493,13 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B172" s="3">
-        <v>1001302276666</v>
+        <v>1001300386683</v>
       </c>
       <c r="C172" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="D172">
         <f>VLOOKUP(B172,[1]Бланк!$D:$J,6,0)</f>
@@ -12447,43 +12508,43 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="B173" s="3">
-        <v>1001012634574</v>
+        <v>1001303986689</v>
       </c>
       <c r="C173" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="D173">
         <f>VLOOKUP(B173,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B174" s="3">
-        <v>1001092485452</v>
+        <v>1001303056692</v>
       </c>
       <c r="C174" t="s">
-        <v>296</v>
+        <v>67</v>
       </c>
       <c r="D174">
         <f>VLOOKUP(B174,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="B175" s="3">
-        <v>1001020966144</v>
+        <v>1001301876697</v>
       </c>
       <c r="C175" t="s">
-        <v>163</v>
+        <v>229</v>
       </c>
       <c r="D175">
         <f>VLOOKUP(B175,[1]Бланк!$D:$J,6,0)</f>
@@ -12492,263 +12553,439 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="B176" s="3">
-        <v>6586</v>
+        <v>1001302276666</v>
       </c>
       <c r="C176" t="s">
-        <v>272</v>
-      </c>
-      <c r="D176" t="e">
+        <v>68</v>
+      </c>
+      <c r="D176">
         <f>VLOOKUP(B176,[1]Бланк!$D:$J,6,0)</f>
-        <v>#N/A</v>
+        <v>45</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="B177" s="3">
-        <v>1001300516669</v>
+        <v>1001012634574</v>
       </c>
       <c r="C177" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="D177">
         <f>VLOOKUP(B177,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B178" s="3">
-        <v>1001304496701</v>
+        <v>1001092485452</v>
       </c>
       <c r="C178" t="s">
-        <v>278</v>
+        <v>296</v>
       </c>
       <c r="D178">
         <f>VLOOKUP(B178,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B179" s="3">
-        <v>1001063655015</v>
+        <v>1001020966144</v>
       </c>
       <c r="C179" t="s">
-        <v>303</v>
+        <v>163</v>
       </c>
       <c r="D179">
         <f>VLOOKUP(B179,[1]Бланк!$D:$J,6,0)</f>
-        <v>120</v>
+        <v>45</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="B180" s="3">
-        <v>1001060763287</v>
+        <v>6586</v>
       </c>
       <c r="C180" t="s">
-        <v>306</v>
-      </c>
-      <c r="D180">
+        <v>272</v>
+      </c>
+      <c r="D180" t="e">
         <f>VLOOKUP(B180,[1]Бланк!$D:$J,6,0)</f>
-        <v>120</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="B181" s="3" t="s">
-        <v>316</v>
+        <v>300</v>
+      </c>
+      <c r="B181" s="3">
+        <v>1001300516669</v>
       </c>
       <c r="C181" t="s">
-        <v>179</v>
+        <v>69</v>
       </c>
       <c r="D181">
         <f>VLOOKUP(B181,[1]Бланк!$D:$J,6,0)</f>
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="B182" s="3">
-        <v>1001032736550</v>
+        <v>1001304496701</v>
       </c>
       <c r="C182" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="D182">
         <f>VLOOKUP(B182,[1]Бланк!$D:$J,6,0)</f>
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="B183" s="3">
-        <v>6758</v>
+        <v>1001063655015</v>
       </c>
       <c r="C183" t="s">
-        <v>310</v>
-      </c>
-      <c r="D183" t="e">
+        <v>303</v>
+      </c>
+      <c r="D183">
         <f>VLOOKUP(B183,[1]Бланк!$D:$J,6,0)</f>
-        <v>#N/A</v>
+        <v>120</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B184" s="3">
-        <v>1001020965976</v>
+        <v>1001060763287</v>
       </c>
       <c r="C184" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="D184">
         <f>VLOOKUP(B184,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>120</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="B185" s="3">
-        <v>1001215576586</v>
+        <v>307</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>316</v>
       </c>
       <c r="C185" t="s">
-        <v>314</v>
-      </c>
-      <c r="D185">
-        <f>VLOOKUP(B185,[1]Бланк!$D:$J,6,0)</f>
-        <v>0</v>
+        <v>179</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="B186" s="3">
-        <v>1001094896026</v>
+        <v>1001032736550</v>
       </c>
       <c r="C186" t="s">
-        <v>319</v>
-      </c>
-      <c r="D186">
-        <f>VLOOKUP(B186,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
+        <v>265</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="B187" s="3">
-        <v>1001215576586</v>
+        <v>6758</v>
       </c>
       <c r="C187" t="s">
-        <v>314</v>
-      </c>
-      <c r="D187">
+        <v>310</v>
+      </c>
+      <c r="D187" t="e">
         <f>VLOOKUP(B187,[1]Бланк!$D:$J,6,0)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="B188" s="3">
-        <v>1001092436470</v>
+        <v>1001020965976</v>
       </c>
       <c r="C188" t="s">
-        <v>323</v>
+        <v>312</v>
+      </c>
+      <c r="D188">
+        <f>VLOOKUP(B188,[1]Бланк!$D:$J,6,0)</f>
+        <v>45</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="B189" s="3">
-        <v>1001203146555</v>
+        <v>1001215576586</v>
       </c>
       <c r="C189" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="B190" s="3">
-        <v>1001014765992</v>
+        <v>1001094896026</v>
       </c>
       <c r="C190" t="s">
-        <v>330</v>
+        <v>319</v>
+      </c>
+      <c r="D190">
+        <f>VLOOKUP(B190,[1]Бланк!$D:$J,6,0)</f>
+        <v>60</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="B191" s="3">
-        <v>1001014765993</v>
+        <v>1001215576586</v>
       </c>
       <c r="C191" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="B192" s="3">
-        <v>1001025166776</v>
+        <v>1001092436470</v>
       </c>
       <c r="C192" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="B193" s="3">
-        <v>1001025506777</v>
+        <v>1001203146555</v>
       </c>
       <c r="C193" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B194" s="3">
+        <v>1001014765992</v>
+      </c>
+      <c r="C194" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B195" s="3">
+        <v>1001014765992</v>
+      </c>
+      <c r="C195" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B196" s="3">
+        <v>1001014765993</v>
+      </c>
+      <c r="C196" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B197" s="3">
+        <v>1001025166776</v>
+      </c>
+      <c r="C197" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B198" s="3">
+        <v>1001025506777</v>
+      </c>
+      <c r="C198" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B199" s="3">
+        <v>1001025546822</v>
+      </c>
+      <c r="C199" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B200" s="3">
+        <v>1001025546822</v>
+      </c>
+      <c r="C200" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="B194" s="3">
+      <c r="B201" s="3">
         <v>1001025546822</v>
       </c>
-      <c r="C194" t="s">
+      <c r="C201" t="s">
         <v>339</v>
       </c>
     </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B202" s="3">
+        <v>1001024976616</v>
+      </c>
+      <c r="C202" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B203" s="3">
+        <v>1001010856747</v>
+      </c>
+      <c r="C203" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B204" s="3">
+        <v>1001233296445</v>
+      </c>
+      <c r="C204" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B205" s="3">
+        <v>1001203146555</v>
+      </c>
+      <c r="C205" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B206" s="3">
+        <v>1001014765993</v>
+      </c>
+      <c r="C206" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B207" s="3">
+        <v>1001025166776</v>
+      </c>
+      <c r="C207" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B208" s="3">
+        <v>1001025506777</v>
+      </c>
+      <c r="C208" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B209" s="3">
+        <v>1001025526778</v>
+      </c>
+      <c r="C209" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B210" s="3">
+        <v>1001304236685</v>
+      </c>
+      <c r="C210" t="s">
+        <v>358</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C191" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
+  <autoFilter ref="A1:C210" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/moduls/1С.xlsx
+++ b/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\Останкино КИ\ostankino_ki\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F2AA75-415E-41AD-AEA6-C5C305DE3B07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E476FEAB-638C-42DF-8CAD-5F77A4AF40A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,9 +19,9 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$210</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$212</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="371">
   <si>
     <t>1С</t>
   </si>
@@ -666,21 +666,12 @@
     <t>5159 Нежный пашт п/о 1/150 16шт.   ОСТАНКИНО</t>
   </si>
   <si>
-    <t>НЕЖНЫЙ пашт п/о 1/150 16шт.</t>
-  </si>
-  <si>
     <t>5160 Мясной пашт п/о 0,150 ОСТАНКИНО</t>
   </si>
   <si>
-    <t>МЯСНОЙ пашт п/о 1/150 16шт.</t>
-  </si>
-  <si>
     <t>5161 Печеночный пашт 0,150 ОСТАНКИНО</t>
   </si>
   <si>
-    <t>ПЕЧЕНОЧНЫЙ пашт п/о 1/150 16шт.</t>
-  </si>
-  <si>
     <t>5965 С ИНДЕЙКОЙ Папа может сар б/о мгс 1*3  ОСТАНКИНО</t>
   </si>
   <si>
@@ -1126,6 +1117,39 @@
   </si>
   <si>
     <t>6822ИЗ ОТБОРНОГО МЯСА ПМ сос п/о мгс 0.36кг</t>
+  </si>
+  <si>
+    <t>СЕМЕЙНАЯ вар п/о</t>
+  </si>
+  <si>
+    <t>6769 СЕМЕЙНАЯ вар п/о  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6798 ВРЕМЯ ОКРОШКИ Папа может вар п/о 0,75 кг  Останкино</t>
+  </si>
+  <si>
+    <t>ВРЕМЯ ОКРОШКИ Папа может вар п/о 0.75кг</t>
+  </si>
+  <si>
+    <t>НЕЖНЫЙ пашт п/о 1/150 12шт.</t>
+  </si>
+  <si>
+    <t>МЯСНОЙ пашт п/о 1/150 12шт.</t>
+  </si>
+  <si>
+    <t>ПЕЧЕНОЧНЫЙ пашт п/о 1/150 12шт.</t>
+  </si>
+  <si>
+    <t>6797 С ИНДЕЙКОЙ Папа может вар п/о 0,4кг 8шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6222 ИТАЛЬЯНСКОЕ АССОРТИ с/в с/н мгс 1/90 ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">С ИНДЕЙКОЙ Папа может вар п/о 0,4кг 8шт. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ИТАЛЬЯНСКОЕ АССОРТИ с/в с/н мгс 1/90</t>
   </si>
 </sst>
 </file>
@@ -9930,11 +9954,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D210"/>
+  <dimension ref="A1:D214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
+      <pane ySplit="1" topLeftCell="A202" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C219" sqref="C219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10288,7 +10312,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B24" s="3">
         <v>1001060755931</v>
@@ -10353,7 +10377,7 @@
         <v>1001024976123</v>
       </c>
       <c r="C28" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D28">
         <f>VLOOKUP(B28,[1]Бланк!$D:$J,6,0)</f>
@@ -10557,7 +10581,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B42" s="3">
         <v>1001202506453</v>
@@ -10871,7 +10895,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B63" s="3">
         <v>1001305306566</v>
@@ -11062,13 +11086,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B76" s="3">
         <v>1001020966227</v>
       </c>
       <c r="C76" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D76">
         <v>45</v>
@@ -11196,13 +11220,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B85" s="3">
         <v>1001022246661</v>
       </c>
       <c r="C85" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D85">
         <f>VLOOKUP(B85,[1]Бланк!$D:$J,6,0)</f>
@@ -11211,13 +11235,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B86" s="3">
         <v>1001022246661</v>
       </c>
       <c r="C86" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D86">
         <f>VLOOKUP(B86,[1]Бланк!$D:$J,6,0)</f>
@@ -11427,7 +11451,7 @@
         <v>6225</v>
       </c>
       <c r="C100" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D100" t="e">
         <f>VLOOKUP(B100,[1]Бланк!$D:$J,6,0)</f>
@@ -11496,24 +11520,24 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B105" s="3">
         <v>1001022466726</v>
       </c>
       <c r="C105" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B106" s="3">
         <v>1001022466726</v>
       </c>
       <c r="C106" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -11539,7 +11563,7 @@
         <v>1001021966602</v>
       </c>
       <c r="C108" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D108" t="e">
         <f>VLOOKUP(B108,[1]Бланк!$D:$J,6,0)</f>
@@ -11563,13 +11587,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B110" s="3">
         <v>1001012826734</v>
       </c>
       <c r="C110" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D110" t="e">
         <f>VLOOKUP(B110,[1]Бланк!$D:$J,6,0)</f>
@@ -11746,55 +11770,55 @@
         <v>208</v>
       </c>
       <c r="B122" s="3">
-        <v>1001100605159</v>
+        <v>1001100606827</v>
       </c>
       <c r="C122" t="s">
-        <v>209</v>
-      </c>
-      <c r="D122">
+        <v>364</v>
+      </c>
+      <c r="D122" t="e">
         <f>VLOOKUP(B122,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B123" s="3">
-        <v>1001100615160</v>
+        <v>1001100616826</v>
       </c>
       <c r="C123" t="s">
-        <v>211</v>
-      </c>
-      <c r="D123">
+        <v>365</v>
+      </c>
+      <c r="D123" t="e">
         <f>VLOOKUP(B123,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B124" s="3">
-        <v>1001100625161</v>
+        <v>1001100626828</v>
       </c>
       <c r="C124" t="s">
-        <v>213</v>
-      </c>
-      <c r="D124">
+        <v>366</v>
+      </c>
+      <c r="D124" t="e">
         <f>VLOOKUP(B124,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B125" s="3">
         <v>1001035026308</v>
       </c>
       <c r="C125" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D125">
         <f>VLOOKUP(B125,[1]Бланк!$D:$J,6,0)</f>
@@ -11803,13 +11827,13 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B126" s="3">
         <v>1001014486159</v>
       </c>
       <c r="C126" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D126" t="e">
         <f>VLOOKUP(B126,[1]Бланк!$D:$J,6,0)</f>
@@ -11818,13 +11842,13 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B127" s="3">
         <v>1001035326217</v>
       </c>
       <c r="C127" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D127" t="e">
         <f>VLOOKUP(B127,[1]Бланк!$D:$J,6,0)</f>
@@ -11833,13 +11857,13 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B128" s="3">
         <v>1001012426220</v>
       </c>
       <c r="C128" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D128" t="e">
         <f>VLOOKUP(B128,[1]Бланк!$D:$J,6,0)</f>
@@ -11848,13 +11872,13 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B129" s="3">
         <v>1001022466236</v>
       </c>
       <c r="C129" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D129">
         <f>VLOOKUP(B129,[1]Бланк!$D:$J,6,0)</f>
@@ -11863,13 +11887,13 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B130" s="3">
         <v>1001021966602</v>
       </c>
       <c r="C130" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D130" t="e">
         <f>VLOOKUP(B130,[1]Бланк!$D:$J,6,0)</f>
@@ -11878,13 +11902,13 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B131" s="3">
         <v>1001022296656</v>
       </c>
       <c r="C131" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D131">
         <f>VLOOKUP(B131,[1]Бланк!$D:$J,6,0)</f>
@@ -11893,7 +11917,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B132" s="3">
         <v>1001304506684</v>
@@ -11908,13 +11932,13 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B133" s="3">
         <v>1001301876697</v>
       </c>
       <c r="C133" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D133">
         <f>VLOOKUP(B133,[1]Бланк!$D:$J,6,0)</f>
@@ -11923,13 +11947,13 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B134" s="3">
         <v>1001022246713</v>
       </c>
       <c r="C134" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D134">
         <f>VLOOKUP(B134,[1]Бланк!$D:$J,6,0)</f>
@@ -11938,7 +11962,7 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B135" s="3">
         <v>1001012816716</v>
@@ -11953,13 +11977,13 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B136" s="3">
         <v>1001022376722</v>
       </c>
       <c r="C136" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D136">
         <f>VLOOKUP(B136,[1]Бланк!$D:$J,6,0)</f>
@@ -11968,7 +11992,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B137" s="3">
         <v>1001020846751</v>
@@ -11983,13 +12007,13 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B138" s="3">
         <v>1001022725819</v>
       </c>
       <c r="C138" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D138">
         <f>VLOOKUP(B138,[1]Бланк!$D:$J,6,0)</f>
@@ -11998,7 +12022,7 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B139" s="3">
         <v>1001012825337</v>
@@ -12013,7 +12037,7 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B140" s="3">
         <v>1001012815336</v>
@@ -12028,7 +12052,7 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B141" s="3">
         <v>1001234146448</v>
@@ -12043,13 +12067,13 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B142" s="3">
         <v>1001022725819</v>
       </c>
       <c r="C142" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D142">
         <f>VLOOKUP(B142,[1]Бланк!$D:$J,6,0)</f>
@@ -12058,13 +12082,13 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B143" s="3">
         <v>1001092676027</v>
       </c>
       <c r="C143" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D143">
         <f>VLOOKUP(B143,[1]Бланк!$D:$J,6,0)</f>
@@ -12073,7 +12097,7 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B144" s="3">
         <v>1001301876213</v>
@@ -12088,13 +12112,13 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B145" s="3">
         <v>1001022726303</v>
       </c>
       <c r="C145" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D145">
         <f>VLOOKUP(B145,[1]Бланк!$D:$J,6,0)</f>
@@ -12103,13 +12127,13 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B146" s="3">
         <v>1001035026308</v>
       </c>
       <c r="C146" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D146">
         <f>VLOOKUP(B146,[1]Бланк!$D:$J,6,0)</f>
@@ -12118,7 +12142,7 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B147" s="3">
         <v>1001012566392</v>
@@ -12133,7 +12157,7 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B148" s="3">
         <v>1001234146448</v>
@@ -12148,7 +12172,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B149" s="3">
         <v>1001233296450</v>
@@ -12163,7 +12187,7 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B150" s="3">
         <v>1001201976454</v>
@@ -12178,7 +12202,7 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B151" s="3">
         <v>1001025176475</v>
@@ -12193,13 +12217,13 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B152" s="3">
         <v>1001012456498</v>
       </c>
       <c r="C152" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D152">
         <f>VLOOKUP(B152,[1]Бланк!$D:$J,6,0)</f>
@@ -12208,13 +12232,13 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B153" s="3">
         <v>1001010036596</v>
       </c>
       <c r="C153" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D153">
         <f>VLOOKUP(B153,[1]Бланк!$D:$J,6,0)</f>
@@ -12223,13 +12247,13 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B154" s="3">
         <v>1001033856607</v>
       </c>
       <c r="C154" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D154">
         <f>VLOOKUP(B154,[1]Бланк!$D:$J,6,0)</f>
@@ -12238,13 +12262,13 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B155" s="3">
         <v>1001033856609</v>
       </c>
       <c r="C155" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D155">
         <f>VLOOKUP(B155,[1]Бланк!$D:$J,6,0)</f>
@@ -12253,7 +12277,7 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B156" s="3">
         <v>1001302276666</v>
@@ -12268,7 +12292,7 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B157" s="3">
         <v>1001300516669</v>
@@ -12283,13 +12307,13 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B158" s="3">
         <v>1001092446755</v>
       </c>
       <c r="C158" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D158">
         <f>VLOOKUP(B158,[1]Бланк!$D:$J,6,0)</f>
@@ -12298,7 +12322,7 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B159" s="3">
         <v>1001092446756</v>
@@ -12313,13 +12337,13 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B160" s="3">
         <v>6550</v>
       </c>
       <c r="C160" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D160" t="e">
         <f>VLOOKUP(B160,[1]Бланк!$D:$J,6,0)</f>
@@ -12328,7 +12352,7 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B161" s="3">
         <v>1001304506684</v>
@@ -12343,13 +12367,13 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B162" s="3">
         <v>1001010113248</v>
       </c>
       <c r="C162" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D162">
         <f>VLOOKUP(B162,[1]Бланк!$D:$J,6,0)</f>
@@ -12358,13 +12382,13 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B163" s="3">
         <v>1001063925206</v>
       </c>
       <c r="C163" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D163">
         <f>VLOOKUP(B163,[1]Бланк!$D:$J,6,0)</f>
@@ -12373,13 +12397,13 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B164" s="3">
         <v>6586</v>
       </c>
       <c r="C164" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D164" t="e">
         <f>VLOOKUP(B164,[1]Бланк!$D:$J,6,0)</f>
@@ -12388,13 +12412,13 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B165" s="3">
         <v>1001303636467</v>
       </c>
       <c r="C165" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D165">
         <f>VLOOKUP(B165,[1]Бланк!$D:$J,6,0)</f>
@@ -12403,13 +12427,13 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B166" s="3">
         <v>1001304496701</v>
       </c>
       <c r="C166" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D166">
         <f>VLOOKUP(B166,[1]Бланк!$D:$J,6,0)</f>
@@ -12418,13 +12442,13 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B167" s="3">
         <v>6144</v>
       </c>
       <c r="C167" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D167" t="e">
         <f>VLOOKUP(B167,[1]Бланк!$D:$J,6,0)</f>
@@ -12433,13 +12457,13 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B168" s="3">
         <v>1001022725819</v>
       </c>
       <c r="C168" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D168">
         <f>VLOOKUP(B168,[1]Бланк!$D:$J,6,0)</f>
@@ -12448,13 +12472,13 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B169" s="3">
         <v>1001022726303</v>
       </c>
       <c r="C169" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D169">
         <f>VLOOKUP(B169,[1]Бланк!$D:$J,6,0)</f>
@@ -12463,7 +12487,7 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B170" s="3">
         <v>1001022373812</v>
@@ -12478,13 +12502,13 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B171" s="3">
         <v>1001024906062</v>
       </c>
       <c r="C171" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D171">
         <f>VLOOKUP(B171,[1]Бланк!$D:$J,6,0)</f>
@@ -12493,7 +12517,7 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B172" s="3">
         <v>1001300386683</v>
@@ -12508,7 +12532,7 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B173" s="3">
         <v>1001303986689</v>
@@ -12523,7 +12547,7 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B174" s="3">
         <v>1001303056692</v>
@@ -12538,13 +12562,13 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B175" s="3">
         <v>1001301876697</v>
       </c>
       <c r="C175" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D175">
         <f>VLOOKUP(B175,[1]Бланк!$D:$J,6,0)</f>
@@ -12553,7 +12577,7 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B176" s="3">
         <v>1001302276666</v>
@@ -12568,7 +12592,7 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B177" s="3">
         <v>1001012634574</v>
@@ -12583,13 +12607,13 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B178" s="3">
         <v>1001092485452</v>
       </c>
       <c r="C178" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D178">
         <f>VLOOKUP(B178,[1]Бланк!$D:$J,6,0)</f>
@@ -12598,7 +12622,7 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B179" s="3">
         <v>1001020966144</v>
@@ -12613,13 +12637,13 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B180" s="3">
         <v>6586</v>
       </c>
       <c r="C180" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D180" t="e">
         <f>VLOOKUP(B180,[1]Бланк!$D:$J,6,0)</f>
@@ -12628,7 +12652,7 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B181" s="3">
         <v>1001300516669</v>
@@ -12643,13 +12667,13 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B182" s="3">
         <v>1001304496701</v>
       </c>
       <c r="C182" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D182">
         <f>VLOOKUP(B182,[1]Бланк!$D:$J,6,0)</f>
@@ -12658,13 +12682,13 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B183" s="3">
         <v>1001063655015</v>
       </c>
       <c r="C183" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D183">
         <f>VLOOKUP(B183,[1]Бланк!$D:$J,6,0)</f>
@@ -12673,13 +12697,13 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B184" s="3">
         <v>1001060763287</v>
       </c>
       <c r="C184" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D184">
         <f>VLOOKUP(B184,[1]Бланк!$D:$J,6,0)</f>
@@ -12688,10 +12712,10 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C185" t="s">
         <v>179</v>
@@ -12699,24 +12723,24 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B186" s="3">
         <v>1001032736550</v>
       </c>
       <c r="C186" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B187" s="3">
         <v>6758</v>
       </c>
       <c r="C187" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D187" t="e">
         <f>VLOOKUP(B187,[1]Бланк!$D:$J,6,0)</f>
@@ -12725,13 +12749,13 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B188" s="3">
         <v>1001020965976</v>
       </c>
       <c r="C188" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D188">
         <f>VLOOKUP(B188,[1]Бланк!$D:$J,6,0)</f>
@@ -12740,24 +12764,24 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B189" s="3">
         <v>1001215576586</v>
       </c>
       <c r="C189" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B190" s="3">
         <v>1001094896026</v>
       </c>
       <c r="C190" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D190">
         <f>VLOOKUP(B190,[1]Бланк!$D:$J,6,0)</f>
@@ -12766,226 +12790,270 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B191" s="3">
         <v>1001215576586</v>
       </c>
       <c r="C191" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B192" s="3">
         <v>1001092436470</v>
       </c>
       <c r="C192" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B193" s="3">
         <v>1001203146555</v>
       </c>
       <c r="C193" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B194" s="3">
         <v>1001014765992</v>
       </c>
       <c r="C194" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B195" s="3">
         <v>1001014765992</v>
       </c>
       <c r="C195" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B196" s="3">
         <v>1001014765993</v>
       </c>
       <c r="C196" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B197" s="3">
         <v>1001025166776</v>
       </c>
       <c r="C197" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B198" s="3">
         <v>1001025506777</v>
       </c>
       <c r="C198" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B199" s="3">
         <v>1001025546822</v>
       </c>
       <c r="C199" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B200" s="3">
         <v>1001025546822</v>
       </c>
       <c r="C200" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B201" s="3">
         <v>1001025546822</v>
       </c>
       <c r="C201" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B202" s="3">
         <v>1001024976616</v>
       </c>
       <c r="C202" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B203" s="3">
         <v>1001010856747</v>
       </c>
       <c r="C203" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B204" s="3">
         <v>1001233296445</v>
       </c>
       <c r="C204" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B205" s="3">
         <v>1001203146555</v>
       </c>
       <c r="C205" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B206" s="3">
         <v>1001014765993</v>
       </c>
       <c r="C206" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B207" s="3">
         <v>1001025166776</v>
       </c>
       <c r="C207" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B208" s="3">
         <v>1001025506777</v>
       </c>
       <c r="C208" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B209" s="3">
         <v>1001025526778</v>
       </c>
       <c r="C209" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B210" s="3">
         <v>1001304236685</v>
       </c>
       <c r="C210" t="s">
-        <v>358</v>
+        <v>355</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B211" s="3">
+        <v>1001015496769</v>
+      </c>
+      <c r="C211" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B212" s="3">
+        <v>1001014766798</v>
+      </c>
+      <c r="C212" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B213" s="3">
+        <v>1001015026797</v>
+      </c>
+      <c r="C213" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B214" s="3">
+        <v>1001205386222</v>
+      </c>
+      <c r="C214" t="s">
+        <v>370</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C210" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
+  <autoFilter ref="A1:C212" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/moduls/1С.xlsx
+++ b/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\Останкино КИ\ostankino_ki\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E476FEAB-638C-42DF-8CAD-5F77A4AF40A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F1F066A-F5BD-47B6-912A-65F925F4DE6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$212</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$215</definedName>
   </definedNames>
   <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="374">
   <si>
     <t>1С</t>
   </si>
@@ -1150,6 +1150,15 @@
   </si>
   <si>
     <t xml:space="preserve"> ИТАЛЬЯНСКОЕ АССОРТИ с/в с/н мгс 1/90</t>
+  </si>
+  <si>
+    <t>6822 ИЗ ОТБОРНОГО МЯСА ПМ сос п/о мгс 0,36кг  Останкино</t>
+  </si>
+  <si>
+    <t>5224 ВЕТЧ.ИЗ ЛОПАТКИ Папа может п/о  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>ВЕТЧ.ИЗ ЛОПАТКИ Папа может п/о</t>
   </si>
 </sst>
 </file>
@@ -9954,10 +9963,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D214"/>
+  <dimension ref="A1:D216"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A202" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A196" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C219" sqref="C219"/>
     </sheetView>
   </sheetViews>
@@ -12900,7 +12909,7 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
       <c r="B201" s="3">
         <v>1001025546822</v>
@@ -12911,149 +12920,171 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="B202" s="3">
-        <v>1001024976616</v>
+        <v>1001025546822</v>
       </c>
       <c r="C202" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B203" s="3">
-        <v>1001010856747</v>
+        <v>1001024976616</v>
       </c>
       <c r="C203" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B204" s="3">
-        <v>1001233296445</v>
+        <v>1001010856747</v>
       </c>
       <c r="C204" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B205" s="3">
-        <v>1001203146555</v>
+        <v>1001233296445</v>
       </c>
       <c r="C205" t="s">
-        <v>325</v>
+        <v>344</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B206" s="3">
-        <v>1001014765993</v>
+        <v>1001203146555</v>
       </c>
       <c r="C206" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B207" s="3">
-        <v>1001025166776</v>
+        <v>1001014765993</v>
       </c>
       <c r="C207" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B208" s="3">
-        <v>1001025506777</v>
+        <v>1001025166776</v>
       </c>
       <c r="C208" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B209" s="3">
-        <v>1001025526778</v>
+        <v>1001025506777</v>
       </c>
       <c r="C209" t="s">
-        <v>351</v>
+        <v>334</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B210" s="3">
-        <v>1001304236685</v>
+        <v>1001025526778</v>
       </c>
       <c r="C210" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="B211" s="3">
-        <v>1001015496769</v>
+        <v>1001304236685</v>
       </c>
       <c r="C211" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B212" s="3">
-        <v>1001014766798</v>
+        <v>1001015496769</v>
       </c>
       <c r="C212" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="B213" s="3">
-        <v>1001015026797</v>
+        <v>1001014766798</v>
       </c>
       <c r="C213" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B214" s="3">
+        <v>1001015026797</v>
+      </c>
+      <c r="C214" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="B214" s="3">
+      <c r="B215" s="3">
         <v>1001205386222</v>
       </c>
-      <c r="C214" t="s">
+      <c r="C215" t="s">
         <v>370</v>
       </c>
     </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B216" s="3">
+        <v>1001092675224</v>
+      </c>
+      <c r="C216" t="s">
+        <v>373</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C212" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
+  <autoFilter ref="A1:C215" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/moduls/1С.xlsx
+++ b/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\Останкино КИ\ostankino_ki\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F1F066A-F5BD-47B6-912A-65F925F4DE6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4B29233-A7A5-4A1D-99BC-5C333EB05993}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$215</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$235</definedName>
   </definedNames>
   <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="415">
   <si>
     <t>1С</t>
   </si>
@@ -1159,6 +1159,129 @@
   </si>
   <si>
     <t>ВЕТЧ.ИЗ ЛОПАТКИ Папа может п/о</t>
+  </si>
+  <si>
+    <t>СОСИСКИ МЯСНЫЕ ПМ сос  мгс 1,5 кг. ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>САЛЯМИ Папа может п/к в/у 0.28кг 8шт.</t>
+  </si>
+  <si>
+    <t>Химич согласовал</t>
+  </si>
+  <si>
+    <t>ротация Симф</t>
+  </si>
+  <si>
+    <t>6827 НЕЖНЫЙ пашт п/о 1/150 12шт  Останкино</t>
+  </si>
+  <si>
+    <t>6826 МЯСНОЙ пашт п/о 1/150 12шт  Останкино</t>
+  </si>
+  <si>
+    <t>6828 ПЕЧЕНОЧНЫЙ пашт п/о 1/150 12шт  Останкино</t>
+  </si>
+  <si>
+    <t>6769 СЕМЕЙНАЯ вар п/о  Останкино</t>
+  </si>
+  <si>
+    <t>6223 БАЛЫК И ШЕЙКА с/в с/н мгс 1/90 10 шт ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>БАЛЫК И ШЕЙКА с/в с/н мгс 1/90 10 шт</t>
+  </si>
+  <si>
+    <t>САЛЯМИ п/к в/у 0.28кг 8шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6790 СЕРВЕЛАТ ЕВРОПЕЙСКИЙ в/к в/у</t>
+  </si>
+  <si>
+    <t>6791 СЕРВЕЛАТ ПРЕМИУМ в/к в/у 0.33кг 8шт.</t>
+  </si>
+  <si>
+    <t>6792 СЕРВЕЛАТ ПРЕМИУМ в/к в/у</t>
+  </si>
+  <si>
+    <t>6793 БАЛЫКОВАЯ в/к в/у 0.33кг 8шт.</t>
+  </si>
+  <si>
+    <t>6794 БАЛЫКОВАЯ в/к в/у</t>
+  </si>
+  <si>
+    <t>6795 ОСТАНКИНСКАЯ в/к в/у 0.33кг 8шт.</t>
+  </si>
+  <si>
+    <t>6796 ОСТАНКИНСКАЯ в/к в/у</t>
+  </si>
+  <si>
+    <t>6804 СЕРВЕЛАТ КРЕМЛЕВСКИЙ в/к в/у 0.66кг 8шт.</t>
+  </si>
+  <si>
+    <t>6806 СЕРВЕЛАТ ЕВРОПЕЙСКИЙ в/к в/у 0.66кг 8шт.</t>
+  </si>
+  <si>
+    <t>6803 ВЕНСКАЯ САЛЯМИ п/к в/у 0.66кг 8шт.</t>
+  </si>
+  <si>
+    <t>6807 СЕРВЕЛАТ ЕВРОПЕЙСКИЙ в/к в/у 0.33кг 8шт.</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ ЕВРОПЕЙСКИЙ в/к в/у</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ ПРЕМИУМ в/к в/у 0.33кг 8шт.</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ ПРЕМИУМ в/к в/у</t>
+  </si>
+  <si>
+    <t>БАЛЫКОВАЯ в/к в/у 0.33кг 8шт.</t>
+  </si>
+  <si>
+    <t>БАЛЫКОВАЯ в/к в/у</t>
+  </si>
+  <si>
+    <t>ОСТАНКИНСКАЯ в/к в/у 0.33кг 8шт.</t>
+  </si>
+  <si>
+    <t>ОСТАНКИНСКАЯ в/к в/у</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ КРЕМЛЕВСКИЙ в/к в/у 0.66кг 8шт.</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ ЕВРОПЕЙСКИЙ в/к в/у 0.66кг 8шт.</t>
+  </si>
+  <si>
+    <t>ВЕНСКАЯ САЛЯМИ п/к в/у 0.66кг 8шт.</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ ЕВРОПЕЙСКИЙ в/к в/у 0.33кг 8шт.</t>
+  </si>
+  <si>
+    <t>6807 СЕРВЕЛАТ ЕВРОПЕЙСКИЙ в/к в/у 0,33кг 8шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ ЕВРОПЕЙСКИЙ в/к в/у 0,33кг 8шт.</t>
+  </si>
+  <si>
+    <t>6785 ВЕНСКАЯ САЛЯМИ п/к в/у 0.33кг 8шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>ВЕНСКАЯ САЛЯМИ п/к в/у 0.33кг 8шт.</t>
+  </si>
+  <si>
+    <t>6787 СЕРВЕЛАТ КРЕМЛЕВСКИЙ в/к в/у 0,33кг 8шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ КРЕМЛЕВСКИЙ в/к в/у 0.33кг 8шт.</t>
+  </si>
+  <si>
+    <t>6793 БАЛЫКОВАЯ в/к в/у 0,33кг 8шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6795 ОСТАНКИНСКАЯ в/к в/у 0,33кг 8шт.  ОСТАНКИНО</t>
   </si>
 </sst>
 </file>
@@ -1215,12 +1338,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -9963,11 +10089,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D216"/>
+  <dimension ref="A1:G239"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A196" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C219" sqref="C219"/>
+      <pane ySplit="1" topLeftCell="A222" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C243" sqref="C243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9976,6 +10102,7 @@
     <col min="2" max="2" width="16.42578125" style="3" customWidth="1"/>
     <col min="3" max="3" width="44.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -10928,7 +11055,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>132</v>
       </c>
@@ -10943,7 +11070,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>133</v>
       </c>
@@ -10958,209 +11085,218 @@
         <v>45</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B67" s="3">
+        <v>1001303106773</v>
+      </c>
+      <c r="C67" t="s">
+        <v>375</v>
+      </c>
+      <c r="D67">
+        <v>45</v>
+      </c>
+      <c r="F67" s="3">
+        <v>1001300516669</v>
+      </c>
+      <c r="G67" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B68" s="5">
+        <v>1001303106773</v>
+      </c>
+      <c r="C68" t="s">
+        <v>375</v>
+      </c>
+      <c r="D68">
+        <v>45</v>
+      </c>
+      <c r="F68" s="3"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B69" s="5">
+        <v>1001303106773</v>
+      </c>
+      <c r="C69" t="s">
+        <v>375</v>
+      </c>
+      <c r="D69">
+        <v>45</v>
+      </c>
+      <c r="F69" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B67" s="3">
-        <v>1001300516669</v>
-      </c>
-      <c r="C67" t="s">
-        <v>69</v>
-      </c>
-      <c r="D67">
-        <f>VLOOKUP(B67,[1]Бланк!$D:$J,6,0)</f>
+      <c r="B70" s="3">
+        <v>1001303106773</v>
+      </c>
+      <c r="C70" t="s">
+        <v>375</v>
+      </c>
+      <c r="D70">
         <v>45</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
+      <c r="F70" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B68" s="3">
+      <c r="B71" s="3">
         <v>1001012566392</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C71" t="s">
         <v>62</v>
-      </c>
-      <c r="D68">
-        <f>VLOOKUP(B68,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B69" s="3">
-        <v>1001302276666</v>
-      </c>
-      <c r="C69" t="s">
-        <v>68</v>
-      </c>
-      <c r="D69">
-        <f>VLOOKUP(B69,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B70" s="3">
-        <v>1001012426268</v>
-      </c>
-      <c r="C70" t="s">
-        <v>139</v>
-      </c>
-      <c r="D70" t="e">
-        <f>VLOOKUP(B70,[1]Бланк!$D:$J,6,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B71" s="3">
-        <v>1001024906041</v>
-      </c>
-      <c r="C71" t="s">
-        <v>145</v>
       </c>
       <c r="D71">
         <f>VLOOKUP(B71,[1]Бланк!$D:$J,6,0)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B72" s="3">
+        <v>1001302276666</v>
+      </c>
+      <c r="C72" t="s">
+        <v>68</v>
+      </c>
+      <c r="D72">
+        <f>VLOOKUP(B72,[1]Бланк!$D:$J,6,0)</f>
         <v>45</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B72" s="3">
-        <v>1001011086247</v>
-      </c>
-      <c r="C72" t="s">
-        <v>144</v>
-      </c>
-      <c r="D72" t="e">
-        <f>VLOOKUP(B72,[1]Бланк!$D:$J,6,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>167</v>
+        <v>140</v>
       </c>
       <c r="B73" s="3">
-        <v>1001014486158</v>
+        <v>1001012426268</v>
       </c>
       <c r="C73" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="D73" t="e">
         <f>VLOOKUP(B73,[1]Бланк!$D:$J,6,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="B74" s="3">
-        <v>1001015356259</v>
+        <v>1001024906041</v>
       </c>
       <c r="C74" t="s">
-        <v>161</v>
-      </c>
-      <c r="D74" t="e">
+        <v>145</v>
+      </c>
+      <c r="D74">
         <f>VLOOKUP(B74,[1]Бланк!$D:$J,6,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>171</v>
+        <v>143</v>
       </c>
       <c r="B75" s="3">
-        <v>1001012816716</v>
+        <v>1001011086247</v>
       </c>
       <c r="C75" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="D75" t="e">
         <f>VLOOKUP(B75,[1]Бланк!$D:$J,6,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B76" s="3">
+        <v>1001014486158</v>
+      </c>
+      <c r="C76" t="s">
+        <v>160</v>
+      </c>
+      <c r="D76" t="e">
+        <f>VLOOKUP(B76,[1]Бланк!$D:$J,6,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B77" s="3">
+        <v>1001015356259</v>
+      </c>
+      <c r="C77" t="s">
+        <v>161</v>
+      </c>
+      <c r="D77" t="e">
+        <f>VLOOKUP(B77,[1]Бланк!$D:$J,6,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B78" s="3">
+        <v>1001012816716</v>
+      </c>
+      <c r="C78" t="s">
+        <v>162</v>
+      </c>
+      <c r="D78" t="e">
+        <f>VLOOKUP(B78,[1]Бланк!$D:$J,6,0)</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="B76" s="3">
+      <c r="B79" s="3">
         <v>1001020966227</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C79" t="s">
         <v>356</v>
       </c>
-      <c r="D76">
+      <c r="D79">
         <v>45</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B77" s="3">
+      <c r="B80" s="3">
         <v>1001020966227</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C80" t="s">
         <v>148</v>
-      </c>
-      <c r="D77">
-        <f>VLOOKUP(B77,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B78" s="3">
-        <v>1001020965981</v>
-      </c>
-      <c r="C78" t="s">
-        <v>142</v>
-      </c>
-      <c r="D78">
-        <f>VLOOKUP(B78,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B79" s="3">
-        <v>1001022726303</v>
-      </c>
-      <c r="C79" t="s">
-        <v>174</v>
-      </c>
-      <c r="D79">
-        <f>VLOOKUP(B79,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B80" s="3">
-        <v>1001022466726</v>
-      </c>
-      <c r="C80" t="s">
-        <v>123</v>
       </c>
       <c r="D80">
         <f>VLOOKUP(B80,[1]Бланк!$D:$J,6,0)</f>
@@ -11169,13 +11305,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="B81" s="3">
-        <v>1001020966144</v>
+        <v>1001020965981</v>
       </c>
       <c r="C81" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="D81">
         <f>VLOOKUP(B81,[1]Бланк!$D:$J,6,0)</f>
@@ -11184,13 +11320,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>137</v>
+        <v>242</v>
       </c>
       <c r="B82" s="3">
-        <v>1001022376722</v>
+        <v>1001022726303</v>
       </c>
       <c r="C82" t="s">
-        <v>135</v>
+        <v>280</v>
       </c>
       <c r="D82">
         <f>VLOOKUP(B82,[1]Бланк!$D:$J,6,0)</f>
@@ -11199,13 +11335,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>152</v>
+        <v>279</v>
       </c>
       <c r="B83" s="3">
-        <v>1001022373812</v>
+        <v>1001022726303</v>
       </c>
       <c r="C83" t="s">
-        <v>3</v>
+        <v>280</v>
       </c>
       <c r="D83">
         <f>VLOOKUP(B83,[1]Бланк!$D:$J,6,0)</f>
@@ -11214,13 +11350,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>153</v>
+        <v>374</v>
       </c>
       <c r="B84" s="3">
-        <v>1001022376113</v>
+        <v>1001022726303</v>
       </c>
       <c r="C84" t="s">
-        <v>4</v>
+        <v>280</v>
       </c>
       <c r="D84">
         <f>VLOOKUP(B84,[1]Бланк!$D:$J,6,0)</f>
@@ -11229,13 +11365,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>272</v>
+        <v>172</v>
       </c>
       <c r="B85" s="3">
-        <v>1001022246661</v>
+        <v>1001022726303</v>
       </c>
       <c r="C85" t="s">
-        <v>273</v>
+        <v>174</v>
       </c>
       <c r="D85">
         <f>VLOOKUP(B85,[1]Бланк!$D:$J,6,0)</f>
@@ -11244,13 +11380,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>353</v>
+        <v>122</v>
       </c>
       <c r="B86" s="3">
-        <v>1001022246661</v>
+        <v>1001022466726</v>
       </c>
       <c r="C86" t="s">
-        <v>273</v>
+        <v>123</v>
       </c>
       <c r="D86">
         <f>VLOOKUP(B86,[1]Бланк!$D:$J,6,0)</f>
@@ -11259,13 +11395,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="B87" s="3">
-        <v>1001022246661</v>
+        <v>1001020966144</v>
       </c>
       <c r="C87" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="D87">
         <f>VLOOKUP(B87,[1]Бланк!$D:$J,6,0)</f>
@@ -11274,13 +11410,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="B88" s="3">
-        <v>1001022246713</v>
+        <v>1001022376722</v>
       </c>
       <c r="C88" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D88">
         <f>VLOOKUP(B88,[1]Бланк!$D:$J,6,0)</f>
@@ -11289,13 +11425,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B89" s="3">
-        <v>1001025166241</v>
+        <v>1001022373812</v>
       </c>
       <c r="C89" t="s">
-        <v>159</v>
+        <v>3</v>
       </c>
       <c r="D89">
         <f>VLOOKUP(B89,[1]Бланк!$D:$J,6,0)</f>
@@ -11304,133 +11440,133 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="B90" s="3">
-        <v>6606</v>
+        <v>1001022376113</v>
       </c>
       <c r="C90" t="s">
-        <v>175</v>
-      </c>
-      <c r="D90" t="e">
+        <v>4</v>
+      </c>
+      <c r="D90">
         <f>VLOOKUP(B90,[1]Бланк!$D:$J,6,0)</f>
-        <v>#N/A</v>
+        <v>45</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>150</v>
+        <v>272</v>
       </c>
       <c r="B91" s="3">
-        <v>1001035326217</v>
+        <v>1001022246661</v>
       </c>
       <c r="C91" t="s">
-        <v>149</v>
-      </c>
-      <c r="D91" t="e">
+        <v>273</v>
+      </c>
+      <c r="D91">
         <f>VLOOKUP(B91,[1]Бланк!$D:$J,6,0)</f>
-        <v>#REF!</v>
+        <v>45</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>170</v>
+        <v>353</v>
       </c>
       <c r="B92" s="3">
-        <v>1001303636301</v>
+        <v>1001022246661</v>
       </c>
       <c r="C92" t="s">
-        <v>164</v>
-      </c>
-      <c r="D92" t="e">
+        <v>273</v>
+      </c>
+      <c r="D92">
         <f>VLOOKUP(B92,[1]Бланк!$D:$J,6,0)</f>
-        <v>#N/A</v>
+        <v>45</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>108</v>
+        <v>151</v>
       </c>
       <c r="B93" s="3">
-        <v>1001303636302</v>
+        <v>1001022246661</v>
       </c>
       <c r="C93" t="s">
-        <v>109</v>
+        <v>154</v>
       </c>
       <c r="D93">
         <f>VLOOKUP(B93,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B94" s="3">
-        <v>1001305196215</v>
+        <v>1001022246713</v>
       </c>
       <c r="C94" t="s">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="D94">
         <f>VLOOKUP(B94,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="B95" s="3">
-        <v>1001301876212</v>
+        <v>1001025166241</v>
       </c>
       <c r="C95" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D95">
         <f>VLOOKUP(B95,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="B96" s="3">
-        <v>1001301876213</v>
+        <v>6606</v>
       </c>
       <c r="C96" t="s">
-        <v>92</v>
-      </c>
-      <c r="D96">
+        <v>175</v>
+      </c>
+      <c r="D96" t="e">
         <f>VLOOKUP(B96,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>176</v>
+        <v>150</v>
       </c>
       <c r="B97" s="3">
-        <v>1001303636302</v>
+        <v>1001035326217</v>
       </c>
       <c r="C97" t="s">
-        <v>109</v>
-      </c>
-      <c r="D97">
+        <v>149</v>
+      </c>
+      <c r="D97" t="e">
         <f>VLOOKUP(B97,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="B98" s="3">
-        <v>6645</v>
+        <v>1001303636301</v>
       </c>
       <c r="C98" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="D98" t="e">
         <f>VLOOKUP(B98,[1]Бланк!$D:$J,6,0)</f>
@@ -11439,125 +11575,133 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>180</v>
+        <v>108</v>
       </c>
       <c r="B99" s="3">
-        <v>1001225416228</v>
+        <v>1001303636302</v>
       </c>
       <c r="C99" t="s">
-        <v>179</v>
-      </c>
-      <c r="D99" t="e">
+        <v>109</v>
+      </c>
+      <c r="D99">
         <f>VLOOKUP(B99,[1]Бланк!$D:$J,6,0)</f>
-        <v>#N/A</v>
+        <v>60</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="B100" s="3">
-        <v>6225</v>
+        <v>1001305196215</v>
       </c>
       <c r="C100" t="s">
-        <v>301</v>
-      </c>
-      <c r="D100" t="e">
+        <v>93</v>
+      </c>
+      <c r="D100">
         <f>VLOOKUP(B100,[1]Бланк!$D:$J,6,0)</f>
-        <v>#N/A</v>
+        <v>60</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="B101" s="3">
-        <v>1001022376722</v>
+        <v>1001301876212</v>
       </c>
       <c r="C101" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="D101">
         <f>VLOOKUP(B101,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="B102" s="3">
-        <v>1001022376722</v>
+        <v>1001301876213</v>
       </c>
       <c r="C102" t="s">
-        <v>135</v>
+        <v>92</v>
       </c>
       <c r="D102">
         <f>VLOOKUP(B102,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B103" s="3">
-        <v>3297</v>
+        <v>1001303636302</v>
       </c>
       <c r="C103" t="s">
-        <v>184</v>
-      </c>
-      <c r="D103" t="e">
+        <v>109</v>
+      </c>
+      <c r="D103">
         <f>VLOOKUP(B103,[1]Бланк!$D:$J,6,0)</f>
-        <v>#N/A</v>
+        <v>60</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B104" s="3">
-        <v>1001034063297</v>
+        <v>6645</v>
       </c>
       <c r="C104" t="s">
-        <v>184</v>
-      </c>
-      <c r="D104">
+        <v>177</v>
+      </c>
+      <c r="D104" t="e">
         <f>VLOOKUP(B104,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>347</v>
+        <v>180</v>
       </c>
       <c r="B105" s="3">
-        <v>1001022466726</v>
+        <v>1001225416228</v>
       </c>
       <c r="C105" t="s">
-        <v>321</v>
+        <v>179</v>
+      </c>
+      <c r="D105" t="e">
+        <f>VLOOKUP(B105,[1]Бланк!$D:$J,6,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>322</v>
+        <v>181</v>
       </c>
       <c r="B106" s="3">
-        <v>1001022466726</v>
+        <v>6225</v>
       </c>
       <c r="C106" t="s">
-        <v>321</v>
+        <v>301</v>
+      </c>
+      <c r="D106" t="e">
+        <f>VLOOKUP(B106,[1]Бланк!$D:$J,6,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B107" s="3">
-        <v>1001022466726</v>
+        <v>1001022376722</v>
       </c>
       <c r="C107" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="D107">
         <f>VLOOKUP(B107,[1]Бланк!$D:$J,6,0)</f>
@@ -11566,28 +11710,28 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B108" s="3">
-        <v>1001021966602</v>
+        <v>1001022376722</v>
       </c>
       <c r="C108" t="s">
-        <v>312</v>
-      </c>
-      <c r="D108" t="e">
+        <v>135</v>
+      </c>
+      <c r="D108">
         <f>VLOOKUP(B108,[1]Бланк!$D:$J,6,0)</f>
-        <v>#REF!</v>
+        <v>45</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B109" s="3">
-        <v>6233</v>
+        <v>3297</v>
       </c>
       <c r="C109" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D109" t="e">
         <f>VLOOKUP(B109,[1]Бланк!$D:$J,6,0)</f>
@@ -11596,88 +11740,80 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>291</v>
+        <v>185</v>
       </c>
       <c r="B110" s="3">
-        <v>1001012826734</v>
+        <v>1001034063297</v>
       </c>
       <c r="C110" t="s">
-        <v>294</v>
-      </c>
-      <c r="D110" t="e">
+        <v>184</v>
+      </c>
+      <c r="D110">
         <f>VLOOKUP(B110,[1]Бланк!$D:$J,6,0)</f>
-        <v>#REF!</v>
+        <v>45</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>191</v>
+        <v>347</v>
       </c>
       <c r="B111" s="3">
-        <v>1001012826734</v>
+        <v>1001022466726</v>
       </c>
       <c r="C111" t="s">
-        <v>192</v>
-      </c>
-      <c r="D111" t="e">
-        <f>VLOOKUP(B111,[1]Бланк!$D:$J,6,0)</f>
-        <v>#REF!</v>
+        <v>321</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>193</v>
+        <v>322</v>
       </c>
       <c r="B112" s="3">
-        <v>6750</v>
+        <v>1001022466726</v>
       </c>
       <c r="C112" t="s">
-        <v>99</v>
-      </c>
-      <c r="D112" t="e">
-        <f>VLOOKUP(B112,[1]Бланк!$D:$J,6,0)</f>
-        <v>#N/A</v>
+        <v>321</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="B113" s="3">
-        <v>6751</v>
+        <v>1001022466726</v>
       </c>
       <c r="C113" t="s">
-        <v>101</v>
-      </c>
-      <c r="D113" t="e">
+        <v>123</v>
+      </c>
+      <c r="D113">
         <f>VLOOKUP(B113,[1]Бланк!$D:$J,6,0)</f>
-        <v>#N/A</v>
+        <v>45</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="B114" s="3">
-        <v>5982</v>
+        <v>1001021966602</v>
       </c>
       <c r="C114" t="s">
-        <v>196</v>
+        <v>312</v>
       </c>
       <c r="D114" t="e">
         <f>VLOOKUP(B114,[1]Бланк!$D:$J,6,0)</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B115" s="3">
-        <v>1001020965982</v>
+        <v>6233</v>
       </c>
       <c r="C115" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D115" t="e">
         <f>VLOOKUP(B115,[1]Бланк!$D:$J,6,0)</f>
@@ -11686,43 +11822,43 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>203</v>
+        <v>291</v>
       </c>
       <c r="B116" s="3">
-        <v>1001094966025</v>
+        <v>1001012826734</v>
       </c>
       <c r="C116" t="s">
-        <v>199</v>
-      </c>
-      <c r="D116">
+        <v>294</v>
+      </c>
+      <c r="D116" t="e">
         <f>VLOOKUP(B116,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B117" s="3">
-        <v>6025</v>
+        <v>1001012826734</v>
       </c>
       <c r="C117" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="D117" t="e">
         <f>VLOOKUP(B117,[1]Бланк!$D:$J,6,0)</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="B118" s="3">
-        <v>6221</v>
+        <v>6750</v>
       </c>
       <c r="C118" t="s">
-        <v>201</v>
+        <v>99</v>
       </c>
       <c r="D118" t="e">
         <f>VLOOKUP(B118,[1]Бланк!$D:$J,6,0)</f>
@@ -11731,13 +11867,13 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="B119" s="3">
-        <v>1001205376221</v>
+        <v>6751</v>
       </c>
       <c r="C119" t="s">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="D119" t="e">
         <f>VLOOKUP(B119,[1]Бланк!$D:$J,6,0)</f>
@@ -11746,58 +11882,58 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="B120" s="3">
-        <v>1001034063297</v>
+        <v>5982</v>
       </c>
       <c r="C120" t="s">
-        <v>206</v>
-      </c>
-      <c r="D120">
+        <v>196</v>
+      </c>
+      <c r="D120" t="e">
         <f>VLOOKUP(B120,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="B121" s="3">
-        <v>1001022373812</v>
+        <v>1001020965982</v>
       </c>
       <c r="C121" t="s">
-        <v>3</v>
-      </c>
-      <c r="D121">
+        <v>196</v>
+      </c>
+      <c r="D121" t="e">
         <f>VLOOKUP(B121,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B122" s="3">
-        <v>1001100606827</v>
+        <v>1001094966025</v>
       </c>
       <c r="C122" t="s">
-        <v>364</v>
-      </c>
-      <c r="D122" t="e">
+        <v>199</v>
+      </c>
+      <c r="D122">
         <f>VLOOKUP(B122,[1]Бланк!$D:$J,6,0)</f>
-        <v>#N/A</v>
+        <v>60</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="B123" s="3">
-        <v>1001100616826</v>
+        <v>6025</v>
       </c>
       <c r="C123" t="s">
-        <v>365</v>
+        <v>199</v>
       </c>
       <c r="D123" t="e">
         <f>VLOOKUP(B123,[1]Бланк!$D:$J,6,0)</f>
@@ -11806,13 +11942,13 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="B124" s="3">
-        <v>1001100626828</v>
+        <v>6221</v>
       </c>
       <c r="C124" t="s">
-        <v>366</v>
+        <v>201</v>
       </c>
       <c r="D124" t="e">
         <f>VLOOKUP(B124,[1]Бланк!$D:$J,6,0)</f>
@@ -11821,148 +11957,142 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="B125" s="3">
-        <v>1001035026308</v>
+        <v>1001205376221</v>
       </c>
       <c r="C125" t="s">
-        <v>212</v>
-      </c>
-      <c r="D125">
+        <v>201</v>
+      </c>
+      <c r="D125" t="e">
         <f>VLOOKUP(B125,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B126" s="3">
-        <v>1001014486159</v>
+        <v>1001034063297</v>
       </c>
       <c r="C126" t="s">
-        <v>214</v>
-      </c>
-      <c r="D126" t="e">
+        <v>206</v>
+      </c>
+      <c r="D126">
         <f>VLOOKUP(B126,[1]Бланк!$D:$J,6,0)</f>
-        <v>#REF!</v>
+        <v>45</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="B127" s="3">
-        <v>1001035326217</v>
+        <v>1001022373812</v>
       </c>
       <c r="C127" t="s">
-        <v>318</v>
-      </c>
-      <c r="D127" t="e">
+        <v>3</v>
+      </c>
+      <c r="D127">
         <f>VLOOKUP(B127,[1]Бланк!$D:$J,6,0)</f>
-        <v>#REF!</v>
+        <v>45</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="B128" s="3">
-        <v>1001012426220</v>
+        <v>1001100606827</v>
       </c>
       <c r="C128" t="s">
-        <v>217</v>
-      </c>
-      <c r="D128" t="e">
-        <f>VLOOKUP(B128,[1]Бланк!$D:$J,6,0)</f>
-        <v>#REF!</v>
+        <v>364</v>
+      </c>
+      <c r="D128">
+        <v>60</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>218</v>
+        <v>378</v>
       </c>
       <c r="B129" s="3">
-        <v>1001022466236</v>
+        <v>1001100606827</v>
       </c>
       <c r="C129" t="s">
-        <v>219</v>
+        <v>364</v>
       </c>
       <c r="D129">
-        <f>VLOOKUP(B129,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B130" s="3">
-        <v>1001021966602</v>
+        <v>1001100616826</v>
       </c>
       <c r="C130" t="s">
-        <v>221</v>
-      </c>
-      <c r="D130" t="e">
-        <f>VLOOKUP(B130,[1]Бланк!$D:$J,6,0)</f>
-        <v>#REF!</v>
+        <v>365</v>
+      </c>
+      <c r="D130">
+        <v>60</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>222</v>
+        <v>379</v>
       </c>
       <c r="B131" s="3">
-        <v>1001022296656</v>
+        <v>1001100616826</v>
       </c>
       <c r="C131" t="s">
-        <v>223</v>
+        <v>365</v>
       </c>
       <c r="D131">
-        <f>VLOOKUP(B131,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="B132" s="3">
-        <v>1001304506684</v>
+        <v>1001100626828</v>
       </c>
       <c r="C132" t="s">
-        <v>65</v>
+        <v>366</v>
       </c>
       <c r="D132">
-        <f>VLOOKUP(B132,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>225</v>
+        <v>380</v>
       </c>
       <c r="B133" s="3">
-        <v>1001301876697</v>
+        <v>1001100626828</v>
       </c>
       <c r="C133" t="s">
-        <v>226</v>
+        <v>366</v>
       </c>
       <c r="D133">
-        <f>VLOOKUP(B133,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="B134" s="3">
-        <v>1001022246713</v>
+        <v>1001035026308</v>
       </c>
       <c r="C134" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="D134">
         <f>VLOOKUP(B134,[1]Бланк!$D:$J,6,0)</f>
@@ -11971,13 +12101,13 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="B135" s="3">
-        <v>1001012816716</v>
+        <v>1001014486159</v>
       </c>
       <c r="C135" t="s">
-        <v>162</v>
+        <v>214</v>
       </c>
       <c r="D135" t="e">
         <f>VLOOKUP(B135,[1]Бланк!$D:$J,6,0)</f>
@@ -11986,43 +12116,43 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="B136" s="3">
-        <v>1001022376722</v>
+        <v>1001035326217</v>
       </c>
       <c r="C136" t="s">
-        <v>231</v>
-      </c>
-      <c r="D136">
+        <v>318</v>
+      </c>
+      <c r="D136" t="e">
         <f>VLOOKUP(B136,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="B137" s="3">
-        <v>1001020846751</v>
+        <v>1001012426220</v>
       </c>
       <c r="C137" t="s">
-        <v>101</v>
-      </c>
-      <c r="D137">
+        <v>217</v>
+      </c>
+      <c r="D137" t="e">
         <f>VLOOKUP(B137,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="B138" s="3">
-        <v>1001022725819</v>
+        <v>1001022466236</v>
       </c>
       <c r="C138" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="D138">
         <f>VLOOKUP(B138,[1]Бланк!$D:$J,6,0)</f>
@@ -12031,43 +12161,43 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="B139" s="3">
-        <v>1001012825337</v>
+        <v>1001021966602</v>
       </c>
       <c r="C139" t="s">
-        <v>28</v>
-      </c>
-      <c r="D139">
+        <v>221</v>
+      </c>
+      <c r="D139" t="e">
         <f>VLOOKUP(B139,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="B140" s="3">
-        <v>1001012815336</v>
+        <v>1001022296656</v>
       </c>
       <c r="C140" t="s">
-        <v>26</v>
+        <v>223</v>
       </c>
       <c r="D140">
         <f>VLOOKUP(B140,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="B141" s="3">
-        <v>1001234146448</v>
+        <v>1001304506684</v>
       </c>
       <c r="C141" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="D141">
         <f>VLOOKUP(B141,[1]Бланк!$D:$J,6,0)</f>
@@ -12076,13 +12206,13 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="B142" s="3">
-        <v>1001022725819</v>
+        <v>1001301876697</v>
       </c>
       <c r="C142" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="D142">
         <f>VLOOKUP(B142,[1]Бланк!$D:$J,6,0)</f>
@@ -12091,43 +12221,43 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="B143" s="3">
-        <v>1001092676027</v>
+        <v>1001022246713</v>
       </c>
       <c r="C143" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="D143">
         <f>VLOOKUP(B143,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="B144" s="3">
-        <v>1001301876213</v>
+        <v>1001012816716</v>
       </c>
       <c r="C144" t="s">
-        <v>92</v>
-      </c>
-      <c r="D144">
+        <v>162</v>
+      </c>
+      <c r="D144" t="e">
         <f>VLOOKUP(B144,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="B145" s="3">
-        <v>1001022726303</v>
+        <v>1001022376722</v>
       </c>
       <c r="C145" t="s">
-        <v>280</v>
+        <v>231</v>
       </c>
       <c r="D145">
         <f>VLOOKUP(B145,[1]Бланк!$D:$J,6,0)</f>
@@ -12136,13 +12266,13 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="B146" s="3">
-        <v>1001035026308</v>
+        <v>1001020846751</v>
       </c>
       <c r="C146" t="s">
-        <v>212</v>
+        <v>101</v>
       </c>
       <c r="D146">
         <f>VLOOKUP(B146,[1]Бланк!$D:$J,6,0)</f>
@@ -12151,73 +12281,73 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="B147" s="3">
-        <v>1001012566392</v>
+        <v>1001022725819</v>
       </c>
       <c r="C147" t="s">
-        <v>62</v>
+        <v>234</v>
       </c>
       <c r="D147">
         <f>VLOOKUP(B147,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="B148" s="3">
-        <v>1001234146448</v>
+        <v>1001012825337</v>
       </c>
       <c r="C148" t="s">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="D148">
         <f>VLOOKUP(B148,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="B149" s="3">
-        <v>1001233296450</v>
+        <v>1001012815336</v>
       </c>
       <c r="C149" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="D149">
         <f>VLOOKUP(B149,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="B150" s="3">
-        <v>1001201976454</v>
+        <v>1001234146448</v>
       </c>
       <c r="C150" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D150">
         <f>VLOOKUP(B150,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="B151" s="3">
-        <v>1001025176475</v>
+        <v>1001022725819</v>
       </c>
       <c r="C151" t="s">
-        <v>85</v>
+        <v>234</v>
       </c>
       <c r="D151">
         <f>VLOOKUP(B151,[1]Бланк!$D:$J,6,0)</f>
@@ -12226,13 +12356,13 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B152" s="3">
-        <v>1001012456498</v>
+        <v>1001092676027</v>
       </c>
       <c r="C152" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="D152">
         <f>VLOOKUP(B152,[1]Бланк!$D:$J,6,0)</f>
@@ -12241,13 +12371,13 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B153" s="3">
-        <v>1001010036596</v>
+        <v>1001301876213</v>
       </c>
       <c r="C153" t="s">
-        <v>252</v>
+        <v>92</v>
       </c>
       <c r="D153">
         <f>VLOOKUP(B153,[1]Бланк!$D:$J,6,0)</f>
@@ -12256,13 +12386,13 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="B154" s="3">
-        <v>1001033856607</v>
+        <v>1001035026308</v>
       </c>
       <c r="C154" t="s">
-        <v>254</v>
+        <v>212</v>
       </c>
       <c r="D154">
         <f>VLOOKUP(B154,[1]Бланк!$D:$J,6,0)</f>
@@ -12271,28 +12401,28 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="B155" s="3">
-        <v>1001033856609</v>
+        <v>1001012566392</v>
       </c>
       <c r="C155" t="s">
-        <v>256</v>
+        <v>62</v>
       </c>
       <c r="D155">
         <f>VLOOKUP(B155,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="B156" s="3">
-        <v>1001302276666</v>
+        <v>1001234146448</v>
       </c>
       <c r="C156" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="D156">
         <f>VLOOKUP(B156,[1]Бланк!$D:$J,6,0)</f>
@@ -12301,13 +12431,13 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="B157" s="3">
-        <v>1001300516669</v>
+        <v>1001233296450</v>
       </c>
       <c r="C157" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="D157">
         <f>VLOOKUP(B157,[1]Бланк!$D:$J,6,0)</f>
@@ -12316,13 +12446,13 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="B158" s="3">
-        <v>1001092446755</v>
+        <v>1001201976454</v>
       </c>
       <c r="C158" t="s">
-        <v>314</v>
+        <v>83</v>
       </c>
       <c r="D158">
         <f>VLOOKUP(B158,[1]Бланк!$D:$J,6,0)</f>
@@ -12331,133 +12461,133 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="B159" s="3">
-        <v>1001092446756</v>
+        <v>1001025176475</v>
       </c>
       <c r="C159" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="D159">
         <f>VLOOKUP(B159,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="B160" s="3">
-        <v>6550</v>
+        <v>1001012456498</v>
       </c>
       <c r="C160" t="s">
-        <v>262</v>
-      </c>
-      <c r="D160" t="e">
+        <v>250</v>
+      </c>
+      <c r="D160">
         <f>VLOOKUP(B160,[1]Бланк!$D:$J,6,0)</f>
-        <v>#N/A</v>
+        <v>60</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="B161" s="3">
-        <v>1001304506684</v>
+        <v>1001010036596</v>
       </c>
       <c r="C161" t="s">
-        <v>65</v>
+        <v>252</v>
       </c>
       <c r="D161">
         <f>VLOOKUP(B161,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="B162" s="3">
-        <v>1001010113248</v>
+        <v>1001033856607</v>
       </c>
       <c r="C162" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="D162">
         <f>VLOOKUP(B162,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="B163" s="3">
-        <v>1001063925206</v>
+        <v>1001033856609</v>
       </c>
       <c r="C163" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="D163">
         <f>VLOOKUP(B163,[1]Бланк!$D:$J,6,0)</f>
-        <v>120</v>
+        <v>45</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="B164" s="3">
-        <v>6586</v>
+        <v>1001302276666</v>
       </c>
       <c r="C164" t="s">
-        <v>269</v>
-      </c>
-      <c r="D164" t="e">
+        <v>68</v>
+      </c>
+      <c r="D164">
         <f>VLOOKUP(B164,[1]Бланк!$D:$J,6,0)</f>
-        <v>#N/A</v>
+        <v>45</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="B165" s="3">
-        <v>1001303636467</v>
+        <v>1001092446755</v>
       </c>
       <c r="C165" t="s">
-        <v>271</v>
+        <v>314</v>
       </c>
       <c r="D165">
         <f>VLOOKUP(B165,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="B166" s="3">
-        <v>1001304496701</v>
+        <v>1001092446756</v>
       </c>
       <c r="C166" t="s">
-        <v>275</v>
+        <v>16</v>
       </c>
       <c r="D166">
         <f>VLOOKUP(B166,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="B167" s="3">
-        <v>6144</v>
+        <v>6550</v>
       </c>
       <c r="C167" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="D167" t="e">
         <f>VLOOKUP(B167,[1]Бланк!$D:$J,6,0)</f>
@@ -12466,13 +12596,13 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="B168" s="3">
-        <v>1001022725819</v>
+        <v>1001304506684</v>
       </c>
       <c r="C168" t="s">
-        <v>234</v>
+        <v>65</v>
       </c>
       <c r="D168">
         <f>VLOOKUP(B168,[1]Бланк!$D:$J,6,0)</f>
@@ -12481,58 +12611,58 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="B169" s="3">
-        <v>1001022726303</v>
+        <v>1001010113248</v>
       </c>
       <c r="C169" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="D169">
         <f>VLOOKUP(B169,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="B170" s="3">
-        <v>1001022373812</v>
+        <v>1001063925206</v>
       </c>
       <c r="C170" t="s">
-        <v>3</v>
+        <v>267</v>
       </c>
       <c r="D170">
         <f>VLOOKUP(B170,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>120</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="B171" s="3">
-        <v>1001024906062</v>
+        <v>6586</v>
       </c>
       <c r="C171" t="s">
-        <v>283</v>
-      </c>
-      <c r="D171">
+        <v>269</v>
+      </c>
+      <c r="D171" t="e">
         <f>VLOOKUP(B171,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="B172" s="3">
-        <v>1001300386683</v>
+        <v>1001303636467</v>
       </c>
       <c r="C172" t="s">
-        <v>87</v>
+        <v>271</v>
       </c>
       <c r="D172">
         <f>VLOOKUP(B172,[1]Бланк!$D:$J,6,0)</f>
@@ -12541,13 +12671,13 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="B173" s="3">
-        <v>1001303986689</v>
+        <v>1001304496701</v>
       </c>
       <c r="C173" t="s">
-        <v>66</v>
+        <v>275</v>
       </c>
       <c r="D173">
         <f>VLOOKUP(B173,[1]Бланк!$D:$J,6,0)</f>
@@ -12556,28 +12686,28 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="B174" s="3">
-        <v>1001303056692</v>
+        <v>6144</v>
       </c>
       <c r="C174" t="s">
-        <v>67</v>
-      </c>
-      <c r="D174">
+        <v>277</v>
+      </c>
+      <c r="D174" t="e">
         <f>VLOOKUP(B174,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="B175" s="3">
-        <v>1001301876697</v>
+        <v>1001022725819</v>
       </c>
       <c r="C175" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="D175">
         <f>VLOOKUP(B175,[1]Бланк!$D:$J,6,0)</f>
@@ -12586,13 +12716,13 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="B176" s="3">
-        <v>1001302276666</v>
+        <v>1001022373812</v>
       </c>
       <c r="C176" t="s">
-        <v>68</v>
+        <v>3</v>
       </c>
       <c r="D176">
         <f>VLOOKUP(B176,[1]Бланк!$D:$J,6,0)</f>
@@ -12601,43 +12731,43 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="B177" s="3">
-        <v>1001012634574</v>
+        <v>1001024906062</v>
       </c>
       <c r="C177" t="s">
-        <v>12</v>
+        <v>283</v>
       </c>
       <c r="D177">
         <f>VLOOKUP(B177,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="B178" s="3">
-        <v>1001092485452</v>
+        <v>1001300386683</v>
       </c>
       <c r="C178" t="s">
-        <v>293</v>
+        <v>87</v>
       </c>
       <c r="D178">
         <f>VLOOKUP(B178,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="B179" s="3">
-        <v>1001020966144</v>
+        <v>1001303986689</v>
       </c>
       <c r="C179" t="s">
-        <v>163</v>
+        <v>66</v>
       </c>
       <c r="D179">
         <f>VLOOKUP(B179,[1]Бланк!$D:$J,6,0)</f>
@@ -12646,28 +12776,28 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="B180" s="3">
-        <v>6586</v>
+        <v>1001303056692</v>
       </c>
       <c r="C180" t="s">
-        <v>269</v>
-      </c>
-      <c r="D180" t="e">
+        <v>67</v>
+      </c>
+      <c r="D180">
         <f>VLOOKUP(B180,[1]Бланк!$D:$J,6,0)</f>
-        <v>#N/A</v>
+        <v>45</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="B181" s="3">
-        <v>1001300516669</v>
+        <v>1001301876697</v>
       </c>
       <c r="C181" t="s">
-        <v>69</v>
+        <v>226</v>
       </c>
       <c r="D181">
         <f>VLOOKUP(B181,[1]Бланк!$D:$J,6,0)</f>
@@ -12676,13 +12806,13 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="B182" s="3">
-        <v>1001304496701</v>
+        <v>1001302276666</v>
       </c>
       <c r="C182" t="s">
-        <v>275</v>
+        <v>68</v>
       </c>
       <c r="D182">
         <f>VLOOKUP(B182,[1]Бланк!$D:$J,6,0)</f>
@@ -12691,400 +12821,709 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="B183" s="3">
-        <v>1001063655015</v>
+        <v>1001012634574</v>
       </c>
       <c r="C183" t="s">
-        <v>300</v>
+        <v>12</v>
       </c>
       <c r="D183">
         <f>VLOOKUP(B183,[1]Бланк!$D:$J,6,0)</f>
-        <v>120</v>
+        <v>60</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="B184" s="3">
-        <v>1001060763287</v>
+        <v>1001092485452</v>
       </c>
       <c r="C184" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="D184">
         <f>VLOOKUP(B184,[1]Бланк!$D:$J,6,0)</f>
-        <v>120</v>
+        <v>60</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="B185" s="3" t="s">
-        <v>313</v>
+        <v>295</v>
+      </c>
+      <c r="B185" s="3">
+        <v>1001020966144</v>
       </c>
       <c r="C185" t="s">
-        <v>179</v>
+        <v>163</v>
+      </c>
+      <c r="D185">
+        <f>VLOOKUP(B185,[1]Бланк!$D:$J,6,0)</f>
+        <v>45</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="B186" s="3">
-        <v>1001032736550</v>
+        <v>6586</v>
       </c>
       <c r="C186" t="s">
-        <v>262</v>
+        <v>269</v>
+      </c>
+      <c r="D186" t="e">
+        <f>VLOOKUP(B186,[1]Бланк!$D:$J,6,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="B187" s="3">
-        <v>6758</v>
+        <v>1001304496701</v>
       </c>
       <c r="C187" t="s">
-        <v>307</v>
-      </c>
-      <c r="D187" t="e">
+        <v>275</v>
+      </c>
+      <c r="D187">
         <f>VLOOKUP(B187,[1]Бланк!$D:$J,6,0)</f>
-        <v>#N/A</v>
+        <v>45</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="B188" s="3">
-        <v>1001020965976</v>
+        <v>1001063655015</v>
       </c>
       <c r="C188" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="D188">
         <f>VLOOKUP(B188,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>120</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="B189" s="3">
-        <v>1001215576586</v>
+        <v>1001060763287</v>
       </c>
       <c r="C189" t="s">
-        <v>311</v>
+        <v>303</v>
+      </c>
+      <c r="D189">
+        <f>VLOOKUP(B189,[1]Бланк!$D:$J,6,0)</f>
+        <v>120</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="B190" s="3">
-        <v>1001094896026</v>
+        <v>304</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>313</v>
       </c>
       <c r="C190" t="s">
-        <v>316</v>
-      </c>
-      <c r="D190">
-        <f>VLOOKUP(B190,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
+        <v>179</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="B191" s="3">
-        <v>1001215576586</v>
+        <v>1001032736550</v>
       </c>
       <c r="C191" t="s">
-        <v>311</v>
+        <v>262</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B192" s="3">
+        <v>6758</v>
+      </c>
+      <c r="C192" t="s">
+        <v>307</v>
+      </c>
+      <c r="D192" t="e">
+        <f>VLOOKUP(B192,[1]Бланк!$D:$J,6,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B193" s="3">
+        <v>1001020965976</v>
+      </c>
+      <c r="C193" t="s">
+        <v>309</v>
+      </c>
+      <c r="D193">
+        <f>VLOOKUP(B193,[1]Бланк!$D:$J,6,0)</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B194" s="3">
+        <v>1001215576586</v>
+      </c>
+      <c r="C194" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B195" s="3">
+        <v>1001094896026</v>
+      </c>
+      <c r="C195" t="s">
+        <v>316</v>
+      </c>
+      <c r="D195">
+        <f>VLOOKUP(B195,[1]Бланк!$D:$J,6,0)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B196" s="3">
+        <v>1001215576586</v>
+      </c>
+      <c r="C196" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="B192" s="3">
+      <c r="B197" s="3">
         <v>1001092436470</v>
       </c>
-      <c r="C192" t="s">
+      <c r="C197" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A193" s="2" t="s">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="B193" s="3">
+      <c r="B198" s="3">
         <v>1001203146555</v>
       </c>
-      <c r="C193" t="s">
+      <c r="C198" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A194" s="2" t="s">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="B194" s="3">
+      <c r="B199" s="3">
         <v>1001014765992</v>
       </c>
-      <c r="C194" t="s">
+      <c r="C199" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A195" s="2" t="s">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="B195" s="3">
+      <c r="B200" s="3">
         <v>1001014765992</v>
       </c>
-      <c r="C195" t="s">
+      <c r="C200" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A196" s="2" t="s">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="B196" s="3">
+      <c r="B201" s="3">
         <v>1001014765993</v>
       </c>
-      <c r="C196" t="s">
+      <c r="C201" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A197" s="2" t="s">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="B197" s="3">
+      <c r="B202" s="3">
         <v>1001025166776</v>
       </c>
-      <c r="C197" t="s">
+      <c r="C202" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A198" s="2" t="s">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="B198" s="3">
+      <c r="B203" s="3">
         <v>1001025506777</v>
       </c>
-      <c r="C198" t="s">
+      <c r="C203" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A199" s="2" t="s">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="B199" s="3">
+      <c r="B204" s="3">
         <v>1001025546822</v>
       </c>
-      <c r="C199" t="s">
+      <c r="C204" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A200" s="2" t="s">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="B200" s="3">
+      <c r="B205" s="3">
         <v>1001025546822</v>
       </c>
-      <c r="C200" t="s">
+      <c r="C205" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A201" s="2" t="s">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="B201" s="3">
+      <c r="B206" s="3">
         <v>1001025546822</v>
       </c>
-      <c r="C201" t="s">
+      <c r="C206" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A202" s="2" t="s">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="B202" s="3">
+      <c r="B207" s="3">
         <v>1001025546822</v>
       </c>
-      <c r="C202" t="s">
+      <c r="C207" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A203" s="2" t="s">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="B203" s="3">
+      <c r="B208" s="3">
         <v>1001024976616</v>
       </c>
-      <c r="C203" t="s">
+      <c r="C208" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A204" s="2" t="s">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="B204" s="3">
+      <c r="B209" s="3">
         <v>1001010856747</v>
       </c>
-      <c r="C204" t="s">
+      <c r="C209" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A205" s="2" t="s">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="B205" s="3">
+      <c r="B210" s="3">
         <v>1001233296445</v>
       </c>
-      <c r="C205" t="s">
+      <c r="C210" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A206" s="2" t="s">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="B206" s="3">
+      <c r="B211" s="3">
         <v>1001203146555</v>
       </c>
-      <c r="C206" t="s">
+      <c r="C211" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A207" s="2" t="s">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="B207" s="3">
+      <c r="B212" s="3">
         <v>1001014765993</v>
       </c>
-      <c r="C207" t="s">
+      <c r="C212" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A208" s="2" t="s">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="B208" s="3">
+      <c r="B213" s="3">
         <v>1001025166776</v>
       </c>
-      <c r="C208" t="s">
+      <c r="C213" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A209" s="2" t="s">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="B209" s="3">
+      <c r="B214" s="3">
         <v>1001025506777</v>
       </c>
-      <c r="C209" t="s">
+      <c r="C214" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A210" s="2" t="s">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="B210" s="3">
+      <c r="B215" s="3">
         <v>1001025526778</v>
       </c>
-      <c r="C210" t="s">
+      <c r="C215" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A211" s="2" t="s">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="B211" s="3">
+      <c r="B216" s="3">
         <v>1001304236685</v>
       </c>
-      <c r="C211" t="s">
+      <c r="C216" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A212" s="2" t="s">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B217" s="3">
+        <v>1001015496769</v>
+      </c>
+      <c r="C217" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="B212" s="3">
+      <c r="B218" s="3">
         <v>1001015496769</v>
       </c>
-      <c r="C212" t="s">
+      <c r="C218" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A213" s="2" t="s">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="B213" s="3">
+      <c r="B219" s="3">
         <v>1001014766798</v>
       </c>
-      <c r="C213" t="s">
+      <c r="C219" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A214" s="2" t="s">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="B214" s="3">
+      <c r="B220" s="3">
         <v>1001015026797</v>
       </c>
-      <c r="C214" t="s">
+      <c r="C220" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A215" s="2" t="s">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="B215" s="3">
+      <c r="B221" s="3">
         <v>1001205386222</v>
       </c>
-      <c r="C215" t="s">
+      <c r="C221" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A216" s="2" t="s">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="B216" s="3">
+      <c r="B222" s="3">
         <v>1001092675224</v>
       </c>
-      <c r="C216" t="s">
+      <c r="C222" t="s">
         <v>373</v>
       </c>
     </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B223" s="3">
+        <v>1001225406223</v>
+      </c>
+      <c r="C223" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B224" s="3">
+        <v>1001300366790</v>
+      </c>
+      <c r="C224" t="s">
+        <v>396</v>
+      </c>
+      <c r="D224">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B225" s="3">
+        <v>1001304096791</v>
+      </c>
+      <c r="C225" t="s">
+        <v>397</v>
+      </c>
+      <c r="D225">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B226" s="3">
+        <v>1001304096792</v>
+      </c>
+      <c r="C226" t="s">
+        <v>398</v>
+      </c>
+      <c r="D226">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B227" s="3">
+        <v>1001303636793</v>
+      </c>
+      <c r="C227" t="s">
+        <v>399</v>
+      </c>
+      <c r="D227">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B228" s="3">
+        <v>1001303636794</v>
+      </c>
+      <c r="C228" t="s">
+        <v>400</v>
+      </c>
+      <c r="D228">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B229" s="3">
+        <v>1001302596795</v>
+      </c>
+      <c r="C229" t="s">
+        <v>401</v>
+      </c>
+      <c r="D229">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B230" s="3">
+        <v>1001302596796</v>
+      </c>
+      <c r="C230" t="s">
+        <v>402</v>
+      </c>
+      <c r="D230">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B231" s="3">
+        <v>1001300456804</v>
+      </c>
+      <c r="C231" t="s">
+        <v>403</v>
+      </c>
+      <c r="D231">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B232" s="3">
+        <v>1001300366806</v>
+      </c>
+      <c r="C232" t="s">
+        <v>404</v>
+      </c>
+      <c r="D232">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B233" s="3">
+        <v>1001300516803</v>
+      </c>
+      <c r="C233" t="s">
+        <v>405</v>
+      </c>
+      <c r="D233">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B234" s="3">
+        <v>1001300366807</v>
+      </c>
+      <c r="C234" t="s">
+        <v>406</v>
+      </c>
+      <c r="D234">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B235" s="3">
+        <v>1001300366807</v>
+      </c>
+      <c r="C235" t="s">
+        <v>408</v>
+      </c>
+      <c r="D235">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B236" s="3">
+        <v>1001300516785</v>
+      </c>
+      <c r="C236" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B237" s="3">
+        <v>1001300456787</v>
+      </c>
+      <c r="C237" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="B238" s="3">
+        <v>1001303636793</v>
+      </c>
+      <c r="C238" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="B239" s="3">
+        <v>1001302596795</v>
+      </c>
+      <c r="C239" t="s">
+        <v>401</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C215" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
+  <autoFilter ref="A1:C235" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/moduls/1С.xlsx
+++ b/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\Останкино КИ\ostankino_ki\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4B29233-A7A5-4A1D-99BC-5C333EB05993}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF8A976-9D5E-4CEF-B154-21B4E870BDD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$235</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$244</definedName>
   </definedNames>
   <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="423">
   <si>
     <t>1С</t>
   </si>
@@ -906,9 +906,6 @@
     <t>6397 БОЯNСКАЯ Папа может п/к в/у 0.28кг 8шт.  ОСТАНКИНО</t>
   </si>
   <si>
-    <t>МОЛОЧНЫЕ КЛАССИЧЕСКИЕ ПМ сос п/о мгс 2*4</t>
-  </si>
-  <si>
     <t>4574 Колбаса вар Мясная со шпиком 1кг Папа может п/о (код покуп. 24784) Останкино</t>
   </si>
   <si>
@@ -1282,6 +1279,33 @@
   </si>
   <si>
     <t>6795 ОСТАНКИНСКАЯ в/к в/у 0,33кг 8шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6332 МЯСНАЯ Папа может вар п/о 0.5кг 8шт  </t>
+  </si>
+  <si>
+    <t>МЯСНАЯ Папа может вар п/о 0.5кг 8шт.</t>
+  </si>
+  <si>
+    <t>6345 ФИЛЕЙНАЯ Папа может вар п/о 0.5кг 8шт. </t>
+  </si>
+  <si>
+    <t>ФИЛЕЙНАЯ Папа может вар п/о 0.5кг 8шт.</t>
+  </si>
+  <si>
+    <t>6773 САЛЯМИ Папа может п/к в/у 0,28кг 8шт  Останкино</t>
+  </si>
+  <si>
+    <t>6528 ШПИКАЧКИ СОЧНЫЕ ПМ сар б/о мгс 0.4кг 45с  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>ШПИКАЧКИ СОЧНЫЕ ПМ сар б/о мгс 0.4кг_45с</t>
+  </si>
+  <si>
+    <t>6773 САЛЯМИ Папа может п/к в/у 0,28кг 8шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>МОЛОЧНЫЕ КЛАССИЧЕСКИЕ сос п/о мгс 2*4</t>
   </si>
 </sst>
 </file>
@@ -10089,11 +10113,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G239"/>
+  <dimension ref="A1:G244"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A222" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C243" sqref="C243"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10448,7 +10472,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B24" s="3">
         <v>1001060755931</v>
@@ -10510,14 +10534,14 @@
         <v>51</v>
       </c>
       <c r="B28" s="3">
-        <v>1001024976123</v>
+        <v>1001024976829</v>
       </c>
       <c r="C28" t="s">
-        <v>289</v>
-      </c>
-      <c r="D28">
+        <v>422</v>
+      </c>
+      <c r="D28" t="e">
         <f>VLOOKUP(B28,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -10717,7 +10741,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B42" s="3">
         <v>1001202506453</v>
@@ -11031,7 +11055,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B63" s="3">
         <v>1001305306566</v>
@@ -11093,7 +11117,7 @@
         <v>1001303106773</v>
       </c>
       <c r="C67" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D67">
         <v>45</v>
@@ -11107,13 +11131,13 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B68" s="5">
         <v>1001303106773</v>
       </c>
       <c r="C68" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D68">
         <v>45</v>
@@ -11122,19 +11146,19 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B69" s="5">
         <v>1001303106773</v>
       </c>
       <c r="C69" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D69">
         <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -11145,69 +11169,67 @@
         <v>1001303106773</v>
       </c>
       <c r="C70" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D70">
         <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>136</v>
+        <v>421</v>
       </c>
       <c r="B71" s="3">
-        <v>1001012566392</v>
+        <v>1001303106773</v>
       </c>
       <c r="C71" t="s">
-        <v>62</v>
+        <v>374</v>
       </c>
       <c r="D71">
-        <f>VLOOKUP(B71,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>138</v>
+        <v>418</v>
       </c>
       <c r="B72" s="3">
-        <v>1001302276666</v>
+        <v>1001303106773</v>
       </c>
       <c r="C72" t="s">
-        <v>68</v>
+        <v>374</v>
       </c>
       <c r="D72">
-        <f>VLOOKUP(B72,[1]Бланк!$D:$J,6,0)</f>
         <v>45</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B73" s="3">
-        <v>1001012426268</v>
+        <v>1001012566392</v>
       </c>
       <c r="C73" t="s">
-        <v>139</v>
-      </c>
-      <c r="D73" t="e">
+        <v>62</v>
+      </c>
+      <c r="D73">
         <f>VLOOKUP(B73,[1]Бланк!$D:$J,6,0)</f>
-        <v>#N/A</v>
+        <v>60</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B74" s="3">
-        <v>1001024906041</v>
+        <v>1001302276666</v>
       </c>
       <c r="C74" t="s">
-        <v>145</v>
+        <v>68</v>
       </c>
       <c r="D74">
         <f>VLOOKUP(B74,[1]Бланк!$D:$J,6,0)</f>
@@ -11216,13 +11238,13 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B75" s="3">
-        <v>1001011086247</v>
+        <v>1001012426268</v>
       </c>
       <c r="C75" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D75" t="e">
         <f>VLOOKUP(B75,[1]Бланк!$D:$J,6,0)</f>
@@ -11231,28 +11253,28 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="B76" s="3">
-        <v>1001014486158</v>
+        <v>1001024906041</v>
       </c>
       <c r="C76" t="s">
-        <v>160</v>
-      </c>
-      <c r="D76" t="e">
+        <v>145</v>
+      </c>
+      <c r="D76">
         <f>VLOOKUP(B76,[1]Бланк!$D:$J,6,0)</f>
-        <v>#N/A</v>
+        <v>45</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
       <c r="B77" s="3">
-        <v>1001015356259</v>
+        <v>1001011086247</v>
       </c>
       <c r="C77" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="D77" t="e">
         <f>VLOOKUP(B77,[1]Бланк!$D:$J,6,0)</f>
@@ -11261,72 +11283,72 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B78" s="3">
-        <v>1001012816716</v>
+        <v>1001014486158</v>
       </c>
       <c r="C78" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D78" t="e">
         <f>VLOOKUP(B78,[1]Бланк!$D:$J,6,0)</f>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>357</v>
+        <v>169</v>
       </c>
       <c r="B79" s="3">
-        <v>1001020966227</v>
+        <v>1001015356259</v>
       </c>
       <c r="C79" t="s">
-        <v>356</v>
-      </c>
-      <c r="D79">
-        <v>45</v>
+        <v>161</v>
+      </c>
+      <c r="D79" t="e">
+        <f>VLOOKUP(B79,[1]Бланк!$D:$J,6,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="B80" s="3">
-        <v>1001020966227</v>
+        <v>1001012816716</v>
       </c>
       <c r="C80" t="s">
-        <v>148</v>
-      </c>
-      <c r="D80">
+        <v>162</v>
+      </c>
+      <c r="D80" t="e">
         <f>VLOOKUP(B80,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>141</v>
+        <v>356</v>
       </c>
       <c r="B81" s="3">
-        <v>1001020965981</v>
+        <v>1001020966227</v>
       </c>
       <c r="C81" t="s">
-        <v>142</v>
+        <v>355</v>
       </c>
       <c r="D81">
-        <f>VLOOKUP(B81,[1]Бланк!$D:$J,6,0)</f>
         <v>45</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>242</v>
+        <v>147</v>
       </c>
       <c r="B82" s="3">
-        <v>1001022726303</v>
+        <v>1001020966227</v>
       </c>
       <c r="C82" t="s">
-        <v>280</v>
+        <v>148</v>
       </c>
       <c r="D82">
         <f>VLOOKUP(B82,[1]Бланк!$D:$J,6,0)</f>
@@ -11335,13 +11357,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>279</v>
+        <v>141</v>
       </c>
       <c r="B83" s="3">
-        <v>1001022726303</v>
+        <v>1001020965981</v>
       </c>
       <c r="C83" t="s">
-        <v>280</v>
+        <v>142</v>
       </c>
       <c r="D83">
         <f>VLOOKUP(B83,[1]Бланк!$D:$J,6,0)</f>
@@ -11350,7 +11372,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>374</v>
+        <v>242</v>
       </c>
       <c r="B84" s="3">
         <v>1001022726303</v>
@@ -11365,13 +11387,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>172</v>
+        <v>279</v>
       </c>
       <c r="B85" s="3">
         <v>1001022726303</v>
       </c>
       <c r="C85" t="s">
-        <v>174</v>
+        <v>280</v>
       </c>
       <c r="D85">
         <f>VLOOKUP(B85,[1]Бланк!$D:$J,6,0)</f>
@@ -11380,13 +11402,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>122</v>
+        <v>373</v>
       </c>
       <c r="B86" s="3">
-        <v>1001022466726</v>
+        <v>1001022726303</v>
       </c>
       <c r="C86" t="s">
-        <v>123</v>
+        <v>280</v>
       </c>
       <c r="D86">
         <f>VLOOKUP(B86,[1]Бланк!$D:$J,6,0)</f>
@@ -11395,13 +11417,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B87" s="3">
-        <v>1001020966144</v>
+        <v>1001022726303</v>
       </c>
       <c r="C87" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="D87">
         <f>VLOOKUP(B87,[1]Бланк!$D:$J,6,0)</f>
@@ -11410,13 +11432,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="B88" s="3">
-        <v>1001022376722</v>
+        <v>1001022466726</v>
       </c>
       <c r="C88" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="D88">
         <f>VLOOKUP(B88,[1]Бланк!$D:$J,6,0)</f>
@@ -11425,13 +11447,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="B89" s="3">
-        <v>1001022373812</v>
+        <v>1001020966144</v>
       </c>
       <c r="C89" t="s">
-        <v>3</v>
+        <v>163</v>
       </c>
       <c r="D89">
         <f>VLOOKUP(B89,[1]Бланк!$D:$J,6,0)</f>
@@ -11440,13 +11462,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="B90" s="3">
-        <v>1001022376113</v>
+        <v>1001022376722</v>
       </c>
       <c r="C90" t="s">
-        <v>4</v>
+        <v>135</v>
       </c>
       <c r="D90">
         <f>VLOOKUP(B90,[1]Бланк!$D:$J,6,0)</f>
@@ -11455,13 +11477,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>272</v>
+        <v>152</v>
       </c>
       <c r="B91" s="3">
-        <v>1001022246661</v>
+        <v>1001022373812</v>
       </c>
       <c r="C91" t="s">
-        <v>273</v>
+        <v>3</v>
       </c>
       <c r="D91">
         <f>VLOOKUP(B91,[1]Бланк!$D:$J,6,0)</f>
@@ -11470,13 +11492,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>353</v>
+        <v>153</v>
       </c>
       <c r="B92" s="3">
-        <v>1001022246661</v>
+        <v>1001022376113</v>
       </c>
       <c r="C92" t="s">
-        <v>273</v>
+        <v>4</v>
       </c>
       <c r="D92">
         <f>VLOOKUP(B92,[1]Бланк!$D:$J,6,0)</f>
@@ -11485,13 +11507,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>151</v>
+        <v>272</v>
       </c>
       <c r="B93" s="3">
         <v>1001022246661</v>
       </c>
       <c r="C93" t="s">
-        <v>154</v>
+        <v>273</v>
       </c>
       <c r="D93">
         <f>VLOOKUP(B93,[1]Бланк!$D:$J,6,0)</f>
@@ -11500,13 +11522,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>158</v>
+        <v>352</v>
       </c>
       <c r="B94" s="3">
-        <v>1001022246713</v>
+        <v>1001022246661</v>
       </c>
       <c r="C94" t="s">
-        <v>124</v>
+        <v>273</v>
       </c>
       <c r="D94">
         <f>VLOOKUP(B94,[1]Бланк!$D:$J,6,0)</f>
@@ -11515,13 +11537,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B95" s="3">
-        <v>1001025166241</v>
+        <v>1001022246661</v>
       </c>
       <c r="C95" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D95">
         <f>VLOOKUP(B95,[1]Бланк!$D:$J,6,0)</f>
@@ -11530,43 +11552,43 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="B96" s="3">
-        <v>6606</v>
+        <v>1001022246713</v>
       </c>
       <c r="C96" t="s">
-        <v>175</v>
-      </c>
-      <c r="D96" t="e">
+        <v>124</v>
+      </c>
+      <c r="D96">
         <f>VLOOKUP(B96,[1]Бланк!$D:$J,6,0)</f>
-        <v>#N/A</v>
+        <v>45</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B97" s="3">
-        <v>1001035326217</v>
+        <v>1001025166241</v>
       </c>
       <c r="C97" t="s">
-        <v>149</v>
-      </c>
-      <c r="D97" t="e">
+        <v>159</v>
+      </c>
+      <c r="D97">
         <f>VLOOKUP(B97,[1]Бланк!$D:$J,6,0)</f>
-        <v>#REF!</v>
+        <v>45</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B98" s="3">
-        <v>1001303636301</v>
+        <v>6606</v>
       </c>
       <c r="C98" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="D98" t="e">
         <f>VLOOKUP(B98,[1]Бланк!$D:$J,6,0)</f>
@@ -11575,43 +11597,43 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>108</v>
+        <v>150</v>
       </c>
       <c r="B99" s="3">
-        <v>1001303636302</v>
+        <v>1001035326217</v>
       </c>
       <c r="C99" t="s">
-        <v>109</v>
-      </c>
-      <c r="D99">
+        <v>149</v>
+      </c>
+      <c r="D99" t="e">
         <f>VLOOKUP(B99,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="B100" s="3">
-        <v>1001305196215</v>
+        <v>1001303636301</v>
       </c>
       <c r="C100" t="s">
-        <v>93</v>
-      </c>
-      <c r="D100">
+        <v>164</v>
+      </c>
+      <c r="D100" t="e">
         <f>VLOOKUP(B100,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>168</v>
+        <v>108</v>
       </c>
       <c r="B101" s="3">
-        <v>1001301876212</v>
+        <v>1001303636302</v>
       </c>
       <c r="C101" t="s">
-        <v>165</v>
+        <v>109</v>
       </c>
       <c r="D101">
         <f>VLOOKUP(B101,[1]Бланк!$D:$J,6,0)</f>
@@ -11620,13 +11642,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B102" s="3">
-        <v>1001301876213</v>
+        <v>1001305196215</v>
       </c>
       <c r="C102" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D102">
         <f>VLOOKUP(B102,[1]Бланк!$D:$J,6,0)</f>
@@ -11635,13 +11657,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="B103" s="3">
-        <v>1001303636302</v>
+        <v>1001301876212</v>
       </c>
       <c r="C103" t="s">
-        <v>109</v>
+        <v>165</v>
       </c>
       <c r="D103">
         <f>VLOOKUP(B103,[1]Бланк!$D:$J,6,0)</f>
@@ -11650,43 +11672,43 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="B104" s="3">
-        <v>6645</v>
+        <v>1001301876213</v>
       </c>
       <c r="C104" t="s">
-        <v>177</v>
-      </c>
-      <c r="D104" t="e">
+        <v>92</v>
+      </c>
+      <c r="D104">
         <f>VLOOKUP(B104,[1]Бланк!$D:$J,6,0)</f>
-        <v>#N/A</v>
+        <v>60</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B105" s="3">
-        <v>1001225416228</v>
+        <v>1001303636302</v>
       </c>
       <c r="C105" t="s">
-        <v>179</v>
-      </c>
-      <c r="D105" t="e">
+        <v>109</v>
+      </c>
+      <c r="D105">
         <f>VLOOKUP(B105,[1]Бланк!$D:$J,6,0)</f>
-        <v>#N/A</v>
+        <v>60</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B106" s="3">
-        <v>6225</v>
+        <v>6645</v>
       </c>
       <c r="C106" t="s">
-        <v>301</v>
+        <v>177</v>
       </c>
       <c r="D106" t="e">
         <f>VLOOKUP(B106,[1]Бланк!$D:$J,6,0)</f>
@@ -11695,58 +11717,58 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B107" s="3">
-        <v>1001022376722</v>
+        <v>1001225416228</v>
       </c>
       <c r="C107" t="s">
-        <v>135</v>
-      </c>
-      <c r="D107">
+        <v>179</v>
+      </c>
+      <c r="D107" t="e">
         <f>VLOOKUP(B107,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B108" s="3">
-        <v>1001022376722</v>
+        <v>6225</v>
       </c>
       <c r="C108" t="s">
-        <v>135</v>
-      </c>
-      <c r="D108">
+        <v>300</v>
+      </c>
+      <c r="D108" t="e">
         <f>VLOOKUP(B108,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B109" s="3">
-        <v>3297</v>
+        <v>1001022376722</v>
       </c>
       <c r="C109" t="s">
-        <v>184</v>
-      </c>
-      <c r="D109" t="e">
+        <v>135</v>
+      </c>
+      <c r="D109">
         <f>VLOOKUP(B109,[1]Бланк!$D:$J,6,0)</f>
-        <v>#N/A</v>
+        <v>45</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B110" s="3">
-        <v>1001034063297</v>
+        <v>1001022376722</v>
       </c>
       <c r="C110" t="s">
-        <v>184</v>
+        <v>135</v>
       </c>
       <c r="D110">
         <f>VLOOKUP(B110,[1]Бланк!$D:$J,6,0)</f>
@@ -11755,80 +11777,80 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>347</v>
+        <v>183</v>
       </c>
       <c r="B111" s="3">
-        <v>1001022466726</v>
+        <v>3297</v>
       </c>
       <c r="C111" t="s">
-        <v>321</v>
+        <v>184</v>
+      </c>
+      <c r="D111" t="e">
+        <f>VLOOKUP(B111,[1]Бланк!$D:$J,6,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>322</v>
+        <v>185</v>
       </c>
       <c r="B112" s="3">
-        <v>1001022466726</v>
+        <v>1001034063297</v>
       </c>
       <c r="C112" t="s">
-        <v>321</v>
+        <v>184</v>
+      </c>
+      <c r="D112">
+        <f>VLOOKUP(B112,[1]Бланк!$D:$J,6,0)</f>
+        <v>45</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>187</v>
+        <v>346</v>
       </c>
       <c r="B113" s="3">
         <v>1001022466726</v>
       </c>
       <c r="C113" t="s">
-        <v>123</v>
-      </c>
-      <c r="D113">
-        <f>VLOOKUP(B113,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>320</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>188</v>
+        <v>321</v>
       </c>
       <c r="B114" s="3">
-        <v>1001021966602</v>
+        <v>1001022466726</v>
       </c>
       <c r="C114" t="s">
-        <v>312</v>
-      </c>
-      <c r="D114" t="e">
-        <f>VLOOKUP(B114,[1]Бланк!$D:$J,6,0)</f>
-        <v>#REF!</v>
+        <v>320</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B115" s="3">
-        <v>6233</v>
+        <v>1001022466726</v>
       </c>
       <c r="C115" t="s">
-        <v>189</v>
-      </c>
-      <c r="D115" t="e">
+        <v>123</v>
+      </c>
+      <c r="D115">
         <f>VLOOKUP(B115,[1]Бланк!$D:$J,6,0)</f>
-        <v>#N/A</v>
+        <v>45</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>291</v>
+        <v>188</v>
       </c>
       <c r="B116" s="3">
-        <v>1001012826734</v>
+        <v>1001021966602</v>
       </c>
       <c r="C116" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="D116" t="e">
         <f>VLOOKUP(B116,[1]Бланк!$D:$J,6,0)</f>
@@ -11837,58 +11859,58 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B117" s="3">
-        <v>1001012826734</v>
+        <v>6233</v>
       </c>
       <c r="C117" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D117" t="e">
         <f>VLOOKUP(B117,[1]Бланк!$D:$J,6,0)</f>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>193</v>
+        <v>290</v>
       </c>
       <c r="B118" s="3">
-        <v>6750</v>
+        <v>1001012826734</v>
       </c>
       <c r="C118" t="s">
-        <v>99</v>
+        <v>293</v>
       </c>
       <c r="D118" t="e">
         <f>VLOOKUP(B118,[1]Бланк!$D:$J,6,0)</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B119" s="3">
-        <v>6751</v>
+        <v>1001012826734</v>
       </c>
       <c r="C119" t="s">
-        <v>101</v>
+        <v>192</v>
       </c>
       <c r="D119" t="e">
         <f>VLOOKUP(B119,[1]Бланк!$D:$J,6,0)</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B120" s="3">
-        <v>5982</v>
+        <v>6750</v>
       </c>
       <c r="C120" t="s">
-        <v>196</v>
+        <v>99</v>
       </c>
       <c r="D120" t="e">
         <f>VLOOKUP(B120,[1]Бланк!$D:$J,6,0)</f>
@@ -11897,13 +11919,13 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B121" s="3">
-        <v>1001020965982</v>
+        <v>6751</v>
       </c>
       <c r="C121" t="s">
-        <v>196</v>
+        <v>101</v>
       </c>
       <c r="D121" t="e">
         <f>VLOOKUP(B121,[1]Бланк!$D:$J,6,0)</f>
@@ -11912,28 +11934,28 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B122" s="3">
-        <v>1001094966025</v>
+        <v>5982</v>
       </c>
       <c r="C122" t="s">
-        <v>199</v>
-      </c>
-      <c r="D122">
+        <v>196</v>
+      </c>
+      <c r="D122" t="e">
         <f>VLOOKUP(B122,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B123" s="3">
-        <v>6025</v>
+        <v>1001020965982</v>
       </c>
       <c r="C123" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D123" t="e">
         <f>VLOOKUP(B123,[1]Бланк!$D:$J,6,0)</f>
@@ -11942,28 +11964,28 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B124" s="3">
-        <v>6221</v>
+        <v>1001094966025</v>
       </c>
       <c r="C124" t="s">
-        <v>201</v>
-      </c>
-      <c r="D124" t="e">
+        <v>199</v>
+      </c>
+      <c r="D124">
         <f>VLOOKUP(B124,[1]Бланк!$D:$J,6,0)</f>
-        <v>#N/A</v>
+        <v>60</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B125" s="3">
-        <v>1001205376221</v>
+        <v>6025</v>
       </c>
       <c r="C125" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D125" t="e">
         <f>VLOOKUP(B125,[1]Бланк!$D:$J,6,0)</f>
@@ -11972,71 +11994,73 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B126" s="3">
-        <v>1001034063297</v>
+        <v>6221</v>
       </c>
       <c r="C126" t="s">
-        <v>206</v>
-      </c>
-      <c r="D126">
+        <v>201</v>
+      </c>
+      <c r="D126" t="e">
         <f>VLOOKUP(B126,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B127" s="3">
-        <v>1001022373812</v>
+        <v>1001205376221</v>
       </c>
       <c r="C127" t="s">
-        <v>3</v>
-      </c>
-      <c r="D127">
+        <v>201</v>
+      </c>
+      <c r="D127" t="e">
         <f>VLOOKUP(B127,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B128" s="3">
-        <v>1001100606827</v>
+        <v>1001034063297</v>
       </c>
       <c r="C128" t="s">
-        <v>364</v>
+        <v>206</v>
       </c>
       <c r="D128">
-        <v>60</v>
+        <f>VLOOKUP(B128,[1]Бланк!$D:$J,6,0)</f>
+        <v>45</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>378</v>
+        <v>207</v>
       </c>
       <c r="B129" s="3">
-        <v>1001100606827</v>
+        <v>1001022373812</v>
       </c>
       <c r="C129" t="s">
-        <v>364</v>
+        <v>3</v>
       </c>
       <c r="D129">
-        <v>60</v>
+        <f>VLOOKUP(B129,[1]Бланк!$D:$J,6,0)</f>
+        <v>45</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B130" s="3">
-        <v>1001100616826</v>
+        <v>1001100606827</v>
       </c>
       <c r="C130" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D130">
         <v>60</v>
@@ -12044,13 +12068,13 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B131" s="3">
-        <v>1001100616826</v>
+        <v>1001100606827</v>
       </c>
       <c r="C131" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D131">
         <v>60</v>
@@ -12058,13 +12082,13 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B132" s="3">
-        <v>1001100626828</v>
+        <v>1001100616826</v>
       </c>
       <c r="C132" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D132">
         <v>60</v>
@@ -12072,13 +12096,13 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B133" s="3">
-        <v>1001100626828</v>
+        <v>1001100616826</v>
       </c>
       <c r="C133" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D133">
         <v>60</v>
@@ -12086,58 +12110,56 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B134" s="3">
-        <v>1001035026308</v>
+        <v>1001100626828</v>
       </c>
       <c r="C134" t="s">
-        <v>212</v>
+        <v>365</v>
       </c>
       <c r="D134">
-        <f>VLOOKUP(B134,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>213</v>
+        <v>379</v>
       </c>
       <c r="B135" s="3">
-        <v>1001014486159</v>
+        <v>1001100626828</v>
       </c>
       <c r="C135" t="s">
-        <v>214</v>
-      </c>
-      <c r="D135" t="e">
-        <f>VLOOKUP(B135,[1]Бланк!$D:$J,6,0)</f>
-        <v>#REF!</v>
+        <v>365</v>
+      </c>
+      <c r="D135">
+        <v>60</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B136" s="3">
-        <v>1001035326217</v>
+        <v>1001035026308</v>
       </c>
       <c r="C136" t="s">
-        <v>318</v>
-      </c>
-      <c r="D136" t="e">
+        <v>212</v>
+      </c>
+      <c r="D136">
         <f>VLOOKUP(B136,[1]Бланк!$D:$J,6,0)</f>
-        <v>#REF!</v>
+        <v>45</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B137" s="3">
-        <v>1001012426220</v>
+        <v>1001014486159</v>
       </c>
       <c r="C137" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D137" t="e">
         <f>VLOOKUP(B137,[1]Бланк!$D:$J,6,0)</f>
@@ -12146,28 +12168,28 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B138" s="3">
-        <v>1001022466236</v>
+        <v>1001035326217</v>
       </c>
       <c r="C138" t="s">
-        <v>219</v>
-      </c>
-      <c r="D138">
+        <v>317</v>
+      </c>
+      <c r="D138" t="e">
         <f>VLOOKUP(B138,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B139" s="3">
-        <v>1001021966602</v>
+        <v>1001012426220</v>
       </c>
       <c r="C139" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D139" t="e">
         <f>VLOOKUP(B139,[1]Бланк!$D:$J,6,0)</f>
@@ -12176,13 +12198,13 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B140" s="3">
-        <v>1001022296656</v>
+        <v>1001022466236</v>
       </c>
       <c r="C140" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D140">
         <f>VLOOKUP(B140,[1]Бланк!$D:$J,6,0)</f>
@@ -12191,28 +12213,28 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B141" s="3">
-        <v>1001304506684</v>
+        <v>1001021966602</v>
       </c>
       <c r="C141" t="s">
-        <v>65</v>
-      </c>
-      <c r="D141">
+        <v>221</v>
+      </c>
+      <c r="D141" t="e">
         <f>VLOOKUP(B141,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B142" s="3">
-        <v>1001301876697</v>
+        <v>1001022296656</v>
       </c>
       <c r="C142" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D142">
         <f>VLOOKUP(B142,[1]Бланк!$D:$J,6,0)</f>
@@ -12221,13 +12243,13 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B143" s="3">
-        <v>1001022246713</v>
+        <v>1001304506684</v>
       </c>
       <c r="C143" t="s">
-        <v>228</v>
+        <v>65</v>
       </c>
       <c r="D143">
         <f>VLOOKUP(B143,[1]Бланк!$D:$J,6,0)</f>
@@ -12236,28 +12258,28 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B144" s="3">
-        <v>1001012816716</v>
+        <v>1001301876697</v>
       </c>
       <c r="C144" t="s">
-        <v>162</v>
-      </c>
-      <c r="D144" t="e">
+        <v>226</v>
+      </c>
+      <c r="D144">
         <f>VLOOKUP(B144,[1]Бланк!$D:$J,6,0)</f>
-        <v>#REF!</v>
+        <v>45</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B145" s="3">
-        <v>1001022376722</v>
+        <v>1001022246713</v>
       </c>
       <c r="C145" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D145">
         <f>VLOOKUP(B145,[1]Бланк!$D:$J,6,0)</f>
@@ -12266,28 +12288,28 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B146" s="3">
-        <v>1001020846751</v>
+        <v>1001012816716</v>
       </c>
       <c r="C146" t="s">
-        <v>101</v>
-      </c>
-      <c r="D146">
+        <v>162</v>
+      </c>
+      <c r="D146" t="e">
         <f>VLOOKUP(B146,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B147" s="3">
-        <v>1001022725819</v>
+        <v>1001022376722</v>
       </c>
       <c r="C147" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D147">
         <f>VLOOKUP(B147,[1]Бланк!$D:$J,6,0)</f>
@@ -12296,118 +12318,118 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B148" s="3">
-        <v>1001012825337</v>
+        <v>1001020846751</v>
       </c>
       <c r="C148" t="s">
-        <v>28</v>
+        <v>101</v>
       </c>
       <c r="D148">
         <f>VLOOKUP(B148,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B149" s="3">
-        <v>1001012815336</v>
+        <v>1001022725819</v>
       </c>
       <c r="C149" t="s">
-        <v>26</v>
+        <v>234</v>
       </c>
       <c r="D149">
         <f>VLOOKUP(B149,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B150" s="3">
-        <v>1001234146448</v>
+        <v>1001012825337</v>
       </c>
       <c r="C150" t="s">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="D150">
         <f>VLOOKUP(B150,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B151" s="3">
-        <v>1001022725819</v>
+        <v>1001012815336</v>
       </c>
       <c r="C151" t="s">
-        <v>234</v>
+        <v>26</v>
       </c>
       <c r="D151">
         <f>VLOOKUP(B151,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B152" s="3">
-        <v>1001092676027</v>
+        <v>1001234146448</v>
       </c>
       <c r="C152" t="s">
-        <v>240</v>
+        <v>77</v>
       </c>
       <c r="D152">
         <f>VLOOKUP(B152,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B153" s="3">
-        <v>1001301876213</v>
+        <v>1001022725819</v>
       </c>
       <c r="C153" t="s">
-        <v>92</v>
+        <v>234</v>
       </c>
       <c r="D153">
         <f>VLOOKUP(B153,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B154" s="3">
-        <v>1001035026308</v>
+        <v>1001092676027</v>
       </c>
       <c r="C154" t="s">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="D154">
         <f>VLOOKUP(B154,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B155" s="3">
-        <v>1001012566392</v>
+        <v>1001301876213</v>
       </c>
       <c r="C155" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="D155">
         <f>VLOOKUP(B155,[1]Бланк!$D:$J,6,0)</f>
@@ -12416,13 +12438,13 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B156" s="3">
-        <v>1001234146448</v>
+        <v>1001035026308</v>
       </c>
       <c r="C156" t="s">
-        <v>77</v>
+        <v>212</v>
       </c>
       <c r="D156">
         <f>VLOOKUP(B156,[1]Бланк!$D:$J,6,0)</f>
@@ -12431,43 +12453,43 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B157" s="3">
-        <v>1001233296450</v>
+        <v>1001012566392</v>
       </c>
       <c r="C157" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="D157">
         <f>VLOOKUP(B157,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B158" s="3">
-        <v>1001201976454</v>
+        <v>1001234146448</v>
       </c>
       <c r="C158" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D158">
         <f>VLOOKUP(B158,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B159" s="3">
-        <v>1001025176475</v>
+        <v>1001233296450</v>
       </c>
       <c r="C159" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D159">
         <f>VLOOKUP(B159,[1]Бланк!$D:$J,6,0)</f>
@@ -12476,13 +12498,13 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B160" s="3">
-        <v>1001012456498</v>
+        <v>1001201976454</v>
       </c>
       <c r="C160" t="s">
-        <v>250</v>
+        <v>83</v>
       </c>
       <c r="D160">
         <f>VLOOKUP(B160,[1]Бланк!$D:$J,6,0)</f>
@@ -12491,58 +12513,58 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B161" s="3">
-        <v>1001010036596</v>
+        <v>1001025176475</v>
       </c>
       <c r="C161" t="s">
-        <v>252</v>
+        <v>85</v>
       </c>
       <c r="D161">
         <f>VLOOKUP(B161,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B162" s="3">
-        <v>1001033856607</v>
+        <v>1001012456498</v>
       </c>
       <c r="C162" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D162">
         <f>VLOOKUP(B162,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B163" s="3">
-        <v>1001033856609</v>
+        <v>1001010036596</v>
       </c>
       <c r="C163" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D163">
         <f>VLOOKUP(B163,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B164" s="3">
-        <v>1001302276666</v>
+        <v>1001033856607</v>
       </c>
       <c r="C164" t="s">
-        <v>68</v>
+        <v>254</v>
       </c>
       <c r="D164">
         <f>VLOOKUP(B164,[1]Бланк!$D:$J,6,0)</f>
@@ -12551,163 +12573,163 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B165" s="3">
-        <v>1001092446755</v>
+        <v>1001033856609</v>
       </c>
       <c r="C165" t="s">
-        <v>314</v>
+        <v>256</v>
       </c>
       <c r="D165">
         <f>VLOOKUP(B165,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B166" s="3">
-        <v>1001092446756</v>
+        <v>1001302276666</v>
       </c>
       <c r="C166" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="D166">
         <f>VLOOKUP(B166,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B167" s="3">
-        <v>6550</v>
+        <v>1001092446755</v>
       </c>
       <c r="C167" t="s">
-        <v>262</v>
-      </c>
-      <c r="D167" t="e">
+        <v>313</v>
+      </c>
+      <c r="D167">
         <f>VLOOKUP(B167,[1]Бланк!$D:$J,6,0)</f>
-        <v>#N/A</v>
+        <v>60</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B168" s="3">
-        <v>1001304506684</v>
+        <v>1001092446756</v>
       </c>
       <c r="C168" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="D168">
         <f>VLOOKUP(B168,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B169" s="3">
-        <v>1001010113248</v>
+        <v>6550</v>
       </c>
       <c r="C169" t="s">
-        <v>265</v>
-      </c>
-      <c r="D169">
+        <v>262</v>
+      </c>
+      <c r="D169" t="e">
         <f>VLOOKUP(B169,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B170" s="3">
-        <v>1001063925206</v>
+        <v>1001304506684</v>
       </c>
       <c r="C170" t="s">
-        <v>267</v>
+        <v>65</v>
       </c>
       <c r="D170">
         <f>VLOOKUP(B170,[1]Бланк!$D:$J,6,0)</f>
-        <v>120</v>
+        <v>45</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B171" s="3">
-        <v>6586</v>
+        <v>1001010113248</v>
       </c>
       <c r="C171" t="s">
-        <v>269</v>
-      </c>
-      <c r="D171" t="e">
+        <v>265</v>
+      </c>
+      <c r="D171">
         <f>VLOOKUP(B171,[1]Бланк!$D:$J,6,0)</f>
-        <v>#N/A</v>
+        <v>60</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B172" s="3">
-        <v>1001303636467</v>
+        <v>1001063925206</v>
       </c>
       <c r="C172" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D172">
         <f>VLOOKUP(B172,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>120</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B173" s="3">
-        <v>1001304496701</v>
+        <v>6586</v>
       </c>
       <c r="C173" t="s">
-        <v>275</v>
-      </c>
-      <c r="D173">
+        <v>269</v>
+      </c>
+      <c r="D173" t="e">
         <f>VLOOKUP(B173,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B174" s="3">
-        <v>6144</v>
+        <v>1001303636467</v>
       </c>
       <c r="C174" t="s">
-        <v>277</v>
-      </c>
-      <c r="D174" t="e">
+        <v>271</v>
+      </c>
+      <c r="D174">
         <f>VLOOKUP(B174,[1]Бланк!$D:$J,6,0)</f>
-        <v>#N/A</v>
+        <v>45</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B175" s="3">
-        <v>1001022725819</v>
+        <v>1001304496701</v>
       </c>
       <c r="C175" t="s">
-        <v>234</v>
+        <v>275</v>
       </c>
       <c r="D175">
         <f>VLOOKUP(B175,[1]Бланк!$D:$J,6,0)</f>
@@ -12716,28 +12738,28 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B176" s="3">
-        <v>1001022373812</v>
+        <v>6144</v>
       </c>
       <c r="C176" t="s">
-        <v>3</v>
-      </c>
-      <c r="D176">
+        <v>277</v>
+      </c>
+      <c r="D176" t="e">
         <f>VLOOKUP(B176,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B177" s="3">
-        <v>1001024906062</v>
+        <v>1001022725819</v>
       </c>
       <c r="C177" t="s">
-        <v>283</v>
+        <v>234</v>
       </c>
       <c r="D177">
         <f>VLOOKUP(B177,[1]Бланк!$D:$J,6,0)</f>
@@ -12746,13 +12768,13 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B178" s="3">
-        <v>1001300386683</v>
+        <v>1001022373812</v>
       </c>
       <c r="C178" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="D178">
         <f>VLOOKUP(B178,[1]Бланк!$D:$J,6,0)</f>
@@ -12761,13 +12783,13 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B179" s="3">
-        <v>1001303986689</v>
+        <v>1001024906062</v>
       </c>
       <c r="C179" t="s">
-        <v>66</v>
+        <v>283</v>
       </c>
       <c r="D179">
         <f>VLOOKUP(B179,[1]Бланк!$D:$J,6,0)</f>
@@ -12776,13 +12798,13 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B180" s="3">
-        <v>1001303056692</v>
+        <v>1001300386683</v>
       </c>
       <c r="C180" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="D180">
         <f>VLOOKUP(B180,[1]Бланк!$D:$J,6,0)</f>
@@ -12791,13 +12813,13 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B181" s="3">
-        <v>1001301876697</v>
+        <v>1001303986689</v>
       </c>
       <c r="C181" t="s">
-        <v>226</v>
+        <v>66</v>
       </c>
       <c r="D181">
         <f>VLOOKUP(B181,[1]Бланк!$D:$J,6,0)</f>
@@ -12806,13 +12828,13 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B182" s="3">
-        <v>1001302276666</v>
+        <v>1001303056692</v>
       </c>
       <c r="C182" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D182">
         <f>VLOOKUP(B182,[1]Бланк!$D:$J,6,0)</f>
@@ -12821,73 +12843,73 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B183" s="3">
-        <v>1001012634574</v>
+        <v>1001301876697</v>
       </c>
       <c r="C183" t="s">
-        <v>12</v>
+        <v>226</v>
       </c>
       <c r="D183">
         <f>VLOOKUP(B183,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B184" s="3">
-        <v>1001092485452</v>
+        <v>1001302276666</v>
       </c>
       <c r="C184" t="s">
-        <v>293</v>
+        <v>68</v>
       </c>
       <c r="D184">
         <f>VLOOKUP(B184,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B185" s="3">
-        <v>1001020966144</v>
+        <v>1001012634574</v>
       </c>
       <c r="C185" t="s">
-        <v>163</v>
+        <v>12</v>
       </c>
       <c r="D185">
         <f>VLOOKUP(B185,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="B186" s="3">
-        <v>6586</v>
+        <v>1001092485452</v>
       </c>
       <c r="C186" t="s">
-        <v>269</v>
-      </c>
-      <c r="D186" t="e">
+        <v>292</v>
+      </c>
+      <c r="D186">
         <f>VLOOKUP(B186,[1]Бланк!$D:$J,6,0)</f>
-        <v>#N/A</v>
+        <v>60</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B187" s="3">
-        <v>1001304496701</v>
+        <v>1001020966144</v>
       </c>
       <c r="C187" t="s">
-        <v>275</v>
+        <v>163</v>
       </c>
       <c r="D187">
         <f>VLOOKUP(B187,[1]Бланк!$D:$J,6,0)</f>
@@ -12896,457 +12918,459 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B188" s="3">
-        <v>1001063655015</v>
+        <v>6586</v>
       </c>
       <c r="C188" t="s">
-        <v>300</v>
-      </c>
-      <c r="D188">
+        <v>269</v>
+      </c>
+      <c r="D188" t="e">
         <f>VLOOKUP(B188,[1]Бланк!$D:$J,6,0)</f>
-        <v>120</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B189" s="3">
-        <v>1001060763287</v>
+        <v>1001304496701</v>
       </c>
       <c r="C189" t="s">
-        <v>303</v>
+        <v>275</v>
       </c>
       <c r="D189">
         <f>VLOOKUP(B189,[1]Бланк!$D:$J,6,0)</f>
-        <v>120</v>
+        <v>45</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="B190" s="3" t="s">
-        <v>313</v>
+        <v>298</v>
+      </c>
+      <c r="B190" s="3">
+        <v>1001063655015</v>
       </c>
       <c r="C190" t="s">
-        <v>179</v>
+        <v>299</v>
+      </c>
+      <c r="D190">
+        <f>VLOOKUP(B190,[1]Бланк!$D:$J,6,0)</f>
+        <v>120</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B191" s="3">
-        <v>1001032736550</v>
+        <v>1001060763287</v>
       </c>
       <c r="C191" t="s">
-        <v>262</v>
+        <v>302</v>
+      </c>
+      <c r="D191">
+        <f>VLOOKUP(B191,[1]Бланк!$D:$J,6,0)</f>
+        <v>120</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="B192" s="3">
-        <v>6758</v>
+        <v>303</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>312</v>
       </c>
       <c r="C192" t="s">
-        <v>307</v>
-      </c>
-      <c r="D192" t="e">
-        <f>VLOOKUP(B192,[1]Бланк!$D:$J,6,0)</f>
-        <v>#N/A</v>
+        <v>179</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B193" s="3">
-        <v>1001020965976</v>
+        <v>1001032736550</v>
       </c>
       <c r="C193" t="s">
-        <v>309</v>
-      </c>
-      <c r="D193">
-        <f>VLOOKUP(B193,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>262</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="B194" s="3">
-        <v>1001215576586</v>
+        <v>6758</v>
       </c>
       <c r="C194" t="s">
-        <v>311</v>
+        <v>306</v>
+      </c>
+      <c r="D194" t="e">
+        <f>VLOOKUP(B194,[1]Бланк!$D:$J,6,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="B195" s="3">
-        <v>1001094896026</v>
+        <v>1001020965976</v>
       </c>
       <c r="C195" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="D195">
         <f>VLOOKUP(B195,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="B196" s="3">
         <v>1001215576586</v>
       </c>
       <c r="C196" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B197" s="3">
-        <v>1001092436470</v>
+        <v>1001094896026</v>
       </c>
       <c r="C197" t="s">
-        <v>320</v>
+        <v>315</v>
+      </c>
+      <c r="D197">
+        <f>VLOOKUP(B197,[1]Бланк!$D:$J,6,0)</f>
+        <v>60</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="B198" s="3">
-        <v>1001203146555</v>
+        <v>1001215576586</v>
       </c>
       <c r="C198" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>338</v>
+        <v>318</v>
       </c>
       <c r="B199" s="3">
-        <v>1001014765992</v>
+        <v>1001092436470</v>
       </c>
       <c r="C199" t="s">
-        <v>337</v>
+        <v>319</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B200" s="3">
-        <v>1001014765992</v>
+        <v>1001203146555</v>
       </c>
       <c r="C200" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="B201" s="3">
-        <v>1001014765993</v>
+        <v>1001014765992</v>
       </c>
       <c r="C201" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B202" s="3">
-        <v>1001025166776</v>
+        <v>1001014765992</v>
       </c>
       <c r="C202" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B203" s="3">
-        <v>1001025506777</v>
+        <v>1001014765993</v>
       </c>
       <c r="C203" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>358</v>
+        <v>330</v>
       </c>
       <c r="B204" s="3">
-        <v>1001025546822</v>
+        <v>1001025166776</v>
       </c>
       <c r="C204" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>359</v>
+        <v>332</v>
       </c>
       <c r="B205" s="3">
-        <v>1001025546822</v>
+        <v>1001025506777</v>
       </c>
       <c r="C205" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="B206" s="3">
         <v>1001025546822</v>
       </c>
       <c r="C206" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>335</v>
+        <v>358</v>
       </c>
       <c r="B207" s="3">
         <v>1001025546822</v>
       </c>
       <c r="C207" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B208" s="3">
+        <v>1001025546822</v>
+      </c>
+      <c r="C208" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B209" s="3">
+        <v>1001025546822</v>
+      </c>
+      <c r="C209" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B210" s="3">
+        <v>1001024976616</v>
+      </c>
+      <c r="C210" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B211" s="3">
+        <v>1001010856747</v>
+      </c>
+      <c r="C211" t="s">
         <v>340</v>
       </c>
-      <c r="B208" s="3">
-        <v>1001024976616</v>
-      </c>
-      <c r="C208" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A209" s="2" t="s">
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="B209" s="3">
-        <v>1001010856747</v>
-      </c>
-      <c r="C209" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A210" s="2" t="s">
+      <c r="B212" s="3">
+        <v>1001233296445</v>
+      </c>
+      <c r="C212" t="s">
         <v>343</v>
       </c>
-      <c r="B210" s="3">
-        <v>1001233296445</v>
-      </c>
-      <c r="C210" t="s">
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="2" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A211" s="2" t="s">
+      <c r="B213" s="3">
+        <v>1001203146555</v>
+      </c>
+      <c r="C213" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="B211" s="3">
-        <v>1001203146555</v>
-      </c>
-      <c r="C211" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A212" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="B212" s="3">
+      <c r="B214" s="3">
         <v>1001014765993</v>
       </c>
-      <c r="C212" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A213" s="2" t="s">
+      <c r="C214" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B215" s="3">
+        <v>1001025166776</v>
+      </c>
+      <c r="C215" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="B213" s="3">
-        <v>1001025166776</v>
-      </c>
-      <c r="C213" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A214" s="2" t="s">
+      <c r="B216" s="3">
+        <v>1001025506777</v>
+      </c>
+      <c r="C216" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="B214" s="3">
-        <v>1001025506777</v>
-      </c>
-      <c r="C214" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A215" s="2" t="s">
+      <c r="B217" s="3">
+        <v>1001025526778</v>
+      </c>
+      <c r="C217" t="s">
         <v>350</v>
       </c>
-      <c r="B215" s="3">
-        <v>1001025526778</v>
-      </c>
-      <c r="C215" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A216" s="2" t="s">
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B218" s="3">
+        <v>1001304236685</v>
+      </c>
+      <c r="C218" t="s">
         <v>354</v>
       </c>
-      <c r="B216" s="3">
-        <v>1001304236685</v>
-      </c>
-      <c r="C216" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A217" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="B217" s="3">
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B219" s="3">
         <v>1001015496769</v>
       </c>
-      <c r="C217" t="s">
+      <c r="C219" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" s="2" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A218" s="2" t="s">
+      <c r="B220" s="3">
+        <v>1001015496769</v>
+      </c>
+      <c r="C220" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="B218" s="3">
-        <v>1001015496769</v>
-      </c>
-      <c r="C218" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A219" s="2" t="s">
+      <c r="B221" s="3">
+        <v>1001014766798</v>
+      </c>
+      <c r="C221" t="s">
         <v>362</v>
       </c>
-      <c r="B219" s="3">
-        <v>1001014766798</v>
-      </c>
-      <c r="C219" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A220" s="2" t="s">
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B222" s="3">
+        <v>1001015026797</v>
+      </c>
+      <c r="C222" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="B220" s="3">
-        <v>1001015026797</v>
-      </c>
-      <c r="C220" t="s">
+      <c r="B223" s="3">
+        <v>1001205386222</v>
+      </c>
+      <c r="C223" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A221" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="B221" s="3">
-        <v>1001205386222</v>
-      </c>
-      <c r="C221" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A222" s="2" t="s">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B224" s="3">
+        <v>1001092675224</v>
+      </c>
+      <c r="C224" t="s">
         <v>372</v>
-      </c>
-      <c r="B222" s="3">
-        <v>1001092675224</v>
-      </c>
-      <c r="C222" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A223" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="B223" s="3">
-        <v>1001225406223</v>
-      </c>
-      <c r="C223" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A224" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="B224" s="3">
-        <v>1001300366790</v>
-      </c>
-      <c r="C224" t="s">
-        <v>396</v>
-      </c>
-      <c r="D224">
-        <v>45</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="B225" s="3">
-        <v>1001304096791</v>
+        <v>1001225406223</v>
       </c>
       <c r="C225" t="s">
-        <v>397</v>
-      </c>
-      <c r="D225">
-        <v>45</v>
+        <v>382</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B226" s="3">
-        <v>1001304096792</v>
+        <v>1001300366790</v>
       </c>
       <c r="C226" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D226">
         <v>45</v>
@@ -13354,13 +13378,13 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B227" s="3">
-        <v>1001303636793</v>
+        <v>1001304096791</v>
       </c>
       <c r="C227" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D227">
         <v>45</v>
@@ -13368,13 +13392,13 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B228" s="3">
-        <v>1001303636794</v>
+        <v>1001304096792</v>
       </c>
       <c r="C228" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D228">
         <v>45</v>
@@ -13382,13 +13406,13 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B229" s="3">
-        <v>1001302596795</v>
+        <v>1001303636793</v>
       </c>
       <c r="C229" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D229">
         <v>45</v>
@@ -13396,13 +13420,13 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B230" s="3">
-        <v>1001302596796</v>
+        <v>1001303636794</v>
       </c>
       <c r="C230" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D230">
         <v>45</v>
@@ -13410,13 +13434,13 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B231" s="3">
-        <v>1001300456804</v>
+        <v>1001302596795</v>
       </c>
       <c r="C231" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D231">
         <v>45</v>
@@ -13424,13 +13448,13 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B232" s="3">
-        <v>1001300366806</v>
+        <v>1001302596796</v>
       </c>
       <c r="C232" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D232">
         <v>45</v>
@@ -13438,13 +13462,13 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B233" s="3">
-        <v>1001300516803</v>
+        <v>1001300456804</v>
       </c>
       <c r="C233" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D233">
         <v>45</v>
@@ -13452,13 +13476,13 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B234" s="3">
-        <v>1001300366807</v>
+        <v>1001300366806</v>
       </c>
       <c r="C234" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D234">
         <v>45</v>
@@ -13466,13 +13490,13 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="B235" s="3">
-        <v>1001300366807</v>
+        <v>1001300516803</v>
       </c>
       <c r="C235" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="D235">
         <v>45</v>
@@ -13480,50 +13504,117 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="B236" s="3">
-        <v>1001300516785</v>
+        <v>1001300366807</v>
       </c>
       <c r="C236" t="s">
-        <v>410</v>
+        <v>405</v>
+      </c>
+      <c r="D236">
+        <v>45</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="B237" s="3">
-        <v>1001300456787</v>
+        <v>1001300366807</v>
       </c>
       <c r="C237" t="s">
-        <v>412</v>
+        <v>407</v>
+      </c>
+      <c r="D237">
+        <v>45</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B238" s="3">
-        <v>1001303636793</v>
+        <v>1001300516785</v>
       </c>
       <c r="C238" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="B239" s="3">
+        <v>1001300456787</v>
+      </c>
+      <c r="C239" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="B240" s="3">
+        <v>1001303636793</v>
+      </c>
+      <c r="C240" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A241" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="B241" s="3">
+        <v>1001302596795</v>
+      </c>
+      <c r="C241" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A242" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="B239" s="3">
-        <v>1001302596795</v>
-      </c>
-      <c r="C239" t="s">
-        <v>401</v>
+      <c r="B242" s="3">
+        <v>1001012486332</v>
+      </c>
+      <c r="C242" t="s">
+        <v>415</v>
+      </c>
+      <c r="D242">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A243" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="B243" s="3">
+        <v>1001012566345</v>
+      </c>
+      <c r="C243" t="s">
+        <v>417</v>
+      </c>
+      <c r="D243">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A244" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="B244" s="3">
+        <v>1001031076528</v>
+      </c>
+      <c r="C244" t="s">
+        <v>420</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C235" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
+  <autoFilter ref="A1:C244" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/moduls/1С.xlsx
+++ b/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\Останкино КИ\ostankino_ki\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF8A976-9D5E-4CEF-B154-21B4E870BDD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{830DB4ED-2650-4AD0-B409-BE7801E5BC7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$244</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$257</definedName>
   </definedNames>
   <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="443">
   <si>
     <t>1С</t>
   </si>
@@ -204,1108 +204,1168 @@
     <t>6281 СВИНИНА ДЕЛИКАТ. к/в мл/к в/у 0.3кг 45с  ОСТАНКИНО</t>
   </si>
   <si>
+    <t>6297 ФИЛЕЙНЫЕ сос ц/о в/у 1/270 12шт_45с  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>ФИЛЕЙНЫЕ сос ц/о в/у 1/270 12шт_45с</t>
+  </si>
+  <si>
+    <t>6325 ДОКТОРСКАЯ ПРЕМИУМ вар п/о 0.4кг 8шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>ДОКТОРСКАЯ ПРЕМИУМ вар п/о 0.4кг 8шт.</t>
+  </si>
+  <si>
+    <t>6333 МЯСНАЯ Папа может вар п/о 0.4кг 8шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>МЯСНАЯ Папа может вар п/о 0.4кг 8шт.</t>
+  </si>
+  <si>
+    <t>ФИЛЕЙНАЯ Папа может вар п/о 0.4кг 8шт.</t>
+  </si>
+  <si>
+    <t>6353 ЭКСТРА Папа может вар п/о 0.4кг 8шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>ЭКСТРА Папа может вар п/о 0.4кг 8шт.</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ КАРЕЛЬСКИЙ ПМ в/к в/у 0.28кг</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ ОХОТНИЧИЙ в/к в/у срез 0.35кг</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ ПРИМА в/к в/у 0.28кг 8шт.</t>
+  </si>
+  <si>
+    <t>БОЯNСКАЯ Папа может п/к в/у 0.28кг 8шт.</t>
+  </si>
+  <si>
+    <t>ВЕНСКАЯ САЛЯМИ п/к в/у 0.28кг 8шт.</t>
+  </si>
+  <si>
+    <t>6415 БАЛЫКОВАЯ Коровино п/к в/у 0.84кг 6шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>БАЛЫКОВАЯ Коровино п/к в/у 0.84кг 6шт.</t>
+  </si>
+  <si>
+    <t>6427 КЛАССИЧЕСКАЯ ПМ вар п/о 0.35кг 8шт. ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>КЛАССИЧЕСКАЯ ПМ вар п/о 0.35кг 8шт.</t>
+  </si>
+  <si>
+    <t>6438 БОГАТЫРСКИЕ Папа Может сос п/о в/у 0,3кг  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>БОГАТЫРСКИЕ Папа Может сос п/о в/у 0.3кг</t>
+  </si>
+  <si>
+    <t>6448 СВИНИНА МАДЕРА с/к с/н в/у 1/100 10шт.   ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>СВИНИНА МАДЕРА с/к с/н в/у 1/100</t>
+  </si>
+  <si>
+    <t>6450 БЕКОН с/к с/н в/у 1/100 10шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>БЕКОН с/к с/н в/у 1/100 10шт.</t>
+  </si>
+  <si>
+    <t>6453 ЭКСТРА Папа может с/к с/н в/у 1/100 14шт.   ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>ЭКСТРА Папа может с/к с/н в/у 1/100_60с</t>
+  </si>
+  <si>
+    <t>6454 АРОМАТНАЯ с/к с/н в/у 1/100 14шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>АРОМАТНАЯ с/к с/н в/у 1/100*8_60с</t>
+  </si>
+  <si>
+    <t>6475 С СЫРОМ Папа может сос ц/о мгс 0.4кг6шт  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>С СЫРОМ Папа может сос ц/о мгс 0.4кг 6шт</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ ФИНСКИЙ в/к в/у срез 0.35кг_45c</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ ЗЕРНИСТЫЙ ПМ в/к в/у срез 1/350</t>
+  </si>
+  <si>
+    <t>6517 БОГАТЫРСКИЕ Папа Может сос п/о 1*6  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>БОГАТЫРСКИЕ Папа Может сос п/о 1*6</t>
+  </si>
+  <si>
+    <t>6527 ШПИКАЧКИ СОЧНЫЕ ПМ сар б/о мгс 1*3 45с ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>ШПИКАЧКИ СОЧНЫЕ ПМ САР Б/О МГС 1*3 45с</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ ФИНСКИЙ СН в/к п/о 0.35кг 8шт</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ ОРЕХОВЫЙ СН в/к п/о 0,35кг 8шт</t>
+  </si>
+  <si>
+    <t>6562 СЕРВЕЛАТ КАРЕЛЬСКИЙ СН в/к в/у 0,28кг  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ КАРЕЛЬСКИЙ СН в/к в/у 0.28к</t>
+  </si>
+  <si>
+    <t>6563 СЛИВОЧНЫЕ СН сос п/о мгс 1*6  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>СЛИВОЧНЫЕ СН сос п/о мгс 1*6</t>
+  </si>
+  <si>
+    <t>6589 МОЛОЧНЫЕ ГОСТ СН сос п/о мгс 0.41кг 10шт  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>МОЛОЧНЫЕ ГОСТ СН сос п/о мгс 0.41кг 10шт</t>
+  </si>
+  <si>
+    <t>6590 СЛИВОЧНЫЕ СН сос п/о мгс 0.41кг 10шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>СЛИВОЧНЫЕ СН сос п/о мгс 0.41кг 10шт.</t>
+  </si>
+  <si>
+    <t>6592 ДОКТОРСКАЯ СН вар п/о  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>ДОКТОРСКАЯ СН вар п/о</t>
+  </si>
+  <si>
+    <t>6594 МОЛОЧНАЯ СН вар п/о  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>МОЛОЧНАЯ СН вар п/о</t>
+  </si>
+  <si>
+    <t>6601 ГОВЯЖЬИ СН сос п/о мгс 1*6  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>ГОВЯЖЬИ СН сос п/о мгс 1*6</t>
+  </si>
+  <si>
+    <t>6636 БАЛЫКОВАЯ СН в/к п/о 0,35кг 8шт  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>БАЛЫКОВАЯ СН в/к п/о 0.35кг 8шт</t>
+  </si>
+  <si>
+    <t>6648 СОЧНЫЕ Папа может сар п/о мгс 1*3  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>СОЧНЫЕ Папа может сар п/о мгс 1*3</t>
+  </si>
+  <si>
+    <t>6650 СОЧНЫЕ С СЫРОМ ПМ сар п/о мгс 1*3  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>СОЧНЫЕ С СЫРОМ ПМ сар п/о мгс 1*3</t>
+  </si>
+  <si>
+    <t>6658 АРОМАТНАЯ С ЧЕСНОЧКОМ СН в/к мтс 0.330кг  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> АРОМАТНАЯ С ЧЕСНОЧКОМ СН в/к мтс 0.330кг</t>
+  </si>
+  <si>
+    <t>6593 ДОКТОРСКАЯ СН вар п/о 0.45кг 8шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>ДОКТОРСКАЯ СН вар п/о 0.45кг 8шт</t>
+  </si>
+  <si>
+    <t>6595 МОЛОЧНАЯ СН вар п/о 0.45кг 8шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>МОЛОЧНАЯ СН вар п/о 0.45кг 8шт.</t>
+  </si>
+  <si>
+    <t>6597 РУССКАЯ СН вар п/о 0.45кг 8шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>РУССКАЯ СН вар п/о 0.45кг 8шт.</t>
+  </si>
+  <si>
+    <t>6641 СЛИВОЧНЫЕ ПМ сос п/о мгс 0,41кг 10шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>СЛИВОЧНЫЕ ПМ сос п/о мгс 0,41кг 10шт.</t>
+  </si>
+  <si>
+    <t>СОЧНЫЙ ГРИЛЬ ПМ сос п/о мгс 0,41кг 8шт.</t>
+  </si>
+  <si>
+    <t>СОСИСКА.РУ сос ц/о в/у 1/300 8шт.</t>
+  </si>
+  <si>
+    <t>6646 СОСИСКА.РУ сос ц/о в/у 1/300 8шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6566 СЕРВЕЛАТ С БЕЛ.ГРИБАМИ в/к в/у 0,31кг  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ С БЕЛ.ГРИБАМИ в/к в/у 0.31кг</t>
+  </si>
+  <si>
+    <t>6684 СЕРВЕЛАТ КАРЕЛЬСКИЙ ПМ в/к в/у 0.28кг  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6692 СЕРВЕЛАТ ПРИМА в/к в/у 0.28кг 8шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6669 ВЕНСКАЯ САЛЯМИ п/к в/у 0.28кг 8шт  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6683 СЕРВЕЛАТ ЗЕРНИСТЫЙ ПМ в/к в/у 0,35кг  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6689 СЕРВЕЛАТ ОХОТНИЧИЙ ПМ в/к в/у 0,35кг 8шт  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6697 СЕРВЕЛАТ ФИНСКИЙ ПМ в/к в/у 0,35кг 8шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>СОЧНЫЕ ПМ сос п/о мгс 0,41кг 10шт</t>
+  </si>
+  <si>
+    <t>6392 ФИЛЕЙНАЯ Папа может вар п/о 0.4кг. ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6644 СОЧНЫЕ ПМ сос п/о мгс 0,41кг 10шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6666 БОЯНСКАЯ Папа может п/к в/у 0,28кг 8 шт. ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>ГОВЯЖЬЯ Папа может вар п/о 0.4кг 8шт</t>
+  </si>
+  <si>
+    <t>6268 ГОВЯЖЬЯ Папа может вар п/о 0,4кг 8 шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>5981 МОЛОЧНЫЕ ТРАДИЦ. сос п/о мгс 1*6_45с   ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>МОЛОЧНЫЕ ТРАДИЦ. сос п/о мгс 1*6_45с</t>
+  </si>
+  <si>
+    <t>6247 ДОМАШНЯЯ Папа может вар п/о 0,4кг 8шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>ДОМАШНЯЯ Папа может вар п/о 0,4кг 8шт.</t>
+  </si>
+  <si>
+    <t>МОЛОЧНЫЕ К ЗАВТРАКУ сос п/о мгс 1*3</t>
+  </si>
+  <si>
+    <t>6041 МОЛОЧНЫЕ К ЗАВТРАКУ сос п/о мгс 1*3  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6227 МОЛОЧНЫЕ ТРАДИЦ. сос п/о мгс 0.6кг LTF  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>МОЛОЧНЫЕ ТРАДИЦ. сос п/о мгс 0.6кг LTF</t>
+  </si>
+  <si>
+    <t>ШПИКАЧКИ ДОМАШНИЕ СН п/о мгс 0.4кг 8шт.</t>
+  </si>
+  <si>
+    <t>6217 ШПИКАЧКИ ДОМАШНИЕ СН п/о мгс 0.4кг 8шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6661 СОЧНЫЙ ГРИЛЬ ПМ сос п/о мгс 1.5*4_Маяк  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>3812 СОЧНЫЕ сос п/о мгс 2*2  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6113 СОЧНЫЕ сос п/о мгс 1*6_Ашан  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>СОЧНЫЙ ГРИЛЬ ПМ сос п/о мгс 1.5*4_Маяк</t>
+  </si>
+  <si>
+    <t>6241 ХОТ-ДОГ Папа может сос п/о мгс 0.38кг  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6213 СЕРВЕЛАТ ФИНСКИЙ СН в/к в/у 0.35кг 8шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6215 СЕРВЕЛАТ ОРЕХОВЫЙ СН в/к в/у 0.35кг 8шт  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6713 СОЧНЫЙ ГРИЛЬ ПМ сос п/о мгс 0.41кг 8шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>ХОТ-ДОГ Папа может сос п/о мгс 0,38кг</t>
+  </si>
+  <si>
+    <t>ВРЕМЯ ОЛИВЬЕ Папа может вар п/о 0.4кг</t>
+  </si>
+  <si>
+    <t>К ЧАЮ Советское наследие вар н/о мгс</t>
+  </si>
+  <si>
+    <t>ОСОБАЯ Коровино (в сетке) 0.5кг 8шт.</t>
+  </si>
+  <si>
+    <t>МОЛОЧНЫЕ ТРАДИЦ. сос п/о в/у 1/360 (1+1)</t>
+  </si>
+  <si>
+    <t>БАЛЫКОВАЯ СН в/к в/у</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ ФИНСКИЙ СН в/к в/у</t>
+  </si>
+  <si>
+    <t>6144 МОЛОЧНЫЕ ТРАДИЦ сос п/о в/у 1/360 (1+1) ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6158 ВРЕМЯ ОЛИВЬЕ Папа может вар п/о 0.4кг   ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6212 СЕРВЕЛАТ ФИНСКИЙ СН в/к в/у  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6259 К ЧАЮ Советское наследие вар н/о мгс  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6301 БАЛЫКОВАЯ СН в/к в/у  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6716 ОСОБАЯ Коровино (в сетке) 0.5кг 8шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6303 МЯСНЫЕ Папа может сос п/о мгс 1.5*3  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6606 СЫТНЫЕ Папа может сар б/о мгс 1*3 45с  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>МЯСНЫЕ Папа может сос п/о мгс 1.5*3</t>
+  </si>
+  <si>
+    <t>СЫТНЫЕ Папа может сар б/о мгс 1*3 45с</t>
+  </si>
+  <si>
+    <t>6302 БАЛЫКОВАЯ СН в/к в/у 0.35кг 8шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>ВЕТЧ.КЛАССИЧЕСКАЯ СН п/о 0.8кг 4шт.</t>
+  </si>
+  <si>
+    <t>6645 ВЕТЧ.КЛАССИЧЕСКАЯ СН п/о 0.8кг 4шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>МЯСНОЕ АССОРТИ к/з с/н мгс 1/90 10шт.</t>
+  </si>
+  <si>
+    <t>6228 МЯСНОЕ АССОРТИ к/з с/н мгс 1/90 10шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6225 ИМПЕРСКАЯ И БАЛЫКОВАЯ в/к с/н мгс 1/90  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6722 СОЧНЫЕ ПМ сос п/о мгс 0,41кг 10шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>3297 СЫТНЫЕ Папа может сар б/о мгс 1*3 СНГ  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>СЫТНЫЕ Папа может сар б/о мгс 1*3 СНГ</t>
+  </si>
+  <si>
+    <t>3297 СЫТНЫЕ Папа может сар б/о мгс 1*3 СНГ  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6722 СОЧНЫЕ ПМ сос п/о мгс 0,41кг 10шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6726 СЛИВОЧНЫЕ ПМ сос п/о мгс 0.41кг 10шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6602 БАВАРСКИЕ ПМ сос ц/о мгс 0,35кг 8шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>БУЖЕНИНА ЗАПЕЧЕННАЯ с/н в/у 1/100 10шт.</t>
+  </si>
+  <si>
+    <t>6233 БУЖЕНИНА ЗАПЕЧЕННАЯ с/н в/у 1/100 10шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6734 ОСОБАЯ СО ШПИКОМ Коровино (в сетке) 0,5кг ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>ОСОБАЯ СО ШПИКОМ Коровино (в сетке) 0,5кг</t>
+  </si>
+  <si>
+    <t>6750 МОЛОЧНЫЕ ГОСТ СН сос п/о мгс 0,41 кг 10шт ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6751 СЛИВОЧНЫЕ СН сос п/о мгс 0,41кг 10шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>5982 МОЛОЧНЫЕ ТРАДИЦ. сос п/о мгс 0,6кг_СНГ  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>МОЛОЧНЫЕ ТРАДИЦ. сос п/о мгс 0,6кг_СНГ</t>
+  </si>
+  <si>
+    <t>5982 МОЛОЧНЫЕ ТРАДИЦ. сос п/о мгс 0,6кг_СНГ  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6025 ВЕТЧ.ФИРМЕННАЯ С ИНДЕЙКОЙ п/о   ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>ВЕТЧ.ФИРМЕННАЯ С ИНДЕЙКОЙ п/о</t>
+  </si>
+  <si>
+    <t>6756 ВЕТЧ.ЛЮБИТЕЛЬСКАЯ п/о  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>НЕАПОЛИТАНСКИЙ ДУЭТ с/к с/н мгс 1/90</t>
+  </si>
+  <si>
+    <t>6221 НЕАПОЛИТАНСКИЙ ДУЭТ с/к с/н мгс 1/90  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6025 ВЕТЧ.ФИРМЕННАЯ С ИНДЕЙКОЙ п/о   ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6221 НЕАПОЛИТАНСКИЙ ДУЭТ с/к с/н мгс 1/90  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>3297 СЫТНЫЕ Папа может сар б/о мгс 1*3_СНГ  Останкино</t>
+  </si>
+  <si>
+    <t>СЫТНЫЕ Папа может сар б/о мгс 1*3</t>
+  </si>
+  <si>
+    <t>3812 СОЧНЫЕ сос п/о мгс 2*2  Останкино</t>
+  </si>
+  <si>
+    <t>5159 Нежный пашт п/о 1/150 16шт.   ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>5160 Мясной пашт п/о 0,150 ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>5161 Печеночный пашт 0,150 ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>5965 С ИНДЕЙКОЙ Папа может сар б/о мгс 1*3  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>С ИНДЕЙКОЙ Папа может сар б/о мгс 1*3</t>
+  </si>
+  <si>
+    <t>6159 ВРЕМЯ ОЛИВЬЕ Папа может вар п/о  Останкино</t>
+  </si>
+  <si>
+    <t>ВРЕМЯ ОЛИВЬЕ Папа может п/о</t>
+  </si>
+  <si>
+    <t>6217 ШПИКАЧКИ ДОМАШНИЕ СН п/о мгс 0,4кг 8 шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6220 ГОВЯЖЬЯ папа может вар п/о  Останкино</t>
+  </si>
+  <si>
+    <t>ГОВЯЖЬЯ Папа может вар п/о</t>
+  </si>
+  <si>
+    <t>6236 СЛИВОЧНЫЕ ПМ сос п/о мгс 0,45кг 10шт  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>СЛИВОЧНЫЕ ПМ сос п/о мгс 0.450кг_45с</t>
+  </si>
+  <si>
+    <t>6602 БАВАРСКИЕ ПМ сос ц/о мгс 0,35кг 8шт  Останкино</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> БАВАРСКИЕ ПМ сос ц/о мгс 0.35кг 8шт.</t>
+  </si>
+  <si>
+    <t>6656 ГОВЯЖЬИ СН сос п/о мгс 2*2  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>ГОВЯЖЬИ СН сос п/о мгс 2*2</t>
+  </si>
+  <si>
+    <t>6684 СЕРВЕЛАТ КАРЕЛЬСКИЙ ПМ в/к в/у 0,28кг  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6697 СЕРВЕЛАТ ФИНСКИЙ ПМ в/к в/у 0,35кг 8шт  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ ФИНСКИЙ ПМ в/к в/у 0.35кг 8шт.</t>
+  </si>
+  <si>
+    <t>6713 СОЧНЫЙ ГРИЛЬ ПМ сос п/о мгс 0,41кг 8 шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>СОЧНЫЙ ГРИЛЬ ПМ сос п/о мгс 0.41кг 8шт.</t>
+  </si>
+  <si>
+    <t>6716 ОСОБАЯ Коровино ( в сетке) 0,5кг 8шт  Останкино</t>
+  </si>
+  <si>
+    <t>6722 СОЧНЫЕ ПМ сос п/о мгс 0,41кг 10шт  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>СОЧНЫЕ ПМ сос п/о мгс 0.41кг 10шт.</t>
+  </si>
+  <si>
+    <t>6751 СЛИВОЧНЫЕ СН сос п/о мгс 0,41 кг 10шт.  Останкино</t>
+  </si>
+  <si>
+    <t>5819 МЯСНЫЕ Папа может сос п/о в/у 0.4кг_45с</t>
+  </si>
+  <si>
+    <t>МЯСНЫЕ Папа может сос п/о в/у 0.4кг_45с</t>
+  </si>
+  <si>
+    <t>5337 ОСОБАЯ СО ШПИКОМ вар п/о</t>
+  </si>
+  <si>
+    <t>5336 ОСОБАЯ вар п/о</t>
+  </si>
+  <si>
+    <t>5811 СВИНИНА МАДЕРА с/к с/н в/у 1/100 8шт.   ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>5819 Сосиски Папа может 400г Мясные  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6027 ВЕТЧ.ИЗ ЛОПАТКИ Папа может п/о 400*6  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>ВЕТЧ.ИЗ ЛОПАТКИ Папа может п/о 400*6</t>
+  </si>
+  <si>
+    <t>6213 СЕРВЕЛАТ ФИНСКИЙ СН в/к в/у 0,35кг 8шт  Останкино</t>
+  </si>
+  <si>
+    <t>6303 Мясные Папа может сос п/о мгс 1,5*3  Останкино</t>
+  </si>
+  <si>
+    <t>6308 С ИНДЕЙКОЙ ПМ сар б/о мгс 1*3_СНГ  Останкино</t>
+  </si>
+  <si>
+    <t>6392 ФИЛЕЙНАЯ Папа может вар п/о 0,4кг  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6448 Свинина Останкино 100г Мадера с/к в/у нарезка  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6450 БЕКОН с/к с/н в/у 1/100 10шт.</t>
+  </si>
+  <si>
+    <t>6454 АРОМАТНАЯ с/к с/н в/у 1/100 10шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6475 Сосиски Папа может 400г С сыром  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6498 МОЛОЧНАЯ Папа может вар п/о  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>МОЛОЧНАЯ Папа может вар п/о</t>
+  </si>
+  <si>
+    <t>6596 РУССКАЯ СН вар п/о  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> РУССКАЯ СН вар п/о</t>
+  </si>
+  <si>
+    <t>6607 С ГОВЯДИНОЙ ПМ сар б/о мгс 1*3_45с</t>
+  </si>
+  <si>
+    <t>С ГОВЯДИНОЙ ПМ сар б/о мгс 1*3_45с</t>
+  </si>
+  <si>
+    <t>6609 С ГОВЯДИНОЙ ПМ сар б/о мгс 0,4 кг_45с</t>
+  </si>
+  <si>
+    <t>С ГОВЯДИНОЙ ПМ сар б/о мгс 0.4кг_45с</t>
+  </si>
+  <si>
+    <t>6666 БОЯNСКАЯ Папа может п/к в/у 0,28кг 8шт  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6669 ВЕНСКАЯ САЛЯМИ п/к в/у 0,28кг 8шт  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6755 ВЕТЧ.ЛЮБИТЕЛЬСКАЯ п/о 0,4кг 10шт.  Останкино</t>
+  </si>
+  <si>
+    <t>6756 ВЕТЧ.ЛЮБИТЕЛЬСКАЯ п/о  Останкино</t>
+  </si>
+  <si>
+    <t>6550 МЯСНЫЕ Папа может сар б/о мгс  1*3_О_45с</t>
+  </si>
+  <si>
+    <t>МЯСНЫЕ Папа может сар б/о мгс  1*3_О_45с</t>
+  </si>
+  <si>
+    <t>6365 СЕРВЕЛАТ КАРЕЛЬСКИЙ ПМ в/к в/у 0.28кг  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>3248 ДОКТОРСКАЯ ТРАДИЦ. вар п/о ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>ДОКТОРСКАЯ ТРАДИЦ. вар п/о</t>
+  </si>
+  <si>
+    <t>5206 Ладожская с/к в/у ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>ЛАДОЖСКАЯ с/к в/у</t>
+  </si>
+  <si>
+    <t>6586 Мрамарная и Балыковая в/к с/н мгс 1/90  Останкино</t>
+  </si>
+  <si>
+    <t>Мрамарная и Балыковая в/к с/н мгс 1/90</t>
+  </si>
+  <si>
+    <t>6467 БАЛЫКОВАЯ Коровино п/к в/у  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>БАЛЫКОВАЯ Коровино п/к в/у</t>
+  </si>
+  <si>
+    <t>6661 СОЧНЫЙ ГРИЛЬ ПМ сос п/о мгс 1,5*4_Маяк Останкино</t>
+  </si>
+  <si>
+    <t>СОЧНЫЙ ГРИЛЬ ПМ сос п/о мгс 1,5*4_Маяк</t>
+  </si>
+  <si>
+    <t>6701 СЕРВЕЛАТ ШВАРЦЕР ПМ в/к в/у 0.28кг 8шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ ШВАРЦЕР ПМ в/к в/у 0.28кг 8шт.</t>
+  </si>
+  <si>
+    <t>6144МОЛОЧНЫЕ ТРАДИЦ. сос п/о в/у 1/360 (1+1)</t>
+  </si>
+  <si>
+    <t>6144 МОЛОЧНЫЕ ТРАДИЦ. сос п/ов/у 1/360 (1+1)</t>
+  </si>
+  <si>
+    <t>5819МЯСНЫЕ Папа может сос п/о в/у 0.4кг_45с</t>
+  </si>
+  <si>
+    <t>6303 МЯСНЫЕ Папа может сос п/о мгс  1.5*3</t>
+  </si>
+  <si>
+    <t>МЯСНЫЕ Папа может сос п/о мгс  1.5*3</t>
+  </si>
+  <si>
+    <t>3678 СОЧНЫЕ сос п/о мгс 2*2     ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6062 МОЛОЧНЫЕ К ЗАВТРАКУ сос п/о мгс 2*2   ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>МОЛОЧНЫЕ К ЗАВТРАКУ сос п/о мгс 2*2</t>
+  </si>
+  <si>
+    <t>6364 СЕРВЕЛАТ ЗЕРНИСТЫЙ ПМ в/к в/у 0.35кг  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6372 СЕРВЕЛАТ ОХОТНИЧИЙ ПМ в/к в/у 0.35кг 8шт  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6375 СЕРВЕЛАТ ПРИМА в/к в/у 0.28кг 8шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6509 СЕРВЕЛАТ ФИНСКИЙ ПМ в/к в/у 0.35кг 8шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6397 БОЯNСКАЯ Папа может п/к в/у 0.28кг 8шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>4574 Колбаса вар Мясная со шпиком 1кг Папа может п/о (код покуп. 24784) Останкино</t>
+  </si>
+  <si>
+    <t>6734 ОСОБАЯ СО ШПИКОМ Коровино(в сетке) 0,5кг  Останкино</t>
+  </si>
+  <si>
+    <t>5452 ВЕТЧ.МЯСНАЯ Папа может п/о    ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>ВЕТЧ.МЯСНАЯ Папа может п/о</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ОСОБАЯ СО ШПИКОМ Коровино(в сетке) 0.5кг</t>
+  </si>
+  <si>
+    <t>6144 МОЛОЧНЫЕ ТРАДИЦ. сос п/о в/у 1/360 (1+1)  Останкино</t>
+  </si>
+  <si>
+    <t>6225 ИМПЕРСКАЯ И БАЛЫКОВАЯ в/к с/н мгс 1/90  Останкино</t>
+  </si>
+  <si>
+    <t>6400 ВЕНСКАЯ САЛЯМИ п/к в/у 0.28кг 8шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6384 СЕРВЕЛАТ ШВАРЦЕР ПМ в/к в/у 0.28кг 8шт.  ОСТАНКИНО, шт</t>
+  </si>
+  <si>
+    <t>5015 БУРГУНДИЯ с/к в/у 1/250 ОСТАНКИНО, шт</t>
+  </si>
+  <si>
+    <t>БУРГУНДИЯ с/к в/у 1/250 8шт.</t>
+  </si>
+  <si>
+    <t>ИМПЕРСКАЯ И БАЛЫКОВАЯ в/к с/н мгс 1/90</t>
+  </si>
+  <si>
+    <t>3287 САЛЯМИ ИТАЛЬЯНСКАЯ с/к в/у ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>САЛЯМИ ИТАЛЬЯНСКАЯ с/к в/у</t>
+  </si>
+  <si>
+    <t>6228 МЯСНОЕ АССОРТИ к/з с/н мгс 1/90 10шт  Останкино</t>
+  </si>
+  <si>
+    <t>6550 МЯСНЫЕ Папа может сар б/о мгс 1*3 О 45с  Останкино</t>
+  </si>
+  <si>
+    <t>6758 СЕРВЕЛАТ КОПЧЕНЫЙ п/к в/у 0,31кг 8шт  Останкино</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ КОПЧЕНЫЙ п/к в/у 0,31кг 8шт</t>
+  </si>
+  <si>
+    <t>5976 МОЛОЧНЫЕ ТРАДИЦ. сос п/о в/у 1/350_45с  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>МОЛОЧНЫЕ ТРАДИЦ. сос п/о в/у 1/350_45с</t>
+  </si>
+  <si>
+    <t>6586 МРАМОРНАЯ И БАЛЫКОВАЯ в/к с/н мгс 1/90 ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>МРАМОРНАЯ И БАЛЫКОВАЯ в/к с/н мгс 1/90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БАВАРСКИЕ ПМ сос ц/о мгс 0,35кг 8шт.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1001225416228  </t>
+  </si>
+  <si>
+    <t>ВЕТЧ.ЛЮБИТЕЛЬСКАЯ п/о 0.4кг 10шт.</t>
+  </si>
+  <si>
+    <t>6026 ВЕТЧ.ОСОБАЯ Коровино п/о   ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>ВЕТЧ.ОСОБАЯ Коровино вар п/о</t>
+  </si>
+  <si>
+    <t>6586 МРАМОРНАЯ И БАЛЫКОВАЯ в/к с/н мгс 1/90  Останкино</t>
+  </si>
+  <si>
+    <t>ШПИКАЧКИ ДОМАШНИЕ СН п/о мгс 0.4кг 7шт.</t>
+  </si>
+  <si>
+    <t>6470 ВЕТЧ.МРАМОРНАЯ в/у_45с  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВЕТЧ.МРАМОРНАЯ в/у_45с </t>
+  </si>
+  <si>
+    <t>СЛИВОЧНЫЕ ПМ сос п/о мгс 0.41кг 10шт.</t>
+  </si>
+  <si>
+    <t>6726 СЛИВОЧНЫЕ ПМ сос п/о мгс 0.41кг 10шт.</t>
+  </si>
+  <si>
+    <t>ОХОТНИЧЬЯ Папа может с/к в/у 1/220 8шт. (5931)</t>
+  </si>
+  <si>
+    <t>ЭКСТРА Папа может с/к с/н в/у 1/100 14шт (6453)</t>
+  </si>
+  <si>
+    <t>ПОСОЛЬСКАЯ с/к с/н в/у 1/100 10шт.</t>
+  </si>
+  <si>
+    <t>ПОСОЛЬСКАЯ с/к с/н в/у 1/100 10шт. (6555)</t>
+  </si>
+  <si>
+    <t>ВРЕМЯ ОКРОШКИ Папа может вар п/о 0,4кг</t>
+  </si>
+  <si>
+    <t>5992ВРЕМЯ ОКРОШКИ Папа может вар п/о 0.4кг</t>
+  </si>
+  <si>
+    <t>ВРЕМЯ ОКРОШКИ Папа может вар п/о</t>
+  </si>
+  <si>
+    <t>5993 ВРЕМЯ ОКРОШКИ Папа может вар п/о</t>
+  </si>
+  <si>
+    <t>6776 ХОТ-ДОГ Папа может сос п/о мгс 0.35кг  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>ХОТ-ДОГ Папа может сос п/о мгс 0.35кг</t>
+  </si>
+  <si>
+    <t>6777 МЯСНЫЕ С ГОВЯДИНОЙ ПМ сос п/о мгс 0.4кг  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>МЯСНЫЕ С ГОВЯДИНОЙ ПМ сос п/о мгс 0.4кг</t>
+  </si>
+  <si>
+    <t>6822 ИЗ ОТБОРНОГО МЯСА ПМ сос п/о мгс 0,36кг  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>ИЗ ОТБОРНОГО МЯСА ПМ сос п/о мгс 0,36кг</t>
+  </si>
+  <si>
+    <t>ВРЕМЯ ОКРОШКИ Папа может вар п/о 0.4кг</t>
+  </si>
+  <si>
+    <t>5992 ВРЕМЯ ОКРОШКИ Папа может вар п/о 0.4кг   ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>МОЛОЧНЫЕ КЛАССИЧЕСКИЕ сос п/о в/у 0.3кг</t>
+  </si>
+  <si>
+    <t>6616 МОЛОЧНЫЕ КЛАССИЧЕСКИЕ сос п/о в/у 0.3кг  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>РУССКАЯ ПРЕМИУМ ПМ вар ф/о в/у</t>
+  </si>
+  <si>
+    <t>6747 РУССКАЯ ПРЕМИУМ ПМ вар ф/о в/у  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6445 БЕКОН с/к с/н в/у 1/180 10шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БЕКОН с/к с/н в/у 1/180 10шт. </t>
+  </si>
+  <si>
+    <t>6555 ПОСОЛЬСКАЯ с/к с/н в/у 1/100 10шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>5993 ВРЕМЯ ОКРОШКИ Папа может вар п/о   ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6726 СЛИВОЧНЫЕ ПМ сос п/о мгс 0,41кг 10шт  Останкино</t>
+  </si>
+  <si>
+    <t>6776 ХОТ-ДОГ Папа может сос п/о мгс 0,35кг  Останкино</t>
+  </si>
+  <si>
+    <t>6777 МЯСНЫЕ С ГОВЯДИНОЙ ПМ сос п/о мгс 0,4кг  Останкино</t>
+  </si>
+  <si>
+    <t>6778 МЯСНИКС Папа Может сос б/о мгс 1/160  Останкино</t>
+  </si>
+  <si>
+    <t>МЯСНИКС Папа Может сос б/о мгс 1/160</t>
+  </si>
+  <si>
+    <t>Сервелат с белыми грибами в/к в/у 1/310 6шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Сосиски Сочные ГРИЛЬ   сос п/о мгс 1*6  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>Сервелат копченый на буке Папа может в/к в/у 1/350 6шт.   ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ КОПЧЕНЫЙ НА БУКЕ в/к в/у 0.35кг</t>
+  </si>
+  <si>
+    <t>МОЛОЧНЫЕ ТРАДИЦ. сос п/о мгс 0.6кг_45с</t>
+  </si>
+  <si>
+    <t>6042 МОЛОЧНЫЕ ТРАДИЦ.  сос п/о мгс.  0.6кг _LTF</t>
+  </si>
+  <si>
+    <t>6822ИЗ ОТБОРНОГО МЯСА ПМ сосп/о мгс 0.36кг</t>
+  </si>
+  <si>
+    <t>6822ИЗ ОТБОРНОГО МЯСА ПМ сос п/о мгс 0.36кг</t>
+  </si>
+  <si>
+    <t>СЕМЕЙНАЯ вар п/о</t>
+  </si>
+  <si>
+    <t>6769 СЕМЕЙНАЯ вар п/о  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6798 ВРЕМЯ ОКРОШКИ Папа может вар п/о 0,75 кг  Останкино</t>
+  </si>
+  <si>
+    <t>ВРЕМЯ ОКРОШКИ Папа может вар п/о 0.75кг</t>
+  </si>
+  <si>
+    <t>НЕЖНЫЙ пашт п/о 1/150 12шт.</t>
+  </si>
+  <si>
+    <t>МЯСНОЙ пашт п/о 1/150 12шт.</t>
+  </si>
+  <si>
+    <t>ПЕЧЕНОЧНЫЙ пашт п/о 1/150 12шт.</t>
+  </si>
+  <si>
+    <t>6797 С ИНДЕЙКОЙ Папа может вар п/о 0,4кг 8шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6222 ИТАЛЬЯНСКОЕ АССОРТИ с/в с/н мгс 1/90 ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">С ИНДЕЙКОЙ Папа может вар п/о 0,4кг 8шт. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ИТАЛЬЯНСКОЕ АССОРТИ с/в с/н мгс 1/90</t>
+  </si>
+  <si>
+    <t>6822 ИЗ ОТБОРНОГО МЯСА ПМ сос п/о мгс 0,36кг  Останкино</t>
+  </si>
+  <si>
+    <t>5224 ВЕТЧ.ИЗ ЛОПАТКИ Папа может п/о  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>ВЕТЧ.ИЗ ЛОПАТКИ Папа может п/о</t>
+  </si>
+  <si>
+    <t>СОСИСКИ МЯСНЫЕ ПМ сос  мгс 1,5 кг. ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>САЛЯМИ Папа может п/к в/у 0.28кг 8шт.</t>
+  </si>
+  <si>
+    <t>Химич согласовал</t>
+  </si>
+  <si>
+    <t>ротация Симф</t>
+  </si>
+  <si>
+    <t>6827 НЕЖНЫЙ пашт п/о 1/150 12шт  Останкино</t>
+  </si>
+  <si>
+    <t>6826 МЯСНОЙ пашт п/о 1/150 12шт  Останкино</t>
+  </si>
+  <si>
+    <t>6828 ПЕЧЕНОЧНЫЙ пашт п/о 1/150 12шт  Останкино</t>
+  </si>
+  <si>
+    <t>6769 СЕМЕЙНАЯ вар п/о  Останкино</t>
+  </si>
+  <si>
+    <t>6223 БАЛЫК И ШЕЙКА с/в с/н мгс 1/90 10 шт ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>БАЛЫК И ШЕЙКА с/в с/н мгс 1/90 10 шт</t>
+  </si>
+  <si>
+    <t>САЛЯМИ п/к в/у 0.28кг 8шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6790 СЕРВЕЛАТ ЕВРОПЕЙСКИЙ в/к в/у</t>
+  </si>
+  <si>
+    <t>6791 СЕРВЕЛАТ ПРЕМИУМ в/к в/у 0.33кг 8шт.</t>
+  </si>
+  <si>
+    <t>6792 СЕРВЕЛАТ ПРЕМИУМ в/к в/у</t>
+  </si>
+  <si>
+    <t>6793 БАЛЫКОВАЯ в/к в/у 0.33кг 8шт.</t>
+  </si>
+  <si>
+    <t>6794 БАЛЫКОВАЯ в/к в/у</t>
+  </si>
+  <si>
+    <t>6795 ОСТАНКИНСКАЯ в/к в/у 0.33кг 8шт.</t>
+  </si>
+  <si>
+    <t>6796 ОСТАНКИНСКАЯ в/к в/у</t>
+  </si>
+  <si>
+    <t>6804 СЕРВЕЛАТ КРЕМЛЕВСКИЙ в/к в/у 0.66кг 8шт.</t>
+  </si>
+  <si>
+    <t>6806 СЕРВЕЛАТ ЕВРОПЕЙСКИЙ в/к в/у 0.66кг 8шт.</t>
+  </si>
+  <si>
+    <t>6803 ВЕНСКАЯ САЛЯМИ п/к в/у 0.66кг 8шт.</t>
+  </si>
+  <si>
+    <t>6807 СЕРВЕЛАТ ЕВРОПЕЙСКИЙ в/к в/у 0.33кг 8шт.</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ ЕВРОПЕЙСКИЙ в/к в/у</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ ПРЕМИУМ в/к в/у 0.33кг 8шт.</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ ПРЕМИУМ в/к в/у</t>
+  </si>
+  <si>
+    <t>БАЛЫКОВАЯ в/к в/у 0.33кг 8шт.</t>
+  </si>
+  <si>
+    <t>БАЛЫКОВАЯ в/к в/у</t>
+  </si>
+  <si>
+    <t>ОСТАНКИНСКАЯ в/к в/у 0.33кг 8шт.</t>
+  </si>
+  <si>
+    <t>ОСТАНКИНСКАЯ в/к в/у</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ КРЕМЛЕВСКИЙ в/к в/у 0.66кг 8шт.</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ ЕВРОПЕЙСКИЙ в/к в/у 0.66кг 8шт.</t>
+  </si>
+  <si>
+    <t>ВЕНСКАЯ САЛЯМИ п/к в/у 0.66кг 8шт.</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ ЕВРОПЕЙСКИЙ в/к в/у 0.33кг 8шт.</t>
+  </si>
+  <si>
+    <t>6807 СЕРВЕЛАТ ЕВРОПЕЙСКИЙ в/к в/у 0,33кг 8шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ ЕВРОПЕЙСКИЙ в/к в/у 0,33кг 8шт.</t>
+  </si>
+  <si>
+    <t>6785 ВЕНСКАЯ САЛЯМИ п/к в/у 0.33кг 8шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>ВЕНСКАЯ САЛЯМИ п/к в/у 0.33кг 8шт.</t>
+  </si>
+  <si>
+    <t>6787 СЕРВЕЛАТ КРЕМЛЕВСКИЙ в/к в/у 0,33кг 8шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ КРЕМЛЕВСКИЙ в/к в/у 0.33кг 8шт.</t>
+  </si>
+  <si>
+    <t>6793 БАЛЫКОВАЯ в/к в/у 0,33кг 8шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6795 ОСТАНКИНСКАЯ в/к в/у 0,33кг 8шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6332 МЯСНАЯ Папа может вар п/о 0.5кг 8шт  </t>
+  </si>
+  <si>
+    <t>МЯСНАЯ Папа может вар п/о 0.5кг 8шт.</t>
+  </si>
+  <si>
+    <t>6345 ФИЛЕЙНАЯ Папа может вар п/о 0.5кг 8шт. </t>
+  </si>
+  <si>
+    <t>ФИЛЕЙНАЯ Папа может вар п/о 0.5кг 8шт.</t>
+  </si>
+  <si>
+    <t>6773 САЛЯМИ Папа может п/к в/у 0,28кг 8шт  Останкино</t>
+  </si>
+  <si>
+    <t>6528 ШПИКАЧКИ СОЧНЫЕ ПМ сар б/о мгс 0.4кг 45с  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>ШПИКАЧКИ СОЧНЫЕ ПМ сар б/о мгс 0.4кг_45с</t>
+  </si>
+  <si>
+    <t>6773 САЛЯМИ Папа может п/к в/у 0,28кг 8шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>БЕКОН СЫРОКОПЧЕНЫЙ НАРЕЗКА В/У (шт.0.180кг)</t>
+  </si>
+  <si>
+    <t>МОЛОЧНЫЕ КЛАССИЧЕСКИЕ сос п/о мгс 2*4_С</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           САЛЯМИ п/к в/у 0.28кг 8шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>СВИНИНА ПО-ДОМАШНЕМУ к/в мл/к в/у 0.3кг</t>
+  </si>
+  <si>
+    <t>БЕКОН с/к с/н в/у 1/180 10шт.</t>
+  </si>
+  <si>
+    <t>6761 МОЛОЧНЫЕ ГОСТ сос ц/о мгс 1*4</t>
+  </si>
+  <si>
+    <t>МОЛОЧНЫЕ ГОСТ сос ц/о мгс 1*4</t>
+  </si>
+  <si>
+    <t>6764 СЛИВОЧНЫЕ сос ц/о мгс 1*4</t>
+  </si>
+  <si>
+    <t>СЛИВОЧНЫЕ сос ц/о мгс 1*4</t>
+  </si>
+  <si>
+    <t>6790 СЕРВЕЛАТ ЕВРОПЕЙСКИЙ в/к в/у  Останкино</t>
+  </si>
+  <si>
+    <t>6791 СЕРВЕЛАТ ПРЕМИУМ в/к в/у 0,33кг 8шт  Останкино</t>
+  </si>
+  <si>
+    <t>6793 БАЛЫКОВАЯ в/к в/у 0,33кг 8шт  Останкино</t>
+  </si>
+  <si>
+    <t>6794 БАЛЫКОВАЯ в/к в/у  Останкино</t>
+  </si>
+  <si>
+    <t>6795 ОСТАНКИНСКАЯ в/к в/у 0,33кг 8шт  Останкино</t>
+  </si>
+  <si>
+    <t>6803 ВЕНСКАЯ САЛЯМИ п/к в/у 0,66кг 8шт  Останкино</t>
+  </si>
+  <si>
+    <t>6804 СЕРВЕЛАТ КРЕМЛЕВСКИЙ в/к в/у 0,66кг 8шт  Останкино</t>
+  </si>
+  <si>
+    <t>6807 СЕРВЕЛАТ ЕВРОПЕЙСКИЙ в/к в/у 0,33кг 8шт  Останкино</t>
+  </si>
+  <si>
+    <t>6796 ОСТАНКИНСКАЯ в/к в/у  Останкино</t>
+  </si>
+  <si>
+    <t>МОЛОЧНЫЕ КЛАССИЧЕСКИЕ сос п/о мгс 2*4</t>
+  </si>
+  <si>
     <t>СВИНИНА ДЕЛИКАТЕСНАЯ к/в мл/к в/у 0.3кг</t>
   </si>
   <si>
-    <t>6297 ФИЛЕЙНЫЕ сос ц/о в/у 1/270 12шт_45с  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>ФИЛЕЙНЫЕ сос ц/о в/у 1/270 12шт_45с</t>
-  </si>
-  <si>
-    <t>6325 ДОКТОРСКАЯ ПРЕМИУМ вар п/о 0.4кг 8шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>ДОКТОРСКАЯ ПРЕМИУМ вар п/о 0.4кг 8шт.</t>
-  </si>
-  <si>
-    <t>6333 МЯСНАЯ Папа может вар п/о 0.4кг 8шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>МЯСНАЯ Папа может вар п/о 0.4кг 8шт.</t>
-  </si>
-  <si>
-    <t>ФИЛЕЙНАЯ Папа может вар п/о 0.4кг 8шт.</t>
-  </si>
-  <si>
-    <t>6353 ЭКСТРА Папа может вар п/о 0.4кг 8шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>ЭКСТРА Папа может вар п/о 0.4кг 8шт.</t>
-  </si>
-  <si>
-    <t>СЕРВЕЛАТ КАРЕЛЬСКИЙ ПМ в/к в/у 0.28кг</t>
-  </si>
-  <si>
-    <t>СЕРВЕЛАТ ОХОТНИЧИЙ в/к в/у срез 0.35кг</t>
-  </si>
-  <si>
-    <t>СЕРВЕЛАТ ПРИМА в/к в/у 0.28кг 8шт.</t>
-  </si>
-  <si>
-    <t>БОЯNСКАЯ Папа может п/к в/у 0.28кг 8шт.</t>
-  </si>
-  <si>
-    <t>ВЕНСКАЯ САЛЯМИ п/к в/у 0.28кг 8шт.</t>
-  </si>
-  <si>
-    <t>6415 БАЛЫКОВАЯ Коровино п/к в/у 0.84кг 6шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>БАЛЫКОВАЯ Коровино п/к в/у 0.84кг 6шт.</t>
-  </si>
-  <si>
-    <t>6427 КЛАССИЧЕСКАЯ ПМ вар п/о 0.35кг 8шт. ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>КЛАССИЧЕСКАЯ ПМ вар п/о 0.35кг 8шт.</t>
-  </si>
-  <si>
-    <t>6438 БОГАТЫРСКИЕ Папа Может сос п/о в/у 0,3кг  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>БОГАТЫРСКИЕ Папа Может сос п/о в/у 0.3кг</t>
-  </si>
-  <si>
-    <t>6448 СВИНИНА МАДЕРА с/к с/н в/у 1/100 10шт.   ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>СВИНИНА МАДЕРА с/к с/н в/у 1/100</t>
-  </si>
-  <si>
-    <t>6450 БЕКОН с/к с/н в/у 1/100 10шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>БЕКОН с/к с/н в/у 1/100 10шт.</t>
-  </si>
-  <si>
-    <t>6453 ЭКСТРА Папа может с/к с/н в/у 1/100 14шт.   ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>ЭКСТРА Папа может с/к с/н в/у 1/100_60с</t>
-  </si>
-  <si>
-    <t>6454 АРОМАТНАЯ с/к с/н в/у 1/100 14шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>АРОМАТНАЯ с/к с/н в/у 1/100*8_60с</t>
-  </si>
-  <si>
-    <t>6475 С СЫРОМ Папа может сос ц/о мгс 0.4кг6шт  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>С СЫРОМ Папа может сос ц/о мгс 0.4кг 6шт</t>
-  </si>
-  <si>
-    <t>СЕРВЕЛАТ ФИНСКИЙ в/к в/у срез 0.35кг_45c</t>
-  </si>
-  <si>
-    <t>СЕРВЕЛАТ ЗЕРНИСТЫЙ ПМ в/к в/у срез 1/350</t>
-  </si>
-  <si>
-    <t>6517 БОГАТЫРСКИЕ Папа Может сос п/о 1*6  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>БОГАТЫРСКИЕ Папа Может сос п/о 1*6</t>
-  </si>
-  <si>
-    <t>6527 ШПИКАЧКИ СОЧНЫЕ ПМ сар б/о мгс 1*3 45с ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>ШПИКАЧКИ СОЧНЫЕ ПМ САР Б/О МГС 1*3 45с</t>
-  </si>
-  <si>
-    <t>СЕРВЕЛАТ ФИНСКИЙ СН в/к п/о 0.35кг 8шт</t>
-  </si>
-  <si>
-    <t>СЕРВЕЛАТ ОРЕХОВЫЙ СН в/к п/о 0,35кг 8шт</t>
-  </si>
-  <si>
-    <t>6562 СЕРВЕЛАТ КАРЕЛЬСКИЙ СН в/к в/у 0,28кг  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>СЕРВЕЛАТ КАРЕЛЬСКИЙ СН в/к в/у 0.28к</t>
-  </si>
-  <si>
-    <t>6563 СЛИВОЧНЫЕ СН сос п/о мгс 1*6  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>СЛИВОЧНЫЕ СН сос п/о мгс 1*6</t>
-  </si>
-  <si>
-    <t>6589 МОЛОЧНЫЕ ГОСТ СН сос п/о мгс 0.41кг 10шт  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>МОЛОЧНЫЕ ГОСТ СН сос п/о мгс 0.41кг 10шт</t>
-  </si>
-  <si>
-    <t>6590 СЛИВОЧНЫЕ СН сос п/о мгс 0.41кг 10шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>СЛИВОЧНЫЕ СН сос п/о мгс 0.41кг 10шт.</t>
-  </si>
-  <si>
-    <t>6592 ДОКТОРСКАЯ СН вар п/о  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>ДОКТОРСКАЯ СН вар п/о</t>
-  </si>
-  <si>
-    <t>6594 МОЛОЧНАЯ СН вар п/о  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>МОЛОЧНАЯ СН вар п/о</t>
-  </si>
-  <si>
-    <t>6601 ГОВЯЖЬИ СН сос п/о мгс 1*6  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>ГОВЯЖЬИ СН сос п/о мгс 1*6</t>
-  </si>
-  <si>
-    <t>6636 БАЛЫКОВАЯ СН в/к п/о 0,35кг 8шт  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>БАЛЫКОВАЯ СН в/к п/о 0.35кг 8шт</t>
-  </si>
-  <si>
-    <t>6648 СОЧНЫЕ Папа может сар п/о мгс 1*3  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>СОЧНЫЕ Папа может сар п/о мгс 1*3</t>
-  </si>
-  <si>
-    <t>6650 СОЧНЫЕ С СЫРОМ ПМ сар п/о мгс 1*3  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>СОЧНЫЕ С СЫРОМ ПМ сар п/о мгс 1*3</t>
-  </si>
-  <si>
-    <t>6658 АРОМАТНАЯ С ЧЕСНОЧКОМ СН в/к мтс 0.330кг  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> АРОМАТНАЯ С ЧЕСНОЧКОМ СН в/к мтс 0.330кг</t>
-  </si>
-  <si>
-    <t>6593 ДОКТОРСКАЯ СН вар п/о 0.45кг 8шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>ДОКТОРСКАЯ СН вар п/о 0.45кг 8шт</t>
-  </si>
-  <si>
-    <t>6595 МОЛОЧНАЯ СН вар п/о 0.45кг 8шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>МОЛОЧНАЯ СН вар п/о 0.45кг 8шт.</t>
-  </si>
-  <si>
-    <t>6597 РУССКАЯ СН вар п/о 0.45кг 8шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>РУССКАЯ СН вар п/о 0.45кг 8шт.</t>
-  </si>
-  <si>
-    <t>6641 СЛИВОЧНЫЕ ПМ сос п/о мгс 0,41кг 10шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>СЛИВОЧНЫЕ ПМ сос п/о мгс 0,41кг 10шт.</t>
-  </si>
-  <si>
-    <t>СОЧНЫЙ ГРИЛЬ ПМ сос п/о мгс 0,41кг 8шт.</t>
-  </si>
-  <si>
-    <t>СОСИСКА.РУ сос ц/о в/у 1/300 8шт.</t>
-  </si>
-  <si>
-    <t>6646 СОСИСКА.РУ сос ц/о в/у 1/300 8шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6566 СЕРВЕЛАТ С БЕЛ.ГРИБАМИ в/к в/у 0,31кг  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>СЕРВЕЛАТ С БЕЛ.ГРИБАМИ в/к в/у 0.31кг</t>
-  </si>
-  <si>
-    <t>6684 СЕРВЕЛАТ КАРЕЛЬСКИЙ ПМ в/к в/у 0.28кг  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6692 СЕРВЕЛАТ ПРИМА в/к в/у 0.28кг 8шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6669 ВЕНСКАЯ САЛЯМИ п/к в/у 0.28кг 8шт  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6683 СЕРВЕЛАТ ЗЕРНИСТЫЙ ПМ в/к в/у 0,35кг  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6689 СЕРВЕЛАТ ОХОТНИЧИЙ ПМ в/к в/у 0,35кг 8шт  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6697 СЕРВЕЛАТ ФИНСКИЙ ПМ в/к в/у 0,35кг 8шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>СОЧНЫЕ ПМ сос п/о мгс 0,41кг 10шт</t>
-  </si>
-  <si>
-    <t>6392 ФИЛЕЙНАЯ Папа может вар п/о 0.4кг. ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6644 СОЧНЫЕ ПМ сос п/о мгс 0,41кг 10шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6666 БОЯНСКАЯ Папа может п/к в/у 0,28кг 8 шт. ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>ГОВЯЖЬЯ Папа может вар п/о 0.4кг 8шт</t>
-  </si>
-  <si>
-    <t>6268 ГОВЯЖЬЯ Папа может вар п/о 0,4кг 8 шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>5981 МОЛОЧНЫЕ ТРАДИЦ. сос п/о мгс 1*6_45с   ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>МОЛОЧНЫЕ ТРАДИЦ. сос п/о мгс 1*6_45с</t>
-  </si>
-  <si>
-    <t>6247 ДОМАШНЯЯ Папа может вар п/о 0,4кг 8шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>ДОМАШНЯЯ Папа может вар п/о 0,4кг 8шт.</t>
-  </si>
-  <si>
-    <t>МОЛОЧНЫЕ К ЗАВТРАКУ сос п/о мгс 1*3</t>
-  </si>
-  <si>
-    <t>6041 МОЛОЧНЫЕ К ЗАВТРАКУ сос п/о мгс 1*3  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6227 МОЛОЧНЫЕ ТРАДИЦ. сос п/о мгс 0.6кг LTF  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>МОЛОЧНЫЕ ТРАДИЦ. сос п/о мгс 0.6кг LTF</t>
-  </si>
-  <si>
-    <t>ШПИКАЧКИ ДОМАШНИЕ СН п/о мгс 0.4кг 8шт.</t>
-  </si>
-  <si>
-    <t>6217 ШПИКАЧКИ ДОМАШНИЕ СН п/о мгс 0.4кг 8шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6661 СОЧНЫЙ ГРИЛЬ ПМ сос п/о мгс 1.5*4_Маяк  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>3812 СОЧНЫЕ сос п/о мгс 2*2  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6113 СОЧНЫЕ сос п/о мгс 1*6_Ашан  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>СОЧНЫЙ ГРИЛЬ ПМ сос п/о мгс 1.5*4_Маяк</t>
-  </si>
-  <si>
-    <t>6241 ХОТ-ДОГ Папа может сос п/о мгс 0.38кг  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6213 СЕРВЕЛАТ ФИНСКИЙ СН в/к в/у 0.35кг 8шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6215 СЕРВЕЛАТ ОРЕХОВЫЙ СН в/к в/у 0.35кг 8шт  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6713 СОЧНЫЙ ГРИЛЬ ПМ сос п/о мгс 0.41кг 8шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>ХОТ-ДОГ Папа может сос п/о мгс 0,38кг</t>
-  </si>
-  <si>
-    <t>ВРЕМЯ ОЛИВЬЕ Папа может вар п/о 0.4кг</t>
-  </si>
-  <si>
-    <t>К ЧАЮ Советское наследие вар н/о мгс</t>
-  </si>
-  <si>
-    <t>ОСОБАЯ Коровино (в сетке) 0.5кг 8шт.</t>
-  </si>
-  <si>
-    <t>МОЛОЧНЫЕ ТРАДИЦ. сос п/о в/у 1/360 (1+1)</t>
-  </si>
-  <si>
-    <t>БАЛЫКОВАЯ СН в/к в/у</t>
-  </si>
-  <si>
-    <t>СЕРВЕЛАТ ФИНСКИЙ СН в/к в/у</t>
-  </si>
-  <si>
-    <t>6144 МОЛОЧНЫЕ ТРАДИЦ сос п/о в/у 1/360 (1+1) ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6158 ВРЕМЯ ОЛИВЬЕ Папа может вар п/о 0.4кг   ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6212 СЕРВЕЛАТ ФИНСКИЙ СН в/к в/у  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6259 К ЧАЮ Советское наследие вар н/о мгс  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6301 БАЛЫКОВАЯ СН в/к в/у  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6716 ОСОБАЯ Коровино (в сетке) 0.5кг 8шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6303 МЯСНЫЕ Папа может сос п/о мгс 1.5*3  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6606 СЫТНЫЕ Папа может сар б/о мгс 1*3 45с  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>МЯСНЫЕ Папа может сос п/о мгс 1.5*3</t>
-  </si>
-  <si>
-    <t>СЫТНЫЕ Папа может сар б/о мгс 1*3 45с</t>
-  </si>
-  <si>
-    <t>6302 БАЛЫКОВАЯ СН в/к в/у 0.35кг 8шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>ВЕТЧ.КЛАССИЧЕСКАЯ СН п/о 0.8кг 4шт.</t>
-  </si>
-  <si>
-    <t>6645 ВЕТЧ.КЛАССИЧЕСКАЯ СН п/о 0.8кг 4шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>МЯСНОЕ АССОРТИ к/з с/н мгс 1/90 10шт.</t>
-  </si>
-  <si>
-    <t>6228 МЯСНОЕ АССОРТИ к/з с/н мгс 1/90 10шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6225 ИМПЕРСКАЯ И БАЛЫКОВАЯ в/к с/н мгс 1/90  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6722 СОЧНЫЕ ПМ сос п/о мгс 0,41кг 10шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>3297 СЫТНЫЕ Папа может сар б/о мгс 1*3 СНГ  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>СЫТНЫЕ Папа может сар б/о мгс 1*3 СНГ</t>
-  </si>
-  <si>
-    <t>3297 СЫТНЫЕ Папа может сар б/о мгс 1*3 СНГ  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6722 СОЧНЫЕ ПМ сос п/о мгс 0,41кг 10шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6726 СЛИВОЧНЫЕ ПМ сос п/о мгс 0.41кг 10шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6602 БАВАРСКИЕ ПМ сос ц/о мгс 0,35кг 8шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>БУЖЕНИНА ЗАПЕЧЕННАЯ с/н в/у 1/100 10шт.</t>
-  </si>
-  <si>
-    <t>6233 БУЖЕНИНА ЗАПЕЧЕННАЯ с/н в/у 1/100 10шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6734 ОСОБАЯ СО ШПИКОМ Коровино (в сетке) 0,5кг ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>ОСОБАЯ СО ШПИКОМ Коровино (в сетке) 0,5кг</t>
-  </si>
-  <si>
-    <t>6750 МОЛОЧНЫЕ ГОСТ СН сос п/о мгс 0,41 кг 10шт ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6751 СЛИВОЧНЫЕ СН сос п/о мгс 0,41кг 10шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>5982 МОЛОЧНЫЕ ТРАДИЦ. сос п/о мгс 0,6кг_СНГ  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>МОЛОЧНЫЕ ТРАДИЦ. сос п/о мгс 0,6кг_СНГ</t>
-  </si>
-  <si>
-    <t>5982 МОЛОЧНЫЕ ТРАДИЦ. сос п/о мгс 0,6кг_СНГ  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6025 ВЕТЧ.ФИРМЕННАЯ С ИНДЕЙКОЙ п/о   ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>ВЕТЧ.ФИРМЕННАЯ С ИНДЕЙКОЙ п/о</t>
-  </si>
-  <si>
-    <t>6756 ВЕТЧ.ЛЮБИТЕЛЬСКАЯ п/о  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>НЕАПОЛИТАНСКИЙ ДУЭТ с/к с/н мгс 1/90</t>
-  </si>
-  <si>
-    <t>6221 НЕАПОЛИТАНСКИЙ ДУЭТ с/к с/н мгс 1/90  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6025 ВЕТЧ.ФИРМЕННАЯ С ИНДЕЙКОЙ п/о   ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6221 НЕАПОЛИТАНСКИЙ ДУЭТ с/к с/н мгс 1/90  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>3297 СЫТНЫЕ Папа может сар б/о мгс 1*3_СНГ  Останкино</t>
-  </si>
-  <si>
-    <t>СЫТНЫЕ Папа может сар б/о мгс 1*3</t>
-  </si>
-  <si>
-    <t>3812 СОЧНЫЕ сос п/о мгс 2*2  Останкино</t>
-  </si>
-  <si>
-    <t>5159 Нежный пашт п/о 1/150 16шт.   ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>5160 Мясной пашт п/о 0,150 ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>5161 Печеночный пашт 0,150 ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>5965 С ИНДЕЙКОЙ Папа может сар б/о мгс 1*3  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>С ИНДЕЙКОЙ Папа может сар б/о мгс 1*3</t>
-  </si>
-  <si>
-    <t>6159 ВРЕМЯ ОЛИВЬЕ Папа может вар п/о  Останкино</t>
-  </si>
-  <si>
-    <t>ВРЕМЯ ОЛИВЬЕ Папа может п/о</t>
-  </si>
-  <si>
-    <t>6217 ШПИКАЧКИ ДОМАШНИЕ СН п/о мгс 0,4кг 8 шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6220 ГОВЯЖЬЯ папа может вар п/о  Останкино</t>
-  </si>
-  <si>
-    <t>ГОВЯЖЬЯ Папа может вар п/о</t>
-  </si>
-  <si>
-    <t>6236 СЛИВОЧНЫЕ ПМ сос п/о мгс 0,45кг 10шт  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>СЛИВОЧНЫЕ ПМ сос п/о мгс 0.450кг_45с</t>
-  </si>
-  <si>
-    <t>6602 БАВАРСКИЕ ПМ сос ц/о мгс 0,35кг 8шт  Останкино</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> БАВАРСКИЕ ПМ сос ц/о мгс 0.35кг 8шт.</t>
-  </si>
-  <si>
-    <t>6656 ГОВЯЖЬИ СН сос п/о мгс 2*2  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>ГОВЯЖЬИ СН сос п/о мгс 2*2</t>
-  </si>
-  <si>
-    <t>6684 СЕРВЕЛАТ КАРЕЛЬСКИЙ ПМ в/к в/у 0,28кг  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6697 СЕРВЕЛАТ ФИНСКИЙ ПМ в/к в/у 0,35кг 8шт  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>СЕРВЕЛАТ ФИНСКИЙ ПМ в/к в/у 0.35кг 8шт.</t>
-  </si>
-  <si>
-    <t>6713 СОЧНЫЙ ГРИЛЬ ПМ сос п/о мгс 0,41кг 8 шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>СОЧНЫЙ ГРИЛЬ ПМ сос п/о мгс 0.41кг 8шт.</t>
-  </si>
-  <si>
-    <t>6716 ОСОБАЯ Коровино ( в сетке) 0,5кг 8шт  Останкино</t>
-  </si>
-  <si>
-    <t>6722 СОЧНЫЕ ПМ сос п/о мгс 0,41кг 10шт  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>СОЧНЫЕ ПМ сос п/о мгс 0.41кг 10шт.</t>
-  </si>
-  <si>
-    <t>6751 СЛИВОЧНЫЕ СН сос п/о мгс 0,41 кг 10шт.  Останкино</t>
-  </si>
-  <si>
-    <t>5819 МЯСНЫЕ Папа может сос п/о в/у 0.4кг_45с</t>
-  </si>
-  <si>
-    <t>МЯСНЫЕ Папа может сос п/о в/у 0.4кг_45с</t>
-  </si>
-  <si>
-    <t>5337 ОСОБАЯ СО ШПИКОМ вар п/о</t>
-  </si>
-  <si>
-    <t>5336 ОСОБАЯ вар п/о</t>
-  </si>
-  <si>
-    <t>5811 СВИНИНА МАДЕРА с/к с/н в/у 1/100 8шт.   ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>5819 Сосиски Папа может 400г Мясные  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6027 ВЕТЧ.ИЗ ЛОПАТКИ Папа может п/о 400*6  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>ВЕТЧ.ИЗ ЛОПАТКИ Папа может п/о 400*6</t>
-  </si>
-  <si>
-    <t>6213 СЕРВЕЛАТ ФИНСКИЙ СН в/к в/у 0,35кг 8шт  Останкино</t>
-  </si>
-  <si>
-    <t>6303 Мясные Папа может сос п/о мгс 1,5*3  Останкино</t>
-  </si>
-  <si>
-    <t>6308 С ИНДЕЙКОЙ ПМ сар б/о мгс 1*3_СНГ  Останкино</t>
-  </si>
-  <si>
-    <t>6392 ФИЛЕЙНАЯ Папа может вар п/о 0,4кг  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6448 Свинина Останкино 100г Мадера с/к в/у нарезка  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6450 БЕКОН с/к с/н в/у 1/100 10шт.</t>
-  </si>
-  <si>
-    <t>6454 АРОМАТНАЯ с/к с/н в/у 1/100 10шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6475 Сосиски Папа может 400г С сыром  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6498 МОЛОЧНАЯ Папа может вар п/о  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>МОЛОЧНАЯ Папа может вар п/о</t>
-  </si>
-  <si>
-    <t>6596 РУССКАЯ СН вар п/о  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> РУССКАЯ СН вар п/о</t>
-  </si>
-  <si>
-    <t>6607 С ГОВЯДИНОЙ ПМ сар б/о мгс 1*3_45с</t>
-  </si>
-  <si>
-    <t>С ГОВЯДИНОЙ ПМ сар б/о мгс 1*3_45с</t>
-  </si>
-  <si>
-    <t>6609 С ГОВЯДИНОЙ ПМ сар б/о мгс 0,4 кг_45с</t>
-  </si>
-  <si>
-    <t>С ГОВЯДИНОЙ ПМ сар б/о мгс 0.4кг_45с</t>
-  </si>
-  <si>
-    <t>6666 БОЯNСКАЯ Папа может п/к в/у 0,28кг 8шт  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6669 ВЕНСКАЯ САЛЯМИ п/к в/у 0,28кг 8шт  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6755 ВЕТЧ.ЛЮБИТЕЛЬСКАЯ п/о 0,4кг 10шт.  Останкино</t>
-  </si>
-  <si>
-    <t>6756 ВЕТЧ.ЛЮБИТЕЛЬСКАЯ п/о  Останкино</t>
-  </si>
-  <si>
-    <t>6550 МЯСНЫЕ Папа может сар б/о мгс  1*3_О_45с</t>
-  </si>
-  <si>
-    <t>МЯСНЫЕ Папа может сар б/о мгс  1*3_О_45с</t>
-  </si>
-  <si>
-    <t>6365 СЕРВЕЛАТ КАРЕЛЬСКИЙ ПМ в/к в/у 0.28кг  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>3248 ДОКТОРСКАЯ ТРАДИЦ. вар п/о ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>ДОКТОРСКАЯ ТРАДИЦ. вар п/о</t>
-  </si>
-  <si>
-    <t>5206 Ладожская с/к в/у ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>ЛАДОЖСКАЯ с/к в/у</t>
-  </si>
-  <si>
-    <t>6586 Мрамарная и Балыковая в/к с/н мгс 1/90  Останкино</t>
-  </si>
-  <si>
-    <t>Мрамарная и Балыковая в/к с/н мгс 1/90</t>
-  </si>
-  <si>
-    <t>6467 БАЛЫКОВАЯ Коровино п/к в/у  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>БАЛЫКОВАЯ Коровино п/к в/у</t>
-  </si>
-  <si>
-    <t>6661 СОЧНЫЙ ГРИЛЬ ПМ сос п/о мгс 1,5*4_Маяк Останкино</t>
-  </si>
-  <si>
-    <t>СОЧНЫЙ ГРИЛЬ ПМ сос п/о мгс 1,5*4_Маяк</t>
-  </si>
-  <si>
-    <t>6701 СЕРВЕЛАТ ШВАРЦЕР ПМ в/к в/у 0.28кг 8шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>СЕРВЕЛАТ ШВАРЦЕР ПМ в/к в/у 0.28кг 8шт.</t>
-  </si>
-  <si>
-    <t>6144МОЛОЧНЫЕ ТРАДИЦ. сос п/о в/у 1/360 (1+1)</t>
-  </si>
-  <si>
-    <t>6144 МОЛОЧНЫЕ ТРАДИЦ. сос п/ов/у 1/360 (1+1)</t>
-  </si>
-  <si>
-    <t>5819МЯСНЫЕ Папа может сос п/о в/у 0.4кг_45с</t>
-  </si>
-  <si>
-    <t>6303 МЯСНЫЕ Папа может сос п/о мгс  1.5*3</t>
-  </si>
-  <si>
-    <t>МЯСНЫЕ Папа может сос п/о мгс  1.5*3</t>
-  </si>
-  <si>
-    <t>3678 СОЧНЫЕ сос п/о мгс 2*2     ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6062 МОЛОЧНЫЕ К ЗАВТРАКУ сос п/о мгс 2*2   ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>МОЛОЧНЫЕ К ЗАВТРАКУ сос п/о мгс 2*2</t>
-  </si>
-  <si>
-    <t>6364 СЕРВЕЛАТ ЗЕРНИСТЫЙ ПМ в/к в/у 0.35кг  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6372 СЕРВЕЛАТ ОХОТНИЧИЙ ПМ в/к в/у 0.35кг 8шт  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6375 СЕРВЕЛАТ ПРИМА в/к в/у 0.28кг 8шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6509 СЕРВЕЛАТ ФИНСКИЙ ПМ в/к в/у 0.35кг 8шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6397 БОЯNСКАЯ Папа может п/к в/у 0.28кг 8шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>4574 Колбаса вар Мясная со шпиком 1кг Папа может п/о (код покуп. 24784) Останкино</t>
-  </si>
-  <si>
-    <t>6734 ОСОБАЯ СО ШПИКОМ Коровино(в сетке) 0,5кг  Останкино</t>
-  </si>
-  <si>
-    <t>5452 ВЕТЧ.МЯСНАЯ Папа может п/о    ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>ВЕТЧ.МЯСНАЯ Папа может п/о</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ОСОБАЯ СО ШПИКОМ Коровино(в сетке) 0.5кг</t>
-  </si>
-  <si>
-    <t>6144 МОЛОЧНЫЕ ТРАДИЦ. сос п/о в/у 1/360 (1+1)  Останкино</t>
-  </si>
-  <si>
-    <t>6225 ИМПЕРСКАЯ И БАЛЫКОВАЯ в/к с/н мгс 1/90  Останкино</t>
-  </si>
-  <si>
-    <t>6400 ВЕНСКАЯ САЛЯМИ п/к в/у 0.28кг 8шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6384 СЕРВЕЛАТ ШВАРЦЕР ПМ в/к в/у 0.28кг 8шт.  ОСТАНКИНО, шт</t>
-  </si>
-  <si>
-    <t>5015 БУРГУНДИЯ с/к в/у 1/250 ОСТАНКИНО, шт</t>
-  </si>
-  <si>
-    <t>БУРГУНДИЯ с/к в/у 1/250 8шт.</t>
-  </si>
-  <si>
-    <t>ИМПЕРСКАЯ И БАЛЫКОВАЯ в/к с/н мгс 1/90</t>
-  </si>
-  <si>
-    <t>3287 САЛЯМИ ИТАЛЬЯНСКАЯ с/к в/у ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>САЛЯМИ ИТАЛЬЯНСКАЯ с/к в/у</t>
-  </si>
-  <si>
-    <t>6228 МЯСНОЕ АССОРТИ к/з с/н мгс 1/90 10шт  Останкино</t>
-  </si>
-  <si>
-    <t>6550 МЯСНЫЕ Папа может сар б/о мгс 1*3 О 45с  Останкино</t>
-  </si>
-  <si>
-    <t>6758 СЕРВЕЛАТ КОПЧЕНЫЙ п/к в/у 0,31кг 8шт  Останкино</t>
-  </si>
-  <si>
-    <t>СЕРВЕЛАТ КОПЧЕНЫЙ п/к в/у 0,31кг 8шт</t>
-  </si>
-  <si>
-    <t>5976 МОЛОЧНЫЕ ТРАДИЦ. сос п/о в/у 1/350_45с  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>МОЛОЧНЫЕ ТРАДИЦ. сос п/о в/у 1/350_45с</t>
-  </si>
-  <si>
-    <t>6586 МРАМОРНАЯ И БАЛЫКОВАЯ в/к с/н мгс 1/90 ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>МРАМОРНАЯ И БАЛЫКОВАЯ в/к с/н мгс 1/90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БАВАРСКИЕ ПМ сос ц/о мгс 0,35кг 8шт.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1001225416228  </t>
-  </si>
-  <si>
-    <t>ВЕТЧ.ЛЮБИТЕЛЬСКАЯ п/о 0.4кг 10шт.</t>
-  </si>
-  <si>
-    <t>6026 ВЕТЧ.ОСОБАЯ Коровино п/о   ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>ВЕТЧ.ОСОБАЯ Коровино вар п/о</t>
-  </si>
-  <si>
-    <t>6586 МРАМОРНАЯ И БАЛЫКОВАЯ в/к с/н мгс 1/90  Останкино</t>
-  </si>
-  <si>
-    <t>ШПИКАЧКИ ДОМАШНИЕ СН п/о мгс 0.4кг 7шт.</t>
-  </si>
-  <si>
-    <t>6470 ВЕТЧ.МРАМОРНАЯ в/у_45с  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВЕТЧ.МРАМОРНАЯ в/у_45с </t>
-  </si>
-  <si>
-    <t>СЛИВОЧНЫЕ ПМ сос п/о мгс 0.41кг 10шт.</t>
-  </si>
-  <si>
-    <t>6726 СЛИВОЧНЫЕ ПМ сос п/о мгс 0.41кг 10шт.</t>
-  </si>
-  <si>
-    <t>ОХОТНИЧЬЯ Папа может с/к в/у 1/220 8шт. (5931)</t>
-  </si>
-  <si>
-    <t>ЭКСТРА Папа может с/к с/н в/у 1/100 14шт (6453)</t>
-  </si>
-  <si>
-    <t>ПОСОЛЬСКАЯ с/к с/н в/у 1/100 10шт.</t>
-  </si>
-  <si>
-    <t>ПОСОЛЬСКАЯ с/к с/н в/у 1/100 10шт. (6555)</t>
-  </si>
-  <si>
-    <t>ВРЕМЯ ОКРОШКИ Папа может вар п/о 0,4кг</t>
-  </si>
-  <si>
-    <t>5992ВРЕМЯ ОКРОШКИ Папа может вар п/о 0.4кг</t>
-  </si>
-  <si>
-    <t>ВРЕМЯ ОКРОШКИ Папа может вар п/о</t>
-  </si>
-  <si>
-    <t>5993 ВРЕМЯ ОКРОШКИ Папа может вар п/о</t>
-  </si>
-  <si>
-    <t>6776 ХОТ-ДОГ Папа может сос п/о мгс 0.35кг  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>ХОТ-ДОГ Папа может сос п/о мгс 0.35кг</t>
-  </si>
-  <si>
-    <t>6777 МЯСНЫЕ С ГОВЯДИНОЙ ПМ сос п/о мгс 0.4кг  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>МЯСНЫЕ С ГОВЯДИНОЙ ПМ сос п/о мгс 0.4кг</t>
-  </si>
-  <si>
-    <t>6822 ИЗ ОТБОРНОГО МЯСА ПМ сос п/о мгс 0,36кг  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>ИЗ ОТБОРНОГО МЯСА ПМ сос п/о мгс 0,36кг</t>
-  </si>
-  <si>
-    <t>ВРЕМЯ ОКРОШКИ Папа может вар п/о 0.4кг</t>
-  </si>
-  <si>
-    <t>5992 ВРЕМЯ ОКРОШКИ Папа может вар п/о 0.4кг   ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>МОЛОЧНЫЕ КЛАССИЧЕСКИЕ сос п/о в/у 0.3кг</t>
-  </si>
-  <si>
-    <t>6616 МОЛОЧНЫЕ КЛАССИЧЕСКИЕ сос п/о в/у 0.3кг  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>РУССКАЯ ПРЕМИУМ ПМ вар ф/о в/у</t>
-  </si>
-  <si>
-    <t>6747 РУССКАЯ ПРЕМИУМ ПМ вар ф/о в/у  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6445 БЕКОН с/к с/н в/у 1/180 10шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БЕКОН с/к с/н в/у 1/180 10шт. </t>
-  </si>
-  <si>
-    <t>6555 ПОСОЛЬСКАЯ с/к с/н в/у 1/100 10шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>5993 ВРЕМЯ ОКРОШКИ Папа может вар п/о   ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6726 СЛИВОЧНЫЕ ПМ сос п/о мгс 0,41кг 10шт  Останкино</t>
-  </si>
-  <si>
-    <t>6776 ХОТ-ДОГ Папа может сос п/о мгс 0,35кг  Останкино</t>
-  </si>
-  <si>
-    <t>6777 МЯСНЫЕ С ГОВЯДИНОЙ ПМ сос п/о мгс 0,4кг  Останкино</t>
-  </si>
-  <si>
-    <t>6778 МЯСНИКС Папа Может сос б/о мгс 1/160  Останкино</t>
-  </si>
-  <si>
-    <t>МЯСНИКС Папа Может сос б/о мгс 1/160</t>
-  </si>
-  <si>
-    <t>Сервелат с белыми грибами в/к в/у 1/310 6шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Сосиски Сочные ГРИЛЬ   сос п/о мгс 1*6  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>Сервелат копченый на буке Папа может в/к в/у 1/350 6шт.   ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>СЕРВЕЛАТ КОПЧЕНЫЙ НА БУКЕ в/к в/у 0.35кг</t>
-  </si>
-  <si>
-    <t>МОЛОЧНЫЕ ТРАДИЦ. сос п/о мгс 0.6кг_45с</t>
-  </si>
-  <si>
-    <t>6042 МОЛОЧНЫЕ ТРАДИЦ.  сос п/о мгс.  0.6кг _LTF</t>
-  </si>
-  <si>
-    <t>6822ИЗ ОТБОРНОГО МЯСА ПМ сосп/о мгс 0.36кг</t>
-  </si>
-  <si>
-    <t>6822ИЗ ОТБОРНОГО МЯСА ПМ сос п/о мгс 0.36кг</t>
-  </si>
-  <si>
-    <t>СЕМЕЙНАЯ вар п/о</t>
-  </si>
-  <si>
-    <t>6769 СЕМЕЙНАЯ вар п/о  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6798 ВРЕМЯ ОКРОШКИ Папа может вар п/о 0,75 кг  Останкино</t>
-  </si>
-  <si>
-    <t>ВРЕМЯ ОКРОШКИ Папа может вар п/о 0.75кг</t>
-  </si>
-  <si>
-    <t>НЕЖНЫЙ пашт п/о 1/150 12шт.</t>
-  </si>
-  <si>
-    <t>МЯСНОЙ пашт п/о 1/150 12шт.</t>
-  </si>
-  <si>
-    <t>ПЕЧЕНОЧНЫЙ пашт п/о 1/150 12шт.</t>
-  </si>
-  <si>
-    <t>6797 С ИНДЕЙКОЙ Папа может вар п/о 0,4кг 8шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6222 ИТАЛЬЯНСКОЕ АССОРТИ с/в с/н мгс 1/90 ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t xml:space="preserve">С ИНДЕЙКОЙ Папа может вар п/о 0,4кг 8шт. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ИТАЛЬЯНСКОЕ АССОРТИ с/в с/н мгс 1/90</t>
-  </si>
-  <si>
-    <t>6822 ИЗ ОТБОРНОГО МЯСА ПМ сос п/о мгс 0,36кг  Останкино</t>
-  </si>
-  <si>
-    <t>5224 ВЕТЧ.ИЗ ЛОПАТКИ Папа может п/о  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>ВЕТЧ.ИЗ ЛОПАТКИ Папа может п/о</t>
-  </si>
-  <si>
-    <t>СОСИСКИ МЯСНЫЕ ПМ сос  мгс 1,5 кг. ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>САЛЯМИ Папа может п/к в/у 0.28кг 8шт.</t>
-  </si>
-  <si>
-    <t>Химич согласовал</t>
-  </si>
-  <si>
-    <t>ротация Симф</t>
-  </si>
-  <si>
-    <t>6827 НЕЖНЫЙ пашт п/о 1/150 12шт  Останкино</t>
-  </si>
-  <si>
-    <t>6826 МЯСНОЙ пашт п/о 1/150 12шт  Останкино</t>
-  </si>
-  <si>
-    <t>6828 ПЕЧЕНОЧНЫЙ пашт п/о 1/150 12шт  Останкино</t>
-  </si>
-  <si>
-    <t>6769 СЕМЕЙНАЯ вар п/о  Останкино</t>
-  </si>
-  <si>
-    <t>6223 БАЛЫК И ШЕЙКА с/в с/н мгс 1/90 10 шт ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>БАЛЫК И ШЕЙКА с/в с/н мгс 1/90 10 шт</t>
-  </si>
-  <si>
-    <t>САЛЯМИ п/к в/у 0.28кг 8шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6790 СЕРВЕЛАТ ЕВРОПЕЙСКИЙ в/к в/у</t>
-  </si>
-  <si>
-    <t>6791 СЕРВЕЛАТ ПРЕМИУМ в/к в/у 0.33кг 8шт.</t>
-  </si>
-  <si>
-    <t>6792 СЕРВЕЛАТ ПРЕМИУМ в/к в/у</t>
-  </si>
-  <si>
-    <t>6793 БАЛЫКОВАЯ в/к в/у 0.33кг 8шт.</t>
-  </si>
-  <si>
-    <t>6794 БАЛЫКОВАЯ в/к в/у</t>
-  </si>
-  <si>
-    <t>6795 ОСТАНКИНСКАЯ в/к в/у 0.33кг 8шт.</t>
-  </si>
-  <si>
-    <t>6796 ОСТАНКИНСКАЯ в/к в/у</t>
-  </si>
-  <si>
-    <t>6804 СЕРВЕЛАТ КРЕМЛЕВСКИЙ в/к в/у 0.66кг 8шт.</t>
-  </si>
-  <si>
-    <t>6806 СЕРВЕЛАТ ЕВРОПЕЙСКИЙ в/к в/у 0.66кг 8шт.</t>
-  </si>
-  <si>
-    <t>6803 ВЕНСКАЯ САЛЯМИ п/к в/у 0.66кг 8шт.</t>
-  </si>
-  <si>
-    <t>6807 СЕРВЕЛАТ ЕВРОПЕЙСКИЙ в/к в/у 0.33кг 8шт.</t>
-  </si>
-  <si>
-    <t>СЕРВЕЛАТ ЕВРОПЕЙСКИЙ в/к в/у</t>
-  </si>
-  <si>
-    <t>СЕРВЕЛАТ ПРЕМИУМ в/к в/у 0.33кг 8шт.</t>
-  </si>
-  <si>
-    <t>СЕРВЕЛАТ ПРЕМИУМ в/к в/у</t>
-  </si>
-  <si>
-    <t>БАЛЫКОВАЯ в/к в/у 0.33кг 8шт.</t>
-  </si>
-  <si>
-    <t>БАЛЫКОВАЯ в/к в/у</t>
-  </si>
-  <si>
-    <t>ОСТАНКИНСКАЯ в/к в/у 0.33кг 8шт.</t>
-  </si>
-  <si>
-    <t>ОСТАНКИНСКАЯ в/к в/у</t>
-  </si>
-  <si>
-    <t>СЕРВЕЛАТ КРЕМЛЕВСКИЙ в/к в/у 0.66кг 8шт.</t>
-  </si>
-  <si>
-    <t>СЕРВЕЛАТ ЕВРОПЕЙСКИЙ в/к в/у 0.66кг 8шт.</t>
-  </si>
-  <si>
-    <t>ВЕНСКАЯ САЛЯМИ п/к в/у 0.66кг 8шт.</t>
-  </si>
-  <si>
-    <t>СЕРВЕЛАТ ЕВРОПЕЙСКИЙ в/к в/у 0.33кг 8шт.</t>
-  </si>
-  <si>
-    <t>6807 СЕРВЕЛАТ ЕВРОПЕЙСКИЙ в/к в/у 0,33кг 8шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>СЕРВЕЛАТ ЕВРОПЕЙСКИЙ в/к в/у 0,33кг 8шт.</t>
-  </si>
-  <si>
-    <t>6785 ВЕНСКАЯ САЛЯМИ п/к в/у 0.33кг 8шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>ВЕНСКАЯ САЛЯМИ п/к в/у 0.33кг 8шт.</t>
-  </si>
-  <si>
-    <t>6787 СЕРВЕЛАТ КРЕМЛЕВСКИЙ в/к в/у 0,33кг 8шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>СЕРВЕЛАТ КРЕМЛЕВСКИЙ в/к в/у 0.33кг 8шт.</t>
-  </si>
-  <si>
-    <t>6793 БАЛЫКОВАЯ в/к в/у 0,33кг 8шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6795 ОСТАНКИНСКАЯ в/к в/у 0,33кг 8шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6332 МЯСНАЯ Папа может вар п/о 0.5кг 8шт  </t>
-  </si>
-  <si>
-    <t>МЯСНАЯ Папа может вар п/о 0.5кг 8шт.</t>
-  </si>
-  <si>
-    <t>6345 ФИЛЕЙНАЯ Папа может вар п/о 0.5кг 8шт. </t>
-  </si>
-  <si>
-    <t>ФИЛЕЙНАЯ Папа может вар п/о 0.5кг 8шт.</t>
-  </si>
-  <si>
-    <t>6773 САЛЯМИ Папа может п/к в/у 0,28кг 8шт  Останкино</t>
-  </si>
-  <si>
-    <t>6528 ШПИКАЧКИ СОЧНЫЕ ПМ сар б/о мгс 0.4кг 45с  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>ШПИКАЧКИ СОЧНЫЕ ПМ сар б/о мгс 0.4кг_45с</t>
-  </si>
-  <si>
-    <t>6773 САЛЯМИ Папа может п/к в/у 0,28кг 8шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>МОЛОЧНЫЕ КЛАССИЧЕСКИЕ сос п/о мгс 2*4</t>
+    <t>6765 РУБЛЕНЫЕ сос ц/о мгс 0.36кг 6шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>РУБЛЕНЫЕ сос ц/о мгс 0.36кг 6шт.</t>
   </si>
 </sst>
 </file>
@@ -1326,12 +1386,24 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1362,7 +1434,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1371,6 +1443,10 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -10113,11 +10189,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G244"/>
+  <dimension ref="A1:G258"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <pane ySplit="1" topLeftCell="A248" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B264" sqref="B264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10126,7 +10202,8 @@
     <col min="2" max="2" width="16.42578125" style="3" customWidth="1"/>
     <col min="3" max="3" width="44.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.140625" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -10247,7 +10324,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B9" s="3">
         <v>1001092446756</v>
@@ -10365,7 +10442,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>31</v>
       </c>
@@ -10380,7 +10457,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>33</v>
       </c>
@@ -10395,7 +10472,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>35</v>
       </c>
@@ -10410,7 +10487,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
@@ -10425,7 +10502,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>39</v>
       </c>
@@ -10440,7 +10517,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>41</v>
       </c>
@@ -10455,7 +10532,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>43</v>
       </c>
@@ -10470,9 +10547,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B24" s="3">
         <v>1001060755931</v>
@@ -10484,7 +10561,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>45</v>
       </c>
@@ -10499,7 +10576,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>47</v>
       </c>
@@ -10514,7 +10591,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>49</v>
       </c>
@@ -10529,7 +10606,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>51</v>
       </c>
@@ -10537,14 +10614,20 @@
         <v>1001024976829</v>
       </c>
       <c r="C28" t="s">
-        <v>422</v>
+        <v>439</v>
       </c>
       <c r="D28" t="e">
         <f>VLOOKUP(B28,[1]Бланк!$D:$J,6,0)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" s="6">
+        <v>1001024976829</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>52</v>
       </c>
@@ -10559,7 +10642,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>54</v>
       </c>
@@ -10567,37 +10650,43 @@
         <v>1001082576281</v>
       </c>
       <c r="C30" t="s">
-        <v>55</v>
+        <v>440</v>
       </c>
       <c r="D30">
         <f>VLOOKUP(B30,[1]Бланк!$D:$J,6,0)</f>
         <v>45</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" s="8">
+        <v>1001084216206</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B31" s="3">
         <v>1001022556297</v>
       </c>
       <c r="C31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D31">
         <f>VLOOKUP(B31,[1]Бланк!$D:$J,6,0)</f>
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B32" s="3">
         <v>1001010106325</v>
       </c>
       <c r="C32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D32">
         <f>VLOOKUP(B32,[1]Бланк!$D:$J,6,0)</f>
@@ -10606,13 +10695,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B33" s="3">
         <v>1001012486333</v>
       </c>
       <c r="C33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D33">
         <f>VLOOKUP(B33,[1]Бланк!$D:$J,6,0)</f>
@@ -10621,13 +10710,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B34" s="3">
         <v>1001012506353</v>
       </c>
       <c r="C34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D34">
         <f>VLOOKUP(B34,[1]Бланк!$D:$J,6,0)</f>
@@ -10636,13 +10725,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B35" s="3">
         <v>1001304506684</v>
       </c>
       <c r="C35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D35">
         <f>VLOOKUP(B35,[1]Бланк!$D:$J,6,0)</f>
@@ -10651,13 +10740,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B36" s="3">
         <v>1001303056692</v>
       </c>
       <c r="C36" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D36">
         <f>VLOOKUP(B36,[1]Бланк!$D:$J,6,0)</f>
@@ -10666,13 +10755,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B37" s="3">
         <v>1001303636415</v>
       </c>
       <c r="C37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D37">
         <f>VLOOKUP(B37,[1]Бланк!$D:$J,6,0)</f>
@@ -10681,13 +10770,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B38" s="3">
         <v>1001013956427</v>
       </c>
       <c r="C38" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D38">
         <f>VLOOKUP(B38,[1]Бланк!$D:$J,6,0)</f>
@@ -10696,13 +10785,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B39" s="3">
         <v>1001024636438</v>
       </c>
       <c r="C39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D39">
         <f>VLOOKUP(B39,[1]Бланк!$D:$J,6,0)</f>
@@ -10711,13 +10800,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B40" s="3">
         <v>1001234146448</v>
       </c>
       <c r="C40" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D40">
         <f>VLOOKUP(B40,[1]Бланк!$D:$J,6,0)</f>
@@ -10726,13 +10815,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B41" s="3">
         <v>1001233296450</v>
       </c>
       <c r="C41" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D41">
         <f>VLOOKUP(B41,[1]Бланк!$D:$J,6,0)</f>
@@ -10741,13 +10830,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B42" s="3">
         <v>1001202506453</v>
       </c>
       <c r="C42" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D42">
         <v>60</v>
@@ -10755,13 +10844,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B43" s="3">
         <v>1001202506453</v>
       </c>
       <c r="C43" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D43">
         <f>VLOOKUP(B43,[1]Бланк!$D:$J,6,0)</f>
@@ -10770,13 +10859,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B44" s="3">
         <v>1001201976454</v>
       </c>
       <c r="C44" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D44">
         <f>VLOOKUP(B44,[1]Бланк!$D:$J,6,0)</f>
@@ -10785,13 +10874,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B45" s="3">
         <v>1001025176475</v>
       </c>
       <c r="C45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D45">
         <f>VLOOKUP(B45,[1]Бланк!$D:$J,6,0)</f>
@@ -10800,13 +10889,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B46" s="3">
         <v>1001301876697</v>
       </c>
       <c r="C46" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D46">
         <f>VLOOKUP(B46,[1]Бланк!$D:$J,6,0)</f>
@@ -10815,13 +10904,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B47" s="3">
         <v>1001024636517</v>
       </c>
       <c r="C47" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D47" t="e">
         <f>VLOOKUP(B47,[1]Бланк!$D:$J,6,0)</f>
@@ -10830,13 +10919,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B48" s="3">
         <v>1001031076527</v>
       </c>
       <c r="C48" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D48">
         <f>VLOOKUP(B48,[1]Бланк!$D:$J,6,0)</f>
@@ -10845,13 +10934,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B49" s="3">
         <v>1001304506562</v>
       </c>
       <c r="C49" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D49">
         <f>VLOOKUP(B49,[1]Бланк!$D:$J,6,0)</f>
@@ -10860,13 +10949,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B50" s="3">
         <v>1001020846563</v>
       </c>
       <c r="C50" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D50">
         <f>VLOOKUP(B50,[1]Бланк!$D:$J,6,0)</f>
@@ -10875,13 +10964,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B51" s="3">
         <v>1001020836589</v>
       </c>
       <c r="C51" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D51" t="e">
         <f>VLOOKUP(B51,[1]Бланк!$D:$J,6,0)</f>
@@ -10890,13 +10979,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B52" s="3">
         <v>6751</v>
       </c>
       <c r="C52" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D52" t="e">
         <f>VLOOKUP(B52,[1]Бланк!$D:$J,6,0)</f>
@@ -10905,13 +10994,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B53" s="3">
         <v>1001010016592</v>
       </c>
       <c r="C53" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D53">
         <f>VLOOKUP(B53,[1]Бланк!$D:$J,6,0)</f>
@@ -10920,13 +11009,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B54" s="3">
         <v>1001010026594</v>
       </c>
       <c r="C54" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D54">
         <f>VLOOKUP(B54,[1]Бланк!$D:$J,6,0)</f>
@@ -10935,13 +11024,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B55" s="3">
         <v>1001022296601</v>
       </c>
       <c r="C55" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D55">
         <f>VLOOKUP(B55,[1]Бланк!$D:$J,6,0)</f>
@@ -10950,13 +11039,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B56" s="3">
         <v>1001031896648</v>
       </c>
       <c r="C56" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D56">
         <f>VLOOKUP(B56,[1]Бланк!$D:$J,6,0)</f>
@@ -10965,13 +11054,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B57" s="3">
         <v>1001035266650</v>
       </c>
       <c r="C57" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D57">
         <f>VLOOKUP(B57,[1]Бланк!$D:$J,6,0)</f>
@@ -10980,13 +11069,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B58" s="3">
         <v>1001305256658</v>
       </c>
       <c r="C58" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D58">
         <f>VLOOKUP(B58,[1]Бланк!$D:$J,6,0)</f>
@@ -10995,13 +11084,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B59" s="3">
         <v>1001010016593</v>
       </c>
       <c r="C59" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D59">
         <f>VLOOKUP(B59,[1]Бланк!$D:$J,6,0)</f>
@@ -11010,13 +11099,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B60" s="3">
         <v>1001010026595</v>
       </c>
       <c r="C60" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D60">
         <f>VLOOKUP(B60,[1]Бланк!$D:$J,6,0)</f>
@@ -11025,13 +11114,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B61" s="3">
         <v>1001010036597</v>
       </c>
       <c r="C61" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D61">
         <f>VLOOKUP(B61,[1]Бланк!$D:$J,6,0)</f>
@@ -11040,13 +11129,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B62" s="3">
         <v>1001020886646</v>
       </c>
       <c r="C62" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D62">
         <f>VLOOKUP(B62,[1]Бланк!$D:$J,6,0)</f>
@@ -11055,24 +11144,24 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B63" s="3">
         <v>1001305306566</v>
       </c>
       <c r="C63" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B64" s="3">
         <v>1001305306566</v>
       </c>
       <c r="C64" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D64">
         <f>VLOOKUP(B64,[1]Бланк!$D:$J,6,0)</f>
@@ -11081,13 +11170,13 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B65" s="3">
         <v>1001300386683</v>
       </c>
       <c r="C65" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D65">
         <f>VLOOKUP(B65,[1]Бланк!$D:$J,6,0)</f>
@@ -11096,13 +11185,13 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B66" s="3">
         <v>1001303986689</v>
       </c>
       <c r="C66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D66">
         <f>VLOOKUP(B66,[1]Бланк!$D:$J,6,0)</f>
@@ -11111,13 +11200,13 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B67" s="3">
         <v>1001303106773</v>
       </c>
       <c r="C67" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D67">
         <v>45</v>
@@ -11126,18 +11215,18 @@
         <v>1001300516669</v>
       </c>
       <c r="G67" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B68" s="5">
         <v>1001303106773</v>
       </c>
       <c r="C68" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D68">
         <v>45</v>
@@ -11146,47 +11235,47 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B69" s="5">
         <v>1001303106773</v>
       </c>
       <c r="C69" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D69">
         <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B70" s="3">
         <v>1001303106773</v>
       </c>
       <c r="C70" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D70">
         <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B71" s="3">
         <v>1001303106773</v>
       </c>
       <c r="C71" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D71">
         <v>45</v>
@@ -11194,13 +11283,13 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B72" s="3">
         <v>1001303106773</v>
       </c>
       <c r="C72" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D72">
         <v>45</v>
@@ -11208,88 +11297,87 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>136</v>
+        <v>417</v>
       </c>
       <c r="B73" s="3">
-        <v>1001012566392</v>
+        <v>1001303106773</v>
       </c>
       <c r="C73" t="s">
-        <v>62</v>
+        <v>373</v>
       </c>
       <c r="D73">
-        <f>VLOOKUP(B73,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B74" s="3">
-        <v>1001302276666</v>
+        <v>1001012566392</v>
       </c>
       <c r="C74" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D74">
         <f>VLOOKUP(B74,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B75" s="3">
-        <v>1001012426268</v>
+        <v>1001302276666</v>
       </c>
       <c r="C75" t="s">
-        <v>139</v>
-      </c>
-      <c r="D75" t="e">
+        <v>67</v>
+      </c>
+      <c r="D75">
         <f>VLOOKUP(B75,[1]Бланк!$D:$J,6,0)</f>
-        <v>#N/A</v>
+        <v>45</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B76" s="3">
-        <v>1001024906041</v>
+        <v>1001012426268</v>
       </c>
       <c r="C76" t="s">
-        <v>145</v>
-      </c>
-      <c r="D76">
+        <v>138</v>
+      </c>
+      <c r="D76" t="e">
         <f>VLOOKUP(B76,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B77" s="3">
-        <v>1001011086247</v>
+        <v>1001024906041</v>
       </c>
       <c r="C77" t="s">
         <v>144</v>
       </c>
-      <c r="D77" t="e">
+      <c r="D77">
         <f>VLOOKUP(B77,[1]Бланк!$D:$J,6,0)</f>
-        <v>#N/A</v>
+        <v>45</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="B78" s="3">
-        <v>1001014486158</v>
+        <v>1001011086247</v>
       </c>
       <c r="C78" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="D78" t="e">
         <f>VLOOKUP(B78,[1]Бланк!$D:$J,6,0)</f>
@@ -11298,13 +11386,13 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B79" s="3">
-        <v>1001015356259</v>
+        <v>1001014486158</v>
       </c>
       <c r="C79" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D79" t="e">
         <f>VLOOKUP(B79,[1]Бланк!$D:$J,6,0)</f>
@@ -11313,57 +11401,57 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B80" s="3">
-        <v>1001012816716</v>
+        <v>1001015356259</v>
       </c>
       <c r="C80" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D80" t="e">
         <f>VLOOKUP(B80,[1]Бланк!$D:$J,6,0)</f>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>356</v>
+        <v>170</v>
       </c>
       <c r="B81" s="3">
-        <v>1001020966227</v>
+        <v>1001012816716</v>
       </c>
       <c r="C81" t="s">
-        <v>355</v>
-      </c>
-      <c r="D81">
-        <v>45</v>
+        <v>161</v>
+      </c>
+      <c r="D81" t="e">
+        <f>VLOOKUP(B81,[1]Бланк!$D:$J,6,0)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>147</v>
+        <v>355</v>
       </c>
       <c r="B82" s="3">
         <v>1001020966227</v>
       </c>
       <c r="C82" t="s">
-        <v>148</v>
+        <v>354</v>
       </c>
       <c r="D82">
-        <f>VLOOKUP(B82,[1]Бланк!$D:$J,6,0)</f>
         <v>45</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B83" s="3">
-        <v>1001020965981</v>
+        <v>1001020966227</v>
       </c>
       <c r="C83" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D83">
         <f>VLOOKUP(B83,[1]Бланк!$D:$J,6,0)</f>
@@ -11372,13 +11460,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>242</v>
+        <v>140</v>
       </c>
       <c r="B84" s="3">
-        <v>1001022726303</v>
+        <v>1001020965981</v>
       </c>
       <c r="C84" t="s">
-        <v>280</v>
+        <v>141</v>
       </c>
       <c r="D84">
         <f>VLOOKUP(B84,[1]Бланк!$D:$J,6,0)</f>
@@ -11387,13 +11475,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>279</v>
+        <v>241</v>
       </c>
       <c r="B85" s="3">
         <v>1001022726303</v>
       </c>
       <c r="C85" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D85">
         <f>VLOOKUP(B85,[1]Бланк!$D:$J,6,0)</f>
@@ -11402,13 +11490,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>373</v>
+        <v>278</v>
       </c>
       <c r="B86" s="3">
         <v>1001022726303</v>
       </c>
       <c r="C86" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D86">
         <f>VLOOKUP(B86,[1]Бланк!$D:$J,6,0)</f>
@@ -11417,13 +11505,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>172</v>
+        <v>372</v>
       </c>
       <c r="B87" s="3">
         <v>1001022726303</v>
       </c>
       <c r="C87" t="s">
-        <v>174</v>
+        <v>279</v>
       </c>
       <c r="D87">
         <f>VLOOKUP(B87,[1]Бланк!$D:$J,6,0)</f>
@@ -11432,13 +11520,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>122</v>
+        <v>171</v>
       </c>
       <c r="B88" s="3">
-        <v>1001022466726</v>
+        <v>1001022726303</v>
       </c>
       <c r="C88" t="s">
-        <v>123</v>
+        <v>173</v>
       </c>
       <c r="D88">
         <f>VLOOKUP(B88,[1]Бланк!$D:$J,6,0)</f>
@@ -11447,13 +11535,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>166</v>
+        <v>121</v>
       </c>
       <c r="B89" s="3">
-        <v>1001020966144</v>
+        <v>1001022466726</v>
       </c>
       <c r="C89" t="s">
-        <v>163</v>
+        <v>122</v>
       </c>
       <c r="D89">
         <f>VLOOKUP(B89,[1]Бланк!$D:$J,6,0)</f>
@@ -11462,13 +11550,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>137</v>
+        <v>165</v>
       </c>
       <c r="B90" s="3">
-        <v>1001022376722</v>
+        <v>1001020966144</v>
       </c>
       <c r="C90" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="D90">
         <f>VLOOKUP(B90,[1]Бланк!$D:$J,6,0)</f>
@@ -11477,13 +11565,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="B91" s="3">
-        <v>1001022373812</v>
+        <v>1001022376722</v>
       </c>
       <c r="C91" t="s">
-        <v>3</v>
+        <v>134</v>
       </c>
       <c r="D91">
         <f>VLOOKUP(B91,[1]Бланк!$D:$J,6,0)</f>
@@ -11492,13 +11580,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B92" s="3">
-        <v>1001022376113</v>
+        <v>1001022373812</v>
       </c>
       <c r="C92" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D92">
         <f>VLOOKUP(B92,[1]Бланк!$D:$J,6,0)</f>
@@ -11507,13 +11595,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>272</v>
+        <v>152</v>
       </c>
       <c r="B93" s="3">
-        <v>1001022246661</v>
+        <v>1001022376113</v>
       </c>
       <c r="C93" t="s">
-        <v>273</v>
+        <v>4</v>
       </c>
       <c r="D93">
         <f>VLOOKUP(B93,[1]Бланк!$D:$J,6,0)</f>
@@ -11522,13 +11610,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>352</v>
+        <v>271</v>
       </c>
       <c r="B94" s="3">
         <v>1001022246661</v>
       </c>
       <c r="C94" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D94">
         <f>VLOOKUP(B94,[1]Бланк!$D:$J,6,0)</f>
@@ -11537,13 +11625,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>151</v>
+        <v>351</v>
       </c>
       <c r="B95" s="3">
         <v>1001022246661</v>
       </c>
       <c r="C95" t="s">
-        <v>154</v>
+        <v>272</v>
       </c>
       <c r="D95">
         <f>VLOOKUP(B95,[1]Бланк!$D:$J,6,0)</f>
@@ -11552,13 +11640,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B96" s="3">
-        <v>1001022246713</v>
+        <v>1001022246661</v>
       </c>
       <c r="C96" t="s">
-        <v>124</v>
+        <v>153</v>
       </c>
       <c r="D96">
         <f>VLOOKUP(B96,[1]Бланк!$D:$J,6,0)</f>
@@ -11567,13 +11655,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B97" s="3">
-        <v>1001025166241</v>
+        <v>1001022246713</v>
       </c>
       <c r="C97" t="s">
-        <v>159</v>
+        <v>123</v>
       </c>
       <c r="D97">
         <f>VLOOKUP(B97,[1]Бланк!$D:$J,6,0)</f>
@@ -11582,73 +11670,73 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="B98" s="3">
-        <v>6606</v>
+        <v>1001025166241</v>
       </c>
       <c r="C98" t="s">
-        <v>175</v>
-      </c>
-      <c r="D98" t="e">
+        <v>158</v>
+      </c>
+      <c r="D98">
         <f>VLOOKUP(B98,[1]Бланк!$D:$J,6,0)</f>
-        <v>#N/A</v>
+        <v>45</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="B99" s="3">
-        <v>1001035326217</v>
+        <v>6606</v>
       </c>
       <c r="C99" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="D99" t="e">
         <f>VLOOKUP(B99,[1]Бланк!$D:$J,6,0)</f>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="B100" s="3">
-        <v>1001303636301</v>
+        <v>1001035326217</v>
       </c>
       <c r="C100" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="D100" t="e">
         <f>VLOOKUP(B100,[1]Бланк!$D:$J,6,0)</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>108</v>
+        <v>169</v>
       </c>
       <c r="B101" s="3">
-        <v>1001303636302</v>
+        <v>1001303636301</v>
       </c>
       <c r="C101" t="s">
-        <v>109</v>
-      </c>
-      <c r="D101">
+        <v>163</v>
+      </c>
+      <c r="D101" t="e">
         <f>VLOOKUP(B101,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>157</v>
+        <v>107</v>
       </c>
       <c r="B102" s="3">
-        <v>1001305196215</v>
+        <v>1001303636302</v>
       </c>
       <c r="C102" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="D102">
         <f>VLOOKUP(B102,[1]Бланк!$D:$J,6,0)</f>
@@ -11657,13 +11745,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="B103" s="3">
-        <v>1001301876212</v>
+        <v>1001305196215</v>
       </c>
       <c r="C103" t="s">
-        <v>165</v>
+        <v>92</v>
       </c>
       <c r="D103">
         <f>VLOOKUP(B103,[1]Бланк!$D:$J,6,0)</f>
@@ -11672,13 +11760,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="B104" s="3">
-        <v>1001301876213</v>
+        <v>1001301876212</v>
       </c>
       <c r="C104" t="s">
-        <v>92</v>
+        <v>164</v>
       </c>
       <c r="D104">
         <f>VLOOKUP(B104,[1]Бланк!$D:$J,6,0)</f>
@@ -11687,13 +11775,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="B105" s="3">
-        <v>1001303636302</v>
+        <v>1001301876213</v>
       </c>
       <c r="C105" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="D105">
         <f>VLOOKUP(B105,[1]Бланк!$D:$J,6,0)</f>
@@ -11702,28 +11790,28 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B106" s="3">
-        <v>6645</v>
+        <v>1001303636302</v>
       </c>
       <c r="C106" t="s">
-        <v>177</v>
-      </c>
-      <c r="D106" t="e">
+        <v>108</v>
+      </c>
+      <c r="D106">
         <f>VLOOKUP(B106,[1]Бланк!$D:$J,6,0)</f>
-        <v>#N/A</v>
+        <v>60</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B107" s="3">
-        <v>1001225416228</v>
+        <v>6645</v>
       </c>
       <c r="C107" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D107" t="e">
         <f>VLOOKUP(B107,[1]Бланк!$D:$J,6,0)</f>
@@ -11732,13 +11820,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B108" s="3">
-        <v>6225</v>
+        <v>1001225416228</v>
       </c>
       <c r="C108" t="s">
-        <v>300</v>
+        <v>178</v>
       </c>
       <c r="D108" t="e">
         <f>VLOOKUP(B108,[1]Бланк!$D:$J,6,0)</f>
@@ -11747,28 +11835,28 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B109" s="3">
-        <v>1001022376722</v>
+        <v>6225</v>
       </c>
       <c r="C109" t="s">
-        <v>135</v>
-      </c>
-      <c r="D109">
+        <v>299</v>
+      </c>
+      <c r="D109" t="e">
         <f>VLOOKUP(B109,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B110" s="3">
         <v>1001022376722</v>
       </c>
       <c r="C110" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D110">
         <f>VLOOKUP(B110,[1]Бланк!$D:$J,6,0)</f>
@@ -11777,125 +11865,125 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B111" s="3">
-        <v>3297</v>
+        <v>1001022376722</v>
       </c>
       <c r="C111" t="s">
-        <v>184</v>
-      </c>
-      <c r="D111" t="e">
+        <v>134</v>
+      </c>
+      <c r="D111">
         <f>VLOOKUP(B111,[1]Бланк!$D:$J,6,0)</f>
-        <v>#N/A</v>
+        <v>45</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B112" s="3">
-        <v>1001034063297</v>
+        <v>3297</v>
       </c>
       <c r="C112" t="s">
-        <v>184</v>
-      </c>
-      <c r="D112">
+        <v>183</v>
+      </c>
+      <c r="D112" t="e">
         <f>VLOOKUP(B112,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>346</v>
+        <v>184</v>
       </c>
       <c r="B113" s="3">
-        <v>1001022466726</v>
+        <v>1001034063297</v>
       </c>
       <c r="C113" t="s">
-        <v>320</v>
+        <v>183</v>
+      </c>
+      <c r="D113">
+        <f>VLOOKUP(B113,[1]Бланк!$D:$J,6,0)</f>
+        <v>45</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>321</v>
+        <v>345</v>
       </c>
       <c r="B114" s="3">
         <v>1001022466726</v>
       </c>
       <c r="C114" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>187</v>
+        <v>320</v>
       </c>
       <c r="B115" s="3">
         <v>1001022466726</v>
       </c>
       <c r="C115" t="s">
-        <v>123</v>
-      </c>
-      <c r="D115">
-        <f>VLOOKUP(B115,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>319</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B116" s="3">
-        <v>1001021966602</v>
+        <v>1001022466726</v>
       </c>
       <c r="C116" t="s">
-        <v>311</v>
-      </c>
-      <c r="D116" t="e">
+        <v>122</v>
+      </c>
+      <c r="D116">
         <f>VLOOKUP(B116,[1]Бланк!$D:$J,6,0)</f>
-        <v>#REF!</v>
+        <v>45</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B117" s="3">
-        <v>6233</v>
+        <v>1001021966602</v>
       </c>
       <c r="C117" t="s">
-        <v>189</v>
+        <v>310</v>
       </c>
       <c r="D117" t="e">
         <f>VLOOKUP(B117,[1]Бланк!$D:$J,6,0)</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>290</v>
+        <v>189</v>
       </c>
       <c r="B118" s="3">
-        <v>1001012826734</v>
+        <v>6233</v>
       </c>
       <c r="C118" t="s">
-        <v>293</v>
+        <v>188</v>
       </c>
       <c r="D118" t="e">
         <f>VLOOKUP(B118,[1]Бланк!$D:$J,6,0)</f>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>191</v>
+        <v>289</v>
       </c>
       <c r="B119" s="3">
         <v>1001012826734</v>
       </c>
       <c r="C119" t="s">
-        <v>192</v>
+        <v>292</v>
       </c>
       <c r="D119" t="e">
         <f>VLOOKUP(B119,[1]Бланк!$D:$J,6,0)</f>
@@ -11904,28 +11992,28 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B120" s="3">
-        <v>6750</v>
+        <v>1001012826734</v>
       </c>
       <c r="C120" t="s">
-        <v>99</v>
+        <v>191</v>
       </c>
       <c r="D120" t="e">
         <f>VLOOKUP(B120,[1]Бланк!$D:$J,6,0)</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B121" s="3">
-        <v>6751</v>
+        <v>6750</v>
       </c>
       <c r="C121" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D121" t="e">
         <f>VLOOKUP(B121,[1]Бланк!$D:$J,6,0)</f>
@@ -11934,13 +12022,13 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B122" s="3">
-        <v>5982</v>
+        <v>6751</v>
       </c>
       <c r="C122" t="s">
-        <v>196</v>
+        <v>100</v>
       </c>
       <c r="D122" t="e">
         <f>VLOOKUP(B122,[1]Бланк!$D:$J,6,0)</f>
@@ -11949,13 +12037,13 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B123" s="3">
-        <v>1001020965982</v>
+        <v>5982</v>
       </c>
       <c r="C123" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D123" t="e">
         <f>VLOOKUP(B123,[1]Бланк!$D:$J,6,0)</f>
@@ -11964,43 +12052,43 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B124" s="3">
-        <v>1001094966025</v>
+        <v>1001020965982</v>
       </c>
       <c r="C124" t="s">
-        <v>199</v>
-      </c>
-      <c r="D124">
+        <v>195</v>
+      </c>
+      <c r="D124" t="e">
         <f>VLOOKUP(B124,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B125" s="3">
+        <v>1001094966025</v>
+      </c>
+      <c r="C125" t="s">
         <v>198</v>
       </c>
-      <c r="B125" s="3">
-        <v>6025</v>
-      </c>
-      <c r="C125" t="s">
-        <v>199</v>
-      </c>
-      <c r="D125" t="e">
+      <c r="D125">
         <f>VLOOKUP(B125,[1]Бланк!$D:$J,6,0)</f>
-        <v>#N/A</v>
+        <v>60</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B126" s="3">
-        <v>6221</v>
+        <v>6025</v>
       </c>
       <c r="C126" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D126" t="e">
         <f>VLOOKUP(B126,[1]Бланк!$D:$J,6,0)</f>
@@ -12009,13 +12097,13 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B127" s="3">
-        <v>1001205376221</v>
+        <v>6221</v>
       </c>
       <c r="C127" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D127" t="e">
         <f>VLOOKUP(B127,[1]Бланк!$D:$J,6,0)</f>
@@ -12024,28 +12112,28 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B128" s="3">
-        <v>1001034063297</v>
+        <v>1001205376221</v>
       </c>
       <c r="C128" t="s">
-        <v>206</v>
-      </c>
-      <c r="D128">
+        <v>200</v>
+      </c>
+      <c r="D128" t="e">
         <f>VLOOKUP(B128,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B129" s="3">
-        <v>1001022373812</v>
+        <v>1001034063297</v>
       </c>
       <c r="C129" t="s">
-        <v>3</v>
+        <v>205</v>
       </c>
       <c r="D129">
         <f>VLOOKUP(B129,[1]Бланк!$D:$J,6,0)</f>
@@ -12054,27 +12142,28 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B130" s="3">
-        <v>1001100606827</v>
+        <v>1001022373812</v>
       </c>
       <c r="C130" t="s">
-        <v>363</v>
+        <v>3</v>
       </c>
       <c r="D130">
-        <v>60</v>
+        <f>VLOOKUP(B130,[1]Бланк!$D:$J,6,0)</f>
+        <v>45</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>377</v>
+        <v>207</v>
       </c>
       <c r="B131" s="3">
         <v>1001100606827</v>
       </c>
       <c r="C131" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D131">
         <v>60</v>
@@ -12082,13 +12171,13 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>209</v>
+        <v>376</v>
       </c>
       <c r="B132" s="3">
-        <v>1001100616826</v>
+        <v>1001100606827</v>
       </c>
       <c r="C132" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D132">
         <v>60</v>
@@ -12096,13 +12185,13 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>378</v>
+        <v>208</v>
       </c>
       <c r="B133" s="3">
         <v>1001100616826</v>
       </c>
       <c r="C133" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D133">
         <v>60</v>
@@ -12110,13 +12199,13 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>210</v>
+        <v>377</v>
       </c>
       <c r="B134" s="3">
-        <v>1001100626828</v>
+        <v>1001100616826</v>
       </c>
       <c r="C134" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D134">
         <v>60</v>
@@ -12124,13 +12213,13 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>379</v>
+        <v>209</v>
       </c>
       <c r="B135" s="3">
         <v>1001100626828</v>
       </c>
       <c r="C135" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D135">
         <v>60</v>
@@ -12138,43 +12227,42 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>211</v>
+        <v>378</v>
       </c>
       <c r="B136" s="3">
-        <v>1001035026308</v>
+        <v>1001100626828</v>
       </c>
       <c r="C136" t="s">
-        <v>212</v>
+        <v>364</v>
       </c>
       <c r="D136">
-        <f>VLOOKUP(B136,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B137" s="3">
-        <v>1001014486159</v>
+        <v>1001035026308</v>
       </c>
       <c r="C137" t="s">
-        <v>214</v>
-      </c>
-      <c r="D137" t="e">
+        <v>211</v>
+      </c>
+      <c r="D137">
         <f>VLOOKUP(B137,[1]Бланк!$D:$J,6,0)</f>
-        <v>#REF!</v>
+        <v>45</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B138" s="3">
-        <v>1001035326217</v>
+        <v>1001014486159</v>
       </c>
       <c r="C138" t="s">
-        <v>317</v>
+        <v>213</v>
       </c>
       <c r="D138" t="e">
         <f>VLOOKUP(B138,[1]Бланк!$D:$J,6,0)</f>
@@ -12183,13 +12271,13 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B139" s="3">
-        <v>1001012426220</v>
+        <v>1001035326217</v>
       </c>
       <c r="C139" t="s">
-        <v>217</v>
+        <v>316</v>
       </c>
       <c r="D139" t="e">
         <f>VLOOKUP(B139,[1]Бланк!$D:$J,6,0)</f>
@@ -12198,58 +12286,58 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B140" s="3">
-        <v>1001022466236</v>
+        <v>1001012426220</v>
       </c>
       <c r="C140" t="s">
-        <v>219</v>
-      </c>
-      <c r="D140">
+        <v>216</v>
+      </c>
+      <c r="D140" t="e">
         <f>VLOOKUP(B140,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B141" s="3">
-        <v>1001021966602</v>
+        <v>1001022466236</v>
       </c>
       <c r="C141" t="s">
-        <v>221</v>
-      </c>
-      <c r="D141" t="e">
+        <v>218</v>
+      </c>
+      <c r="D141">
         <f>VLOOKUP(B141,[1]Бланк!$D:$J,6,0)</f>
-        <v>#REF!</v>
+        <v>45</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B142" s="3">
-        <v>1001022296656</v>
+        <v>1001021966602</v>
       </c>
       <c r="C142" t="s">
-        <v>223</v>
-      </c>
-      <c r="D142">
+        <v>220</v>
+      </c>
+      <c r="D142" t="e">
         <f>VLOOKUP(B142,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B143" s="3">
-        <v>1001304506684</v>
+        <v>1001022296656</v>
       </c>
       <c r="C143" t="s">
-        <v>65</v>
+        <v>222</v>
       </c>
       <c r="D143">
         <f>VLOOKUP(B143,[1]Бланк!$D:$J,6,0)</f>
@@ -12258,13 +12346,13 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B144" s="3">
-        <v>1001301876697</v>
+        <v>1001304506684</v>
       </c>
       <c r="C144" t="s">
-        <v>226</v>
+        <v>64</v>
       </c>
       <c r="D144">
         <f>VLOOKUP(B144,[1]Бланк!$D:$J,6,0)</f>
@@ -12273,13 +12361,13 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B145" s="3">
-        <v>1001022246713</v>
+        <v>1001301876697</v>
       </c>
       <c r="C145" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D145">
         <f>VLOOKUP(B145,[1]Бланк!$D:$J,6,0)</f>
@@ -12288,43 +12376,43 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B146" s="3">
-        <v>1001012816716</v>
+        <v>1001022246713</v>
       </c>
       <c r="C146" t="s">
-        <v>162</v>
-      </c>
-      <c r="D146" t="e">
+        <v>227</v>
+      </c>
+      <c r="D146">
         <f>VLOOKUP(B146,[1]Бланк!$D:$J,6,0)</f>
-        <v>#REF!</v>
+        <v>45</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B147" s="3">
-        <v>1001022376722</v>
+        <v>1001012816716</v>
       </c>
       <c r="C147" t="s">
-        <v>231</v>
-      </c>
-      <c r="D147">
+        <v>161</v>
+      </c>
+      <c r="D147" t="e">
         <f>VLOOKUP(B147,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B148" s="3">
-        <v>1001020846751</v>
+        <v>1001022376722</v>
       </c>
       <c r="C148" t="s">
-        <v>101</v>
+        <v>230</v>
       </c>
       <c r="D148">
         <f>VLOOKUP(B148,[1]Бланк!$D:$J,6,0)</f>
@@ -12333,13 +12421,13 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B149" s="3">
-        <v>1001022725819</v>
+        <v>1001020846751</v>
       </c>
       <c r="C149" t="s">
-        <v>234</v>
+        <v>100</v>
       </c>
       <c r="D149">
         <f>VLOOKUP(B149,[1]Бланк!$D:$J,6,0)</f>
@@ -12348,28 +12436,28 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B150" s="3">
-        <v>1001012825337</v>
+        <v>1001022725819</v>
       </c>
       <c r="C150" t="s">
-        <v>28</v>
+        <v>233</v>
       </c>
       <c r="D150">
         <f>VLOOKUP(B150,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B151" s="3">
-        <v>1001012815336</v>
+        <v>1001012825337</v>
       </c>
       <c r="C151" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D151">
         <f>VLOOKUP(B151,[1]Бланк!$D:$J,6,0)</f>
@@ -12378,28 +12466,28 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B152" s="3">
-        <v>1001234146448</v>
+        <v>1001012815336</v>
       </c>
       <c r="C152" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="D152">
         <f>VLOOKUP(B152,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B153" s="3">
-        <v>1001022725819</v>
+        <v>1001234146448</v>
       </c>
       <c r="C153" t="s">
-        <v>234</v>
+        <v>76</v>
       </c>
       <c r="D153">
         <f>VLOOKUP(B153,[1]Бланк!$D:$J,6,0)</f>
@@ -12408,28 +12496,28 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B154" s="3">
-        <v>1001092676027</v>
+        <v>1001022725819</v>
       </c>
       <c r="C154" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="D154">
         <f>VLOOKUP(B154,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B155" s="3">
-        <v>1001301876213</v>
+        <v>1001092676027</v>
       </c>
       <c r="C155" t="s">
-        <v>92</v>
+        <v>239</v>
       </c>
       <c r="D155">
         <f>VLOOKUP(B155,[1]Бланк!$D:$J,6,0)</f>
@@ -12438,58 +12526,58 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B156" s="3">
-        <v>1001035026308</v>
+        <v>1001301876213</v>
       </c>
       <c r="C156" t="s">
-        <v>212</v>
+        <v>91</v>
       </c>
       <c r="D156">
         <f>VLOOKUP(B156,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B157" s="3">
-        <v>1001012566392</v>
+        <v>1001035026308</v>
       </c>
       <c r="C157" t="s">
-        <v>62</v>
+        <v>211</v>
       </c>
       <c r="D157">
         <f>VLOOKUP(B157,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B158" s="3">
-        <v>1001234146448</v>
+        <v>1001012566392</v>
       </c>
       <c r="C158" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="D158">
         <f>VLOOKUP(B158,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B159" s="3">
-        <v>1001233296450</v>
+        <v>1001234146448</v>
       </c>
       <c r="C159" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D159">
         <f>VLOOKUP(B159,[1]Бланк!$D:$J,6,0)</f>
@@ -12498,58 +12586,58 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B160" s="3">
-        <v>1001201976454</v>
+        <v>1001233296450</v>
       </c>
       <c r="C160" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D160">
         <f>VLOOKUP(B160,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B161" s="3">
-        <v>1001025176475</v>
+        <v>1001201976454</v>
       </c>
       <c r="C161" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D161">
         <f>VLOOKUP(B161,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B162" s="3">
-        <v>1001012456498</v>
+        <v>1001025176475</v>
       </c>
       <c r="C162" t="s">
-        <v>250</v>
+        <v>84</v>
       </c>
       <c r="D162">
         <f>VLOOKUP(B162,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B163" s="3">
-        <v>1001010036596</v>
+        <v>1001012456498</v>
       </c>
       <c r="C163" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D163">
         <f>VLOOKUP(B163,[1]Бланк!$D:$J,6,0)</f>
@@ -12558,28 +12646,28 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B164" s="3">
-        <v>1001033856607</v>
+        <v>1001010036596</v>
       </c>
       <c r="C164" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D164">
         <f>VLOOKUP(B164,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B165" s="3">
-        <v>1001033856609</v>
+        <v>1001033856607</v>
       </c>
       <c r="C165" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D165">
         <f>VLOOKUP(B165,[1]Бланк!$D:$J,6,0)</f>
@@ -12588,13 +12676,13 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B166" s="3">
-        <v>1001302276666</v>
+        <v>1001033856609</v>
       </c>
       <c r="C166" t="s">
-        <v>68</v>
+        <v>255</v>
       </c>
       <c r="D166">
         <f>VLOOKUP(B166,[1]Бланк!$D:$J,6,0)</f>
@@ -12603,28 +12691,28 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B167" s="3">
-        <v>1001092446755</v>
+        <v>1001302276666</v>
       </c>
       <c r="C167" t="s">
-        <v>313</v>
+        <v>67</v>
       </c>
       <c r="D167">
         <f>VLOOKUP(B167,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B168" s="3">
-        <v>1001092446756</v>
+        <v>1001092446755</v>
       </c>
       <c r="C168" t="s">
-        <v>16</v>
+        <v>312</v>
       </c>
       <c r="D168">
         <f>VLOOKUP(B168,[1]Бланк!$D:$J,6,0)</f>
@@ -12633,103 +12721,103 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B169" s="3">
-        <v>6550</v>
+        <v>1001092446756</v>
       </c>
       <c r="C169" t="s">
-        <v>262</v>
-      </c>
-      <c r="D169" t="e">
+        <v>16</v>
+      </c>
+      <c r="D169">
         <f>VLOOKUP(B169,[1]Бланк!$D:$J,6,0)</f>
-        <v>#N/A</v>
+        <v>60</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B170" s="3">
-        <v>1001304506684</v>
+        <v>6550</v>
       </c>
       <c r="C170" t="s">
-        <v>65</v>
-      </c>
-      <c r="D170">
+        <v>261</v>
+      </c>
+      <c r="D170" t="e">
         <f>VLOOKUP(B170,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B171" s="3">
-        <v>1001010113248</v>
+        <v>1001304506684</v>
       </c>
       <c r="C171" t="s">
-        <v>265</v>
+        <v>64</v>
       </c>
       <c r="D171">
         <f>VLOOKUP(B171,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B172" s="3">
-        <v>1001063925206</v>
+        <v>1001010113248</v>
       </c>
       <c r="C172" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D172">
         <f>VLOOKUP(B172,[1]Бланк!$D:$J,6,0)</f>
-        <v>120</v>
+        <v>60</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B173" s="3">
-        <v>6586</v>
+        <v>1001063925206</v>
       </c>
       <c r="C173" t="s">
-        <v>269</v>
-      </c>
-      <c r="D173" t="e">
+        <v>266</v>
+      </c>
+      <c r="D173">
         <f>VLOOKUP(B173,[1]Бланк!$D:$J,6,0)</f>
-        <v>#N/A</v>
+        <v>120</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B174" s="3">
-        <v>1001303636467</v>
+        <v>6586</v>
       </c>
       <c r="C174" t="s">
-        <v>271</v>
-      </c>
-      <c r="D174">
+        <v>268</v>
+      </c>
+      <c r="D174" t="e">
         <f>VLOOKUP(B174,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B175" s="3">
-        <v>1001304496701</v>
+        <v>1001303636467</v>
       </c>
       <c r="C175" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D175">
         <f>VLOOKUP(B175,[1]Бланк!$D:$J,6,0)</f>
@@ -12738,43 +12826,43 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B176" s="3">
-        <v>6144</v>
+        <v>1001304496701</v>
       </c>
       <c r="C176" t="s">
-        <v>277</v>
-      </c>
-      <c r="D176" t="e">
+        <v>274</v>
+      </c>
+      <c r="D176">
         <f>VLOOKUP(B176,[1]Бланк!$D:$J,6,0)</f>
-        <v>#N/A</v>
+        <v>45</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B177" s="3">
-        <v>1001022725819</v>
+        <v>6144</v>
       </c>
       <c r="C177" t="s">
-        <v>234</v>
-      </c>
-      <c r="D177">
+        <v>276</v>
+      </c>
+      <c r="D177" t="e">
         <f>VLOOKUP(B177,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B178" s="3">
-        <v>1001022373812</v>
+        <v>1001022725819</v>
       </c>
       <c r="C178" t="s">
-        <v>3</v>
+        <v>233</v>
       </c>
       <c r="D178">
         <f>VLOOKUP(B178,[1]Бланк!$D:$J,6,0)</f>
@@ -12783,13 +12871,13 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B179" s="3">
-        <v>1001024906062</v>
+        <v>1001022373812</v>
       </c>
       <c r="C179" t="s">
-        <v>283</v>
+        <v>3</v>
       </c>
       <c r="D179">
         <f>VLOOKUP(B179,[1]Бланк!$D:$J,6,0)</f>
@@ -12798,13 +12886,13 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B180" s="3">
-        <v>1001300386683</v>
+        <v>1001024906062</v>
       </c>
       <c r="C180" t="s">
-        <v>87</v>
+        <v>282</v>
       </c>
       <c r="D180">
         <f>VLOOKUP(B180,[1]Бланк!$D:$J,6,0)</f>
@@ -12813,13 +12901,13 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B181" s="3">
-        <v>1001303986689</v>
+        <v>1001300386683</v>
       </c>
       <c r="C181" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="D181">
         <f>VLOOKUP(B181,[1]Бланк!$D:$J,6,0)</f>
@@ -12828,13 +12916,13 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B182" s="3">
-        <v>1001303056692</v>
+        <v>1001303986689</v>
       </c>
       <c r="C182" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D182">
         <f>VLOOKUP(B182,[1]Бланк!$D:$J,6,0)</f>
@@ -12843,13 +12931,13 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B183" s="3">
-        <v>1001301876697</v>
+        <v>1001303056692</v>
       </c>
       <c r="C183" t="s">
-        <v>226</v>
+        <v>66</v>
       </c>
       <c r="D183">
         <f>VLOOKUP(B183,[1]Бланк!$D:$J,6,0)</f>
@@ -12858,13 +12946,13 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B184" s="3">
-        <v>1001302276666</v>
+        <v>1001301876697</v>
       </c>
       <c r="C184" t="s">
-        <v>68</v>
+        <v>225</v>
       </c>
       <c r="D184">
         <f>VLOOKUP(B184,[1]Бланк!$D:$J,6,0)</f>
@@ -12873,28 +12961,28 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B185" s="3">
-        <v>1001012634574</v>
+        <v>1001302276666</v>
       </c>
       <c r="C185" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="D185">
         <f>VLOOKUP(B185,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B186" s="3">
-        <v>1001092485452</v>
+        <v>1001012634574</v>
       </c>
       <c r="C186" t="s">
-        <v>292</v>
+        <v>12</v>
       </c>
       <c r="D186">
         <f>VLOOKUP(B186,[1]Бланк!$D:$J,6,0)</f>
@@ -12903,73 +12991,73 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B187" s="3">
-        <v>1001020966144</v>
+        <v>1001092485452</v>
       </c>
       <c r="C187" t="s">
-        <v>163</v>
+        <v>291</v>
       </c>
       <c r="D187">
         <f>VLOOKUP(B187,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B188" s="3">
-        <v>6586</v>
+        <v>1001020966144</v>
       </c>
       <c r="C188" t="s">
-        <v>269</v>
-      </c>
-      <c r="D188" t="e">
+        <v>162</v>
+      </c>
+      <c r="D188">
         <f>VLOOKUP(B188,[1]Бланк!$D:$J,6,0)</f>
-        <v>#N/A</v>
+        <v>45</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B189" s="3">
-        <v>1001304496701</v>
+        <v>6586</v>
       </c>
       <c r="C189" t="s">
-        <v>275</v>
-      </c>
-      <c r="D189">
+        <v>268</v>
+      </c>
+      <c r="D189" t="e">
         <f>VLOOKUP(B189,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B190" s="3">
-        <v>1001063655015</v>
+        <v>1001304496701</v>
       </c>
       <c r="C190" t="s">
-        <v>299</v>
+        <v>274</v>
       </c>
       <c r="D190">
         <f>VLOOKUP(B190,[1]Бланк!$D:$J,6,0)</f>
-        <v>120</v>
+        <v>45</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B191" s="3">
-        <v>1001060763287</v>
+        <v>1001063655015</v>
       </c>
       <c r="C191" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D191">
         <f>VLOOKUP(B191,[1]Бланк!$D:$J,6,0)</f>
@@ -12978,427 +13066,425 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="B192" s="3" t="s">
-        <v>312</v>
+        <v>300</v>
+      </c>
+      <c r="B192" s="3">
+        <v>1001060763287</v>
       </c>
       <c r="C192" t="s">
-        <v>179</v>
+        <v>301</v>
+      </c>
+      <c r="D192">
+        <f>VLOOKUP(B192,[1]Бланк!$D:$J,6,0)</f>
+        <v>120</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="B193" s="3">
-        <v>1001032736550</v>
+        <v>302</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>311</v>
       </c>
       <c r="C193" t="s">
-        <v>262</v>
+        <v>178</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B194" s="3">
-        <v>6758</v>
+        <v>1001032736550</v>
       </c>
       <c r="C194" t="s">
-        <v>306</v>
-      </c>
-      <c r="D194" t="e">
-        <f>VLOOKUP(B194,[1]Бланк!$D:$J,6,0)</f>
-        <v>#N/A</v>
+        <v>261</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B195" s="3">
-        <v>1001020965976</v>
+        <v>6758</v>
       </c>
       <c r="C195" t="s">
-        <v>308</v>
-      </c>
-      <c r="D195">
+        <v>305</v>
+      </c>
+      <c r="D195" t="e">
         <f>VLOOKUP(B195,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B196" s="3">
-        <v>1001215576586</v>
+        <v>1001020965976</v>
       </c>
       <c r="C196" t="s">
-        <v>310</v>
+        <v>307</v>
+      </c>
+      <c r="D196">
+        <f>VLOOKUP(B196,[1]Бланк!$D:$J,6,0)</f>
+        <v>45</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B197" s="3">
-        <v>1001094896026</v>
+        <v>1001215576586</v>
       </c>
       <c r="C197" t="s">
-        <v>315</v>
-      </c>
-      <c r="D197">
-        <f>VLOOKUP(B197,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
+        <v>309</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B198" s="3">
-        <v>1001215576586</v>
+        <v>1001094896026</v>
       </c>
       <c r="C198" t="s">
-        <v>310</v>
+        <v>314</v>
+      </c>
+      <c r="D198">
+        <f>VLOOKUP(B198,[1]Бланк!$D:$J,6,0)</f>
+        <v>60</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B199" s="3">
-        <v>1001092436470</v>
+        <v>1001215576586</v>
       </c>
       <c r="C199" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="B200" s="3">
-        <v>1001203146555</v>
+        <v>1001092436470</v>
       </c>
       <c r="C200" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="B201" s="3">
-        <v>1001014765992</v>
+        <v>1001203146555</v>
       </c>
       <c r="C201" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="B202" s="3">
         <v>1001014765992</v>
       </c>
       <c r="C202" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B203" s="3">
-        <v>1001014765993</v>
+        <v>1001014765992</v>
       </c>
       <c r="C203" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B204" s="3">
-        <v>1001025166776</v>
+        <v>1001014765993</v>
       </c>
       <c r="C204" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B205" s="3">
-        <v>1001025506777</v>
+        <v>1001025166776</v>
       </c>
       <c r="C205" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>357</v>
+        <v>331</v>
       </c>
       <c r="B206" s="3">
-        <v>1001025546822</v>
+        <v>1001025506777</v>
       </c>
       <c r="C206" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B207" s="3">
         <v>1001025546822</v>
       </c>
       <c r="C207" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="B208" s="3">
         <v>1001025546822</v>
       </c>
       <c r="C208" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="B209" s="3">
         <v>1001025546822</v>
       </c>
       <c r="C209" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B210" s="3">
-        <v>1001024976616</v>
+        <v>1001025546822</v>
       </c>
       <c r="C210" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B211" s="3">
-        <v>1001010856747</v>
+        <v>1001024976616</v>
       </c>
       <c r="C211" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B212" s="3">
-        <v>1001233296445</v>
+        <v>1001010856747</v>
       </c>
       <c r="C212" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>344</v>
+        <v>421</v>
       </c>
       <c r="B213" s="3">
-        <v>1001203146555</v>
+        <v>1001233296445</v>
       </c>
       <c r="C213" t="s">
-        <v>324</v>
+        <v>425</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B214" s="3">
-        <v>1001014765993</v>
+        <v>1001233296445</v>
       </c>
       <c r="C214" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B215" s="3">
-        <v>1001025166776</v>
+        <v>1001203146555</v>
       </c>
       <c r="C215" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B216" s="3">
-        <v>1001025506777</v>
+        <v>1001014765993</v>
       </c>
       <c r="C216" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B217" s="3">
-        <v>1001025526778</v>
+        <v>1001025166776</v>
       </c>
       <c r="C217" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="B218" s="3">
-        <v>1001304236685</v>
+        <v>1001025506777</v>
       </c>
       <c r="C218" t="s">
-        <v>354</v>
+        <v>332</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>380</v>
+        <v>348</v>
       </c>
       <c r="B219" s="3">
-        <v>1001015496769</v>
+        <v>1001025526778</v>
       </c>
       <c r="C219" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="B220" s="3">
-        <v>1001015496769</v>
+        <v>1001304236685</v>
       </c>
       <c r="C220" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="B221" s="3">
-        <v>1001014766798</v>
+        <v>1001015496769</v>
       </c>
       <c r="C221" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="B222" s="3">
-        <v>1001015026797</v>
+        <v>1001015496769</v>
       </c>
       <c r="C222" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="B223" s="3">
-        <v>1001205386222</v>
+        <v>1001014766798</v>
       </c>
       <c r="C223" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="B224" s="3">
-        <v>1001092675224</v>
+        <v>1001015026797</v>
       </c>
       <c r="C224" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="B225" s="3">
-        <v>1001225406223</v>
+        <v>1001205386222</v>
       </c>
       <c r="C225" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="B226" s="3">
-        <v>1001300366790</v>
+        <v>1001092675224</v>
       </c>
       <c r="C226" t="s">
-        <v>395</v>
-      </c>
-      <c r="D226">
-        <v>45</v>
+        <v>371</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="B227" s="3">
-        <v>1001304096791</v>
+        <v>1001225406223</v>
       </c>
       <c r="C227" t="s">
-        <v>396</v>
-      </c>
-      <c r="D227">
-        <v>45</v>
+        <v>381</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B228" s="3">
-        <v>1001304096792</v>
+        <v>1001300366790</v>
       </c>
       <c r="C228" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D228">
         <v>45</v>
@@ -13406,13 +13492,13 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B229" s="3">
-        <v>1001303636793</v>
+        <v>1001304096791</v>
       </c>
       <c r="C229" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D229">
         <v>45</v>
@@ -13420,13 +13506,13 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B230" s="3">
-        <v>1001303636794</v>
+        <v>1001304096792</v>
       </c>
       <c r="C230" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D230">
         <v>45</v>
@@ -13434,13 +13520,13 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B231" s="3">
-        <v>1001302596795</v>
+        <v>1001303636793</v>
       </c>
       <c r="C231" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D231">
         <v>45</v>
@@ -13448,13 +13534,13 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B232" s="3">
-        <v>1001302596796</v>
+        <v>1001303636794</v>
       </c>
       <c r="C232" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D232">
         <v>45</v>
@@ -13462,13 +13548,13 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B233" s="3">
-        <v>1001300456804</v>
+        <v>1001302596795</v>
       </c>
       <c r="C233" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D233">
         <v>45</v>
@@ -13476,13 +13562,13 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B234" s="3">
-        <v>1001300366806</v>
+        <v>1001302596796</v>
       </c>
       <c r="C234" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D234">
         <v>45</v>
@@ -13490,13 +13576,13 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B235" s="3">
-        <v>1001300516803</v>
+        <v>1001300456804</v>
       </c>
       <c r="C235" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D235">
         <v>45</v>
@@ -13504,13 +13590,13 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B236" s="3">
-        <v>1001300366807</v>
+        <v>1001300366806</v>
       </c>
       <c r="C236" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D236">
         <v>45</v>
@@ -13518,13 +13604,13 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="B237" s="3">
-        <v>1001300366807</v>
+        <v>1001300516803</v>
       </c>
       <c r="C237" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D237">
         <v>45</v>
@@ -13532,89 +13618,249 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="B238" s="3">
-        <v>1001300516785</v>
+        <v>1001300366807</v>
       </c>
       <c r="C238" t="s">
-        <v>409</v>
+        <v>404</v>
+      </c>
+      <c r="D238">
+        <v>45</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="B239" s="3">
-        <v>1001300456787</v>
+        <v>1001300366807</v>
       </c>
       <c r="C239" t="s">
-        <v>411</v>
+        <v>406</v>
+      </c>
+      <c r="D239">
+        <v>45</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="B240" s="3">
-        <v>1001303636793</v>
+        <v>1001300516785</v>
       </c>
       <c r="C240" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B241" s="3">
-        <v>1001302596795</v>
+        <v>1001300456787</v>
       </c>
       <c r="C241" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B242" s="3">
-        <v>1001012486332</v>
+        <v>1001303636793</v>
       </c>
       <c r="C242" t="s">
-        <v>415</v>
-      </c>
-      <c r="D242">
-        <v>60</v>
+        <v>397</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B243" s="3">
-        <v>1001012566345</v>
+        <v>1001302596795</v>
       </c>
       <c r="C243" t="s">
-        <v>417</v>
-      </c>
-      <c r="D243">
-        <v>60</v>
+        <v>399</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="B244" s="3">
+        <v>1001012486332</v>
+      </c>
+      <c r="C244" t="s">
+        <v>414</v>
+      </c>
+      <c r="D244">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A245" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B245" s="3">
+        <v>1001012566345</v>
+      </c>
+      <c r="C245" t="s">
+        <v>416</v>
+      </c>
+      <c r="D245">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A246" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="B246" s="3">
+        <v>1001031076528</v>
+      </c>
+      <c r="C246" t="s">
         <v>419</v>
       </c>
-      <c r="B244" s="3">
-        <v>1001031076528</v>
-      </c>
-      <c r="C244" t="s">
-        <v>420</v>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A247" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="B247" s="3">
+        <v>1001020836761</v>
+      </c>
+      <c r="C247" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A248" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B248" s="3">
+        <v>1001020846764</v>
+      </c>
+      <c r="C248" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A249" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B249" s="3">
+        <v>1001300366790</v>
+      </c>
+      <c r="C249" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A250" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B250" s="3">
+        <v>1001304096791</v>
+      </c>
+      <c r="C250" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A251" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="B251" s="3">
+        <v>1001303636793</v>
+      </c>
+      <c r="C251" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A252" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="B252" s="3">
+        <v>1001303636794</v>
+      </c>
+      <c r="C252" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A253" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="B253" s="3">
+        <v>1001302596795</v>
+      </c>
+      <c r="C253" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A254" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="B254" s="3">
+        <v>1001300516803</v>
+      </c>
+      <c r="C254" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A255" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="B255" s="3">
+        <v>1001300456804</v>
+      </c>
+      <c r="C255" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A256" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="B256" s="3">
+        <v>1001300366807</v>
+      </c>
+      <c r="C256" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="B257" s="3">
+        <v>1001302596796</v>
+      </c>
+      <c r="C257" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="B258" s="3">
+        <v>1001023696765</v>
+      </c>
+      <c r="C258" t="s">
+        <v>442</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C244" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
+  <autoFilter ref="A1:C257" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/moduls/1С.xlsx
+++ b/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\Останкино КИ\ostankino_ki\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{830DB4ED-2650-4AD0-B409-BE7801E5BC7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65A7896-B29D-4DD8-80FA-858E10D5D2AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$257</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$259</definedName>
   </definedNames>
   <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="451">
   <si>
     <t>1С</t>
   </si>
@@ -1366,6 +1366,30 @@
   </si>
   <si>
     <t>РУБЛЕНЫЕ сос ц/о мгс 0.36кг 6шт.</t>
+  </si>
+  <si>
+    <t>1001095716865, ВЕТЧ.НЕЖНАЯ Коровино п/о</t>
+  </si>
+  <si>
+    <t>ВЕТЧ.НЕЖНАЯ Коровино п/о</t>
+  </si>
+  <si>
+    <t>ротация</t>
+  </si>
+  <si>
+    <t>ротация завода</t>
+  </si>
+  <si>
+    <t>С ИНДЕЙКОЙ ПМ сар б/о мгс 1*3_СНГ</t>
+  </si>
+  <si>
+    <t>05,06,24</t>
+  </si>
+  <si>
+    <t>6767 РУБЛЕНЫЕ сос ц/о мгс 1*4</t>
+  </si>
+  <si>
+    <t>РУБЛЕНЫЕ сос ц/о мгс 1*4</t>
   </si>
 </sst>
 </file>
@@ -10189,11 +10213,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G258"/>
+  <dimension ref="A1:H259"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A248" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B264" sqref="B264"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10204,9 +10228,11 @@
     <col min="4" max="4" width="10.140625" customWidth="1"/>
     <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="43.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.140625" customWidth="1"/>
+    <col min="8" max="8" width="28.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10217,7 +10243,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -10232,7 +10258,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -10247,7 +10273,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -10262,7 +10288,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -10277,7 +10303,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -10292,7 +10318,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -10307,22 +10333,24 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="3">
-        <v>1001092446756</v>
+        <v>1001095716865</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>444</v>
       </c>
       <c r="D8">
-        <f>VLOOKUP(B8,[1]Бланк!$D:$J,6,0)</f>
         <v>60</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>199</v>
       </c>
@@ -10337,7 +10365,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
@@ -10352,7 +10380,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
@@ -10367,7 +10395,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>21</v>
       </c>
@@ -10382,7 +10410,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
@@ -10397,7 +10425,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
@@ -10412,7 +10440,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>27</v>
       </c>
@@ -10427,7 +10455,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>29</v>
       </c>
@@ -12359,7 +12387,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>224</v>
       </c>
@@ -12374,7 +12402,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>226</v>
       </c>
@@ -12389,7 +12417,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>228</v>
       </c>
@@ -12404,7 +12432,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>229</v>
       </c>
@@ -12419,7 +12447,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>231</v>
       </c>
@@ -12434,7 +12462,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>232</v>
       </c>
@@ -12449,7 +12477,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>234</v>
       </c>
@@ -12464,7 +12492,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>235</v>
       </c>
@@ -12479,7 +12507,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>236</v>
       </c>
@@ -12494,7 +12522,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>237</v>
       </c>
@@ -12509,7 +12537,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>238</v>
       </c>
@@ -12524,7 +12552,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>240</v>
       </c>
@@ -12539,7 +12567,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>242</v>
       </c>
@@ -12547,14 +12575,17 @@
         <v>1001035026308</v>
       </c>
       <c r="C157" t="s">
-        <v>211</v>
+        <v>447</v>
       </c>
       <c r="D157">
         <f>VLOOKUP(B157,[1]Бланк!$D:$J,6,0)</f>
         <v>45</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F157" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>243</v>
       </c>
@@ -12569,7 +12600,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>244</v>
       </c>
@@ -12584,7 +12615,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>245</v>
       </c>
@@ -12599,7 +12630,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>246</v>
       </c>
@@ -12614,7 +12645,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>247</v>
       </c>
@@ -12629,7 +12660,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>248</v>
       </c>
@@ -12644,7 +12675,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>250</v>
       </c>
@@ -12659,7 +12690,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>252</v>
       </c>
@@ -12674,7 +12705,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>254</v>
       </c>
@@ -12689,7 +12720,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>256</v>
       </c>
@@ -12704,7 +12735,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>258</v>
       </c>
@@ -12719,22 +12750,34 @@
         <v>60</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>259</v>
       </c>
       <c r="B169" s="3">
+        <v>1001095716865</v>
+      </c>
+      <c r="C169" t="s">
+        <v>444</v>
+      </c>
+      <c r="D169" t="e">
+        <f>VLOOKUP(B169,[1]Бланк!$D:$J,6,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E169" t="s">
+        <v>445</v>
+      </c>
+      <c r="F169" t="s">
+        <v>443</v>
+      </c>
+      <c r="G169" s="3">
         <v>1001092446756</v>
       </c>
-      <c r="C169" t="s">
+      <c r="H169" t="s">
         <v>16</v>
       </c>
-      <c r="D169">
-        <f>VLOOKUP(B169,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>260</v>
       </c>
@@ -12749,7 +12792,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>262</v>
       </c>
@@ -12764,7 +12807,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>263</v>
       </c>
@@ -12779,7 +12822,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>265</v>
       </c>
@@ -12794,7 +12837,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>267</v>
       </c>
@@ -12809,7 +12852,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>269</v>
       </c>
@@ -12824,7 +12867,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>273</v>
       </c>
@@ -13859,8 +13902,19 @@
         <v>442</v>
       </c>
     </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B259" s="3">
+        <v>1001023696767</v>
+      </c>
+      <c r="C259" t="s">
+        <v>450</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C257" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
+  <autoFilter ref="A1:C259" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/moduls/1С.xlsx
+++ b/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\Останкино КИ\ostankino_ki\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65A7896-B29D-4DD8-80FA-858E10D5D2AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84BAA9B-CBF6-41B4-B73C-7D32ED17DEF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="456">
   <si>
     <t>1С</t>
   </si>
@@ -1390,6 +1390,21 @@
   </si>
   <si>
     <t>РУБЛЕНЫЕ сос ц/о мгс 1*4</t>
+  </si>
+  <si>
+    <t>6764 СЛИВОЧНЫЕ сос ц/о мгс 1*4  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6829 МОЛОЧНЫЕ КЛАССИЧЕСКИЕ сос п/о мгс 2*4_С  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6829  МОЛОЧНЫЕ КЛАССИЧЕСКИЕ сос п/о мгс 2*4 С  Останккино</t>
+  </si>
+  <si>
+    <t>6767 РУБЛЕНЫЕ сос ц/о мгс 1*4  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6761 МОЛОЧНЫЕ ГОСТ сос ц/о мгс 1*4  ОСТАНКИНО</t>
   </si>
 </sst>
 </file>
@@ -10213,11 +10228,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H259"/>
+  <dimension ref="A1:H264"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
+      <pane ySplit="1" topLeftCell="A254" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C270" sqref="C270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13913,6 +13928,61 @@
         <v>450</v>
       </c>
     </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="B260" s="3">
+        <v>1001020846764</v>
+      </c>
+      <c r="C260" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="B261" s="3">
+        <v>1001024976829</v>
+      </c>
+      <c r="C261" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="B262" s="3">
+        <v>1001024976829</v>
+      </c>
+      <c r="C262" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B263" s="3">
+        <v>1001023696767</v>
+      </c>
+      <c r="C263" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="B264" s="3">
+        <v>1001020836761</v>
+      </c>
+      <c r="C264" t="s">
+        <v>427</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C259" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/moduls/1С.xlsx
+++ b/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\Останкино КИ\ostankino_ki\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84BAA9B-CBF6-41B4-B73C-7D32ED17DEF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B1C3AD-CA77-46B9-91A9-A5A026CF640F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$259</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$270</definedName>
   </definedNames>
   <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="466">
   <si>
     <t>1С</t>
   </si>
@@ -177,9 +177,6 @@
     <t>5931 ОХОТНИЧЬЯ Папа может с/к в/у 1/220 8шт.   ОСТАНКИНО</t>
   </si>
   <si>
-    <t xml:space="preserve"> ОХОТНИЧЬЯ Папа может с/к в/у 1/220 8шт.</t>
-  </si>
-  <si>
     <t>5997 ОСОБАЯ Коровино вар п/о  ОСТАНКИНО</t>
   </si>
   <si>
@@ -834,12 +831,6 @@
     <t>ДОКТОРСКАЯ ТРАДИЦ. вар п/о</t>
   </si>
   <si>
-    <t>5206 Ладожская с/к в/у ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>ЛАДОЖСКАЯ с/к в/у</t>
-  </si>
-  <si>
     <t>6586 Мрамарная и Балыковая в/к с/н мгс 1/90  Останкино</t>
   </si>
   <si>
@@ -1405,6 +1396,45 @@
   </si>
   <si>
     <t>6761 МОЛОЧНЫЕ ГОСТ сос ц/о мгс 1*4  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6780 ЛАДОЖСКАЯ с/к в/у 0,5кг 8шт  Останкино</t>
+  </si>
+  <si>
+    <t>ЛАДОЖСКАЯ с/к в/у 0.5кг 8шт.</t>
+  </si>
+  <si>
+    <t>6348 ФИЛЕЙНАЯ Папа может вар п/о 0,4кг 8шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>Патяка</t>
+  </si>
+  <si>
+    <t>ОХОТНИЧЬЯ Папа может с/к в/у 1/220 8шт.</t>
+  </si>
+  <si>
+    <t>6761 МОЛОЧНЫЕ ГОСТ сос ц/о мгс 1*4  Останкино</t>
+  </si>
+  <si>
+    <t>6764 СЛИИВОЧНЫЕ сос ц/о мгс 1*4  Останкино</t>
+  </si>
+  <si>
+    <t>6767 РУБЛЕНЫЕ сос ц/о мгс 1*4  Останкино</t>
+  </si>
+  <si>
+    <t>6865 ВЕТЧ.НЕЖНАЯ Коровино п/о  Останкино</t>
+  </si>
+  <si>
+    <t>6865 ВЕТЧ.НЕЖНАЯ Коровино п/о  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6903 СОЧНЫЕ ПМ сос п/о мгс 0.41кг_osu  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6762 СЛИВОЧНЫЕ сос ц/о мгс 0.41кг 8шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>СЛИВОЧНЫЕ сос ц/о мгс 0.41кг 8шт.</t>
   </si>
 </sst>
 </file>
@@ -10228,11 +10258,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H264"/>
+  <dimension ref="A1:H272"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A254" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C270" sqref="C270"/>
+      <pane ySplit="1" topLeftCell="A257" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B279" sqref="B279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10247,7 +10277,7 @@
     <col min="8" max="8" width="28.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10258,7 +10288,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -10273,7 +10303,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -10288,7 +10318,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -10303,7 +10333,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -10318,7 +10348,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -10333,7 +10363,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -10348,197 +10378,202 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>258</v>
       </c>
       <c r="B8" s="3">
         <v>1001095716865</v>
       </c>
       <c r="C8" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D8">
         <v>60</v>
       </c>
+      <c r="E8" t="s">
+        <v>442</v>
+      </c>
       <c r="F8" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>440</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1001092446756</v>
+      </c>
+      <c r="H8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>199</v>
+        <v>462</v>
       </c>
       <c r="B9" s="3">
+        <v>1001095716865</v>
+      </c>
+      <c r="C9" t="s">
+        <v>441</v>
+      </c>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1001095716865</v>
+      </c>
+      <c r="C10" t="s">
+        <v>441</v>
+      </c>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1001095716865</v>
+      </c>
+      <c r="C11" t="s">
+        <v>441</v>
+      </c>
+      <c r="D11">
+        <v>60</v>
+      </c>
+      <c r="F11" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B12" s="3">
         <v>1001092446756</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C12" t="s">
         <v>16</v>
-      </c>
-      <c r="D9">
-        <f>VLOOKUP(B9,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="3">
-        <v>1001012564813</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10">
-        <f>VLOOKUP(B10,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="3">
-        <v>1001060764993</v>
-      </c>
-      <c r="C11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11">
-        <f>VLOOKUP(B11,[1]Бланк!$D:$J,6,0)</f>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="3">
-        <v>1001010105246</v>
-      </c>
-      <c r="C12" t="s">
-        <v>22</v>
       </c>
       <c r="D12">
         <f>VLOOKUP(B12,[1]Бланк!$D:$J,6,0)</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B13" s="3">
-        <v>1001010855247</v>
+        <v>1001012564813</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D13">
         <f>VLOOKUP(B13,[1]Бланк!$D:$J,6,0)</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B14" s="3">
-        <v>1001012815336</v>
+        <v>1001060764993</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D14">
         <f>VLOOKUP(B14,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B15" s="3">
-        <v>1001012825337</v>
+        <v>1001010105246</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D15">
         <f>VLOOKUP(B15,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B16" s="3">
-        <v>1001053985341</v>
+        <v>1001010855247</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D16">
         <f>VLOOKUP(B16,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B17" s="3">
-        <v>1001062505483</v>
+        <v>1001012815336</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D17">
         <f>VLOOKUP(B17,[1]Бланк!$D:$J,6,0)</f>
-        <v>120</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B18" s="3">
-        <v>1001051875544</v>
+        <v>1001012825337</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D18">
         <f>VLOOKUP(B18,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B19" s="3">
-        <v>1001193115682</v>
+        <v>1001053985341</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D19">
         <f>VLOOKUP(B19,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B20" s="3">
-        <v>1001061975706</v>
+        <v>1001062505483</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D20">
         <f>VLOOKUP(B20,[1]Бланк!$D:$J,6,0)</f>
@@ -10547,87 +10582,88 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B21" s="3">
-        <v>1001063145708</v>
+        <v>1001051875544</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D21">
         <f>VLOOKUP(B21,[1]Бланк!$D:$J,6,0)</f>
-        <v>120</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B22" s="3">
-        <v>1001022465820</v>
+        <v>1001193115682</v>
       </c>
       <c r="C22" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D22">
         <f>VLOOKUP(B22,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B23" s="3">
-        <v>1001012505851</v>
+        <v>1001061975706</v>
       </c>
       <c r="C23" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D23">
         <f>VLOOKUP(B23,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>321</v>
+        <v>39</v>
       </c>
       <c r="B24" s="3">
-        <v>1001060755931</v>
+        <v>1001063145708</v>
       </c>
       <c r="C24" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D24">
+        <f>VLOOKUP(B24,[1]Бланк!$D:$J,6,0)</f>
         <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B25" s="3">
-        <v>1001060755931</v>
+        <v>1001022465820</v>
       </c>
       <c r="C25" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D25">
         <f>VLOOKUP(B25,[1]Бланк!$D:$J,6,0)</f>
-        <v>120</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B26" s="3">
-        <v>1001012815997</v>
+        <v>1001012505851</v>
       </c>
       <c r="C26" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D26">
         <f>VLOOKUP(B26,[1]Бланк!$D:$J,6,0)</f>
@@ -10636,339 +10672,338 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>49</v>
+        <v>318</v>
       </c>
       <c r="B27" s="3">
-        <v>1001024906042</v>
+        <v>1001060755931</v>
       </c>
       <c r="C27" t="s">
-        <v>50</v>
+        <v>457</v>
       </c>
       <c r="D27">
-        <f>VLOOKUP(B27,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B28" s="3">
-        <v>1001024976829</v>
+        <v>1001060755931</v>
       </c>
       <c r="C28" t="s">
-        <v>439</v>
-      </c>
-      <c r="D28" t="e">
+        <v>457</v>
+      </c>
+      <c r="D28">
         <f>VLOOKUP(B28,[1]Бланк!$D:$J,6,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E28" s="6">
-        <v>1001024976829</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>422</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B29" s="3">
-        <v>1001220286279</v>
+        <v>1001012815997</v>
       </c>
       <c r="C29" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D29">
         <f>VLOOKUP(B29,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B30" s="3">
-        <v>1001082576281</v>
+        <v>1001024906042</v>
       </c>
       <c r="C30" t="s">
-        <v>440</v>
+        <v>49</v>
       </c>
       <c r="D30">
         <f>VLOOKUP(B30,[1]Бланк!$D:$J,6,0)</f>
         <v>45</v>
       </c>
-      <c r="E30" s="8">
-        <v>1001084216206</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>424</v>
-      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B31" s="3">
-        <v>1001022556297</v>
+        <v>1001024976829</v>
       </c>
       <c r="C31" t="s">
-        <v>56</v>
-      </c>
-      <c r="D31">
+        <v>436</v>
+      </c>
+      <c r="D31" t="e">
         <f>VLOOKUP(B31,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>#N/A</v>
+      </c>
+      <c r="E31" s="6">
+        <v>1001024976829</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B32" s="3">
-        <v>1001010106325</v>
+        <v>1001220286279</v>
       </c>
       <c r="C32" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D32">
         <f>VLOOKUP(B32,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B33" s="3">
-        <v>1001012486333</v>
+        <v>1001082576281</v>
       </c>
       <c r="C33" t="s">
-        <v>60</v>
+        <v>437</v>
       </c>
       <c r="D33">
         <f>VLOOKUP(B33,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="E33" s="8">
+        <v>1001084216206</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B34" s="3">
-        <v>1001012506353</v>
+        <v>1001022556297</v>
       </c>
       <c r="C34" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D34">
         <f>VLOOKUP(B34,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>128</v>
+        <v>56</v>
       </c>
       <c r="B35" s="3">
-        <v>1001304506684</v>
+        <v>1001010106325</v>
       </c>
       <c r="C35" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D35">
         <f>VLOOKUP(B35,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>129</v>
+        <v>58</v>
       </c>
       <c r="B36" s="3">
-        <v>1001303056692</v>
+        <v>1001012486333</v>
       </c>
       <c r="C36" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D36">
         <f>VLOOKUP(B36,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B37" s="3">
-        <v>1001303636415</v>
+        <v>1001012506353</v>
       </c>
       <c r="C37" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D37">
         <f>VLOOKUP(B37,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>71</v>
+        <v>127</v>
       </c>
       <c r="B38" s="3">
-        <v>1001013956427</v>
+        <v>1001304506684</v>
       </c>
       <c r="C38" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="D38">
         <f>VLOOKUP(B38,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="B39" s="3">
-        <v>1001024636438</v>
+        <v>1001303056692</v>
       </c>
       <c r="C39" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="D39">
         <f>VLOOKUP(B39,[1]Бланк!$D:$J,6,0)</f>
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B40" s="3">
-        <v>1001234146448</v>
+        <v>1001303636415</v>
       </c>
       <c r="C40" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D40">
         <f>VLOOKUP(B40,[1]Бланк!$D:$J,6,0)</f>
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B41" s="3">
-        <v>1001233296450</v>
+        <v>1001013956427</v>
       </c>
       <c r="C41" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D41">
         <f>VLOOKUP(B41,[1]Бланк!$D:$J,6,0)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B42" s="3">
+        <v>1001024636438</v>
+      </c>
+      <c r="C42" t="s">
+        <v>73</v>
+      </c>
+      <c r="D42">
+        <f>VLOOKUP(B42,[1]Бланк!$D:$J,6,0)</f>
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="B42" s="3">
-        <v>1001202506453</v>
-      </c>
-      <c r="C42" t="s">
-        <v>80</v>
-      </c>
-      <c r="D42">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B43" s="3">
-        <v>1001202506453</v>
+        <v>1001234146448</v>
       </c>
       <c r="C43" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D43">
         <f>VLOOKUP(B43,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B44" s="3">
-        <v>1001201976454</v>
+        <v>1001233296450</v>
       </c>
       <c r="C44" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D44">
         <f>VLOOKUP(B44,[1]Бланк!$D:$J,6,0)</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B45" s="3">
+        <v>1001202506453</v>
+      </c>
+      <c r="C45" t="s">
+        <v>79</v>
+      </c>
+      <c r="D45">
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B45" s="3">
-        <v>1001025176475</v>
-      </c>
-      <c r="C45" t="s">
-        <v>84</v>
-      </c>
-      <c r="D45">
-        <f>VLOOKUP(B45,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="B46" s="3">
-        <v>1001301876697</v>
+        <v>1001202506453</v>
       </c>
       <c r="C46" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D46">
         <f>VLOOKUP(B46,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B47" s="3">
-        <v>1001024636517</v>
+        <v>1001201976454</v>
       </c>
       <c r="C47" t="s">
-        <v>88</v>
-      </c>
-      <c r="D47" t="e">
+        <v>81</v>
+      </c>
+      <c r="D47">
         <f>VLOOKUP(B47,[1]Бланк!$D:$J,6,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B48" s="3">
-        <v>1001031076527</v>
+        <v>1001025176475</v>
       </c>
       <c r="C48" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D48">
         <f>VLOOKUP(B48,[1]Бланк!$D:$J,6,0)</f>
@@ -10977,13 +11012,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="B49" s="3">
-        <v>1001304506562</v>
+        <v>1001301876697</v>
       </c>
       <c r="C49" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D49">
         <f>VLOOKUP(B49,[1]Бланк!$D:$J,6,0)</f>
@@ -10992,133 +11027,133 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B50" s="3">
-        <v>1001020846563</v>
+        <v>1001024636517</v>
       </c>
       <c r="C50" t="s">
-        <v>96</v>
-      </c>
-      <c r="D50">
+        <v>87</v>
+      </c>
+      <c r="D50" t="e">
         <f>VLOOKUP(B50,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B51" s="3">
-        <v>1001020836589</v>
+        <v>1001031076527</v>
       </c>
       <c r="C51" t="s">
-        <v>98</v>
-      </c>
-      <c r="D51" t="e">
+        <v>89</v>
+      </c>
+      <c r="D51">
         <f>VLOOKUP(B51,[1]Бланк!$D:$J,6,0)</f>
-        <v>#N/A</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B52" s="3">
-        <v>6751</v>
+        <v>1001304506562</v>
       </c>
       <c r="C52" t="s">
-        <v>100</v>
-      </c>
-      <c r="D52" t="e">
+        <v>93</v>
+      </c>
+      <c r="D52">
         <f>VLOOKUP(B52,[1]Бланк!$D:$J,6,0)</f>
-        <v>#N/A</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B53" s="3">
-        <v>1001010016592</v>
+        <v>1001020846563</v>
       </c>
       <c r="C53" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D53">
         <f>VLOOKUP(B53,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B54" s="3">
-        <v>1001010026594</v>
+        <v>1001020836589</v>
       </c>
       <c r="C54" t="s">
-        <v>104</v>
-      </c>
-      <c r="D54">
+        <v>97</v>
+      </c>
+      <c r="D54" t="e">
         <f>VLOOKUP(B54,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B55" s="3">
-        <v>1001022296601</v>
+        <v>6751</v>
       </c>
       <c r="C55" t="s">
-        <v>106</v>
-      </c>
-      <c r="D55">
+        <v>99</v>
+      </c>
+      <c r="D55" t="e">
         <f>VLOOKUP(B55,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B56" s="3">
-        <v>1001031896648</v>
+        <v>1001010016592</v>
       </c>
       <c r="C56" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="D56">
         <f>VLOOKUP(B56,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B57" s="3">
-        <v>1001035266650</v>
+        <v>1001010026594</v>
       </c>
       <c r="C57" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="D57">
         <f>VLOOKUP(B57,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B58" s="3">
-        <v>1001305256658</v>
+        <v>1001022296601</v>
       </c>
       <c r="C58" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D58">
         <f>VLOOKUP(B58,[1]Бланк!$D:$J,6,0)</f>
@@ -11127,449 +11162,451 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B59" s="3">
-        <v>1001010016593</v>
+        <v>1001031896648</v>
       </c>
       <c r="C59" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D59">
         <f>VLOOKUP(B59,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B60" s="3">
-        <v>1001010026595</v>
+        <v>1001035266650</v>
       </c>
       <c r="C60" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D60">
         <f>VLOOKUP(B60,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B61" s="3">
-        <v>1001010036597</v>
+        <v>1001305256658</v>
       </c>
       <c r="C61" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D61">
         <f>VLOOKUP(B61,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="s">
-        <v>125</v>
+      <c r="A62" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="B62" s="3">
-        <v>1001020886646</v>
+        <v>1001010016593</v>
       </c>
       <c r="C62" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="D62">
         <f>VLOOKUP(B62,[1]Бланк!$D:$J,6,0)</f>
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="4" t="s">
-        <v>350</v>
+      <c r="A63" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="B63" s="3">
-        <v>1001305306566</v>
+        <v>1001010026595</v>
       </c>
       <c r="C63" t="s">
-        <v>127</v>
+        <v>117</v>
+      </c>
+      <c r="D63">
+        <f>VLOOKUP(B63,[1]Бланк!$D:$J,6,0)</f>
+        <v>60</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B64" s="3">
-        <v>1001305306566</v>
+        <v>1001010036597</v>
       </c>
       <c r="C64" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="D64">
         <f>VLOOKUP(B64,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
-        <v>131</v>
+      <c r="A65" s="4" t="s">
+        <v>124</v>
       </c>
       <c r="B65" s="3">
-        <v>1001300386683</v>
+        <v>1001020886646</v>
       </c>
       <c r="C65" t="s">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="D65">
         <f>VLOOKUP(B65,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
-        <v>132</v>
+      <c r="A66" s="4" t="s">
+        <v>347</v>
       </c>
       <c r="B66" s="3">
-        <v>1001303986689</v>
+        <v>1001305306566</v>
       </c>
       <c r="C66" t="s">
-        <v>65</v>
-      </c>
-      <c r="D66">
-        <f>VLOOKUP(B66,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>126</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>257</v>
+        <v>125</v>
       </c>
       <c r="B67" s="3">
-        <v>1001303106773</v>
+        <v>1001305306566</v>
       </c>
       <c r="C67" t="s">
-        <v>373</v>
+        <v>126</v>
       </c>
       <c r="D67">
+        <f>VLOOKUP(B67,[1]Бланк!$D:$J,6,0)</f>
         <v>45</v>
-      </c>
-      <c r="F67" s="3">
-        <v>1001300516669</v>
-      </c>
-      <c r="G67" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="B68" s="5">
-        <v>1001303106773</v>
+        <v>130</v>
+      </c>
+      <c r="B68" s="3">
+        <v>1001300386683</v>
       </c>
       <c r="C68" t="s">
-        <v>373</v>
+        <v>85</v>
       </c>
       <c r="D68">
+        <f>VLOOKUP(B68,[1]Бланк!$D:$J,6,0)</f>
         <v>45</v>
       </c>
-      <c r="F68" s="3"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="B69" s="5">
-        <v>1001303106773</v>
+        <v>131</v>
+      </c>
+      <c r="B69" s="3">
+        <v>1001303986689</v>
       </c>
       <c r="C69" t="s">
-        <v>373</v>
+        <v>64</v>
       </c>
       <c r="D69">
+        <f>VLOOKUP(B69,[1]Бланк!$D:$J,6,0)</f>
         <v>45</v>
-      </c>
-      <c r="F69" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>130</v>
+        <v>256</v>
       </c>
       <c r="B70" s="3">
         <v>1001303106773</v>
       </c>
       <c r="C70" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D70">
         <v>45</v>
       </c>
-      <c r="F70" t="s">
-        <v>375</v>
+      <c r="F70" s="3">
+        <v>1001300516669</v>
+      </c>
+      <c r="G70" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="B71" s="3">
+        <v>379</v>
+      </c>
+      <c r="B71" s="5">
         <v>1001303106773</v>
       </c>
       <c r="C71" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D71">
         <v>45</v>
       </c>
+      <c r="F71" s="3"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="B72" s="3">
+        <v>292</v>
+      </c>
+      <c r="B72" s="5">
         <v>1001303106773</v>
       </c>
       <c r="C72" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D72">
         <v>45</v>
       </c>
+      <c r="F72" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>417</v>
+        <v>129</v>
       </c>
       <c r="B73" s="3">
         <v>1001303106773</v>
       </c>
       <c r="C73" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D73">
         <v>45</v>
       </c>
+      <c r="F73" t="s">
+        <v>372</v>
+      </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>135</v>
+        <v>420</v>
       </c>
       <c r="B74" s="3">
-        <v>1001012566392</v>
+        <v>1001303106773</v>
       </c>
       <c r="C74" t="s">
-        <v>61</v>
+        <v>370</v>
       </c>
       <c r="D74">
-        <f>VLOOKUP(B74,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>137</v>
+        <v>417</v>
       </c>
       <c r="B75" s="3">
-        <v>1001302276666</v>
+        <v>1001303106773</v>
       </c>
       <c r="C75" t="s">
-        <v>67</v>
+        <v>370</v>
       </c>
       <c r="D75">
-        <f>VLOOKUP(B75,[1]Бланк!$D:$J,6,0)</f>
         <v>45</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>139</v>
+        <v>414</v>
       </c>
       <c r="B76" s="3">
-        <v>1001012426268</v>
+        <v>1001303106773</v>
       </c>
       <c r="C76" t="s">
-        <v>138</v>
-      </c>
-      <c r="D76" t="e">
-        <f>VLOOKUP(B76,[1]Бланк!$D:$J,6,0)</f>
-        <v>#N/A</v>
+        <v>370</v>
+      </c>
+      <c r="D76">
+        <v>45</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>145</v>
+        <v>242</v>
       </c>
       <c r="B77" s="3">
-        <v>1001024906041</v>
+        <v>1001012566392</v>
       </c>
       <c r="C77" t="s">
-        <v>144</v>
+        <v>60</v>
       </c>
       <c r="D77">
         <f>VLOOKUP(B77,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>142</v>
+        <v>455</v>
       </c>
       <c r="B78" s="3">
-        <v>1001011086247</v>
+        <v>1001012566392</v>
       </c>
       <c r="C78" t="s">
-        <v>143</v>
-      </c>
-      <c r="D78" t="e">
-        <f>VLOOKUP(B78,[1]Бланк!$D:$J,6,0)</f>
-        <v>#N/A</v>
+        <v>60</v>
+      </c>
+      <c r="D78">
+        <v>60</v>
+      </c>
+      <c r="E78" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>166</v>
+        <v>134</v>
       </c>
       <c r="B79" s="3">
-        <v>1001014486158</v>
+        <v>1001012566392</v>
       </c>
       <c r="C79" t="s">
-        <v>159</v>
-      </c>
-      <c r="D79" t="e">
+        <v>60</v>
+      </c>
+      <c r="D79">
         <f>VLOOKUP(B79,[1]Бланк!$D:$J,6,0)</f>
-        <v>#N/A</v>
+        <v>60</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>168</v>
+        <v>136</v>
       </c>
       <c r="B80" s="3">
-        <v>1001015356259</v>
+        <v>1001302276666</v>
       </c>
       <c r="C80" t="s">
-        <v>160</v>
-      </c>
-      <c r="D80" t="e">
+        <v>66</v>
+      </c>
+      <c r="D80">
         <f>VLOOKUP(B80,[1]Бланк!$D:$J,6,0)</f>
-        <v>#N/A</v>
+        <v>45</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c r="B81" s="3">
-        <v>1001012816716</v>
+        <v>1001012426268</v>
       </c>
       <c r="C81" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="D81" t="e">
         <f>VLOOKUP(B81,[1]Бланк!$D:$J,6,0)</f>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>355</v>
+        <v>144</v>
       </c>
       <c r="B82" s="3">
-        <v>1001020966227</v>
+        <v>1001024906041</v>
       </c>
       <c r="C82" t="s">
-        <v>354</v>
+        <v>143</v>
       </c>
       <c r="D82">
+        <f>VLOOKUP(B82,[1]Бланк!$D:$J,6,0)</f>
         <v>45</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B83" s="3">
-        <v>1001020966227</v>
+        <v>1001011086247</v>
       </c>
       <c r="C83" t="s">
-        <v>147</v>
-      </c>
-      <c r="D83">
+        <v>142</v>
+      </c>
+      <c r="D83" t="e">
         <f>VLOOKUP(B83,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="B84" s="3">
-        <v>1001020965981</v>
+        <v>1001014486158</v>
       </c>
       <c r="C84" t="s">
-        <v>141</v>
-      </c>
-      <c r="D84">
+        <v>158</v>
+      </c>
+      <c r="D84" t="e">
         <f>VLOOKUP(B84,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>241</v>
+        <v>167</v>
       </c>
       <c r="B85" s="3">
-        <v>1001022726303</v>
+        <v>1001015356259</v>
       </c>
       <c r="C85" t="s">
-        <v>279</v>
-      </c>
-      <c r="D85">
+        <v>159</v>
+      </c>
+      <c r="D85" t="e">
         <f>VLOOKUP(B85,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>278</v>
+        <v>169</v>
       </c>
       <c r="B86" s="3">
-        <v>1001022726303</v>
+        <v>1001012816716</v>
       </c>
       <c r="C86" t="s">
-        <v>279</v>
-      </c>
-      <c r="D86">
+        <v>160</v>
+      </c>
+      <c r="D86" t="e">
         <f>VLOOKUP(B86,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>372</v>
+        <v>352</v>
       </c>
       <c r="B87" s="3">
-        <v>1001022726303</v>
+        <v>1001020966227</v>
       </c>
       <c r="C87" t="s">
-        <v>279</v>
+        <v>351</v>
       </c>
       <c r="D87">
-        <f>VLOOKUP(B87,[1]Бланк!$D:$J,6,0)</f>
         <v>45</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="B88" s="3">
-        <v>1001022726303</v>
+        <v>1001020966227</v>
       </c>
       <c r="C88" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="D88">
         <f>VLOOKUP(B88,[1]Бланк!$D:$J,6,0)</f>
@@ -11578,13 +11615,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="B89" s="3">
-        <v>1001022466726</v>
+        <v>1001020965981</v>
       </c>
       <c r="C89" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="D89">
         <f>VLOOKUP(B89,[1]Бланк!$D:$J,6,0)</f>
@@ -11593,13 +11630,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>165</v>
+        <v>240</v>
       </c>
       <c r="B90" s="3">
-        <v>1001020966144</v>
+        <v>1001022726303</v>
       </c>
       <c r="C90" t="s">
-        <v>162</v>
+        <v>276</v>
       </c>
       <c r="D90">
         <f>VLOOKUP(B90,[1]Бланк!$D:$J,6,0)</f>
@@ -11608,13 +11645,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>136</v>
+        <v>275</v>
       </c>
       <c r="B91" s="3">
-        <v>1001022376722</v>
+        <v>1001022726303</v>
       </c>
       <c r="C91" t="s">
-        <v>134</v>
+        <v>276</v>
       </c>
       <c r="D91">
         <f>VLOOKUP(B91,[1]Бланк!$D:$J,6,0)</f>
@@ -11623,13 +11660,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>151</v>
+        <v>369</v>
       </c>
       <c r="B92" s="3">
-        <v>1001022373812</v>
+        <v>1001022726303</v>
       </c>
       <c r="C92" t="s">
-        <v>3</v>
+        <v>276</v>
       </c>
       <c r="D92">
         <f>VLOOKUP(B92,[1]Бланк!$D:$J,6,0)</f>
@@ -11638,13 +11675,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="B93" s="3">
-        <v>1001022376113</v>
+        <v>1001022726303</v>
       </c>
       <c r="C93" t="s">
-        <v>4</v>
+        <v>172</v>
       </c>
       <c r="D93">
         <f>VLOOKUP(B93,[1]Бланк!$D:$J,6,0)</f>
@@ -11653,13 +11690,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>271</v>
+        <v>120</v>
       </c>
       <c r="B94" s="3">
-        <v>1001022246661</v>
+        <v>1001022466726</v>
       </c>
       <c r="C94" t="s">
-        <v>272</v>
+        <v>121</v>
       </c>
       <c r="D94">
         <f>VLOOKUP(B94,[1]Бланк!$D:$J,6,0)</f>
@@ -11668,13 +11705,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>351</v>
+        <v>164</v>
       </c>
       <c r="B95" s="3">
-        <v>1001022246661</v>
+        <v>1001020966144</v>
       </c>
       <c r="C95" t="s">
-        <v>272</v>
+        <v>161</v>
       </c>
       <c r="D95">
         <f>VLOOKUP(B95,[1]Бланк!$D:$J,6,0)</f>
@@ -11683,13 +11720,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="B96" s="3">
-        <v>1001022246661</v>
+        <v>1001022376722</v>
       </c>
       <c r="C96" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="D96">
         <f>VLOOKUP(B96,[1]Бланк!$D:$J,6,0)</f>
@@ -11698,13 +11735,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B97" s="3">
-        <v>1001022246713</v>
+        <v>1001022373812</v>
       </c>
       <c r="C97" t="s">
-        <v>123</v>
+        <v>3</v>
       </c>
       <c r="D97">
         <f>VLOOKUP(B97,[1]Бланк!$D:$J,6,0)</f>
@@ -11713,13 +11750,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B98" s="3">
-        <v>1001025166241</v>
+        <v>1001022376113</v>
       </c>
       <c r="C98" t="s">
-        <v>158</v>
+        <v>4</v>
       </c>
       <c r="D98">
         <f>VLOOKUP(B98,[1]Бланк!$D:$J,6,0)</f>
@@ -11728,208 +11765,208 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>172</v>
+        <v>268</v>
       </c>
       <c r="B99" s="3">
-        <v>6606</v>
+        <v>1001022246661</v>
       </c>
       <c r="C99" t="s">
-        <v>174</v>
-      </c>
-      <c r="D99" t="e">
+        <v>269</v>
+      </c>
+      <c r="D99">
         <f>VLOOKUP(B99,[1]Бланк!$D:$J,6,0)</f>
-        <v>#N/A</v>
+        <v>45</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>149</v>
+        <v>348</v>
       </c>
       <c r="B100" s="3">
-        <v>1001035326217</v>
+        <v>1001022246661</v>
       </c>
       <c r="C100" t="s">
-        <v>148</v>
-      </c>
-      <c r="D100" t="e">
+        <v>269</v>
+      </c>
+      <c r="D100">
         <f>VLOOKUP(B100,[1]Бланк!$D:$J,6,0)</f>
-        <v>#REF!</v>
+        <v>45</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="B101" s="3">
-        <v>1001303636301</v>
+        <v>1001022246661</v>
       </c>
       <c r="C101" t="s">
-        <v>163</v>
-      </c>
-      <c r="D101" t="e">
+        <v>152</v>
+      </c>
+      <c r="D101">
         <f>VLOOKUP(B101,[1]Бланк!$D:$J,6,0)</f>
-        <v>#N/A</v>
+        <v>45</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>107</v>
+        <v>156</v>
       </c>
       <c r="B102" s="3">
-        <v>1001303636302</v>
+        <v>1001022246713</v>
       </c>
       <c r="C102" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="D102">
         <f>VLOOKUP(B102,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B103" s="3">
-        <v>1001305196215</v>
+        <v>1001025166241</v>
       </c>
       <c r="C103" t="s">
-        <v>92</v>
+        <v>157</v>
       </c>
       <c r="D103">
         <f>VLOOKUP(B103,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B104" s="3">
-        <v>1001301876212</v>
+        <v>6606</v>
       </c>
       <c r="C104" t="s">
-        <v>164</v>
-      </c>
-      <c r="D104">
+        <v>173</v>
+      </c>
+      <c r="D104" t="e">
         <f>VLOOKUP(B104,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B105" s="3">
-        <v>1001301876213</v>
+        <v>1001035326217</v>
       </c>
       <c r="C105" t="s">
-        <v>91</v>
-      </c>
-      <c r="D105">
+        <v>147</v>
+      </c>
+      <c r="D105" t="e">
         <f>VLOOKUP(B105,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B106" s="3">
-        <v>1001303636302</v>
+        <v>1001303636301</v>
       </c>
       <c r="C106" t="s">
-        <v>108</v>
-      </c>
-      <c r="D106">
+        <v>162</v>
+      </c>
+      <c r="D106" t="e">
         <f>VLOOKUP(B106,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>177</v>
+        <v>106</v>
       </c>
       <c r="B107" s="3">
-        <v>6645</v>
+        <v>1001303636302</v>
       </c>
       <c r="C107" t="s">
-        <v>176</v>
-      </c>
-      <c r="D107" t="e">
+        <v>107</v>
+      </c>
+      <c r="D107">
         <f>VLOOKUP(B107,[1]Бланк!$D:$J,6,0)</f>
-        <v>#N/A</v>
+        <v>60</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="B108" s="3">
-        <v>1001225416228</v>
+        <v>1001305196215</v>
       </c>
       <c r="C108" t="s">
-        <v>178</v>
-      </c>
-      <c r="D108" t="e">
+        <v>91</v>
+      </c>
+      <c r="D108">
         <f>VLOOKUP(B108,[1]Бланк!$D:$J,6,0)</f>
-        <v>#N/A</v>
+        <v>60</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="B109" s="3">
-        <v>6225</v>
+        <v>1001301876212</v>
       </c>
       <c r="C109" t="s">
-        <v>299</v>
-      </c>
-      <c r="D109" t="e">
+        <v>163</v>
+      </c>
+      <c r="D109">
         <f>VLOOKUP(B109,[1]Бланк!$D:$J,6,0)</f>
-        <v>#N/A</v>
+        <v>60</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="B110" s="3">
-        <v>1001022376722</v>
+        <v>1001301876213</v>
       </c>
       <c r="C110" t="s">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="D110">
         <f>VLOOKUP(B110,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="B111" s="3">
-        <v>1001022376722</v>
+        <v>1001303636302</v>
       </c>
       <c r="C111" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="D111">
         <f>VLOOKUP(B111,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B112" s="3">
-        <v>3297</v>
+        <v>6645</v>
       </c>
       <c r="C112" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="D112" t="e">
         <f>VLOOKUP(B112,[1]Бланк!$D:$J,6,0)</f>
@@ -11938,50 +11975,58 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B113" s="3">
-        <v>1001034063297</v>
+        <v>1001225416228</v>
       </c>
       <c r="C113" t="s">
-        <v>183</v>
-      </c>
-      <c r="D113">
+        <v>177</v>
+      </c>
+      <c r="D113" t="e">
         <f>VLOOKUP(B113,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>345</v>
+        <v>179</v>
       </c>
       <c r="B114" s="3">
-        <v>1001022466726</v>
+        <v>6225</v>
       </c>
       <c r="C114" t="s">
-        <v>319</v>
+        <v>296</v>
+      </c>
+      <c r="D114" t="e">
+        <f>VLOOKUP(B114,[1]Бланк!$D:$J,6,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>320</v>
+        <v>180</v>
       </c>
       <c r="B115" s="3">
-        <v>1001022466726</v>
+        <v>1001022376722</v>
       </c>
       <c r="C115" t="s">
-        <v>319</v>
+        <v>133</v>
+      </c>
+      <c r="D115">
+        <f>VLOOKUP(B115,[1]Бланк!$D:$J,6,0)</f>
+        <v>45</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B116" s="3">
-        <v>1001022466726</v>
+        <v>1001022376722</v>
       </c>
       <c r="C116" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="D116">
         <f>VLOOKUP(B116,[1]Бланк!$D:$J,6,0)</f>
@@ -11990,103 +12035,95 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B117" s="3">
-        <v>1001021966602</v>
+        <v>3297</v>
       </c>
       <c r="C117" t="s">
-        <v>310</v>
+        <v>182</v>
       </c>
       <c r="D117" t="e">
         <f>VLOOKUP(B117,[1]Бланк!$D:$J,6,0)</f>
-        <v>#REF!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B118" s="3">
-        <v>6233</v>
+        <v>1001034063297</v>
       </c>
       <c r="C118" t="s">
-        <v>188</v>
-      </c>
-      <c r="D118" t="e">
+        <v>182</v>
+      </c>
+      <c r="D118">
         <f>VLOOKUP(B118,[1]Бланк!$D:$J,6,0)</f>
-        <v>#N/A</v>
+        <v>45</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>289</v>
+        <v>342</v>
       </c>
       <c r="B119" s="3">
-        <v>1001012826734</v>
+        <v>1001022466726</v>
       </c>
       <c r="C119" t="s">
-        <v>292</v>
-      </c>
-      <c r="D119" t="e">
-        <f>VLOOKUP(B119,[1]Бланк!$D:$J,6,0)</f>
-        <v>#REF!</v>
+        <v>316</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>190</v>
+        <v>317</v>
       </c>
       <c r="B120" s="3">
-        <v>1001012826734</v>
+        <v>1001022466726</v>
       </c>
       <c r="C120" t="s">
-        <v>191</v>
-      </c>
-      <c r="D120" t="e">
-        <f>VLOOKUP(B120,[1]Бланк!$D:$J,6,0)</f>
-        <v>#REF!</v>
+        <v>316</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B121" s="3">
-        <v>6750</v>
+        <v>1001022466726</v>
       </c>
       <c r="C121" t="s">
-        <v>98</v>
-      </c>
-      <c r="D121" t="e">
+        <v>121</v>
+      </c>
+      <c r="D121">
         <f>VLOOKUP(B121,[1]Бланк!$D:$J,6,0)</f>
-        <v>#N/A</v>
+        <v>45</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B122" s="3">
-        <v>6751</v>
+        <v>1001021966602</v>
       </c>
       <c r="C122" t="s">
-        <v>100</v>
+        <v>307</v>
       </c>
       <c r="D122" t="e">
         <f>VLOOKUP(B122,[1]Бланк!$D:$J,6,0)</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B123" s="3">
-        <v>5982</v>
+        <v>6233</v>
       </c>
       <c r="C123" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="D123" t="e">
         <f>VLOOKUP(B123,[1]Бланк!$D:$J,6,0)</f>
@@ -12095,43 +12132,43 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>196</v>
+        <v>286</v>
       </c>
       <c r="B124" s="3">
-        <v>1001020965982</v>
+        <v>1001012826734</v>
       </c>
       <c r="C124" t="s">
-        <v>195</v>
+        <v>289</v>
       </c>
       <c r="D124" t="e">
         <f>VLOOKUP(B124,[1]Бланк!$D:$J,6,0)</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="B125" s="3">
-        <v>1001094966025</v>
+        <v>1001012826734</v>
       </c>
       <c r="C125" t="s">
-        <v>198</v>
-      </c>
-      <c r="D125">
+        <v>190</v>
+      </c>
+      <c r="D125" t="e">
         <f>VLOOKUP(B125,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B126" s="3">
-        <v>6025</v>
+        <v>6750</v>
       </c>
       <c r="C126" t="s">
-        <v>198</v>
+        <v>97</v>
       </c>
       <c r="D126" t="e">
         <f>VLOOKUP(B126,[1]Бланк!$D:$J,6,0)</f>
@@ -12140,13 +12177,13 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="B127" s="3">
-        <v>6221</v>
+        <v>6751</v>
       </c>
       <c r="C127" t="s">
-        <v>200</v>
+        <v>99</v>
       </c>
       <c r="D127" t="e">
         <f>VLOOKUP(B127,[1]Бланк!$D:$J,6,0)</f>
@@ -12155,13 +12192,13 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="B128" s="3">
-        <v>1001205376221</v>
+        <v>5982</v>
       </c>
       <c r="C128" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D128" t="e">
         <f>VLOOKUP(B128,[1]Бланк!$D:$J,6,0)</f>
@@ -12170,113 +12207,118 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="B129" s="3">
-        <v>1001034063297</v>
+        <v>1001020965982</v>
       </c>
       <c r="C129" t="s">
-        <v>205</v>
-      </c>
-      <c r="D129">
+        <v>194</v>
+      </c>
+      <c r="D129" t="e">
         <f>VLOOKUP(B129,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B130" s="3">
-        <v>1001022373812</v>
+        <v>1001094966025</v>
       </c>
       <c r="C130" t="s">
-        <v>3</v>
+        <v>197</v>
       </c>
       <c r="D130">
         <f>VLOOKUP(B130,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="B131" s="3">
-        <v>1001100606827</v>
+        <v>6025</v>
       </c>
       <c r="C131" t="s">
-        <v>362</v>
-      </c>
-      <c r="D131">
-        <v>60</v>
+        <v>197</v>
+      </c>
+      <c r="D131" t="e">
+        <f>VLOOKUP(B131,[1]Бланк!$D:$J,6,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>376</v>
+        <v>200</v>
       </c>
       <c r="B132" s="3">
-        <v>1001100606827</v>
+        <v>6221</v>
       </c>
       <c r="C132" t="s">
-        <v>362</v>
-      </c>
-      <c r="D132">
-        <v>60</v>
+        <v>199</v>
+      </c>
+      <c r="D132" t="e">
+        <f>VLOOKUP(B132,[1]Бланк!$D:$J,6,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B133" s="3">
-        <v>1001100616826</v>
+        <v>1001205376221</v>
       </c>
       <c r="C133" t="s">
-        <v>363</v>
-      </c>
-      <c r="D133">
-        <v>60</v>
+        <v>199</v>
+      </c>
+      <c r="D133" t="e">
+        <f>VLOOKUP(B133,[1]Бланк!$D:$J,6,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>377</v>
+        <v>203</v>
       </c>
       <c r="B134" s="3">
-        <v>1001100616826</v>
+        <v>1001034063297</v>
       </c>
       <c r="C134" t="s">
-        <v>363</v>
+        <v>204</v>
       </c>
       <c r="D134">
-        <v>60</v>
+        <f>VLOOKUP(B134,[1]Бланк!$D:$J,6,0)</f>
+        <v>45</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B135" s="3">
-        <v>1001100626828</v>
+        <v>1001022373812</v>
       </c>
       <c r="C135" t="s">
-        <v>364</v>
+        <v>3</v>
       </c>
       <c r="D135">
-        <v>60</v>
+        <f>VLOOKUP(B135,[1]Бланк!$D:$J,6,0)</f>
+        <v>45</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>378</v>
+        <v>206</v>
       </c>
       <c r="B136" s="3">
-        <v>1001100626828</v>
+        <v>1001100606827</v>
       </c>
       <c r="C136" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="D136">
         <v>60</v>
@@ -12284,628 +12326,610 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>210</v>
+        <v>373</v>
       </c>
       <c r="B137" s="3">
-        <v>1001035026308</v>
+        <v>1001100606827</v>
       </c>
       <c r="C137" t="s">
-        <v>211</v>
+        <v>359</v>
       </c>
       <c r="D137">
-        <f>VLOOKUP(B137,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B138" s="3">
-        <v>1001014486159</v>
+        <v>1001100616826</v>
       </c>
       <c r="C138" t="s">
-        <v>213</v>
-      </c>
-      <c r="D138" t="e">
-        <f>VLOOKUP(B138,[1]Бланк!$D:$J,6,0)</f>
-        <v>#REF!</v>
+        <v>360</v>
+      </c>
+      <c r="D138">
+        <v>60</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>214</v>
+        <v>374</v>
       </c>
       <c r="B139" s="3">
-        <v>1001035326217</v>
+        <v>1001100616826</v>
       </c>
       <c r="C139" t="s">
-        <v>316</v>
-      </c>
-      <c r="D139" t="e">
-        <f>VLOOKUP(B139,[1]Бланк!$D:$J,6,0)</f>
-        <v>#REF!</v>
+        <v>360</v>
+      </c>
+      <c r="D139">
+        <v>60</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B140" s="3">
-        <v>1001012426220</v>
+        <v>1001100626828</v>
       </c>
       <c r="C140" t="s">
-        <v>216</v>
-      </c>
-      <c r="D140" t="e">
-        <f>VLOOKUP(B140,[1]Бланк!$D:$J,6,0)</f>
-        <v>#REF!</v>
+        <v>361</v>
+      </c>
+      <c r="D140">
+        <v>60</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>217</v>
+        <v>375</v>
       </c>
       <c r="B141" s="3">
-        <v>1001022466236</v>
+        <v>1001100626828</v>
       </c>
       <c r="C141" t="s">
-        <v>218</v>
+        <v>361</v>
       </c>
       <c r="D141">
-        <f>VLOOKUP(B141,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="B142" s="3">
-        <v>1001021966602</v>
+        <v>1001035026308</v>
       </c>
       <c r="C142" t="s">
-        <v>220</v>
-      </c>
-      <c r="D142" t="e">
+        <v>210</v>
+      </c>
+      <c r="D142">
         <f>VLOOKUP(B142,[1]Бланк!$D:$J,6,0)</f>
-        <v>#REF!</v>
+        <v>45</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="B143" s="3">
-        <v>1001022296656</v>
+        <v>1001014486159</v>
       </c>
       <c r="C143" t="s">
-        <v>222</v>
-      </c>
-      <c r="D143">
+        <v>212</v>
+      </c>
+      <c r="D143" t="e">
         <f>VLOOKUP(B143,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="B144" s="3">
-        <v>1001304506684</v>
+        <v>1001035326217</v>
       </c>
       <c r="C144" t="s">
-        <v>64</v>
-      </c>
-      <c r="D144">
+        <v>313</v>
+      </c>
+      <c r="D144" t="e">
         <f>VLOOKUP(B144,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="B145" s="3">
-        <v>1001301876697</v>
+        <v>1001012426220</v>
       </c>
       <c r="C145" t="s">
-        <v>225</v>
-      </c>
-      <c r="D145">
+        <v>215</v>
+      </c>
+      <c r="D145" t="e">
         <f>VLOOKUP(B145,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="B146" s="3">
-        <v>1001022246713</v>
+        <v>1001022466236</v>
       </c>
       <c r="C146" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="D146">
         <f>VLOOKUP(B146,[1]Бланк!$D:$J,6,0)</f>
         <v>45</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="B147" s="3">
-        <v>1001012816716</v>
+        <v>1001021966602</v>
       </c>
       <c r="C147" t="s">
-        <v>161</v>
+        <v>219</v>
       </c>
       <c r="D147" t="e">
         <f>VLOOKUP(B147,[1]Бланк!$D:$J,6,0)</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="B148" s="3">
-        <v>1001022376722</v>
+        <v>1001022296656</v>
       </c>
       <c r="C148" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="D148">
         <f>VLOOKUP(B148,[1]Бланк!$D:$J,6,0)</f>
         <v>45</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="B149" s="3">
-        <v>1001020846751</v>
+        <v>1001304506684</v>
       </c>
       <c r="C149" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="D149">
         <f>VLOOKUP(B149,[1]Бланк!$D:$J,6,0)</f>
         <v>45</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="B150" s="3">
-        <v>1001022725819</v>
+        <v>1001301876697</v>
       </c>
       <c r="C150" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="D150">
         <f>VLOOKUP(B150,[1]Бланк!$D:$J,6,0)</f>
         <v>45</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="B151" s="3">
-        <v>1001012825337</v>
+        <v>1001022246713</v>
       </c>
       <c r="C151" t="s">
-        <v>28</v>
+        <v>226</v>
       </c>
       <c r="D151">
         <f>VLOOKUP(B151,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="B152" s="3">
-        <v>1001012815336</v>
+        <v>1001012816716</v>
       </c>
       <c r="C152" t="s">
-        <v>26</v>
-      </c>
-      <c r="D152">
+        <v>160</v>
+      </c>
+      <c r="D152" t="e">
         <f>VLOOKUP(B152,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="B153" s="3">
-        <v>1001234146448</v>
+        <v>1001022376722</v>
       </c>
       <c r="C153" t="s">
-        <v>76</v>
+        <v>229</v>
       </c>
       <c r="D153">
         <f>VLOOKUP(B153,[1]Бланк!$D:$J,6,0)</f>
         <v>45</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="B154" s="3">
-        <v>1001022725819</v>
+        <v>1001020846751</v>
       </c>
       <c r="C154" t="s">
-        <v>233</v>
+        <v>99</v>
       </c>
       <c r="D154">
         <f>VLOOKUP(B154,[1]Бланк!$D:$J,6,0)</f>
         <v>45</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="B155" s="3">
-        <v>1001092676027</v>
+        <v>1001022725819</v>
       </c>
       <c r="C155" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D155">
         <f>VLOOKUP(B155,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="B156" s="3">
-        <v>1001301876213</v>
+        <v>1001012825337</v>
       </c>
       <c r="C156" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="D156">
         <f>VLOOKUP(B156,[1]Бланк!$D:$J,6,0)</f>
         <v>60</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="B157" s="3">
-        <v>1001035026308</v>
+        <v>1001012815336</v>
       </c>
       <c r="C157" t="s">
-        <v>447</v>
+        <v>26</v>
       </c>
       <c r="D157">
         <f>VLOOKUP(B157,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
-      </c>
-      <c r="F157" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="B158" s="3">
-        <v>1001012566392</v>
+        <v>1001234146448</v>
       </c>
       <c r="C158" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="D158">
         <f>VLOOKUP(B158,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="B159" s="3">
-        <v>1001234146448</v>
+        <v>1001022725819</v>
       </c>
       <c r="C159" t="s">
-        <v>76</v>
+        <v>232</v>
       </c>
       <c r="D159">
         <f>VLOOKUP(B159,[1]Бланк!$D:$J,6,0)</f>
         <v>45</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B160" s="3">
-        <v>1001233296450</v>
+        <v>1001092676027</v>
       </c>
       <c r="C160" t="s">
-        <v>78</v>
+        <v>238</v>
       </c>
       <c r="D160">
         <f>VLOOKUP(B160,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="B161" s="3">
-        <v>1001201976454</v>
+        <v>1001301876213</v>
       </c>
       <c r="C161" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="D161">
         <f>VLOOKUP(B161,[1]Бланк!$D:$J,6,0)</f>
         <v>60</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B162" s="3">
-        <v>1001025176475</v>
+        <v>1001035026308</v>
       </c>
       <c r="C162" t="s">
-        <v>84</v>
+        <v>444</v>
       </c>
       <c r="D162">
         <f>VLOOKUP(B162,[1]Бланк!$D:$J,6,0)</f>
         <v>45</v>
       </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F162" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B163" s="3">
-        <v>1001012456498</v>
+        <v>1001234146448</v>
       </c>
       <c r="C163" t="s">
-        <v>249</v>
+        <v>75</v>
       </c>
       <c r="D163">
         <f>VLOOKUP(B163,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B164" s="3">
-        <v>1001010036596</v>
+        <v>1001233296450</v>
       </c>
       <c r="C164" t="s">
-        <v>251</v>
+        <v>77</v>
       </c>
       <c r="D164">
         <f>VLOOKUP(B164,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="B165" s="3">
-        <v>1001033856607</v>
+        <v>1001201976454</v>
       </c>
       <c r="C165" t="s">
-        <v>253</v>
+        <v>81</v>
       </c>
       <c r="D165">
         <f>VLOOKUP(B165,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="B166" s="3">
-        <v>1001033856609</v>
+        <v>1001025176475</v>
       </c>
       <c r="C166" t="s">
-        <v>255</v>
+        <v>83</v>
       </c>
       <c r="D166">
         <f>VLOOKUP(B166,[1]Бланк!$D:$J,6,0)</f>
         <v>45</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="B167" s="3">
-        <v>1001302276666</v>
+        <v>1001012456498</v>
       </c>
       <c r="C167" t="s">
-        <v>67</v>
+        <v>248</v>
       </c>
       <c r="D167">
         <f>VLOOKUP(B167,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="B168" s="3">
-        <v>1001092446755</v>
+        <v>1001010036596</v>
       </c>
       <c r="C168" t="s">
-        <v>312</v>
+        <v>250</v>
       </c>
       <c r="D168">
         <f>VLOOKUP(B168,[1]Бланк!$D:$J,6,0)</f>
         <v>60</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="B169" s="3">
-        <v>1001095716865</v>
+        <v>1001033856607</v>
       </c>
       <c r="C169" t="s">
-        <v>444</v>
-      </c>
-      <c r="D169" t="e">
+        <v>252</v>
+      </c>
+      <c r="D169">
         <f>VLOOKUP(B169,[1]Бланк!$D:$J,6,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E169" t="s">
-        <v>445</v>
-      </c>
-      <c r="F169" t="s">
-        <v>443</v>
-      </c>
-      <c r="G169" s="3">
-        <v>1001092446756</v>
-      </c>
-      <c r="H169" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="B170" s="3">
-        <v>6550</v>
+        <v>1001033856609</v>
       </c>
       <c r="C170" t="s">
-        <v>261</v>
-      </c>
-      <c r="D170" t="e">
+        <v>254</v>
+      </c>
+      <c r="D170">
         <f>VLOOKUP(B170,[1]Бланк!$D:$J,6,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="B171" s="3">
-        <v>1001304506684</v>
+        <v>1001302276666</v>
       </c>
       <c r="C171" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D171">
         <f>VLOOKUP(B171,[1]Бланк!$D:$J,6,0)</f>
         <v>45</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B172" s="3">
-        <v>1001010113248</v>
+        <v>1001092446755</v>
       </c>
       <c r="C172" t="s">
-        <v>264</v>
+        <v>309</v>
       </c>
       <c r="D172">
         <f>VLOOKUP(B172,[1]Бланк!$D:$J,6,0)</f>
         <v>60</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B173" s="3">
-        <v>1001063925206</v>
+        <v>6550</v>
       </c>
       <c r="C173" t="s">
-        <v>266</v>
-      </c>
-      <c r="D173">
+        <v>260</v>
+      </c>
+      <c r="D173" t="e">
         <f>VLOOKUP(B173,[1]Бланк!$D:$J,6,0)</f>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B174" s="3">
-        <v>6586</v>
+        <v>1001304506684</v>
       </c>
       <c r="C174" t="s">
-        <v>268</v>
-      </c>
-      <c r="D174" t="e">
+        <v>63</v>
+      </c>
+      <c r="D174">
         <f>VLOOKUP(B174,[1]Бланк!$D:$J,6,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B175" s="3">
-        <v>1001303636467</v>
+        <v>1001010113248</v>
       </c>
       <c r="C175" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="D175">
         <f>VLOOKUP(B175,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>273</v>
+        <v>453</v>
       </c>
       <c r="B176" s="3">
-        <v>1001304496701</v>
+        <v>1001063926780</v>
       </c>
       <c r="C176" t="s">
-        <v>274</v>
+        <v>454</v>
       </c>
       <c r="D176">
-        <f>VLOOKUP(B176,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>120</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="B177" s="3">
-        <v>6144</v>
+        <v>6586</v>
       </c>
       <c r="C177" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="D177" t="e">
         <f>VLOOKUP(B177,[1]Бланк!$D:$J,6,0)</f>
@@ -12914,13 +12938,13 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="B178" s="3">
-        <v>1001022725819</v>
+        <v>1001303636467</v>
       </c>
       <c r="C178" t="s">
-        <v>233</v>
+        <v>267</v>
       </c>
       <c r="D178">
         <f>VLOOKUP(B178,[1]Бланк!$D:$J,6,0)</f>
@@ -12929,13 +12953,13 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="B179" s="3">
-        <v>1001022373812</v>
+        <v>1001304496701</v>
       </c>
       <c r="C179" t="s">
-        <v>3</v>
+        <v>271</v>
       </c>
       <c r="D179">
         <f>VLOOKUP(B179,[1]Бланк!$D:$J,6,0)</f>
@@ -12944,28 +12968,28 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="B180" s="3">
-        <v>1001024906062</v>
+        <v>6144</v>
       </c>
       <c r="C180" t="s">
-        <v>282</v>
-      </c>
-      <c r="D180">
+        <v>273</v>
+      </c>
+      <c r="D180" t="e">
         <f>VLOOKUP(B180,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="B181" s="3">
-        <v>1001300386683</v>
+        <v>1001022725819</v>
       </c>
       <c r="C181" t="s">
-        <v>86</v>
+        <v>232</v>
       </c>
       <c r="D181">
         <f>VLOOKUP(B181,[1]Бланк!$D:$J,6,0)</f>
@@ -12974,13 +12998,13 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="B182" s="3">
-        <v>1001303986689</v>
+        <v>1001022373812</v>
       </c>
       <c r="C182" t="s">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="D182">
         <f>VLOOKUP(B182,[1]Бланк!$D:$J,6,0)</f>
@@ -12989,13 +13013,13 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="B183" s="3">
-        <v>1001303056692</v>
+        <v>1001024906062</v>
       </c>
       <c r="C183" t="s">
-        <v>66</v>
+        <v>279</v>
       </c>
       <c r="D183">
         <f>VLOOKUP(B183,[1]Бланк!$D:$J,6,0)</f>
@@ -13004,13 +13028,13 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B184" s="3">
-        <v>1001301876697</v>
+        <v>1001300386683</v>
       </c>
       <c r="C184" t="s">
-        <v>225</v>
+        <v>85</v>
       </c>
       <c r="D184">
         <f>VLOOKUP(B184,[1]Бланк!$D:$J,6,0)</f>
@@ -13019,13 +13043,13 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="B185" s="3">
-        <v>1001302276666</v>
+        <v>1001303986689</v>
       </c>
       <c r="C185" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D185">
         <f>VLOOKUP(B185,[1]Бланк!$D:$J,6,0)</f>
@@ -13034,43 +13058,43 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B186" s="3">
-        <v>1001012634574</v>
+        <v>1001303056692</v>
       </c>
       <c r="C186" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="D186">
         <f>VLOOKUP(B186,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="B187" s="3">
-        <v>1001092485452</v>
+        <v>1001301876697</v>
       </c>
       <c r="C187" t="s">
-        <v>291</v>
+        <v>224</v>
       </c>
       <c r="D187">
         <f>VLOOKUP(B187,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="B188" s="3">
-        <v>1001020966144</v>
+        <v>1001302276666</v>
       </c>
       <c r="C188" t="s">
-        <v>162</v>
+        <v>66</v>
       </c>
       <c r="D188">
         <f>VLOOKUP(B188,[1]Бланк!$D:$J,6,0)</f>
@@ -13079,512 +13103,515 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="B189" s="3">
-        <v>6586</v>
+        <v>1001012634574</v>
       </c>
       <c r="C189" t="s">
-        <v>268</v>
-      </c>
-      <c r="D189" t="e">
+        <v>12</v>
+      </c>
+      <c r="D189">
         <f>VLOOKUP(B189,[1]Бланк!$D:$J,6,0)</f>
-        <v>#N/A</v>
+        <v>60</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="B190" s="3">
-        <v>1001304496701</v>
+        <v>1001092485452</v>
       </c>
       <c r="C190" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="D190">
         <f>VLOOKUP(B190,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="B191" s="3">
-        <v>1001063655015</v>
+        <v>1001020966144</v>
       </c>
       <c r="C191" t="s">
-        <v>298</v>
+        <v>161</v>
       </c>
       <c r="D191">
         <f>VLOOKUP(B191,[1]Бланк!$D:$J,6,0)</f>
-        <v>120</v>
+        <v>45</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="B192" s="3">
-        <v>1001060763287</v>
+        <v>6586</v>
       </c>
       <c r="C192" t="s">
-        <v>301</v>
-      </c>
-      <c r="D192">
+        <v>265</v>
+      </c>
+      <c r="D192" t="e">
         <f>VLOOKUP(B192,[1]Бланк!$D:$J,6,0)</f>
-        <v>120</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="B193" s="3" t="s">
-        <v>311</v>
+        <v>293</v>
+      </c>
+      <c r="B193" s="3">
+        <v>1001304496701</v>
       </c>
       <c r="C193" t="s">
-        <v>178</v>
+        <v>271</v>
+      </c>
+      <c r="D193">
+        <f>VLOOKUP(B193,[1]Бланк!$D:$J,6,0)</f>
+        <v>45</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="B194" s="3">
-        <v>1001032736550</v>
+        <v>1001063655015</v>
       </c>
       <c r="C194" t="s">
-        <v>261</v>
+        <v>295</v>
+      </c>
+      <c r="D194">
+        <f>VLOOKUP(B194,[1]Бланк!$D:$J,6,0)</f>
+        <v>120</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="B195" s="3">
-        <v>6758</v>
+        <v>1001060763287</v>
       </c>
       <c r="C195" t="s">
-        <v>305</v>
-      </c>
-      <c r="D195" t="e">
+        <v>298</v>
+      </c>
+      <c r="D195">
         <f>VLOOKUP(B195,[1]Бланк!$D:$J,6,0)</f>
-        <v>#N/A</v>
+        <v>120</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="B196" s="3">
-        <v>1001020965976</v>
+        <v>299</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>308</v>
       </c>
       <c r="C196" t="s">
-        <v>307</v>
-      </c>
-      <c r="D196">
-        <f>VLOOKUP(B196,[1]Бланк!$D:$J,6,0)</f>
-        <v>45</v>
+        <v>177</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="B197" s="3">
-        <v>1001215576586</v>
+        <v>1001032736550</v>
       </c>
       <c r="C197" t="s">
-        <v>309</v>
+        <v>260</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="B198" s="3">
-        <v>1001094896026</v>
+        <v>6758</v>
       </c>
       <c r="C198" t="s">
-        <v>314</v>
-      </c>
-      <c r="D198">
+        <v>302</v>
+      </c>
+      <c r="D198" t="e">
         <f>VLOOKUP(B198,[1]Бланк!$D:$J,6,0)</f>
-        <v>60</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="B199" s="3">
-        <v>1001215576586</v>
+        <v>1001020965976</v>
       </c>
       <c r="C199" t="s">
-        <v>309</v>
+        <v>304</v>
+      </c>
+      <c r="D199">
+        <f>VLOOKUP(B199,[1]Бланк!$D:$J,6,0)</f>
+        <v>45</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="B200" s="3">
-        <v>1001092436470</v>
+        <v>1001215576586</v>
       </c>
       <c r="C200" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="B201" s="3">
-        <v>1001203146555</v>
+        <v>1001094896026</v>
       </c>
       <c r="C201" t="s">
-        <v>323</v>
+        <v>311</v>
+      </c>
+      <c r="D201">
+        <f>VLOOKUP(B201,[1]Бланк!$D:$J,6,0)</f>
+        <v>60</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>336</v>
+        <v>312</v>
       </c>
       <c r="B202" s="3">
-        <v>1001014765992</v>
+        <v>1001215576586</v>
       </c>
       <c r="C202" t="s">
-        <v>335</v>
+        <v>306</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="B203" s="3">
-        <v>1001014765992</v>
+        <v>1001092436470</v>
       </c>
       <c r="C203" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="B204" s="3">
-        <v>1001014765993</v>
+        <v>1001203146555</v>
       </c>
       <c r="C204" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B205" s="3">
-        <v>1001025166776</v>
+        <v>1001014765992</v>
       </c>
       <c r="C205" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="B206" s="3">
-        <v>1001025506777</v>
+        <v>1001014765992</v>
       </c>
       <c r="C206" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>356</v>
+        <v>325</v>
       </c>
       <c r="B207" s="3">
-        <v>1001025546822</v>
+        <v>1001014765993</v>
       </c>
       <c r="C207" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>357</v>
+        <v>326</v>
       </c>
       <c r="B208" s="3">
-        <v>1001025546822</v>
+        <v>1001025166776</v>
       </c>
       <c r="C208" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>369</v>
+        <v>328</v>
       </c>
       <c r="B209" s="3">
-        <v>1001025546822</v>
+        <v>1001025506777</v>
       </c>
       <c r="C209" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="B210" s="3">
         <v>1001025546822</v>
       </c>
       <c r="C210" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="B211" s="3">
-        <v>1001024976616</v>
+        <v>1001025546822</v>
       </c>
       <c r="C211" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>340</v>
+        <v>366</v>
       </c>
       <c r="B212" s="3">
-        <v>1001010856747</v>
+        <v>1001025546822</v>
       </c>
       <c r="C212" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>421</v>
+        <v>330</v>
       </c>
       <c r="B213" s="3">
-        <v>1001233296445</v>
+        <v>1001025546822</v>
       </c>
       <c r="C213" t="s">
-        <v>425</v>
+        <v>331</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B214" s="3">
-        <v>1001233296445</v>
+        <v>1001024976616</v>
       </c>
       <c r="C214" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="B215" s="3">
-        <v>1001203146555</v>
+        <v>1001010856747</v>
       </c>
       <c r="C215" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>344</v>
+        <v>418</v>
       </c>
       <c r="B216" s="3">
-        <v>1001014765993</v>
+        <v>1001233296445</v>
       </c>
       <c r="C216" t="s">
-        <v>327</v>
+        <v>422</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="B217" s="3">
-        <v>1001025166776</v>
+        <v>1001233296445</v>
       </c>
       <c r="C217" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="B218" s="3">
-        <v>1001025506777</v>
+        <v>1001203146555</v>
       </c>
       <c r="C218" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="B219" s="3">
-        <v>1001025526778</v>
+        <v>1001014765993</v>
       </c>
       <c r="C219" t="s">
-        <v>349</v>
+        <v>324</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="B220" s="3">
-        <v>1001304236685</v>
+        <v>1001025166776</v>
       </c>
       <c r="C220" t="s">
-        <v>353</v>
+        <v>327</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
-        <v>379</v>
+        <v>344</v>
       </c>
       <c r="B221" s="3">
-        <v>1001015496769</v>
+        <v>1001025506777</v>
       </c>
       <c r="C221" t="s">
-        <v>358</v>
+        <v>329</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="B222" s="3">
-        <v>1001015496769</v>
+        <v>1001025526778</v>
       </c>
       <c r="C222" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="B223" s="3">
-        <v>1001014766798</v>
+        <v>1001304236685</v>
       </c>
       <c r="C223" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="B224" s="3">
-        <v>1001015026797</v>
+        <v>1001015496769</v>
       </c>
       <c r="C224" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="B225" s="3">
-        <v>1001205386222</v>
+        <v>1001015496769</v>
       </c>
       <c r="C225" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="B226" s="3">
-        <v>1001092675224</v>
+        <v>1001014766798</v>
       </c>
       <c r="C226" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="B227" s="3">
-        <v>1001225406223</v>
+        <v>1001015026797</v>
       </c>
       <c r="C227" t="s">
-        <v>381</v>
+        <v>364</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>383</v>
+        <v>363</v>
       </c>
       <c r="B228" s="3">
-        <v>1001300366790</v>
+        <v>1001205386222</v>
       </c>
       <c r="C228" t="s">
-        <v>394</v>
-      </c>
-      <c r="D228">
-        <v>45</v>
+        <v>365</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
-        <v>384</v>
+        <v>367</v>
       </c>
       <c r="B229" s="3">
-        <v>1001304096791</v>
+        <v>1001092675224</v>
       </c>
       <c r="C229" t="s">
-        <v>395</v>
-      </c>
-      <c r="D229">
-        <v>45</v>
+        <v>368</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="B230" s="3">
-        <v>1001304096792</v>
+        <v>1001225406223</v>
       </c>
       <c r="C230" t="s">
-        <v>396</v>
-      </c>
-      <c r="D230">
-        <v>45</v>
+        <v>378</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="B231" s="3">
-        <v>1001303636793</v>
+        <v>1001300366790</v>
       </c>
       <c r="C231" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="D231">
         <v>45</v>
@@ -13592,13 +13619,13 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="B232" s="3">
-        <v>1001303636794</v>
+        <v>1001304096791</v>
       </c>
       <c r="C232" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="D232">
         <v>45</v>
@@ -13606,13 +13633,13 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="B233" s="3">
-        <v>1001302596795</v>
+        <v>1001304096792</v>
       </c>
       <c r="C233" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="D233">
         <v>45</v>
@@ -13620,13 +13647,13 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="B234" s="3">
-        <v>1001302596796</v>
+        <v>1001303636793</v>
       </c>
       <c r="C234" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="D234">
         <v>45</v>
@@ -13634,13 +13661,13 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="B235" s="3">
-        <v>1001300456804</v>
+        <v>1001303636794</v>
       </c>
       <c r="C235" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="D235">
         <v>45</v>
@@ -13648,13 +13675,13 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="B236" s="3">
-        <v>1001300366806</v>
+        <v>1001302596795</v>
       </c>
       <c r="C236" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="D236">
         <v>45</v>
@@ -13662,13 +13689,13 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="B237" s="3">
-        <v>1001300516803</v>
+        <v>1001302596796</v>
       </c>
       <c r="C237" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="D237">
         <v>45</v>
@@ -13676,13 +13703,13 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="B238" s="3">
-        <v>1001300366807</v>
+        <v>1001300456804</v>
       </c>
       <c r="C238" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="D238">
         <v>45</v>
@@ -13690,13 +13717,13 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
-        <v>405</v>
+        <v>388</v>
       </c>
       <c r="B239" s="3">
-        <v>1001300366807</v>
+        <v>1001300366806</v>
       </c>
       <c r="C239" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="D239">
         <v>45</v>
@@ -13704,287 +13731,384 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="B240" s="3">
-        <v>1001300516785</v>
+        <v>1001300516803</v>
       </c>
       <c r="C240" t="s">
-        <v>408</v>
+        <v>400</v>
+      </c>
+      <c r="D240">
+        <v>45</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>409</v>
+        <v>390</v>
       </c>
       <c r="B241" s="3">
-        <v>1001300456787</v>
+        <v>1001300366807</v>
       </c>
       <c r="C241" t="s">
-        <v>410</v>
+        <v>401</v>
+      </c>
+      <c r="D241">
+        <v>45</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="B242" s="3">
-        <v>1001303636793</v>
+        <v>1001300366807</v>
       </c>
       <c r="C242" t="s">
-        <v>397</v>
+        <v>403</v>
+      </c>
+      <c r="D242">
+        <v>45</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="B243" s="3">
-        <v>1001302596795</v>
+        <v>1001300516785</v>
       </c>
       <c r="C243" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="B244" s="3">
-        <v>1001012486332</v>
+        <v>1001300456787</v>
       </c>
       <c r="C244" t="s">
-        <v>414</v>
-      </c>
-      <c r="D244">
-        <v>60</v>
+        <v>407</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="B245" s="3">
-        <v>1001012566345</v>
+        <v>1001303636793</v>
       </c>
       <c r="C245" t="s">
-        <v>416</v>
-      </c>
-      <c r="D245">
-        <v>60</v>
+        <v>394</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="B246" s="3">
-        <v>1001031076528</v>
+        <v>1001302596795</v>
       </c>
       <c r="C246" t="s">
-        <v>419</v>
+        <v>396</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
-        <v>426</v>
+        <v>410</v>
       </c>
       <c r="B247" s="3">
-        <v>1001020836761</v>
+        <v>1001012486332</v>
       </c>
       <c r="C247" t="s">
-        <v>427</v>
+        <v>411</v>
+      </c>
+      <c r="D247">
+        <v>60</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="B248" s="3">
-        <v>1001020846764</v>
+        <v>1001012566345</v>
       </c>
       <c r="C248" t="s">
-        <v>429</v>
+        <v>413</v>
+      </c>
+      <c r="D248">
+        <v>60</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="B249" s="3">
-        <v>1001300366790</v>
+        <v>1001031076528</v>
       </c>
       <c r="C249" t="s">
-        <v>394</v>
+        <v>416</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
-        <v>431</v>
+        <v>452</v>
       </c>
       <c r="B250" s="3">
-        <v>1001304096791</v>
+        <v>1001020836761</v>
       </c>
       <c r="C250" t="s">
-        <v>395</v>
+        <v>424</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
-        <v>432</v>
+        <v>458</v>
       </c>
       <c r="B251" s="3">
-        <v>1001303636793</v>
+        <v>1001020836761</v>
       </c>
       <c r="C251" t="s">
-        <v>397</v>
+        <v>424</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="B252" s="3">
-        <v>1001303636794</v>
+        <v>1001020836761</v>
       </c>
       <c r="C252" t="s">
-        <v>398</v>
+        <v>424</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="B253" s="3">
-        <v>1001302596795</v>
+        <v>1001020846764</v>
       </c>
       <c r="C253" t="s">
-        <v>399</v>
+        <v>426</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
-        <v>435</v>
+        <v>459</v>
       </c>
       <c r="B254" s="3">
-        <v>1001300516803</v>
+        <v>1001020846764</v>
       </c>
       <c r="C254" t="s">
-        <v>403</v>
+        <v>426</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="B255" s="3">
-        <v>1001300456804</v>
+        <v>1001020846764</v>
       </c>
       <c r="C255" t="s">
-        <v>401</v>
+        <v>426</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="B256" s="3">
-        <v>1001300366807</v>
+        <v>1001300366790</v>
       </c>
       <c r="C256" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="B257" s="3">
-        <v>1001302596796</v>
+        <v>1001304096791</v>
       </c>
       <c r="C257" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="B258" s="3">
-        <v>1001023696765</v>
+        <v>1001303636793</v>
       </c>
       <c r="C258" t="s">
-        <v>442</v>
+        <v>394</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
-        <v>449</v>
+        <v>430</v>
       </c>
       <c r="B259" s="3">
-        <v>1001023696767</v>
+        <v>1001303636794</v>
       </c>
       <c r="C259" t="s">
-        <v>450</v>
+        <v>395</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
-        <v>451</v>
+        <v>431</v>
       </c>
       <c r="B260" s="3">
-        <v>1001020846764</v>
+        <v>1001302596795</v>
       </c>
       <c r="C260" t="s">
-        <v>429</v>
+        <v>396</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
-        <v>452</v>
+        <v>432</v>
       </c>
       <c r="B261" s="3">
-        <v>1001024976829</v>
+        <v>1001300516803</v>
       </c>
       <c r="C261" t="s">
-        <v>439</v>
+        <v>400</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
-        <v>453</v>
+        <v>433</v>
       </c>
       <c r="B262" s="3">
-        <v>1001024976829</v>
+        <v>1001300456804</v>
       </c>
       <c r="C262" t="s">
-        <v>439</v>
+        <v>398</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
-        <v>454</v>
+        <v>434</v>
       </c>
       <c r="B263" s="3">
-        <v>1001023696767</v>
+        <v>1001300366807</v>
       </c>
       <c r="C263" t="s">
-        <v>450</v>
+        <v>401</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
-        <v>455</v>
+        <v>435</v>
       </c>
       <c r="B264" s="3">
-        <v>1001020836761</v>
+        <v>1001302596796</v>
       </c>
       <c r="C264" t="s">
-        <v>427</v>
+        <v>397</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="B265" s="3">
+        <v>1001023696765</v>
+      </c>
+      <c r="C265" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="B266" s="3">
+        <v>1001023696767</v>
+      </c>
+      <c r="C266" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="B267" s="3">
+        <v>1001023696767</v>
+      </c>
+      <c r="C267" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="B268" s="3">
+        <v>1001023696767</v>
+      </c>
+      <c r="C268" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B269" s="3">
+        <v>1001024976829</v>
+      </c>
+      <c r="C269" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B270" s="3">
+        <v>1001024976829</v>
+      </c>
+      <c r="C270" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="B271" s="3">
+        <v>1001022376722</v>
+      </c>
+      <c r="C271" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="B272" s="3">
+        <v>1001020846762</v>
+      </c>
+      <c r="C272" t="s">
+        <v>465</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C259" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
+  <autoFilter ref="A1:C270" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/moduls/1С.xlsx
+++ b/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\Останкино КИ\ostankino_ki\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1BEE9D1-A85C-4DF1-A4D4-9C025D8AF5FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D92CE58A-40E4-47CC-AE9A-DC8E5C7CE6AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$284</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$297</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="491">
   <si>
     <t>1С</t>
   </si>
@@ -261,9 +261,6 @@
     <t>6450 БЕКОН с/к с/н в/у 1/100 10шт.  ОСТАНКИНО</t>
   </si>
   <si>
-    <t>БЕКОН с/к с/н в/у 1/100 10шт.</t>
-  </si>
-  <si>
     <t>6453 ЭКСТРА Папа может с/к с/н в/у 1/100 14шт.   ОСТАНКИНО</t>
   </si>
   <si>
@@ -600,9 +597,6 @@
     <t>6734 ОСОБАЯ СО ШПИКОМ Коровино (в сетке) 0,5кг ОСТАНКИНО</t>
   </si>
   <si>
-    <t>ОСОБАЯ СО ШПИКОМ Коровино (в сетке) 0,5кг</t>
-  </si>
-  <si>
     <t>6750 МОЛОЧНЫЕ ГОСТ СН сос п/о мгс 0,41 кг 10шт ОСТАНКИНО</t>
   </si>
   <si>
@@ -1041,9 +1035,6 @@
     <t>6445 БЕКОН с/к с/н в/у 1/180 10шт.  ОСТАНКИНО</t>
   </si>
   <si>
-    <t xml:space="preserve">БЕКОН с/к с/н в/у 1/180 10шт. </t>
-  </si>
-  <si>
     <t>6555 ПОСОЛЬСКАЯ с/к с/н в/у 1/100 10шт.  ОСТАНКИНО</t>
   </si>
   <si>
@@ -1477,6 +1468,45 @@
   </si>
   <si>
     <t>6426 КЛАССИЧЕСКАЯ ПМ вар п/о 0.3кг 8шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6854 МОЛОЧНЫЕ ПРЕМИУМ ПМ сос п/о мгс 0.6кг  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>5495 ВЕТЧ.С ИНДЕЙКОЙ Папа может п/о 400*6  Останкино</t>
+  </si>
+  <si>
+    <t>6868 МОЛОЧНЫЕ ПРЕМИУМ ПМ сос п/о мгс 2*4</t>
+  </si>
+  <si>
+    <t>МОЛОЧНЫЕ ПРЕМИУМ ПМ сос п/о мгс 2*4</t>
+  </si>
+  <si>
+    <t>6919 БЕКОН Останкино с/к с/н в/у 1/180 10шт  Останкино</t>
+  </si>
+  <si>
+    <t>6834 ПОСОЛЬСКАЯ ПМ с/к с/н в/у 1/100 10шт.</t>
+  </si>
+  <si>
+    <t>5698 СЫТНЫЕ Папа может сар б/о мгс 1*3_Маяк  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6206 СВИНИНА ПО-ДОМАШНЕМУ к/в мл/к в/у 0.3кг  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6861 ДОМАШНИЙ РЕЦЕПТ Коровино вар п/о  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6768 С СЫРОМ сос ц/о мгс 0.41кг 6шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6770 ИСПАНСКИЕ сос ц/о мгс 0.41кг 6шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6340 ДОМАШНИЙ РЕЦЕПТ Коровино 0.5кг 8шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6834 ПОСОЛЬСКАЯ ПМ с/к с/н в/у 1/100 10шт.  ОСТАНКИНО</t>
   </si>
 </sst>
 </file>
@@ -1823,11 +1853,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C285"/>
+  <dimension ref="A1:C297"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1917,46 +1947,46 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B8" s="3">
         <v>1001095716865</v>
       </c>
       <c r="C8" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B9" s="3">
         <v>1001095716865</v>
       </c>
       <c r="C9" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B10" s="3">
         <v>1001095716865</v>
       </c>
       <c r="C10" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B11" s="3">
         <v>1001095716865</v>
       </c>
       <c r="C11" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1967,12 +1997,12 @@
         <v>1001095716865</v>
       </c>
       <c r="C12" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B13" s="3">
         <v>1001092446756</v>
@@ -2033,7 +2063,7 @@
         <v>1001015646861</v>
       </c>
       <c r="C18" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -2044,7 +2074,7 @@
         <v>1001015706862</v>
       </c>
       <c r="C19" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -2137,13 +2167,13 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B28" s="3">
         <v>1001060755931</v>
       </c>
       <c r="C28" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -2154,7 +2184,7 @@
         <v>1001060755931</v>
       </c>
       <c r="C29" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -2187,7 +2217,7 @@
         <v>1001024976829</v>
       </c>
       <c r="C32" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -2203,13 +2233,13 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B34" s="3">
         <v>1001084216206</v>
       </c>
       <c r="C34" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -2220,7 +2250,7 @@
         <v>1001084216206</v>
       </c>
       <c r="C35" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -2269,7 +2299,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B40" s="3">
         <v>1001304506684</v>
@@ -2280,7 +2310,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B41" s="3">
         <v>1001303056692</v>
@@ -2308,7 +2338,7 @@
         <v>1001013956426</v>
       </c>
       <c r="C43" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -2338,279 +2368,279 @@
         <v>74</v>
       </c>
       <c r="B46" s="3">
-        <v>1001233296450</v>
+        <v>1001223296919</v>
       </c>
       <c r="C46" t="s">
-        <v>75</v>
+        <v>412</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B47" s="3">
         <v>1001202506453</v>
       </c>
       <c r="C47" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B48" s="3">
         <v>1001202506453</v>
       </c>
       <c r="C48" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B49" s="3">
         <v>1001201976454</v>
       </c>
       <c r="C49" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B50" s="3">
         <v>1001025176475</v>
       </c>
       <c r="C50" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B51" s="3">
         <v>1001301876697</v>
       </c>
       <c r="C51" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B52" s="3">
         <v>1001024636517</v>
       </c>
       <c r="C52" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B53" s="3">
         <v>1001031076527</v>
       </c>
       <c r="C53" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B54" s="3">
         <v>1001304506562</v>
       </c>
       <c r="C54" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B55" s="3">
         <v>1001020846563</v>
       </c>
       <c r="C55" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B56" s="3">
         <v>1001020836589</v>
       </c>
       <c r="C56" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B57" s="3">
         <v>6751</v>
       </c>
       <c r="C57" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B58" s="3">
         <v>1001010016592</v>
       </c>
       <c r="C58" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B59" s="3">
         <v>1001010026594</v>
       </c>
       <c r="C59" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B60" s="3">
         <v>1001022296601</v>
       </c>
       <c r="C60" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B61" s="3">
         <v>1001031896648</v>
       </c>
       <c r="C61" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B62" s="3">
         <v>1001035266650</v>
       </c>
       <c r="C62" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B63" s="3">
         <v>1001305256658</v>
       </c>
       <c r="C63" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B64" s="3">
         <v>1001010016593</v>
       </c>
       <c r="C64" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B65" s="3">
         <v>1001010026595</v>
       </c>
       <c r="C65" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B66" s="3">
         <v>1001010036597</v>
       </c>
       <c r="C66" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B67" s="3">
         <v>1001020886646</v>
       </c>
       <c r="C67" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B68" s="3">
         <v>1001305306566</v>
       </c>
       <c r="C68" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B69" s="3">
         <v>1001305306566</v>
       </c>
       <c r="C69" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B70" s="3">
         <v>1001300386683</v>
       </c>
       <c r="C70" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B71" s="3">
         <v>1001303986689</v>
@@ -2621,84 +2651,84 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B72" s="3">
         <v>1001303106773</v>
       </c>
       <c r="C72" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B73" s="5">
         <v>1001303106773</v>
       </c>
       <c r="C73" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B74" s="5">
         <v>1001303106773</v>
       </c>
       <c r="C74" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B75" s="3">
         <v>1001303106773</v>
       </c>
       <c r="C75" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B76" s="3">
         <v>1001303106773</v>
       </c>
       <c r="C76" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B77" s="3">
         <v>1001303106773</v>
       </c>
       <c r="C77" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B78" s="3">
         <v>1001303106773</v>
       </c>
       <c r="C78" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B79" s="3">
         <v>1001012566392</v>
@@ -2709,7 +2739,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B80" s="3">
         <v>1001012566392</v>
@@ -2720,7 +2750,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B81" s="3">
         <v>1001012566392</v>
@@ -2731,7 +2761,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B82" s="3">
         <v>1001302276666</v>
@@ -2742,183 +2772,183 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B83" s="3">
         <v>1001012426268</v>
       </c>
       <c r="C83" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B84" s="3">
         <v>1001024906041</v>
       </c>
       <c r="C84" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B85" s="3">
         <v>1001011086247</v>
       </c>
       <c r="C85" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B86" s="3">
         <v>1001014486158</v>
       </c>
       <c r="C86" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B87" s="3">
         <v>1001015356259</v>
       </c>
       <c r="C87" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B88" s="3">
         <v>1001012816716</v>
       </c>
       <c r="C88" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B89" s="3">
         <v>1001020966227</v>
       </c>
       <c r="C89" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B90" s="3">
         <v>1001020966227</v>
       </c>
       <c r="C90" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B91" s="3">
         <v>1001020965981</v>
       </c>
       <c r="C91" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B92" s="3">
         <v>1001022726303</v>
       </c>
       <c r="C92" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B93" s="3">
         <v>1001022726303</v>
       </c>
       <c r="C93" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B94" s="3">
         <v>1001022726303</v>
       </c>
       <c r="C94" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B95" s="3">
         <v>1001022726303</v>
       </c>
       <c r="C95" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B96" s="3">
         <v>1001022466726</v>
       </c>
       <c r="C96" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B97" s="3">
         <v>1001020966144</v>
       </c>
       <c r="C97" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B98" s="3">
         <v>1001022376722</v>
       </c>
       <c r="C98" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B99" s="3">
         <v>1001022373812</v>
@@ -2929,7 +2959,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B100" s="3">
         <v>1001022376113</v>
@@ -2940,2041 +2970,2173 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B101" s="3">
         <v>1001022246661</v>
       </c>
       <c r="C101" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B102" s="3">
         <v>1001022246661</v>
       </c>
       <c r="C102" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B103" s="3">
         <v>1001022246661</v>
       </c>
       <c r="C103" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B104" s="3">
         <v>1001022246713</v>
       </c>
       <c r="C104" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B105" s="3">
         <v>1001025166241</v>
       </c>
       <c r="C105" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B106" s="3">
         <v>6606</v>
       </c>
       <c r="C106" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B107" s="3">
         <v>1001035326217</v>
       </c>
       <c r="C107" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B108" s="3">
         <v>1001303636301</v>
       </c>
       <c r="C108" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B109" s="3">
         <v>1001303636302</v>
       </c>
       <c r="C109" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B110" s="3">
         <v>1001305196215</v>
       </c>
       <c r="C110" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B111" s="3">
         <v>1001301876212</v>
       </c>
       <c r="C111" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B112" s="3">
         <v>1001301876213</v>
       </c>
       <c r="C112" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B113" s="3">
         <v>1001303636302</v>
       </c>
       <c r="C113" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B114" s="3">
         <v>6645</v>
       </c>
       <c r="C114" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B115" s="3">
         <v>1001225416228</v>
       </c>
       <c r="C115" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B116" s="3">
         <v>6225</v>
       </c>
       <c r="C116" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B117" s="3">
         <v>1001022376722</v>
       </c>
       <c r="C117" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B118" s="3">
         <v>1001022376722</v>
       </c>
       <c r="C118" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B119" s="3">
         <v>3297</v>
       </c>
       <c r="C119" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B120" s="3">
         <v>1001034065698</v>
       </c>
       <c r="C120" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B121" s="3">
         <v>1001022466726</v>
       </c>
       <c r="C121" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B122" s="3">
         <v>1001022466726</v>
       </c>
       <c r="C122" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B123" s="3">
         <v>1001022466726</v>
       </c>
       <c r="C123" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B124" s="3">
         <v>1001021966602</v>
       </c>
       <c r="C124" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B125" s="3">
         <v>6233</v>
       </c>
       <c r="C125" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B126" s="3">
         <v>1001012816341</v>
       </c>
       <c r="C126" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B127" s="3">
-        <v>1001012826734</v>
+        <v>1001012816341</v>
       </c>
       <c r="C127" t="s">
-        <v>188</v>
+        <v>465</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B128" s="3">
         <v>6750</v>
       </c>
       <c r="C128" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B129" s="3">
         <v>6751</v>
       </c>
       <c r="C129" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B130" s="3">
         <v>5982</v>
       </c>
       <c r="C130" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>193</v>
+        <v>478</v>
       </c>
       <c r="B131" s="3">
         <v>1001022656854</v>
       </c>
       <c r="C131" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="B132" s="3">
-        <v>1001094966025</v>
+        <v>1001022656854</v>
       </c>
       <c r="C132" t="s">
-        <v>195</v>
+        <v>454</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B133" s="3">
-        <v>6025</v>
+        <v>1001094966025</v>
       </c>
       <c r="C133" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B134" s="3">
-        <v>6221</v>
+        <v>6025</v>
       </c>
       <c r="C134" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B135" s="3">
-        <v>1001205376221</v>
+        <v>6221</v>
       </c>
       <c r="C135" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B136" s="3">
-        <v>1001034063297</v>
+        <v>1001205376221</v>
       </c>
       <c r="C136" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B137" s="3">
-        <v>1001022373812</v>
+        <v>1001034063297</v>
       </c>
       <c r="C137" t="s">
-        <v>3</v>
+        <v>200</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B138" s="3">
-        <v>1001100606827</v>
+        <v>1001022373812</v>
       </c>
       <c r="C138" t="s">
-        <v>355</v>
+        <v>3</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>367</v>
+        <v>202</v>
       </c>
       <c r="B139" s="3">
         <v>1001100606827</v>
       </c>
       <c r="C139" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>205</v>
+        <v>364</v>
       </c>
       <c r="B140" s="3">
-        <v>1001100616826</v>
+        <v>1001100606827</v>
       </c>
       <c r="C140" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>368</v>
+        <v>203</v>
       </c>
       <c r="B141" s="3">
         <v>1001100616826</v>
       </c>
       <c r="C141" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>206</v>
+        <v>365</v>
       </c>
       <c r="B142" s="3">
-        <v>1001100626828</v>
+        <v>1001100616826</v>
       </c>
       <c r="C142" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>369</v>
+        <v>204</v>
       </c>
       <c r="B143" s="3">
         <v>1001100626828</v>
       </c>
       <c r="C143" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>207</v>
+        <v>366</v>
       </c>
       <c r="B144" s="3">
-        <v>1001035026308</v>
+        <v>1001100626828</v>
       </c>
       <c r="C144" t="s">
-        <v>208</v>
+        <v>354</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B145" s="3">
-        <v>1001014486159</v>
+        <v>1001035026308</v>
       </c>
       <c r="C145" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B146" s="3">
-        <v>1001035326217</v>
+        <v>1001014486159</v>
       </c>
       <c r="C146" t="s">
-        <v>309</v>
+        <v>208</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B147" s="3">
-        <v>1001012426220</v>
+        <v>1001035326217</v>
       </c>
       <c r="C147" t="s">
-        <v>213</v>
+        <v>307</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B148" s="3">
-        <v>1001022466236</v>
+        <v>1001012426220</v>
       </c>
       <c r="C148" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B149" s="3">
-        <v>1001021966602</v>
+        <v>1001022466236</v>
       </c>
       <c r="C149" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B150" s="3">
-        <v>1001022296656</v>
+        <v>1001021966602</v>
       </c>
       <c r="C150" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B151" s="3">
-        <v>1001304506684</v>
+        <v>1001022296656</v>
       </c>
       <c r="C151" t="s">
-        <v>63</v>
+        <v>217</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B152" s="3">
-        <v>1001301876697</v>
+        <v>1001304506684</v>
       </c>
       <c r="C152" t="s">
-        <v>222</v>
+        <v>63</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B153" s="3">
-        <v>1001022246713</v>
+        <v>1001301876697</v>
       </c>
       <c r="C153" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B154" s="3">
-        <v>1001012816340</v>
+        <v>1001022246713</v>
       </c>
       <c r="C154" t="s">
-        <v>467</v>
+        <v>222</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B155" s="3">
-        <v>1001022376722</v>
+        <v>1001012816340</v>
       </c>
       <c r="C155" t="s">
-        <v>227</v>
+        <v>464</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B156" s="3">
-        <v>1001020846751</v>
+        <v>1001022376722</v>
       </c>
       <c r="C156" t="s">
-        <v>97</v>
+        <v>225</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B157" s="3">
-        <v>1001022725819</v>
+        <v>1001020846751</v>
       </c>
       <c r="C157" t="s">
-        <v>230</v>
+        <v>96</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B158" s="3">
-        <v>1001012825337</v>
+        <v>1001022725819</v>
       </c>
       <c r="C158" t="s">
-        <v>28</v>
+        <v>228</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B159" s="3">
-        <v>1001012815336</v>
+        <v>1001012825337</v>
       </c>
       <c r="C159" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B160" s="3">
-        <v>1001234146448</v>
+        <v>1001012815336</v>
       </c>
       <c r="C160" t="s">
-        <v>73</v>
+        <v>26</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B161" s="3">
-        <v>1001022725819</v>
+        <v>1001234146448</v>
       </c>
       <c r="C161" t="s">
-        <v>230</v>
+        <v>73</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B162" s="3">
-        <v>1001092676027</v>
+        <v>1001022725819</v>
       </c>
       <c r="C162" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B163" s="3">
-        <v>1001301876213</v>
+        <v>1001092676027</v>
       </c>
       <c r="C163" t="s">
-        <v>88</v>
+        <v>234</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B164" s="3">
-        <v>1001035026308</v>
+        <v>1001301876213</v>
       </c>
       <c r="C164" t="s">
-        <v>433</v>
+        <v>87</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B165" s="3">
-        <v>1001234146448</v>
+        <v>1001035026308</v>
       </c>
       <c r="C165" t="s">
-        <v>73</v>
+        <v>430</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B166" s="3">
-        <v>1001233296450</v>
+        <v>1001234146448</v>
       </c>
       <c r="C166" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B167" s="3">
-        <v>1001201976454</v>
+        <v>1001223296919</v>
       </c>
       <c r="C167" t="s">
-        <v>79</v>
+        <v>412</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B168" s="3">
-        <v>1001025176475</v>
+        <v>1001201976454</v>
       </c>
       <c r="C168" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B169" s="3">
-        <v>1001012456498</v>
+        <v>1001025176475</v>
       </c>
       <c r="C169" t="s">
-        <v>246</v>
+        <v>80</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B170" s="3">
-        <v>1001010036596</v>
+        <v>1001012456498</v>
       </c>
       <c r="C170" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B171" s="3">
-        <v>1001033856607</v>
+        <v>1001010036596</v>
       </c>
       <c r="C171" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B172" s="3">
-        <v>1001033856609</v>
+        <v>1001033856607</v>
       </c>
       <c r="C172" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B173" s="3">
-        <v>1001302276666</v>
+        <v>1001033856609</v>
       </c>
       <c r="C173" t="s">
-        <v>66</v>
+        <v>250</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B174" s="3">
-        <v>1001093345495</v>
+        <v>1001302276666</v>
       </c>
       <c r="C174" t="s">
-        <v>469</v>
+        <v>66</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B175" s="3">
-        <v>6550</v>
+        <v>1001093345495</v>
       </c>
       <c r="C175" t="s">
-        <v>258</v>
+        <v>466</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B176" s="3">
-        <v>1001304506684</v>
+        <v>6550</v>
       </c>
       <c r="C176" t="s">
-        <v>63</v>
+        <v>256</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B177" s="3">
-        <v>1001010113248</v>
+        <v>1001304506684</v>
       </c>
       <c r="C177" t="s">
-        <v>261</v>
+        <v>63</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>441</v>
+        <v>258</v>
       </c>
       <c r="B178" s="3">
-        <v>1001063926780</v>
+        <v>1001010113248</v>
       </c>
       <c r="C178" t="s">
-        <v>442</v>
+        <v>259</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>262</v>
+        <v>438</v>
       </c>
       <c r="B179" s="3">
-        <v>6586</v>
+        <v>1001063926780</v>
       </c>
       <c r="C179" t="s">
-        <v>263</v>
+        <v>439</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B180" s="3">
-        <v>1001303636467</v>
+        <v>6586</v>
       </c>
       <c r="C180" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B181" s="3">
-        <v>1001304496701</v>
+        <v>1001303636467</v>
       </c>
       <c r="C181" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B182" s="3">
-        <v>6144</v>
+        <v>1001304496701</v>
       </c>
       <c r="C182" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B183" s="3">
-        <v>1001022725819</v>
+        <v>6144</v>
       </c>
       <c r="C183" t="s">
-        <v>230</v>
+        <v>269</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B184" s="3">
-        <v>1001022373812</v>
+        <v>1001022725819</v>
       </c>
       <c r="C184" t="s">
-        <v>3</v>
+        <v>228</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B185" s="3">
-        <v>1001024906062</v>
+        <v>1001022373812</v>
       </c>
       <c r="C185" t="s">
-        <v>277</v>
+        <v>3</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B186" s="3">
-        <v>1001300386683</v>
+        <v>1001024906062</v>
       </c>
       <c r="C186" t="s">
-        <v>83</v>
+        <v>275</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B187" s="3">
-        <v>1001303986689</v>
+        <v>1001300386683</v>
       </c>
       <c r="C187" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B188" s="3">
-        <v>1001303056692</v>
+        <v>1001303986689</v>
       </c>
       <c r="C188" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B189" s="3">
-        <v>1001301876697</v>
+        <v>1001303056692</v>
       </c>
       <c r="C189" t="s">
-        <v>222</v>
+        <v>65</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B190" s="3">
-        <v>1001302276666</v>
+        <v>1001301876697</v>
       </c>
       <c r="C190" t="s">
-        <v>66</v>
+        <v>220</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B191" s="3">
-        <v>1001012634574</v>
+        <v>1001302276666</v>
       </c>
       <c r="C191" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B192" s="3">
-        <v>1001092485452</v>
+        <v>1001012634574</v>
       </c>
       <c r="C192" t="s">
-        <v>286</v>
+        <v>12</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B193" s="3">
-        <v>1001020966144</v>
+        <v>1001092485452</v>
       </c>
       <c r="C193" t="s">
-        <v>159</v>
+        <v>284</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B194" s="3">
-        <v>6586</v>
+        <v>1001020966144</v>
       </c>
       <c r="C194" t="s">
-        <v>263</v>
+        <v>158</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B195" s="3">
-        <v>1001304496701</v>
+        <v>6586</v>
       </c>
       <c r="C195" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B196" s="3">
-        <v>1001063655015</v>
+        <v>1001304496701</v>
       </c>
       <c r="C196" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="B197" s="3">
-        <v>1001060763287</v>
+        <v>1001063655015</v>
       </c>
       <c r="C197" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="B198" s="3" t="s">
-        <v>305</v>
+        <v>292</v>
+      </c>
+      <c r="B198" s="3">
+        <v>1001060763287</v>
       </c>
       <c r="C198" t="s">
-        <v>175</v>
+        <v>293</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="B199" s="3">
-        <v>1001032736550</v>
+        <v>294</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>303</v>
       </c>
       <c r="C199" t="s">
-        <v>258</v>
+        <v>174</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B200" s="3">
-        <v>6758</v>
+        <v>1001032736550</v>
       </c>
       <c r="C200" t="s">
-        <v>299</v>
+        <v>256</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B201" s="3">
-        <v>1001020965976</v>
+        <v>6758</v>
       </c>
       <c r="C201" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B202" s="3">
-        <v>1001215576586</v>
+        <v>1001020965976</v>
       </c>
       <c r="C202" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B203" s="3">
-        <v>1001094896026</v>
+        <v>1001215576586</v>
       </c>
       <c r="C203" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B204" s="3">
-        <v>1001215576586</v>
+        <v>1001094896026</v>
       </c>
       <c r="C204" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B205" s="3">
-        <v>1001092436470</v>
+        <v>1001215576586</v>
       </c>
       <c r="C205" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="B206" s="3">
-        <v>1001203146555</v>
+        <v>1001092436470</v>
       </c>
       <c r="C206" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="B207" s="3">
-        <v>1001014765992</v>
+        <v>1001203146555</v>
       </c>
       <c r="C207" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="B208" s="3">
         <v>1001014765992</v>
       </c>
       <c r="C208" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B209" s="3">
-        <v>1001014765993</v>
+        <v>1001014765992</v>
       </c>
       <c r="C209" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B210" s="3">
-        <v>1001025166776</v>
+        <v>1001014765993</v>
       </c>
       <c r="C210" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B211" s="3">
-        <v>1001025506777</v>
+        <v>1001025166776</v>
       </c>
       <c r="C211" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>349</v>
+        <v>322</v>
       </c>
       <c r="B212" s="3">
-        <v>1001025546822</v>
+        <v>1001025506777</v>
       </c>
       <c r="C212" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B213" s="3">
         <v>1001025546822</v>
       </c>
       <c r="C213" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="B214" s="3">
         <v>1001025546822</v>
       </c>
       <c r="C214" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>326</v>
+        <v>359</v>
       </c>
       <c r="B215" s="3">
         <v>1001025546822</v>
       </c>
       <c r="C215" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B216" s="3">
-        <v>1001024976616</v>
+        <v>1001025546822</v>
       </c>
       <c r="C216" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B217" s="3">
-        <v>1001010856747</v>
+        <v>1001024976616</v>
       </c>
       <c r="C217" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>412</v>
+        <v>331</v>
       </c>
       <c r="B218" s="3">
-        <v>1001233296445</v>
+        <v>1001010856747</v>
       </c>
       <c r="C218" t="s">
-        <v>415</v>
+        <v>330</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>334</v>
+        <v>409</v>
       </c>
       <c r="B219" s="3">
-        <v>1001233296445</v>
+        <v>1001223296919</v>
       </c>
       <c r="C219" t="s">
-        <v>335</v>
+        <v>412</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>336</v>
+        <v>482</v>
       </c>
       <c r="B220" s="3">
-        <v>1001203146834</v>
+        <v>1001223296919</v>
       </c>
       <c r="C220" t="s">
-        <v>459</v>
+        <v>412</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="B221" s="3">
-        <v>1001014765993</v>
+        <v>1001223296919</v>
       </c>
       <c r="C221" t="s">
-        <v>320</v>
+        <v>412</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B222" s="3">
-        <v>1001025166776</v>
+        <v>1001203146834</v>
       </c>
       <c r="C222" t="s">
-        <v>323</v>
+        <v>456</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="B223" s="3">
-        <v>1001025506777</v>
+        <v>1001014765993</v>
       </c>
       <c r="C223" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="B224" s="3">
-        <v>1001025526778</v>
+        <v>1001025166776</v>
       </c>
       <c r="C224" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="B225" s="3">
-        <v>1001304236685</v>
+        <v>1001025506777</v>
       </c>
       <c r="C225" t="s">
-        <v>346</v>
+        <v>323</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>370</v>
+        <v>338</v>
       </c>
       <c r="B226" s="3">
-        <v>1001015496769</v>
+        <v>1001025526778</v>
       </c>
       <c r="C226" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="B227" s="3">
-        <v>1001015496769</v>
+        <v>1001304236685</v>
       </c>
       <c r="C227" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="B228" s="3">
-        <v>1001014766798</v>
+        <v>1001015496769</v>
       </c>
       <c r="C228" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="B229" s="3">
-        <v>1001015026797</v>
+        <v>1001015496769</v>
       </c>
       <c r="C229" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="B230" s="3">
-        <v>1001205386222</v>
+        <v>1001014766798</v>
       </c>
       <c r="C230" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="B231" s="3">
-        <v>1001092675224</v>
+        <v>1001015026797</v>
       </c>
       <c r="C231" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
       <c r="B232" s="3">
-        <v>1001225406223</v>
+        <v>1001205386222</v>
       </c>
       <c r="C232" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="B233" s="3">
-        <v>1001300366790</v>
+        <v>1001092675224</v>
       </c>
       <c r="C233" t="s">
-        <v>385</v>
+        <v>361</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="B234" s="3">
-        <v>1001304096791</v>
+        <v>1001225406223</v>
       </c>
       <c r="C234" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B235" s="3">
-        <v>1001304096792</v>
+        <v>1001300366790</v>
       </c>
       <c r="C235" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="B236" s="3">
-        <v>1001303636793</v>
+        <v>1001304096791</v>
       </c>
       <c r="C236" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="B237" s="3">
-        <v>1001303636794</v>
+        <v>1001304096792</v>
       </c>
       <c r="C237" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="B238" s="3">
-        <v>1001302596795</v>
+        <v>1001303636793</v>
       </c>
       <c r="C238" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="B239" s="3">
-        <v>1001302596796</v>
+        <v>1001303636794</v>
       </c>
       <c r="C239" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B240" s="3">
-        <v>1001300456804</v>
+        <v>1001302596795</v>
       </c>
       <c r="C240" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>472</v>
+        <v>377</v>
       </c>
       <c r="B241" s="3">
-        <v>1001300366806</v>
+        <v>1001302596796</v>
       </c>
       <c r="C241" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B242" s="3">
-        <v>1001300366806</v>
+        <v>1001300456804</v>
       </c>
       <c r="C242" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>383</v>
+        <v>469</v>
       </c>
       <c r="B243" s="3">
-        <v>1001300516803</v>
+        <v>1001300366806</v>
       </c>
       <c r="C243" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B244" s="3">
-        <v>1001300366807</v>
+        <v>1001300366806</v>
       </c>
       <c r="C244" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="B245" s="3">
-        <v>1001300366807</v>
+        <v>1001300516803</v>
       </c>
       <c r="C245" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
-        <v>398</v>
+        <v>381</v>
       </c>
       <c r="B246" s="3">
-        <v>1001300516785</v>
+        <v>1001300366807</v>
       </c>
       <c r="C246" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="B247" s="3">
-        <v>1001300456787</v>
+        <v>1001300366807</v>
       </c>
       <c r="C247" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="B248" s="3">
-        <v>1001303636793</v>
+        <v>1001300516785</v>
       </c>
       <c r="C248" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="B249" s="3">
-        <v>1001302596795</v>
+        <v>1001300456787</v>
       </c>
       <c r="C249" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="B250" s="3">
-        <v>1001012486332</v>
+        <v>1001303636793</v>
       </c>
       <c r="C250" t="s">
-        <v>405</v>
+        <v>385</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="B251" s="3">
-        <v>1001012566345</v>
+        <v>1001302596795</v>
       </c>
       <c r="C251" t="s">
-        <v>407</v>
+        <v>387</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="B252" s="3">
-        <v>1001031076528</v>
+        <v>1001012486332</v>
       </c>
       <c r="C252" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
-        <v>440</v>
+        <v>403</v>
       </c>
       <c r="B253" s="3">
-        <v>1001020836761</v>
+        <v>1001012566345</v>
       </c>
       <c r="C253" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
-        <v>445</v>
+        <v>406</v>
       </c>
       <c r="B254" s="3">
-        <v>1001020836761</v>
+        <v>1001031076528</v>
       </c>
       <c r="C254" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
-        <v>416</v>
+        <v>437</v>
       </c>
       <c r="B255" s="3">
         <v>1001020836761</v>
       </c>
       <c r="C255" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="B256" s="3">
-        <v>1001020846764</v>
+        <v>1001020836761</v>
       </c>
       <c r="C256" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
-        <v>446</v>
+        <v>413</v>
       </c>
       <c r="B257" s="3">
-        <v>1001020846764</v>
+        <v>1001020836761</v>
       </c>
       <c r="C257" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
-        <v>418</v>
+        <v>433</v>
       </c>
       <c r="B258" s="3">
         <v>1001020846764</v>
       </c>
       <c r="C258" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
-        <v>420</v>
+        <v>443</v>
       </c>
       <c r="B259" s="3">
-        <v>1001300366790</v>
+        <v>1001020846764</v>
       </c>
       <c r="C259" t="s">
-        <v>385</v>
+        <v>416</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="B260" s="3">
-        <v>1001304096791</v>
+        <v>1001020846764</v>
       </c>
       <c r="C260" t="s">
-        <v>386</v>
+        <v>416</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B261" s="3">
-        <v>1001303636793</v>
+        <v>1001300366790</v>
       </c>
       <c r="C261" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="B262" s="3">
-        <v>1001303636794</v>
+        <v>1001304096791</v>
       </c>
       <c r="C262" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="B263" s="3">
-        <v>1001302596795</v>
+        <v>1001303636793</v>
       </c>
       <c r="C263" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="B264" s="3">
-        <v>1001300516803</v>
+        <v>1001303636794</v>
       </c>
       <c r="C264" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="B265" s="3">
-        <v>1001300456804</v>
+        <v>1001302596795</v>
       </c>
       <c r="C265" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="B266" s="3">
-        <v>1001300366807</v>
+        <v>1001300516803</v>
       </c>
       <c r="C266" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="B267" s="3">
-        <v>1001302596796</v>
+        <v>1001300456804</v>
       </c>
       <c r="C267" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
-        <v>478</v>
+        <v>424</v>
       </c>
       <c r="B268" s="3">
-        <v>1001023696765</v>
+        <v>1001300366807</v>
       </c>
       <c r="C268" t="s">
-        <v>431</v>
+        <v>392</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="B269" s="3">
-        <v>1001023696765</v>
+        <v>1001302596796</v>
       </c>
       <c r="C269" t="s">
-        <v>431</v>
+        <v>388</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
-        <v>439</v>
+        <v>475</v>
       </c>
       <c r="B270" s="3">
-        <v>1001023696767</v>
+        <v>1001023696765</v>
       </c>
       <c r="C270" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
-        <v>447</v>
+        <v>427</v>
       </c>
       <c r="B271" s="3">
-        <v>1001023696767</v>
+        <v>1001023696765</v>
       </c>
       <c r="C271" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B272" s="3">
         <v>1001023696767</v>
       </c>
       <c r="C272" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="B273" s="3">
-        <v>1001024976829</v>
+        <v>1001023696767</v>
       </c>
       <c r="C273" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="B274" s="3">
-        <v>1001024976829</v>
+        <v>1001023696767</v>
       </c>
       <c r="C274" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="B275" s="3">
-        <v>1001022376722</v>
+        <v>1001024976829</v>
       </c>
       <c r="C275" t="s">
-        <v>131</v>
+        <v>426</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
-        <v>477</v>
+        <v>435</v>
       </c>
       <c r="B276" s="3">
-        <v>1001020846762</v>
+        <v>1001024976829</v>
       </c>
       <c r="C276" t="s">
-        <v>452</v>
+        <v>426</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B277" s="3">
-        <v>1001020846762</v>
+        <v>1001022376722</v>
       </c>
       <c r="C277" t="s">
-        <v>452</v>
+        <v>130</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
-        <v>454</v>
+        <v>474</v>
       </c>
       <c r="B278" s="3">
-        <v>1001022656853</v>
+        <v>1001020846762</v>
       </c>
       <c r="C278" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="B279" s="3">
-        <v>1001022656852</v>
+        <v>1001020846762</v>
       </c>
       <c r="C279" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
-        <v>479</v>
+        <v>451</v>
       </c>
       <c r="B280" s="3">
-        <v>1001020836759</v>
+        <v>1001022656853</v>
       </c>
       <c r="C280" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="B281" s="3">
-        <v>1001020836759</v>
+        <v>1001022656852</v>
       </c>
       <c r="C281" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
       <c r="B282" s="3">
-        <v>1001023856870</v>
+        <v>1001020836759</v>
       </c>
       <c r="C282" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
-        <v>474</v>
+        <v>459</v>
       </c>
       <c r="B283" s="3">
-        <v>1001025486770</v>
+        <v>1001020836759</v>
       </c>
       <c r="C283" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
-        <v>475</v>
+        <v>461</v>
       </c>
       <c r="B284" s="3">
-        <v>1001025176768</v>
+        <v>1001023856870</v>
       </c>
       <c r="C284" t="s">
-        <v>476</v>
+        <v>462</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="B285" s="3">
+        <v>1001025486770</v>
+      </c>
+      <c r="C285" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="B286" s="3">
+        <v>1001025176768</v>
+      </c>
+      <c r="C286" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="B287" s="3">
+        <v>1001013956426</v>
+      </c>
+      <c r="C287" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="B288" s="3">
+        <v>1001093345495</v>
+      </c>
+      <c r="C288" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="B285" s="3">
-        <v>1001013956426</v>
-      </c>
-      <c r="C285" t="s">
-        <v>458</v>
+      <c r="B289" s="3">
+        <v>1001022656868</v>
+      </c>
+      <c r="C289" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="B290" s="3">
+        <v>1001203146834</v>
+      </c>
+      <c r="C290" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="B291" s="3">
+        <v>1001034065698</v>
+      </c>
+      <c r="C291" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="B292" s="3">
+        <v>1001084216206</v>
+      </c>
+      <c r="C292" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="B293" s="3">
+        <v>1001015646861</v>
+      </c>
+      <c r="C293" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="B294" s="3">
+        <v>1001025176768</v>
+      </c>
+      <c r="C294" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="B295" s="3">
+        <v>1001025486770</v>
+      </c>
+      <c r="C295" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="B296" s="3">
+        <v>1001012816340</v>
+      </c>
+      <c r="C296" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="B297" s="3">
+        <v>1001203146834</v>
+      </c>
+      <c r="C297" t="s">
+        <v>456</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C284" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
+  <autoFilter ref="A1:C297" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/moduls/1С.xlsx
+++ b/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\Останкино КИ\ostankino_ki\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D92CE58A-40E4-47CC-AE9A-DC8E5C7CE6AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C31A67-F239-4977-8E3F-2DB2D3EF8191}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$297</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$314</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="508">
   <si>
     <t>1С</t>
   </si>
@@ -201,9 +201,6 @@
     <t>6297 ФИЛЕЙНЫЕ сос ц/о в/у 1/270 12шт_45с  ОСТАНКИНО</t>
   </si>
   <si>
-    <t>ФИЛЕЙНЫЕ сос ц/о в/у 1/270 12шт_45с</t>
-  </si>
-  <si>
     <t>6325 ДОКТОРСКАЯ ПРЕМИУМ вар п/о 0.4кг 8шт.  ОСТАНКИНО</t>
   </si>
   <si>
@@ -447,9 +444,6 @@
     <t>5981 МОЛОЧНЫЕ ТРАДИЦ. сос п/о мгс 1*6_45с   ОСТАНКИНО</t>
   </si>
   <si>
-    <t>МОЛОЧНЫЕ ТРАДИЦ. сос п/о мгс 1*6_45с</t>
-  </si>
-  <si>
     <t>6247 ДОМАШНЯЯ Папа может вар п/о 0,4кг 8шт.  ОСТАНКИНО</t>
   </si>
   <si>
@@ -636,9 +630,6 @@
     <t>3297 СЫТНЫЕ Папа может сар б/о мгс 1*3_СНГ  Останкино</t>
   </si>
   <si>
-    <t>СЫТНЫЕ Папа может сар б/о мгс 1*3</t>
-  </si>
-  <si>
     <t>3812 СОЧНЫЕ сос п/о мгс 2*2  Останкино</t>
   </si>
   <si>
@@ -1507,6 +1498,66 @@
   </si>
   <si>
     <t>6834 ПОСОЛЬСКАЯ ПМ с/к с/н в/у 1/100 10шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6791 СЕРВЕЛАТ ПРЕМИУМ в/к в/у 0,33кг 8шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6759 МОЛОЧНЫЕ ГОСТ сос ц/о мгс 0,4кг 7 шт  Останкино</t>
+  </si>
+  <si>
+    <t>6762 СЛИВОЧНЫЕ сос ц/о мгс 0,41кг 8шт  Останкино</t>
+  </si>
+  <si>
+    <t>6765 РУБЛЕНЫЕ сос ц/о мгс 0,36кг 6шт  Останкино</t>
+  </si>
+  <si>
+    <t>6768 С СЫРОМ сос ц/о мгс 0,41кг 6шт  Останкино</t>
+  </si>
+  <si>
+    <t>6770 ИСПАНСКИЕ сос ц/о мгс 0,41кг 6шт  Останкино</t>
+  </si>
+  <si>
+    <t>6861 ДОМАШНИЙ РЕЦЕПТ Коровино вар п/о  Останкино</t>
+  </si>
+  <si>
+    <t>БЕКОН Останкино с/к с/н в/у 1/180 10шт</t>
+  </si>
+  <si>
+    <t>ФИЛЕЙНЫЕ Папа может сос ц/о мгс 0.33кг</t>
+  </si>
+  <si>
+    <t>6792 СЕРВЕЛАТ ПРЕМИУМ в/к в/у  Останкино</t>
+  </si>
+  <si>
+    <t>6862 ДОМАШНИЙ РЕЦЕПТ СО ШПИК. Коровино вар п/о  Останкино</t>
+  </si>
+  <si>
+    <t>6788 СЕРВЕЛАТ КРЕМЛЕВСКИЙ в/к в/у  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ КРЕМЛЕВСКИЙ в/к в/у</t>
+  </si>
+  <si>
+    <t>6919 БЕКОН с/к с/н в/у 1/180 10шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6862 ДОМАШНИЙ РЕЦЕПТ СО ШПИК. Коровино вар п/о  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>5698 СЫТНЫЕ Папа может сар б/о мгс 1*3_Маяк  Останкино</t>
+  </si>
+  <si>
+    <t>6834 ПОСОЛЬСКАЯ с/к с/н в/у 1/100 10шт  Останкино</t>
+  </si>
+  <si>
+    <t>6868 МОЛОЧНЫЕ ПРЕМИУМ ПМ сос п/о мгс 2*4  Останкино</t>
+  </si>
+  <si>
+    <t>6069 ФИЛЕЙНЫЕ Папа может сос ц/о мгс 0,33кг  Останкино</t>
+  </si>
+  <si>
+    <t>6340 ДОМАШНИЙ РЕЦЕПТ Коровино 0,5кг 8шт.  Останкино</t>
   </si>
 </sst>
 </file>
@@ -1853,11 +1904,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C297"/>
+  <dimension ref="A1:F314"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1866,6 +1917,8 @@
     <col min="2" max="2" width="16.42578125" style="3" customWidth="1"/>
     <col min="3" max="3" width="44.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.140625" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1947,46 +2000,46 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B8" s="3">
         <v>1001095716865</v>
       </c>
       <c r="C8" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B9" s="3">
         <v>1001095716865</v>
       </c>
       <c r="C9" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B10" s="3">
         <v>1001095716865</v>
       </c>
       <c r="C10" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B11" s="3">
         <v>1001095716865</v>
       </c>
       <c r="C11" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1997,12 +2050,12 @@
         <v>1001095716865</v>
       </c>
       <c r="C12" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B13" s="3">
         <v>1001092446756</v>
@@ -2063,1038 +2116,1040 @@
         <v>1001015646861</v>
       </c>
       <c r="C18" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>27</v>
+        <v>502</v>
       </c>
       <c r="B19" s="3">
         <v>1001015706862</v>
       </c>
       <c r="C19" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>29</v>
+        <v>498</v>
       </c>
       <c r="B20" s="3">
-        <v>1001053985341</v>
+        <v>1001015706862</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>460</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B21" s="3">
-        <v>1001062505483</v>
+        <v>1001015706862</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>460</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B22" s="3">
-        <v>1001051875544</v>
+        <v>1001053985341</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B23" s="3">
-        <v>1001193115682</v>
+        <v>1001062505483</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B24" s="3">
-        <v>1001061975706</v>
+        <v>1001051875544</v>
       </c>
       <c r="C24" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B25" s="3">
-        <v>1001063145708</v>
+        <v>1001193115682</v>
       </c>
       <c r="C25" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B26" s="3">
-        <v>1001022465820</v>
+        <v>1001061975706</v>
       </c>
       <c r="C26" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B27" s="3">
-        <v>1001012505851</v>
+        <v>1001063145708</v>
       </c>
       <c r="C27" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>312</v>
+        <v>41</v>
       </c>
       <c r="B28" s="3">
-        <v>1001060755931</v>
+        <v>1001022465820</v>
       </c>
       <c r="C28" t="s">
-        <v>441</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B29" s="3">
-        <v>1001060755931</v>
+        <v>1001012505851</v>
       </c>
       <c r="C29" t="s">
-        <v>441</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>46</v>
+        <v>309</v>
       </c>
       <c r="B30" s="3">
-        <v>1001012815997</v>
+        <v>1001060755931</v>
       </c>
       <c r="C30" t="s">
-        <v>47</v>
+        <v>438</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B31" s="3">
-        <v>1001024906042</v>
+        <v>1001060755931</v>
       </c>
       <c r="C31" t="s">
-        <v>49</v>
+        <v>438</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" s="3">
+        <v>1001012815997</v>
+      </c>
+      <c r="C32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="3">
+        <v>1001024906042</v>
+      </c>
+      <c r="C33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B34" s="3">
         <v>1001024976829</v>
       </c>
-      <c r="C32" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+      <c r="C34" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B35" s="3">
         <v>1001220286279</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C35" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="B34" s="3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="B36" s="3">
         <v>1001084216206</v>
       </c>
-      <c r="C34" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+      <c r="C36" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B37" s="3">
         <v>1001084216206</v>
       </c>
-      <c r="C35" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+      <c r="C37" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="B38" s="3">
+        <v>1001022556069</v>
+      </c>
+      <c r="C38" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B36" s="3">
-        <v>1001022556297</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="B39" s="3">
+        <v>1001022556069</v>
+      </c>
+      <c r="C39" t="s">
+        <v>496</v>
+      </c>
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+      <c r="B40" s="3">
+        <v>1001010106325</v>
+      </c>
+      <c r="C40" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="3">
-        <v>1001010106325</v>
-      </c>
-      <c r="C37" t="s">
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+      <c r="B41" s="3">
+        <v>1001012486333</v>
+      </c>
+      <c r="C41" t="s">
         <v>58</v>
       </c>
-      <c r="B38" s="3">
-        <v>1001012486333</v>
-      </c>
-      <c r="C38" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" s="3">
+        <v>1001012506353</v>
+      </c>
+      <c r="C42" t="s">
         <v>61</v>
       </c>
-      <c r="B39" s="3">
-        <v>1001012506353</v>
-      </c>
-      <c r="C39" t="s">
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B43" s="3">
+        <v>1001304506684</v>
+      </c>
+      <c r="C43" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B40" s="3">
-        <v>1001304506684</v>
-      </c>
-      <c r="C40" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B41" s="3">
+      <c r="B44" s="3">
         <v>1001303056692</v>
       </c>
-      <c r="C41" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
+      <c r="C44" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B45" s="3">
+        <v>1001303636415</v>
+      </c>
+      <c r="C45" t="s">
         <v>67</v>
       </c>
-      <c r="B42" s="3">
-        <v>1001303636415</v>
-      </c>
-      <c r="C42" t="s">
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
+      <c r="B46" s="3">
+        <v>1001013956426</v>
+      </c>
+      <c r="C46" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B43" s="3">
-        <v>1001013956426</v>
-      </c>
-      <c r="C43" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+      <c r="B47" s="3">
+        <v>1001024636438</v>
+      </c>
+      <c r="C47" t="s">
         <v>70</v>
       </c>
-      <c r="B44" s="3">
-        <v>1001024636438</v>
-      </c>
-      <c r="C44" t="s">
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+      <c r="B48" s="3">
+        <v>1001234146448</v>
+      </c>
+      <c r="C48" t="s">
         <v>72</v>
-      </c>
-      <c r="B45" s="3">
-        <v>1001234146448</v>
-      </c>
-      <c r="C45" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B46" s="3">
-        <v>1001223296919</v>
-      </c>
-      <c r="C46" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="B47" s="3">
-        <v>1001202506453</v>
-      </c>
-      <c r="C47" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B48" s="3">
-        <v>1001202506453</v>
-      </c>
-      <c r="C48" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>77</v>
+        <v>310</v>
       </c>
       <c r="B49" s="3">
-        <v>1001201976454</v>
+        <v>1001202506453</v>
       </c>
       <c r="C49" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B50" s="3">
-        <v>1001025176475</v>
+        <v>1001202506453</v>
       </c>
       <c r="C50" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="B51" s="3">
-        <v>1001301876697</v>
+        <v>1001201976454</v>
       </c>
       <c r="C51" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B52" s="3">
-        <v>1001024636517</v>
+        <v>1001025176475</v>
       </c>
       <c r="C52" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="B53" s="3">
-        <v>1001031076527</v>
+        <v>1001301876697</v>
       </c>
       <c r="C53" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B54" s="3">
-        <v>1001304506562</v>
+        <v>1001024636517</v>
       </c>
       <c r="C54" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B55" s="3">
-        <v>1001020846563</v>
+        <v>1001031076527</v>
       </c>
       <c r="C55" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B56" s="3">
-        <v>1001020836589</v>
+        <v>1001304506562</v>
       </c>
       <c r="C56" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B57" s="3">
-        <v>6751</v>
+        <v>1001020846563</v>
       </c>
       <c r="C57" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B58" s="3">
-        <v>1001010016592</v>
+        <v>1001020836589</v>
       </c>
       <c r="C58" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B59" s="3">
-        <v>1001010026594</v>
+        <v>6751</v>
       </c>
       <c r="C59" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B60" s="3">
-        <v>1001022296601</v>
+        <v>1001010016592</v>
       </c>
       <c r="C60" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B61" s="3">
-        <v>1001031896648</v>
+        <v>1001010026594</v>
       </c>
       <c r="C61" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B62" s="3">
-        <v>1001035266650</v>
+        <v>1001022296601</v>
       </c>
       <c r="C62" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B63" s="3">
-        <v>1001305256658</v>
+        <v>1001031896648</v>
       </c>
       <c r="C63" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B64" s="3">
-        <v>1001010016593</v>
+        <v>1001035266650</v>
       </c>
       <c r="C64" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B65" s="3">
-        <v>1001010026595</v>
+        <v>1001305256658</v>
       </c>
       <c r="C65" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B66" s="3">
+        <v>1001010016593</v>
+      </c>
+      <c r="C66" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B67" s="3">
+        <v>1001010026595</v>
+      </c>
+      <c r="C67" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B68" s="3">
+        <v>1001010036597</v>
+      </c>
+      <c r="C68" t="s">
         <v>115</v>
       </c>
-      <c r="B66" s="3">
-        <v>1001010036597</v>
-      </c>
-      <c r="C66" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="B67" s="3">
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B69" s="3">
         <v>1001020886646</v>
       </c>
-      <c r="C67" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="B68" s="3">
+      <c r="C69" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="B70" s="3">
         <v>1001305306566</v>
       </c>
-      <c r="C68" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
+      <c r="C70" t="s">
         <v>122</v>
-      </c>
-      <c r="B69" s="3">
-        <v>1001305306566</v>
-      </c>
-      <c r="C69" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B70" s="3">
-        <v>1001300386683</v>
-      </c>
-      <c r="C70" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B71" s="3">
-        <v>1001303986689</v>
+        <v>1001305306566</v>
       </c>
       <c r="C71" t="s">
-        <v>64</v>
+        <v>122</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>252</v>
+        <v>126</v>
       </c>
       <c r="B72" s="3">
-        <v>1001303106773</v>
+        <v>1001300386683</v>
       </c>
       <c r="C72" t="s">
-        <v>363</v>
+        <v>81</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="B73" s="5">
-        <v>1001303106773</v>
+        <v>127</v>
+      </c>
+      <c r="B73" s="3">
+        <v>1001303986689</v>
       </c>
       <c r="C73" t="s">
-        <v>363</v>
+        <v>63</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="B74" s="5">
+        <v>249</v>
+      </c>
+      <c r="B74" s="3">
         <v>1001303106773</v>
       </c>
       <c r="C74" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B75" s="3">
+        <v>367</v>
+      </c>
+      <c r="B75" s="5">
         <v>1001303106773</v>
       </c>
       <c r="C75" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="B76" s="3">
+        <v>284</v>
+      </c>
+      <c r="B76" s="5">
         <v>1001303106773</v>
       </c>
       <c r="C76" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>408</v>
+        <v>125</v>
       </c>
       <c r="B77" s="3">
         <v>1001303106773</v>
       </c>
       <c r="C77" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B78" s="3">
         <v>1001303106773</v>
       </c>
       <c r="C78" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>238</v>
+        <v>405</v>
       </c>
       <c r="B79" s="3">
-        <v>1001012566392</v>
+        <v>1001303106773</v>
       </c>
       <c r="C79" t="s">
-        <v>60</v>
+        <v>360</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>440</v>
+        <v>402</v>
       </c>
       <c r="B80" s="3">
-        <v>1001012566392</v>
+        <v>1001303106773</v>
       </c>
       <c r="C80" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>131</v>
+        <v>235</v>
       </c>
       <c r="B81" s="3">
         <v>1001012566392</v>
       </c>
       <c r="C81" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="B82" s="3">
+        <v>1001012566392</v>
+      </c>
+      <c r="C82" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B83" s="3">
+        <v>1001012566392</v>
+      </c>
+      <c r="C83" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B84" s="3">
+        <v>1001302276666</v>
+      </c>
+      <c r="C84" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B85" s="3">
+        <v>1001012426268</v>
+      </c>
+      <c r="C85" t="s">
         <v>133</v>
       </c>
-      <c r="B82" s="3">
-        <v>1001302276666</v>
-      </c>
-      <c r="C82" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B86" s="3">
+        <v>1001024906041</v>
+      </c>
+      <c r="C86" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B87" s="3">
+        <v>1001011086247</v>
+      </c>
+      <c r="C87" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B88" s="3">
+        <v>1001014486158</v>
+      </c>
+      <c r="C88" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B89" s="3">
+        <v>1001015356259</v>
+      </c>
+      <c r="C89" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B90" s="3">
+        <v>1001012816716</v>
+      </c>
+      <c r="C90" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B91" s="3">
+        <v>1001020966227</v>
+      </c>
+      <c r="C91" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B92" s="3">
+        <v>1001020966227</v>
+      </c>
+      <c r="C92" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B83" s="3">
-        <v>1001012426268</v>
-      </c>
-      <c r="C83" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B84" s="3">
-        <v>1001024906041</v>
-      </c>
-      <c r="C84" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B85" s="3">
-        <v>1001011086247</v>
-      </c>
-      <c r="C85" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B86" s="3">
-        <v>1001014486158</v>
-      </c>
-      <c r="C86" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B87" s="3">
-        <v>1001015356259</v>
-      </c>
-      <c r="C87" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B88" s="3">
-        <v>1001012816716</v>
-      </c>
-      <c r="C88" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="B89" s="3">
-        <v>1001020966227</v>
-      </c>
-      <c r="C89" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B90" s="3">
-        <v>1001020966227</v>
-      </c>
-      <c r="C90" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B91" s="3">
-        <v>1001020965981</v>
-      </c>
-      <c r="C91" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="B92" s="3">
-        <v>1001022726303</v>
-      </c>
-      <c r="C92" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
-        <v>271</v>
-      </c>
       <c r="B93" s="3">
-        <v>1001022726303</v>
+        <v>1001022656853</v>
       </c>
       <c r="C93" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+      <c r="E93" s="3"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>362</v>
+        <v>233</v>
       </c>
       <c r="B94" s="3">
         <v>1001022726303</v>
       </c>
       <c r="C94" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>167</v>
+        <v>268</v>
       </c>
       <c r="B95" s="3">
         <v>1001022726303</v>
       </c>
       <c r="C95" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>117</v>
+        <v>359</v>
       </c>
       <c r="B96" s="3">
-        <v>1001022466726</v>
+        <v>1001022726303</v>
       </c>
       <c r="C96" t="s">
-        <v>118</v>
+        <v>269</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B97" s="3">
-        <v>1001020966144</v>
+        <v>1001022726303</v>
       </c>
       <c r="C97" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="B98" s="3">
-        <v>1001022376722</v>
+        <v>1001022466726</v>
       </c>
       <c r="C98" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="B99" s="3">
-        <v>1001022373812</v>
+        <v>1001020966144</v>
       </c>
       <c r="C99" t="s">
-        <v>3</v>
+        <v>156</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="B100" s="3">
-        <v>1001022376113</v>
+        <v>1001022376722</v>
       </c>
       <c r="C100" t="s">
-        <v>4</v>
+        <v>129</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>264</v>
+        <v>145</v>
       </c>
       <c r="B101" s="3">
-        <v>1001022246661</v>
+        <v>1001022373812</v>
       </c>
       <c r="C101" t="s">
-        <v>265</v>
+        <v>3</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>341</v>
+        <v>146</v>
       </c>
       <c r="B102" s="3">
-        <v>1001022246661</v>
+        <v>1001022376113</v>
       </c>
       <c r="C102" t="s">
-        <v>265</v>
+        <v>4</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>146</v>
+        <v>261</v>
       </c>
       <c r="B103" s="3">
         <v>1001022246661</v>
       </c>
       <c r="C103" t="s">
-        <v>149</v>
+        <v>262</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>153</v>
+        <v>338</v>
       </c>
       <c r="B104" s="3">
-        <v>1001022246713</v>
+        <v>1001022246661</v>
       </c>
       <c r="C104" t="s">
-        <v>119</v>
+        <v>262</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B105" s="3">
-        <v>1001025166241</v>
+        <v>1001022246661</v>
       </c>
       <c r="C105" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="B106" s="3">
-        <v>6606</v>
+        <v>1001022246713</v>
       </c>
       <c r="C106" t="s">
-        <v>170</v>
+        <v>118</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B107" s="3">
-        <v>1001035326217</v>
+        <v>1001025166241</v>
       </c>
       <c r="C107" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B108" s="3">
-        <v>1001303636301</v>
+        <v>6606</v>
       </c>
       <c r="C108" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>103</v>
+        <v>143</v>
       </c>
       <c r="B109" s="3">
-        <v>1001303636302</v>
+        <v>1001035326217</v>
       </c>
       <c r="C109" t="s">
-        <v>104</v>
+        <v>142</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="B110" s="3">
-        <v>1001305196215</v>
+        <v>1001303636301</v>
       </c>
       <c r="C110" t="s">
-        <v>88</v>
+        <v>157</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>163</v>
+        <v>102</v>
       </c>
       <c r="B111" s="3">
-        <v>1001301876212</v>
+        <v>1001303636302</v>
       </c>
       <c r="C111" t="s">
-        <v>160</v>
+        <v>103</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B112" s="3">
-        <v>1001301876213</v>
+        <v>1001305196215</v>
       </c>
       <c r="C112" t="s">
         <v>87</v>
@@ -3102,282 +3157,282 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="B113" s="3">
-        <v>1001303636302</v>
+        <v>1001301876212</v>
       </c>
       <c r="C113" t="s">
-        <v>104</v>
+        <v>158</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="B114" s="3">
-        <v>6645</v>
+        <v>1001301876213</v>
       </c>
       <c r="C114" t="s">
-        <v>172</v>
+        <v>86</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B115" s="3">
-        <v>1001225416228</v>
+        <v>1001303636302</v>
       </c>
       <c r="C115" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B116" s="3">
-        <v>6225</v>
+        <v>6645</v>
       </c>
       <c r="C116" t="s">
-        <v>291</v>
+        <v>170</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B117" s="3">
-        <v>1001022376722</v>
+        <v>1001225416228</v>
       </c>
       <c r="C117" t="s">
-        <v>130</v>
+        <v>172</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B118" s="3">
-        <v>1001022376722</v>
+        <v>6225</v>
       </c>
       <c r="C118" t="s">
-        <v>130</v>
+        <v>288</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B119" s="3">
-        <v>3297</v>
+        <v>1001022376722</v>
       </c>
       <c r="C119" t="s">
-        <v>179</v>
+        <v>129</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B120" s="3">
-        <v>1001034065698</v>
+        <v>1001022376722</v>
       </c>
       <c r="C120" t="s">
-        <v>453</v>
+        <v>129</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>335</v>
+        <v>176</v>
       </c>
       <c r="B121" s="3">
-        <v>1001022466726</v>
+        <v>3297</v>
       </c>
       <c r="C121" t="s">
-        <v>310</v>
+        <v>177</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>311</v>
+        <v>332</v>
       </c>
       <c r="B122" s="3">
         <v>1001022466726</v>
       </c>
       <c r="C122" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>182</v>
+        <v>308</v>
       </c>
       <c r="B123" s="3">
         <v>1001022466726</v>
       </c>
       <c r="C123" t="s">
-        <v>118</v>
+        <v>307</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B124" s="3">
-        <v>1001021966602</v>
+        <v>1001022466726</v>
       </c>
       <c r="C124" t="s">
-        <v>302</v>
+        <v>117</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B125" s="3">
-        <v>6233</v>
+        <v>1001021966602</v>
       </c>
       <c r="C125" t="s">
-        <v>184</v>
+        <v>299</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>282</v>
+        <v>183</v>
       </c>
       <c r="B126" s="3">
-        <v>1001012816341</v>
+        <v>6233</v>
       </c>
       <c r="C126" t="s">
-        <v>465</v>
+        <v>182</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>186</v>
+        <v>279</v>
       </c>
       <c r="B127" s="3">
         <v>1001012816341</v>
       </c>
       <c r="C127" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B128" s="3">
-        <v>6750</v>
+        <v>1001012816341</v>
       </c>
       <c r="C128" t="s">
-        <v>94</v>
+        <v>462</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B129" s="3">
-        <v>6751</v>
+        <v>6750</v>
       </c>
       <c r="C129" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B130" s="3">
-        <v>5982</v>
+        <v>6751</v>
       </c>
       <c r="C130" t="s">
-        <v>190</v>
+        <v>95</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>478</v>
+        <v>187</v>
       </c>
       <c r="B131" s="3">
-        <v>1001022656854</v>
+        <v>5982</v>
       </c>
       <c r="C131" t="s">
-        <v>454</v>
+        <v>188</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>191</v>
+        <v>475</v>
       </c>
       <c r="B132" s="3">
         <v>1001022656854</v>
       </c>
       <c r="C132" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="B133" s="3">
-        <v>1001094966025</v>
+        <v>1001022656854</v>
       </c>
       <c r="C133" t="s">
-        <v>193</v>
+        <v>451</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B134" s="3">
-        <v>6025</v>
+        <v>1001094966025</v>
       </c>
       <c r="C134" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B135" s="3">
-        <v>6221</v>
+        <v>6025</v>
       </c>
       <c r="C135" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B136" s="3">
-        <v>1001205376221</v>
+        <v>6221</v>
       </c>
       <c r="C136" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B137" s="3">
-        <v>1001034063297</v>
+        <v>1001205376221</v>
       </c>
       <c r="C137" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B138" s="3">
         <v>1001022373812</v>
@@ -3388,332 +3443,332 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B139" s="3">
         <v>1001100606827</v>
       </c>
       <c r="C139" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B140" s="3">
         <v>1001100606827</v>
       </c>
       <c r="C140" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B141" s="3">
         <v>1001100616826</v>
       </c>
       <c r="C141" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B142" s="3">
         <v>1001100616826</v>
       </c>
       <c r="C142" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B143" s="3">
         <v>1001100626828</v>
       </c>
       <c r="C143" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B144" s="3">
         <v>1001100626828</v>
       </c>
       <c r="C144" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B145" s="3">
         <v>1001035026308</v>
       </c>
       <c r="C145" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B146" s="3">
         <v>1001014486159</v>
       </c>
       <c r="C146" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B147" s="3">
         <v>1001035326217</v>
       </c>
       <c r="C147" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B148" s="3">
         <v>1001012426220</v>
       </c>
       <c r="C148" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B149" s="3">
         <v>1001022466236</v>
       </c>
       <c r="C149" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B150" s="3">
         <v>1001021966602</v>
       </c>
       <c r="C150" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B151" s="3">
         <v>1001022296656</v>
       </c>
       <c r="C151" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B152" s="3">
         <v>1001304506684</v>
       </c>
       <c r="C152" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B153" s="3">
         <v>1001301876697</v>
       </c>
       <c r="C153" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B154" s="3">
         <v>1001022246713</v>
       </c>
       <c r="C154" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B155" s="3">
-        <v>1001012816340</v>
+        <v>1001022376722</v>
       </c>
       <c r="C155" t="s">
-        <v>464</v>
+        <v>222</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B156" s="3">
-        <v>1001022376722</v>
+        <v>1001020846751</v>
       </c>
       <c r="C156" t="s">
-        <v>225</v>
+        <v>95</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B157" s="3">
-        <v>1001020846751</v>
+        <v>1001022725819</v>
       </c>
       <c r="C157" t="s">
-        <v>96</v>
+        <v>225</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B158" s="3">
-        <v>1001022725819</v>
+        <v>1001012825337</v>
       </c>
       <c r="C158" t="s">
-        <v>228</v>
+        <v>28</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B159" s="3">
-        <v>1001012825337</v>
+        <v>1001012815336</v>
       </c>
       <c r="C159" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B160" s="3">
-        <v>1001012815336</v>
+        <v>1001234146448</v>
       </c>
       <c r="C160" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B161" s="3">
-        <v>1001234146448</v>
+        <v>1001022725819</v>
       </c>
       <c r="C161" t="s">
-        <v>73</v>
+        <v>225</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B162" s="3">
-        <v>1001022725819</v>
+        <v>1001092676027</v>
       </c>
       <c r="C162" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B163" s="3">
-        <v>1001092676027</v>
+        <v>1001301876213</v>
       </c>
       <c r="C163" t="s">
-        <v>234</v>
+        <v>86</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B164" s="3">
-        <v>1001301876213</v>
+        <v>1001035026308</v>
       </c>
       <c r="C164" t="s">
-        <v>87</v>
+        <v>427</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B165" s="3">
-        <v>1001035026308</v>
+        <v>1001234146448</v>
       </c>
       <c r="C165" t="s">
-        <v>430</v>
+        <v>72</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B166" s="3">
-        <v>1001234146448</v>
+        <v>1001201976454</v>
       </c>
       <c r="C166" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B167" s="3">
-        <v>1001223296919</v>
+        <v>1001025176475</v>
       </c>
       <c r="C167" t="s">
-        <v>412</v>
+        <v>79</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B168" s="3">
+        <v>1001012456498</v>
+      </c>
+      <c r="C168" t="s">
         <v>241</v>
-      </c>
-      <c r="B168" s="3">
-        <v>1001201976454</v>
-      </c>
-      <c r="C168" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -3721,76 +3776,76 @@
         <v>242</v>
       </c>
       <c r="B169" s="3">
-        <v>1001025176475</v>
+        <v>1001010036596</v>
       </c>
       <c r="C169" t="s">
-        <v>80</v>
+        <v>243</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B170" s="3">
-        <v>1001012456498</v>
+        <v>1001033856607</v>
       </c>
       <c r="C170" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B171" s="3">
-        <v>1001010036596</v>
+        <v>1001033856609</v>
       </c>
       <c r="C171" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B172" s="3">
-        <v>1001033856607</v>
+        <v>1001302276666</v>
       </c>
       <c r="C172" t="s">
-        <v>248</v>
+        <v>65</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B173" s="3">
-        <v>1001033856609</v>
+        <v>1001093345495</v>
       </c>
       <c r="C173" t="s">
-        <v>250</v>
+        <v>463</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B174" s="3">
-        <v>1001302276666</v>
+        <v>6550</v>
       </c>
       <c r="C174" t="s">
-        <v>66</v>
+        <v>253</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B175" s="3">
-        <v>1001093345495</v>
+        <v>1001304506684</v>
       </c>
       <c r="C175" t="s">
-        <v>466</v>
+        <v>62</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -3798,7 +3853,7 @@
         <v>255</v>
       </c>
       <c r="B176" s="3">
-        <v>6550</v>
+        <v>1001010113248</v>
       </c>
       <c r="C176" t="s">
         <v>256</v>
@@ -3806,90 +3861,90 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>257</v>
+        <v>435</v>
       </c>
       <c r="B177" s="3">
-        <v>1001304506684</v>
+        <v>1001063926780</v>
       </c>
       <c r="C177" t="s">
-        <v>63</v>
+        <v>436</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B178" s="3">
+        <v>6586</v>
+      </c>
+      <c r="C178" t="s">
         <v>258</v>
-      </c>
-      <c r="B178" s="3">
-        <v>1001010113248</v>
-      </c>
-      <c r="C178" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>438</v>
+        <v>259</v>
       </c>
       <c r="B179" s="3">
-        <v>1001063926780</v>
+        <v>1001303636467</v>
       </c>
       <c r="C179" t="s">
-        <v>439</v>
+        <v>260</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B180" s="3">
-        <v>6586</v>
+        <v>1001304496701</v>
       </c>
       <c r="C180" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B181" s="3">
-        <v>1001303636467</v>
+        <v>6144</v>
       </c>
       <c r="C181" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B182" s="3">
-        <v>1001304496701</v>
+        <v>1001022725819</v>
       </c>
       <c r="C182" t="s">
-        <v>267</v>
+        <v>225</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B183" s="3">
-        <v>6144</v>
+        <v>1001022373812</v>
       </c>
       <c r="C183" t="s">
-        <v>269</v>
+        <v>3</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B184" s="3">
-        <v>1001022725819</v>
+        <v>1001024906062</v>
       </c>
       <c r="C184" t="s">
-        <v>228</v>
+        <v>272</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
@@ -3897,10 +3952,10 @@
         <v>273</v>
       </c>
       <c r="B185" s="3">
-        <v>1001022373812</v>
+        <v>1001300386683</v>
       </c>
       <c r="C185" t="s">
-        <v>3</v>
+        <v>81</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -3908,40 +3963,40 @@
         <v>274</v>
       </c>
       <c r="B186" s="3">
-        <v>1001024906062</v>
+        <v>1001303986689</v>
       </c>
       <c r="C186" t="s">
-        <v>275</v>
+        <v>63</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B187" s="3">
-        <v>1001300386683</v>
+        <v>1001303056692</v>
       </c>
       <c r="C187" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B188" s="3">
-        <v>1001303986689</v>
+        <v>1001301876697</v>
       </c>
       <c r="C188" t="s">
-        <v>64</v>
+        <v>217</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B189" s="3">
-        <v>1001303056692</v>
+        <v>1001302276666</v>
       </c>
       <c r="C189" t="s">
         <v>65</v>
@@ -3949,13 +4004,13 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B190" s="3">
-        <v>1001301876697</v>
+        <v>1001012634574</v>
       </c>
       <c r="C190" t="s">
-        <v>220</v>
+        <v>12</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
@@ -3963,21 +4018,21 @@
         <v>280</v>
       </c>
       <c r="B191" s="3">
-        <v>1001302276666</v>
+        <v>1001092485452</v>
       </c>
       <c r="C191" t="s">
-        <v>66</v>
+        <v>281</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B192" s="3">
-        <v>1001012634574</v>
+        <v>1001020966144</v>
       </c>
       <c r="C192" t="s">
-        <v>12</v>
+        <v>156</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
@@ -3985,10 +4040,10 @@
         <v>283</v>
       </c>
       <c r="B193" s="3">
-        <v>1001092485452</v>
+        <v>6586</v>
       </c>
       <c r="C193" t="s">
-        <v>284</v>
+        <v>258</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
@@ -3996,10 +4051,10 @@
         <v>285</v>
       </c>
       <c r="B194" s="3">
-        <v>1001020966144</v>
+        <v>1001304496701</v>
       </c>
       <c r="C194" t="s">
-        <v>158</v>
+        <v>264</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
@@ -4007,32 +4062,32 @@
         <v>286</v>
       </c>
       <c r="B195" s="3">
-        <v>6586</v>
+        <v>1001063655015</v>
       </c>
       <c r="C195" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B196" s="3">
-        <v>1001304496701</v>
+        <v>1001060763287</v>
       </c>
       <c r="C196" t="s">
-        <v>267</v>
+        <v>290</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="B197" s="3">
-        <v>1001063655015</v>
+        <v>291</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>300</v>
       </c>
       <c r="C197" t="s">
-        <v>290</v>
+        <v>172</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -4040,21 +4095,21 @@
         <v>292</v>
       </c>
       <c r="B198" s="3">
-        <v>1001060763287</v>
+        <v>1001032736550</v>
       </c>
       <c r="C198" t="s">
-        <v>293</v>
+        <v>253</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B199" s="3">
+        <v>6758</v>
+      </c>
+      <c r="C199" t="s">
         <v>294</v>
-      </c>
-      <c r="B199" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="C199" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
@@ -4062,98 +4117,98 @@
         <v>295</v>
       </c>
       <c r="B200" s="3">
-        <v>1001032736550</v>
+        <v>1001020965976</v>
       </c>
       <c r="C200" t="s">
-        <v>256</v>
+        <v>296</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B201" s="3">
-        <v>6758</v>
+        <v>1001215576586</v>
       </c>
       <c r="C201" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B202" s="3">
-        <v>1001020965976</v>
+        <v>1001094896026</v>
       </c>
       <c r="C202" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B203" s="3">
         <v>1001215576586</v>
       </c>
       <c r="C203" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B204" s="3">
-        <v>1001094896026</v>
+        <v>1001092436470</v>
       </c>
       <c r="C204" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="B205" s="3">
-        <v>1001215576586</v>
+        <v>1001203146555</v>
       </c>
       <c r="C205" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="B206" s="3">
-        <v>1001092436470</v>
+        <v>1001014765992</v>
       </c>
       <c r="C206" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B207" s="3">
-        <v>1001203146555</v>
+        <v>1001014765992</v>
       </c>
       <c r="C207" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="B208" s="3">
-        <v>1001014765992</v>
+        <v>1001014765993</v>
       </c>
       <c r="C208" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
@@ -4161,10 +4216,10 @@
         <v>317</v>
       </c>
       <c r="B209" s="3">
-        <v>1001014765992</v>
+        <v>1001025166776</v>
       </c>
       <c r="C209" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
@@ -4172,62 +4227,62 @@
         <v>319</v>
       </c>
       <c r="B210" s="3">
-        <v>1001014765993</v>
+        <v>1001025506777</v>
       </c>
       <c r="C210" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>320</v>
+        <v>343</v>
       </c>
       <c r="B211" s="3">
-        <v>1001025166776</v>
+        <v>1001025546822</v>
       </c>
       <c r="C211" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B212" s="3">
+        <v>1001025546822</v>
+      </c>
+      <c r="C212" t="s">
         <v>322</v>
-      </c>
-      <c r="B212" s="3">
-        <v>1001025506777</v>
-      </c>
-      <c r="C212" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="B213" s="3">
         <v>1001025546822</v>
       </c>
       <c r="C213" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>347</v>
+        <v>321</v>
       </c>
       <c r="B214" s="3">
         <v>1001025546822</v>
       </c>
       <c r="C214" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>359</v>
+        <v>326</v>
       </c>
       <c r="B215" s="3">
-        <v>1001025546822</v>
+        <v>1001024976616</v>
       </c>
       <c r="C215" t="s">
         <v>325</v>
@@ -4235,908 +4290,1095 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="B216" s="3">
-        <v>1001025546822</v>
+        <v>1001010856747</v>
       </c>
       <c r="C216" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
-        <v>329</v>
+        <v>406</v>
       </c>
       <c r="B217" s="3">
-        <v>1001024976616</v>
+        <v>1001223296919</v>
       </c>
       <c r="C217" t="s">
-        <v>328</v>
+        <v>409</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>331</v>
+        <v>73</v>
       </c>
       <c r="B218" s="3">
-        <v>1001010856747</v>
+        <v>1001223296919</v>
       </c>
       <c r="C218" t="s">
-        <v>330</v>
+        <v>409</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>409</v>
+        <v>237</v>
       </c>
       <c r="B219" s="3">
         <v>1001223296919</v>
       </c>
       <c r="C219" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B220" s="3">
         <v>1001223296919</v>
       </c>
       <c r="C220" t="s">
-        <v>412</v>
+        <v>495</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
-        <v>332</v>
+        <v>501</v>
       </c>
       <c r="B221" s="3">
         <v>1001223296919</v>
       </c>
       <c r="C221" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B222" s="3">
-        <v>1001203146834</v>
+        <v>1001223296919</v>
       </c>
       <c r="C222" t="s">
-        <v>456</v>
+        <v>409</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B223" s="3">
         <v>1001014765993</v>
       </c>
       <c r="C223" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B224" s="3">
         <v>1001025166776</v>
       </c>
       <c r="C224" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B225" s="3">
         <v>1001025506777</v>
       </c>
       <c r="C225" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B226" s="3">
         <v>1001025526778</v>
       </c>
       <c r="C226" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B227" s="3">
         <v>1001304236685</v>
       </c>
       <c r="C227" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B228" s="3">
         <v>1001015496769</v>
       </c>
       <c r="C228" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B229" s="3">
         <v>1001015496769</v>
       </c>
       <c r="C229" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B230" s="3">
         <v>1001014766798</v>
       </c>
       <c r="C230" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B231" s="3">
         <v>1001015026797</v>
       </c>
       <c r="C231" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B232" s="3">
         <v>1001205386222</v>
       </c>
       <c r="C232" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B233" s="3">
         <v>1001092675224</v>
       </c>
       <c r="C233" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B234" s="3">
         <v>1001225406223</v>
       </c>
       <c r="C234" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B235" s="3">
         <v>1001300366790</v>
       </c>
       <c r="C235" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
-        <v>372</v>
+        <v>497</v>
       </c>
       <c r="B236" s="3">
-        <v>1001304096791</v>
+        <v>1001304096792</v>
       </c>
       <c r="C236" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B237" s="3">
         <v>1001304096792</v>
       </c>
       <c r="C237" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B238" s="3">
         <v>1001303636793</v>
       </c>
       <c r="C238" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B239" s="3">
         <v>1001303636794</v>
       </c>
       <c r="C239" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B240" s="3">
         <v>1001302596795</v>
       </c>
       <c r="C240" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B241" s="3">
         <v>1001302596796</v>
       </c>
       <c r="C241" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B242" s="3">
         <v>1001300456804</v>
       </c>
       <c r="C242" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B243" s="3">
         <v>1001300366806</v>
       </c>
       <c r="C243" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B244" s="3">
         <v>1001300366806</v>
       </c>
       <c r="C244" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B245" s="3">
         <v>1001300516803</v>
       </c>
       <c r="C245" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B246" s="3">
         <v>1001300366807</v>
       </c>
       <c r="C246" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B247" s="3">
         <v>1001300366807</v>
       </c>
       <c r="C247" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B248" s="3">
         <v>1001300516785</v>
       </c>
       <c r="C248" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B249" s="3">
         <v>1001300456787</v>
       </c>
       <c r="C249" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B250" s="3">
         <v>1001303636793</v>
       </c>
       <c r="C250" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B251" s="3">
         <v>1001302596795</v>
       </c>
       <c r="C251" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B252" s="3">
         <v>1001012486332</v>
       </c>
       <c r="C252" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B253" s="3">
         <v>1001012566345</v>
       </c>
       <c r="C253" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B254" s="3">
         <v>1001031076528</v>
       </c>
       <c r="C254" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B255" s="3">
         <v>1001020836761</v>
       </c>
       <c r="C255" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B256" s="3">
         <v>1001020836761</v>
       </c>
       <c r="C256" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B257" s="3">
         <v>1001020836761</v>
       </c>
       <c r="C257" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B258" s="3">
         <v>1001020846764</v>
       </c>
       <c r="C258" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B259" s="3">
         <v>1001020846764</v>
       </c>
       <c r="C259" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B260" s="3">
         <v>1001020846764</v>
       </c>
       <c r="C260" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B261" s="3">
         <v>1001300366790</v>
       </c>
       <c r="C261" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
-        <v>418</v>
+        <v>369</v>
       </c>
       <c r="B262" s="3">
         <v>1001304096791</v>
       </c>
       <c r="C262" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
-        <v>419</v>
+        <v>488</v>
       </c>
       <c r="B263" s="3">
-        <v>1001303636793</v>
+        <v>1001304096791</v>
       </c>
       <c r="C263" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="B264" s="3">
-        <v>1001303636794</v>
+        <v>1001304096791</v>
       </c>
       <c r="C264" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B265" s="3">
-        <v>1001302596795</v>
+        <v>1001303636793</v>
       </c>
       <c r="C265" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B266" s="3">
-        <v>1001300516803</v>
+        <v>1001303636794</v>
       </c>
       <c r="C266" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="B267" s="3">
-        <v>1001300456804</v>
+        <v>1001302596795</v>
       </c>
       <c r="C267" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="B268" s="3">
-        <v>1001300366807</v>
+        <v>1001300516803</v>
       </c>
       <c r="C268" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="B269" s="3">
-        <v>1001302596796</v>
+        <v>1001300456804</v>
       </c>
       <c r="C269" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
-        <v>475</v>
+        <v>421</v>
       </c>
       <c r="B270" s="3">
-        <v>1001023696765</v>
+        <v>1001300366807</v>
       </c>
       <c r="C270" t="s">
-        <v>428</v>
+        <v>389</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="B271" s="3">
-        <v>1001023696765</v>
+        <v>1001302596796</v>
       </c>
       <c r="C271" t="s">
-        <v>428</v>
+        <v>385</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
-        <v>436</v>
+        <v>472</v>
       </c>
       <c r="B272" s="3">
-        <v>1001023696767</v>
+        <v>1001023696765</v>
       </c>
       <c r="C272" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
-        <v>444</v>
+        <v>491</v>
       </c>
       <c r="B273" s="3">
-        <v>1001023696767</v>
+        <v>1001023696765</v>
       </c>
       <c r="C273" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="B274" s="3">
-        <v>1001023696767</v>
+        <v>1001023696765</v>
       </c>
       <c r="C274" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B275" s="3">
-        <v>1001024976829</v>
+        <v>1001023696767</v>
       </c>
       <c r="C275" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="B276" s="3">
-        <v>1001024976829</v>
+        <v>1001023696767</v>
       </c>
       <c r="C276" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
-        <v>447</v>
+        <v>428</v>
       </c>
       <c r="B277" s="3">
-        <v>1001022376722</v>
+        <v>1001023696767</v>
       </c>
       <c r="C277" t="s">
-        <v>130</v>
+        <v>429</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
-        <v>474</v>
+        <v>431</v>
       </c>
       <c r="B278" s="3">
-        <v>1001020846762</v>
+        <v>1001024976829</v>
       </c>
       <c r="C278" t="s">
-        <v>449</v>
+        <v>423</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="B279" s="3">
-        <v>1001020846762</v>
+        <v>1001024976829</v>
       </c>
       <c r="C279" t="s">
-        <v>449</v>
+        <v>423</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="B280" s="3">
-        <v>1001022656853</v>
+        <v>1001022376722</v>
       </c>
       <c r="C280" t="s">
-        <v>452</v>
+        <v>129</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
-        <v>457</v>
+        <v>471</v>
       </c>
       <c r="B281" s="3">
-        <v>1001022656852</v>
+        <v>1001020846762</v>
       </c>
       <c r="C281" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
-        <v>476</v>
+        <v>490</v>
       </c>
       <c r="B282" s="3">
-        <v>1001020836759</v>
+        <v>1001020846762</v>
       </c>
       <c r="C282" t="s">
-        <v>460</v>
+        <v>446</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="B283" s="3">
-        <v>1001020836759</v>
+        <v>1001020846762</v>
       </c>
       <c r="C283" t="s">
-        <v>460</v>
+        <v>446</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="B284" s="3">
-        <v>1001023856870</v>
+        <v>1001022656853</v>
       </c>
       <c r="C284" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
-        <v>471</v>
+        <v>454</v>
       </c>
       <c r="B285" s="3">
-        <v>1001025486770</v>
+        <v>1001022656852</v>
       </c>
       <c r="C285" t="s">
-        <v>470</v>
+        <v>455</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B286" s="3">
-        <v>1001025176768</v>
+        <v>1001020836759</v>
       </c>
       <c r="C286" t="s">
-        <v>473</v>
+        <v>457</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
       <c r="B287" s="3">
-        <v>1001013956426</v>
+        <v>1001020836759</v>
       </c>
       <c r="C287" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
-        <v>479</v>
+        <v>456</v>
       </c>
       <c r="B288" s="3">
-        <v>1001093345495</v>
+        <v>1001020836759</v>
       </c>
       <c r="C288" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
-        <v>480</v>
+        <v>458</v>
       </c>
       <c r="B289" s="3">
-        <v>1001022656868</v>
+        <v>1001023856870</v>
       </c>
       <c r="C289" t="s">
-        <v>481</v>
+        <v>459</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="B290" s="3">
-        <v>1001203146834</v>
+        <v>1001013956426</v>
       </c>
       <c r="C290" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="B291" s="3">
-        <v>1001034065698</v>
+        <v>1001093345495</v>
       </c>
       <c r="C291" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
-        <v>485</v>
+        <v>505</v>
       </c>
       <c r="B292" s="3">
-        <v>1001084216206</v>
+        <v>1001022656868</v>
       </c>
       <c r="C292" t="s">
-        <v>411</v>
+        <v>478</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="B293" s="3">
-        <v>1001015646861</v>
+        <v>1001022656868</v>
       </c>
       <c r="C293" t="s">
-        <v>450</v>
+        <v>478</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
-        <v>487</v>
+        <v>178</v>
       </c>
       <c r="B294" s="3">
-        <v>1001025176768</v>
+        <v>1001034065698</v>
       </c>
       <c r="C294" t="s">
-        <v>473</v>
+        <v>450</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
-        <v>488</v>
+        <v>197</v>
       </c>
       <c r="B295" s="3">
-        <v>1001025486770</v>
+        <v>1001034065698</v>
       </c>
       <c r="C295" t="s">
-        <v>470</v>
+        <v>450</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
-        <v>489</v>
+        <v>503</v>
       </c>
       <c r="B296" s="3">
-        <v>1001012816340</v>
+        <v>1001034065698</v>
       </c>
       <c r="C296" t="s">
-        <v>464</v>
+        <v>450</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="B297" s="3">
+        <v>1001034065698</v>
+      </c>
+      <c r="C297" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="B298" s="3">
+        <v>1001084216206</v>
+      </c>
+      <c r="C298" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="B299" s="3">
+        <v>1001015646861</v>
+      </c>
+      <c r="C299" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="B300" s="3">
+        <v>1001015646861</v>
+      </c>
+      <c r="C300" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="B301" s="3">
+        <v>1001025176768</v>
+      </c>
+      <c r="C301" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="B302" s="3">
+        <v>1001025176768</v>
+      </c>
+      <c r="C302" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="B303" s="3">
+        <v>1001025176768</v>
+      </c>
+      <c r="C303" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="B304" s="3">
+        <v>1001025486770</v>
+      </c>
+      <c r="C304" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="B305" s="3">
+        <v>1001025486770</v>
+      </c>
+      <c r="C305" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="B306" s="3">
+        <v>1001025486770</v>
+      </c>
+      <c r="C306" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B307" s="3">
+        <v>1001012816340</v>
+      </c>
+      <c r="C307" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="B308" s="3">
+        <v>1001012816340</v>
+      </c>
+      <c r="C308" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="B309" s="3">
+        <v>1001012816340</v>
+      </c>
+      <c r="C309" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B310" s="3">
         <v>1001203146834</v>
       </c>
-      <c r="C297" t="s">
-        <v>456</v>
+      <c r="C310" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="B311" s="3">
+        <v>1001203146834</v>
+      </c>
+      <c r="C311" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="B312" s="3">
+        <v>1001203146834</v>
+      </c>
+      <c r="C312" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="B313" s="3">
+        <v>1001203146834</v>
+      </c>
+      <c r="C313" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B314" s="3">
+        <v>1001300456788</v>
+      </c>
+      <c r="C314" t="s">
+        <v>500</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C297" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
+  <autoFilter ref="A1:C314" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/moduls/1С.xlsx
+++ b/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\Останкино КИ\ostankino_ki\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C31A67-F239-4977-8E3F-2DB2D3EF8191}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A90AC976-66E9-44C6-A216-8F416CC17BEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$314</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$319</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="516">
   <si>
     <t>1С</t>
   </si>
@@ -1558,6 +1558,30 @@
   </si>
   <si>
     <t>6340 ДОМАШНИЙ РЕЦЕПТ Коровино 0,5кг 8шт.  Останкино</t>
+  </si>
+  <si>
+    <t>6341 ДОМАШНИЙ РЕЦЕПТ СО ШПИКОМ Коровино 0.5кг  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6837 ФИЛЕЙНЫЕ Папа Может сос ц/о мгс 0.4кг  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>ФИЛЕЙНЫЕ Папа Может сос ц/о мгс 0.4кг</t>
+  </si>
+  <si>
+    <t>6341 ДОМАШНИЙ РЕЦЕПТ СО ШПИКОМ Коровино 0,5кг  Останкино</t>
+  </si>
+  <si>
+    <t>6853 МОЛОЧНЫЕ ПРЕМИУМ ПМ сос п/о мгс 1*6  Останкино</t>
+  </si>
+  <si>
+    <t>6790 СЕРВЕЛАТ ЕВРОПЕЙСКИЙ в/к в/у  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6786 ВЕНСКАЯ САЛЯМИ п/к в/у  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>ВЕНСКАЯ САЛЯМИ п/к в/у</t>
   </si>
 </sst>
 </file>
@@ -1904,18 +1928,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F314"/>
+  <dimension ref="A1:F320"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I42" sqref="I42"/>
+      <pane ySplit="1" topLeftCell="A310" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A328" sqref="A328"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="61.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="44.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.140625" customWidth="1"/>
     <col min="4" max="4" width="10.140625" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" customWidth="1"/>
     <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
@@ -2802,7 +2826,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>235</v>
       </c>
@@ -2813,7 +2837,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>437</v>
       </c>
@@ -2824,7 +2848,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>130</v>
       </c>
@@ -2835,7 +2859,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>132</v>
       </c>
@@ -2846,7 +2870,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>134</v>
       </c>
@@ -2857,7 +2881,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>139</v>
       </c>
@@ -2868,7 +2892,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>136</v>
       </c>
@@ -2879,7 +2903,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>160</v>
       </c>
@@ -2890,7 +2914,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>162</v>
       </c>
@@ -2901,7 +2925,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>164</v>
       </c>
@@ -2912,7 +2936,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>342</v>
       </c>
@@ -2923,7 +2947,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>140</v>
       </c>
@@ -2934,21 +2958,20 @@
         <v>141</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>135</v>
+        <v>233</v>
       </c>
       <c r="B93" s="3">
-        <v>1001022656853</v>
+        <v>1001022726303</v>
       </c>
       <c r="C93" t="s">
-        <v>449</v>
-      </c>
-      <c r="E93" s="3"/>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>233</v>
+        <v>268</v>
       </c>
       <c r="B94" s="3">
         <v>1001022726303</v>
@@ -2957,9 +2980,9 @@
         <v>269</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>268</v>
+        <v>359</v>
       </c>
       <c r="B95" s="3">
         <v>1001022726303</v>
@@ -2968,86 +2991,86 @@
         <v>269</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>359</v>
+        <v>165</v>
       </c>
       <c r="B96" s="3">
         <v>1001022726303</v>
       </c>
       <c r="C96" t="s">
-        <v>269</v>
+        <v>167</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>165</v>
+        <v>116</v>
       </c>
       <c r="B97" s="3">
-        <v>1001022726303</v>
+        <v>1001022466726</v>
       </c>
       <c r="C97" t="s">
-        <v>167</v>
+        <v>117</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>116</v>
+        <v>159</v>
       </c>
       <c r="B98" s="3">
-        <v>1001022466726</v>
+        <v>1001020966144</v>
       </c>
       <c r="C98" t="s">
-        <v>117</v>
+        <v>156</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="B99" s="3">
-        <v>1001020966144</v>
+        <v>1001022376722</v>
       </c>
       <c r="C99" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="B100" s="3">
-        <v>1001022376722</v>
+        <v>1001022373812</v>
       </c>
       <c r="C100" t="s">
-        <v>129</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B101" s="3">
-        <v>1001022373812</v>
+        <v>1001022376113</v>
       </c>
       <c r="C101" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>146</v>
+        <v>261</v>
       </c>
       <c r="B102" s="3">
-        <v>1001022376113</v>
+        <v>1001022246661</v>
       </c>
       <c r="C102" t="s">
-        <v>4</v>
+        <v>262</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>261</v>
+        <v>338</v>
       </c>
       <c r="B103" s="3">
         <v>1001022246661</v>
@@ -3058,172 +3081,172 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>338</v>
+        <v>144</v>
       </c>
       <c r="B104" s="3">
         <v>1001022246661</v>
       </c>
       <c r="C104" t="s">
-        <v>262</v>
+        <v>147</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="B105" s="3">
-        <v>1001022246661</v>
+        <v>1001022246713</v>
       </c>
       <c r="C105" t="s">
-        <v>147</v>
+        <v>118</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B106" s="3">
-        <v>1001022246713</v>
+        <v>1001025166241</v>
       </c>
       <c r="C106" t="s">
-        <v>118</v>
+        <v>152</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="B107" s="3">
-        <v>1001025166241</v>
+        <v>6606</v>
       </c>
       <c r="C107" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="B108" s="3">
-        <v>6606</v>
+        <v>1001035326217</v>
       </c>
       <c r="C108" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="B109" s="3">
-        <v>1001035326217</v>
+        <v>1001303636301</v>
       </c>
       <c r="C109" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>163</v>
+        <v>102</v>
       </c>
       <c r="B110" s="3">
-        <v>1001303636301</v>
+        <v>1001303636302</v>
       </c>
       <c r="C110" t="s">
-        <v>157</v>
+        <v>103</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>102</v>
+        <v>150</v>
       </c>
       <c r="B111" s="3">
-        <v>1001303636302</v>
+        <v>1001305196215</v>
       </c>
       <c r="C111" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="B112" s="3">
-        <v>1001305196215</v>
+        <v>1001301876212</v>
       </c>
       <c r="C112" t="s">
-        <v>87</v>
+        <v>158</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B113" s="3">
-        <v>1001301876212</v>
+        <v>1001301876213</v>
       </c>
       <c r="C113" t="s">
-        <v>158</v>
+        <v>86</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="B114" s="3">
-        <v>1001301876213</v>
+        <v>1001303636302</v>
       </c>
       <c r="C114" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B115" s="3">
-        <v>1001303636302</v>
+        <v>6645</v>
       </c>
       <c r="C115" t="s">
-        <v>103</v>
+        <v>170</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B116" s="3">
-        <v>6645</v>
+        <v>1001225416228</v>
       </c>
       <c r="C116" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B117" s="3">
-        <v>1001225416228</v>
+        <v>6225</v>
       </c>
       <c r="C117" t="s">
-        <v>172</v>
+        <v>288</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B118" s="3">
-        <v>6225</v>
+        <v>1001022376722</v>
       </c>
       <c r="C118" t="s">
-        <v>288</v>
+        <v>129</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B119" s="3">
         <v>1001022376722</v>
@@ -3234,29 +3257,29 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B120" s="3">
-        <v>1001022376722</v>
+        <v>3297</v>
       </c>
       <c r="C120" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>176</v>
+        <v>332</v>
       </c>
       <c r="B121" s="3">
-        <v>3297</v>
+        <v>1001022466726</v>
       </c>
       <c r="C121" t="s">
-        <v>177</v>
+        <v>307</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>332</v>
+        <v>308</v>
       </c>
       <c r="B122" s="3">
         <v>1001022466726</v>
@@ -3267,51 +3290,51 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>308</v>
+        <v>180</v>
       </c>
       <c r="B123" s="3">
         <v>1001022466726</v>
       </c>
       <c r="C123" t="s">
-        <v>307</v>
+        <v>117</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B124" s="3">
-        <v>1001022466726</v>
+        <v>1001021966602</v>
       </c>
       <c r="C124" t="s">
-        <v>117</v>
+        <v>299</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B125" s="3">
-        <v>1001021966602</v>
+        <v>6233</v>
       </c>
       <c r="C125" t="s">
-        <v>299</v>
+        <v>182</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>183</v>
+        <v>279</v>
       </c>
       <c r="B126" s="3">
-        <v>6233</v>
+        <v>1001012816341</v>
       </c>
       <c r="C126" t="s">
-        <v>182</v>
+        <v>462</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>279</v>
+        <v>508</v>
       </c>
       <c r="B127" s="3">
         <v>1001012816341</v>
@@ -3322,7 +3345,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>184</v>
+        <v>511</v>
       </c>
       <c r="B128" s="3">
         <v>1001012816341</v>
@@ -3333,51 +3356,51 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B129" s="3">
-        <v>6750</v>
+        <v>1001012816341</v>
       </c>
       <c r="C129" t="s">
-        <v>93</v>
+        <v>462</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B130" s="3">
-        <v>6751</v>
+        <v>6750</v>
       </c>
       <c r="C130" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B131" s="3">
-        <v>5982</v>
+        <v>6751</v>
       </c>
       <c r="C131" t="s">
-        <v>188</v>
+        <v>95</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>475</v>
+        <v>187</v>
       </c>
       <c r="B132" s="3">
-        <v>1001022656854</v>
+        <v>5982</v>
       </c>
       <c r="C132" t="s">
-        <v>451</v>
+        <v>188</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>189</v>
+        <v>475</v>
       </c>
       <c r="B133" s="3">
         <v>1001022656854</v>
@@ -3388,21 +3411,21 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B134" s="3">
-        <v>1001094966025</v>
+        <v>1001022656854</v>
       </c>
       <c r="C134" t="s">
-        <v>191</v>
+        <v>451</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B135" s="3">
-        <v>6025</v>
+        <v>1001094966025</v>
       </c>
       <c r="C135" t="s">
         <v>191</v>
@@ -3410,21 +3433,21 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B136" s="3">
-        <v>6221</v>
+        <v>6025</v>
       </c>
       <c r="C136" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B137" s="3">
-        <v>1001205376221</v>
+        <v>6221</v>
       </c>
       <c r="C137" t="s">
         <v>193</v>
@@ -3432,29 +3455,29 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B138" s="3">
-        <v>1001022373812</v>
+        <v>1001205376221</v>
       </c>
       <c r="C138" t="s">
-        <v>3</v>
+        <v>193</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B139" s="3">
-        <v>1001100606827</v>
+        <v>1001022373812</v>
       </c>
       <c r="C139" t="s">
-        <v>349</v>
+        <v>3</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>361</v>
+        <v>199</v>
       </c>
       <c r="B140" s="3">
         <v>1001100606827</v>
@@ -3465,18 +3488,18 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>200</v>
+        <v>361</v>
       </c>
       <c r="B141" s="3">
-        <v>1001100616826</v>
+        <v>1001100606827</v>
       </c>
       <c r="C141" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>362</v>
+        <v>200</v>
       </c>
       <c r="B142" s="3">
         <v>1001100616826</v>
@@ -3487,18 +3510,18 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>201</v>
+        <v>362</v>
       </c>
       <c r="B143" s="3">
-        <v>1001100626828</v>
+        <v>1001100616826</v>
       </c>
       <c r="C143" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>363</v>
+        <v>201</v>
       </c>
       <c r="B144" s="3">
         <v>1001100626828</v>
@@ -3509,744 +3532,744 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>202</v>
+        <v>363</v>
       </c>
       <c r="B145" s="3">
-        <v>1001035026308</v>
+        <v>1001100626828</v>
       </c>
       <c r="C145" t="s">
-        <v>203</v>
+        <v>351</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B146" s="3">
-        <v>1001014486159</v>
+        <v>1001035026308</v>
       </c>
       <c r="C146" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B147" s="3">
-        <v>1001035326217</v>
+        <v>1001014486159</v>
       </c>
       <c r="C147" t="s">
-        <v>304</v>
+        <v>205</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B148" s="3">
-        <v>1001012426220</v>
+        <v>1001035326217</v>
       </c>
       <c r="C148" t="s">
-        <v>208</v>
+        <v>304</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B149" s="3">
-        <v>1001022466236</v>
+        <v>1001012426220</v>
       </c>
       <c r="C149" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B150" s="3">
-        <v>1001021966602</v>
+        <v>1001022466236</v>
       </c>
       <c r="C150" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B151" s="3">
-        <v>1001022296656</v>
+        <v>1001021966602</v>
       </c>
       <c r="C151" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B152" s="3">
-        <v>1001304506684</v>
+        <v>1001022296656</v>
       </c>
       <c r="C152" t="s">
-        <v>62</v>
+        <v>214</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B153" s="3">
-        <v>1001301876697</v>
+        <v>1001304506684</v>
       </c>
       <c r="C153" t="s">
-        <v>217</v>
+        <v>62</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B154" s="3">
-        <v>1001022246713</v>
+        <v>1001301876697</v>
       </c>
       <c r="C154" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B155" s="3">
-        <v>1001022376722</v>
+        <v>1001022246713</v>
       </c>
       <c r="C155" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B156" s="3">
-        <v>1001020846751</v>
+        <v>1001022376722</v>
       </c>
       <c r="C156" t="s">
-        <v>95</v>
+        <v>222</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B157" s="3">
-        <v>1001022725819</v>
+        <v>1001020846751</v>
       </c>
       <c r="C157" t="s">
-        <v>225</v>
+        <v>95</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B158" s="3">
-        <v>1001012825337</v>
+        <v>1001022725819</v>
       </c>
       <c r="C158" t="s">
-        <v>28</v>
+        <v>225</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B159" s="3">
-        <v>1001012815336</v>
+        <v>1001012825337</v>
       </c>
       <c r="C159" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B160" s="3">
-        <v>1001234146448</v>
+        <v>1001012815336</v>
       </c>
       <c r="C160" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B161" s="3">
-        <v>1001022725819</v>
+        <v>1001234146448</v>
       </c>
       <c r="C161" t="s">
-        <v>225</v>
+        <v>72</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B162" s="3">
-        <v>1001092676027</v>
+        <v>1001022725819</v>
       </c>
       <c r="C162" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B163" s="3">
-        <v>1001301876213</v>
+        <v>1001092676027</v>
       </c>
       <c r="C163" t="s">
-        <v>86</v>
+        <v>231</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B164" s="3">
-        <v>1001035026308</v>
+        <v>1001301876213</v>
       </c>
       <c r="C164" t="s">
-        <v>427</v>
+        <v>86</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B165" s="3">
-        <v>1001234146448</v>
+        <v>1001035026308</v>
       </c>
       <c r="C165" t="s">
-        <v>72</v>
+        <v>427</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B166" s="3">
-        <v>1001201976454</v>
+        <v>1001234146448</v>
       </c>
       <c r="C166" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B167" s="3">
-        <v>1001025176475</v>
+        <v>1001201976454</v>
       </c>
       <c r="C167" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B168" s="3">
-        <v>1001012456498</v>
+        <v>1001025176475</v>
       </c>
       <c r="C168" t="s">
-        <v>241</v>
+        <v>79</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B169" s="3">
-        <v>1001010036596</v>
+        <v>1001012456498</v>
       </c>
       <c r="C169" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B170" s="3">
-        <v>1001033856607</v>
+        <v>1001010036596</v>
       </c>
       <c r="C170" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B171" s="3">
-        <v>1001033856609</v>
+        <v>1001033856607</v>
       </c>
       <c r="C171" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B172" s="3">
-        <v>1001302276666</v>
+        <v>1001033856609</v>
       </c>
       <c r="C172" t="s">
-        <v>65</v>
+        <v>247</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B173" s="3">
-        <v>1001093345495</v>
+        <v>1001302276666</v>
       </c>
       <c r="C173" t="s">
-        <v>463</v>
+        <v>65</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B174" s="3">
-        <v>6550</v>
+        <v>1001093345495</v>
       </c>
       <c r="C174" t="s">
-        <v>253</v>
+        <v>463</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B175" s="3">
-        <v>1001304506684</v>
+        <v>6550</v>
       </c>
       <c r="C175" t="s">
-        <v>62</v>
+        <v>253</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B176" s="3">
-        <v>1001010113248</v>
+        <v>1001304506684</v>
       </c>
       <c r="C176" t="s">
-        <v>256</v>
+        <v>62</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>435</v>
+        <v>255</v>
       </c>
       <c r="B177" s="3">
-        <v>1001063926780</v>
+        <v>1001010113248</v>
       </c>
       <c r="C177" t="s">
-        <v>436</v>
+        <v>256</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>257</v>
+        <v>435</v>
       </c>
       <c r="B178" s="3">
-        <v>6586</v>
+        <v>1001063926780</v>
       </c>
       <c r="C178" t="s">
-        <v>258</v>
+        <v>436</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B179" s="3">
-        <v>1001303636467</v>
+        <v>6586</v>
       </c>
       <c r="C179" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B180" s="3">
-        <v>1001304496701</v>
+        <v>1001303636467</v>
       </c>
       <c r="C180" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B181" s="3">
-        <v>6144</v>
+        <v>1001304496701</v>
       </c>
       <c r="C181" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B182" s="3">
-        <v>1001022725819</v>
+        <v>6144</v>
       </c>
       <c r="C182" t="s">
-        <v>225</v>
+        <v>266</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B183" s="3">
-        <v>1001022373812</v>
+        <v>1001022725819</v>
       </c>
       <c r="C183" t="s">
-        <v>3</v>
+        <v>225</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B184" s="3">
-        <v>1001024906062</v>
+        <v>1001022373812</v>
       </c>
       <c r="C184" t="s">
-        <v>272</v>
+        <v>3</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B185" s="3">
-        <v>1001300386683</v>
+        <v>1001024906062</v>
       </c>
       <c r="C185" t="s">
-        <v>81</v>
+        <v>272</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B186" s="3">
-        <v>1001303986689</v>
+        <v>1001300386683</v>
       </c>
       <c r="C186" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B187" s="3">
-        <v>1001303056692</v>
+        <v>1001303986689</v>
       </c>
       <c r="C187" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B188" s="3">
-        <v>1001301876697</v>
+        <v>1001303056692</v>
       </c>
       <c r="C188" t="s">
-        <v>217</v>
+        <v>64</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B189" s="3">
-        <v>1001302276666</v>
+        <v>1001301876697</v>
       </c>
       <c r="C189" t="s">
-        <v>65</v>
+        <v>217</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B190" s="3">
-        <v>1001012634574</v>
+        <v>1001302276666</v>
       </c>
       <c r="C190" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B191" s="3">
-        <v>1001092485452</v>
+        <v>1001012634574</v>
       </c>
       <c r="C191" t="s">
-        <v>281</v>
+        <v>12</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B192" s="3">
-        <v>1001020966144</v>
+        <v>1001092485452</v>
       </c>
       <c r="C192" t="s">
-        <v>156</v>
+        <v>281</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B193" s="3">
-        <v>6586</v>
+        <v>1001020966144</v>
       </c>
       <c r="C193" t="s">
-        <v>258</v>
+        <v>156</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B194" s="3">
-        <v>1001304496701</v>
+        <v>6586</v>
       </c>
       <c r="C194" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B195" s="3">
-        <v>1001063655015</v>
+        <v>1001304496701</v>
       </c>
       <c r="C195" t="s">
-        <v>287</v>
+        <v>264</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B196" s="3">
-        <v>1001060763287</v>
+        <v>1001063655015</v>
       </c>
       <c r="C196" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="B197" s="3" t="s">
-        <v>300</v>
+        <v>289</v>
+      </c>
+      <c r="B197" s="3">
+        <v>1001060763287</v>
       </c>
       <c r="C197" t="s">
-        <v>172</v>
+        <v>290</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="B198" s="3">
-        <v>1001032736550</v>
+        <v>291</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>300</v>
       </c>
       <c r="C198" t="s">
-        <v>253</v>
+        <v>172</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B199" s="3">
-        <v>6758</v>
+        <v>1001032736550</v>
       </c>
       <c r="C199" t="s">
-        <v>294</v>
+        <v>253</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B200" s="3">
-        <v>1001020965976</v>
+        <v>6758</v>
       </c>
       <c r="C200" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B201" s="3">
-        <v>1001215576586</v>
+        <v>1001020965976</v>
       </c>
       <c r="C201" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B202" s="3">
-        <v>1001094896026</v>
+        <v>1001215576586</v>
       </c>
       <c r="C202" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B203" s="3">
-        <v>1001215576586</v>
+        <v>1001094896026</v>
       </c>
       <c r="C203" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B204" s="3">
-        <v>1001092436470</v>
+        <v>1001215576586</v>
       </c>
       <c r="C204" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="B205" s="3">
-        <v>1001203146555</v>
+        <v>1001092436470</v>
       </c>
       <c r="C205" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="B206" s="3">
-        <v>1001014765992</v>
+        <v>1001203146555</v>
       </c>
       <c r="C206" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="B207" s="3">
         <v>1001014765992</v>
       </c>
       <c r="C207" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B208" s="3">
-        <v>1001014765993</v>
+        <v>1001014765992</v>
       </c>
       <c r="C208" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B209" s="3">
-        <v>1001025166776</v>
+        <v>1001014765993</v>
       </c>
       <c r="C209" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B210" s="3">
-        <v>1001025506777</v>
+        <v>1001025166776</v>
       </c>
       <c r="C210" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>343</v>
+        <v>319</v>
       </c>
       <c r="B211" s="3">
-        <v>1001025546822</v>
+        <v>1001025506777</v>
       </c>
       <c r="C211" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B212" s="3">
         <v>1001025546822</v>
@@ -4257,7 +4280,7 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="B213" s="3">
         <v>1001025546822</v>
@@ -4268,7 +4291,7 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>321</v>
+        <v>356</v>
       </c>
       <c r="B214" s="3">
         <v>1001025546822</v>
@@ -4279,40 +4302,40 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B215" s="3">
-        <v>1001024976616</v>
+        <v>1001025546822</v>
       </c>
       <c r="C215" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B216" s="3">
-        <v>1001010856747</v>
+        <v>1001024976616</v>
       </c>
       <c r="C216" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
-        <v>406</v>
+        <v>328</v>
       </c>
       <c r="B217" s="3">
-        <v>1001223296919</v>
+        <v>1001010856747</v>
       </c>
       <c r="C217" t="s">
-        <v>409</v>
+        <v>327</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>73</v>
+        <v>406</v>
       </c>
       <c r="B218" s="3">
         <v>1001223296919</v>
@@ -4323,7 +4346,7 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>237</v>
+        <v>73</v>
       </c>
       <c r="B219" s="3">
         <v>1001223296919</v>
@@ -4334,29 +4357,29 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>479</v>
+        <v>237</v>
       </c>
       <c r="B220" s="3">
         <v>1001223296919</v>
       </c>
       <c r="C220" t="s">
-        <v>495</v>
+        <v>409</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
-        <v>501</v>
+        <v>479</v>
       </c>
       <c r="B221" s="3">
         <v>1001223296919</v>
       </c>
       <c r="C221" t="s">
-        <v>409</v>
+        <v>495</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>329</v>
+        <v>501</v>
       </c>
       <c r="B222" s="3">
         <v>1001223296919</v>
@@ -4367,73 +4390,73 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B223" s="3">
-        <v>1001014765993</v>
+        <v>1001223296919</v>
       </c>
       <c r="C223" t="s">
-        <v>315</v>
+        <v>409</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B224" s="3">
-        <v>1001025166776</v>
+        <v>1001014765993</v>
       </c>
       <c r="C224" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B225" s="3">
-        <v>1001025506777</v>
+        <v>1001025166776</v>
       </c>
       <c r="C225" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B226" s="3">
-        <v>1001025526778</v>
+        <v>1001025506777</v>
       </c>
       <c r="C226" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B227" s="3">
-        <v>1001304236685</v>
+        <v>1001025526778</v>
       </c>
       <c r="C227" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>364</v>
+        <v>339</v>
       </c>
       <c r="B228" s="3">
-        <v>1001015496769</v>
+        <v>1001304236685</v>
       </c>
       <c r="C228" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
-        <v>346</v>
+        <v>364</v>
       </c>
       <c r="B229" s="3">
         <v>1001015496769</v>
@@ -4444,84 +4467,84 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B230" s="3">
-        <v>1001014766798</v>
+        <v>1001015496769</v>
       </c>
       <c r="C230" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B231" s="3">
-        <v>1001015026797</v>
+        <v>1001014766798</v>
       </c>
       <c r="C231" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B232" s="3">
-        <v>1001205386222</v>
+        <v>1001015026797</v>
       </c>
       <c r="C232" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B233" s="3">
-        <v>1001092675224</v>
+        <v>1001205386222</v>
       </c>
       <c r="C233" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="B234" s="3">
-        <v>1001225406223</v>
+        <v>1001092675224</v>
       </c>
       <c r="C234" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B235" s="3">
-        <v>1001300366790</v>
+        <v>1001225406223</v>
       </c>
       <c r="C235" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
-        <v>497</v>
+        <v>368</v>
       </c>
       <c r="B236" s="3">
-        <v>1001304096792</v>
+        <v>1001300366790</v>
       </c>
       <c r="C236" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
-        <v>370</v>
+        <v>497</v>
       </c>
       <c r="B237" s="3">
         <v>1001304096792</v>
@@ -4532,73 +4555,73 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B238" s="3">
-        <v>1001303636793</v>
+        <v>1001304096792</v>
       </c>
       <c r="C238" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B239" s="3">
-        <v>1001303636794</v>
+        <v>1001303636793</v>
       </c>
       <c r="C239" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B240" s="3">
-        <v>1001302596795</v>
+        <v>1001303636794</v>
       </c>
       <c r="C240" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B241" s="3">
-        <v>1001302596796</v>
+        <v>1001302596795</v>
       </c>
       <c r="C241" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B242" s="3">
-        <v>1001300456804</v>
+        <v>1001302596796</v>
       </c>
       <c r="C242" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>466</v>
+        <v>375</v>
       </c>
       <c r="B243" s="3">
-        <v>1001300366806</v>
+        <v>1001300456804</v>
       </c>
       <c r="C243" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>376</v>
+        <v>466</v>
       </c>
       <c r="B244" s="3">
         <v>1001300366806</v>
@@ -4609,128 +4632,128 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B245" s="3">
-        <v>1001300516803</v>
+        <v>1001300366806</v>
       </c>
       <c r="C245" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B246" s="3">
-        <v>1001300366807</v>
+        <v>1001300516803</v>
       </c>
       <c r="C246" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="B247" s="3">
         <v>1001300366807</v>
       </c>
       <c r="C247" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B248" s="3">
-        <v>1001300516785</v>
+        <v>1001300366807</v>
       </c>
       <c r="C248" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B249" s="3">
-        <v>1001300456787</v>
+        <v>1001300516785</v>
       </c>
       <c r="C249" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B250" s="3">
-        <v>1001303636793</v>
+        <v>1001300456787</v>
       </c>
       <c r="C250" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B251" s="3">
-        <v>1001302596795</v>
+        <v>1001303636793</v>
       </c>
       <c r="C251" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B252" s="3">
-        <v>1001012486332</v>
+        <v>1001302596795</v>
       </c>
       <c r="C252" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B253" s="3">
-        <v>1001012566345</v>
+        <v>1001012486332</v>
       </c>
       <c r="C253" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B254" s="3">
-        <v>1001031076528</v>
+        <v>1001012566345</v>
       </c>
       <c r="C254" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
-        <v>434</v>
+        <v>403</v>
       </c>
       <c r="B255" s="3">
-        <v>1001020836761</v>
+        <v>1001031076528</v>
       </c>
       <c r="C255" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B256" s="3">
         <v>1001020836761</v>
@@ -4741,7 +4764,7 @@
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
-        <v>410</v>
+        <v>439</v>
       </c>
       <c r="B257" s="3">
         <v>1001020836761</v>
@@ -4752,18 +4775,18 @@
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
-        <v>430</v>
+        <v>410</v>
       </c>
       <c r="B258" s="3">
-        <v>1001020846764</v>
+        <v>1001020836761</v>
       </c>
       <c r="C258" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="B259" s="3">
         <v>1001020846764</v>
@@ -4774,7 +4797,7 @@
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
-        <v>412</v>
+        <v>440</v>
       </c>
       <c r="B260" s="3">
         <v>1001020846764</v>
@@ -4785,40 +4808,40 @@
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B261" s="3">
-        <v>1001300366790</v>
+        <v>1001020846764</v>
       </c>
       <c r="C261" t="s">
-        <v>379</v>
+        <v>413</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
-        <v>369</v>
+        <v>513</v>
       </c>
       <c r="B262" s="3">
-        <v>1001304096791</v>
+        <v>1001300366790</v>
       </c>
       <c r="C262" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
-        <v>488</v>
+        <v>414</v>
       </c>
       <c r="B263" s="3">
-        <v>1001304096791</v>
+        <v>1001300366790</v>
       </c>
       <c r="C263" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
-        <v>415</v>
+        <v>369</v>
       </c>
       <c r="B264" s="3">
         <v>1001304096791</v>
@@ -4829,106 +4852,106 @@
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
-        <v>416</v>
+        <v>488</v>
       </c>
       <c r="B265" s="3">
-        <v>1001303636793</v>
+        <v>1001304096791</v>
       </c>
       <c r="C265" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B266" s="3">
-        <v>1001303636794</v>
+        <v>1001304096791</v>
       </c>
       <c r="C266" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B267" s="3">
-        <v>1001302596795</v>
+        <v>1001303636793</v>
       </c>
       <c r="C267" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B268" s="3">
-        <v>1001300516803</v>
+        <v>1001303636794</v>
       </c>
       <c r="C268" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B269" s="3">
-        <v>1001300456804</v>
+        <v>1001302596795</v>
       </c>
       <c r="C269" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B270" s="3">
-        <v>1001300366807</v>
+        <v>1001300516803</v>
       </c>
       <c r="C270" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B271" s="3">
-        <v>1001302596796</v>
+        <v>1001300456804</v>
       </c>
       <c r="C271" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
-        <v>472</v>
+        <v>421</v>
       </c>
       <c r="B272" s="3">
-        <v>1001023696765</v>
+        <v>1001300366807</v>
       </c>
       <c r="C272" t="s">
-        <v>425</v>
+        <v>389</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
-        <v>491</v>
+        <v>422</v>
       </c>
       <c r="B273" s="3">
-        <v>1001023696765</v>
+        <v>1001302596796</v>
       </c>
       <c r="C273" t="s">
-        <v>425</v>
+        <v>385</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
-        <v>424</v>
+        <v>472</v>
       </c>
       <c r="B274" s="3">
         <v>1001023696765</v>
@@ -4939,29 +4962,29 @@
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
-        <v>433</v>
+        <v>491</v>
       </c>
       <c r="B275" s="3">
-        <v>1001023696767</v>
+        <v>1001023696765</v>
       </c>
       <c r="C275" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
-        <v>441</v>
+        <v>424</v>
       </c>
       <c r="B276" s="3">
-        <v>1001023696767</v>
+        <v>1001023696765</v>
       </c>
       <c r="C276" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="B277" s="3">
         <v>1001023696767</v>
@@ -4972,62 +4995,62 @@
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="B278" s="3">
-        <v>1001024976829</v>
+        <v>1001023696767</v>
       </c>
       <c r="C278" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B279" s="3">
-        <v>1001024976829</v>
+        <v>1001023696767</v>
       </c>
       <c r="C279" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
-        <v>444</v>
+        <v>431</v>
       </c>
       <c r="B280" s="3">
-        <v>1001022376722</v>
+        <v>1001024976829</v>
       </c>
       <c r="C280" t="s">
-        <v>129</v>
+        <v>423</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
-        <v>471</v>
+        <v>432</v>
       </c>
       <c r="B281" s="3">
-        <v>1001020846762</v>
+        <v>1001024976829</v>
       </c>
       <c r="C281" t="s">
-        <v>446</v>
+        <v>423</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
-        <v>490</v>
+        <v>444</v>
       </c>
       <c r="B282" s="3">
-        <v>1001020846762</v>
+        <v>1001022376722</v>
       </c>
       <c r="C282" t="s">
-        <v>446</v>
+        <v>129</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
-        <v>445</v>
+        <v>471</v>
       </c>
       <c r="B283" s="3">
         <v>1001020846762</v>
@@ -5038,347 +5061,413 @@
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
-        <v>448</v>
+        <v>490</v>
       </c>
       <c r="B284" s="3">
-        <v>1001022656853</v>
+        <v>1001020846762</v>
       </c>
       <c r="C284" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="B285" s="3">
-        <v>1001022656852</v>
+        <v>1001020846762</v>
       </c>
       <c r="C285" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
-        <v>473</v>
+        <v>135</v>
       </c>
       <c r="B286" s="3">
-        <v>1001020836759</v>
+        <v>1001022656853</v>
       </c>
       <c r="C286" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
-        <v>489</v>
+        <v>512</v>
       </c>
       <c r="B287" s="3">
-        <v>1001020836759</v>
+        <v>1001022656853</v>
       </c>
       <c r="C287" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="B288" s="3">
-        <v>1001020836759</v>
+        <v>1001022656853</v>
       </c>
       <c r="C288" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B289" s="3">
-        <v>1001023856870</v>
+        <v>1001022656852</v>
       </c>
       <c r="C289" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B290" s="3">
-        <v>1001013956426</v>
+        <v>1001020836759</v>
       </c>
       <c r="C290" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
-        <v>476</v>
+        <v>489</v>
       </c>
       <c r="B291" s="3">
-        <v>1001093345495</v>
+        <v>1001020836759</v>
       </c>
       <c r="C291" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
-        <v>505</v>
+        <v>456</v>
       </c>
       <c r="B292" s="3">
-        <v>1001022656868</v>
+        <v>1001020836759</v>
       </c>
       <c r="C292" t="s">
-        <v>478</v>
+        <v>457</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
-        <v>477</v>
+        <v>458</v>
       </c>
       <c r="B293" s="3">
-        <v>1001022656868</v>
+        <v>1001023856870</v>
       </c>
       <c r="C293" t="s">
-        <v>478</v>
+        <v>459</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
-        <v>178</v>
+        <v>474</v>
       </c>
       <c r="B294" s="3">
-        <v>1001034065698</v>
+        <v>1001013956426</v>
       </c>
       <c r="C294" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
-        <v>197</v>
+        <v>476</v>
       </c>
       <c r="B295" s="3">
-        <v>1001034065698</v>
+        <v>1001093345495</v>
       </c>
       <c r="C295" t="s">
-        <v>450</v>
+        <v>463</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B296" s="3">
-        <v>1001034065698</v>
+        <v>1001022656868</v>
       </c>
       <c r="C296" t="s">
-        <v>450</v>
+        <v>478</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B297" s="3">
-        <v>1001034065698</v>
+        <v>1001022656868</v>
       </c>
       <c r="C297" t="s">
-        <v>450</v>
+        <v>478</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
-        <v>482</v>
+        <v>178</v>
       </c>
       <c r="B298" s="3">
-        <v>1001084216206</v>
+        <v>1001034065698</v>
       </c>
       <c r="C298" t="s">
-        <v>408</v>
+        <v>450</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
-        <v>494</v>
+        <v>197</v>
       </c>
       <c r="B299" s="3">
-        <v>1001015646861</v>
+        <v>1001034065698</v>
       </c>
       <c r="C299" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
-        <v>483</v>
+        <v>503</v>
       </c>
       <c r="B300" s="3">
-        <v>1001015646861</v>
+        <v>1001034065698</v>
       </c>
       <c r="C300" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="B301" s="3">
-        <v>1001025176768</v>
+        <v>1001034065698</v>
       </c>
       <c r="C301" t="s">
-        <v>470</v>
+        <v>450</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="B302" s="3">
-        <v>1001025176768</v>
+        <v>1001084216206</v>
       </c>
       <c r="C302" t="s">
-        <v>470</v>
+        <v>408</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="B303" s="3">
-        <v>1001025176768</v>
+        <v>1001015646861</v>
       </c>
       <c r="C303" t="s">
-        <v>470</v>
+        <v>447</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
-        <v>468</v>
+        <v>483</v>
       </c>
       <c r="B304" s="3">
-        <v>1001025486770</v>
+        <v>1001015646861</v>
       </c>
       <c r="C304" t="s">
-        <v>467</v>
+        <v>447</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
-        <v>493</v>
+        <v>469</v>
       </c>
       <c r="B305" s="3">
-        <v>1001025486770</v>
+        <v>1001025176768</v>
       </c>
       <c r="C305" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="B306" s="3">
-        <v>1001025486770</v>
+        <v>1001025176768</v>
       </c>
       <c r="C306" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
-        <v>220</v>
+        <v>484</v>
       </c>
       <c r="B307" s="3">
-        <v>1001012816340</v>
+        <v>1001025176768</v>
       </c>
       <c r="C307" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
-        <v>507</v>
+        <v>468</v>
       </c>
       <c r="B308" s="3">
-        <v>1001012816340</v>
+        <v>1001025486770</v>
       </c>
       <c r="C308" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="B309" s="3">
-        <v>1001012816340</v>
+        <v>1001025486770</v>
       </c>
       <c r="C309" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
-        <v>330</v>
+        <v>485</v>
       </c>
       <c r="B310" s="3">
-        <v>1001203146834</v>
+        <v>1001025486770</v>
       </c>
       <c r="C310" t="s">
-        <v>453</v>
+        <v>467</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
-        <v>480</v>
+        <v>220</v>
       </c>
       <c r="B311" s="3">
-        <v>1001203146834</v>
+        <v>1001012816340</v>
       </c>
       <c r="C311" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="B312" s="3">
-        <v>1001203146834</v>
+        <v>1001012816340</v>
       </c>
       <c r="C312" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B313" s="3">
-        <v>1001203146834</v>
+        <v>1001012816340</v>
       </c>
       <c r="C313" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B314" s="3">
+        <v>1001203146834</v>
+      </c>
+      <c r="C314" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="B315" s="3">
+        <v>1001203146834</v>
+      </c>
+      <c r="C315" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="B316" s="3">
+        <v>1001203146834</v>
+      </c>
+      <c r="C316" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A317" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="B317" s="3">
+        <v>1001203146834</v>
+      </c>
+      <c r="C317" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A318" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="B314" s="3">
+      <c r="B318" s="3">
         <v>1001300456788</v>
       </c>
-      <c r="C314" t="s">
+      <c r="C318" t="s">
         <v>500</v>
       </c>
     </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A319" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B319" s="3">
+        <v>1001022556837</v>
+      </c>
+      <c r="C319" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="B320" s="3">
+        <v>1001300516786</v>
+      </c>
+      <c r="C320" t="s">
+        <v>515</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C314" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
+  <autoFilter ref="A1:C319" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/moduls/1С.xlsx
+++ b/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\Останкино КИ\ostankino_ki\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A90AC976-66E9-44C6-A216-8F416CC17BEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D915623-4837-4155-BE30-349BA99773C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$319</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$321</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="517">
   <si>
     <t>1С</t>
   </si>
@@ -1582,6 +1582,9 @@
   </si>
   <si>
     <t>ВЕНСКАЯ САЛЯМИ п/к в/у</t>
+  </si>
+  <si>
+    <t>6586 МРАМОРНАЯ И БАЛЫКОВАЯ в/к с/н мгс 1/90</t>
   </si>
 </sst>
 </file>
@@ -1928,11 +1931,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F320"/>
+  <dimension ref="A1:F321"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A310" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A328" sqref="A328"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4181,7 +4184,7 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>303</v>
+        <v>516</v>
       </c>
       <c r="B204" s="3">
         <v>1001215576586</v>
@@ -4192,95 +4195,95 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B205" s="3">
-        <v>1001092436470</v>
+        <v>1001215576586</v>
       </c>
       <c r="C205" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="B206" s="3">
-        <v>1001203146555</v>
+        <v>1001092436470</v>
       </c>
       <c r="C206" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="B207" s="3">
-        <v>1001014765992</v>
+        <v>1001203146555</v>
       </c>
       <c r="C207" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="B208" s="3">
         <v>1001014765992</v>
       </c>
       <c r="C208" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B209" s="3">
-        <v>1001014765993</v>
+        <v>1001014765992</v>
       </c>
       <c r="C209" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B210" s="3">
-        <v>1001025166776</v>
+        <v>1001014765993</v>
       </c>
       <c r="C210" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B211" s="3">
-        <v>1001025506777</v>
+        <v>1001025166776</v>
       </c>
       <c r="C211" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>343</v>
+        <v>319</v>
       </c>
       <c r="B212" s="3">
-        <v>1001025546822</v>
+        <v>1001025506777</v>
       </c>
       <c r="C212" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B213" s="3">
         <v>1001025546822</v>
@@ -4291,7 +4294,7 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="B214" s="3">
         <v>1001025546822</v>
@@ -4302,7 +4305,7 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>321</v>
+        <v>356</v>
       </c>
       <c r="B215" s="3">
         <v>1001025546822</v>
@@ -4313,40 +4316,40 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B216" s="3">
-        <v>1001024976616</v>
+        <v>1001025546822</v>
       </c>
       <c r="C216" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B217" s="3">
-        <v>1001010856747</v>
+        <v>1001024976616</v>
       </c>
       <c r="C217" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>406</v>
+        <v>328</v>
       </c>
       <c r="B218" s="3">
-        <v>1001223296919</v>
+        <v>1001010856747</v>
       </c>
       <c r="C218" t="s">
-        <v>409</v>
+        <v>327</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>73</v>
+        <v>406</v>
       </c>
       <c r="B219" s="3">
         <v>1001223296919</v>
@@ -4357,7 +4360,7 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>237</v>
+        <v>73</v>
       </c>
       <c r="B220" s="3">
         <v>1001223296919</v>
@@ -4368,29 +4371,29 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
-        <v>479</v>
+        <v>237</v>
       </c>
       <c r="B221" s="3">
         <v>1001223296919</v>
       </c>
       <c r="C221" t="s">
-        <v>495</v>
+        <v>409</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>501</v>
+        <v>479</v>
       </c>
       <c r="B222" s="3">
         <v>1001223296919</v>
       </c>
       <c r="C222" t="s">
-        <v>409</v>
+        <v>495</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>329</v>
+        <v>501</v>
       </c>
       <c r="B223" s="3">
         <v>1001223296919</v>
@@ -4401,73 +4404,73 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B224" s="3">
-        <v>1001014765993</v>
+        <v>1001223296919</v>
       </c>
       <c r="C224" t="s">
-        <v>315</v>
+        <v>409</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B225" s="3">
-        <v>1001025166776</v>
+        <v>1001014765993</v>
       </c>
       <c r="C225" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B226" s="3">
-        <v>1001025506777</v>
+        <v>1001025166776</v>
       </c>
       <c r="C226" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B227" s="3">
-        <v>1001025526778</v>
+        <v>1001025506777</v>
       </c>
       <c r="C227" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B228" s="3">
-        <v>1001304236685</v>
+        <v>1001025526778</v>
       </c>
       <c r="C228" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
-        <v>364</v>
+        <v>339</v>
       </c>
       <c r="B229" s="3">
-        <v>1001015496769</v>
+        <v>1001304236685</v>
       </c>
       <c r="C229" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>346</v>
+        <v>364</v>
       </c>
       <c r="B230" s="3">
         <v>1001015496769</v>
@@ -4478,84 +4481,84 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B231" s="3">
-        <v>1001014766798</v>
+        <v>1001015496769</v>
       </c>
       <c r="C231" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B232" s="3">
-        <v>1001015026797</v>
+        <v>1001014766798</v>
       </c>
       <c r="C232" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B233" s="3">
-        <v>1001205386222</v>
+        <v>1001015026797</v>
       </c>
       <c r="C233" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B234" s="3">
-        <v>1001092675224</v>
+        <v>1001205386222</v>
       </c>
       <c r="C234" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="B235" s="3">
-        <v>1001225406223</v>
+        <v>1001092675224</v>
       </c>
       <c r="C235" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B236" s="3">
-        <v>1001300366790</v>
+        <v>1001225406223</v>
       </c>
       <c r="C236" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
-        <v>497</v>
+        <v>368</v>
       </c>
       <c r="B237" s="3">
-        <v>1001304096792</v>
+        <v>1001300366790</v>
       </c>
       <c r="C237" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
-        <v>370</v>
+        <v>497</v>
       </c>
       <c r="B238" s="3">
         <v>1001304096792</v>
@@ -4566,73 +4569,73 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B239" s="3">
-        <v>1001303636793</v>
+        <v>1001304096792</v>
       </c>
       <c r="C239" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B240" s="3">
-        <v>1001303636794</v>
+        <v>1001303636793</v>
       </c>
       <c r="C240" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B241" s="3">
-        <v>1001302596795</v>
+        <v>1001303636794</v>
       </c>
       <c r="C241" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B242" s="3">
-        <v>1001302596796</v>
+        <v>1001302596795</v>
       </c>
       <c r="C242" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B243" s="3">
-        <v>1001300456804</v>
+        <v>1001302596796</v>
       </c>
       <c r="C243" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>466</v>
+        <v>375</v>
       </c>
       <c r="B244" s="3">
-        <v>1001300366806</v>
+        <v>1001300456804</v>
       </c>
       <c r="C244" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
-        <v>376</v>
+        <v>466</v>
       </c>
       <c r="B245" s="3">
         <v>1001300366806</v>
@@ -4643,128 +4646,128 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B246" s="3">
-        <v>1001300516803</v>
+        <v>1001300366806</v>
       </c>
       <c r="C246" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B247" s="3">
-        <v>1001300366807</v>
+        <v>1001300516803</v>
       </c>
       <c r="C247" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="B248" s="3">
         <v>1001300366807</v>
       </c>
       <c r="C248" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B249" s="3">
-        <v>1001300516785</v>
+        <v>1001300366807</v>
       </c>
       <c r="C249" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B250" s="3">
-        <v>1001300456787</v>
+        <v>1001300516785</v>
       </c>
       <c r="C250" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B251" s="3">
-        <v>1001303636793</v>
+        <v>1001300456787</v>
       </c>
       <c r="C251" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B252" s="3">
-        <v>1001302596795</v>
+        <v>1001303636793</v>
       </c>
       <c r="C252" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B253" s="3">
-        <v>1001012486332</v>
+        <v>1001302596795</v>
       </c>
       <c r="C253" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B254" s="3">
-        <v>1001012566345</v>
+        <v>1001012486332</v>
       </c>
       <c r="C254" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B255" s="3">
-        <v>1001031076528</v>
+        <v>1001012566345</v>
       </c>
       <c r="C255" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
-        <v>434</v>
+        <v>403</v>
       </c>
       <c r="B256" s="3">
-        <v>1001020836761</v>
+        <v>1001031076528</v>
       </c>
       <c r="C256" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B257" s="3">
         <v>1001020836761</v>
@@ -4775,7 +4778,7 @@
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
-        <v>410</v>
+        <v>439</v>
       </c>
       <c r="B258" s="3">
         <v>1001020836761</v>
@@ -4786,18 +4789,18 @@
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
-        <v>430</v>
+        <v>410</v>
       </c>
       <c r="B259" s="3">
-        <v>1001020846764</v>
+        <v>1001020836761</v>
       </c>
       <c r="C259" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="B260" s="3">
         <v>1001020846764</v>
@@ -4808,7 +4811,7 @@
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
-        <v>412</v>
+        <v>440</v>
       </c>
       <c r="B261" s="3">
         <v>1001020846764</v>
@@ -4819,18 +4822,18 @@
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
-        <v>513</v>
+        <v>412</v>
       </c>
       <c r="B262" s="3">
-        <v>1001300366790</v>
+        <v>1001020846764</v>
       </c>
       <c r="C262" t="s">
-        <v>379</v>
+        <v>413</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
-        <v>414</v>
+        <v>513</v>
       </c>
       <c r="B263" s="3">
         <v>1001300366790</v>
@@ -4841,18 +4844,18 @@
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
-        <v>369</v>
+        <v>414</v>
       </c>
       <c r="B264" s="3">
-        <v>1001304096791</v>
+        <v>1001300366790</v>
       </c>
       <c r="C264" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
-        <v>488</v>
+        <v>369</v>
       </c>
       <c r="B265" s="3">
         <v>1001304096791</v>
@@ -4863,7 +4866,7 @@
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
-        <v>415</v>
+        <v>488</v>
       </c>
       <c r="B266" s="3">
         <v>1001304096791</v>
@@ -4874,95 +4877,95 @@
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B267" s="3">
-        <v>1001303636793</v>
+        <v>1001304096791</v>
       </c>
       <c r="C267" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B268" s="3">
-        <v>1001303636794</v>
+        <v>1001303636793</v>
       </c>
       <c r="C268" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B269" s="3">
-        <v>1001302596795</v>
+        <v>1001303636794</v>
       </c>
       <c r="C269" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B270" s="3">
-        <v>1001300516803</v>
+        <v>1001302596795</v>
       </c>
       <c r="C270" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B271" s="3">
-        <v>1001300456804</v>
+        <v>1001300516803</v>
       </c>
       <c r="C271" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B272" s="3">
-        <v>1001300366807</v>
+        <v>1001300456804</v>
       </c>
       <c r="C272" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B273" s="3">
-        <v>1001302596796</v>
+        <v>1001300366807</v>
       </c>
       <c r="C273" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
-        <v>472</v>
+        <v>422</v>
       </c>
       <c r="B274" s="3">
-        <v>1001023696765</v>
+        <v>1001302596796</v>
       </c>
       <c r="C274" t="s">
-        <v>425</v>
+        <v>385</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
-        <v>491</v>
+        <v>472</v>
       </c>
       <c r="B275" s="3">
         <v>1001023696765</v>
@@ -4973,7 +4976,7 @@
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
-        <v>424</v>
+        <v>491</v>
       </c>
       <c r="B276" s="3">
         <v>1001023696765</v>
@@ -4984,18 +4987,18 @@
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="B277" s="3">
-        <v>1001023696767</v>
+        <v>1001023696765</v>
       </c>
       <c r="C277" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="B278" s="3">
         <v>1001023696767</v>
@@ -5006,7 +5009,7 @@
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
-        <v>428</v>
+        <v>441</v>
       </c>
       <c r="B279" s="3">
         <v>1001023696767</v>
@@ -5017,18 +5020,18 @@
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B280" s="3">
-        <v>1001024976829</v>
+        <v>1001023696767</v>
       </c>
       <c r="C280" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B281" s="3">
         <v>1001024976829</v>
@@ -5039,29 +5042,29 @@
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="B282" s="3">
-        <v>1001022376722</v>
+        <v>1001024976829</v>
       </c>
       <c r="C282" t="s">
-        <v>129</v>
+        <v>423</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
-        <v>471</v>
+        <v>444</v>
       </c>
       <c r="B283" s="3">
-        <v>1001020846762</v>
+        <v>1001022376722</v>
       </c>
       <c r="C283" t="s">
-        <v>446</v>
+        <v>129</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="B284" s="3">
         <v>1001020846762</v>
@@ -5072,7 +5075,7 @@
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
-        <v>445</v>
+        <v>490</v>
       </c>
       <c r="B285" s="3">
         <v>1001020846762</v>
@@ -5083,18 +5086,18 @@
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
-        <v>135</v>
+        <v>445</v>
       </c>
       <c r="B286" s="3">
-        <v>1001022656853</v>
+        <v>1001020846762</v>
       </c>
       <c r="C286" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
-        <v>512</v>
+        <v>135</v>
       </c>
       <c r="B287" s="3">
         <v>1001022656853</v>
@@ -5105,7 +5108,7 @@
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
-        <v>448</v>
+        <v>512</v>
       </c>
       <c r="B288" s="3">
         <v>1001022656853</v>
@@ -5116,29 +5119,29 @@
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="B289" s="3">
-        <v>1001022656852</v>
+        <v>1001022656853</v>
       </c>
       <c r="C289" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
-        <v>473</v>
+        <v>454</v>
       </c>
       <c r="B290" s="3">
-        <v>1001020836759</v>
+        <v>1001022656852</v>
       </c>
       <c r="C290" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
-        <v>489</v>
+        <v>473</v>
       </c>
       <c r="B291" s="3">
         <v>1001020836759</v>
@@ -5149,7 +5152,7 @@
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
-        <v>456</v>
+        <v>489</v>
       </c>
       <c r="B292" s="3">
         <v>1001020836759</v>
@@ -5160,51 +5163,51 @@
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B293" s="3">
-        <v>1001023856870</v>
+        <v>1001020836759</v>
       </c>
       <c r="C293" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
-        <v>474</v>
+        <v>458</v>
       </c>
       <c r="B294" s="3">
-        <v>1001013956426</v>
+        <v>1001023856870</v>
       </c>
       <c r="C294" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B295" s="3">
-        <v>1001093345495</v>
+        <v>1001013956426</v>
       </c>
       <c r="C295" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
-        <v>505</v>
+        <v>476</v>
       </c>
       <c r="B296" s="3">
-        <v>1001022656868</v>
+        <v>1001093345495</v>
       </c>
       <c r="C296" t="s">
-        <v>478</v>
+        <v>463</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
-        <v>477</v>
+        <v>505</v>
       </c>
       <c r="B297" s="3">
         <v>1001022656868</v>
@@ -5215,18 +5218,18 @@
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
-        <v>178</v>
+        <v>477</v>
       </c>
       <c r="B298" s="3">
-        <v>1001034065698</v>
+        <v>1001022656868</v>
       </c>
       <c r="C298" t="s">
-        <v>450</v>
+        <v>478</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="B299" s="3">
         <v>1001034065698</v>
@@ -5237,7 +5240,7 @@
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
-        <v>503</v>
+        <v>197</v>
       </c>
       <c r="B300" s="3">
         <v>1001034065698</v>
@@ -5248,7 +5251,7 @@
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
-        <v>481</v>
+        <v>503</v>
       </c>
       <c r="B301" s="3">
         <v>1001034065698</v>
@@ -5259,29 +5262,29 @@
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B302" s="3">
-        <v>1001084216206</v>
+        <v>1001034065698</v>
       </c>
       <c r="C302" t="s">
-        <v>408</v>
+        <v>450</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="B303" s="3">
-        <v>1001015646861</v>
+        <v>1001084216206</v>
       </c>
       <c r="C303" t="s">
-        <v>447</v>
+        <v>408</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
-        <v>483</v>
+        <v>494</v>
       </c>
       <c r="B304" s="3">
         <v>1001015646861</v>
@@ -5292,18 +5295,18 @@
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
-        <v>469</v>
+        <v>483</v>
       </c>
       <c r="B305" s="3">
-        <v>1001025176768</v>
+        <v>1001015646861</v>
       </c>
       <c r="C305" t="s">
-        <v>470</v>
+        <v>447</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
-        <v>492</v>
+        <v>469</v>
       </c>
       <c r="B306" s="3">
         <v>1001025176768</v>
@@ -5314,7 +5317,7 @@
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="B307" s="3">
         <v>1001025176768</v>
@@ -5325,18 +5328,18 @@
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
-        <v>468</v>
+        <v>484</v>
       </c>
       <c r="B308" s="3">
-        <v>1001025486770</v>
+        <v>1001025176768</v>
       </c>
       <c r="C308" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
-        <v>493</v>
+        <v>468</v>
       </c>
       <c r="B309" s="3">
         <v>1001025486770</v>
@@ -5347,7 +5350,7 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="B310" s="3">
         <v>1001025486770</v>
@@ -5358,18 +5361,18 @@
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
-        <v>220</v>
+        <v>485</v>
       </c>
       <c r="B311" s="3">
-        <v>1001012816340</v>
+        <v>1001025486770</v>
       </c>
       <c r="C311" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
-        <v>507</v>
+        <v>220</v>
       </c>
       <c r="B312" s="3">
         <v>1001012816340</v>
@@ -5380,7 +5383,7 @@
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
-        <v>486</v>
+        <v>507</v>
       </c>
       <c r="B313" s="3">
         <v>1001012816340</v>
@@ -5391,18 +5394,18 @@
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
-        <v>330</v>
+        <v>486</v>
       </c>
       <c r="B314" s="3">
-        <v>1001203146834</v>
+        <v>1001012816340</v>
       </c>
       <c r="C314" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
-        <v>480</v>
+        <v>330</v>
       </c>
       <c r="B315" s="3">
         <v>1001203146834</v>
@@ -5413,7 +5416,7 @@
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
-        <v>504</v>
+        <v>480</v>
       </c>
       <c r="B316" s="3">
         <v>1001203146834</v>
@@ -5424,7 +5427,7 @@
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
-        <v>487</v>
+        <v>504</v>
       </c>
       <c r="B317" s="3">
         <v>1001203146834</v>
@@ -5435,39 +5438,50 @@
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="B318" s="3">
-        <v>1001300456788</v>
+        <v>1001203146834</v>
       </c>
       <c r="C318" t="s">
-        <v>500</v>
+        <v>453</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="B319" s="3">
-        <v>1001022556837</v>
+        <v>1001300456788</v>
       </c>
       <c r="C319" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B320" s="3">
+        <v>1001022556837</v>
+      </c>
+      <c r="C320" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="B320" s="3">
+      <c r="B321" s="3">
         <v>1001300516786</v>
       </c>
-      <c r="C320" t="s">
+      <c r="C321" t="s">
         <v>515</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C319" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
+  <autoFilter ref="A1:C321" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/moduls/1С.xlsx
+++ b/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\Останкино КИ\ostankino_ki\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D915623-4837-4155-BE30-349BA99773C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB15D89B-2B1C-4293-8447-0C8C50D4BC08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$321</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$322</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="518">
   <si>
     <t>1С</t>
   </si>
@@ -1585,6 +1585,9 @@
   </si>
   <si>
     <t>6586 МРАМОРНАЯ И БАЛЫКОВАЯ в/к с/н мгс 1/90</t>
+  </si>
+  <si>
+    <t>6794 БАЛЫКОВАЯ в/к в/у  ОСТАНКИНО</t>
   </si>
 </sst>
 </file>
@@ -1931,11 +1934,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F321"/>
+  <dimension ref="A1:F322"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4591,7 +4594,7 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>372</v>
+        <v>417</v>
       </c>
       <c r="B241" s="3">
         <v>1001303636794</v>
@@ -4602,194 +4605,194 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
-        <v>373</v>
+        <v>517</v>
       </c>
       <c r="B242" s="3">
-        <v>1001302596795</v>
+        <v>1001303636794</v>
       </c>
       <c r="C242" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B243" s="3">
-        <v>1001302596796</v>
+        <v>1001303636794</v>
       </c>
       <c r="C243" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B244" s="3">
-        <v>1001300456804</v>
+        <v>1001302596795</v>
       </c>
       <c r="C244" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
-        <v>466</v>
+        <v>374</v>
       </c>
       <c r="B245" s="3">
-        <v>1001300366806</v>
+        <v>1001302596796</v>
       </c>
       <c r="C245" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B246" s="3">
-        <v>1001300366806</v>
+        <v>1001300456804</v>
       </c>
       <c r="C246" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
-        <v>377</v>
+        <v>466</v>
       </c>
       <c r="B247" s="3">
-        <v>1001300516803</v>
+        <v>1001300366806</v>
       </c>
       <c r="C247" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B248" s="3">
-        <v>1001300366807</v>
+        <v>1001300366806</v>
       </c>
       <c r="C248" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="B249" s="3">
-        <v>1001300366807</v>
+        <v>1001300516803</v>
       </c>
       <c r="C249" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="B250" s="3">
-        <v>1001300516785</v>
+        <v>1001300366807</v>
       </c>
       <c r="C250" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B251" s="3">
-        <v>1001300456787</v>
+        <v>1001300366807</v>
       </c>
       <c r="C251" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B252" s="3">
-        <v>1001303636793</v>
+        <v>1001300516785</v>
       </c>
       <c r="C252" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B253" s="3">
-        <v>1001302596795</v>
+        <v>1001300456787</v>
       </c>
       <c r="C253" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B254" s="3">
-        <v>1001012486332</v>
+        <v>1001303636793</v>
       </c>
       <c r="C254" t="s">
-        <v>399</v>
+        <v>382</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B255" s="3">
-        <v>1001012566345</v>
+        <v>1001302596795</v>
       </c>
       <c r="C255" t="s">
-        <v>401</v>
+        <v>384</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B256" s="3">
-        <v>1001031076528</v>
+        <v>1001012486332</v>
       </c>
       <c r="C256" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
-        <v>434</v>
+        <v>400</v>
       </c>
       <c r="B257" s="3">
-        <v>1001020836761</v>
+        <v>1001012566345</v>
       </c>
       <c r="C257" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
-        <v>439</v>
+        <v>403</v>
       </c>
       <c r="B258" s="3">
-        <v>1001020836761</v>
+        <v>1001031076528</v>
       </c>
       <c r="C258" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
-        <v>410</v>
+        <v>434</v>
       </c>
       <c r="B259" s="3">
         <v>1001020836761</v>
@@ -4800,29 +4803,29 @@
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="B260" s="3">
-        <v>1001020846764</v>
+        <v>1001020836761</v>
       </c>
       <c r="C260" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
-        <v>440</v>
+        <v>410</v>
       </c>
       <c r="B261" s="3">
-        <v>1001020846764</v>
+        <v>1001020836761</v>
       </c>
       <c r="C261" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
-        <v>412</v>
+        <v>430</v>
       </c>
       <c r="B262" s="3">
         <v>1001020846764</v>
@@ -4833,51 +4836,51 @@
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
-        <v>513</v>
+        <v>440</v>
       </c>
       <c r="B263" s="3">
-        <v>1001300366790</v>
+        <v>1001020846764</v>
       </c>
       <c r="C263" t="s">
-        <v>379</v>
+        <v>413</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B264" s="3">
-        <v>1001300366790</v>
+        <v>1001020846764</v>
       </c>
       <c r="C264" t="s">
-        <v>379</v>
+        <v>413</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
-        <v>369</v>
+        <v>513</v>
       </c>
       <c r="B265" s="3">
-        <v>1001304096791</v>
+        <v>1001300366790</v>
       </c>
       <c r="C265" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
-        <v>488</v>
+        <v>414</v>
       </c>
       <c r="B266" s="3">
-        <v>1001304096791</v>
+        <v>1001300366790</v>
       </c>
       <c r="C266" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
-        <v>415</v>
+        <v>369</v>
       </c>
       <c r="B267" s="3">
         <v>1001304096791</v>
@@ -4888,95 +4891,95 @@
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
-        <v>416</v>
+        <v>488</v>
       </c>
       <c r="B268" s="3">
-        <v>1001303636793</v>
+        <v>1001304096791</v>
       </c>
       <c r="C268" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B269" s="3">
-        <v>1001303636794</v>
+        <v>1001304096791</v>
       </c>
       <c r="C269" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B270" s="3">
-        <v>1001302596795</v>
+        <v>1001303636793</v>
       </c>
       <c r="C270" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B271" s="3">
-        <v>1001300516803</v>
+        <v>1001302596795</v>
       </c>
       <c r="C271" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B272" s="3">
-        <v>1001300456804</v>
+        <v>1001300516803</v>
       </c>
       <c r="C272" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B273" s="3">
-        <v>1001300366807</v>
+        <v>1001300456804</v>
       </c>
       <c r="C273" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B274" s="3">
-        <v>1001302596796</v>
+        <v>1001300366807</v>
       </c>
       <c r="C274" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
-        <v>472</v>
+        <v>422</v>
       </c>
       <c r="B275" s="3">
-        <v>1001023696765</v>
+        <v>1001302596796</v>
       </c>
       <c r="C275" t="s">
-        <v>425</v>
+        <v>385</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
-        <v>491</v>
+        <v>472</v>
       </c>
       <c r="B276" s="3">
         <v>1001023696765</v>
@@ -4987,7 +4990,7 @@
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
-        <v>424</v>
+        <v>491</v>
       </c>
       <c r="B277" s="3">
         <v>1001023696765</v>
@@ -4998,18 +5001,18 @@
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="B278" s="3">
-        <v>1001023696767</v>
+        <v>1001023696765</v>
       </c>
       <c r="C278" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="B279" s="3">
         <v>1001023696767</v>
@@ -5020,7 +5023,7 @@
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
-        <v>428</v>
+        <v>441</v>
       </c>
       <c r="B280" s="3">
         <v>1001023696767</v>
@@ -5031,18 +5034,18 @@
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B281" s="3">
-        <v>1001024976829</v>
+        <v>1001023696767</v>
       </c>
       <c r="C281" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B282" s="3">
         <v>1001024976829</v>
@@ -5053,29 +5056,29 @@
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="B283" s="3">
-        <v>1001022376722</v>
+        <v>1001024976829</v>
       </c>
       <c r="C283" t="s">
-        <v>129</v>
+        <v>423</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
-        <v>471</v>
+        <v>444</v>
       </c>
       <c r="B284" s="3">
-        <v>1001020846762</v>
+        <v>1001022376722</v>
       </c>
       <c r="C284" t="s">
-        <v>446</v>
+        <v>129</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="B285" s="3">
         <v>1001020846762</v>
@@ -5086,7 +5089,7 @@
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
-        <v>445</v>
+        <v>490</v>
       </c>
       <c r="B286" s="3">
         <v>1001020846762</v>
@@ -5097,18 +5100,18 @@
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
-        <v>135</v>
+        <v>445</v>
       </c>
       <c r="B287" s="3">
-        <v>1001022656853</v>
+        <v>1001020846762</v>
       </c>
       <c r="C287" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
-        <v>512</v>
+        <v>135</v>
       </c>
       <c r="B288" s="3">
         <v>1001022656853</v>
@@ -5119,7 +5122,7 @@
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
-        <v>448</v>
+        <v>512</v>
       </c>
       <c r="B289" s="3">
         <v>1001022656853</v>
@@ -5130,29 +5133,29 @@
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="B290" s="3">
-        <v>1001022656852</v>
+        <v>1001022656853</v>
       </c>
       <c r="C290" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
-        <v>473</v>
+        <v>454</v>
       </c>
       <c r="B291" s="3">
-        <v>1001020836759</v>
+        <v>1001022656852</v>
       </c>
       <c r="C291" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
-        <v>489</v>
+        <v>473</v>
       </c>
       <c r="B292" s="3">
         <v>1001020836759</v>
@@ -5163,7 +5166,7 @@
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
-        <v>456</v>
+        <v>489</v>
       </c>
       <c r="B293" s="3">
         <v>1001020836759</v>
@@ -5174,51 +5177,51 @@
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B294" s="3">
-        <v>1001023856870</v>
+        <v>1001020836759</v>
       </c>
       <c r="C294" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
-        <v>474</v>
+        <v>458</v>
       </c>
       <c r="B295" s="3">
-        <v>1001013956426</v>
+        <v>1001023856870</v>
       </c>
       <c r="C295" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B296" s="3">
-        <v>1001093345495</v>
+        <v>1001013956426</v>
       </c>
       <c r="C296" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
-        <v>505</v>
+        <v>476</v>
       </c>
       <c r="B297" s="3">
-        <v>1001022656868</v>
+        <v>1001093345495</v>
       </c>
       <c r="C297" t="s">
-        <v>478</v>
+        <v>463</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
-        <v>477</v>
+        <v>505</v>
       </c>
       <c r="B298" s="3">
         <v>1001022656868</v>
@@ -5229,18 +5232,18 @@
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
-        <v>178</v>
+        <v>477</v>
       </c>
       <c r="B299" s="3">
-        <v>1001034065698</v>
+        <v>1001022656868</v>
       </c>
       <c r="C299" t="s">
-        <v>450</v>
+        <v>478</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="B300" s="3">
         <v>1001034065698</v>
@@ -5251,7 +5254,7 @@
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
-        <v>503</v>
+        <v>197</v>
       </c>
       <c r="B301" s="3">
         <v>1001034065698</v>
@@ -5262,7 +5265,7 @@
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
-        <v>481</v>
+        <v>503</v>
       </c>
       <c r="B302" s="3">
         <v>1001034065698</v>
@@ -5273,29 +5276,29 @@
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B303" s="3">
-        <v>1001084216206</v>
+        <v>1001034065698</v>
       </c>
       <c r="C303" t="s">
-        <v>408</v>
+        <v>450</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="B304" s="3">
-        <v>1001015646861</v>
+        <v>1001084216206</v>
       </c>
       <c r="C304" t="s">
-        <v>447</v>
+        <v>408</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
-        <v>483</v>
+        <v>494</v>
       </c>
       <c r="B305" s="3">
         <v>1001015646861</v>
@@ -5306,18 +5309,18 @@
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
-        <v>469</v>
+        <v>483</v>
       </c>
       <c r="B306" s="3">
-        <v>1001025176768</v>
+        <v>1001015646861</v>
       </c>
       <c r="C306" t="s">
-        <v>470</v>
+        <v>447</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
-        <v>492</v>
+        <v>469</v>
       </c>
       <c r="B307" s="3">
         <v>1001025176768</v>
@@ -5328,7 +5331,7 @@
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="B308" s="3">
         <v>1001025176768</v>
@@ -5339,18 +5342,18 @@
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
-        <v>468</v>
+        <v>484</v>
       </c>
       <c r="B309" s="3">
-        <v>1001025486770</v>
+        <v>1001025176768</v>
       </c>
       <c r="C309" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
-        <v>493</v>
+        <v>468</v>
       </c>
       <c r="B310" s="3">
         <v>1001025486770</v>
@@ -5361,7 +5364,7 @@
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="B311" s="3">
         <v>1001025486770</v>
@@ -5372,18 +5375,18 @@
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
-        <v>220</v>
+        <v>485</v>
       </c>
       <c r="B312" s="3">
-        <v>1001012816340</v>
+        <v>1001025486770</v>
       </c>
       <c r="C312" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
-        <v>507</v>
+        <v>220</v>
       </c>
       <c r="B313" s="3">
         <v>1001012816340</v>
@@ -5394,7 +5397,7 @@
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
-        <v>486</v>
+        <v>507</v>
       </c>
       <c r="B314" s="3">
         <v>1001012816340</v>
@@ -5405,18 +5408,18 @@
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
-        <v>330</v>
+        <v>486</v>
       </c>
       <c r="B315" s="3">
-        <v>1001203146834</v>
+        <v>1001012816340</v>
       </c>
       <c r="C315" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
-        <v>480</v>
+        <v>330</v>
       </c>
       <c r="B316" s="3">
         <v>1001203146834</v>
@@ -5427,7 +5430,7 @@
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
-        <v>504</v>
+        <v>480</v>
       </c>
       <c r="B317" s="3">
         <v>1001203146834</v>
@@ -5438,7 +5441,7 @@
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
-        <v>487</v>
+        <v>504</v>
       </c>
       <c r="B318" s="3">
         <v>1001203146834</v>
@@ -5449,39 +5452,50 @@
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="B319" s="3">
-        <v>1001300456788</v>
+        <v>1001203146834</v>
       </c>
       <c r="C319" t="s">
-        <v>500</v>
+        <v>453</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="B320" s="3">
-        <v>1001022556837</v>
+        <v>1001300456788</v>
       </c>
       <c r="C320" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B321" s="3">
+        <v>1001022556837</v>
+      </c>
+      <c r="C321" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="B321" s="3">
+      <c r="B322" s="3">
         <v>1001300516786</v>
       </c>
-      <c r="C321" t="s">
+      <c r="C322" t="s">
         <v>515</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C321" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
+  <autoFilter ref="A1:C322" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/moduls/1С.xlsx
+++ b/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\Останкино КИ\ostankino_ki\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB15D89B-2B1C-4293-8447-0C8C50D4BC08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D7EE11-21AA-44B4-872B-70D202B28108}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="520">
   <si>
     <t>1С</t>
   </si>
@@ -1588,6 +1588,12 @@
   </si>
   <si>
     <t>6794 БАЛЫКОВАЯ в/к в/у  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6459 СЕРВЕЛАТ ШВЕЙЦАРСК. в/к с/н в/у 1/100*10  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ ШВЕЙЦАРСК. в/к с/н в/у 1/100*10</t>
   </si>
 </sst>
 </file>
@@ -1934,11 +1940,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F322"/>
+  <dimension ref="A1:F323"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <pane ySplit="1" topLeftCell="A307" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B330" sqref="B330"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5494,6 +5500,17 @@
         <v>515</v>
       </c>
     </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="B323" s="3">
+        <v>1001214196459</v>
+      </c>
+      <c r="C323" t="s">
+        <v>519</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C322" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/moduls/1С.xlsx
+++ b/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\Останкино КИ\ostankino_ki\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D7EE11-21AA-44B4-872B-70D202B28108}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A651723-617F-4C81-8037-0EEC536C6EBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="524">
   <si>
     <t>1С</t>
   </si>
@@ -1594,6 +1594,18 @@
   </si>
   <si>
     <t>СЕРВЕЛАТ ШВЕЙЦАРСК. в/к с/н в/у 1/100*10</t>
+  </si>
+  <si>
+    <t>6495 ВЕТЧ.МРАМОРНАЯ в/у срез 0.3кг 6шт_45с  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>ВЕТЧ.МРАМОРНАЯ в/у срез 0.3кг 6шт_45с</t>
+  </si>
+  <si>
+    <t>6901 МЯСНИКС ПМ сос б/о мгс 1/160 14шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>МЯСНИКС ПМ сос б/о мгс 1/160 14шт.</t>
   </si>
 </sst>
 </file>
@@ -1940,11 +1952,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F323"/>
+  <dimension ref="A1:F325"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A307" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B330" sqref="B330"/>
+      <selection pane="bottomLeft" activeCell="C329" sqref="C329"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5511,6 +5523,28 @@
         <v>519</v>
       </c>
     </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="B324" s="3">
+        <v>1001092436495</v>
+      </c>
+      <c r="C324" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="B325" s="3">
+        <v>1001025526901</v>
+      </c>
+      <c r="C325" t="s">
+        <v>523</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C322" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/moduls/1С.xlsx
+++ b/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\Останкино КИ\ostankino_ki\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A651723-617F-4C81-8037-0EEC536C6EBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC334F3-5F13-4953-903E-1CFD45234DB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$322</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$327</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="531">
   <si>
     <t>1С</t>
   </si>
@@ -1606,6 +1606,27 @@
   </si>
   <si>
     <t>МЯСНИКС ПМ сос б/о мгс 1/160 14шт.</t>
+  </si>
+  <si>
+    <t>6931 ИЗ ОТБОРНОГО МЯСА ПМ сос п/о мгс 1/360  Останкино</t>
+  </si>
+  <si>
+    <t>ИЗ ОТБОРНОГО МЯСА ПМ сос п/о мгс 1/360</t>
+  </si>
+  <si>
+    <t>6220 ГОВЯЖЬЯ Папа может вар п/о</t>
+  </si>
+  <si>
+    <t>6324 ДОКТОРСКАЯ ГОСТ вар п/о 0.4кг 8шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>ДОКТОРСКАЯ ГОСТ вар п/о 0.4кг 8шт.</t>
+  </si>
+  <si>
+    <t>6909 ДЛЯ ДЕТЕЙ сос п/о мгс 0.33кг 8шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>ДЛЯ ДЕТЕЙ сос п/о мгс 0.33кг 8шт.</t>
   </si>
 </sst>
 </file>
@@ -1952,11 +1973,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F325"/>
+  <dimension ref="A1:F329"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A307" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C329" sqref="C329"/>
+      <pane ySplit="1" topLeftCell="A312" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B335" sqref="B335"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3600,7 +3621,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>207</v>
+        <v>526</v>
       </c>
       <c r="B149" s="3">
         <v>1001012426220</v>
@@ -3611,612 +3632,612 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B150" s="3">
-        <v>1001022466236</v>
+        <v>1001012426220</v>
       </c>
       <c r="C150" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B151" s="3">
-        <v>1001021966602</v>
+        <v>1001022466236</v>
       </c>
       <c r="C151" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B152" s="3">
-        <v>1001022296656</v>
+        <v>1001021966602</v>
       </c>
       <c r="C152" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B153" s="3">
-        <v>1001304506684</v>
+        <v>1001022296656</v>
       </c>
       <c r="C153" t="s">
-        <v>62</v>
+        <v>214</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B154" s="3">
-        <v>1001301876697</v>
+        <v>1001304506684</v>
       </c>
       <c r="C154" t="s">
-        <v>217</v>
+        <v>62</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B155" s="3">
-        <v>1001022246713</v>
+        <v>1001301876697</v>
       </c>
       <c r="C155" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B156" s="3">
-        <v>1001022376722</v>
+        <v>1001022246713</v>
       </c>
       <c r="C156" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B157" s="3">
-        <v>1001020846751</v>
+        <v>1001022376722</v>
       </c>
       <c r="C157" t="s">
-        <v>95</v>
+        <v>222</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B158" s="3">
-        <v>1001022725819</v>
+        <v>1001020846751</v>
       </c>
       <c r="C158" t="s">
-        <v>225</v>
+        <v>95</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B159" s="3">
-        <v>1001012825337</v>
+        <v>1001022725819</v>
       </c>
       <c r="C159" t="s">
-        <v>28</v>
+        <v>225</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B160" s="3">
-        <v>1001012815336</v>
+        <v>1001012825337</v>
       </c>
       <c r="C160" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B161" s="3">
-        <v>1001234146448</v>
+        <v>1001012815336</v>
       </c>
       <c r="C161" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B162" s="3">
-        <v>1001022725819</v>
+        <v>1001234146448</v>
       </c>
       <c r="C162" t="s">
-        <v>225</v>
+        <v>72</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B163" s="3">
-        <v>1001092676027</v>
+        <v>1001022725819</v>
       </c>
       <c r="C163" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B164" s="3">
-        <v>1001301876213</v>
+        <v>1001092676027</v>
       </c>
       <c r="C164" t="s">
-        <v>86</v>
+        <v>231</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B165" s="3">
-        <v>1001035026308</v>
+        <v>1001301876213</v>
       </c>
       <c r="C165" t="s">
-        <v>427</v>
+        <v>86</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B166" s="3">
-        <v>1001234146448</v>
+        <v>1001035026308</v>
       </c>
       <c r="C166" t="s">
-        <v>72</v>
+        <v>427</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B167" s="3">
-        <v>1001201976454</v>
+        <v>1001234146448</v>
       </c>
       <c r="C167" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B168" s="3">
-        <v>1001025176475</v>
+        <v>1001201976454</v>
       </c>
       <c r="C168" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B169" s="3">
-        <v>1001012456498</v>
+        <v>1001025176475</v>
       </c>
       <c r="C169" t="s">
-        <v>241</v>
+        <v>79</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B170" s="3">
-        <v>1001010036596</v>
+        <v>1001012456498</v>
       </c>
       <c r="C170" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B171" s="3">
-        <v>1001033856607</v>
+        <v>1001010036596</v>
       </c>
       <c r="C171" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B172" s="3">
-        <v>1001033856609</v>
+        <v>1001033856607</v>
       </c>
       <c r="C172" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B173" s="3">
-        <v>1001302276666</v>
+        <v>1001033856609</v>
       </c>
       <c r="C173" t="s">
-        <v>65</v>
+        <v>247</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B174" s="3">
-        <v>1001093345495</v>
+        <v>1001302276666</v>
       </c>
       <c r="C174" t="s">
-        <v>463</v>
+        <v>65</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B175" s="3">
-        <v>6550</v>
+        <v>1001093345495</v>
       </c>
       <c r="C175" t="s">
-        <v>253</v>
+        <v>463</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B176" s="3">
-        <v>1001304506684</v>
+        <v>6550</v>
       </c>
       <c r="C176" t="s">
-        <v>62</v>
+        <v>253</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B177" s="3">
-        <v>1001010113248</v>
+        <v>1001304506684</v>
       </c>
       <c r="C177" t="s">
-        <v>256</v>
+        <v>62</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>435</v>
+        <v>255</v>
       </c>
       <c r="B178" s="3">
-        <v>1001063926780</v>
+        <v>1001010113248</v>
       </c>
       <c r="C178" t="s">
-        <v>436</v>
+        <v>256</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>257</v>
+        <v>435</v>
       </c>
       <c r="B179" s="3">
-        <v>6586</v>
+        <v>1001063926780</v>
       </c>
       <c r="C179" t="s">
-        <v>258</v>
+        <v>436</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B180" s="3">
-        <v>1001303636467</v>
+        <v>6586</v>
       </c>
       <c r="C180" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B181" s="3">
-        <v>1001304496701</v>
+        <v>1001303636467</v>
       </c>
       <c r="C181" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B182" s="3">
-        <v>6144</v>
+        <v>1001304496701</v>
       </c>
       <c r="C182" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B183" s="3">
-        <v>1001022725819</v>
+        <v>6144</v>
       </c>
       <c r="C183" t="s">
-        <v>225</v>
+        <v>266</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B184" s="3">
-        <v>1001022373812</v>
+        <v>1001022725819</v>
       </c>
       <c r="C184" t="s">
-        <v>3</v>
+        <v>225</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B185" s="3">
-        <v>1001024906062</v>
+        <v>1001022373812</v>
       </c>
       <c r="C185" t="s">
-        <v>272</v>
+        <v>3</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B186" s="3">
-        <v>1001300386683</v>
+        <v>1001024906062</v>
       </c>
       <c r="C186" t="s">
-        <v>81</v>
+        <v>272</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B187" s="3">
-        <v>1001303986689</v>
+        <v>1001300386683</v>
       </c>
       <c r="C187" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B188" s="3">
-        <v>1001303056692</v>
+        <v>1001303986689</v>
       </c>
       <c r="C188" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B189" s="3">
-        <v>1001301876697</v>
+        <v>1001303056692</v>
       </c>
       <c r="C189" t="s">
-        <v>217</v>
+        <v>64</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B190" s="3">
-        <v>1001302276666</v>
+        <v>1001301876697</v>
       </c>
       <c r="C190" t="s">
-        <v>65</v>
+        <v>217</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B191" s="3">
-        <v>1001012634574</v>
+        <v>1001302276666</v>
       </c>
       <c r="C191" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B192" s="3">
-        <v>1001092485452</v>
+        <v>1001012634574</v>
       </c>
       <c r="C192" t="s">
-        <v>281</v>
+        <v>12</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B193" s="3">
-        <v>1001020966144</v>
+        <v>1001092485452</v>
       </c>
       <c r="C193" t="s">
-        <v>156</v>
+        <v>281</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B194" s="3">
-        <v>6586</v>
+        <v>1001020966144</v>
       </c>
       <c r="C194" t="s">
-        <v>258</v>
+        <v>156</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B195" s="3">
-        <v>1001304496701</v>
+        <v>6586</v>
       </c>
       <c r="C195" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B196" s="3">
-        <v>1001063655015</v>
+        <v>1001304496701</v>
       </c>
       <c r="C196" t="s">
-        <v>287</v>
+        <v>264</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B197" s="3">
-        <v>1001060763287</v>
+        <v>1001063655015</v>
       </c>
       <c r="C197" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="B198" s="3" t="s">
-        <v>300</v>
+        <v>289</v>
+      </c>
+      <c r="B198" s="3">
+        <v>1001060763287</v>
       </c>
       <c r="C198" t="s">
-        <v>172</v>
+        <v>290</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="B199" s="3">
-        <v>1001032736550</v>
+        <v>291</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>300</v>
       </c>
       <c r="C199" t="s">
-        <v>253</v>
+        <v>172</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B200" s="3">
-        <v>6758</v>
+        <v>1001032736550</v>
       </c>
       <c r="C200" t="s">
-        <v>294</v>
+        <v>253</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B201" s="3">
-        <v>1001020965976</v>
+        <v>6758</v>
       </c>
       <c r="C201" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B202" s="3">
-        <v>1001215576586</v>
+        <v>1001020965976</v>
       </c>
       <c r="C202" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B203" s="3">
-        <v>1001094896026</v>
+        <v>1001215576586</v>
       </c>
       <c r="C203" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>516</v>
+        <v>301</v>
       </c>
       <c r="B204" s="3">
-        <v>1001215576586</v>
+        <v>1001094896026</v>
       </c>
       <c r="C204" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>303</v>
+        <v>516</v>
       </c>
       <c r="B205" s="3">
         <v>1001215576586</v>
@@ -4227,95 +4248,95 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B206" s="3">
-        <v>1001092436470</v>
+        <v>1001215576586</v>
       </c>
       <c r="C206" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="B207" s="3">
-        <v>1001203146555</v>
+        <v>1001092436470</v>
       </c>
       <c r="C207" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="B208" s="3">
-        <v>1001014765992</v>
+        <v>1001203146555</v>
       </c>
       <c r="C208" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="B209" s="3">
         <v>1001014765992</v>
       </c>
       <c r="C209" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B210" s="3">
-        <v>1001014765993</v>
+        <v>1001014765992</v>
       </c>
       <c r="C210" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B211" s="3">
-        <v>1001025166776</v>
+        <v>1001014765993</v>
       </c>
       <c r="C211" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B212" s="3">
-        <v>1001025506777</v>
+        <v>1001025166776</v>
       </c>
       <c r="C212" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>343</v>
+        <v>319</v>
       </c>
       <c r="B213" s="3">
-        <v>1001025546822</v>
+        <v>1001025506777</v>
       </c>
       <c r="C213" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B214" s="3">
         <v>1001025546822</v>
@@ -4326,7 +4347,7 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="B215" s="3">
         <v>1001025546822</v>
@@ -4337,7 +4358,7 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>321</v>
+        <v>356</v>
       </c>
       <c r="B216" s="3">
         <v>1001025546822</v>
@@ -4348,40 +4369,40 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B217" s="3">
-        <v>1001024976616</v>
+        <v>1001025546822</v>
       </c>
       <c r="C217" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B218" s="3">
-        <v>1001010856747</v>
+        <v>1001024976616</v>
       </c>
       <c r="C218" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>406</v>
+        <v>328</v>
       </c>
       <c r="B219" s="3">
-        <v>1001223296919</v>
+        <v>1001010856747</v>
       </c>
       <c r="C219" t="s">
-        <v>409</v>
+        <v>327</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>73</v>
+        <v>406</v>
       </c>
       <c r="B220" s="3">
         <v>1001223296919</v>
@@ -4392,7 +4413,7 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
-        <v>237</v>
+        <v>73</v>
       </c>
       <c r="B221" s="3">
         <v>1001223296919</v>
@@ -4403,29 +4424,29 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>479</v>
+        <v>237</v>
       </c>
       <c r="B222" s="3">
         <v>1001223296919</v>
       </c>
       <c r="C222" t="s">
-        <v>495</v>
+        <v>409</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>501</v>
+        <v>479</v>
       </c>
       <c r="B223" s="3">
         <v>1001223296919</v>
       </c>
       <c r="C223" t="s">
-        <v>409</v>
+        <v>495</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>329</v>
+        <v>501</v>
       </c>
       <c r="B224" s="3">
         <v>1001223296919</v>
@@ -4436,73 +4457,73 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B225" s="3">
-        <v>1001014765993</v>
+        <v>1001223296919</v>
       </c>
       <c r="C225" t="s">
-        <v>315</v>
+        <v>409</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B226" s="3">
-        <v>1001025166776</v>
+        <v>1001014765993</v>
       </c>
       <c r="C226" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B227" s="3">
-        <v>1001025506777</v>
+        <v>1001025166776</v>
       </c>
       <c r="C227" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B228" s="3">
-        <v>1001025526778</v>
+        <v>1001025506777</v>
       </c>
       <c r="C228" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B229" s="3">
-        <v>1001304236685</v>
+        <v>1001025526778</v>
       </c>
       <c r="C229" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>364</v>
+        <v>339</v>
       </c>
       <c r="B230" s="3">
-        <v>1001015496769</v>
+        <v>1001304236685</v>
       </c>
       <c r="C230" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>346</v>
+        <v>364</v>
       </c>
       <c r="B231" s="3">
         <v>1001015496769</v>
@@ -4513,84 +4534,84 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B232" s="3">
-        <v>1001014766798</v>
+        <v>1001015496769</v>
       </c>
       <c r="C232" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B233" s="3">
-        <v>1001015026797</v>
+        <v>1001014766798</v>
       </c>
       <c r="C233" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B234" s="3">
-        <v>1001205386222</v>
+        <v>1001015026797</v>
       </c>
       <c r="C234" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B235" s="3">
-        <v>1001092675224</v>
+        <v>1001205386222</v>
       </c>
       <c r="C235" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="B236" s="3">
-        <v>1001225406223</v>
+        <v>1001092675224</v>
       </c>
       <c r="C236" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B237" s="3">
-        <v>1001300366790</v>
+        <v>1001225406223</v>
       </c>
       <c r="C237" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
-        <v>497</v>
+        <v>368</v>
       </c>
       <c r="B238" s="3">
-        <v>1001304096792</v>
+        <v>1001300366790</v>
       </c>
       <c r="C238" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
-        <v>370</v>
+        <v>497</v>
       </c>
       <c r="B239" s="3">
         <v>1001304096792</v>
@@ -4601,29 +4622,29 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B240" s="3">
-        <v>1001303636793</v>
+        <v>1001304096792</v>
       </c>
       <c r="C240" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>417</v>
+        <v>371</v>
       </c>
       <c r="B241" s="3">
-        <v>1001303636794</v>
+        <v>1001303636793</v>
       </c>
       <c r="C241" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="B242" s="3">
         <v>1001303636794</v>
@@ -4634,7 +4655,7 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>372</v>
+        <v>517</v>
       </c>
       <c r="B243" s="3">
         <v>1001303636794</v>
@@ -4645,51 +4666,51 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B244" s="3">
-        <v>1001302596795</v>
+        <v>1001303636794</v>
       </c>
       <c r="C244" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B245" s="3">
-        <v>1001302596796</v>
+        <v>1001302596795</v>
       </c>
       <c r="C245" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B246" s="3">
-        <v>1001300456804</v>
+        <v>1001302596796</v>
       </c>
       <c r="C246" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
-        <v>466</v>
+        <v>375</v>
       </c>
       <c r="B247" s="3">
-        <v>1001300366806</v>
+        <v>1001300456804</v>
       </c>
       <c r="C247" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
-        <v>376</v>
+        <v>466</v>
       </c>
       <c r="B248" s="3">
         <v>1001300366806</v>
@@ -4700,128 +4721,128 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B249" s="3">
-        <v>1001300516803</v>
+        <v>1001300366806</v>
       </c>
       <c r="C249" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B250" s="3">
-        <v>1001300366807</v>
+        <v>1001300516803</v>
       </c>
       <c r="C250" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="B251" s="3">
         <v>1001300366807</v>
       </c>
       <c r="C251" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B252" s="3">
-        <v>1001300516785</v>
+        <v>1001300366807</v>
       </c>
       <c r="C252" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B253" s="3">
-        <v>1001300456787</v>
+        <v>1001300516785</v>
       </c>
       <c r="C253" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B254" s="3">
-        <v>1001303636793</v>
+        <v>1001300456787</v>
       </c>
       <c r="C254" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B255" s="3">
-        <v>1001302596795</v>
+        <v>1001303636793</v>
       </c>
       <c r="C255" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B256" s="3">
-        <v>1001012486332</v>
+        <v>1001302596795</v>
       </c>
       <c r="C256" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B257" s="3">
-        <v>1001012566345</v>
+        <v>1001012486332</v>
       </c>
       <c r="C257" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B258" s="3">
-        <v>1001031076528</v>
+        <v>1001012566345</v>
       </c>
       <c r="C258" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
-        <v>434</v>
+        <v>403</v>
       </c>
       <c r="B259" s="3">
-        <v>1001020836761</v>
+        <v>1001031076528</v>
       </c>
       <c r="C259" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B260" s="3">
         <v>1001020836761</v>
@@ -4832,7 +4853,7 @@
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
-        <v>410</v>
+        <v>439</v>
       </c>
       <c r="B261" s="3">
         <v>1001020836761</v>
@@ -4843,18 +4864,18 @@
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
-        <v>430</v>
+        <v>410</v>
       </c>
       <c r="B262" s="3">
-        <v>1001020846764</v>
+        <v>1001020836761</v>
       </c>
       <c r="C262" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="B263" s="3">
         <v>1001020846764</v>
@@ -4865,7 +4886,7 @@
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
-        <v>412</v>
+        <v>440</v>
       </c>
       <c r="B264" s="3">
         <v>1001020846764</v>
@@ -4876,18 +4897,18 @@
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
-        <v>513</v>
+        <v>412</v>
       </c>
       <c r="B265" s="3">
-        <v>1001300366790</v>
+        <v>1001020846764</v>
       </c>
       <c r="C265" t="s">
-        <v>379</v>
+        <v>413</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
-        <v>414</v>
+        <v>513</v>
       </c>
       <c r="B266" s="3">
         <v>1001300366790</v>
@@ -4898,18 +4919,18 @@
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
-        <v>369</v>
+        <v>414</v>
       </c>
       <c r="B267" s="3">
-        <v>1001304096791</v>
+        <v>1001300366790</v>
       </c>
       <c r="C267" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
-        <v>488</v>
+        <v>369</v>
       </c>
       <c r="B268" s="3">
         <v>1001304096791</v>
@@ -4920,7 +4941,7 @@
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
-        <v>415</v>
+        <v>488</v>
       </c>
       <c r="B269" s="3">
         <v>1001304096791</v>
@@ -4931,84 +4952,84 @@
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B270" s="3">
-        <v>1001303636793</v>
+        <v>1001304096791</v>
       </c>
       <c r="C270" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B271" s="3">
-        <v>1001302596795</v>
+        <v>1001303636793</v>
       </c>
       <c r="C271" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B272" s="3">
-        <v>1001300516803</v>
+        <v>1001302596795</v>
       </c>
       <c r="C272" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B273" s="3">
-        <v>1001300456804</v>
+        <v>1001300516803</v>
       </c>
       <c r="C273" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B274" s="3">
-        <v>1001300366807</v>
+        <v>1001300456804</v>
       </c>
       <c r="C274" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B275" s="3">
-        <v>1001302596796</v>
+        <v>1001300366807</v>
       </c>
       <c r="C275" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
-        <v>472</v>
+        <v>422</v>
       </c>
       <c r="B276" s="3">
-        <v>1001023696765</v>
+        <v>1001302596796</v>
       </c>
       <c r="C276" t="s">
-        <v>425</v>
+        <v>385</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
-        <v>491</v>
+        <v>472</v>
       </c>
       <c r="B277" s="3">
         <v>1001023696765</v>
@@ -5019,7 +5040,7 @@
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
-        <v>424</v>
+        <v>491</v>
       </c>
       <c r="B278" s="3">
         <v>1001023696765</v>
@@ -5030,18 +5051,18 @@
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="B279" s="3">
-        <v>1001023696767</v>
+        <v>1001023696765</v>
       </c>
       <c r="C279" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="B280" s="3">
         <v>1001023696767</v>
@@ -5052,7 +5073,7 @@
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
-        <v>428</v>
+        <v>441</v>
       </c>
       <c r="B281" s="3">
         <v>1001023696767</v>
@@ -5063,18 +5084,18 @@
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B282" s="3">
-        <v>1001024976829</v>
+        <v>1001023696767</v>
       </c>
       <c r="C282" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B283" s="3">
         <v>1001024976829</v>
@@ -5085,29 +5106,29 @@
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="B284" s="3">
-        <v>1001022376722</v>
+        <v>1001024976829</v>
       </c>
       <c r="C284" t="s">
-        <v>129</v>
+        <v>423</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
-        <v>471</v>
+        <v>444</v>
       </c>
       <c r="B285" s="3">
-        <v>1001020846762</v>
+        <v>1001022376722</v>
       </c>
       <c r="C285" t="s">
-        <v>446</v>
+        <v>129</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="B286" s="3">
         <v>1001020846762</v>
@@ -5118,7 +5139,7 @@
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
-        <v>445</v>
+        <v>490</v>
       </c>
       <c r="B287" s="3">
         <v>1001020846762</v>
@@ -5129,18 +5150,18 @@
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
-        <v>135</v>
+        <v>445</v>
       </c>
       <c r="B288" s="3">
-        <v>1001022656853</v>
+        <v>1001020846762</v>
       </c>
       <c r="C288" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
-        <v>512</v>
+        <v>135</v>
       </c>
       <c r="B289" s="3">
         <v>1001022656853</v>
@@ -5151,7 +5172,7 @@
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
-        <v>448</v>
+        <v>512</v>
       </c>
       <c r="B290" s="3">
         <v>1001022656853</v>
@@ -5162,29 +5183,29 @@
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="B291" s="3">
-        <v>1001022656852</v>
+        <v>1001022656853</v>
       </c>
       <c r="C291" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
-        <v>473</v>
+        <v>454</v>
       </c>
       <c r="B292" s="3">
-        <v>1001020836759</v>
+        <v>1001022656852</v>
       </c>
       <c r="C292" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
-        <v>489</v>
+        <v>473</v>
       </c>
       <c r="B293" s="3">
         <v>1001020836759</v>
@@ -5195,7 +5216,7 @@
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
-        <v>456</v>
+        <v>489</v>
       </c>
       <c r="B294" s="3">
         <v>1001020836759</v>
@@ -5206,51 +5227,51 @@
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B295" s="3">
-        <v>1001023856870</v>
+        <v>1001020836759</v>
       </c>
       <c r="C295" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
-        <v>474</v>
+        <v>458</v>
       </c>
       <c r="B296" s="3">
-        <v>1001013956426</v>
+        <v>1001023856870</v>
       </c>
       <c r="C296" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B297" s="3">
-        <v>1001093345495</v>
+        <v>1001013956426</v>
       </c>
       <c r="C297" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
-        <v>505</v>
+        <v>476</v>
       </c>
       <c r="B298" s="3">
-        <v>1001022656868</v>
+        <v>1001093345495</v>
       </c>
       <c r="C298" t="s">
-        <v>478</v>
+        <v>463</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
-        <v>477</v>
+        <v>505</v>
       </c>
       <c r="B299" s="3">
         <v>1001022656868</v>
@@ -5261,18 +5282,18 @@
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
-        <v>178</v>
+        <v>477</v>
       </c>
       <c r="B300" s="3">
-        <v>1001034065698</v>
+        <v>1001022656868</v>
       </c>
       <c r="C300" t="s">
-        <v>450</v>
+        <v>478</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="B301" s="3">
         <v>1001034065698</v>
@@ -5283,7 +5304,7 @@
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
-        <v>503</v>
+        <v>197</v>
       </c>
       <c r="B302" s="3">
         <v>1001034065698</v>
@@ -5294,7 +5315,7 @@
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
-        <v>481</v>
+        <v>503</v>
       </c>
       <c r="B303" s="3">
         <v>1001034065698</v>
@@ -5305,29 +5326,29 @@
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B304" s="3">
-        <v>1001084216206</v>
+        <v>1001034065698</v>
       </c>
       <c r="C304" t="s">
-        <v>408</v>
+        <v>450</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="B305" s="3">
-        <v>1001015646861</v>
+        <v>1001084216206</v>
       </c>
       <c r="C305" t="s">
-        <v>447</v>
+        <v>408</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
-        <v>483</v>
+        <v>494</v>
       </c>
       <c r="B306" s="3">
         <v>1001015646861</v>
@@ -5338,18 +5359,18 @@
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
-        <v>469</v>
+        <v>483</v>
       </c>
       <c r="B307" s="3">
-        <v>1001025176768</v>
+        <v>1001015646861</v>
       </c>
       <c r="C307" t="s">
-        <v>470</v>
+        <v>447</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
-        <v>492</v>
+        <v>469</v>
       </c>
       <c r="B308" s="3">
         <v>1001025176768</v>
@@ -5360,7 +5381,7 @@
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="B309" s="3">
         <v>1001025176768</v>
@@ -5371,18 +5392,18 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
-        <v>468</v>
+        <v>484</v>
       </c>
       <c r="B310" s="3">
-        <v>1001025486770</v>
+        <v>1001025176768</v>
       </c>
       <c r="C310" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
-        <v>493</v>
+        <v>468</v>
       </c>
       <c r="B311" s="3">
         <v>1001025486770</v>
@@ -5393,7 +5414,7 @@
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="B312" s="3">
         <v>1001025486770</v>
@@ -5404,18 +5425,18 @@
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
-        <v>220</v>
+        <v>485</v>
       </c>
       <c r="B313" s="3">
-        <v>1001012816340</v>
+        <v>1001025486770</v>
       </c>
       <c r="C313" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
-        <v>507</v>
+        <v>220</v>
       </c>
       <c r="B314" s="3">
         <v>1001012816340</v>
@@ -5426,7 +5447,7 @@
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
-        <v>486</v>
+        <v>507</v>
       </c>
       <c r="B315" s="3">
         <v>1001012816340</v>
@@ -5437,18 +5458,18 @@
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
-        <v>330</v>
+        <v>486</v>
       </c>
       <c r="B316" s="3">
-        <v>1001203146834</v>
+        <v>1001012816340</v>
       </c>
       <c r="C316" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
-        <v>480</v>
+        <v>330</v>
       </c>
       <c r="B317" s="3">
         <v>1001203146834</v>
@@ -5459,7 +5480,7 @@
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
-        <v>504</v>
+        <v>480</v>
       </c>
       <c r="B318" s="3">
         <v>1001203146834</v>
@@ -5470,7 +5491,7 @@
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
-        <v>487</v>
+        <v>504</v>
       </c>
       <c r="B319" s="3">
         <v>1001203146834</v>
@@ -5481,72 +5502,116 @@
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="B320" s="3">
-        <v>1001300456788</v>
+        <v>1001203146834</v>
       </c>
       <c r="C320" t="s">
-        <v>500</v>
+        <v>453</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="B321" s="3">
-        <v>1001022556837</v>
+        <v>1001300456788</v>
       </c>
       <c r="C321" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="B322" s="3">
-        <v>1001300516786</v>
+        <v>1001022556837</v>
       </c>
       <c r="C322" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="B323" s="3">
-        <v>1001214196459</v>
+        <v>1001300516786</v>
       </c>
       <c r="C323" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B324" s="3">
-        <v>1001092436495</v>
+        <v>1001214196459</v>
       </c>
       <c r="C324" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="B325" s="3">
+        <v>1001092436495</v>
+      </c>
+      <c r="C325" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="B325" s="3">
+      <c r="B326" s="3">
         <v>1001025526901</v>
       </c>
-      <c r="C325" t="s">
+      <c r="C326" t="s">
         <v>523</v>
       </c>
     </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="B327" s="3">
+        <v>1001025546931</v>
+      </c>
+      <c r="C327" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="B328" s="3">
+        <v>1001010016324</v>
+      </c>
+      <c r="C328" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="B329" s="3">
+        <v>1001025766909</v>
+      </c>
+      <c r="C329" t="s">
+        <v>530</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C322" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
+  <autoFilter ref="A1:C327" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/moduls/1С.xlsx
+++ b/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\Останкино КИ\ostankino_ki\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC334F3-5F13-4953-903E-1CFD45234DB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D26B33B-A1F6-4565-A074-82666724084B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,9 +16,9 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$327</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$345</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="559">
   <si>
     <t>1С</t>
   </si>
@@ -1627,13 +1627,97 @@
   </si>
   <si>
     <t>ДЛЯ ДЕТЕЙ сос п/о мгс 0.33кг 8шт.</t>
+  </si>
+  <si>
+    <t>6909 ДЛЯ ДЕТЕЙ сос п/о мгс 0.33кг 8шт.</t>
+  </si>
+  <si>
+    <t>4558 ДОКТОРСКАЯ ГОСТ вар п/о_Л  </t>
+  </si>
+  <si>
+    <t>ДОКТОРСКАЯ ГОСТ вар п/о_Л</t>
+  </si>
+  <si>
+    <t>6324 ДОКТОРСКАЯ ГОСТ вар п/о 0.4кг 8шт.   </t>
+  </si>
+  <si>
+    <t>6802 ОСТАНКИНСКАЯ вар п/о</t>
+  </si>
+  <si>
+    <t>ОСТАНКИНСКАЯ вар п/о</t>
+  </si>
+  <si>
+    <t>6801 ОСТАНКИНСКАЯ вар п/о 0.4кг 8шт.</t>
+  </si>
+  <si>
+    <t>ОСТАНКИНСКАЯ вар п/о 0.4кг 8шт.</t>
+  </si>
+  <si>
+    <t>3684 ПРЕСИЖН с/к в/у 1/250 8шт.   ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>ПРЕСИЖН с/к в/у 1/250 8шт.</t>
+  </si>
+  <si>
+    <t>4555 Докторская ГОСТ вар п/о ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>ДОКТОРСКАЯ ГОСТ вар п/о</t>
+  </si>
+  <si>
+    <t>4691 ШЕЙКА КОПЧЕНАЯ к/в мл/к в/у 300*6  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>ШЕЙКА КОПЧЕНАЯ к/в мл/к в/у 300*6</t>
+  </si>
+  <si>
+    <t>5679 САЛЯМИ ИТАЛЬЯНСКАЯ с/к в/у 1/150_60с ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>САЛЯМИ ИТАЛЬЯНСКАЯ с/к в/у 1/150_60с</t>
+  </si>
+  <si>
+    <t>6200 ГРУДИНКА ПРЕМИУМ к/в мл/к в/у 0.3кг  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>ГРУДИНКА ПРЕМИУМ к/в мл/к в/у 0.3кг</t>
+  </si>
+  <si>
+    <t>6253 МОЛОЧНЫЕ Коровино сос п/о мгс 1.5*6  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>МОЛОЧНЫЕ Коровино сос п/о мгс 1.5*6</t>
+  </si>
+  <si>
+    <t>6492 ШПИК С ЧЕСНОК.И ПЕРЦЕМ к/в в/у 0.3кг_45c  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>ШПИК С ЧЕСНОК.И ПЕРЦЕМ к/в в/у 0.3кг_45c</t>
+  </si>
+  <si>
+    <t>6801 ОСТАНКИНСКАЯ вар п/о 0.4кг 8шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6921 БЕКОН Папа может с/к с/н в/у 1/140 10шт  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>БЕКОН Папа может с/к с/н в/у 1/140 10шт</t>
+  </si>
+  <si>
+    <t>4786 КОЛБ.СНЭКИ Папа может в/к мгс 1/70_5  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>КОЛБ.СНЭКИ Папа может в/к мгс 1/70_5</t>
+  </si>
+  <si>
+    <t>6802 ОСТАНКИНСКАЯ вар п/о  ОСТАНКИНО</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1644,6 +1728,12 @@
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -1679,9 +1769,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1693,7 +1784,8 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Arial10px" xfId="2" xr:uid="{C0A75BEE-14F2-4260-AF17-AC512850AE79}"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{239E3C69-DF0B-495A-BDF3-A3B876C31C9B}"/>
   </cellStyles>
@@ -1973,11 +2065,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F329"/>
+  <dimension ref="A1:F345"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A312" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B335" sqref="B335"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5590,7 +5682,7 @@
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="B328" s="3">
         <v>1001010016324</v>
@@ -5601,17 +5693,193 @@
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="B329" s="3">
+        <v>1001010016324</v>
+      </c>
+      <c r="C329" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="B330" s="3">
+        <v>1001025766909</v>
+      </c>
+      <c r="C330" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="B329" s="3">
+      <c r="B331" s="3">
         <v>1001025766909</v>
       </c>
-      <c r="C329" t="s">
+      <c r="C331" t="s">
         <v>530</v>
       </c>
     </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="B332" s="3">
+        <v>1001010014558</v>
+      </c>
+      <c r="C332" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="B333" s="3">
+        <v>1001012596802</v>
+      </c>
+      <c r="C333" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="B334" s="3">
+        <v>1001012596802</v>
+      </c>
+      <c r="C334" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="B335" s="3">
+        <v>1001012596801</v>
+      </c>
+      <c r="C335" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="B336" s="3">
+        <v>1001062353684</v>
+      </c>
+      <c r="C336" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="B337" s="3">
+        <v>1001010014555</v>
+      </c>
+      <c r="C337" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="B338" s="3">
+        <v>1001083424691</v>
+      </c>
+      <c r="C338" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="B339" s="3">
+        <v>1001190765679</v>
+      </c>
+      <c r="C339" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="B340" s="3">
+        <v>1001085636200</v>
+      </c>
+      <c r="C340" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="B341" s="3">
+        <v>1001020836253</v>
+      </c>
+      <c r="C341" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A342" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="B342" s="3">
+        <v>1001084226492</v>
+      </c>
+      <c r="C342" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="B343" s="3">
+        <v>1001012596801</v>
+      </c>
+      <c r="C343" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="B344" s="3">
+        <v>1001223296921</v>
+      </c>
+      <c r="C344" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A345" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="B345" s="3">
+        <v>1001053944786</v>
+      </c>
+      <c r="C345" t="s">
+        <v>557</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C327" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
+  <autoFilter ref="A1:C345" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/moduls/1С.xlsx
+++ b/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\Останкино КИ\ostankino_ki\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D26B33B-A1F6-4565-A074-82666724084B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C7AD96C-9B58-4545-81BF-D683EF9F1C8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$345</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$348</definedName>
   </definedNames>
   <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="563">
   <si>
     <t>1С</t>
   </si>
@@ -1711,6 +1711,18 @@
   </si>
   <si>
     <t>6802 ОСТАНКИНСКАЯ вар п/о  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6854 МОЛОЧНЫЕ ПРЕМИУМ ПМ сос п/о мгс 0.6кг</t>
+  </si>
+  <si>
+    <t>6787 СЕРВЕЛАТ КРЕМЛЕВСКИЙ в/к в/у 0.33кг 8шт.</t>
+  </si>
+  <si>
+    <t>6839 ДОКТОРСКАЯ ГОСТ вар б/о срез 0.4кг 8шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>ДОКТОРСКАЯ ГОСТ вар б/о срез 0.4кг 8шт.</t>
   </si>
 </sst>
 </file>
@@ -2065,11 +2077,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F345"/>
+  <dimension ref="A1:F348"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3537,7 +3549,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>475</v>
+        <v>559</v>
       </c>
       <c r="B133" s="3">
         <v>1001022656854</v>
@@ -3548,7 +3560,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>189</v>
+        <v>475</v>
       </c>
       <c r="B134" s="3">
         <v>1001022656854</v>
@@ -3559,21 +3571,21 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B135" s="3">
-        <v>1001094966025</v>
+        <v>1001022656854</v>
       </c>
       <c r="C135" t="s">
-        <v>191</v>
+        <v>451</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B136" s="3">
-        <v>6025</v>
+        <v>1001094966025</v>
       </c>
       <c r="C136" t="s">
         <v>191</v>
@@ -3581,21 +3593,21 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B137" s="3">
-        <v>6221</v>
+        <v>6025</v>
       </c>
       <c r="C137" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B138" s="3">
-        <v>1001205376221</v>
+        <v>6221</v>
       </c>
       <c r="C138" t="s">
         <v>193</v>
@@ -3603,29 +3615,29 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B139" s="3">
-        <v>1001022373812</v>
+        <v>1001205376221</v>
       </c>
       <c r="C139" t="s">
-        <v>3</v>
+        <v>193</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B140" s="3">
-        <v>1001100606827</v>
+        <v>1001022373812</v>
       </c>
       <c r="C140" t="s">
-        <v>349</v>
+        <v>3</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>361</v>
+        <v>199</v>
       </c>
       <c r="B141" s="3">
         <v>1001100606827</v>
@@ -3636,18 +3648,18 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>200</v>
+        <v>361</v>
       </c>
       <c r="B142" s="3">
-        <v>1001100616826</v>
+        <v>1001100606827</v>
       </c>
       <c r="C142" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>362</v>
+        <v>200</v>
       </c>
       <c r="B143" s="3">
         <v>1001100616826</v>
@@ -3658,18 +3670,18 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>201</v>
+        <v>362</v>
       </c>
       <c r="B144" s="3">
-        <v>1001100626828</v>
+        <v>1001100616826</v>
       </c>
       <c r="C144" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>363</v>
+        <v>201</v>
       </c>
       <c r="B145" s="3">
         <v>1001100626828</v>
@@ -3680,51 +3692,51 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>202</v>
+        <v>363</v>
       </c>
       <c r="B146" s="3">
-        <v>1001035026308</v>
+        <v>1001100626828</v>
       </c>
       <c r="C146" t="s">
-        <v>203</v>
+        <v>351</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B147" s="3">
-        <v>1001014486159</v>
+        <v>1001035026308</v>
       </c>
       <c r="C147" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B148" s="3">
-        <v>1001035326217</v>
+        <v>1001014486159</v>
       </c>
       <c r="C148" t="s">
-        <v>304</v>
+        <v>205</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>526</v>
+        <v>206</v>
       </c>
       <c r="B149" s="3">
-        <v>1001012426220</v>
+        <v>1001035326217</v>
       </c>
       <c r="C149" t="s">
-        <v>208</v>
+        <v>304</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>207</v>
+        <v>526</v>
       </c>
       <c r="B150" s="3">
         <v>1001012426220</v>
@@ -3735,612 +3747,612 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B151" s="3">
-        <v>1001022466236</v>
+        <v>1001012426220</v>
       </c>
       <c r="C151" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B152" s="3">
-        <v>1001021966602</v>
+        <v>1001022466236</v>
       </c>
       <c r="C152" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B153" s="3">
-        <v>1001022296656</v>
+        <v>1001021966602</v>
       </c>
       <c r="C153" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B154" s="3">
-        <v>1001304506684</v>
+        <v>1001022296656</v>
       </c>
       <c r="C154" t="s">
-        <v>62</v>
+        <v>214</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B155" s="3">
-        <v>1001301876697</v>
+        <v>1001304506684</v>
       </c>
       <c r="C155" t="s">
-        <v>217</v>
+        <v>62</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B156" s="3">
-        <v>1001022246713</v>
+        <v>1001301876697</v>
       </c>
       <c r="C156" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B157" s="3">
-        <v>1001022376722</v>
+        <v>1001022246713</v>
       </c>
       <c r="C157" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B158" s="3">
-        <v>1001020846751</v>
+        <v>1001022376722</v>
       </c>
       <c r="C158" t="s">
-        <v>95</v>
+        <v>222</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B159" s="3">
-        <v>1001022725819</v>
+        <v>1001020846751</v>
       </c>
       <c r="C159" t="s">
-        <v>225</v>
+        <v>95</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B160" s="3">
-        <v>1001012825337</v>
+        <v>1001022725819</v>
       </c>
       <c r="C160" t="s">
-        <v>28</v>
+        <v>225</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B161" s="3">
-        <v>1001012815336</v>
+        <v>1001012825337</v>
       </c>
       <c r="C161" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B162" s="3">
-        <v>1001234146448</v>
+        <v>1001012815336</v>
       </c>
       <c r="C162" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B163" s="3">
-        <v>1001022725819</v>
+        <v>1001234146448</v>
       </c>
       <c r="C163" t="s">
-        <v>225</v>
+        <v>72</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B164" s="3">
-        <v>1001092676027</v>
+        <v>1001022725819</v>
       </c>
       <c r="C164" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B165" s="3">
-        <v>1001301876213</v>
+        <v>1001092676027</v>
       </c>
       <c r="C165" t="s">
-        <v>86</v>
+        <v>231</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B166" s="3">
-        <v>1001035026308</v>
+        <v>1001301876213</v>
       </c>
       <c r="C166" t="s">
-        <v>427</v>
+        <v>86</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B167" s="3">
-        <v>1001234146448</v>
+        <v>1001035026308</v>
       </c>
       <c r="C167" t="s">
-        <v>72</v>
+        <v>427</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B168" s="3">
-        <v>1001201976454</v>
+        <v>1001234146448</v>
       </c>
       <c r="C168" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B169" s="3">
-        <v>1001025176475</v>
+        <v>1001201976454</v>
       </c>
       <c r="C169" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B170" s="3">
-        <v>1001012456498</v>
+        <v>1001025176475</v>
       </c>
       <c r="C170" t="s">
-        <v>241</v>
+        <v>79</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B171" s="3">
-        <v>1001010036596</v>
+        <v>1001012456498</v>
       </c>
       <c r="C171" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B172" s="3">
-        <v>1001033856607</v>
+        <v>1001010036596</v>
       </c>
       <c r="C172" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B173" s="3">
-        <v>1001033856609</v>
+        <v>1001033856607</v>
       </c>
       <c r="C173" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B174" s="3">
-        <v>1001302276666</v>
+        <v>1001033856609</v>
       </c>
       <c r="C174" t="s">
-        <v>65</v>
+        <v>247</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B175" s="3">
-        <v>1001093345495</v>
+        <v>1001302276666</v>
       </c>
       <c r="C175" t="s">
-        <v>463</v>
+        <v>65</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B176" s="3">
-        <v>6550</v>
+        <v>1001093345495</v>
       </c>
       <c r="C176" t="s">
-        <v>253</v>
+        <v>463</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B177" s="3">
-        <v>1001304506684</v>
+        <v>6550</v>
       </c>
       <c r="C177" t="s">
-        <v>62</v>
+        <v>253</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B178" s="3">
-        <v>1001010113248</v>
+        <v>1001304506684</v>
       </c>
       <c r="C178" t="s">
-        <v>256</v>
+        <v>62</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>435</v>
+        <v>255</v>
       </c>
       <c r="B179" s="3">
-        <v>1001063926780</v>
+        <v>1001010113248</v>
       </c>
       <c r="C179" t="s">
-        <v>436</v>
+        <v>256</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>257</v>
+        <v>435</v>
       </c>
       <c r="B180" s="3">
-        <v>6586</v>
+        <v>1001063926780</v>
       </c>
       <c r="C180" t="s">
-        <v>258</v>
+        <v>436</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B181" s="3">
-        <v>1001303636467</v>
+        <v>6586</v>
       </c>
       <c r="C181" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B182" s="3">
-        <v>1001304496701</v>
+        <v>1001303636467</v>
       </c>
       <c r="C182" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B183" s="3">
-        <v>6144</v>
+        <v>1001304496701</v>
       </c>
       <c r="C183" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B184" s="3">
-        <v>1001022725819</v>
+        <v>6144</v>
       </c>
       <c r="C184" t="s">
-        <v>225</v>
+        <v>266</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B185" s="3">
-        <v>1001022373812</v>
+        <v>1001022725819</v>
       </c>
       <c r="C185" t="s">
-        <v>3</v>
+        <v>225</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B186" s="3">
-        <v>1001024906062</v>
+        <v>1001022373812</v>
       </c>
       <c r="C186" t="s">
-        <v>272</v>
+        <v>3</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B187" s="3">
-        <v>1001300386683</v>
+        <v>1001024906062</v>
       </c>
       <c r="C187" t="s">
-        <v>81</v>
+        <v>272</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B188" s="3">
-        <v>1001303986689</v>
+        <v>1001300386683</v>
       </c>
       <c r="C188" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B189" s="3">
-        <v>1001303056692</v>
+        <v>1001303986689</v>
       </c>
       <c r="C189" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B190" s="3">
-        <v>1001301876697</v>
+        <v>1001303056692</v>
       </c>
       <c r="C190" t="s">
-        <v>217</v>
+        <v>64</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B191" s="3">
-        <v>1001302276666</v>
+        <v>1001301876697</v>
       </c>
       <c r="C191" t="s">
-        <v>65</v>
+        <v>217</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B192" s="3">
-        <v>1001012634574</v>
+        <v>1001302276666</v>
       </c>
       <c r="C192" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B193" s="3">
-        <v>1001092485452</v>
+        <v>1001012634574</v>
       </c>
       <c r="C193" t="s">
-        <v>281</v>
+        <v>12</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B194" s="3">
-        <v>1001020966144</v>
+        <v>1001092485452</v>
       </c>
       <c r="C194" t="s">
-        <v>156</v>
+        <v>281</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B195" s="3">
-        <v>6586</v>
+        <v>1001020966144</v>
       </c>
       <c r="C195" t="s">
-        <v>258</v>
+        <v>156</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B196" s="3">
-        <v>1001304496701</v>
+        <v>6586</v>
       </c>
       <c r="C196" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B197" s="3">
-        <v>1001063655015</v>
+        <v>1001304496701</v>
       </c>
       <c r="C197" t="s">
-        <v>287</v>
+        <v>264</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B198" s="3">
-        <v>1001060763287</v>
+        <v>1001063655015</v>
       </c>
       <c r="C198" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="B199" s="3" t="s">
-        <v>300</v>
+        <v>289</v>
+      </c>
+      <c r="B199" s="3">
+        <v>1001060763287</v>
       </c>
       <c r="C199" t="s">
-        <v>172</v>
+        <v>290</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="B200" s="3">
-        <v>1001032736550</v>
+        <v>291</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>300</v>
       </c>
       <c r="C200" t="s">
-        <v>253</v>
+        <v>172</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B201" s="3">
-        <v>6758</v>
+        <v>1001032736550</v>
       </c>
       <c r="C201" t="s">
-        <v>294</v>
+        <v>253</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B202" s="3">
-        <v>1001020965976</v>
+        <v>6758</v>
       </c>
       <c r="C202" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B203" s="3">
-        <v>1001215576586</v>
+        <v>1001020965976</v>
       </c>
       <c r="C203" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B204" s="3">
-        <v>1001094896026</v>
+        <v>1001215576586</v>
       </c>
       <c r="C204" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>516</v>
+        <v>301</v>
       </c>
       <c r="B205" s="3">
-        <v>1001215576586</v>
+        <v>1001094896026</v>
       </c>
       <c r="C205" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>303</v>
+        <v>516</v>
       </c>
       <c r="B206" s="3">
         <v>1001215576586</v>
@@ -4351,95 +4363,95 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B207" s="3">
-        <v>1001092436470</v>
+        <v>1001215576586</v>
       </c>
       <c r="C207" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="B208" s="3">
-        <v>1001203146555</v>
+        <v>1001092436470</v>
       </c>
       <c r="C208" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="B209" s="3">
-        <v>1001014765992</v>
+        <v>1001203146555</v>
       </c>
       <c r="C209" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="B210" s="3">
         <v>1001014765992</v>
       </c>
       <c r="C210" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B211" s="3">
-        <v>1001014765993</v>
+        <v>1001014765992</v>
       </c>
       <c r="C211" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B212" s="3">
-        <v>1001025166776</v>
+        <v>1001014765993</v>
       </c>
       <c r="C212" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B213" s="3">
-        <v>1001025506777</v>
+        <v>1001025166776</v>
       </c>
       <c r="C213" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>343</v>
+        <v>319</v>
       </c>
       <c r="B214" s="3">
-        <v>1001025546822</v>
+        <v>1001025506777</v>
       </c>
       <c r="C214" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B215" s="3">
         <v>1001025546822</v>
@@ -4450,7 +4462,7 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="B216" s="3">
         <v>1001025546822</v>
@@ -4461,7 +4473,7 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
-        <v>321</v>
+        <v>356</v>
       </c>
       <c r="B217" s="3">
         <v>1001025546822</v>
@@ -4472,40 +4484,40 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B218" s="3">
-        <v>1001024976616</v>
+        <v>1001025546822</v>
       </c>
       <c r="C218" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B219" s="3">
-        <v>1001010856747</v>
+        <v>1001024976616</v>
       </c>
       <c r="C219" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>406</v>
+        <v>328</v>
       </c>
       <c r="B220" s="3">
-        <v>1001223296919</v>
+        <v>1001010856747</v>
       </c>
       <c r="C220" t="s">
-        <v>409</v>
+        <v>327</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
-        <v>73</v>
+        <v>406</v>
       </c>
       <c r="B221" s="3">
         <v>1001223296919</v>
@@ -4516,7 +4528,7 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>237</v>
+        <v>73</v>
       </c>
       <c r="B222" s="3">
         <v>1001223296919</v>
@@ -4527,29 +4539,29 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>479</v>
+        <v>237</v>
       </c>
       <c r="B223" s="3">
         <v>1001223296919</v>
       </c>
       <c r="C223" t="s">
-        <v>495</v>
+        <v>409</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>501</v>
+        <v>479</v>
       </c>
       <c r="B224" s="3">
         <v>1001223296919</v>
       </c>
       <c r="C224" t="s">
-        <v>409</v>
+        <v>495</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>329</v>
+        <v>501</v>
       </c>
       <c r="B225" s="3">
         <v>1001223296919</v>
@@ -4560,73 +4572,73 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B226" s="3">
-        <v>1001014765993</v>
+        <v>1001223296919</v>
       </c>
       <c r="C226" t="s">
-        <v>315</v>
+        <v>409</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B227" s="3">
-        <v>1001025166776</v>
+        <v>1001014765993</v>
       </c>
       <c r="C227" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B228" s="3">
-        <v>1001025506777</v>
+        <v>1001025166776</v>
       </c>
       <c r="C228" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B229" s="3">
-        <v>1001025526778</v>
+        <v>1001025506777</v>
       </c>
       <c r="C229" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B230" s="3">
-        <v>1001304236685</v>
+        <v>1001025526778</v>
       </c>
       <c r="C230" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>364</v>
+        <v>339</v>
       </c>
       <c r="B231" s="3">
-        <v>1001015496769</v>
+        <v>1001304236685</v>
       </c>
       <c r="C231" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
-        <v>346</v>
+        <v>364</v>
       </c>
       <c r="B232" s="3">
         <v>1001015496769</v>
@@ -4637,84 +4649,84 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B233" s="3">
-        <v>1001014766798</v>
+        <v>1001015496769</v>
       </c>
       <c r="C233" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B234" s="3">
-        <v>1001015026797</v>
+        <v>1001014766798</v>
       </c>
       <c r="C234" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B235" s="3">
-        <v>1001205386222</v>
+        <v>1001015026797</v>
       </c>
       <c r="C235" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B236" s="3">
-        <v>1001092675224</v>
+        <v>1001205386222</v>
       </c>
       <c r="C236" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="B237" s="3">
-        <v>1001225406223</v>
+        <v>1001092675224</v>
       </c>
       <c r="C237" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B238" s="3">
-        <v>1001300366790</v>
+        <v>1001225406223</v>
       </c>
       <c r="C238" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
-        <v>497</v>
+        <v>368</v>
       </c>
       <c r="B239" s="3">
-        <v>1001304096792</v>
+        <v>1001300366790</v>
       </c>
       <c r="C239" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
-        <v>370</v>
+        <v>497</v>
       </c>
       <c r="B240" s="3">
         <v>1001304096792</v>
@@ -4725,29 +4737,29 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B241" s="3">
-        <v>1001303636793</v>
+        <v>1001304096792</v>
       </c>
       <c r="C241" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
-        <v>417</v>
+        <v>371</v>
       </c>
       <c r="B242" s="3">
-        <v>1001303636794</v>
+        <v>1001303636793</v>
       </c>
       <c r="C242" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="B243" s="3">
         <v>1001303636794</v>
@@ -4758,7 +4770,7 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>372</v>
+        <v>517</v>
       </c>
       <c r="B244" s="3">
         <v>1001303636794</v>
@@ -4769,51 +4781,51 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B245" s="3">
-        <v>1001302596795</v>
+        <v>1001303636794</v>
       </c>
       <c r="C245" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B246" s="3">
-        <v>1001302596796</v>
+        <v>1001302596795</v>
       </c>
       <c r="C246" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B247" s="3">
-        <v>1001300456804</v>
+        <v>1001302596796</v>
       </c>
       <c r="C247" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
-        <v>466</v>
+        <v>375</v>
       </c>
       <c r="B248" s="3">
-        <v>1001300366806</v>
+        <v>1001300456804</v>
       </c>
       <c r="C248" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
-        <v>376</v>
+        <v>466</v>
       </c>
       <c r="B249" s="3">
         <v>1001300366806</v>
@@ -4824,139 +4836,139 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B250" s="3">
-        <v>1001300516803</v>
+        <v>1001300366806</v>
       </c>
       <c r="C250" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B251" s="3">
-        <v>1001300366807</v>
+        <v>1001300516803</v>
       </c>
       <c r="C251" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="B252" s="3">
         <v>1001300366807</v>
       </c>
       <c r="C252" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B253" s="3">
-        <v>1001300516785</v>
+        <v>1001300366807</v>
       </c>
       <c r="C253" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B254" s="3">
-        <v>1001300456787</v>
+        <v>1001300516785</v>
       </c>
       <c r="C254" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
-        <v>396</v>
+        <v>560</v>
       </c>
       <c r="B255" s="3">
-        <v>1001303636793</v>
+        <v>1001300456787</v>
       </c>
       <c r="C255" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B256" s="3">
-        <v>1001302596795</v>
+        <v>1001300456787</v>
       </c>
       <c r="C256" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B257" s="3">
-        <v>1001012486332</v>
+        <v>1001303636793</v>
       </c>
       <c r="C257" t="s">
-        <v>399</v>
+        <v>382</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B258" s="3">
-        <v>1001012566345</v>
+        <v>1001302596795</v>
       </c>
       <c r="C258" t="s">
-        <v>401</v>
+        <v>384</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B259" s="3">
-        <v>1001031076528</v>
+        <v>1001012486332</v>
       </c>
       <c r="C259" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
-        <v>434</v>
+        <v>400</v>
       </c>
       <c r="B260" s="3">
-        <v>1001020836761</v>
+        <v>1001012566345</v>
       </c>
       <c r="C260" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
-        <v>439</v>
+        <v>403</v>
       </c>
       <c r="B261" s="3">
-        <v>1001020836761</v>
+        <v>1001031076528</v>
       </c>
       <c r="C261" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
-        <v>410</v>
+        <v>434</v>
       </c>
       <c r="B262" s="3">
         <v>1001020836761</v>
@@ -4967,29 +4979,29 @@
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="B263" s="3">
-        <v>1001020846764</v>
+        <v>1001020836761</v>
       </c>
       <c r="C263" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
-        <v>440</v>
+        <v>410</v>
       </c>
       <c r="B264" s="3">
-        <v>1001020846764</v>
+        <v>1001020836761</v>
       </c>
       <c r="C264" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
-        <v>412</v>
+        <v>430</v>
       </c>
       <c r="B265" s="3">
         <v>1001020846764</v>
@@ -5000,51 +5012,51 @@
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
-        <v>513</v>
+        <v>440</v>
       </c>
       <c r="B266" s="3">
-        <v>1001300366790</v>
+        <v>1001020846764</v>
       </c>
       <c r="C266" t="s">
-        <v>379</v>
+        <v>413</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B267" s="3">
-        <v>1001300366790</v>
+        <v>1001020846764</v>
       </c>
       <c r="C267" t="s">
-        <v>379</v>
+        <v>413</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
-        <v>369</v>
+        <v>513</v>
       </c>
       <c r="B268" s="3">
-        <v>1001304096791</v>
+        <v>1001300366790</v>
       </c>
       <c r="C268" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
-        <v>488</v>
+        <v>414</v>
       </c>
       <c r="B269" s="3">
-        <v>1001304096791</v>
+        <v>1001300366790</v>
       </c>
       <c r="C269" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
-        <v>415</v>
+        <v>369</v>
       </c>
       <c r="B270" s="3">
         <v>1001304096791</v>
@@ -5055,95 +5067,95 @@
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
-        <v>416</v>
+        <v>488</v>
       </c>
       <c r="B271" s="3">
-        <v>1001303636793</v>
+        <v>1001304096791</v>
       </c>
       <c r="C271" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B272" s="3">
-        <v>1001302596795</v>
+        <v>1001304096791</v>
       </c>
       <c r="C272" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B273" s="3">
-        <v>1001300516803</v>
+        <v>1001303636793</v>
       </c>
       <c r="C273" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B274" s="3">
-        <v>1001300456804</v>
+        <v>1001302596795</v>
       </c>
       <c r="C274" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B275" s="3">
-        <v>1001300366807</v>
+        <v>1001300516803</v>
       </c>
       <c r="C275" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B276" s="3">
-        <v>1001302596796</v>
+        <v>1001300456804</v>
       </c>
       <c r="C276" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
-        <v>472</v>
+        <v>421</v>
       </c>
       <c r="B277" s="3">
-        <v>1001023696765</v>
+        <v>1001300366807</v>
       </c>
       <c r="C277" t="s">
-        <v>425</v>
+        <v>389</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
-        <v>491</v>
+        <v>422</v>
       </c>
       <c r="B278" s="3">
-        <v>1001023696765</v>
+        <v>1001302596796</v>
       </c>
       <c r="C278" t="s">
-        <v>425</v>
+        <v>385</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
-        <v>424</v>
+        <v>472</v>
       </c>
       <c r="B279" s="3">
         <v>1001023696765</v>
@@ -5154,29 +5166,29 @@
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
-        <v>433</v>
+        <v>491</v>
       </c>
       <c r="B280" s="3">
-        <v>1001023696767</v>
+        <v>1001023696765</v>
       </c>
       <c r="C280" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
-        <v>441</v>
+        <v>424</v>
       </c>
       <c r="B281" s="3">
-        <v>1001023696767</v>
+        <v>1001023696765</v>
       </c>
       <c r="C281" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="B282" s="3">
         <v>1001023696767</v>
@@ -5187,62 +5199,62 @@
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="B283" s="3">
-        <v>1001024976829</v>
+        <v>1001023696767</v>
       </c>
       <c r="C283" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B284" s="3">
-        <v>1001024976829</v>
+        <v>1001023696767</v>
       </c>
       <c r="C284" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
-        <v>444</v>
+        <v>431</v>
       </c>
       <c r="B285" s="3">
-        <v>1001022376722</v>
+        <v>1001024976829</v>
       </c>
       <c r="C285" t="s">
-        <v>129</v>
+        <v>423</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
-        <v>471</v>
+        <v>432</v>
       </c>
       <c r="B286" s="3">
-        <v>1001020846762</v>
+        <v>1001024976829</v>
       </c>
       <c r="C286" t="s">
-        <v>446</v>
+        <v>423</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
-        <v>490</v>
+        <v>444</v>
       </c>
       <c r="B287" s="3">
-        <v>1001020846762</v>
+        <v>1001022376722</v>
       </c>
       <c r="C287" t="s">
-        <v>446</v>
+        <v>129</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
-        <v>445</v>
+        <v>471</v>
       </c>
       <c r="B288" s="3">
         <v>1001020846762</v>
@@ -5253,29 +5265,29 @@
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
-        <v>135</v>
+        <v>490</v>
       </c>
       <c r="B289" s="3">
-        <v>1001022656853</v>
+        <v>1001020846762</v>
       </c>
       <c r="C289" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
-        <v>512</v>
+        <v>445</v>
       </c>
       <c r="B290" s="3">
-        <v>1001022656853</v>
+        <v>1001020846762</v>
       </c>
       <c r="C290" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
-        <v>448</v>
+        <v>135</v>
       </c>
       <c r="B291" s="3">
         <v>1001022656853</v>
@@ -5286,40 +5298,40 @@
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
-        <v>454</v>
+        <v>512</v>
       </c>
       <c r="B292" s="3">
-        <v>1001022656852</v>
+        <v>1001022656853</v>
       </c>
       <c r="C292" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
-        <v>473</v>
+        <v>448</v>
       </c>
       <c r="B293" s="3">
-        <v>1001020836759</v>
+        <v>1001022656853</v>
       </c>
       <c r="C293" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
-        <v>489</v>
+        <v>454</v>
       </c>
       <c r="B294" s="3">
-        <v>1001020836759</v>
+        <v>1001022656852</v>
       </c>
       <c r="C294" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
-        <v>456</v>
+        <v>473</v>
       </c>
       <c r="B295" s="3">
         <v>1001020836759</v>
@@ -5330,84 +5342,84 @@
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
-        <v>458</v>
+        <v>489</v>
       </c>
       <c r="B296" s="3">
-        <v>1001023856870</v>
+        <v>1001020836759</v>
       </c>
       <c r="C296" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="B297" s="3">
-        <v>1001013956426</v>
+        <v>1001020836759</v>
       </c>
       <c r="C297" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
-        <v>476</v>
+        <v>458</v>
       </c>
       <c r="B298" s="3">
-        <v>1001093345495</v>
+        <v>1001023856870</v>
       </c>
       <c r="C298" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
-        <v>505</v>
+        <v>474</v>
       </c>
       <c r="B299" s="3">
-        <v>1001022656868</v>
+        <v>1001013956426</v>
       </c>
       <c r="C299" t="s">
-        <v>478</v>
+        <v>452</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B300" s="3">
-        <v>1001022656868</v>
+        <v>1001093345495</v>
       </c>
       <c r="C300" t="s">
-        <v>478</v>
+        <v>463</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
-        <v>178</v>
+        <v>505</v>
       </c>
       <c r="B301" s="3">
-        <v>1001034065698</v>
+        <v>1001022656868</v>
       </c>
       <c r="C301" t="s">
-        <v>450</v>
+        <v>478</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
-        <v>197</v>
+        <v>477</v>
       </c>
       <c r="B302" s="3">
-        <v>1001034065698</v>
+        <v>1001022656868</v>
       </c>
       <c r="C302" t="s">
-        <v>450</v>
+        <v>478</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
-        <v>503</v>
+        <v>178</v>
       </c>
       <c r="B303" s="3">
         <v>1001034065698</v>
@@ -5418,7 +5430,7 @@
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
-        <v>481</v>
+        <v>197</v>
       </c>
       <c r="B304" s="3">
         <v>1001034065698</v>
@@ -5429,62 +5441,62 @@
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
-        <v>482</v>
+        <v>503</v>
       </c>
       <c r="B305" s="3">
-        <v>1001084216206</v>
+        <v>1001034065698</v>
       </c>
       <c r="C305" t="s">
-        <v>408</v>
+        <v>450</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
       <c r="B306" s="3">
-        <v>1001015646861</v>
+        <v>1001034065698</v>
       </c>
       <c r="C306" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B307" s="3">
-        <v>1001015646861</v>
+        <v>1001084216206</v>
       </c>
       <c r="C307" t="s">
-        <v>447</v>
+        <v>408</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
-        <v>469</v>
+        <v>494</v>
       </c>
       <c r="B308" s="3">
-        <v>1001025176768</v>
+        <v>1001015646861</v>
       </c>
       <c r="C308" t="s">
-        <v>470</v>
+        <v>447</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="B309" s="3">
-        <v>1001025176768</v>
+        <v>1001015646861</v>
       </c>
       <c r="C309" t="s">
-        <v>470</v>
+        <v>447</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
-        <v>484</v>
+        <v>469</v>
       </c>
       <c r="B310" s="3">
         <v>1001025176768</v>
@@ -5495,29 +5507,29 @@
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
-        <v>468</v>
+        <v>492</v>
       </c>
       <c r="B311" s="3">
-        <v>1001025486770</v>
+        <v>1001025176768</v>
       </c>
       <c r="C311" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="B312" s="3">
-        <v>1001025486770</v>
+        <v>1001025176768</v>
       </c>
       <c r="C312" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
-        <v>485</v>
+        <v>468</v>
       </c>
       <c r="B313" s="3">
         <v>1001025486770</v>
@@ -5528,29 +5540,29 @@
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
-        <v>220</v>
+        <v>493</v>
       </c>
       <c r="B314" s="3">
-        <v>1001012816340</v>
+        <v>1001025486770</v>
       </c>
       <c r="C314" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
-        <v>507</v>
+        <v>485</v>
       </c>
       <c r="B315" s="3">
-        <v>1001012816340</v>
+        <v>1001025486770</v>
       </c>
       <c r="C315" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
-        <v>486</v>
+        <v>220</v>
       </c>
       <c r="B316" s="3">
         <v>1001012816340</v>
@@ -5561,29 +5573,29 @@
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
-        <v>330</v>
+        <v>507</v>
       </c>
       <c r="B317" s="3">
-        <v>1001203146834</v>
+        <v>1001012816340</v>
       </c>
       <c r="C317" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="B318" s="3">
-        <v>1001203146834</v>
+        <v>1001012816340</v>
       </c>
       <c r="C318" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
-        <v>504</v>
+        <v>330</v>
       </c>
       <c r="B319" s="3">
         <v>1001203146834</v>
@@ -5594,7 +5606,7 @@
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="B320" s="3">
         <v>1001203146834</v>
@@ -5605,281 +5617,314 @@
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="B321" s="3">
-        <v>1001300456788</v>
+        <v>1001203146834</v>
       </c>
       <c r="C321" t="s">
-        <v>500</v>
+        <v>453</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
-        <v>509</v>
+        <v>487</v>
       </c>
       <c r="B322" s="3">
-        <v>1001022556837</v>
+        <v>1001203146834</v>
       </c>
       <c r="C322" t="s">
-        <v>510</v>
+        <v>453</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="B323" s="3">
-        <v>1001300516786</v>
+        <v>1001300456788</v>
       </c>
       <c r="C323" t="s">
-        <v>515</v>
+        <v>500</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="B324" s="3">
-        <v>1001214196459</v>
+        <v>1001022556837</v>
       </c>
       <c r="C324" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="B325" s="3">
-        <v>1001092436495</v>
+        <v>1001300516786</v>
       </c>
       <c r="C325" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="B326" s="3">
-        <v>1001025526901</v>
+        <v>1001214196459</v>
       </c>
       <c r="C326" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="B327" s="3">
-        <v>1001025546931</v>
+        <v>1001092436495</v>
       </c>
       <c r="C327" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="B328" s="3">
-        <v>1001010016324</v>
+        <v>1001025526901</v>
       </c>
       <c r="C328" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B329" s="3">
-        <v>1001010016324</v>
+        <v>1001025546931</v>
       </c>
       <c r="C329" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="B330" s="3">
-        <v>1001025766909</v>
+        <v>1001010016324</v>
       </c>
       <c r="C330" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B331" s="3">
-        <v>1001025766909</v>
+        <v>1001010016324</v>
       </c>
       <c r="C331" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B332" s="3">
-        <v>1001010014558</v>
+        <v>1001025766909</v>
       </c>
       <c r="C332" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
-        <v>558</v>
+        <v>529</v>
       </c>
       <c r="B333" s="3">
-        <v>1001012596802</v>
+        <v>1001025766909</v>
       </c>
       <c r="C333" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B334" s="3">
-        <v>1001012596802</v>
+        <v>1001010014558</v>
       </c>
       <c r="C334" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
-        <v>537</v>
+        <v>558</v>
       </c>
       <c r="B335" s="3">
-        <v>1001012596801</v>
+        <v>1001012596802</v>
       </c>
       <c r="C335" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B336" s="3">
-        <v>1001062353684</v>
+        <v>1001012596802</v>
       </c>
       <c r="C336" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B337" s="3">
-        <v>1001010014555</v>
+        <v>1001012596801</v>
       </c>
       <c r="C337" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="B338" s="3">
-        <v>1001083424691</v>
+        <v>1001062353684</v>
       </c>
       <c r="C338" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="B339" s="3">
-        <v>1001190765679</v>
+        <v>1001010014555</v>
       </c>
       <c r="C339" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B340" s="3">
-        <v>1001085636200</v>
+        <v>1001083424691</v>
       </c>
       <c r="C340" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="B341" s="3">
-        <v>1001020836253</v>
+        <v>1001190765679</v>
       </c>
       <c r="C341" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" s="2" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B342" s="3">
-        <v>1001084226492</v>
+        <v>1001085636200</v>
       </c>
       <c r="C342" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="B343" s="3">
-        <v>1001012596801</v>
+        <v>1001020836253</v>
       </c>
       <c r="C343" t="s">
-        <v>538</v>
+        <v>550</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B344" s="3">
-        <v>1001223296921</v>
+        <v>1001084226492</v>
       </c>
       <c r="C344" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="B345" s="3">
+        <v>1001012596801</v>
+      </c>
+      <c r="C345" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A346" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="B346" s="3">
+        <v>1001223296921</v>
+      </c>
+      <c r="C346" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A347" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="B345" s="3">
+      <c r="B347" s="3">
         <v>1001053944786</v>
       </c>
-      <c r="C345" t="s">
+      <c r="C347" t="s">
         <v>557</v>
       </c>
     </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A348" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="B348" s="3">
+        <v>1001010016839</v>
+      </c>
+      <c r="C348" t="s">
+        <v>562</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C345" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
+  <autoFilter ref="A1:C348" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/moduls/1С.xlsx
+++ b/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\Останкино КИ\ostankino_ki\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C7AD96C-9B58-4545-81BF-D683EF9F1C8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6E234BF-5FC5-44BF-8C44-F3892D3475EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$348</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$353</definedName>
   </definedNames>
   <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="572">
   <si>
     <t>1С</t>
   </si>
@@ -1723,6 +1723,33 @@
   </si>
   <si>
     <t>ДОКТОРСКАЯ ГОСТ вар б/о срез 0.4кг 8шт.</t>
+  </si>
+  <si>
+    <t>4558 ДОКТОРСКАЯ ГОСТ вар п/о  Останкино</t>
+  </si>
+  <si>
+    <t>6324 ДОКТОРСКАЯ ГОСТ вар п/о 0,4кг 8шт  Останкино</t>
+  </si>
+  <si>
+    <t>6909 ДЛЯ ДЕТЕЙ сос п/о мгс 0,33кг 8шт  Останкино</t>
+  </si>
+  <si>
+    <t>6801 ОСТАНКИНСКАЯ вар п/о 0,4кг 8 шт  Останкино</t>
+  </si>
+  <si>
+    <t>6802 ОСТАНКИНСКАЯ вар п/о  Останкино</t>
+  </si>
+  <si>
+    <t>6869 С ГОВЯДИНОЙ СН сос п/о мгс 1кг 6шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>С ГОВЯДИНОЙ СН сос п/о мгс 1кг 6шт.</t>
+  </si>
+  <si>
+    <t>4903 КРАКОВСКАЯ п/к н/о мгс_30с  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>КРАКОВСКАЯ п/к н/о мгс_30с</t>
   </si>
 </sst>
 </file>
@@ -2077,11 +2104,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F348"/>
+  <dimension ref="A1:F355"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <pane ySplit="1" topLeftCell="A341" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A359" sqref="A359"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5727,7 +5754,7 @@
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
-        <v>527</v>
+        <v>564</v>
       </c>
       <c r="B331" s="3">
         <v>1001010016324</v>
@@ -5738,18 +5765,18 @@
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B332" s="3">
-        <v>1001025766909</v>
+        <v>1001010016324</v>
       </c>
       <c r="C332" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="B333" s="3">
         <v>1001025766909</v>
@@ -5760,171 +5787,248 @@
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
-        <v>532</v>
+        <v>565</v>
       </c>
       <c r="B334" s="3">
-        <v>1001010014558</v>
+        <v>1001025766909</v>
       </c>
       <c r="C334" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
-        <v>558</v>
+        <v>529</v>
       </c>
       <c r="B335" s="3">
-        <v>1001012596802</v>
+        <v>1001025766909</v>
       </c>
       <c r="C335" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" s="2" t="s">
-        <v>535</v>
+        <v>563</v>
       </c>
       <c r="B336" s="3">
-        <v>1001012596802</v>
+        <v>1001010014558</v>
       </c>
       <c r="C336" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="B337" s="3">
-        <v>1001012596801</v>
+        <v>1001010014558</v>
       </c>
       <c r="C337" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
-        <v>539</v>
+        <v>558</v>
       </c>
       <c r="B338" s="3">
-        <v>1001062353684</v>
+        <v>1001012596802</v>
       </c>
       <c r="C338" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
-        <v>541</v>
+        <v>567</v>
       </c>
       <c r="B339" s="3">
-        <v>1001010014555</v>
+        <v>1001012596802</v>
       </c>
       <c r="C339" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="B340" s="3">
-        <v>1001083424691</v>
+        <v>1001012596802</v>
       </c>
       <c r="C340" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
-        <v>545</v>
+        <v>553</v>
       </c>
       <c r="B341" s="3">
-        <v>1001190765679</v>
+        <v>1001012596801</v>
       </c>
       <c r="C341" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" s="2" t="s">
-        <v>547</v>
+        <v>566</v>
       </c>
       <c r="B342" s="3">
-        <v>1001085636200</v>
+        <v>1001012596801</v>
       </c>
       <c r="C342" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="B343" s="3">
-        <v>1001020836253</v>
+        <v>1001012596801</v>
       </c>
       <c r="C343" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="B344" s="3">
-        <v>1001084226492</v>
+        <v>1001062353684</v>
       </c>
       <c r="C344" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="B345" s="3">
-        <v>1001012596801</v>
+        <v>1001010014555</v>
       </c>
       <c r="C345" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="B346" s="3">
-        <v>1001223296921</v>
+        <v>1001083424691</v>
       </c>
       <c r="C346" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" s="2" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="B347" s="3">
-        <v>1001053944786</v>
+        <v>1001190765679</v>
       </c>
       <c r="C347" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="B348" s="3">
+        <v>1001085636200</v>
+      </c>
+      <c r="C348" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A349" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="B349" s="3">
+        <v>1001020836253</v>
+      </c>
+      <c r="C349" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A350" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="B350" s="3">
+        <v>1001084226492</v>
+      </c>
+      <c r="C350" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A351" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="B351" s="3">
+        <v>1001223296921</v>
+      </c>
+      <c r="C351" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A352" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="B352" s="3">
+        <v>1001053944786</v>
+      </c>
+      <c r="C352" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A353" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="B348" s="3">
+      <c r="B353" s="3">
         <v>1001010016839</v>
       </c>
-      <c r="C348" t="s">
+      <c r="C353" t="s">
         <v>562</v>
       </c>
     </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A354" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="B354" s="3">
+        <v>1001023856869</v>
+      </c>
+      <c r="C354" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A355" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="B355" s="3">
+        <v>1001040434903</v>
+      </c>
+      <c r="C355" t="s">
+        <v>571</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C348" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
+  <autoFilter ref="A1:C353" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/moduls/1С.xlsx
+++ b/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\Останкино КИ\ostankino_ki\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6E234BF-5FC5-44BF-8C44-F3892D3475EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46DB9725-F7B5-488D-9846-5F5A84E0718B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,9 +16,9 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$353</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$359</definedName>
   </definedNames>
-  <calcPr calcId="181029" refMode="R1C1"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="578">
   <si>
     <t>1С</t>
   </si>
@@ -1750,6 +1750,24 @@
   </si>
   <si>
     <t>КРАКОВСКАЯ п/к н/о мгс_30с</t>
+  </si>
+  <si>
+    <t>6495 ВЕТЧ.МРАМОРНАЯ в/у срез 0.3кг 6шт_45с</t>
+  </si>
+  <si>
+    <t>6842 ДЫМОВИЦА ИЗ ОКОРОКА к/в мл/к в/у 0,3кг  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>ДЫМОВИЦА ИЗ ОКОРОКА к/в мл/к в/у 0.3кг</t>
+  </si>
+  <si>
+    <t>ИЗ ОТБОРНОГО МЯСА ПМ сос п/о мгс 0.36кг</t>
+  </si>
+  <si>
+    <t>6787 СЕРВЕЛАТ КРЕМЛЕВСКИЙ в/к в/у 0,33кг 8шт  Останкино</t>
+  </si>
+  <si>
+    <t>6854 МОЛОЧНЫЕ ПРЕМИУМ ПМ сос п/о мгс 0,6кг  Останкино</t>
   </si>
 </sst>
 </file>
@@ -2104,11 +2122,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F355"/>
+  <dimension ref="A1:F359"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A341" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A359" sqref="A359"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3587,7 +3605,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>475</v>
+        <v>577</v>
       </c>
       <c r="B134" s="3">
         <v>1001022656854</v>
@@ -3598,7 +3616,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>189</v>
+        <v>475</v>
       </c>
       <c r="B135" s="3">
         <v>1001022656854</v>
@@ -3609,21 +3627,21 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B136" s="3">
-        <v>1001094966025</v>
+        <v>1001022656854</v>
       </c>
       <c r="C136" t="s">
-        <v>191</v>
+        <v>451</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B137" s="3">
-        <v>6025</v>
+        <v>1001094966025</v>
       </c>
       <c r="C137" t="s">
         <v>191</v>
@@ -3631,21 +3649,21 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B138" s="3">
-        <v>6221</v>
+        <v>6025</v>
       </c>
       <c r="C138" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B139" s="3">
-        <v>1001205376221</v>
+        <v>6221</v>
       </c>
       <c r="C139" t="s">
         <v>193</v>
@@ -3653,29 +3671,29 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B140" s="3">
-        <v>1001022373812</v>
+        <v>1001205376221</v>
       </c>
       <c r="C140" t="s">
-        <v>3</v>
+        <v>193</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B141" s="3">
-        <v>1001100606827</v>
+        <v>1001022373812</v>
       </c>
       <c r="C141" t="s">
-        <v>349</v>
+        <v>3</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>361</v>
+        <v>199</v>
       </c>
       <c r="B142" s="3">
         <v>1001100606827</v>
@@ -3686,18 +3704,18 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>200</v>
+        <v>361</v>
       </c>
       <c r="B143" s="3">
-        <v>1001100616826</v>
+        <v>1001100606827</v>
       </c>
       <c r="C143" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>362</v>
+        <v>200</v>
       </c>
       <c r="B144" s="3">
         <v>1001100616826</v>
@@ -3708,18 +3726,18 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>201</v>
+        <v>362</v>
       </c>
       <c r="B145" s="3">
-        <v>1001100626828</v>
+        <v>1001100616826</v>
       </c>
       <c r="C145" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>363</v>
+        <v>201</v>
       </c>
       <c r="B146" s="3">
         <v>1001100626828</v>
@@ -3730,51 +3748,51 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>202</v>
+        <v>363</v>
       </c>
       <c r="B147" s="3">
-        <v>1001035026308</v>
+        <v>1001100626828</v>
       </c>
       <c r="C147" t="s">
-        <v>203</v>
+        <v>351</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B148" s="3">
-        <v>1001014486159</v>
+        <v>1001035026308</v>
       </c>
       <c r="C148" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B149" s="3">
-        <v>1001035326217</v>
+        <v>1001014486159</v>
       </c>
       <c r="C149" t="s">
-        <v>304</v>
+        <v>205</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>526</v>
+        <v>206</v>
       </c>
       <c r="B150" s="3">
-        <v>1001012426220</v>
+        <v>1001035326217</v>
       </c>
       <c r="C150" t="s">
-        <v>208</v>
+        <v>304</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>207</v>
+        <v>526</v>
       </c>
       <c r="B151" s="3">
         <v>1001012426220</v>
@@ -3785,612 +3803,612 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B152" s="3">
-        <v>1001022466236</v>
+        <v>1001012426220</v>
       </c>
       <c r="C152" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B153" s="3">
-        <v>1001021966602</v>
+        <v>1001022466236</v>
       </c>
       <c r="C153" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B154" s="3">
-        <v>1001022296656</v>
+        <v>1001021966602</v>
       </c>
       <c r="C154" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B155" s="3">
-        <v>1001304506684</v>
+        <v>1001022296656</v>
       </c>
       <c r="C155" t="s">
-        <v>62</v>
+        <v>214</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B156" s="3">
-        <v>1001301876697</v>
+        <v>1001304506684</v>
       </c>
       <c r="C156" t="s">
-        <v>217</v>
+        <v>62</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B157" s="3">
-        <v>1001022246713</v>
+        <v>1001301876697</v>
       </c>
       <c r="C157" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B158" s="3">
-        <v>1001022376722</v>
+        <v>1001022246713</v>
       </c>
       <c r="C158" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B159" s="3">
-        <v>1001020846751</v>
+        <v>1001022376722</v>
       </c>
       <c r="C159" t="s">
-        <v>95</v>
+        <v>222</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B160" s="3">
-        <v>1001022725819</v>
+        <v>1001020846751</v>
       </c>
       <c r="C160" t="s">
-        <v>225</v>
+        <v>95</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B161" s="3">
-        <v>1001012825337</v>
+        <v>1001022725819</v>
       </c>
       <c r="C161" t="s">
-        <v>28</v>
+        <v>225</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B162" s="3">
-        <v>1001012815336</v>
+        <v>1001012825337</v>
       </c>
       <c r="C162" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B163" s="3">
-        <v>1001234146448</v>
+        <v>1001012815336</v>
       </c>
       <c r="C163" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B164" s="3">
-        <v>1001022725819</v>
+        <v>1001234146448</v>
       </c>
       <c r="C164" t="s">
-        <v>225</v>
+        <v>72</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B165" s="3">
-        <v>1001092676027</v>
+        <v>1001022725819</v>
       </c>
       <c r="C165" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B166" s="3">
-        <v>1001301876213</v>
+        <v>1001092676027</v>
       </c>
       <c r="C166" t="s">
-        <v>86</v>
+        <v>231</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B167" s="3">
-        <v>1001035026308</v>
+        <v>1001301876213</v>
       </c>
       <c r="C167" t="s">
-        <v>427</v>
+        <v>86</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B168" s="3">
-        <v>1001234146448</v>
+        <v>1001035026308</v>
       </c>
       <c r="C168" t="s">
-        <v>72</v>
+        <v>427</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B169" s="3">
-        <v>1001201976454</v>
+        <v>1001234146448</v>
       </c>
       <c r="C169" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B170" s="3">
-        <v>1001025176475</v>
+        <v>1001201976454</v>
       </c>
       <c r="C170" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B171" s="3">
-        <v>1001012456498</v>
+        <v>1001025176475</v>
       </c>
       <c r="C171" t="s">
-        <v>241</v>
+        <v>79</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B172" s="3">
-        <v>1001010036596</v>
+        <v>1001012456498</v>
       </c>
       <c r="C172" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B173" s="3">
-        <v>1001033856607</v>
+        <v>1001010036596</v>
       </c>
       <c r="C173" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B174" s="3">
-        <v>1001033856609</v>
+        <v>1001033856607</v>
       </c>
       <c r="C174" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B175" s="3">
-        <v>1001302276666</v>
+        <v>1001033856609</v>
       </c>
       <c r="C175" t="s">
-        <v>65</v>
+        <v>247</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B176" s="3">
-        <v>1001093345495</v>
+        <v>1001302276666</v>
       </c>
       <c r="C176" t="s">
-        <v>463</v>
+        <v>65</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B177" s="3">
-        <v>6550</v>
+        <v>1001093345495</v>
       </c>
       <c r="C177" t="s">
-        <v>253</v>
+        <v>463</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B178" s="3">
-        <v>1001304506684</v>
+        <v>6550</v>
       </c>
       <c r="C178" t="s">
-        <v>62</v>
+        <v>253</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B179" s="3">
-        <v>1001010113248</v>
+        <v>1001304506684</v>
       </c>
       <c r="C179" t="s">
-        <v>256</v>
+        <v>62</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>435</v>
+        <v>255</v>
       </c>
       <c r="B180" s="3">
-        <v>1001063926780</v>
+        <v>1001010113248</v>
       </c>
       <c r="C180" t="s">
-        <v>436</v>
+        <v>256</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>257</v>
+        <v>435</v>
       </c>
       <c r="B181" s="3">
-        <v>6586</v>
+        <v>1001063926780</v>
       </c>
       <c r="C181" t="s">
-        <v>258</v>
+        <v>436</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B182" s="3">
-        <v>1001303636467</v>
+        <v>6586</v>
       </c>
       <c r="C182" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B183" s="3">
-        <v>1001304496701</v>
+        <v>1001303636467</v>
       </c>
       <c r="C183" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B184" s="3">
-        <v>6144</v>
+        <v>1001304496701</v>
       </c>
       <c r="C184" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B185" s="3">
-        <v>1001022725819</v>
+        <v>6144</v>
       </c>
       <c r="C185" t="s">
-        <v>225</v>
+        <v>266</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B186" s="3">
-        <v>1001022373812</v>
+        <v>1001022725819</v>
       </c>
       <c r="C186" t="s">
-        <v>3</v>
+        <v>225</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B187" s="3">
-        <v>1001024906062</v>
+        <v>1001022373812</v>
       </c>
       <c r="C187" t="s">
-        <v>272</v>
+        <v>3</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B188" s="3">
-        <v>1001300386683</v>
+        <v>1001024906062</v>
       </c>
       <c r="C188" t="s">
-        <v>81</v>
+        <v>272</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B189" s="3">
-        <v>1001303986689</v>
+        <v>1001300386683</v>
       </c>
       <c r="C189" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B190" s="3">
-        <v>1001303056692</v>
+        <v>1001303986689</v>
       </c>
       <c r="C190" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B191" s="3">
-        <v>1001301876697</v>
+        <v>1001303056692</v>
       </c>
       <c r="C191" t="s">
-        <v>217</v>
+        <v>64</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B192" s="3">
-        <v>1001302276666</v>
+        <v>1001301876697</v>
       </c>
       <c r="C192" t="s">
-        <v>65</v>
+        <v>217</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B193" s="3">
-        <v>1001012634574</v>
+        <v>1001302276666</v>
       </c>
       <c r="C193" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B194" s="3">
-        <v>1001092485452</v>
+        <v>1001012634574</v>
       </c>
       <c r="C194" t="s">
-        <v>281</v>
+        <v>12</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B195" s="3">
-        <v>1001020966144</v>
+        <v>1001092485452</v>
       </c>
       <c r="C195" t="s">
-        <v>156</v>
+        <v>281</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B196" s="3">
-        <v>6586</v>
+        <v>1001020966144</v>
       </c>
       <c r="C196" t="s">
-        <v>258</v>
+        <v>156</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B197" s="3">
-        <v>1001304496701</v>
+        <v>6586</v>
       </c>
       <c r="C197" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B198" s="3">
-        <v>1001063655015</v>
+        <v>1001304496701</v>
       </c>
       <c r="C198" t="s">
-        <v>287</v>
+        <v>264</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B199" s="3">
-        <v>1001060763287</v>
+        <v>1001063655015</v>
       </c>
       <c r="C199" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="B200" s="3" t="s">
-        <v>300</v>
+        <v>289</v>
+      </c>
+      <c r="B200" s="3">
+        <v>1001060763287</v>
       </c>
       <c r="C200" t="s">
-        <v>172</v>
+        <v>290</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="B201" s="3">
-        <v>1001032736550</v>
+        <v>291</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>300</v>
       </c>
       <c r="C201" t="s">
-        <v>253</v>
+        <v>172</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B202" s="3">
-        <v>6758</v>
+        <v>1001032736550</v>
       </c>
       <c r="C202" t="s">
-        <v>294</v>
+        <v>253</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B203" s="3">
-        <v>1001020965976</v>
+        <v>6758</v>
       </c>
       <c r="C203" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B204" s="3">
-        <v>1001215576586</v>
+        <v>1001020965976</v>
       </c>
       <c r="C204" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B205" s="3">
-        <v>1001094896026</v>
+        <v>1001215576586</v>
       </c>
       <c r="C205" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>516</v>
+        <v>301</v>
       </c>
       <c r="B206" s="3">
-        <v>1001215576586</v>
+        <v>1001094896026</v>
       </c>
       <c r="C206" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>303</v>
+        <v>516</v>
       </c>
       <c r="B207" s="3">
         <v>1001215576586</v>
@@ -4401,95 +4419,95 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B208" s="3">
-        <v>1001092436470</v>
+        <v>1001215576586</v>
       </c>
       <c r="C208" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="B209" s="3">
-        <v>1001203146555</v>
+        <v>1001092436470</v>
       </c>
       <c r="C209" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="B210" s="3">
-        <v>1001014765992</v>
+        <v>1001203146555</v>
       </c>
       <c r="C210" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="B211" s="3">
         <v>1001014765992</v>
       </c>
       <c r="C211" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B212" s="3">
-        <v>1001014765993</v>
+        <v>1001014765992</v>
       </c>
       <c r="C212" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B213" s="3">
-        <v>1001025166776</v>
+        <v>1001014765993</v>
       </c>
       <c r="C213" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B214" s="3">
-        <v>1001025506777</v>
+        <v>1001025166776</v>
       </c>
       <c r="C214" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>343</v>
+        <v>319</v>
       </c>
       <c r="B215" s="3">
-        <v>1001025546822</v>
+        <v>1001025506777</v>
       </c>
       <c r="C215" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B216" s="3">
         <v>1001025546822</v>
@@ -4500,7 +4518,7 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="B217" s="3">
         <v>1001025546822</v>
@@ -4511,51 +4529,51 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>321</v>
+        <v>356</v>
       </c>
       <c r="B218" s="3">
         <v>1001025546822</v>
       </c>
       <c r="C218" t="s">
-        <v>322</v>
+        <v>575</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B219" s="3">
-        <v>1001024976616</v>
+        <v>1001025546822</v>
       </c>
       <c r="C219" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B220" s="3">
-        <v>1001010856747</v>
+        <v>1001024976616</v>
       </c>
       <c r="C220" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
-        <v>406</v>
+        <v>328</v>
       </c>
       <c r="B221" s="3">
-        <v>1001223296919</v>
+        <v>1001010856747</v>
       </c>
       <c r="C221" t="s">
-        <v>409</v>
+        <v>327</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>73</v>
+        <v>406</v>
       </c>
       <c r="B222" s="3">
         <v>1001223296919</v>
@@ -4566,7 +4584,7 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>237</v>
+        <v>73</v>
       </c>
       <c r="B223" s="3">
         <v>1001223296919</v>
@@ -4577,29 +4595,29 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>479</v>
+        <v>237</v>
       </c>
       <c r="B224" s="3">
         <v>1001223296919</v>
       </c>
       <c r="C224" t="s">
-        <v>495</v>
+        <v>409</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>501</v>
+        <v>479</v>
       </c>
       <c r="B225" s="3">
         <v>1001223296919</v>
       </c>
       <c r="C225" t="s">
-        <v>409</v>
+        <v>495</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>329</v>
+        <v>501</v>
       </c>
       <c r="B226" s="3">
         <v>1001223296919</v>
@@ -4610,73 +4628,73 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B227" s="3">
-        <v>1001014765993</v>
+        <v>1001223296919</v>
       </c>
       <c r="C227" t="s">
-        <v>315</v>
+        <v>409</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B228" s="3">
-        <v>1001025166776</v>
+        <v>1001014765993</v>
       </c>
       <c r="C228" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B229" s="3">
-        <v>1001025506777</v>
+        <v>1001025166776</v>
       </c>
       <c r="C229" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B230" s="3">
-        <v>1001025526778</v>
+        <v>1001025506777</v>
       </c>
       <c r="C230" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B231" s="3">
-        <v>1001304236685</v>
+        <v>1001025526778</v>
       </c>
       <c r="C231" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
-        <v>364</v>
+        <v>339</v>
       </c>
       <c r="B232" s="3">
-        <v>1001015496769</v>
+        <v>1001304236685</v>
       </c>
       <c r="C232" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>346</v>
+        <v>364</v>
       </c>
       <c r="B233" s="3">
         <v>1001015496769</v>
@@ -4687,84 +4705,84 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B234" s="3">
-        <v>1001014766798</v>
+        <v>1001015496769</v>
       </c>
       <c r="C234" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B235" s="3">
-        <v>1001015026797</v>
+        <v>1001014766798</v>
       </c>
       <c r="C235" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B236" s="3">
-        <v>1001205386222</v>
+        <v>1001015026797</v>
       </c>
       <c r="C236" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B237" s="3">
-        <v>1001092675224</v>
+        <v>1001205386222</v>
       </c>
       <c r="C237" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="B238" s="3">
-        <v>1001225406223</v>
+        <v>1001092675224</v>
       </c>
       <c r="C238" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B239" s="3">
-        <v>1001300366790</v>
+        <v>1001225406223</v>
       </c>
       <c r="C239" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
-        <v>497</v>
+        <v>368</v>
       </c>
       <c r="B240" s="3">
-        <v>1001304096792</v>
+        <v>1001300366790</v>
       </c>
       <c r="C240" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>370</v>
+        <v>497</v>
       </c>
       <c r="B241" s="3">
         <v>1001304096792</v>
@@ -4775,29 +4793,29 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B242" s="3">
-        <v>1001303636793</v>
+        <v>1001304096792</v>
       </c>
       <c r="C242" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>417</v>
+        <v>371</v>
       </c>
       <c r="B243" s="3">
-        <v>1001303636794</v>
+        <v>1001303636793</v>
       </c>
       <c r="C243" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="B244" s="3">
         <v>1001303636794</v>
@@ -4808,7 +4826,7 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
-        <v>372</v>
+        <v>517</v>
       </c>
       <c r="B245" s="3">
         <v>1001303636794</v>
@@ -4819,51 +4837,51 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B246" s="3">
-        <v>1001302596795</v>
+        <v>1001303636794</v>
       </c>
       <c r="C246" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B247" s="3">
-        <v>1001302596796</v>
+        <v>1001302596795</v>
       </c>
       <c r="C247" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B248" s="3">
-        <v>1001300456804</v>
+        <v>1001302596796</v>
       </c>
       <c r="C248" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
-        <v>466</v>
+        <v>375</v>
       </c>
       <c r="B249" s="3">
-        <v>1001300366806</v>
+        <v>1001300456804</v>
       </c>
       <c r="C249" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
-        <v>376</v>
+        <v>466</v>
       </c>
       <c r="B250" s="3">
         <v>1001300366806</v>
@@ -4874,62 +4892,62 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B251" s="3">
-        <v>1001300516803</v>
+        <v>1001300366806</v>
       </c>
       <c r="C251" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B252" s="3">
-        <v>1001300366807</v>
+        <v>1001300516803</v>
       </c>
       <c r="C252" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="B253" s="3">
         <v>1001300366807</v>
       </c>
       <c r="C253" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B254" s="3">
-        <v>1001300516785</v>
+        <v>1001300366807</v>
       </c>
       <c r="C254" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
-        <v>560</v>
+        <v>392</v>
       </c>
       <c r="B255" s="3">
-        <v>1001300456787</v>
+        <v>1001300516785</v>
       </c>
       <c r="C255" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
-        <v>394</v>
+        <v>560</v>
       </c>
       <c r="B256" s="3">
         <v>1001300456787</v>
@@ -4940,84 +4958,84 @@
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
-        <v>396</v>
+        <v>576</v>
       </c>
       <c r="B257" s="3">
-        <v>1001303636793</v>
+        <v>1001300456787</v>
       </c>
       <c r="C257" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B258" s="3">
-        <v>1001302596795</v>
+        <v>1001300456787</v>
       </c>
       <c r="C258" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B259" s="3">
-        <v>1001012486332</v>
+        <v>1001303636793</v>
       </c>
       <c r="C259" t="s">
-        <v>399</v>
+        <v>382</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B260" s="3">
-        <v>1001012566345</v>
+        <v>1001302596795</v>
       </c>
       <c r="C260" t="s">
-        <v>401</v>
+        <v>384</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B261" s="3">
-        <v>1001031076528</v>
+        <v>1001012486332</v>
       </c>
       <c r="C261" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
-        <v>434</v>
+        <v>400</v>
       </c>
       <c r="B262" s="3">
-        <v>1001020836761</v>
+        <v>1001012566345</v>
       </c>
       <c r="C262" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
-        <v>439</v>
+        <v>403</v>
       </c>
       <c r="B263" s="3">
-        <v>1001020836761</v>
+        <v>1001031076528</v>
       </c>
       <c r="C263" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
-        <v>410</v>
+        <v>434</v>
       </c>
       <c r="B264" s="3">
         <v>1001020836761</v>
@@ -5028,29 +5046,29 @@
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="B265" s="3">
-        <v>1001020846764</v>
+        <v>1001020836761</v>
       </c>
       <c r="C265" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
-        <v>440</v>
+        <v>410</v>
       </c>
       <c r="B266" s="3">
-        <v>1001020846764</v>
+        <v>1001020836761</v>
       </c>
       <c r="C266" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
-        <v>412</v>
+        <v>430</v>
       </c>
       <c r="B267" s="3">
         <v>1001020846764</v>
@@ -5061,51 +5079,51 @@
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
-        <v>513</v>
+        <v>440</v>
       </c>
       <c r="B268" s="3">
-        <v>1001300366790</v>
+        <v>1001020846764</v>
       </c>
       <c r="C268" t="s">
-        <v>379</v>
+        <v>413</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B269" s="3">
-        <v>1001300366790</v>
+        <v>1001020846764</v>
       </c>
       <c r="C269" t="s">
-        <v>379</v>
+        <v>413</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
-        <v>369</v>
+        <v>513</v>
       </c>
       <c r="B270" s="3">
-        <v>1001304096791</v>
+        <v>1001300366790</v>
       </c>
       <c r="C270" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
-        <v>488</v>
+        <v>414</v>
       </c>
       <c r="B271" s="3">
-        <v>1001304096791</v>
+        <v>1001300366790</v>
       </c>
       <c r="C271" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
-        <v>415</v>
+        <v>369</v>
       </c>
       <c r="B272" s="3">
         <v>1001304096791</v>
@@ -5116,95 +5134,95 @@
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
-        <v>416</v>
+        <v>488</v>
       </c>
       <c r="B273" s="3">
-        <v>1001303636793</v>
+        <v>1001304096791</v>
       </c>
       <c r="C273" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B274" s="3">
-        <v>1001302596795</v>
+        <v>1001304096791</v>
       </c>
       <c r="C274" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B275" s="3">
-        <v>1001300516803</v>
+        <v>1001303636793</v>
       </c>
       <c r="C275" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B276" s="3">
-        <v>1001300456804</v>
+        <v>1001302596795</v>
       </c>
       <c r="C276" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B277" s="3">
-        <v>1001300366807</v>
+        <v>1001300516803</v>
       </c>
       <c r="C277" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B278" s="3">
-        <v>1001302596796</v>
+        <v>1001300456804</v>
       </c>
       <c r="C278" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
-        <v>472</v>
+        <v>421</v>
       </c>
       <c r="B279" s="3">
-        <v>1001023696765</v>
+        <v>1001300366807</v>
       </c>
       <c r="C279" t="s">
-        <v>425</v>
+        <v>389</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
-        <v>491</v>
+        <v>422</v>
       </c>
       <c r="B280" s="3">
-        <v>1001023696765</v>
+        <v>1001302596796</v>
       </c>
       <c r="C280" t="s">
-        <v>425</v>
+        <v>385</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
-        <v>424</v>
+        <v>472</v>
       </c>
       <c r="B281" s="3">
         <v>1001023696765</v>
@@ -5215,29 +5233,29 @@
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
-        <v>433</v>
+        <v>491</v>
       </c>
       <c r="B282" s="3">
-        <v>1001023696767</v>
+        <v>1001023696765</v>
       </c>
       <c r="C282" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
-        <v>441</v>
+        <v>424</v>
       </c>
       <c r="B283" s="3">
-        <v>1001023696767</v>
+        <v>1001023696765</v>
       </c>
       <c r="C283" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="B284" s="3">
         <v>1001023696767</v>
@@ -5248,62 +5266,62 @@
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="B285" s="3">
-        <v>1001024976829</v>
+        <v>1001023696767</v>
       </c>
       <c r="C285" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B286" s="3">
-        <v>1001024976829</v>
+        <v>1001023696767</v>
       </c>
       <c r="C286" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
-        <v>444</v>
+        <v>431</v>
       </c>
       <c r="B287" s="3">
-        <v>1001022376722</v>
+        <v>1001024976829</v>
       </c>
       <c r="C287" t="s">
-        <v>129</v>
+        <v>423</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
-        <v>471</v>
+        <v>432</v>
       </c>
       <c r="B288" s="3">
-        <v>1001020846762</v>
+        <v>1001024976829</v>
       </c>
       <c r="C288" t="s">
-        <v>446</v>
+        <v>423</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
-        <v>490</v>
+        <v>444</v>
       </c>
       <c r="B289" s="3">
-        <v>1001020846762</v>
+        <v>1001022376722</v>
       </c>
       <c r="C289" t="s">
-        <v>446</v>
+        <v>129</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
-        <v>445</v>
+        <v>471</v>
       </c>
       <c r="B290" s="3">
         <v>1001020846762</v>
@@ -5314,29 +5332,29 @@
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
-        <v>135</v>
+        <v>490</v>
       </c>
       <c r="B291" s="3">
-        <v>1001022656853</v>
+        <v>1001020846762</v>
       </c>
       <c r="C291" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
-        <v>512</v>
+        <v>445</v>
       </c>
       <c r="B292" s="3">
-        <v>1001022656853</v>
+        <v>1001020846762</v>
       </c>
       <c r="C292" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
-        <v>448</v>
+        <v>135</v>
       </c>
       <c r="B293" s="3">
         <v>1001022656853</v>
@@ -5347,40 +5365,40 @@
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
-        <v>454</v>
+        <v>512</v>
       </c>
       <c r="B294" s="3">
-        <v>1001022656852</v>
+        <v>1001022656853</v>
       </c>
       <c r="C294" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
-        <v>473</v>
+        <v>448</v>
       </c>
       <c r="B295" s="3">
-        <v>1001020836759</v>
+        <v>1001022656853</v>
       </c>
       <c r="C295" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
-        <v>489</v>
+        <v>454</v>
       </c>
       <c r="B296" s="3">
-        <v>1001020836759</v>
+        <v>1001022656852</v>
       </c>
       <c r="C296" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
-        <v>456</v>
+        <v>473</v>
       </c>
       <c r="B297" s="3">
         <v>1001020836759</v>
@@ -5391,84 +5409,84 @@
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
-        <v>458</v>
+        <v>489</v>
       </c>
       <c r="B298" s="3">
-        <v>1001023856870</v>
+        <v>1001020836759</v>
       </c>
       <c r="C298" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="B299" s="3">
-        <v>1001013956426</v>
+        <v>1001020836759</v>
       </c>
       <c r="C299" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
-        <v>476</v>
+        <v>458</v>
       </c>
       <c r="B300" s="3">
-        <v>1001093345495</v>
+        <v>1001023856870</v>
       </c>
       <c r="C300" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
-        <v>505</v>
+        <v>474</v>
       </c>
       <c r="B301" s="3">
-        <v>1001022656868</v>
+        <v>1001013956426</v>
       </c>
       <c r="C301" t="s">
-        <v>478</v>
+        <v>452</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B302" s="3">
-        <v>1001022656868</v>
+        <v>1001093345495</v>
       </c>
       <c r="C302" t="s">
-        <v>478</v>
+        <v>463</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
-        <v>178</v>
+        <v>505</v>
       </c>
       <c r="B303" s="3">
-        <v>1001034065698</v>
+        <v>1001022656868</v>
       </c>
       <c r="C303" t="s">
-        <v>450</v>
+        <v>478</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
-        <v>197</v>
+        <v>477</v>
       </c>
       <c r="B304" s="3">
-        <v>1001034065698</v>
+        <v>1001022656868</v>
       </c>
       <c r="C304" t="s">
-        <v>450</v>
+        <v>478</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
-        <v>503</v>
+        <v>178</v>
       </c>
       <c r="B305" s="3">
         <v>1001034065698</v>
@@ -5479,7 +5497,7 @@
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
-        <v>481</v>
+        <v>197</v>
       </c>
       <c r="B306" s="3">
         <v>1001034065698</v>
@@ -5490,62 +5508,62 @@
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
-        <v>482</v>
+        <v>503</v>
       </c>
       <c r="B307" s="3">
-        <v>1001084216206</v>
+        <v>1001034065698</v>
       </c>
       <c r="C307" t="s">
-        <v>408</v>
+        <v>450</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
       <c r="B308" s="3">
-        <v>1001015646861</v>
+        <v>1001034065698</v>
       </c>
       <c r="C308" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B309" s="3">
-        <v>1001015646861</v>
+        <v>1001084216206</v>
       </c>
       <c r="C309" t="s">
-        <v>447</v>
+        <v>408</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
-        <v>469</v>
+        <v>494</v>
       </c>
       <c r="B310" s="3">
-        <v>1001025176768</v>
+        <v>1001015646861</v>
       </c>
       <c r="C310" t="s">
-        <v>470</v>
+        <v>447</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="B311" s="3">
-        <v>1001025176768</v>
+        <v>1001015646861</v>
       </c>
       <c r="C311" t="s">
-        <v>470</v>
+        <v>447</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
-        <v>484</v>
+        <v>469</v>
       </c>
       <c r="B312" s="3">
         <v>1001025176768</v>
@@ -5556,29 +5574,29 @@
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
-        <v>468</v>
+        <v>492</v>
       </c>
       <c r="B313" s="3">
-        <v>1001025486770</v>
+        <v>1001025176768</v>
       </c>
       <c r="C313" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="B314" s="3">
-        <v>1001025486770</v>
+        <v>1001025176768</v>
       </c>
       <c r="C314" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
-        <v>485</v>
+        <v>468</v>
       </c>
       <c r="B315" s="3">
         <v>1001025486770</v>
@@ -5589,29 +5607,29 @@
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
-        <v>220</v>
+        <v>493</v>
       </c>
       <c r="B316" s="3">
-        <v>1001012816340</v>
+        <v>1001025486770</v>
       </c>
       <c r="C316" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
-        <v>507</v>
+        <v>485</v>
       </c>
       <c r="B317" s="3">
-        <v>1001012816340</v>
+        <v>1001025486770</v>
       </c>
       <c r="C317" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
-        <v>486</v>
+        <v>220</v>
       </c>
       <c r="B318" s="3">
         <v>1001012816340</v>
@@ -5622,29 +5640,29 @@
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
-        <v>330</v>
+        <v>507</v>
       </c>
       <c r="B319" s="3">
-        <v>1001203146834</v>
+        <v>1001012816340</v>
       </c>
       <c r="C319" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="B320" s="3">
-        <v>1001203146834</v>
+        <v>1001012816340</v>
       </c>
       <c r="C320" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
-        <v>504</v>
+        <v>330</v>
       </c>
       <c r="B321" s="3">
         <v>1001203146834</v>
@@ -5655,7 +5673,7 @@
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="B322" s="3">
         <v>1001203146834</v>
@@ -5666,369 +5684,413 @@
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="B323" s="3">
-        <v>1001300456788</v>
+        <v>1001203146834</v>
       </c>
       <c r="C323" t="s">
-        <v>500</v>
+        <v>453</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
-        <v>509</v>
+        <v>487</v>
       </c>
       <c r="B324" s="3">
-        <v>1001022556837</v>
+        <v>1001203146834</v>
       </c>
       <c r="C324" t="s">
-        <v>510</v>
+        <v>453</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="B325" s="3">
-        <v>1001300516786</v>
+        <v>1001300456788</v>
       </c>
       <c r="C325" t="s">
-        <v>515</v>
+        <v>500</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="B326" s="3">
-        <v>1001214196459</v>
+        <v>1001022556837</v>
       </c>
       <c r="C326" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="B327" s="3">
-        <v>1001092436495</v>
+        <v>1001300516786</v>
       </c>
       <c r="C327" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="B328" s="3">
-        <v>1001025526901</v>
+        <v>1001214196459</v>
       </c>
       <c r="C328" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
-        <v>524</v>
+        <v>572</v>
       </c>
       <c r="B329" s="3">
-        <v>1001025546931</v>
+        <v>1001092436495</v>
       </c>
       <c r="C329" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
-        <v>534</v>
+        <v>520</v>
       </c>
       <c r="B330" s="3">
-        <v>1001010016324</v>
+        <v>1001092436495</v>
       </c>
       <c r="C330" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
-        <v>564</v>
+        <v>522</v>
       </c>
       <c r="B331" s="3">
-        <v>1001010016324</v>
+        <v>1001025526901</v>
       </c>
       <c r="C331" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B332" s="3">
-        <v>1001010016324</v>
+        <v>1001025546931</v>
       </c>
       <c r="C332" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="B333" s="3">
-        <v>1001025766909</v>
+        <v>1001010016324</v>
       </c>
       <c r="C333" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B334" s="3">
-        <v>1001025766909</v>
+        <v>1001010016324</v>
       </c>
       <c r="C334" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B335" s="3">
-        <v>1001025766909</v>
+        <v>1001010016324</v>
       </c>
       <c r="C335" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" s="2" t="s">
-        <v>563</v>
+        <v>531</v>
       </c>
       <c r="B336" s="3">
-        <v>1001010014558</v>
+        <v>1001025766909</v>
       </c>
       <c r="C336" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
-        <v>532</v>
+        <v>565</v>
       </c>
       <c r="B337" s="3">
-        <v>1001010014558</v>
+        <v>1001025766909</v>
       </c>
       <c r="C337" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
-        <v>558</v>
+        <v>529</v>
       </c>
       <c r="B338" s="3">
-        <v>1001012596802</v>
+        <v>1001025766909</v>
       </c>
       <c r="C338" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="B339" s="3">
-        <v>1001012596802</v>
+        <v>1001010014558</v>
       </c>
       <c r="C339" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B340" s="3">
-        <v>1001012596802</v>
+        <v>1001010014558</v>
       </c>
       <c r="C340" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="B341" s="3">
-        <v>1001012596801</v>
+        <v>1001012596802</v>
       </c>
       <c r="C341" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" s="2" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B342" s="3">
-        <v>1001012596801</v>
+        <v>1001012596802</v>
       </c>
       <c r="C342" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B343" s="3">
-        <v>1001012596801</v>
+        <v>1001012596802</v>
       </c>
       <c r="C343" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="s">
-        <v>539</v>
+        <v>553</v>
       </c>
       <c r="B344" s="3">
-        <v>1001062353684</v>
+        <v>1001012596801</v>
       </c>
       <c r="C344" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
-        <v>541</v>
+        <v>566</v>
       </c>
       <c r="B345" s="3">
-        <v>1001010014555</v>
+        <v>1001012596801</v>
       </c>
       <c r="C345" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="B346" s="3">
-        <v>1001083424691</v>
+        <v>1001012596801</v>
       </c>
       <c r="C346" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" s="2" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="B347" s="3">
-        <v>1001190765679</v>
+        <v>1001062353684</v>
       </c>
       <c r="C347" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" s="2" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="B348" s="3">
-        <v>1001085636200</v>
+        <v>1001010014555</v>
       </c>
       <c r="C348" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" s="2" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="B349" s="3">
-        <v>1001020836253</v>
+        <v>1001083424691</v>
       </c>
       <c r="C349" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" s="2" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="B350" s="3">
-        <v>1001084226492</v>
+        <v>1001190765679</v>
       </c>
       <c r="C350" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" s="2" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="B351" s="3">
-        <v>1001223296921</v>
+        <v>1001085636200</v>
       </c>
       <c r="C351" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="B352" s="3">
-        <v>1001053944786</v>
+        <v>1001020836253</v>
       </c>
       <c r="C352" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="B353" s="3">
-        <v>1001010016839</v>
+        <v>1001084226492</v>
       </c>
       <c r="C353" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" s="2" t="s">
-        <v>568</v>
+        <v>554</v>
       </c>
       <c r="B354" s="3">
-        <v>1001023856869</v>
+        <v>1001223296921</v>
       </c>
       <c r="C354" t="s">
-        <v>569</v>
+        <v>555</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="B355" s="3">
+        <v>1001053944786</v>
+      </c>
+      <c r="C355" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A356" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="B356" s="3">
+        <v>1001010016839</v>
+      </c>
+      <c r="C356" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A357" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="B357" s="3">
+        <v>1001023856869</v>
+      </c>
+      <c r="C357" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A358" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="B355" s="3">
+      <c r="B358" s="3">
         <v>1001040434903</v>
       </c>
-      <c r="C355" t="s">
+      <c r="C358" t="s">
         <v>571</v>
       </c>
     </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A359" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="B359" s="3">
+        <v>1001080216842</v>
+      </c>
+      <c r="C359" t="s">
+        <v>574</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C353" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
+  <autoFilter ref="A1:C359" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/moduls/1С.xlsx
+++ b/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\Останкино КИ\ostankino_ki\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46DB9725-F7B5-488D-9846-5F5A84E0718B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9992003-29AF-4457-A62F-8392D7F9BC3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$359</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$360</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="580">
   <si>
     <t>1С</t>
   </si>
@@ -1768,6 +1768,12 @@
   </si>
   <si>
     <t>6854 МОЛОЧНЫЕ ПРЕМИУМ ПМ сос п/о мгс 0,6кг  Останкино</t>
+  </si>
+  <si>
+    <t>ВЕТЧ.НЕЖНАЯ Коровино п/о_Маяк</t>
+  </si>
+  <si>
+    <t>6495 ВЕТЧ.МРАМОРНАЯ в/у срез 0,3кг 6шт_45с  Останкино</t>
   </si>
 </sst>
 </file>
@@ -2122,11 +2128,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F359"/>
+  <dimension ref="A1:F360"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2254,10 +2260,10 @@
         <v>442</v>
       </c>
       <c r="B11" s="3">
-        <v>1001095716865</v>
+        <v>1001095716866</v>
       </c>
       <c r="C11" t="s">
-        <v>426</v>
+        <v>578</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -5761,7 +5767,7 @@
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
-        <v>520</v>
+        <v>579</v>
       </c>
       <c r="B330" s="3">
         <v>1001092436495</v>
@@ -5772,40 +5778,40 @@
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B331" s="3">
-        <v>1001025526901</v>
+        <v>1001092436495</v>
       </c>
       <c r="C331" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B332" s="3">
-        <v>1001025546931</v>
+        <v>1001025526901</v>
       </c>
       <c r="C332" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="B333" s="3">
-        <v>1001010016324</v>
+        <v>1001025546931</v>
       </c>
       <c r="C333" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
-        <v>564</v>
+        <v>534</v>
       </c>
       <c r="B334" s="3">
         <v>1001010016324</v>
@@ -5816,7 +5822,7 @@
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
-        <v>527</v>
+        <v>564</v>
       </c>
       <c r="B335" s="3">
         <v>1001010016324</v>
@@ -5827,18 +5833,18 @@
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" s="2" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B336" s="3">
-        <v>1001025766909</v>
+        <v>1001010016324</v>
       </c>
       <c r="C336" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
-        <v>565</v>
+        <v>531</v>
       </c>
       <c r="B337" s="3">
         <v>1001025766909</v>
@@ -5849,7 +5855,7 @@
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
-        <v>529</v>
+        <v>565</v>
       </c>
       <c r="B338" s="3">
         <v>1001025766909</v>
@@ -5860,18 +5866,18 @@
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
-        <v>563</v>
+        <v>529</v>
       </c>
       <c r="B339" s="3">
-        <v>1001010014558</v>
+        <v>1001025766909</v>
       </c>
       <c r="C339" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
-        <v>532</v>
+        <v>563</v>
       </c>
       <c r="B340" s="3">
         <v>1001010014558</v>
@@ -5882,18 +5888,18 @@
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
-        <v>558</v>
+        <v>532</v>
       </c>
       <c r="B341" s="3">
-        <v>1001012596802</v>
+        <v>1001010014558</v>
       </c>
       <c r="C341" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" s="2" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="B342" s="3">
         <v>1001012596802</v>
@@ -5904,7 +5910,7 @@
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
-        <v>535</v>
+        <v>567</v>
       </c>
       <c r="B343" s="3">
         <v>1001012596802</v>
@@ -5915,18 +5921,18 @@
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="s">
-        <v>553</v>
+        <v>535</v>
       </c>
       <c r="B344" s="3">
-        <v>1001012596801</v>
+        <v>1001012596802</v>
       </c>
       <c r="C344" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
-        <v>566</v>
+        <v>553</v>
       </c>
       <c r="B345" s="3">
         <v>1001012596801</v>
@@ -5937,7 +5943,7 @@
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
-        <v>537</v>
+        <v>566</v>
       </c>
       <c r="B346" s="3">
         <v>1001012596801</v>
@@ -5948,149 +5954,160 @@
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B347" s="3">
-        <v>1001062353684</v>
+        <v>1001012596801</v>
       </c>
       <c r="C347" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" s="2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B348" s="3">
-        <v>1001010014555</v>
+        <v>1001062353684</v>
       </c>
       <c r="C348" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B349" s="3">
-        <v>1001083424691</v>
+        <v>1001010014555</v>
       </c>
       <c r="C349" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B350" s="3">
-        <v>1001190765679</v>
+        <v>1001083424691</v>
       </c>
       <c r="C350" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" s="2" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B351" s="3">
-        <v>1001085636200</v>
+        <v>1001190765679</v>
       </c>
       <c r="C351" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B352" s="3">
-        <v>1001020836253</v>
+        <v>1001085636200</v>
       </c>
       <c r="C352" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B353" s="3">
-        <v>1001084226492</v>
+        <v>1001020836253</v>
       </c>
       <c r="C353" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" s="2" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B354" s="3">
-        <v>1001223296921</v>
+        <v>1001084226492</v>
       </c>
       <c r="C354" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B355" s="3">
-        <v>1001053944786</v>
+        <v>1001223296921</v>
       </c>
       <c r="C355" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="B356" s="3">
-        <v>1001010016839</v>
+        <v>1001053944786</v>
       </c>
       <c r="C356" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="B357" s="3">
-        <v>1001023856869</v>
+        <v>1001010016839</v>
       </c>
       <c r="C357" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B358" s="3">
-        <v>1001040434903</v>
+        <v>1001023856869</v>
       </c>
       <c r="C358" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="B359" s="3">
+        <v>1001040434903</v>
+      </c>
+      <c r="C359" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A360" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="B359" s="3">
+      <c r="B360" s="3">
         <v>1001080216842</v>
       </c>
-      <c r="C359" t="s">
+      <c r="C360" t="s">
         <v>574</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C359" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
+  <autoFilter ref="A1:C360" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/moduls/1С.xlsx
+++ b/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\Останкино КИ\ostankino_ki\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9992003-29AF-4457-A62F-8392D7F9BC3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A72CB603-780B-46E7-9AF4-F2E20F4B5D6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$360</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$362</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="583">
   <si>
     <t>1С</t>
   </si>
@@ -1774,6 +1774,15 @@
   </si>
   <si>
     <t>6495 ВЕТЧ.МРАМОРНАЯ в/у срез 0,3кг 6шт_45с  Останкино</t>
+  </si>
+  <si>
+    <t>6866 ВЕТЧ.НЕЖНАЯ Коровино п/о_Маяк  Останкино</t>
+  </si>
+  <si>
+    <t>6159 ВРЕМЯ ОЛИВЬЕ.Папа может вар п/о ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>ВРЕМЯ ОЛИВЬЕ Папа может вар п/о</t>
   </si>
 </sst>
 </file>
@@ -2128,11 +2137,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F360"/>
+  <dimension ref="A1:F362"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2238,10 +2247,10 @@
         <v>443</v>
       </c>
       <c r="B9" s="3">
-        <v>1001095716865</v>
+        <v>1001095716866</v>
       </c>
       <c r="C9" t="s">
-        <v>426</v>
+        <v>578</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -2268,95 +2277,95 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>15</v>
+        <v>580</v>
       </c>
       <c r="B12" s="3">
-        <v>1001095716865</v>
+        <v>1001095716866</v>
       </c>
       <c r="C12" t="s">
-        <v>426</v>
+        <v>578</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>192</v>
+        <v>15</v>
       </c>
       <c r="B13" s="3">
-        <v>1001092446756</v>
+        <v>1001095716865</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>426</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>17</v>
+        <v>192</v>
       </c>
       <c r="B14" s="3">
-        <v>1001012564813</v>
+        <v>1001092446756</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B15" s="3">
-        <v>1001060764993</v>
+        <v>1001012564813</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B16" s="3">
-        <v>1001010105246</v>
+        <v>1001060764993</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B17" s="3">
-        <v>1001010855247</v>
+        <v>1001010105246</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B18" s="3">
-        <v>1001015646861</v>
+        <v>1001010855247</v>
       </c>
       <c r="C18" t="s">
-        <v>447</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>502</v>
+        <v>25</v>
       </c>
       <c r="B19" s="3">
-        <v>1001015706862</v>
+        <v>1001015646861</v>
       </c>
       <c r="C19" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="B20" s="3">
         <v>1001015706862</v>
@@ -2367,7 +2376,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>27</v>
+        <v>498</v>
       </c>
       <c r="B21" s="3">
         <v>1001015706862</v>
@@ -2378,106 +2387,106 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B22" s="3">
-        <v>1001053985341</v>
+        <v>1001015706862</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>460</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B23" s="3">
-        <v>1001062505483</v>
+        <v>1001053985341</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B24" s="3">
-        <v>1001051875544</v>
+        <v>1001062505483</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B25" s="3">
-        <v>1001193115682</v>
+        <v>1001051875544</v>
       </c>
       <c r="C25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B26" s="3">
-        <v>1001061975706</v>
+        <v>1001193115682</v>
       </c>
       <c r="C26" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B27" s="3">
-        <v>1001063145708</v>
+        <v>1001061975706</v>
       </c>
       <c r="C27" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B28" s="3">
-        <v>1001022465820</v>
+        <v>1001063145708</v>
       </c>
       <c r="C28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B29" s="3">
-        <v>1001012505851</v>
+        <v>1001022465820</v>
       </c>
       <c r="C29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>309</v>
+        <v>43</v>
       </c>
       <c r="B30" s="3">
-        <v>1001060755931</v>
+        <v>1001012505851</v>
       </c>
       <c r="C30" t="s">
-        <v>438</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>45</v>
+        <v>309</v>
       </c>
       <c r="B31" s="3">
         <v>1001060755931</v>
@@ -2488,62 +2497,62 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B32" s="3">
-        <v>1001012815997</v>
+        <v>1001060755931</v>
       </c>
       <c r="C32" t="s">
-        <v>47</v>
+        <v>438</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B33" s="3">
-        <v>1001024906042</v>
+        <v>1001012815997</v>
       </c>
       <c r="C33" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B34" s="3">
-        <v>1001024976829</v>
+        <v>1001024906042</v>
       </c>
       <c r="C34" t="s">
-        <v>423</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B35" s="3">
-        <v>1001220286279</v>
+        <v>1001024976829</v>
       </c>
       <c r="C35" t="s">
-        <v>52</v>
+        <v>423</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>465</v>
+        <v>51</v>
       </c>
       <c r="B36" s="3">
-        <v>1001084216206</v>
+        <v>1001220286279</v>
       </c>
       <c r="C36" t="s">
-        <v>408</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>53</v>
+        <v>465</v>
       </c>
       <c r="B37" s="3">
         <v>1001084216206</v>
@@ -2554,18 +2563,18 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>506</v>
+        <v>53</v>
       </c>
       <c r="B38" s="3">
-        <v>1001022556069</v>
+        <v>1001084216206</v>
       </c>
       <c r="C38" t="s">
-        <v>496</v>
+        <v>408</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>54</v>
+        <v>506</v>
       </c>
       <c r="B39" s="3">
         <v>1001022556069</v>
@@ -2573,121 +2582,121 @@
       <c r="C39" t="s">
         <v>496</v>
       </c>
-      <c r="F39" s="3"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B40" s="3">
-        <v>1001010106325</v>
+        <v>1001022556069</v>
       </c>
       <c r="C40" t="s">
-        <v>56</v>
-      </c>
+        <v>496</v>
+      </c>
+      <c r="F40" s="3"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B41" s="3">
-        <v>1001012486333</v>
+        <v>1001010106325</v>
       </c>
       <c r="C41" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B42" s="3">
-        <v>1001012506353</v>
+        <v>1001012486333</v>
       </c>
       <c r="C42" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>123</v>
+        <v>60</v>
       </c>
       <c r="B43" s="3">
-        <v>1001304506684</v>
+        <v>1001012506353</v>
       </c>
       <c r="C43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B44" s="3">
-        <v>1001303056692</v>
+        <v>1001304506684</v>
       </c>
       <c r="C44" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>66</v>
+        <v>124</v>
       </c>
       <c r="B45" s="3">
-        <v>1001303636415</v>
+        <v>1001303056692</v>
       </c>
       <c r="C45" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B46" s="3">
-        <v>1001013956426</v>
+        <v>1001303636415</v>
       </c>
       <c r="C46" t="s">
-        <v>452</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B47" s="3">
-        <v>1001024636438</v>
+        <v>1001013956426</v>
       </c>
       <c r="C47" t="s">
-        <v>70</v>
+        <v>452</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B48" s="3">
-        <v>1001234146448</v>
+        <v>1001024636438</v>
       </c>
       <c r="C48" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>310</v>
+        <v>71</v>
       </c>
       <c r="B49" s="3">
-        <v>1001202506453</v>
+        <v>1001234146448</v>
       </c>
       <c r="C49" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>74</v>
+        <v>310</v>
       </c>
       <c r="B50" s="3">
         <v>1001202506453</v>
@@ -2698,227 +2707,227 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B51" s="3">
-        <v>1001201976454</v>
+        <v>1001202506453</v>
       </c>
       <c r="C51" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B52" s="3">
-        <v>1001025176475</v>
+        <v>1001201976454</v>
       </c>
       <c r="C52" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="B53" s="3">
-        <v>1001301876697</v>
+        <v>1001025176475</v>
       </c>
       <c r="C53" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>82</v>
+        <v>128</v>
       </c>
       <c r="B54" s="3">
-        <v>1001024636517</v>
+        <v>1001301876697</v>
       </c>
       <c r="C54" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B55" s="3">
-        <v>1001031076527</v>
+        <v>1001024636517</v>
       </c>
       <c r="C55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B56" s="3">
-        <v>1001304506562</v>
+        <v>1001031076527</v>
       </c>
       <c r="C56" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B57" s="3">
-        <v>1001020846563</v>
+        <v>1001304506562</v>
       </c>
       <c r="C57" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B58" s="3">
-        <v>1001020836589</v>
+        <v>1001020846563</v>
       </c>
       <c r="C58" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B59" s="3">
-        <v>6751</v>
+        <v>1001020836589</v>
       </c>
       <c r="C59" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B60" s="3">
-        <v>1001010016592</v>
+        <v>6751</v>
       </c>
       <c r="C60" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B61" s="3">
-        <v>1001010026594</v>
+        <v>1001010016592</v>
       </c>
       <c r="C61" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B62" s="3">
-        <v>1001022296601</v>
+        <v>1001010026594</v>
       </c>
       <c r="C62" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B63" s="3">
-        <v>1001031896648</v>
+        <v>1001022296601</v>
       </c>
       <c r="C63" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B64" s="3">
-        <v>1001035266650</v>
+        <v>1001031896648</v>
       </c>
       <c r="C64" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B65" s="3">
-        <v>1001305256658</v>
+        <v>1001035266650</v>
       </c>
       <c r="C65" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B66" s="3">
-        <v>1001010016593</v>
+        <v>1001305256658</v>
       </c>
       <c r="C66" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B67" s="3">
-        <v>1001010026595</v>
+        <v>1001010016593</v>
       </c>
       <c r="C67" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B68" s="3">
+        <v>1001010026595</v>
+      </c>
+      <c r="C68" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B68" s="3">
+      <c r="B69" s="3">
         <v>1001010036597</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C69" t="s">
         <v>115</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B69" s="3">
-        <v>1001020886646</v>
-      </c>
-      <c r="C69" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B70" s="3">
+        <v>1001020886646</v>
+      </c>
+      <c r="C70" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
         <v>337</v>
-      </c>
-      <c r="B70" s="3">
-        <v>1001305306566</v>
-      </c>
-      <c r="C70" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="B71" s="3">
         <v>1001305306566</v>
@@ -2929,42 +2938,42 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B72" s="3">
-        <v>1001300386683</v>
+        <v>1001305306566</v>
       </c>
       <c r="C72" t="s">
-        <v>81</v>
+        <v>122</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B73" s="3">
-        <v>1001303986689</v>
+        <v>1001300386683</v>
       </c>
       <c r="C73" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>249</v>
+        <v>127</v>
       </c>
       <c r="B74" s="3">
-        <v>1001303106773</v>
+        <v>1001303986689</v>
       </c>
       <c r="C74" t="s">
-        <v>360</v>
+        <v>63</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="B75" s="5">
+        <v>249</v>
+      </c>
+      <c r="B75" s="3">
         <v>1001303106773</v>
       </c>
       <c r="C75" t="s">
@@ -2973,7 +2982,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>284</v>
+        <v>367</v>
       </c>
       <c r="B76" s="5">
         <v>1001303106773</v>
@@ -2984,9 +2993,9 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B77" s="3">
+        <v>284</v>
+      </c>
+      <c r="B77" s="5">
         <v>1001303106773</v>
       </c>
       <c r="C77" t="s">
@@ -2995,7 +3004,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>407</v>
+        <v>125</v>
       </c>
       <c r="B78" s="3">
         <v>1001303106773</v>
@@ -3006,7 +3015,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B79" s="3">
         <v>1001303106773</v>
@@ -3017,7 +3026,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B80" s="3">
         <v>1001303106773</v>
@@ -3028,18 +3037,18 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>235</v>
+        <v>402</v>
       </c>
       <c r="B81" s="3">
-        <v>1001012566392</v>
+        <v>1001303106773</v>
       </c>
       <c r="C81" t="s">
-        <v>59</v>
+        <v>360</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>437</v>
+        <v>235</v>
       </c>
       <c r="B82" s="3">
         <v>1001012566392</v>
@@ -3050,7 +3059,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>130</v>
+        <v>437</v>
       </c>
       <c r="B83" s="3">
         <v>1001012566392</v>
@@ -3061,117 +3070,117 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B84" s="3">
-        <v>1001302276666</v>
+        <v>1001012566392</v>
       </c>
       <c r="C84" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B85" s="3">
-        <v>1001012426268</v>
+        <v>1001302276666</v>
       </c>
       <c r="C85" t="s">
-        <v>133</v>
+        <v>65</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B86" s="3">
-        <v>1001024906041</v>
+        <v>1001012426268</v>
       </c>
       <c r="C86" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B87" s="3">
-        <v>1001011086247</v>
+        <v>1001024906041</v>
       </c>
       <c r="C87" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="B88" s="3">
-        <v>1001014486158</v>
+        <v>1001011086247</v>
       </c>
       <c r="C88" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B89" s="3">
-        <v>1001015356259</v>
+        <v>1001014486158</v>
       </c>
       <c r="C89" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B90" s="3">
-        <v>1001012816716</v>
+        <v>1001015356259</v>
       </c>
       <c r="C90" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>342</v>
+        <v>164</v>
       </c>
       <c r="B91" s="3">
-        <v>1001020966227</v>
+        <v>1001012816716</v>
       </c>
       <c r="C91" t="s">
-        <v>341</v>
+        <v>155</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>140</v>
+        <v>342</v>
       </c>
       <c r="B92" s="3">
         <v>1001020966227</v>
       </c>
       <c r="C92" t="s">
-        <v>141</v>
+        <v>341</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>233</v>
+        <v>140</v>
       </c>
       <c r="B93" s="3">
-        <v>1001022726303</v>
+        <v>1001020966227</v>
       </c>
       <c r="C93" t="s">
-        <v>269</v>
+        <v>141</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>268</v>
+        <v>233</v>
       </c>
       <c r="B94" s="3">
         <v>1001022726303</v>
@@ -3182,7 +3191,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>359</v>
+        <v>268</v>
       </c>
       <c r="B95" s="3">
         <v>1001022726303</v>
@@ -3193,84 +3202,84 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>165</v>
+        <v>359</v>
       </c>
       <c r="B96" s="3">
         <v>1001022726303</v>
       </c>
       <c r="C96" t="s">
-        <v>167</v>
+        <v>269</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>116</v>
+        <v>165</v>
       </c>
       <c r="B97" s="3">
-        <v>1001022466726</v>
+        <v>1001022726303</v>
       </c>
       <c r="C97" t="s">
-        <v>117</v>
+        <v>167</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>159</v>
+        <v>116</v>
       </c>
       <c r="B98" s="3">
-        <v>1001020966144</v>
+        <v>1001022466726</v>
       </c>
       <c r="C98" t="s">
-        <v>156</v>
+        <v>117</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="B99" s="3">
-        <v>1001022376722</v>
+        <v>1001020966144</v>
       </c>
       <c r="C99" t="s">
-        <v>129</v>
+        <v>156</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="B100" s="3">
-        <v>1001022373812</v>
+        <v>1001022376722</v>
       </c>
       <c r="C100" t="s">
-        <v>3</v>
+        <v>129</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B101" s="3">
-        <v>1001022376113</v>
+        <v>1001022373812</v>
       </c>
       <c r="C101" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>261</v>
+        <v>146</v>
       </c>
       <c r="B102" s="3">
-        <v>1001022246661</v>
+        <v>1001022376113</v>
       </c>
       <c r="C102" t="s">
-        <v>262</v>
+        <v>4</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>338</v>
+        <v>261</v>
       </c>
       <c r="B103" s="3">
         <v>1001022246661</v>
@@ -3281,172 +3290,172 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>144</v>
+        <v>338</v>
       </c>
       <c r="B104" s="3">
         <v>1001022246661</v>
       </c>
       <c r="C104" t="s">
-        <v>147</v>
+        <v>262</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B105" s="3">
-        <v>1001022246713</v>
+        <v>1001022246661</v>
       </c>
       <c r="C105" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B106" s="3">
-        <v>1001025166241</v>
+        <v>1001022246713</v>
       </c>
       <c r="C106" t="s">
-        <v>152</v>
+        <v>118</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="B107" s="3">
-        <v>6606</v>
+        <v>1001025166241</v>
       </c>
       <c r="C107" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
       <c r="B108" s="3">
-        <v>1001035326217</v>
+        <v>6606</v>
       </c>
       <c r="C108" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="B109" s="3">
-        <v>1001303636301</v>
+        <v>1001035326217</v>
       </c>
       <c r="C109" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>102</v>
+        <v>163</v>
       </c>
       <c r="B110" s="3">
-        <v>1001303636302</v>
+        <v>1001303636301</v>
       </c>
       <c r="C110" t="s">
-        <v>103</v>
+        <v>157</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>150</v>
+        <v>102</v>
       </c>
       <c r="B111" s="3">
-        <v>1001305196215</v>
+        <v>1001303636302</v>
       </c>
       <c r="C111" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="B112" s="3">
-        <v>1001301876212</v>
+        <v>1001305196215</v>
       </c>
       <c r="C112" t="s">
-        <v>158</v>
+        <v>87</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="B113" s="3">
-        <v>1001301876213</v>
+        <v>1001301876212</v>
       </c>
       <c r="C113" t="s">
-        <v>86</v>
+        <v>158</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="B114" s="3">
-        <v>1001303636302</v>
+        <v>1001301876213</v>
       </c>
       <c r="C114" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B115" s="3">
-        <v>6645</v>
+        <v>1001303636302</v>
       </c>
       <c r="C115" t="s">
-        <v>170</v>
+        <v>103</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B116" s="3">
-        <v>1001225416228</v>
+        <v>6645</v>
       </c>
       <c r="C116" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B117" s="3">
-        <v>6225</v>
+        <v>1001225416228</v>
       </c>
       <c r="C117" t="s">
-        <v>288</v>
+        <v>172</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B118" s="3">
-        <v>1001022376722</v>
+        <v>6225</v>
       </c>
       <c r="C118" t="s">
-        <v>129</v>
+        <v>288</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B119" s="3">
         <v>1001022376722</v>
@@ -3457,29 +3466,29 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B120" s="3">
-        <v>3297</v>
+        <v>1001022376722</v>
       </c>
       <c r="C120" t="s">
-        <v>177</v>
+        <v>129</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>332</v>
+        <v>176</v>
       </c>
       <c r="B121" s="3">
-        <v>1001022466726</v>
+        <v>3297</v>
       </c>
       <c r="C121" t="s">
-        <v>307</v>
+        <v>177</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>308</v>
+        <v>332</v>
       </c>
       <c r="B122" s="3">
         <v>1001022466726</v>
@@ -3490,51 +3499,51 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>180</v>
+        <v>308</v>
       </c>
       <c r="B123" s="3">
         <v>1001022466726</v>
       </c>
       <c r="C123" t="s">
-        <v>117</v>
+        <v>307</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B124" s="3">
-        <v>1001021966602</v>
+        <v>1001022466726</v>
       </c>
       <c r="C124" t="s">
-        <v>299</v>
+        <v>117</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B125" s="3">
-        <v>6233</v>
+        <v>1001021966602</v>
       </c>
       <c r="C125" t="s">
-        <v>182</v>
+        <v>299</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>279</v>
+        <v>183</v>
       </c>
       <c r="B126" s="3">
-        <v>1001012816341</v>
+        <v>6233</v>
       </c>
       <c r="C126" t="s">
-        <v>462</v>
+        <v>182</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>508</v>
+        <v>279</v>
       </c>
       <c r="B127" s="3">
         <v>1001012816341</v>
@@ -3545,7 +3554,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B128" s="3">
         <v>1001012816341</v>
@@ -3556,7 +3565,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>184</v>
+        <v>511</v>
       </c>
       <c r="B129" s="3">
         <v>1001012816341</v>
@@ -3567,51 +3576,51 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B130" s="3">
-        <v>6750</v>
+        <v>1001012816341</v>
       </c>
       <c r="C130" t="s">
-        <v>93</v>
+        <v>462</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B131" s="3">
-        <v>6751</v>
+        <v>6750</v>
       </c>
       <c r="C131" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B132" s="3">
-        <v>5982</v>
+        <v>6751</v>
       </c>
       <c r="C132" t="s">
-        <v>188</v>
+        <v>95</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>559</v>
+        <v>187</v>
       </c>
       <c r="B133" s="3">
-        <v>1001022656854</v>
+        <v>5982</v>
       </c>
       <c r="C133" t="s">
-        <v>451</v>
+        <v>188</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>577</v>
+        <v>559</v>
       </c>
       <c r="B134" s="3">
         <v>1001022656854</v>
@@ -3622,7 +3631,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>475</v>
+        <v>577</v>
       </c>
       <c r="B135" s="3">
         <v>1001022656854</v>
@@ -3633,7 +3642,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>189</v>
+        <v>475</v>
       </c>
       <c r="B136" s="3">
         <v>1001022656854</v>
@@ -3644,21 +3653,21 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B137" s="3">
-        <v>1001094966025</v>
+        <v>1001022656854</v>
       </c>
       <c r="C137" t="s">
-        <v>191</v>
+        <v>451</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B138" s="3">
-        <v>6025</v>
+        <v>1001094966025</v>
       </c>
       <c r="C138" t="s">
         <v>191</v>
@@ -3666,21 +3675,21 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B139" s="3">
-        <v>6221</v>
+        <v>6025</v>
       </c>
       <c r="C139" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B140" s="3">
-        <v>1001205376221</v>
+        <v>6221</v>
       </c>
       <c r="C140" t="s">
         <v>193</v>
@@ -3688,29 +3697,29 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B141" s="3">
-        <v>1001022373812</v>
+        <v>1001205376221</v>
       </c>
       <c r="C141" t="s">
-        <v>3</v>
+        <v>193</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B142" s="3">
-        <v>1001100606827</v>
+        <v>1001022373812</v>
       </c>
       <c r="C142" t="s">
-        <v>349</v>
+        <v>3</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>361</v>
+        <v>199</v>
       </c>
       <c r="B143" s="3">
         <v>1001100606827</v>
@@ -3721,18 +3730,18 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>200</v>
+        <v>361</v>
       </c>
       <c r="B144" s="3">
-        <v>1001100616826</v>
+        <v>1001100606827</v>
       </c>
       <c r="C144" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>362</v>
+        <v>200</v>
       </c>
       <c r="B145" s="3">
         <v>1001100616826</v>
@@ -3743,18 +3752,18 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>201</v>
+        <v>362</v>
       </c>
       <c r="B146" s="3">
-        <v>1001100626828</v>
+        <v>1001100616826</v>
       </c>
       <c r="C146" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>363</v>
+        <v>201</v>
       </c>
       <c r="B147" s="3">
         <v>1001100626828</v>
@@ -3765,656 +3774,656 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>202</v>
+        <v>363</v>
       </c>
       <c r="B148" s="3">
-        <v>1001035026308</v>
+        <v>1001100626828</v>
       </c>
       <c r="C148" t="s">
-        <v>203</v>
+        <v>351</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B149" s="3">
-        <v>1001014486159</v>
+        <v>1001035026308</v>
       </c>
       <c r="C149" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>206</v>
+        <v>581</v>
       </c>
       <c r="B150" s="3">
-        <v>1001035326217</v>
+        <v>1001014486159</v>
       </c>
       <c r="C150" t="s">
-        <v>304</v>
+        <v>582</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>526</v>
+        <v>204</v>
       </c>
       <c r="B151" s="3">
-        <v>1001012426220</v>
+        <v>1001014486159</v>
       </c>
       <c r="C151" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B152" s="3">
-        <v>1001012426220</v>
+        <v>1001035326217</v>
       </c>
       <c r="C152" t="s">
-        <v>208</v>
+        <v>304</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>209</v>
+        <v>526</v>
       </c>
       <c r="B153" s="3">
-        <v>1001022466236</v>
+        <v>1001012426220</v>
       </c>
       <c r="C153" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B154" s="3">
-        <v>1001021966602</v>
+        <v>1001012426220</v>
       </c>
       <c r="C154" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B155" s="3">
-        <v>1001022296656</v>
+        <v>1001022466236</v>
       </c>
       <c r="C155" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B156" s="3">
-        <v>1001304506684</v>
+        <v>1001021966602</v>
       </c>
       <c r="C156" t="s">
-        <v>62</v>
+        <v>212</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B157" s="3">
-        <v>1001301876697</v>
+        <v>1001022296656</v>
       </c>
       <c r="C157" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B158" s="3">
-        <v>1001022246713</v>
+        <v>1001304506684</v>
       </c>
       <c r="C158" t="s">
-        <v>219</v>
+        <v>62</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B159" s="3">
-        <v>1001022376722</v>
+        <v>1001301876697</v>
       </c>
       <c r="C159" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B160" s="3">
-        <v>1001020846751</v>
+        <v>1001022246713</v>
       </c>
       <c r="C160" t="s">
-        <v>95</v>
+        <v>219</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B161" s="3">
-        <v>1001022725819</v>
+        <v>1001022376722</v>
       </c>
       <c r="C161" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B162" s="3">
-        <v>1001012825337</v>
+        <v>1001020846751</v>
       </c>
       <c r="C162" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B163" s="3">
-        <v>1001012815336</v>
+        <v>1001022725819</v>
       </c>
       <c r="C163" t="s">
-        <v>26</v>
+        <v>225</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B164" s="3">
-        <v>1001234146448</v>
+        <v>1001012825337</v>
       </c>
       <c r="C164" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B165" s="3">
-        <v>1001022725819</v>
+        <v>1001012815336</v>
       </c>
       <c r="C165" t="s">
-        <v>225</v>
+        <v>26</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B166" s="3">
-        <v>1001092676027</v>
+        <v>1001234146448</v>
       </c>
       <c r="C166" t="s">
-        <v>231</v>
+        <v>72</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B167" s="3">
-        <v>1001301876213</v>
+        <v>1001022725819</v>
       </c>
       <c r="C167" t="s">
-        <v>86</v>
+        <v>225</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B168" s="3">
-        <v>1001035026308</v>
+        <v>1001092676027</v>
       </c>
       <c r="C168" t="s">
-        <v>427</v>
+        <v>231</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B169" s="3">
-        <v>1001234146448</v>
+        <v>1001301876213</v>
       </c>
       <c r="C169" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B170" s="3">
-        <v>1001201976454</v>
+        <v>1001035026308</v>
       </c>
       <c r="C170" t="s">
-        <v>77</v>
+        <v>427</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B171" s="3">
-        <v>1001025176475</v>
+        <v>1001234146448</v>
       </c>
       <c r="C171" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B172" s="3">
-        <v>1001012456498</v>
+        <v>1001201976454</v>
       </c>
       <c r="C172" t="s">
-        <v>241</v>
+        <v>77</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B173" s="3">
-        <v>1001010036596</v>
+        <v>1001025176475</v>
       </c>
       <c r="C173" t="s">
-        <v>243</v>
+        <v>79</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B174" s="3">
-        <v>1001033856607</v>
+        <v>1001012456498</v>
       </c>
       <c r="C174" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B175" s="3">
-        <v>1001033856609</v>
+        <v>1001010036596</v>
       </c>
       <c r="C175" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B176" s="3">
-        <v>1001302276666</v>
+        <v>1001033856607</v>
       </c>
       <c r="C176" t="s">
-        <v>65</v>
+        <v>245</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B177" s="3">
-        <v>1001093345495</v>
+        <v>1001033856609</v>
       </c>
       <c r="C177" t="s">
-        <v>463</v>
+        <v>247</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B178" s="3">
-        <v>6550</v>
+        <v>1001302276666</v>
       </c>
       <c r="C178" t="s">
-        <v>253</v>
+        <v>65</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B179" s="3">
-        <v>1001304506684</v>
+        <v>1001093345495</v>
       </c>
       <c r="C179" t="s">
-        <v>62</v>
+        <v>463</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B180" s="3">
-        <v>1001010113248</v>
+        <v>6550</v>
       </c>
       <c r="C180" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>435</v>
+        <v>254</v>
       </c>
       <c r="B181" s="3">
-        <v>1001063926780</v>
+        <v>1001304506684</v>
       </c>
       <c r="C181" t="s">
-        <v>436</v>
+        <v>62</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B182" s="3">
-        <v>6586</v>
+        <v>1001010113248</v>
       </c>
       <c r="C182" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>259</v>
+        <v>435</v>
       </c>
       <c r="B183" s="3">
-        <v>1001303636467</v>
+        <v>1001063926780</v>
       </c>
       <c r="C183" t="s">
-        <v>260</v>
+        <v>436</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B184" s="3">
-        <v>1001304496701</v>
+        <v>6586</v>
       </c>
       <c r="C184" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B185" s="3">
-        <v>6144</v>
+        <v>1001303636467</v>
       </c>
       <c r="C185" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B186" s="3">
-        <v>1001022725819</v>
+        <v>1001304496701</v>
       </c>
       <c r="C186" t="s">
-        <v>225</v>
+        <v>264</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B187" s="3">
-        <v>1001022373812</v>
+        <v>6144</v>
       </c>
       <c r="C187" t="s">
-        <v>3</v>
+        <v>266</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B188" s="3">
-        <v>1001024906062</v>
+        <v>1001022725819</v>
       </c>
       <c r="C188" t="s">
-        <v>272</v>
+        <v>225</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B189" s="3">
-        <v>1001300386683</v>
+        <v>1001022373812</v>
       </c>
       <c r="C189" t="s">
-        <v>81</v>
+        <v>3</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B190" s="3">
-        <v>1001303986689</v>
+        <v>1001024906062</v>
       </c>
       <c r="C190" t="s">
-        <v>63</v>
+        <v>272</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B191" s="3">
-        <v>1001303056692</v>
+        <v>1001300386683</v>
       </c>
       <c r="C191" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B192" s="3">
-        <v>1001301876697</v>
+        <v>1001303986689</v>
       </c>
       <c r="C192" t="s">
-        <v>217</v>
+        <v>63</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B193" s="3">
-        <v>1001302276666</v>
+        <v>1001303056692</v>
       </c>
       <c r="C193" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B194" s="3">
-        <v>1001012634574</v>
+        <v>1001301876697</v>
       </c>
       <c r="C194" t="s">
-        <v>12</v>
+        <v>217</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B195" s="3">
-        <v>1001092485452</v>
+        <v>1001302276666</v>
       </c>
       <c r="C195" t="s">
-        <v>281</v>
+        <v>65</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B196" s="3">
-        <v>1001020966144</v>
+        <v>1001012634574</v>
       </c>
       <c r="C196" t="s">
-        <v>156</v>
+        <v>12</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B197" s="3">
-        <v>6586</v>
+        <v>1001092485452</v>
       </c>
       <c r="C197" t="s">
-        <v>258</v>
+        <v>281</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B198" s="3">
-        <v>1001304496701</v>
+        <v>1001020966144</v>
       </c>
       <c r="C198" t="s">
-        <v>264</v>
+        <v>156</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B199" s="3">
-        <v>1001063655015</v>
+        <v>6586</v>
       </c>
       <c r="C199" t="s">
-        <v>287</v>
+        <v>258</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B200" s="3">
-        <v>1001060763287</v>
+        <v>1001304496701</v>
       </c>
       <c r="C200" t="s">
-        <v>290</v>
+        <v>264</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="B201" s="3" t="s">
-        <v>300</v>
+        <v>286</v>
+      </c>
+      <c r="B201" s="3">
+        <v>1001063655015</v>
       </c>
       <c r="C201" t="s">
-        <v>172</v>
+        <v>287</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B202" s="3">
-        <v>1001032736550</v>
+        <v>1001060763287</v>
       </c>
       <c r="C202" t="s">
-        <v>253</v>
+        <v>290</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="B203" s="3">
-        <v>6758</v>
+        <v>291</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>300</v>
       </c>
       <c r="C203" t="s">
-        <v>294</v>
+        <v>172</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B204" s="3">
-        <v>1001020965976</v>
+        <v>1001032736550</v>
       </c>
       <c r="C204" t="s">
-        <v>296</v>
+        <v>253</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B205" s="3">
-        <v>1001215576586</v>
+        <v>6758</v>
       </c>
       <c r="C205" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B206" s="3">
-        <v>1001094896026</v>
+        <v>1001020965976</v>
       </c>
       <c r="C206" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>516</v>
+        <v>297</v>
       </c>
       <c r="B207" s="3">
         <v>1001215576586</v>
@@ -4425,128 +4434,128 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B208" s="3">
-        <v>1001215576586</v>
+        <v>1001094896026</v>
       </c>
       <c r="C208" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>305</v>
+        <v>516</v>
       </c>
       <c r="B209" s="3">
-        <v>1001092436470</v>
+        <v>1001215576586</v>
       </c>
       <c r="C209" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="B210" s="3">
-        <v>1001203146555</v>
+        <v>1001215576586</v>
       </c>
       <c r="C210" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="B211" s="3">
-        <v>1001014765992</v>
+        <v>1001092436470</v>
       </c>
       <c r="C211" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B212" s="3">
-        <v>1001014765992</v>
+        <v>1001203146555</v>
       </c>
       <c r="C212" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="B213" s="3">
-        <v>1001014765993</v>
+        <v>1001014765992</v>
       </c>
       <c r="C213" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B214" s="3">
-        <v>1001025166776</v>
+        <v>1001014765992</v>
       </c>
       <c r="C214" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B215" s="3">
-        <v>1001025506777</v>
+        <v>1001014765993</v>
       </c>
       <c r="C215" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>343</v>
+        <v>317</v>
       </c>
       <c r="B216" s="3">
-        <v>1001025546822</v>
+        <v>1001025166776</v>
       </c>
       <c r="C216" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
-        <v>344</v>
+        <v>319</v>
       </c>
       <c r="B217" s="3">
-        <v>1001025546822</v>
+        <v>1001025506777</v>
       </c>
       <c r="C217" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="B218" s="3">
         <v>1001025546822</v>
       </c>
       <c r="C218" t="s">
-        <v>575</v>
+        <v>322</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>321</v>
+        <v>344</v>
       </c>
       <c r="B219" s="3">
         <v>1001025546822</v>
@@ -4557,51 +4566,51 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>326</v>
+        <v>356</v>
       </c>
       <c r="B220" s="3">
-        <v>1001024976616</v>
+        <v>1001025546822</v>
       </c>
       <c r="C220" t="s">
-        <v>325</v>
+        <v>575</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="B221" s="3">
-        <v>1001010856747</v>
+        <v>1001025546822</v>
       </c>
       <c r="C221" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>406</v>
+        <v>326</v>
       </c>
       <c r="B222" s="3">
-        <v>1001223296919</v>
+        <v>1001024976616</v>
       </c>
       <c r="C222" t="s">
-        <v>409</v>
+        <v>325</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>73</v>
+        <v>328</v>
       </c>
       <c r="B223" s="3">
-        <v>1001223296919</v>
+        <v>1001010856747</v>
       </c>
       <c r="C223" t="s">
-        <v>409</v>
+        <v>327</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>237</v>
+        <v>406</v>
       </c>
       <c r="B224" s="3">
         <v>1001223296919</v>
@@ -4612,18 +4621,18 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>479</v>
+        <v>73</v>
       </c>
       <c r="B225" s="3">
         <v>1001223296919</v>
       </c>
       <c r="C225" t="s">
-        <v>495</v>
+        <v>409</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>501</v>
+        <v>237</v>
       </c>
       <c r="B226" s="3">
         <v>1001223296919</v>
@@ -4634,216 +4643,216 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
-        <v>329</v>
+        <v>479</v>
       </c>
       <c r="B227" s="3">
         <v>1001223296919</v>
       </c>
       <c r="C227" t="s">
-        <v>409</v>
+        <v>495</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>331</v>
+        <v>501</v>
       </c>
       <c r="B228" s="3">
-        <v>1001014765993</v>
+        <v>1001223296919</v>
       </c>
       <c r="C228" t="s">
-        <v>315</v>
+        <v>409</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B229" s="3">
-        <v>1001025166776</v>
+        <v>1001223296919</v>
       </c>
       <c r="C229" t="s">
-        <v>318</v>
+        <v>409</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B230" s="3">
-        <v>1001025506777</v>
+        <v>1001014765993</v>
       </c>
       <c r="C230" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B231" s="3">
-        <v>1001025526778</v>
+        <v>1001025166776</v>
       </c>
       <c r="C231" t="s">
-        <v>336</v>
+        <v>318</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B232" s="3">
-        <v>1001304236685</v>
+        <v>1001025506777</v>
       </c>
       <c r="C232" t="s">
-        <v>340</v>
+        <v>320</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>364</v>
+        <v>335</v>
       </c>
       <c r="B233" s="3">
-        <v>1001015496769</v>
+        <v>1001025526778</v>
       </c>
       <c r="C233" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="B234" s="3">
-        <v>1001015496769</v>
+        <v>1001304236685</v>
       </c>
       <c r="C234" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
-        <v>347</v>
+        <v>364</v>
       </c>
       <c r="B235" s="3">
-        <v>1001014766798</v>
+        <v>1001015496769</v>
       </c>
       <c r="C235" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="B236" s="3">
-        <v>1001015026797</v>
+        <v>1001015496769</v>
       </c>
       <c r="C236" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="B237" s="3">
-        <v>1001205386222</v>
+        <v>1001014766798</v>
       </c>
       <c r="C237" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="B238" s="3">
-        <v>1001092675224</v>
+        <v>1001015026797</v>
       </c>
       <c r="C238" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="B239" s="3">
-        <v>1001225406223</v>
+        <v>1001205386222</v>
       </c>
       <c r="C239" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="B240" s="3">
-        <v>1001300366790</v>
+        <v>1001092675224</v>
       </c>
       <c r="C240" t="s">
-        <v>379</v>
+        <v>358</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>497</v>
+        <v>365</v>
       </c>
       <c r="B241" s="3">
-        <v>1001304096792</v>
+        <v>1001225406223</v>
       </c>
       <c r="C241" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B242" s="3">
-        <v>1001304096792</v>
+        <v>1001300366790</v>
       </c>
       <c r="C242" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>371</v>
+        <v>497</v>
       </c>
       <c r="B243" s="3">
-        <v>1001303636793</v>
+        <v>1001304096792</v>
       </c>
       <c r="C243" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>417</v>
+        <v>370</v>
       </c>
       <c r="B244" s="3">
-        <v>1001303636794</v>
+        <v>1001304096792</v>
       </c>
       <c r="C244" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
-        <v>517</v>
+        <v>371</v>
       </c>
       <c r="B245" s="3">
-        <v>1001303636794</v>
+        <v>1001303636793</v>
       </c>
       <c r="C245" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
-        <v>372</v>
+        <v>417</v>
       </c>
       <c r="B246" s="3">
         <v>1001303636794</v>
@@ -4854,128 +4863,128 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
-        <v>373</v>
+        <v>517</v>
       </c>
       <c r="B247" s="3">
-        <v>1001302596795</v>
+        <v>1001303636794</v>
       </c>
       <c r="C247" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B248" s="3">
-        <v>1001302596796</v>
+        <v>1001303636794</v>
       </c>
       <c r="C248" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B249" s="3">
-        <v>1001300456804</v>
+        <v>1001302596795</v>
       </c>
       <c r="C249" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
-        <v>466</v>
+        <v>374</v>
       </c>
       <c r="B250" s="3">
-        <v>1001300366806</v>
+        <v>1001302596796</v>
       </c>
       <c r="C250" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B251" s="3">
-        <v>1001300366806</v>
+        <v>1001300456804</v>
       </c>
       <c r="C251" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
-        <v>377</v>
+        <v>466</v>
       </c>
       <c r="B252" s="3">
-        <v>1001300516803</v>
+        <v>1001300366806</v>
       </c>
       <c r="C252" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B253" s="3">
-        <v>1001300366807</v>
+        <v>1001300366806</v>
       </c>
       <c r="C253" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="B254" s="3">
-        <v>1001300366807</v>
+        <v>1001300516803</v>
       </c>
       <c r="C254" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="B255" s="3">
-        <v>1001300516785</v>
+        <v>1001300366807</v>
       </c>
       <c r="C255" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
-        <v>560</v>
+        <v>390</v>
       </c>
       <c r="B256" s="3">
-        <v>1001300456787</v>
+        <v>1001300366807</v>
       </c>
       <c r="C256" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
-        <v>576</v>
+        <v>392</v>
       </c>
       <c r="B257" s="3">
-        <v>1001300456787</v>
+        <v>1001300516785</v>
       </c>
       <c r="C257" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
-        <v>394</v>
+        <v>560</v>
       </c>
       <c r="B258" s="3">
         <v>1001300456787</v>
@@ -4986,84 +4995,84 @@
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
-        <v>396</v>
+        <v>576</v>
       </c>
       <c r="B259" s="3">
-        <v>1001303636793</v>
+        <v>1001300456787</v>
       </c>
       <c r="C259" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B260" s="3">
-        <v>1001302596795</v>
+        <v>1001300456787</v>
       </c>
       <c r="C260" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B261" s="3">
-        <v>1001012486332</v>
+        <v>1001303636793</v>
       </c>
       <c r="C261" t="s">
-        <v>399</v>
+        <v>382</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B262" s="3">
-        <v>1001012566345</v>
+        <v>1001302596795</v>
       </c>
       <c r="C262" t="s">
-        <v>401</v>
+        <v>384</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B263" s="3">
-        <v>1001031076528</v>
+        <v>1001012486332</v>
       </c>
       <c r="C263" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
-        <v>434</v>
+        <v>400</v>
       </c>
       <c r="B264" s="3">
-        <v>1001020836761</v>
+        <v>1001012566345</v>
       </c>
       <c r="C264" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
-        <v>439</v>
+        <v>403</v>
       </c>
       <c r="B265" s="3">
-        <v>1001020836761</v>
+        <v>1001031076528</v>
       </c>
       <c r="C265" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
-        <v>410</v>
+        <v>434</v>
       </c>
       <c r="B266" s="3">
         <v>1001020836761</v>
@@ -5074,29 +5083,29 @@
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="B267" s="3">
-        <v>1001020846764</v>
+        <v>1001020836761</v>
       </c>
       <c r="C267" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
-        <v>440</v>
+        <v>410</v>
       </c>
       <c r="B268" s="3">
-        <v>1001020846764</v>
+        <v>1001020836761</v>
       </c>
       <c r="C268" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
-        <v>412</v>
+        <v>430</v>
       </c>
       <c r="B269" s="3">
         <v>1001020846764</v>
@@ -5107,51 +5116,51 @@
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
-        <v>513</v>
+        <v>440</v>
       </c>
       <c r="B270" s="3">
-        <v>1001300366790</v>
+        <v>1001020846764</v>
       </c>
       <c r="C270" t="s">
-        <v>379</v>
+        <v>413</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B271" s="3">
-        <v>1001300366790</v>
+        <v>1001020846764</v>
       </c>
       <c r="C271" t="s">
-        <v>379</v>
+        <v>413</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
-        <v>369</v>
+        <v>513</v>
       </c>
       <c r="B272" s="3">
-        <v>1001304096791</v>
+        <v>1001300366790</v>
       </c>
       <c r="C272" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
-        <v>488</v>
+        <v>414</v>
       </c>
       <c r="B273" s="3">
-        <v>1001304096791</v>
+        <v>1001300366790</v>
       </c>
       <c r="C273" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
-        <v>415</v>
+        <v>369</v>
       </c>
       <c r="B274" s="3">
         <v>1001304096791</v>
@@ -5162,95 +5171,95 @@
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
-        <v>416</v>
+        <v>488</v>
       </c>
       <c r="B275" s="3">
-        <v>1001303636793</v>
+        <v>1001304096791</v>
       </c>
       <c r="C275" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B276" s="3">
-        <v>1001302596795</v>
+        <v>1001304096791</v>
       </c>
       <c r="C276" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B277" s="3">
-        <v>1001300516803</v>
+        <v>1001303636793</v>
       </c>
       <c r="C277" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B278" s="3">
-        <v>1001300456804</v>
+        <v>1001302596795</v>
       </c>
       <c r="C278" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B279" s="3">
-        <v>1001300366807</v>
+        <v>1001300516803</v>
       </c>
       <c r="C279" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B280" s="3">
-        <v>1001302596796</v>
+        <v>1001300456804</v>
       </c>
       <c r="C280" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
-        <v>472</v>
+        <v>421</v>
       </c>
       <c r="B281" s="3">
-        <v>1001023696765</v>
+        <v>1001300366807</v>
       </c>
       <c r="C281" t="s">
-        <v>425</v>
+        <v>389</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
-        <v>491</v>
+        <v>422</v>
       </c>
       <c r="B282" s="3">
-        <v>1001023696765</v>
+        <v>1001302596796</v>
       </c>
       <c r="C282" t="s">
-        <v>425</v>
+        <v>385</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
-        <v>424</v>
+        <v>472</v>
       </c>
       <c r="B283" s="3">
         <v>1001023696765</v>
@@ -5261,29 +5270,29 @@
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
-        <v>433</v>
+        <v>491</v>
       </c>
       <c r="B284" s="3">
-        <v>1001023696767</v>
+        <v>1001023696765</v>
       </c>
       <c r="C284" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
-        <v>441</v>
+        <v>424</v>
       </c>
       <c r="B285" s="3">
-        <v>1001023696767</v>
+        <v>1001023696765</v>
       </c>
       <c r="C285" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="B286" s="3">
         <v>1001023696767</v>
@@ -5294,62 +5303,62 @@
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="B287" s="3">
-        <v>1001024976829</v>
+        <v>1001023696767</v>
       </c>
       <c r="C287" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B288" s="3">
-        <v>1001024976829</v>
+        <v>1001023696767</v>
       </c>
       <c r="C288" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
-        <v>444</v>
+        <v>431</v>
       </c>
       <c r="B289" s="3">
-        <v>1001022376722</v>
+        <v>1001024976829</v>
       </c>
       <c r="C289" t="s">
-        <v>129</v>
+        <v>423</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
-        <v>471</v>
+        <v>432</v>
       </c>
       <c r="B290" s="3">
-        <v>1001020846762</v>
+        <v>1001024976829</v>
       </c>
       <c r="C290" t="s">
-        <v>446</v>
+        <v>423</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
-        <v>490</v>
+        <v>444</v>
       </c>
       <c r="B291" s="3">
-        <v>1001020846762</v>
+        <v>1001022376722</v>
       </c>
       <c r="C291" t="s">
-        <v>446</v>
+        <v>129</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
-        <v>445</v>
+        <v>471</v>
       </c>
       <c r="B292" s="3">
         <v>1001020846762</v>
@@ -5360,29 +5369,29 @@
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
-        <v>135</v>
+        <v>490</v>
       </c>
       <c r="B293" s="3">
-        <v>1001022656853</v>
+        <v>1001020846762</v>
       </c>
       <c r="C293" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
-        <v>512</v>
+        <v>445</v>
       </c>
       <c r="B294" s="3">
-        <v>1001022656853</v>
+        <v>1001020846762</v>
       </c>
       <c r="C294" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
-        <v>448</v>
+        <v>135</v>
       </c>
       <c r="B295" s="3">
         <v>1001022656853</v>
@@ -5393,40 +5402,40 @@
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
-        <v>454</v>
+        <v>512</v>
       </c>
       <c r="B296" s="3">
-        <v>1001022656852</v>
+        <v>1001022656853</v>
       </c>
       <c r="C296" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
-        <v>473</v>
+        <v>448</v>
       </c>
       <c r="B297" s="3">
-        <v>1001020836759</v>
+        <v>1001022656853</v>
       </c>
       <c r="C297" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
-        <v>489</v>
+        <v>454</v>
       </c>
       <c r="B298" s="3">
-        <v>1001020836759</v>
+        <v>1001022656852</v>
       </c>
       <c r="C298" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
-        <v>456</v>
+        <v>473</v>
       </c>
       <c r="B299" s="3">
         <v>1001020836759</v>
@@ -5437,84 +5446,84 @@
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
-        <v>458</v>
+        <v>489</v>
       </c>
       <c r="B300" s="3">
-        <v>1001023856870</v>
+        <v>1001020836759</v>
       </c>
       <c r="C300" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="B301" s="3">
-        <v>1001013956426</v>
+        <v>1001020836759</v>
       </c>
       <c r="C301" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
-        <v>476</v>
+        <v>458</v>
       </c>
       <c r="B302" s="3">
-        <v>1001093345495</v>
+        <v>1001023856870</v>
       </c>
       <c r="C302" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
-        <v>505</v>
+        <v>474</v>
       </c>
       <c r="B303" s="3">
-        <v>1001022656868</v>
+        <v>1001013956426</v>
       </c>
       <c r="C303" t="s">
-        <v>478</v>
+        <v>452</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B304" s="3">
-        <v>1001022656868</v>
+        <v>1001093345495</v>
       </c>
       <c r="C304" t="s">
-        <v>478</v>
+        <v>463</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
-        <v>178</v>
+        <v>505</v>
       </c>
       <c r="B305" s="3">
-        <v>1001034065698</v>
+        <v>1001022656868</v>
       </c>
       <c r="C305" t="s">
-        <v>450</v>
+        <v>478</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
-        <v>197</v>
+        <v>477</v>
       </c>
       <c r="B306" s="3">
-        <v>1001034065698</v>
+        <v>1001022656868</v>
       </c>
       <c r="C306" t="s">
-        <v>450</v>
+        <v>478</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
-        <v>503</v>
+        <v>178</v>
       </c>
       <c r="B307" s="3">
         <v>1001034065698</v>
@@ -5525,7 +5534,7 @@
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
-        <v>481</v>
+        <v>197</v>
       </c>
       <c r="B308" s="3">
         <v>1001034065698</v>
@@ -5536,62 +5545,62 @@
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
-        <v>482</v>
+        <v>503</v>
       </c>
       <c r="B309" s="3">
-        <v>1001084216206</v>
+        <v>1001034065698</v>
       </c>
       <c r="C309" t="s">
-        <v>408</v>
+        <v>450</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
       <c r="B310" s="3">
-        <v>1001015646861</v>
+        <v>1001034065698</v>
       </c>
       <c r="C310" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B311" s="3">
-        <v>1001015646861</v>
+        <v>1001084216206</v>
       </c>
       <c r="C311" t="s">
-        <v>447</v>
+        <v>408</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
-        <v>469</v>
+        <v>494</v>
       </c>
       <c r="B312" s="3">
-        <v>1001025176768</v>
+        <v>1001015646861</v>
       </c>
       <c r="C312" t="s">
-        <v>470</v>
+        <v>447</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="B313" s="3">
-        <v>1001025176768</v>
+        <v>1001015646861</v>
       </c>
       <c r="C313" t="s">
-        <v>470</v>
+        <v>447</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
-        <v>484</v>
+        <v>469</v>
       </c>
       <c r="B314" s="3">
         <v>1001025176768</v>
@@ -5602,29 +5611,29 @@
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
-        <v>468</v>
+        <v>492</v>
       </c>
       <c r="B315" s="3">
-        <v>1001025486770</v>
+        <v>1001025176768</v>
       </c>
       <c r="C315" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="B316" s="3">
-        <v>1001025486770</v>
+        <v>1001025176768</v>
       </c>
       <c r="C316" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
-        <v>485</v>
+        <v>468</v>
       </c>
       <c r="B317" s="3">
         <v>1001025486770</v>
@@ -5635,29 +5644,29 @@
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
-        <v>220</v>
+        <v>493</v>
       </c>
       <c r="B318" s="3">
-        <v>1001012816340</v>
+        <v>1001025486770</v>
       </c>
       <c r="C318" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
-        <v>507</v>
+        <v>485</v>
       </c>
       <c r="B319" s="3">
-        <v>1001012816340</v>
+        <v>1001025486770</v>
       </c>
       <c r="C319" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
-        <v>486</v>
+        <v>220</v>
       </c>
       <c r="B320" s="3">
         <v>1001012816340</v>
@@ -5668,29 +5677,29 @@
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
-        <v>330</v>
+        <v>507</v>
       </c>
       <c r="B321" s="3">
-        <v>1001203146834</v>
+        <v>1001012816340</v>
       </c>
       <c r="C321" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="B322" s="3">
-        <v>1001203146834</v>
+        <v>1001012816340</v>
       </c>
       <c r="C322" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
-        <v>504</v>
+        <v>330</v>
       </c>
       <c r="B323" s="3">
         <v>1001203146834</v>
@@ -5701,7 +5710,7 @@
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="B324" s="3">
         <v>1001203146834</v>
@@ -5712,73 +5721,73 @@
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="B325" s="3">
-        <v>1001300456788</v>
+        <v>1001203146834</v>
       </c>
       <c r="C325" t="s">
-        <v>500</v>
+        <v>453</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
-        <v>509</v>
+        <v>487</v>
       </c>
       <c r="B326" s="3">
-        <v>1001022556837</v>
+        <v>1001203146834</v>
       </c>
       <c r="C326" t="s">
-        <v>510</v>
+        <v>453</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="B327" s="3">
-        <v>1001300516786</v>
+        <v>1001300456788</v>
       </c>
       <c r="C327" t="s">
-        <v>515</v>
+        <v>500</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="B328" s="3">
-        <v>1001214196459</v>
+        <v>1001022556837</v>
       </c>
       <c r="C328" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
-        <v>572</v>
+        <v>514</v>
       </c>
       <c r="B329" s="3">
-        <v>1001092436495</v>
+        <v>1001300516786</v>
       </c>
       <c r="C329" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
-        <v>579</v>
+        <v>518</v>
       </c>
       <c r="B330" s="3">
-        <v>1001092436495</v>
+        <v>1001214196459</v>
       </c>
       <c r="C330" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
-        <v>520</v>
+        <v>572</v>
       </c>
       <c r="B331" s="3">
         <v>1001092436495</v>
@@ -5789,51 +5798,51 @@
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
-        <v>522</v>
+        <v>579</v>
       </c>
       <c r="B332" s="3">
-        <v>1001025526901</v>
+        <v>1001092436495</v>
       </c>
       <c r="C332" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="B333" s="3">
-        <v>1001025546931</v>
+        <v>1001092436495</v>
       </c>
       <c r="C333" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="B334" s="3">
-        <v>1001010016324</v>
+        <v>1001025526901</v>
       </c>
       <c r="C334" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
-        <v>564</v>
+        <v>524</v>
       </c>
       <c r="B335" s="3">
-        <v>1001010016324</v>
+        <v>1001025546931</v>
       </c>
       <c r="C335" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" s="2" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="B336" s="3">
         <v>1001010016324</v>
@@ -5844,29 +5853,29 @@
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
-        <v>531</v>
+        <v>564</v>
       </c>
       <c r="B337" s="3">
-        <v>1001025766909</v>
+        <v>1001010016324</v>
       </c>
       <c r="C337" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
-        <v>565</v>
+        <v>527</v>
       </c>
       <c r="B338" s="3">
-        <v>1001025766909</v>
+        <v>1001010016324</v>
       </c>
       <c r="C338" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="B339" s="3">
         <v>1001025766909</v>
@@ -5877,51 +5886,51 @@
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="B340" s="3">
-        <v>1001010014558</v>
+        <v>1001025766909</v>
       </c>
       <c r="C340" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B341" s="3">
-        <v>1001010014558</v>
+        <v>1001025766909</v>
       </c>
       <c r="C341" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" s="2" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="B342" s="3">
-        <v>1001012596802</v>
+        <v>1001010014558</v>
       </c>
       <c r="C342" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
-        <v>567</v>
+        <v>532</v>
       </c>
       <c r="B343" s="3">
-        <v>1001012596802</v>
+        <v>1001010014558</v>
       </c>
       <c r="C343" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="s">
-        <v>535</v>
+        <v>558</v>
       </c>
       <c r="B344" s="3">
         <v>1001012596802</v>
@@ -5932,29 +5941,29 @@
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
-        <v>553</v>
+        <v>567</v>
       </c>
       <c r="B345" s="3">
-        <v>1001012596801</v>
+        <v>1001012596802</v>
       </c>
       <c r="C345" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
-        <v>566</v>
+        <v>535</v>
       </c>
       <c r="B346" s="3">
-        <v>1001012596801</v>
+        <v>1001012596802</v>
       </c>
       <c r="C346" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" s="2" t="s">
-        <v>537</v>
+        <v>553</v>
       </c>
       <c r="B347" s="3">
         <v>1001012596801</v>
@@ -5965,149 +5974,171 @@
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" s="2" t="s">
-        <v>539</v>
+        <v>566</v>
       </c>
       <c r="B348" s="3">
-        <v>1001062353684</v>
+        <v>1001012596801</v>
       </c>
       <c r="C348" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" s="2" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B349" s="3">
-        <v>1001010014555</v>
+        <v>1001012596801</v>
       </c>
       <c r="C349" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" s="2" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="B350" s="3">
-        <v>1001083424691</v>
+        <v>1001062353684</v>
       </c>
       <c r="C350" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" s="2" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="B351" s="3">
-        <v>1001190765679</v>
+        <v>1001010014555</v>
       </c>
       <c r="C351" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B352" s="3">
-        <v>1001085636200</v>
+        <v>1001083424691</v>
       </c>
       <c r="C352" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="B353" s="3">
-        <v>1001020836253</v>
+        <v>1001190765679</v>
       </c>
       <c r="C353" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" s="2" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B354" s="3">
-        <v>1001084226492</v>
+        <v>1001085636200</v>
       </c>
       <c r="C354" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="B355" s="3">
-        <v>1001223296921</v>
+        <v>1001020836253</v>
       </c>
       <c r="C355" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="B356" s="3">
-        <v>1001053944786</v>
+        <v>1001084226492</v>
       </c>
       <c r="C356" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="B357" s="3">
-        <v>1001010016839</v>
+        <v>1001223296921</v>
       </c>
       <c r="C357" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="B358" s="3">
-        <v>1001023856869</v>
+        <v>1001053944786</v>
       </c>
       <c r="C358" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="B359" s="3">
-        <v>1001040434903</v>
+        <v>1001010016839</v>
       </c>
       <c r="C359" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="B360" s="3">
+        <v>1001023856869</v>
+      </c>
+      <c r="C360" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A361" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="B361" s="3">
+        <v>1001040434903</v>
+      </c>
+      <c r="C361" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A362" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="B360" s="3">
+      <c r="B362" s="3">
         <v>1001080216842</v>
       </c>
-      <c r="C360" t="s">
+      <c r="C362" t="s">
         <v>574</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C360" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
+  <autoFilter ref="A1:C362" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/moduls/1С.xlsx
+++ b/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\Останкино КИ\ostankino_ki\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A72CB603-780B-46E7-9AF4-F2E20F4B5D6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0530256F-D91E-4515-9CA4-D2E159B915ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$362</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$363</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="584">
   <si>
     <t>1С</t>
   </si>
@@ -771,9 +771,6 @@
     <t>6607 С ГОВЯДИНОЙ ПМ сар б/о мгс 1*3_45с</t>
   </si>
   <si>
-    <t>С ГОВЯДИНОЙ ПМ сар б/о мгс 1*3_45с</t>
-  </si>
-  <si>
     <t>6609 С ГОВЯДИНОЙ ПМ сар б/о мгс 0,4 кг_45с</t>
   </si>
   <si>
@@ -1783,6 +1780,12 @@
   </si>
   <si>
     <t>ВРЕМЯ ОЛИВЬЕ Папа может вар п/о</t>
+  </si>
+  <si>
+    <t>С ГОВЯДИНОЙ ОРИГИН. сар б/о мгс 1*3_45с</t>
+  </si>
+  <si>
+    <t>6866 ВЕТЧ.НЕЖНАЯ Коровино п/о_Маяк  ОСТАНКИНО</t>
   </si>
 </sst>
 </file>
@@ -2137,11 +2140,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F362"/>
+  <dimension ref="A1:F363"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2233,481 +2236,481 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B8" s="3">
         <v>1001095716865</v>
       </c>
       <c r="C8" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B9" s="3">
         <v>1001095716866</v>
       </c>
       <c r="C9" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B10" s="3">
-        <v>1001095716865</v>
+        <v>1001095716866</v>
       </c>
       <c r="C10" t="s">
-        <v>426</v>
+        <v>577</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B11" s="3">
         <v>1001095716866</v>
       </c>
       <c r="C11" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="B12" s="3">
         <v>1001095716866</v>
       </c>
       <c r="C12" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>15</v>
+        <v>579</v>
       </c>
       <c r="B13" s="3">
-        <v>1001095716865</v>
+        <v>1001095716866</v>
       </c>
       <c r="C13" t="s">
-        <v>426</v>
+        <v>577</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>192</v>
+        <v>15</v>
       </c>
       <c r="B14" s="3">
-        <v>1001092446756</v>
+        <v>1001095716865</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>425</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>17</v>
+        <v>192</v>
       </c>
       <c r="B15" s="3">
-        <v>1001012564813</v>
+        <v>1001092446756</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B16" s="3">
-        <v>1001060764993</v>
+        <v>1001012564813</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B17" s="3">
-        <v>1001010105246</v>
+        <v>1001060764993</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B18" s="3">
-        <v>1001010855247</v>
+        <v>1001010105246</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B19" s="3">
-        <v>1001015646861</v>
+        <v>1001010855247</v>
       </c>
       <c r="C19" t="s">
-        <v>447</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>502</v>
+        <v>25</v>
       </c>
       <c r="B20" s="3">
-        <v>1001015706862</v>
+        <v>1001015646861</v>
       </c>
       <c r="C20" t="s">
-        <v>460</v>
+        <v>446</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="B21" s="3">
         <v>1001015706862</v>
       </c>
       <c r="C21" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>27</v>
+        <v>497</v>
       </c>
       <c r="B22" s="3">
         <v>1001015706862</v>
       </c>
       <c r="C22" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B23" s="3">
-        <v>1001053985341</v>
+        <v>1001015706862</v>
       </c>
       <c r="C23" t="s">
-        <v>30</v>
+        <v>459</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B24" s="3"